--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -9393,22 +9393,22 @@
         <v>4.81</v>
       </c>
       <c r="AU42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV42">
+        <v>10</v>
+      </c>
+      <c r="AW42">
+        <v>8</v>
+      </c>
+      <c r="AX42">
         <v>7</v>
       </c>
-      <c r="AW42">
-        <v>5</v>
-      </c>
-      <c r="AX42">
-        <v>4</v>
-      </c>
       <c r="AY42">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ42">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BA42">
         <v>5</v>
@@ -9599,7 +9599,7 @@
         <v>3.96</v>
       </c>
       <c r="AU43">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV43">
         <v>4</v>
@@ -9611,7 +9611,7 @@
         <v>10</v>
       </c>
       <c r="AY43">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ43">
         <v>14</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="144">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -352,6 +352,9 @@
     <t>['31']</t>
   </si>
   <si>
+    <t>['8']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -440,6 +443,9 @@
   </si>
   <si>
     <t>['90+7']</t>
+  </si>
+  <si>
+    <t>['21', '33', '47']</t>
   </si>
 </sst>
 </file>
@@ -801,7 +807,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP43"/>
+  <dimension ref="A1:BP45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1266,7 +1272,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1550,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ4">
         <v>0</v>
@@ -1678,7 +1684,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -1756,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ5">
         <v>1.75</v>
@@ -1884,7 +1890,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -1965,7 +1971,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ6">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2296,7 +2302,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2708,7 +2714,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -2914,7 +2920,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3120,7 +3126,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3198,7 +3204,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ12">
         <v>3</v>
@@ -3326,7 +3332,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3407,7 +3413,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ13">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR13">
         <v>2.65</v>
@@ -3532,7 +3538,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3738,7 +3744,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4356,7 +4362,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4849,7 +4855,7 @@
         <v>1</v>
       </c>
       <c r="AQ20">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR20">
         <v>2.07</v>
@@ -5052,10 +5058,10 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ21">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR21">
         <v>2.61</v>
@@ -5180,7 +5186,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5386,7 +5392,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5592,7 +5598,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -5798,7 +5804,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6082,7 +6088,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ26">
         <v>0.33</v>
@@ -6210,7 +6216,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6416,7 +6422,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6700,7 +6706,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ29">
         <v>0</v>
@@ -6828,7 +6834,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6909,7 +6915,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ30">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR30">
         <v>1.13</v>
@@ -7034,7 +7040,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7115,7 +7121,7 @@
         <v>2</v>
       </c>
       <c r="AQ31">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR31">
         <v>2.12</v>
@@ -7240,7 +7246,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7318,7 +7324,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ32">
         <v>3</v>
@@ -7446,7 +7452,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7527,7 +7533,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ33">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR33">
         <v>1.95</v>
@@ -7652,7 +7658,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -7858,7 +7864,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8064,7 +8070,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q36">
         <v>1.45</v>
@@ -8142,7 +8148,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ36">
         <v>0.33</v>
@@ -8476,7 +8482,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8682,7 +8688,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -8888,7 +8894,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -8966,7 +8972,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ40">
         <v>2.2</v>
@@ -9094,7 +9100,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9175,7 +9181,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ41">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR41">
         <v>1.7</v>
@@ -9300,7 +9306,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9506,7 +9512,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9587,7 +9593,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ43">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR43">
         <v>1.92</v>
@@ -9662,6 +9668,418 @@
         <v>0</v>
       </c>
       <c r="BP43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7325175</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45413.35416666666</v>
+      </c>
+      <c r="F44">
+        <v>21</v>
+      </c>
+      <c r="G44" t="s">
+        <v>72</v>
+      </c>
+      <c r="H44" t="s">
+        <v>77</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44" t="s">
+        <v>112</v>
+      </c>
+      <c r="P44" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q44">
+        <v>2.05</v>
+      </c>
+      <c r="R44">
+        <v>2.44</v>
+      </c>
+      <c r="S44">
+        <v>5.88</v>
+      </c>
+      <c r="T44">
+        <v>1.32</v>
+      </c>
+      <c r="U44">
+        <v>3.03</v>
+      </c>
+      <c r="V44">
+        <v>2.53</v>
+      </c>
+      <c r="W44">
+        <v>1.45</v>
+      </c>
+      <c r="X44">
+        <v>6.25</v>
+      </c>
+      <c r="Y44">
+        <v>1.1</v>
+      </c>
+      <c r="Z44">
+        <v>1.45</v>
+      </c>
+      <c r="AA44">
+        <v>3.9</v>
+      </c>
+      <c r="AB44">
+        <v>5.25</v>
+      </c>
+      <c r="AC44">
+        <v>1.01</v>
+      </c>
+      <c r="AD44">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE44">
+        <v>1.23</v>
+      </c>
+      <c r="AF44">
+        <v>3.69</v>
+      </c>
+      <c r="AG44">
+        <v>1.62</v>
+      </c>
+      <c r="AH44">
+        <v>1.93</v>
+      </c>
+      <c r="AI44">
+        <v>1.81</v>
+      </c>
+      <c r="AJ44">
+        <v>1.85</v>
+      </c>
+      <c r="AK44">
+        <v>1.11</v>
+      </c>
+      <c r="AL44">
+        <v>1.19</v>
+      </c>
+      <c r="AM44">
+        <v>2.35</v>
+      </c>
+      <c r="AN44">
+        <v>2.5</v>
+      </c>
+      <c r="AO44">
+        <v>1.4</v>
+      </c>
+      <c r="AP44">
+        <v>2.6</v>
+      </c>
+      <c r="AQ44">
+        <v>1.17</v>
+      </c>
+      <c r="AR44">
+        <v>2.3</v>
+      </c>
+      <c r="AS44">
+        <v>1.98</v>
+      </c>
+      <c r="AT44">
+        <v>4.28</v>
+      </c>
+      <c r="AU44">
+        <v>7</v>
+      </c>
+      <c r="AV44">
+        <v>7</v>
+      </c>
+      <c r="AW44">
+        <v>6</v>
+      </c>
+      <c r="AX44">
+        <v>1</v>
+      </c>
+      <c r="AY44">
+        <v>13</v>
+      </c>
+      <c r="AZ44">
+        <v>8</v>
+      </c>
+      <c r="BA44">
+        <v>4</v>
+      </c>
+      <c r="BB44">
+        <v>6</v>
+      </c>
+      <c r="BC44">
+        <v>10</v>
+      </c>
+      <c r="BD44">
+        <v>0</v>
+      </c>
+      <c r="BE44">
+        <v>0</v>
+      </c>
+      <c r="BF44">
+        <v>0</v>
+      </c>
+      <c r="BG44">
+        <v>0</v>
+      </c>
+      <c r="BH44">
+        <v>0</v>
+      </c>
+      <c r="BI44">
+        <v>0</v>
+      </c>
+      <c r="BJ44">
+        <v>0</v>
+      </c>
+      <c r="BK44">
+        <v>0</v>
+      </c>
+      <c r="BL44">
+        <v>0</v>
+      </c>
+      <c r="BM44">
+        <v>0</v>
+      </c>
+      <c r="BN44">
+        <v>0</v>
+      </c>
+      <c r="BO44">
+        <v>0</v>
+      </c>
+      <c r="BP44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7325176</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45413.54166666666</v>
+      </c>
+      <c r="F45">
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>73</v>
+      </c>
+      <c r="H45" t="s">
+        <v>70</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>3</v>
+      </c>
+      <c r="N45">
+        <v>3</v>
+      </c>
+      <c r="O45" t="s">
+        <v>81</v>
+      </c>
+      <c r="P45" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q45">
+        <v>4.33</v>
+      </c>
+      <c r="R45">
+        <v>2.38</v>
+      </c>
+      <c r="S45">
+        <v>2.2</v>
+      </c>
+      <c r="T45">
+        <v>1.32</v>
+      </c>
+      <c r="U45">
+        <v>2.95</v>
+      </c>
+      <c r="V45">
+        <v>2.3</v>
+      </c>
+      <c r="W45">
+        <v>1.52</v>
+      </c>
+      <c r="X45">
+        <v>5</v>
+      </c>
+      <c r="Y45">
+        <v>1.12</v>
+      </c>
+      <c r="Z45">
+        <v>6.5</v>
+      </c>
+      <c r="AA45">
+        <v>4.5</v>
+      </c>
+      <c r="AB45">
+        <v>1.4</v>
+      </c>
+      <c r="AC45">
+        <v>1.03</v>
+      </c>
+      <c r="AD45">
+        <v>11</v>
+      </c>
+      <c r="AE45">
+        <v>1.2</v>
+      </c>
+      <c r="AF45">
+        <v>4.33</v>
+      </c>
+      <c r="AG45">
+        <v>1.6</v>
+      </c>
+      <c r="AH45">
+        <v>2.2</v>
+      </c>
+      <c r="AI45">
+        <v>1.62</v>
+      </c>
+      <c r="AJ45">
+        <v>2.2</v>
+      </c>
+      <c r="AK45">
+        <v>2.2</v>
+      </c>
+      <c r="AL45">
+        <v>1.22</v>
+      </c>
+      <c r="AM45">
+        <v>1.17</v>
+      </c>
+      <c r="AN45">
+        <v>0.8</v>
+      </c>
+      <c r="AO45">
+        <v>1.25</v>
+      </c>
+      <c r="AP45">
+        <v>0.67</v>
+      </c>
+      <c r="AQ45">
+        <v>1.6</v>
+      </c>
+      <c r="AR45">
+        <v>1.38</v>
+      </c>
+      <c r="AS45">
+        <v>1.62</v>
+      </c>
+      <c r="AT45">
+        <v>3</v>
+      </c>
+      <c r="AU45">
+        <v>2</v>
+      </c>
+      <c r="AV45">
+        <v>7</v>
+      </c>
+      <c r="AW45">
+        <v>7</v>
+      </c>
+      <c r="AX45">
+        <v>5</v>
+      </c>
+      <c r="AY45">
+        <v>9</v>
+      </c>
+      <c r="AZ45">
+        <v>12</v>
+      </c>
+      <c r="BA45">
+        <v>4</v>
+      </c>
+      <c r="BB45">
+        <v>10</v>
+      </c>
+      <c r="BC45">
+        <v>14</v>
+      </c>
+      <c r="BD45">
+        <v>0</v>
+      </c>
+      <c r="BE45">
+        <v>0</v>
+      </c>
+      <c r="BF45">
+        <v>0</v>
+      </c>
+      <c r="BG45">
+        <v>0</v>
+      </c>
+      <c r="BH45">
+        <v>0</v>
+      </c>
+      <c r="BI45">
+        <v>0</v>
+      </c>
+      <c r="BJ45">
+        <v>0</v>
+      </c>
+      <c r="BK45">
+        <v>0</v>
+      </c>
+      <c r="BL45">
+        <v>0</v>
+      </c>
+      <c r="BM45">
+        <v>0</v>
+      </c>
+      <c r="BN45">
+        <v>0</v>
+      </c>
+      <c r="BO45">
+        <v>0</v>
+      </c>
+      <c r="BP45">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -10017,22 +10017,22 @@
         <v>3</v>
       </c>
       <c r="AU45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV45">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AW45">
         <v>7</v>
       </c>
       <c r="AX45">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY45">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ45">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BA45">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="148">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -355,6 +355,15 @@
     <t>['8']</t>
   </si>
   <si>
+    <t>['16', '30', '35', '81']</t>
+  </si>
+  <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>['43', '61']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -446,6 +455,9 @@
   </si>
   <si>
     <t>['21', '33', '47']</t>
+  </si>
+  <si>
+    <t>['23', '34']</t>
   </si>
 </sst>
 </file>
@@ -807,7 +819,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP45"/>
+  <dimension ref="A1:BP49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1272,7 +1284,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1684,7 +1696,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -1765,7 +1777,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ5">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1890,7 +1902,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2177,7 +2189,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2302,7 +2314,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2586,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ9">
         <v>0</v>
@@ -2714,7 +2726,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -2792,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ10">
         <v>0</v>
@@ -2920,7 +2932,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3001,7 +3013,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ11">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR11">
         <v>1.79</v>
@@ -3126,7 +3138,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3332,7 +3344,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3410,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ13">
         <v>1.6</v>
@@ -3538,7 +3550,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3616,10 +3628,10 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ14">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3744,7 +3756,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4028,7 +4040,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ16">
         <v>2.2</v>
@@ -4237,7 +4249,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ17">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>0.95</v>
@@ -4362,7 +4374,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4646,7 +4658,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ19">
         <v>0</v>
@@ -5186,7 +5198,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5264,10 +5276,10 @@
         <v>2</v>
       </c>
       <c r="AP22">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ22">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR22">
         <v>0.74</v>
@@ -5392,7 +5404,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5470,7 +5482,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ23">
         <v>3</v>
@@ -5598,7 +5610,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -5676,7 +5688,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -5804,7 +5816,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6091,7 +6103,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ26">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR26">
         <v>1.42</v>
@@ -6216,7 +6228,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6422,7 +6434,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6500,10 +6512,10 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ28">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>1.8</v>
@@ -6834,7 +6846,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7040,7 +7052,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7118,7 +7130,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ31">
         <v>1.17</v>
@@ -7246,7 +7258,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7452,7 +7464,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7658,7 +7670,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -7736,10 +7748,10 @@
         <v>0.67</v>
       </c>
       <c r="AP34">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ34">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR34">
         <v>1.08</v>
@@ -7864,7 +7876,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -7942,10 +7954,10 @@
         <v>1.33</v>
       </c>
       <c r="AP35">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ35">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR35">
         <v>2.56</v>
@@ -8070,7 +8082,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q36">
         <v>1.45</v>
@@ -8151,7 +8163,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ36">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR36">
         <v>2.43</v>
@@ -8482,7 +8494,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8688,7 +8700,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -8894,7 +8906,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9100,7 +9112,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9306,7 +9318,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9512,7 +9524,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9590,7 +9602,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ43">
         <v>1.17</v>
@@ -9924,7 +9936,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10080,6 +10092,830 @@
         <v>0</v>
       </c>
       <c r="BP45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7325177</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45415.54166666666</v>
+      </c>
+      <c r="F46">
+        <v>9</v>
+      </c>
+      <c r="G46" t="s">
+        <v>76</v>
+      </c>
+      <c r="H46" t="s">
+        <v>75</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46">
+        <v>5</v>
+      </c>
+      <c r="L46">
+        <v>4</v>
+      </c>
+      <c r="M46">
+        <v>2</v>
+      </c>
+      <c r="N46">
+        <v>6</v>
+      </c>
+      <c r="O46" t="s">
+        <v>113</v>
+      </c>
+      <c r="P46" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q46">
+        <v>2.2</v>
+      </c>
+      <c r="R46">
+        <v>2.5</v>
+      </c>
+      <c r="S46">
+        <v>4</v>
+      </c>
+      <c r="T46">
+        <v>1.22</v>
+      </c>
+      <c r="U46">
+        <v>3.75</v>
+      </c>
+      <c r="V46">
+        <v>2.21</v>
+      </c>
+      <c r="W46">
+        <v>1.61</v>
+      </c>
+      <c r="X46">
+        <v>5</v>
+      </c>
+      <c r="Y46">
+        <v>1.14</v>
+      </c>
+      <c r="Z46">
+        <v>1.61</v>
+      </c>
+      <c r="AA46">
+        <v>3.8</v>
+      </c>
+      <c r="AB46">
+        <v>4</v>
+      </c>
+      <c r="AC46">
+        <v>1.02</v>
+      </c>
+      <c r="AD46">
+        <v>10</v>
+      </c>
+      <c r="AE46">
+        <v>1.12</v>
+      </c>
+      <c r="AF46">
+        <v>4.9</v>
+      </c>
+      <c r="AG46">
+        <v>1.57</v>
+      </c>
+      <c r="AH46">
+        <v>2.25</v>
+      </c>
+      <c r="AI46">
+        <v>1.57</v>
+      </c>
+      <c r="AJ46">
+        <v>2.3</v>
+      </c>
+      <c r="AK46">
+        <v>1.27</v>
+      </c>
+      <c r="AL46">
+        <v>1.18</v>
+      </c>
+      <c r="AM46">
+        <v>1.9</v>
+      </c>
+      <c r="AN46">
+        <v>2</v>
+      </c>
+      <c r="AO46">
+        <v>1.75</v>
+      </c>
+      <c r="AP46">
+        <v>2.25</v>
+      </c>
+      <c r="AQ46">
+        <v>1.4</v>
+      </c>
+      <c r="AR46">
+        <v>1.97</v>
+      </c>
+      <c r="AS46">
+        <v>1.75</v>
+      </c>
+      <c r="AT46">
+        <v>3.72</v>
+      </c>
+      <c r="AU46">
+        <v>8</v>
+      </c>
+      <c r="AV46">
+        <v>6</v>
+      </c>
+      <c r="AW46">
+        <v>6</v>
+      </c>
+      <c r="AX46">
+        <v>6</v>
+      </c>
+      <c r="AY46">
+        <v>14</v>
+      </c>
+      <c r="AZ46">
+        <v>12</v>
+      </c>
+      <c r="BA46">
+        <v>5</v>
+      </c>
+      <c r="BB46">
+        <v>1</v>
+      </c>
+      <c r="BC46">
+        <v>6</v>
+      </c>
+      <c r="BD46">
+        <v>0</v>
+      </c>
+      <c r="BE46">
+        <v>0</v>
+      </c>
+      <c r="BF46">
+        <v>0</v>
+      </c>
+      <c r="BG46">
+        <v>0</v>
+      </c>
+      <c r="BH46">
+        <v>0</v>
+      </c>
+      <c r="BI46">
+        <v>0</v>
+      </c>
+      <c r="BJ46">
+        <v>0</v>
+      </c>
+      <c r="BK46">
+        <v>0</v>
+      </c>
+      <c r="BL46">
+        <v>0</v>
+      </c>
+      <c r="BM46">
+        <v>0</v>
+      </c>
+      <c r="BN46">
+        <v>0</v>
+      </c>
+      <c r="BO46">
+        <v>0</v>
+      </c>
+      <c r="BP46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7325178</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45416.35416666666</v>
+      </c>
+      <c r="F47">
+        <v>9</v>
+      </c>
+      <c r="G47" t="s">
+        <v>79</v>
+      </c>
+      <c r="H47" t="s">
+        <v>71</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>2</v>
+      </c>
+      <c r="O47" t="s">
+        <v>114</v>
+      </c>
+      <c r="P47" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q47">
+        <v>3.1</v>
+      </c>
+      <c r="R47">
+        <v>2.4</v>
+      </c>
+      <c r="S47">
+        <v>2.75</v>
+      </c>
+      <c r="T47">
+        <v>1.25</v>
+      </c>
+      <c r="U47">
+        <v>3.5</v>
+      </c>
+      <c r="V47">
+        <v>2.19</v>
+      </c>
+      <c r="W47">
+        <v>1.63</v>
+      </c>
+      <c r="X47">
+        <v>4.75</v>
+      </c>
+      <c r="Y47">
+        <v>1.15</v>
+      </c>
+      <c r="Z47">
+        <v>4</v>
+      </c>
+      <c r="AA47">
+        <v>3.5</v>
+      </c>
+      <c r="AB47">
+        <v>1.73</v>
+      </c>
+      <c r="AC47">
+        <v>1.02</v>
+      </c>
+      <c r="AD47">
+        <v>10.25</v>
+      </c>
+      <c r="AE47">
+        <v>1.13</v>
+      </c>
+      <c r="AF47">
+        <v>5</v>
+      </c>
+      <c r="AG47">
+        <v>1.45</v>
+      </c>
+      <c r="AH47">
+        <v>2.56</v>
+      </c>
+      <c r="AI47">
+        <v>1.44</v>
+      </c>
+      <c r="AJ47">
+        <v>2.7</v>
+      </c>
+      <c r="AK47">
+        <v>1.65</v>
+      </c>
+      <c r="AL47">
+        <v>1.23</v>
+      </c>
+      <c r="AM47">
+        <v>1.38</v>
+      </c>
+      <c r="AN47">
+        <v>1.33</v>
+      </c>
+      <c r="AO47">
+        <v>1</v>
+      </c>
+      <c r="AP47">
+        <v>1.25</v>
+      </c>
+      <c r="AQ47">
+        <v>1</v>
+      </c>
+      <c r="AR47">
+        <v>1.09</v>
+      </c>
+      <c r="AS47">
+        <v>1.65</v>
+      </c>
+      <c r="AT47">
+        <v>2.74</v>
+      </c>
+      <c r="AU47">
+        <v>5</v>
+      </c>
+      <c r="AV47">
+        <v>5</v>
+      </c>
+      <c r="AW47">
+        <v>7</v>
+      </c>
+      <c r="AX47">
+        <v>7</v>
+      </c>
+      <c r="AY47">
+        <v>12</v>
+      </c>
+      <c r="AZ47">
+        <v>12</v>
+      </c>
+      <c r="BA47">
+        <v>4</v>
+      </c>
+      <c r="BB47">
+        <v>8</v>
+      </c>
+      <c r="BC47">
+        <v>12</v>
+      </c>
+      <c r="BD47">
+        <v>0</v>
+      </c>
+      <c r="BE47">
+        <v>0</v>
+      </c>
+      <c r="BF47">
+        <v>0</v>
+      </c>
+      <c r="BG47">
+        <v>0</v>
+      </c>
+      <c r="BH47">
+        <v>0</v>
+      </c>
+      <c r="BI47">
+        <v>0</v>
+      </c>
+      <c r="BJ47">
+        <v>0</v>
+      </c>
+      <c r="BK47">
+        <v>0</v>
+      </c>
+      <c r="BL47">
+        <v>0</v>
+      </c>
+      <c r="BM47">
+        <v>0</v>
+      </c>
+      <c r="BN47">
+        <v>0</v>
+      </c>
+      <c r="BO47">
+        <v>0</v>
+      </c>
+      <c r="BP47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7325179</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45416.45833333334</v>
+      </c>
+      <c r="F48">
+        <v>9</v>
+      </c>
+      <c r="G48" t="s">
+        <v>78</v>
+      </c>
+      <c r="H48" t="s">
+        <v>74</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48" t="s">
+        <v>81</v>
+      </c>
+      <c r="P48" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q48">
+        <v>2.75</v>
+      </c>
+      <c r="R48">
+        <v>2.5</v>
+      </c>
+      <c r="S48">
+        <v>2.75</v>
+      </c>
+      <c r="T48">
+        <v>1.25</v>
+      </c>
+      <c r="U48">
+        <v>3.45</v>
+      </c>
+      <c r="V48">
+        <v>2.13</v>
+      </c>
+      <c r="W48">
+        <v>1.64</v>
+      </c>
+      <c r="X48">
+        <v>4.5</v>
+      </c>
+      <c r="Y48">
+        <v>1.16</v>
+      </c>
+      <c r="Z48">
+        <v>2.2</v>
+      </c>
+      <c r="AA48">
+        <v>3.15</v>
+      </c>
+      <c r="AB48">
+        <v>2.85</v>
+      </c>
+      <c r="AC48">
+        <v>1.01</v>
+      </c>
+      <c r="AD48">
+        <v>10.75</v>
+      </c>
+      <c r="AE48">
+        <v>1.11</v>
+      </c>
+      <c r="AF48">
+        <v>5.25</v>
+      </c>
+      <c r="AG48">
+        <v>1.8</v>
+      </c>
+      <c r="AH48">
+        <v>1.91</v>
+      </c>
+      <c r="AI48">
+        <v>1.4</v>
+      </c>
+      <c r="AJ48">
+        <v>2.85</v>
+      </c>
+      <c r="AK48">
+        <v>1.4</v>
+      </c>
+      <c r="AL48">
+        <v>1.23</v>
+      </c>
+      <c r="AM48">
+        <v>1.6</v>
+      </c>
+      <c r="AN48">
+        <v>1.25</v>
+      </c>
+      <c r="AO48">
+        <v>0.33</v>
+      </c>
+      <c r="AP48">
+        <v>1.2</v>
+      </c>
+      <c r="AQ48">
+        <v>0.5</v>
+      </c>
+      <c r="AR48">
+        <v>1.86</v>
+      </c>
+      <c r="AS48">
+        <v>1.15</v>
+      </c>
+      <c r="AT48">
+        <v>3.01</v>
+      </c>
+      <c r="AU48">
+        <v>6</v>
+      </c>
+      <c r="AV48">
+        <v>4</v>
+      </c>
+      <c r="AW48">
+        <v>11</v>
+      </c>
+      <c r="AX48">
+        <v>3</v>
+      </c>
+      <c r="AY48">
+        <v>17</v>
+      </c>
+      <c r="AZ48">
+        <v>7</v>
+      </c>
+      <c r="BA48">
+        <v>7</v>
+      </c>
+      <c r="BB48">
+        <v>6</v>
+      </c>
+      <c r="BC48">
+        <v>13</v>
+      </c>
+      <c r="BD48">
+        <v>0</v>
+      </c>
+      <c r="BE48">
+        <v>0</v>
+      </c>
+      <c r="BF48">
+        <v>0</v>
+      </c>
+      <c r="BG48">
+        <v>0</v>
+      </c>
+      <c r="BH48">
+        <v>0</v>
+      </c>
+      <c r="BI48">
+        <v>0</v>
+      </c>
+      <c r="BJ48">
+        <v>0</v>
+      </c>
+      <c r="BK48">
+        <v>0</v>
+      </c>
+      <c r="BL48">
+        <v>0</v>
+      </c>
+      <c r="BM48">
+        <v>0</v>
+      </c>
+      <c r="BN48">
+        <v>0</v>
+      </c>
+      <c r="BO48">
+        <v>0</v>
+      </c>
+      <c r="BP48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7325181</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45416.54166666666</v>
+      </c>
+      <c r="F49">
+        <v>9</v>
+      </c>
+      <c r="G49" t="s">
+        <v>77</v>
+      </c>
+      <c r="H49" t="s">
+        <v>73</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>2</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="O49" t="s">
+        <v>115</v>
+      </c>
+      <c r="P49" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q49">
+        <v>2.1</v>
+      </c>
+      <c r="R49">
+        <v>2.4</v>
+      </c>
+      <c r="S49">
+        <v>4.5</v>
+      </c>
+      <c r="T49">
+        <v>1.25</v>
+      </c>
+      <c r="U49">
+        <v>3.6</v>
+      </c>
+      <c r="V49">
+        <v>2.36</v>
+      </c>
+      <c r="W49">
+        <v>1.54</v>
+      </c>
+      <c r="X49">
+        <v>5.2</v>
+      </c>
+      <c r="Y49">
+        <v>1.12</v>
+      </c>
+      <c r="Z49">
+        <v>1.45</v>
+      </c>
+      <c r="AA49">
+        <v>3.52</v>
+      </c>
+      <c r="AB49">
+        <v>4.66</v>
+      </c>
+      <c r="AC49">
+        <v>1.03</v>
+      </c>
+      <c r="AD49">
+        <v>12</v>
+      </c>
+      <c r="AE49">
+        <v>1.18</v>
+      </c>
+      <c r="AF49">
+        <v>4.5</v>
+      </c>
+      <c r="AG49">
+        <v>1.56</v>
+      </c>
+      <c r="AH49">
+        <v>2.03</v>
+      </c>
+      <c r="AI49">
+        <v>1.65</v>
+      </c>
+      <c r="AJ49">
+        <v>2.15</v>
+      </c>
+      <c r="AK49">
+        <v>1.13</v>
+      </c>
+      <c r="AL49">
+        <v>1.2</v>
+      </c>
+      <c r="AM49">
+        <v>2.25</v>
+      </c>
+      <c r="AN49">
+        <v>2.25</v>
+      </c>
+      <c r="AO49">
+        <v>1.25</v>
+      </c>
+      <c r="AP49">
+        <v>2.4</v>
+      </c>
+      <c r="AQ49">
+        <v>1</v>
+      </c>
+      <c r="AR49">
+        <v>2.56</v>
+      </c>
+      <c r="AS49">
+        <v>1.49</v>
+      </c>
+      <c r="AT49">
+        <v>4.05</v>
+      </c>
+      <c r="AU49">
+        <v>4</v>
+      </c>
+      <c r="AV49">
+        <v>2</v>
+      </c>
+      <c r="AW49">
+        <v>17</v>
+      </c>
+      <c r="AX49">
+        <v>4</v>
+      </c>
+      <c r="AY49">
+        <v>21</v>
+      </c>
+      <c r="AZ49">
+        <v>6</v>
+      </c>
+      <c r="BA49">
+        <v>8</v>
+      </c>
+      <c r="BB49">
+        <v>3</v>
+      </c>
+      <c r="BC49">
+        <v>11</v>
+      </c>
+      <c r="BD49">
+        <v>0</v>
+      </c>
+      <c r="BE49">
+        <v>0</v>
+      </c>
+      <c r="BF49">
+        <v>0</v>
+      </c>
+      <c r="BG49">
+        <v>0</v>
+      </c>
+      <c r="BH49">
+        <v>0</v>
+      </c>
+      <c r="BI49">
+        <v>0</v>
+      </c>
+      <c r="BJ49">
+        <v>0</v>
+      </c>
+      <c r="BK49">
+        <v>0</v>
+      </c>
+      <c r="BL49">
+        <v>0</v>
+      </c>
+      <c r="BM49">
+        <v>0</v>
+      </c>
+      <c r="BN49">
+        <v>0</v>
+      </c>
+      <c r="BO49">
+        <v>0</v>
+      </c>
+      <c r="BP49">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="148">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -819,7 +819,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP49"/>
+  <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ2">
         <v>0</v>
@@ -2395,7 +2395,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ8">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR8">
         <v>1.63</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -3219,7 +3219,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ12">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR12">
         <v>1.76</v>
@@ -5485,7 +5485,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ23">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR23">
         <v>2.56</v>
@@ -5894,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ25">
         <v>0</v>
@@ -7339,7 +7339,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ32">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR32">
         <v>1.47</v>
@@ -7542,7 +7542,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ33">
         <v>1.17</v>
@@ -8572,7 +8572,7 @@
         <v>2.33</v>
       </c>
       <c r="AP38">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ38">
         <v>2.2</v>
@@ -9399,7 +9399,7 @@
         <v>1</v>
       </c>
       <c r="AQ42">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR42">
         <v>2.19</v>
@@ -10916,6 +10916,212 @@
         <v>0</v>
       </c>
       <c r="BP49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7325180</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45417.35416666666</v>
+      </c>
+      <c r="F50">
+        <v>9</v>
+      </c>
+      <c r="G50" t="s">
+        <v>70</v>
+      </c>
+      <c r="H50" t="s">
+        <v>72</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50" t="s">
+        <v>91</v>
+      </c>
+      <c r="P50" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q50">
+        <v>4.33</v>
+      </c>
+      <c r="R50">
+        <v>2.5</v>
+      </c>
+      <c r="S50">
+        <v>2.05</v>
+      </c>
+      <c r="T50">
+        <v>1.23</v>
+      </c>
+      <c r="U50">
+        <v>3.76</v>
+      </c>
+      <c r="V50">
+        <v>2.11</v>
+      </c>
+      <c r="W50">
+        <v>1.67</v>
+      </c>
+      <c r="X50">
+        <v>4.56</v>
+      </c>
+      <c r="Y50">
+        <v>1.16</v>
+      </c>
+      <c r="Z50">
+        <v>5.13</v>
+      </c>
+      <c r="AA50">
+        <v>4.35</v>
+      </c>
+      <c r="AB50">
+        <v>1.47</v>
+      </c>
+      <c r="AC50">
+        <v>1.02</v>
+      </c>
+      <c r="AD50">
+        <v>10.25</v>
+      </c>
+      <c r="AE50">
+        <v>1.11</v>
+      </c>
+      <c r="AF50">
+        <v>5.25</v>
+      </c>
+      <c r="AG50">
+        <v>1.5</v>
+      </c>
+      <c r="AH50">
+        <v>2.41</v>
+      </c>
+      <c r="AI50">
+        <v>1.47</v>
+      </c>
+      <c r="AJ50">
+        <v>2.55</v>
+      </c>
+      <c r="AK50">
+        <v>2.15</v>
+      </c>
+      <c r="AL50">
+        <v>1.17</v>
+      </c>
+      <c r="AM50">
+        <v>1.16</v>
+      </c>
+      <c r="AN50">
+        <v>1.6</v>
+      </c>
+      <c r="AO50">
+        <v>3</v>
+      </c>
+      <c r="AP50">
+        <v>1.83</v>
+      </c>
+      <c r="AQ50">
+        <v>2.5</v>
+      </c>
+      <c r="AR50">
+        <v>1.81</v>
+      </c>
+      <c r="AS50">
+        <v>2.55</v>
+      </c>
+      <c r="AT50">
+        <v>4.36</v>
+      </c>
+      <c r="AU50">
+        <v>5</v>
+      </c>
+      <c r="AV50">
+        <v>9</v>
+      </c>
+      <c r="AW50">
+        <v>6</v>
+      </c>
+      <c r="AX50">
+        <v>16</v>
+      </c>
+      <c r="AY50">
+        <v>11</v>
+      </c>
+      <c r="AZ50">
+        <v>25</v>
+      </c>
+      <c r="BA50">
+        <v>3</v>
+      </c>
+      <c r="BB50">
+        <v>14</v>
+      </c>
+      <c r="BC50">
+        <v>17</v>
+      </c>
+      <c r="BD50">
+        <v>0</v>
+      </c>
+      <c r="BE50">
+        <v>0</v>
+      </c>
+      <c r="BF50">
+        <v>0</v>
+      </c>
+      <c r="BG50">
+        <v>0</v>
+      </c>
+      <c r="BH50">
+        <v>0</v>
+      </c>
+      <c r="BI50">
+        <v>0</v>
+      </c>
+      <c r="BJ50">
+        <v>0</v>
+      </c>
+      <c r="BK50">
+        <v>0</v>
+      </c>
+      <c r="BL50">
+        <v>0</v>
+      </c>
+      <c r="BM50">
+        <v>0</v>
+      </c>
+      <c r="BN50">
+        <v>0</v>
+      </c>
+      <c r="BO50">
+        <v>0</v>
+      </c>
+      <c r="BP50">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="149">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -458,6 +458,9 @@
   </si>
   <si>
     <t>['23', '34']</t>
+  </si>
+  <si>
+    <t>['90+4']</t>
   </si>
 </sst>
 </file>
@@ -819,7 +822,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP50"/>
+  <dimension ref="A1:BP52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1156,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ2">
         <v>0</v>
@@ -1362,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ3">
         <v>2.2</v>
@@ -1777,7 +1780,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ5">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2189,7 +2192,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2392,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ8">
         <v>2.5</v>
@@ -3010,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -3631,7 +3634,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ14">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4246,7 +4249,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ17">
         <v>1</v>
@@ -5279,7 +5282,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ22">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR22">
         <v>0.74</v>
@@ -5894,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ25">
         <v>0</v>
@@ -6103,7 +6106,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ26">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>1.42</v>
@@ -7542,7 +7545,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ33">
         <v>1.17</v>
@@ -7957,7 +7960,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ35">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR35">
         <v>2.56</v>
@@ -8163,7 +8166,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ36">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>2.43</v>
@@ -8366,7 +8369,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ37">
         <v>0</v>
@@ -8572,7 +8575,7 @@
         <v>2.33</v>
       </c>
       <c r="AP38">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ38">
         <v>2.2</v>
@@ -9190,7 +9193,7 @@
         <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ41">
         <v>1.6</v>
@@ -10223,7 +10226,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ46">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR46">
         <v>1.97</v>
@@ -10635,7 +10638,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ48">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR48">
         <v>1.86</v>
@@ -11044,7 +11047,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ50">
         <v>2.5</v>
@@ -11122,6 +11125,418 @@
         <v>0</v>
       </c>
       <c r="BP50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7325182</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45423.35416666666</v>
+      </c>
+      <c r="F51">
+        <v>10</v>
+      </c>
+      <c r="G51" t="s">
+        <v>70</v>
+      </c>
+      <c r="H51" t="s">
+        <v>74</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51" t="s">
+        <v>81</v>
+      </c>
+      <c r="P51" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q51">
+        <v>1.73</v>
+      </c>
+      <c r="R51">
+        <v>2.4</v>
+      </c>
+      <c r="S51">
+        <v>8</v>
+      </c>
+      <c r="T51">
+        <v>1.31</v>
+      </c>
+      <c r="U51">
+        <v>3.16</v>
+      </c>
+      <c r="V51">
+        <v>2.51</v>
+      </c>
+      <c r="W51">
+        <v>1.49</v>
+      </c>
+      <c r="X51">
+        <v>5.89</v>
+      </c>
+      <c r="Y51">
+        <v>1.1</v>
+      </c>
+      <c r="Z51">
+        <v>1.32</v>
+      </c>
+      <c r="AA51">
+        <v>4.5</v>
+      </c>
+      <c r="AB51">
+        <v>6.3</v>
+      </c>
+      <c r="AC51">
+        <v>1.02</v>
+      </c>
+      <c r="AD51">
+        <v>10</v>
+      </c>
+      <c r="AE51">
+        <v>1.2</v>
+      </c>
+      <c r="AF51">
+        <v>3.88</v>
+      </c>
+      <c r="AG51">
+        <v>1.46</v>
+      </c>
+      <c r="AH51">
+        <v>2.22</v>
+      </c>
+      <c r="AI51">
+        <v>2.09</v>
+      </c>
+      <c r="AJ51">
+        <v>1.7</v>
+      </c>
+      <c r="AK51">
+        <v>1.02</v>
+      </c>
+      <c r="AL51">
+        <v>1.13</v>
+      </c>
+      <c r="AM51">
+        <v>3.28</v>
+      </c>
+      <c r="AN51">
+        <v>1.83</v>
+      </c>
+      <c r="AO51">
+        <v>0.5</v>
+      </c>
+      <c r="AP51">
+        <v>1.57</v>
+      </c>
+      <c r="AQ51">
+        <v>1</v>
+      </c>
+      <c r="AR51">
+        <v>1.74</v>
+      </c>
+      <c r="AS51">
+        <v>1.14</v>
+      </c>
+      <c r="AT51">
+        <v>2.88</v>
+      </c>
+      <c r="AU51">
+        <v>6</v>
+      </c>
+      <c r="AV51">
+        <v>6</v>
+      </c>
+      <c r="AW51">
+        <v>11</v>
+      </c>
+      <c r="AX51">
+        <v>7</v>
+      </c>
+      <c r="AY51">
+        <v>17</v>
+      </c>
+      <c r="AZ51">
+        <v>13</v>
+      </c>
+      <c r="BA51">
+        <v>7</v>
+      </c>
+      <c r="BB51">
+        <v>4</v>
+      </c>
+      <c r="BC51">
+        <v>11</v>
+      </c>
+      <c r="BD51">
+        <v>0</v>
+      </c>
+      <c r="BE51">
+        <v>0</v>
+      </c>
+      <c r="BF51">
+        <v>0</v>
+      </c>
+      <c r="BG51">
+        <v>0</v>
+      </c>
+      <c r="BH51">
+        <v>0</v>
+      </c>
+      <c r="BI51">
+        <v>0</v>
+      </c>
+      <c r="BJ51">
+        <v>0</v>
+      </c>
+      <c r="BK51">
+        <v>0</v>
+      </c>
+      <c r="BL51">
+        <v>0</v>
+      </c>
+      <c r="BM51">
+        <v>0</v>
+      </c>
+      <c r="BN51">
+        <v>0</v>
+      </c>
+      <c r="BO51">
+        <v>0</v>
+      </c>
+      <c r="BP51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7325183</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45423.45833333334</v>
+      </c>
+      <c r="F52">
+        <v>10</v>
+      </c>
+      <c r="G52" t="s">
+        <v>71</v>
+      </c>
+      <c r="H52" t="s">
+        <v>75</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52" t="s">
+        <v>81</v>
+      </c>
+      <c r="P52" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q52">
+        <v>2.75</v>
+      </c>
+      <c r="R52">
+        <v>2.25</v>
+      </c>
+      <c r="S52">
+        <v>3.2</v>
+      </c>
+      <c r="T52">
+        <v>1.3</v>
+      </c>
+      <c r="U52">
+        <v>3.22</v>
+      </c>
+      <c r="V52">
+        <v>2.45</v>
+      </c>
+      <c r="W52">
+        <v>1.51</v>
+      </c>
+      <c r="X52">
+        <v>5.73</v>
+      </c>
+      <c r="Y52">
+        <v>1.1</v>
+      </c>
+      <c r="Z52">
+        <v>2.28</v>
+      </c>
+      <c r="AA52">
+        <v>3.4</v>
+      </c>
+      <c r="AB52">
+        <v>2.64</v>
+      </c>
+      <c r="AC52">
+        <v>1.01</v>
+      </c>
+      <c r="AD52">
+        <v>11</v>
+      </c>
+      <c r="AE52">
+        <v>1.18</v>
+      </c>
+      <c r="AF52">
+        <v>4.05</v>
+      </c>
+      <c r="AG52">
+        <v>1.63</v>
+      </c>
+      <c r="AH52">
+        <v>2.16</v>
+      </c>
+      <c r="AI52">
+        <v>1.53</v>
+      </c>
+      <c r="AJ52">
+        <v>2.27</v>
+      </c>
+      <c r="AK52">
+        <v>1.4</v>
+      </c>
+      <c r="AL52">
+        <v>1.25</v>
+      </c>
+      <c r="AM52">
+        <v>1.55</v>
+      </c>
+      <c r="AN52">
+        <v>1.4</v>
+      </c>
+      <c r="AO52">
+        <v>1.4</v>
+      </c>
+      <c r="AP52">
+        <v>1.33</v>
+      </c>
+      <c r="AQ52">
+        <v>1.33</v>
+      </c>
+      <c r="AR52">
+        <v>1.6</v>
+      </c>
+      <c r="AS52">
+        <v>1.71</v>
+      </c>
+      <c r="AT52">
+        <v>3.31</v>
+      </c>
+      <c r="AU52">
+        <v>4</v>
+      </c>
+      <c r="AV52">
+        <v>6</v>
+      </c>
+      <c r="AW52">
+        <v>7</v>
+      </c>
+      <c r="AX52">
+        <v>9</v>
+      </c>
+      <c r="AY52">
+        <v>11</v>
+      </c>
+      <c r="AZ52">
+        <v>15</v>
+      </c>
+      <c r="BA52">
+        <v>4</v>
+      </c>
+      <c r="BB52">
+        <v>12</v>
+      </c>
+      <c r="BC52">
+        <v>16</v>
+      </c>
+      <c r="BD52">
+        <v>0</v>
+      </c>
+      <c r="BE52">
+        <v>0</v>
+      </c>
+      <c r="BF52">
+        <v>0</v>
+      </c>
+      <c r="BG52">
+        <v>0</v>
+      </c>
+      <c r="BH52">
+        <v>0</v>
+      </c>
+      <c r="BI52">
+        <v>0</v>
+      </c>
+      <c r="BJ52">
+        <v>0</v>
+      </c>
+      <c r="BK52">
+        <v>0</v>
+      </c>
+      <c r="BL52">
+        <v>0</v>
+      </c>
+      <c r="BM52">
+        <v>0</v>
+      </c>
+      <c r="BN52">
+        <v>0</v>
+      </c>
+      <c r="BO52">
+        <v>0</v>
+      </c>
+      <c r="BP52">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="150">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -364,6 +364,9 @@
     <t>['43', '61']</t>
   </si>
   <si>
+    <t>['49']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -433,9 +436,6 @@
     <t>['47']</t>
   </si>
   <si>
-    <t>['49']</t>
-  </si>
-  <si>
     <t>['36', '81']</t>
   </si>
   <si>
@@ -461,6 +461,9 @@
   </si>
   <si>
     <t>['90+4']</t>
+  </si>
+  <si>
+    <t>['24']</t>
   </si>
 </sst>
 </file>
@@ -822,7 +825,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP52"/>
+  <dimension ref="A1:BP55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1287,7 +1290,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1368,7 +1371,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ3">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1571,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ4">
         <v>0</v>
@@ -1699,7 +1702,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -1777,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
         <v>1.33</v>
@@ -1905,7 +1908,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -1986,7 +1989,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ6">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2317,7 +2320,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2729,7 +2732,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -2935,7 +2938,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3141,7 +3144,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3219,7 +3222,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
         <v>2.5</v>
@@ -3347,7 +3350,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3553,7 +3556,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3759,7 +3762,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4043,10 +4046,10 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4377,7 +4380,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4458,7 +4461,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ18">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR18">
         <v>1.11</v>
@@ -5073,10 +5076,10 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ21">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR21">
         <v>2.61</v>
@@ -5201,7 +5204,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5279,7 +5282,7 @@
         <v>2</v>
       </c>
       <c r="AP22">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
         <v>1.33</v>
@@ -5407,7 +5410,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5613,7 +5616,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -5819,7 +5822,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6103,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6231,7 +6234,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6437,7 +6440,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6721,7 +6724,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ29">
         <v>0</v>
@@ -6849,7 +6852,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7055,7 +7058,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7136,7 +7139,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ31">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR31">
         <v>2.12</v>
@@ -7261,7 +7264,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7339,7 +7342,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ32">
         <v>2.5</v>
@@ -7467,7 +7470,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7548,7 +7551,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ33">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR33">
         <v>1.95</v>
@@ -7673,7 +7676,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -7751,7 +7754,7 @@
         <v>0.67</v>
       </c>
       <c r="AP34">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -7879,7 +7882,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8085,7 +8088,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="Q36">
         <v>1.45</v>
@@ -8163,7 +8166,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -8578,7 +8581,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ38">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR38">
         <v>1.67</v>
@@ -8987,10 +8990,10 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ40">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR40">
         <v>1.38</v>
@@ -9608,7 +9611,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ43">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR43">
         <v>1.92</v>
@@ -9811,10 +9814,10 @@
         <v>1.4</v>
       </c>
       <c r="AP44">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ44">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR44">
         <v>2.3</v>
@@ -10017,7 +10020,7 @@
         <v>1.25</v>
       </c>
       <c r="AP45">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ45">
         <v>1.6</v>
@@ -10429,7 +10432,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ47">
         <v>1</v>
@@ -11537,6 +11540,624 @@
         <v>0</v>
       </c>
       <c r="BP52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7325184</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45424.35416666666</v>
+      </c>
+      <c r="F53">
+        <v>10</v>
+      </c>
+      <c r="G53" t="s">
+        <v>72</v>
+      </c>
+      <c r="H53" t="s">
+        <v>76</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53" t="s">
+        <v>81</v>
+      </c>
+      <c r="P53" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q53">
+        <v>1.83</v>
+      </c>
+      <c r="R53">
+        <v>2.4</v>
+      </c>
+      <c r="S53">
+        <v>6.5</v>
+      </c>
+      <c r="T53">
+        <v>1.31</v>
+      </c>
+      <c r="U53">
+        <v>3.16</v>
+      </c>
+      <c r="V53">
+        <v>2.51</v>
+      </c>
+      <c r="W53">
+        <v>1.49</v>
+      </c>
+      <c r="X53">
+        <v>5.88</v>
+      </c>
+      <c r="Y53">
+        <v>1.1</v>
+      </c>
+      <c r="Z53">
+        <v>1.4</v>
+      </c>
+      <c r="AA53">
+        <v>4.5</v>
+      </c>
+      <c r="AB53">
+        <v>6.75</v>
+      </c>
+      <c r="AC53">
+        <v>1.01</v>
+      </c>
+      <c r="AD53">
+        <v>11</v>
+      </c>
+      <c r="AE53">
+        <v>1.22</v>
+      </c>
+      <c r="AF53">
+        <v>3.8</v>
+      </c>
+      <c r="AG53">
+        <v>1.6</v>
+      </c>
+      <c r="AH53">
+        <v>2.2</v>
+      </c>
+      <c r="AI53">
+        <v>1.91</v>
+      </c>
+      <c r="AJ53">
+        <v>1.85</v>
+      </c>
+      <c r="AK53">
+        <v>1.06</v>
+      </c>
+      <c r="AL53">
+        <v>1.15</v>
+      </c>
+      <c r="AM53">
+        <v>2.86</v>
+      </c>
+      <c r="AN53">
+        <v>2.6</v>
+      </c>
+      <c r="AO53">
+        <v>2.2</v>
+      </c>
+      <c r="AP53">
+        <v>2.33</v>
+      </c>
+      <c r="AQ53">
+        <v>2</v>
+      </c>
+      <c r="AR53">
+        <v>2.19</v>
+      </c>
+      <c r="AS53">
+        <v>2.03</v>
+      </c>
+      <c r="AT53">
+        <v>4.22</v>
+      </c>
+      <c r="AU53">
+        <v>7</v>
+      </c>
+      <c r="AV53">
+        <v>3</v>
+      </c>
+      <c r="AW53">
+        <v>11</v>
+      </c>
+      <c r="AX53">
+        <v>7</v>
+      </c>
+      <c r="AY53">
+        <v>18</v>
+      </c>
+      <c r="AZ53">
+        <v>10</v>
+      </c>
+      <c r="BA53">
+        <v>11</v>
+      </c>
+      <c r="BB53">
+        <v>4</v>
+      </c>
+      <c r="BC53">
+        <v>15</v>
+      </c>
+      <c r="BD53">
+        <v>0</v>
+      </c>
+      <c r="BE53">
+        <v>0</v>
+      </c>
+      <c r="BF53">
+        <v>0</v>
+      </c>
+      <c r="BG53">
+        <v>0</v>
+      </c>
+      <c r="BH53">
+        <v>0</v>
+      </c>
+      <c r="BI53">
+        <v>0</v>
+      </c>
+      <c r="BJ53">
+        <v>0</v>
+      </c>
+      <c r="BK53">
+        <v>0</v>
+      </c>
+      <c r="BL53">
+        <v>0</v>
+      </c>
+      <c r="BM53">
+        <v>0</v>
+      </c>
+      <c r="BN53">
+        <v>0</v>
+      </c>
+      <c r="BO53">
+        <v>0</v>
+      </c>
+      <c r="BP53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7325185</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45424.45833333334</v>
+      </c>
+      <c r="F54">
+        <v>10</v>
+      </c>
+      <c r="G54" t="s">
+        <v>73</v>
+      </c>
+      <c r="H54" t="s">
+        <v>78</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54" t="s">
+        <v>116</v>
+      </c>
+      <c r="P54" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q54">
+        <v>2.5</v>
+      </c>
+      <c r="R54">
+        <v>2.3</v>
+      </c>
+      <c r="S54">
+        <v>3.75</v>
+      </c>
+      <c r="T54">
+        <v>1.3</v>
+      </c>
+      <c r="U54">
+        <v>3.22</v>
+      </c>
+      <c r="V54">
+        <v>2.43</v>
+      </c>
+      <c r="W54">
+        <v>1.52</v>
+      </c>
+      <c r="X54">
+        <v>5.68</v>
+      </c>
+      <c r="Y54">
+        <v>1.1</v>
+      </c>
+      <c r="Z54">
+        <v>2.66</v>
+      </c>
+      <c r="AA54">
+        <v>3.53</v>
+      </c>
+      <c r="AB54">
+        <v>2.37</v>
+      </c>
+      <c r="AC54">
+        <v>1.01</v>
+      </c>
+      <c r="AD54">
+        <v>11</v>
+      </c>
+      <c r="AE54">
+        <v>1.18</v>
+      </c>
+      <c r="AF54">
+        <v>4.1</v>
+      </c>
+      <c r="AG54">
+        <v>1.68</v>
+      </c>
+      <c r="AH54">
+        <v>2.11</v>
+      </c>
+      <c r="AI54">
+        <v>1.55</v>
+      </c>
+      <c r="AJ54">
+        <v>2.38</v>
+      </c>
+      <c r="AK54">
+        <v>1.3</v>
+      </c>
+      <c r="AL54">
+        <v>1.24</v>
+      </c>
+      <c r="AM54">
+        <v>1.71</v>
+      </c>
+      <c r="AN54">
+        <v>0.67</v>
+      </c>
+      <c r="AO54">
+        <v>0</v>
+      </c>
+      <c r="AP54">
+        <v>1</v>
+      </c>
+      <c r="AQ54">
+        <v>0</v>
+      </c>
+      <c r="AR54">
+        <v>1.38</v>
+      </c>
+      <c r="AS54">
+        <v>1.48</v>
+      </c>
+      <c r="AT54">
+        <v>2.86</v>
+      </c>
+      <c r="AU54">
+        <v>6</v>
+      </c>
+      <c r="AV54">
+        <v>14</v>
+      </c>
+      <c r="AW54">
+        <v>6</v>
+      </c>
+      <c r="AX54">
+        <v>7</v>
+      </c>
+      <c r="AY54">
+        <v>12</v>
+      </c>
+      <c r="AZ54">
+        <v>21</v>
+      </c>
+      <c r="BA54">
+        <v>5</v>
+      </c>
+      <c r="BB54">
+        <v>8</v>
+      </c>
+      <c r="BC54">
+        <v>13</v>
+      </c>
+      <c r="BD54">
+        <v>0</v>
+      </c>
+      <c r="BE54">
+        <v>0</v>
+      </c>
+      <c r="BF54">
+        <v>0</v>
+      </c>
+      <c r="BG54">
+        <v>0</v>
+      </c>
+      <c r="BH54">
+        <v>0</v>
+      </c>
+      <c r="BI54">
+        <v>0</v>
+      </c>
+      <c r="BJ54">
+        <v>0</v>
+      </c>
+      <c r="BK54">
+        <v>0</v>
+      </c>
+      <c r="BL54">
+        <v>0</v>
+      </c>
+      <c r="BM54">
+        <v>0</v>
+      </c>
+      <c r="BN54">
+        <v>0</v>
+      </c>
+      <c r="BO54">
+        <v>0</v>
+      </c>
+      <c r="BP54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7325186</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45424.54166666666</v>
+      </c>
+      <c r="F55">
+        <v>10</v>
+      </c>
+      <c r="G55" t="s">
+        <v>79</v>
+      </c>
+      <c r="H55" t="s">
+        <v>77</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55" t="s">
+        <v>81</v>
+      </c>
+      <c r="P55" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q55">
+        <v>7</v>
+      </c>
+      <c r="R55">
+        <v>2.4</v>
+      </c>
+      <c r="S55">
+        <v>1.8</v>
+      </c>
+      <c r="T55">
+        <v>1.27</v>
+      </c>
+      <c r="U55">
+        <v>3.38</v>
+      </c>
+      <c r="V55">
+        <v>2.33</v>
+      </c>
+      <c r="W55">
+        <v>1.56</v>
+      </c>
+      <c r="X55">
+        <v>5.29</v>
+      </c>
+      <c r="Y55">
+        <v>1.12</v>
+      </c>
+      <c r="Z55">
+        <v>7</v>
+      </c>
+      <c r="AA55">
+        <v>4.75</v>
+      </c>
+      <c r="AB55">
+        <v>1.33</v>
+      </c>
+      <c r="AC55">
+        <v>1.02</v>
+      </c>
+      <c r="AD55">
+        <v>12</v>
+      </c>
+      <c r="AE55">
+        <v>1.18</v>
+      </c>
+      <c r="AF55">
+        <v>4.33</v>
+      </c>
+      <c r="AG55">
+        <v>1.51</v>
+      </c>
+      <c r="AH55">
+        <v>2.12</v>
+      </c>
+      <c r="AI55">
+        <v>1.77</v>
+      </c>
+      <c r="AJ55">
+        <v>2</v>
+      </c>
+      <c r="AK55">
+        <v>2.78</v>
+      </c>
+      <c r="AL55">
+        <v>1.15</v>
+      </c>
+      <c r="AM55">
+        <v>1.07</v>
+      </c>
+      <c r="AN55">
+        <v>1.25</v>
+      </c>
+      <c r="AO55">
+        <v>1.17</v>
+      </c>
+      <c r="AP55">
+        <v>1</v>
+      </c>
+      <c r="AQ55">
+        <v>1.43</v>
+      </c>
+      <c r="AR55">
+        <v>1.18</v>
+      </c>
+      <c r="AS55">
+        <v>1.87</v>
+      </c>
+      <c r="AT55">
+        <v>3.05</v>
+      </c>
+      <c r="AU55">
+        <v>5</v>
+      </c>
+      <c r="AV55">
+        <v>2</v>
+      </c>
+      <c r="AW55">
+        <v>2</v>
+      </c>
+      <c r="AX55">
+        <v>5</v>
+      </c>
+      <c r="AY55">
+        <v>7</v>
+      </c>
+      <c r="AZ55">
+        <v>7</v>
+      </c>
+      <c r="BA55">
+        <v>5</v>
+      </c>
+      <c r="BB55">
+        <v>5</v>
+      </c>
+      <c r="BC55">
+        <v>10</v>
+      </c>
+      <c r="BD55">
+        <v>0</v>
+      </c>
+      <c r="BE55">
+        <v>0</v>
+      </c>
+      <c r="BF55">
+        <v>0</v>
+      </c>
+      <c r="BG55">
+        <v>0</v>
+      </c>
+      <c r="BH55">
+        <v>0</v>
+      </c>
+      <c r="BI55">
+        <v>0</v>
+      </c>
+      <c r="BJ55">
+        <v>0</v>
+      </c>
+      <c r="BK55">
+        <v>0</v>
+      </c>
+      <c r="BL55">
+        <v>0</v>
+      </c>
+      <c r="BM55">
+        <v>0</v>
+      </c>
+      <c r="BN55">
+        <v>0</v>
+      </c>
+      <c r="BO55">
+        <v>0</v>
+      </c>
+      <c r="BP55">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -12095,22 +12095,22 @@
         <v>3.05</v>
       </c>
       <c r="AU55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW55">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AX55">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY55">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ55">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA55">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="154">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -367,6 +367,12 @@
     <t>['49']</t>
   </si>
   <si>
+    <t>['73']</t>
+  </si>
+  <si>
+    <t>['40', '45', '64']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -464,6 +470,12 @@
   </si>
   <si>
     <t>['24']</t>
+  </si>
+  <si>
+    <t>['22', '79']</t>
+  </si>
+  <si>
+    <t>['56', '83', '90+9']</t>
   </si>
 </sst>
 </file>
@@ -825,7 +837,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP55"/>
+  <dimension ref="A1:BP58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1290,7 +1302,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1702,7 +1714,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -1908,7 +1920,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -1989,7 +2001,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ6">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2192,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2320,7 +2332,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2604,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ9">
         <v>0</v>
@@ -2732,7 +2744,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -2938,7 +2950,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3144,7 +3156,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3350,7 +3362,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3431,7 +3443,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ13">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR13">
         <v>2.65</v>
@@ -3556,7 +3568,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3634,7 +3646,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
         <v>1.33</v>
@@ -3762,7 +3774,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -3843,7 +3855,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR15">
         <v>0.5</v>
@@ -4380,7 +4392,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4664,7 +4676,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
         <v>0</v>
@@ -4870,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ20">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR20">
         <v>2.07</v>
@@ -5079,7 +5091,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ21">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR21">
         <v>2.61</v>
@@ -5204,7 +5216,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5410,7 +5422,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5488,7 +5500,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ23">
         <v>2.5</v>
@@ -5616,7 +5628,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -5697,7 +5709,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR24">
         <v>2.63</v>
@@ -5822,7 +5834,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6234,7 +6246,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6312,10 +6324,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR27">
         <v>2.19</v>
@@ -6440,7 +6452,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6518,7 +6530,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -6852,7 +6864,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6933,7 +6945,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ30">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR30">
         <v>1.13</v>
@@ -7058,7 +7070,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7136,10 +7148,10 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ31">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR31">
         <v>2.12</v>
@@ -7264,7 +7276,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7470,7 +7482,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7551,7 +7563,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ33">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR33">
         <v>1.95</v>
@@ -7676,7 +7688,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -7882,7 +7894,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8500,7 +8512,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8706,7 +8718,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -8912,7 +8924,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9118,7 +9130,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9199,7 +9211,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ41">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR41">
         <v>1.7</v>
@@ -9324,7 +9336,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9402,7 +9414,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ42">
         <v>2.5</v>
@@ -9530,7 +9542,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9608,10 +9620,10 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ43">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR43">
         <v>1.92</v>
@@ -9817,7 +9829,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ44">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR44">
         <v>2.3</v>
@@ -9942,7 +9954,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10023,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="AQ45">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR45">
         <v>1.38</v>
@@ -10148,7 +10160,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10226,7 +10238,7 @@
         <v>1.75</v>
       </c>
       <c r="AP46">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ46">
         <v>1.33</v>
@@ -10435,7 +10447,7 @@
         <v>1</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR47">
         <v>1.09</v>
@@ -10638,7 +10650,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -11178,7 +11190,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -12002,7 +12014,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12083,7 +12095,7 @@
         <v>1</v>
       </c>
       <c r="AQ55">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR55">
         <v>1.18</v>
@@ -12158,6 +12170,624 @@
         <v>0</v>
       </c>
       <c r="BP55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7325187</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45430.35416666666</v>
+      </c>
+      <c r="F56">
+        <v>11</v>
+      </c>
+      <c r="G56" t="s">
+        <v>75</v>
+      </c>
+      <c r="H56" t="s">
+        <v>77</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>2</v>
+      </c>
+      <c r="N56">
+        <v>3</v>
+      </c>
+      <c r="O56" t="s">
+        <v>91</v>
+      </c>
+      <c r="P56" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q56">
+        <v>4.75</v>
+      </c>
+      <c r="R56">
+        <v>2.2</v>
+      </c>
+      <c r="S56">
+        <v>2.25</v>
+      </c>
+      <c r="T56">
+        <v>1.36</v>
+      </c>
+      <c r="U56">
+        <v>2.88</v>
+      </c>
+      <c r="V56">
+        <v>2.7</v>
+      </c>
+      <c r="W56">
+        <v>1.4</v>
+      </c>
+      <c r="X56">
+        <v>6.5</v>
+      </c>
+      <c r="Y56">
+        <v>1.08</v>
+      </c>
+      <c r="Z56">
+        <v>4.08</v>
+      </c>
+      <c r="AA56">
+        <v>3.86</v>
+      </c>
+      <c r="AB56">
+        <v>1.68</v>
+      </c>
+      <c r="AC56">
+        <v>1.02</v>
+      </c>
+      <c r="AD56">
+        <v>10</v>
+      </c>
+      <c r="AE56">
+        <v>1.29</v>
+      </c>
+      <c r="AF56">
+        <v>3.4</v>
+      </c>
+      <c r="AG56">
+        <v>1.75</v>
+      </c>
+      <c r="AH56">
+        <v>1.95</v>
+      </c>
+      <c r="AI56">
+        <v>1.8</v>
+      </c>
+      <c r="AJ56">
+        <v>1.91</v>
+      </c>
+      <c r="AK56">
+        <v>2.1</v>
+      </c>
+      <c r="AL56">
+        <v>1.23</v>
+      </c>
+      <c r="AM56">
+        <v>1.15</v>
+      </c>
+      <c r="AN56">
+        <v>1</v>
+      </c>
+      <c r="AO56">
+        <v>1.43</v>
+      </c>
+      <c r="AP56">
+        <v>0.8</v>
+      </c>
+      <c r="AQ56">
+        <v>1.63</v>
+      </c>
+      <c r="AR56">
+        <v>1.96</v>
+      </c>
+      <c r="AS56">
+        <v>1.8</v>
+      </c>
+      <c r="AT56">
+        <v>3.76</v>
+      </c>
+      <c r="AU56">
+        <v>8</v>
+      </c>
+      <c r="AV56">
+        <v>7</v>
+      </c>
+      <c r="AW56">
+        <v>8</v>
+      </c>
+      <c r="AX56">
+        <v>9</v>
+      </c>
+      <c r="AY56">
+        <v>16</v>
+      </c>
+      <c r="AZ56">
+        <v>16</v>
+      </c>
+      <c r="BA56">
+        <v>9</v>
+      </c>
+      <c r="BB56">
+        <v>3</v>
+      </c>
+      <c r="BC56">
+        <v>12</v>
+      </c>
+      <c r="BD56">
+        <v>0</v>
+      </c>
+      <c r="BE56">
+        <v>0</v>
+      </c>
+      <c r="BF56">
+        <v>0</v>
+      </c>
+      <c r="BG56">
+        <v>0</v>
+      </c>
+      <c r="BH56">
+        <v>0</v>
+      </c>
+      <c r="BI56">
+        <v>0</v>
+      </c>
+      <c r="BJ56">
+        <v>0</v>
+      </c>
+      <c r="BK56">
+        <v>0</v>
+      </c>
+      <c r="BL56">
+        <v>0</v>
+      </c>
+      <c r="BM56">
+        <v>0</v>
+      </c>
+      <c r="BN56">
+        <v>0</v>
+      </c>
+      <c r="BO56">
+        <v>0</v>
+      </c>
+      <c r="BP56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7325188</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45430.45833333334</v>
+      </c>
+      <c r="F57">
+        <v>11</v>
+      </c>
+      <c r="G57" t="s">
+        <v>78</v>
+      </c>
+      <c r="H57" t="s">
+        <v>70</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>3</v>
+      </c>
+      <c r="N57">
+        <v>4</v>
+      </c>
+      <c r="O57" t="s">
+        <v>117</v>
+      </c>
+      <c r="P57" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q57">
+        <v>5</v>
+      </c>
+      <c r="R57">
+        <v>2.5</v>
+      </c>
+      <c r="S57">
+        <v>1.95</v>
+      </c>
+      <c r="T57">
+        <v>1.27</v>
+      </c>
+      <c r="U57">
+        <v>3.54</v>
+      </c>
+      <c r="V57">
+        <v>2.29</v>
+      </c>
+      <c r="W57">
+        <v>1.58</v>
+      </c>
+      <c r="X57">
+        <v>5.15</v>
+      </c>
+      <c r="Y57">
+        <v>1.14</v>
+      </c>
+      <c r="Z57">
+        <v>5.8</v>
+      </c>
+      <c r="AA57">
+        <v>4</v>
+      </c>
+      <c r="AB57">
+        <v>1.47</v>
+      </c>
+      <c r="AC57">
+        <v>1.02</v>
+      </c>
+      <c r="AD57">
+        <v>10</v>
+      </c>
+      <c r="AE57">
+        <v>1.14</v>
+      </c>
+      <c r="AF57">
+        <v>4.6</v>
+      </c>
+      <c r="AG57">
+        <v>1.57</v>
+      </c>
+      <c r="AH57">
+        <v>2.25</v>
+      </c>
+      <c r="AI57">
+        <v>1.65</v>
+      </c>
+      <c r="AJ57">
+        <v>2.05</v>
+      </c>
+      <c r="AK57">
+        <v>2.51</v>
+      </c>
+      <c r="AL57">
+        <v>1.16</v>
+      </c>
+      <c r="AM57">
+        <v>1.1</v>
+      </c>
+      <c r="AN57">
+        <v>1.2</v>
+      </c>
+      <c r="AO57">
+        <v>1.6</v>
+      </c>
+      <c r="AP57">
+        <v>1</v>
+      </c>
+      <c r="AQ57">
+        <v>1.83</v>
+      </c>
+      <c r="AR57">
+        <v>1.88</v>
+      </c>
+      <c r="AS57">
+        <v>1.81</v>
+      </c>
+      <c r="AT57">
+        <v>3.69</v>
+      </c>
+      <c r="AU57">
+        <v>3</v>
+      </c>
+      <c r="AV57">
+        <v>4</v>
+      </c>
+      <c r="AW57">
+        <v>5</v>
+      </c>
+      <c r="AX57">
+        <v>5</v>
+      </c>
+      <c r="AY57">
+        <v>8</v>
+      </c>
+      <c r="AZ57">
+        <v>9</v>
+      </c>
+      <c r="BA57">
+        <v>4</v>
+      </c>
+      <c r="BB57">
+        <v>4</v>
+      </c>
+      <c r="BC57">
+        <v>8</v>
+      </c>
+      <c r="BD57">
+        <v>0</v>
+      </c>
+      <c r="BE57">
+        <v>0</v>
+      </c>
+      <c r="BF57">
+        <v>0</v>
+      </c>
+      <c r="BG57">
+        <v>0</v>
+      </c>
+      <c r="BH57">
+        <v>0</v>
+      </c>
+      <c r="BI57">
+        <v>0</v>
+      </c>
+      <c r="BJ57">
+        <v>0</v>
+      </c>
+      <c r="BK57">
+        <v>0</v>
+      </c>
+      <c r="BL57">
+        <v>0</v>
+      </c>
+      <c r="BM57">
+        <v>0</v>
+      </c>
+      <c r="BN57">
+        <v>0</v>
+      </c>
+      <c r="BO57">
+        <v>0</v>
+      </c>
+      <c r="BP57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7325189</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45430.54166666666</v>
+      </c>
+      <c r="F58">
+        <v>11</v>
+      </c>
+      <c r="G58" t="s">
+        <v>76</v>
+      </c>
+      <c r="H58" t="s">
+        <v>71</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>3</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>3</v>
+      </c>
+      <c r="O58" t="s">
+        <v>118</v>
+      </c>
+      <c r="P58" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q58">
+        <v>1.8</v>
+      </c>
+      <c r="R58">
+        <v>2.5</v>
+      </c>
+      <c r="S58">
+        <v>6.5</v>
+      </c>
+      <c r="T58">
+        <v>1.29</v>
+      </c>
+      <c r="U58">
+        <v>3.4</v>
+      </c>
+      <c r="V58">
+        <v>2.25</v>
+      </c>
+      <c r="W58">
+        <v>1.57</v>
+      </c>
+      <c r="X58">
+        <v>4.75</v>
+      </c>
+      <c r="Y58">
+        <v>1.15</v>
+      </c>
+      <c r="Z58">
+        <v>1.44</v>
+      </c>
+      <c r="AA58">
+        <v>4.2</v>
+      </c>
+      <c r="AB58">
+        <v>5.25</v>
+      </c>
+      <c r="AC58">
+        <v>1.02</v>
+      </c>
+      <c r="AD58">
+        <v>10</v>
+      </c>
+      <c r="AE58">
+        <v>1.15</v>
+      </c>
+      <c r="AF58">
+        <v>4.75</v>
+      </c>
+      <c r="AG58">
+        <v>1.55</v>
+      </c>
+      <c r="AH58">
+        <v>2.3</v>
+      </c>
+      <c r="AI58">
+        <v>1.7</v>
+      </c>
+      <c r="AJ58">
+        <v>2.05</v>
+      </c>
+      <c r="AK58">
+        <v>1.13</v>
+      </c>
+      <c r="AL58">
+        <v>1.19</v>
+      </c>
+      <c r="AM58">
+        <v>2.3</v>
+      </c>
+      <c r="AN58">
+        <v>2.25</v>
+      </c>
+      <c r="AO58">
+        <v>1</v>
+      </c>
+      <c r="AP58">
+        <v>2.4</v>
+      </c>
+      <c r="AQ58">
+        <v>0.8</v>
+      </c>
+      <c r="AR58">
+        <v>1.96</v>
+      </c>
+      <c r="AS58">
+        <v>1.6</v>
+      </c>
+      <c r="AT58">
+        <v>3.56</v>
+      </c>
+      <c r="AU58">
+        <v>7</v>
+      </c>
+      <c r="AV58">
+        <v>3</v>
+      </c>
+      <c r="AW58">
+        <v>2</v>
+      </c>
+      <c r="AX58">
+        <v>0</v>
+      </c>
+      <c r="AY58">
+        <v>9</v>
+      </c>
+      <c r="AZ58">
+        <v>3</v>
+      </c>
+      <c r="BA58">
+        <v>3</v>
+      </c>
+      <c r="BB58">
+        <v>0</v>
+      </c>
+      <c r="BC58">
+        <v>3</v>
+      </c>
+      <c r="BD58">
+        <v>0</v>
+      </c>
+      <c r="BE58">
+        <v>0</v>
+      </c>
+      <c r="BF58">
+        <v>0</v>
+      </c>
+      <c r="BG58">
+        <v>0</v>
+      </c>
+      <c r="BH58">
+        <v>0</v>
+      </c>
+      <c r="BI58">
+        <v>0</v>
+      </c>
+      <c r="BJ58">
+        <v>0</v>
+      </c>
+      <c r="BK58">
+        <v>0</v>
+      </c>
+      <c r="BL58">
+        <v>0</v>
+      </c>
+      <c r="BM58">
+        <v>0</v>
+      </c>
+      <c r="BN58">
+        <v>0</v>
+      </c>
+      <c r="BO58">
+        <v>0</v>
+      </c>
+      <c r="BP58">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -12313,22 +12313,22 @@
         <v>3.76</v>
       </c>
       <c r="AU56">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV56">
+        <v>4</v>
+      </c>
+      <c r="AW56">
+        <v>6</v>
+      </c>
+      <c r="AX56">
         <v>7</v>
       </c>
-      <c r="AW56">
-        <v>8</v>
-      </c>
-      <c r="AX56">
-        <v>9</v>
-      </c>
       <c r="AY56">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ56">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="BA56">
         <v>9</v>
@@ -12519,22 +12519,22 @@
         <v>3.69</v>
       </c>
       <c r="AU57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV57">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AW57">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX57">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY57">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ57">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA57">
         <v>4</v>
@@ -12725,31 +12725,31 @@
         <v>3.56</v>
       </c>
       <c r="AU58">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AV58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW58">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AY58">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AZ58">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BA58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB58">
         <v>0</v>
       </c>
       <c r="BC58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BD58">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="155">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -371,6 +371,9 @@
   </si>
   <si>
     <t>['40', '45', '64']</t>
+  </si>
+  <si>
+    <t>['24', '38']</t>
   </si>
   <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
@@ -837,7 +840,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP58"/>
+  <dimension ref="A1:BP59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1302,7 +1305,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1714,7 +1717,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -1792,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ5">
         <v>1.33</v>
@@ -1920,7 +1923,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2332,7 +2335,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2744,7 +2747,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -2950,7 +2953,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3156,7 +3159,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3234,7 +3237,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ12">
         <v>2.5</v>
@@ -3362,7 +3365,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3568,7 +3571,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3774,7 +3777,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4392,7 +4395,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -5216,7 +5219,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5422,7 +5425,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5628,7 +5631,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -5834,7 +5837,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6118,7 +6121,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6246,7 +6249,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6452,7 +6455,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6864,7 +6867,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7070,7 +7073,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7276,7 +7279,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7354,7 +7357,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ32">
         <v>2.5</v>
@@ -7482,7 +7485,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7688,7 +7691,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -7894,7 +7897,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8512,7 +8515,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8718,7 +8721,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -8924,7 +8927,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9002,7 +9005,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ40">
         <v>2</v>
@@ -9130,7 +9133,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9336,7 +9339,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9542,7 +9545,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9954,7 +9957,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10032,7 +10035,7 @@
         <v>1.25</v>
       </c>
       <c r="AP45">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ45">
         <v>1.83</v>
@@ -10160,7 +10163,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -11190,7 +11193,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -11886,7 +11889,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ54">
         <v>0</v>
@@ -12014,7 +12017,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12220,7 +12223,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12426,7 +12429,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12519,22 +12522,22 @@
         <v>3.69</v>
       </c>
       <c r="AU57">
+        <v>3</v>
+      </c>
+      <c r="AV57">
         <v>4</v>
       </c>
-      <c r="AV57">
+      <c r="AW57">
+        <v>5</v>
+      </c>
+      <c r="AX57">
+        <v>5</v>
+      </c>
+      <c r="AY57">
+        <v>8</v>
+      </c>
+      <c r="AZ57">
         <v>9</v>
-      </c>
-      <c r="AW57">
-        <v>8</v>
-      </c>
-      <c r="AX57">
-        <v>2</v>
-      </c>
-      <c r="AY57">
-        <v>12</v>
-      </c>
-      <c r="AZ57">
-        <v>11</v>
       </c>
       <c r="BA57">
         <v>4</v>
@@ -12788,6 +12791,212 @@
         <v>0</v>
       </c>
       <c r="BP58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7325190</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45431.35416666666</v>
+      </c>
+      <c r="F59">
+        <v>11</v>
+      </c>
+      <c r="G59" t="s">
+        <v>73</v>
+      </c>
+      <c r="H59" t="s">
+        <v>79</v>
+      </c>
+      <c r="I59">
+        <v>2</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>2</v>
+      </c>
+      <c r="O59" t="s">
+        <v>119</v>
+      </c>
+      <c r="P59" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q59">
+        <v>2.25</v>
+      </c>
+      <c r="R59">
+        <v>2.2</v>
+      </c>
+      <c r="S59">
+        <v>4.3</v>
+      </c>
+      <c r="T59">
+        <v>1.35</v>
+      </c>
+      <c r="U59">
+        <v>2.85</v>
+      </c>
+      <c r="V59">
+        <v>2.5</v>
+      </c>
+      <c r="W59">
+        <v>1.48</v>
+      </c>
+      <c r="X59">
+        <v>5.8</v>
+      </c>
+      <c r="Y59">
+        <v>1.09</v>
+      </c>
+      <c r="Z59">
+        <v>1.95</v>
+      </c>
+      <c r="AA59">
+        <v>3.22</v>
+      </c>
+      <c r="AB59">
+        <v>3.15</v>
+      </c>
+      <c r="AC59">
+        <v>1.04</v>
+      </c>
+      <c r="AD59">
+        <v>8.5</v>
+      </c>
+      <c r="AE59">
+        <v>1.22</v>
+      </c>
+      <c r="AF59">
+        <v>3.8</v>
+      </c>
+      <c r="AG59">
+        <v>1.73</v>
+      </c>
+      <c r="AH59">
+        <v>1.99</v>
+      </c>
+      <c r="AI59">
+        <v>1.66</v>
+      </c>
+      <c r="AJ59">
+        <v>2.1</v>
+      </c>
+      <c r="AK59">
+        <v>1.2</v>
+      </c>
+      <c r="AL59">
+        <v>1.2</v>
+      </c>
+      <c r="AM59">
+        <v>1.8</v>
+      </c>
+      <c r="AN59">
+        <v>1</v>
+      </c>
+      <c r="AO59">
+        <v>0</v>
+      </c>
+      <c r="AP59">
+        <v>1.25</v>
+      </c>
+      <c r="AQ59">
+        <v>0</v>
+      </c>
+      <c r="AR59">
+        <v>1.41</v>
+      </c>
+      <c r="AS59">
+        <v>0.75</v>
+      </c>
+      <c r="AT59">
+        <v>2.16</v>
+      </c>
+      <c r="AU59">
+        <v>7</v>
+      </c>
+      <c r="AV59">
+        <v>0</v>
+      </c>
+      <c r="AW59">
+        <v>1</v>
+      </c>
+      <c r="AX59">
+        <v>7</v>
+      </c>
+      <c r="AY59">
+        <v>8</v>
+      </c>
+      <c r="AZ59">
+        <v>7</v>
+      </c>
+      <c r="BA59">
+        <v>5</v>
+      </c>
+      <c r="BB59">
+        <v>3</v>
+      </c>
+      <c r="BC59">
+        <v>8</v>
+      </c>
+      <c r="BD59">
+        <v>0</v>
+      </c>
+      <c r="BE59">
+        <v>0</v>
+      </c>
+      <c r="BF59">
+        <v>0</v>
+      </c>
+      <c r="BG59">
+        <v>0</v>
+      </c>
+      <c r="BH59">
+        <v>0</v>
+      </c>
+      <c r="BI59">
+        <v>0</v>
+      </c>
+      <c r="BJ59">
+        <v>0</v>
+      </c>
+      <c r="BK59">
+        <v>0</v>
+      </c>
+      <c r="BL59">
+        <v>0</v>
+      </c>
+      <c r="BM59">
+        <v>0</v>
+      </c>
+      <c r="BN59">
+        <v>0</v>
+      </c>
+      <c r="BO59">
+        <v>0</v>
+      </c>
+      <c r="BP59">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="156">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -479,6 +479,9 @@
   </si>
   <si>
     <t>['56', '83', '90+9']</t>
+  </si>
+  <si>
+    <t>['47', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -840,7 +843,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP59"/>
+  <dimension ref="A1:BP60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2001,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
         <v>1.63</v>
@@ -2416,7 +2419,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ8">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR8">
         <v>1.63</v>
@@ -3240,7 +3243,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ12">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR12">
         <v>1.76</v>
@@ -3855,7 +3858,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
         <v>0.8</v>
@@ -4473,7 +4476,7 @@
         <v>2</v>
       </c>
       <c r="AP18">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ18">
         <v>2</v>
@@ -5506,7 +5509,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ23">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR23">
         <v>2.56</v>
@@ -6945,7 +6948,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
         <v>1.83</v>
@@ -7360,7 +7363,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ32">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR32">
         <v>1.47</v>
@@ -8799,7 +8802,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ39">
         <v>0</v>
@@ -9420,7 +9423,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ42">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR42">
         <v>2.19</v>
@@ -11068,7 +11071,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ50">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR50">
         <v>1.81</v>
@@ -12316,22 +12319,22 @@
         <v>3.76</v>
       </c>
       <c r="AU56">
+        <v>8</v>
+      </c>
+      <c r="AV56">
+        <v>7</v>
+      </c>
+      <c r="AW56">
+        <v>8</v>
+      </c>
+      <c r="AX56">
         <v>9</v>
       </c>
-      <c r="AV56">
-        <v>4</v>
-      </c>
-      <c r="AW56">
-        <v>6</v>
-      </c>
-      <c r="AX56">
-        <v>7</v>
-      </c>
       <c r="AY56">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ56">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA56">
         <v>9</v>
@@ -12522,22 +12525,22 @@
         <v>3.69</v>
       </c>
       <c r="AU57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV57">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AW57">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX57">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY57">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ57">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA57">
         <v>4</v>
@@ -12728,22 +12731,22 @@
         <v>3.56</v>
       </c>
       <c r="AU58">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AV58">
+        <v>3</v>
+      </c>
+      <c r="AW58">
+        <v>4</v>
+      </c>
+      <c r="AX58">
         <v>2</v>
       </c>
-      <c r="AW58">
+      <c r="AY58">
+        <v>13</v>
+      </c>
+      <c r="AZ58">
         <v>5</v>
-      </c>
-      <c r="AX58">
-        <v>4</v>
-      </c>
-      <c r="AY58">
-        <v>16</v>
-      </c>
-      <c r="AZ58">
-        <v>6</v>
       </c>
       <c r="BA58">
         <v>5</v>
@@ -12934,69 +12937,275 @@
         <v>2.16</v>
       </c>
       <c r="AU59">
+        <v>10</v>
+      </c>
+      <c r="AV59">
+        <v>6</v>
+      </c>
+      <c r="AW59">
         <v>7</v>
       </c>
-      <c r="AV59">
-        <v>0</v>
-      </c>
-      <c r="AW59">
-        <v>1</v>
-      </c>
       <c r="AX59">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AY59">
+        <v>17</v>
+      </c>
+      <c r="AZ59">
+        <v>16</v>
+      </c>
+      <c r="BA59">
+        <v>6</v>
+      </c>
+      <c r="BB59">
         <v>8</v>
       </c>
-      <c r="AZ59">
-        <v>7</v>
-      </c>
-      <c r="BA59">
+      <c r="BC59">
+        <v>14</v>
+      </c>
+      <c r="BD59">
+        <v>0</v>
+      </c>
+      <c r="BE59">
+        <v>0</v>
+      </c>
+      <c r="BF59">
+        <v>0</v>
+      </c>
+      <c r="BG59">
+        <v>0</v>
+      </c>
+      <c r="BH59">
+        <v>0</v>
+      </c>
+      <c r="BI59">
+        <v>0</v>
+      </c>
+      <c r="BJ59">
+        <v>0</v>
+      </c>
+      <c r="BK59">
+        <v>0</v>
+      </c>
+      <c r="BL59">
+        <v>0</v>
+      </c>
+      <c r="BM59">
+        <v>0</v>
+      </c>
+      <c r="BN59">
+        <v>0</v>
+      </c>
+      <c r="BO59">
+        <v>0</v>
+      </c>
+      <c r="BP59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7325191</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45431.45833333334</v>
+      </c>
+      <c r="F60">
+        <v>11</v>
+      </c>
+      <c r="G60" t="s">
+        <v>74</v>
+      </c>
+      <c r="H60" t="s">
+        <v>72</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>2</v>
+      </c>
+      <c r="N60">
+        <v>2</v>
+      </c>
+      <c r="O60" t="s">
+        <v>81</v>
+      </c>
+      <c r="P60" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q60">
+        <v>8.5</v>
+      </c>
+      <c r="R60">
+        <v>2.75</v>
+      </c>
+      <c r="S60">
+        <v>1.57</v>
+      </c>
+      <c r="T60">
+        <v>1.2</v>
+      </c>
+      <c r="U60">
+        <v>4</v>
+      </c>
+      <c r="V60">
+        <v>2.1</v>
+      </c>
+      <c r="W60">
+        <v>1.67</v>
+      </c>
+      <c r="X60">
         <v>5</v>
       </c>
-      <c r="BB59">
+      <c r="Y60">
+        <v>1.14</v>
+      </c>
+      <c r="Z60">
+        <v>12</v>
+      </c>
+      <c r="AA60">
+        <v>5.5</v>
+      </c>
+      <c r="AB60">
+        <v>1.18</v>
+      </c>
+      <c r="AC60">
+        <v>1.01</v>
+      </c>
+      <c r="AD60">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE60">
+        <v>1.1</v>
+      </c>
+      <c r="AF60">
+        <v>5.92</v>
+      </c>
+      <c r="AG60">
+        <v>1.55</v>
+      </c>
+      <c r="AH60">
+        <v>2.2</v>
+      </c>
+      <c r="AI60">
+        <v>1.85</v>
+      </c>
+      <c r="AJ60">
+        <v>1.91</v>
+      </c>
+      <c r="AK60">
+        <v>3.25</v>
+      </c>
+      <c r="AL60">
+        <v>1.07</v>
+      </c>
+      <c r="AM60">
+        <v>1.04</v>
+      </c>
+      <c r="AN60">
+        <v>1.2</v>
+      </c>
+      <c r="AO60">
+        <v>2.5</v>
+      </c>
+      <c r="AP60">
+        <v>1</v>
+      </c>
+      <c r="AQ60">
+        <v>2.57</v>
+      </c>
+      <c r="AR60">
+        <v>1.27</v>
+      </c>
+      <c r="AS60">
+        <v>2.6</v>
+      </c>
+      <c r="AT60">
+        <v>3.87</v>
+      </c>
+      <c r="AU60">
+        <v>2</v>
+      </c>
+      <c r="AV60">
+        <v>6</v>
+      </c>
+      <c r="AW60">
+        <v>1</v>
+      </c>
+      <c r="AX60">
+        <v>8</v>
+      </c>
+      <c r="AY60">
         <v>3</v>
       </c>
-      <c r="BC59">
-        <v>8</v>
-      </c>
-      <c r="BD59">
-        <v>0</v>
-      </c>
-      <c r="BE59">
-        <v>0</v>
-      </c>
-      <c r="BF59">
-        <v>0</v>
-      </c>
-      <c r="BG59">
-        <v>0</v>
-      </c>
-      <c r="BH59">
-        <v>0</v>
-      </c>
-      <c r="BI59">
-        <v>0</v>
-      </c>
-      <c r="BJ59">
-        <v>0</v>
-      </c>
-      <c r="BK59">
-        <v>0</v>
-      </c>
-      <c r="BL59">
-        <v>0</v>
-      </c>
-      <c r="BM59">
-        <v>0</v>
-      </c>
-      <c r="BN59">
-        <v>0</v>
-      </c>
-      <c r="BO59">
-        <v>0</v>
-      </c>
-      <c r="BP59">
+      <c r="AZ60">
+        <v>14</v>
+      </c>
+      <c r="BA60">
+        <v>0</v>
+      </c>
+      <c r="BB60">
+        <v>11</v>
+      </c>
+      <c r="BC60">
+        <v>11</v>
+      </c>
+      <c r="BD60">
+        <v>0</v>
+      </c>
+      <c r="BE60">
+        <v>0</v>
+      </c>
+      <c r="BF60">
+        <v>0</v>
+      </c>
+      <c r="BG60">
+        <v>0</v>
+      </c>
+      <c r="BH60">
+        <v>0</v>
+      </c>
+      <c r="BI60">
+        <v>0</v>
+      </c>
+      <c r="BJ60">
+        <v>0</v>
+      </c>
+      <c r="BK60">
+        <v>0</v>
+      </c>
+      <c r="BL60">
+        <v>0</v>
+      </c>
+      <c r="BM60">
+        <v>0</v>
+      </c>
+      <c r="BN60">
+        <v>0</v>
+      </c>
+      <c r="BO60">
+        <v>0</v>
+      </c>
+      <c r="BP60">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -12731,22 +12731,22 @@
         <v>3.56</v>
       </c>
       <c r="AU58">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW58">
+        <v>5</v>
+      </c>
+      <c r="AX58">
         <v>4</v>
       </c>
-      <c r="AX58">
-        <v>2</v>
-      </c>
       <c r="AY58">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ58">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA58">
         <v>5</v>
@@ -13146,19 +13146,19 @@
         <v>2</v>
       </c>
       <c r="AV60">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AW60">
         <v>1</v>
       </c>
       <c r="AX60">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AY60">
         <v>3</v>
       </c>
       <c r="AZ60">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="BA60">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="157">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -374,6 +374,9 @@
   </si>
   <si>
     <t>['24', '38']</t>
+  </si>
+  <si>
+    <t>['88']</t>
   </si>
   <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
@@ -843,7 +846,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP60"/>
+  <dimension ref="A1:BP61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1180,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ2">
         <v>0</v>
@@ -1308,7 +1311,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1720,7 +1723,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -1926,7 +1929,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2338,7 +2341,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2750,7 +2753,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -2956,7 +2959,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3034,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -3162,7 +3165,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3368,7 +3371,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3574,7 +3577,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3780,7 +3783,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -3861,7 +3864,7 @@
         <v>1</v>
       </c>
       <c r="AQ15">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR15">
         <v>0.5</v>
@@ -4398,7 +4401,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -5222,7 +5225,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5428,7 +5431,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5634,7 +5637,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -5715,7 +5718,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ24">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR24">
         <v>2.63</v>
@@ -5840,7 +5843,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -5918,7 +5921,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ25">
         <v>0</v>
@@ -6252,7 +6255,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6333,7 +6336,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ27">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR27">
         <v>2.19</v>
@@ -6458,7 +6461,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6870,7 +6873,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7076,7 +7079,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7282,7 +7285,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7488,7 +7491,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7566,7 +7569,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ33">
         <v>1.63</v>
@@ -7694,7 +7697,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -7900,7 +7903,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8518,7 +8521,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8596,7 +8599,7 @@
         <v>2.33</v>
       </c>
       <c r="AP38">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ38">
         <v>2</v>
@@ -8724,7 +8727,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -8930,7 +8933,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9136,7 +9139,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9342,7 +9345,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9548,7 +9551,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9960,7 +9963,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10166,7 +10169,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10453,7 +10456,7 @@
         <v>1</v>
       </c>
       <c r="AQ47">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR47">
         <v>1.09</v>
@@ -11068,7 +11071,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ50">
         <v>2.57</v>
@@ -11196,7 +11199,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -11274,7 +11277,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ51">
         <v>1</v>
@@ -12020,7 +12023,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12226,7 +12229,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12432,7 +12435,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12719,7 +12722,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ58">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR58">
         <v>1.96</v>
@@ -13050,7 +13053,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13206,6 +13209,212 @@
         <v>0</v>
       </c>
       <c r="BP60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7325192</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45433.54166666666</v>
+      </c>
+      <c r="F61">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>70</v>
+      </c>
+      <c r="H61" t="s">
+        <v>71</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61" t="s">
+        <v>120</v>
+      </c>
+      <c r="P61" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q61">
+        <v>1.9</v>
+      </c>
+      <c r="R61">
+        <v>2.55</v>
+      </c>
+      <c r="S61">
+        <v>5</v>
+      </c>
+      <c r="T61">
+        <v>1.27</v>
+      </c>
+      <c r="U61">
+        <v>3.54</v>
+      </c>
+      <c r="V61">
+        <v>2.21</v>
+      </c>
+      <c r="W61">
+        <v>1.61</v>
+      </c>
+      <c r="X61">
+        <v>5.05</v>
+      </c>
+      <c r="Y61">
+        <v>1.15</v>
+      </c>
+      <c r="Z61">
+        <v>1.41</v>
+      </c>
+      <c r="AA61">
+        <v>4.54</v>
+      </c>
+      <c r="AB61">
+        <v>6.66</v>
+      </c>
+      <c r="AC61">
+        <v>1.02</v>
+      </c>
+      <c r="AD61">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="AE61">
+        <v>1.14</v>
+      </c>
+      <c r="AF61">
+        <v>4.7</v>
+      </c>
+      <c r="AG61">
+        <v>1.59</v>
+      </c>
+      <c r="AH61">
+        <v>2.16</v>
+      </c>
+      <c r="AI61">
+        <v>1.65</v>
+      </c>
+      <c r="AJ61">
+        <v>2.15</v>
+      </c>
+      <c r="AK61">
+        <v>1.08</v>
+      </c>
+      <c r="AL61">
+        <v>1.12</v>
+      </c>
+      <c r="AM61">
+        <v>2.7</v>
+      </c>
+      <c r="AN61">
+        <v>1.57</v>
+      </c>
+      <c r="AO61">
+        <v>0.8</v>
+      </c>
+      <c r="AP61">
+        <v>1.75</v>
+      </c>
+      <c r="AQ61">
+        <v>0.67</v>
+      </c>
+      <c r="AR61">
+        <v>1.78</v>
+      </c>
+      <c r="AS61">
+        <v>1.45</v>
+      </c>
+      <c r="AT61">
+        <v>3.23</v>
+      </c>
+      <c r="AU61">
+        <v>9</v>
+      </c>
+      <c r="AV61">
+        <v>3</v>
+      </c>
+      <c r="AW61">
+        <v>2</v>
+      </c>
+      <c r="AX61">
+        <v>2</v>
+      </c>
+      <c r="AY61">
+        <v>11</v>
+      </c>
+      <c r="AZ61">
+        <v>5</v>
+      </c>
+      <c r="BA61">
+        <v>8</v>
+      </c>
+      <c r="BB61">
+        <v>1</v>
+      </c>
+      <c r="BC61">
+        <v>9</v>
+      </c>
+      <c r="BD61">
+        <v>0</v>
+      </c>
+      <c r="BE61">
+        <v>0</v>
+      </c>
+      <c r="BF61">
+        <v>0</v>
+      </c>
+      <c r="BG61">
+        <v>0</v>
+      </c>
+      <c r="BH61">
+        <v>0</v>
+      </c>
+      <c r="BI61">
+        <v>0</v>
+      </c>
+      <c r="BJ61">
+        <v>0</v>
+      </c>
+      <c r="BK61">
+        <v>0</v>
+      </c>
+      <c r="BL61">
+        <v>0</v>
+      </c>
+      <c r="BM61">
+        <v>0</v>
+      </c>
+      <c r="BN61">
+        <v>0</v>
+      </c>
+      <c r="BO61">
+        <v>0</v>
+      </c>
+      <c r="BP61">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -13352,31 +13352,31 @@
         <v>3.23</v>
       </c>
       <c r="AU61">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AV61">
+        <v>5</v>
+      </c>
+      <c r="AW61">
         <v>3</v>
       </c>
-      <c r="AW61">
-        <v>2</v>
-      </c>
       <c r="AX61">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY61">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ61">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BA61">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BB61">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC61">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="BD61">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="160">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -379,6 +379,9 @@
     <t>['88']</t>
   </si>
   <si>
+    <t>['51', '90']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -485,6 +488,12 @@
   </si>
   <si>
     <t>['47', '90+5']</t>
+  </si>
+  <si>
+    <t>['54', '88']</t>
+  </si>
+  <si>
+    <t>['15', '75']</t>
   </si>
 </sst>
 </file>
@@ -846,7 +855,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP61"/>
+  <dimension ref="A1:BP63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1311,7 +1320,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1392,7 +1401,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ3">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1595,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AQ4">
         <v>0</v>
@@ -1723,7 +1732,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -1929,7 +1938,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2341,7 +2350,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2753,7 +2762,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -2831,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ10">
         <v>0</v>
@@ -2959,7 +2968,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3165,7 +3174,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3371,7 +3380,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3449,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ13">
         <v>1.83</v>
@@ -3577,7 +3586,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3783,7 +3792,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4070,7 +4079,7 @@
         <v>1</v>
       </c>
       <c r="AQ16">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4401,7 +4410,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4482,7 +4491,7 @@
         <v>1</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR18">
         <v>1.11</v>
@@ -5097,7 +5106,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AQ21">
         <v>1.63</v>
@@ -5225,7 +5234,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5431,7 +5440,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5637,7 +5646,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -5715,7 +5724,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
         <v>0.67</v>
@@ -5843,7 +5852,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6255,7 +6264,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6461,7 +6470,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6745,7 +6754,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AQ29">
         <v>0</v>
@@ -6873,7 +6882,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7079,7 +7088,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7285,7 +7294,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7491,7 +7500,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7697,7 +7706,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -7903,7 +7912,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -7981,7 +7990,7 @@
         <v>1.33</v>
       </c>
       <c r="AP35">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ35">
         <v>1.33</v>
@@ -8187,7 +8196,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -8521,7 +8530,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8602,7 +8611,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ38">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR38">
         <v>1.67</v>
@@ -8727,7 +8736,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -8933,7 +8942,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9014,7 +9023,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ40">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR40">
         <v>1.38</v>
@@ -9139,7 +9148,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9345,7 +9354,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9551,7 +9560,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9835,7 +9844,7 @@
         <v>1.4</v>
       </c>
       <c r="AP44">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AQ44">
         <v>1.63</v>
@@ -9963,7 +9972,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10169,7 +10178,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10865,7 +10874,7 @@
         <v>1.25</v>
       </c>
       <c r="AP49">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ49">
         <v>1</v>
@@ -11199,7 +11208,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -11689,10 +11698,10 @@
         <v>2.2</v>
       </c>
       <c r="AP53">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AQ53">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR53">
         <v>2.19</v>
@@ -12023,7 +12032,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12229,7 +12238,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12435,7 +12444,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13053,7 +13062,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13352,22 +13361,22 @@
         <v>3.23</v>
       </c>
       <c r="AU61">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV61">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW61">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AX61">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AY61">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AZ61">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BA61">
         <v>14</v>
@@ -13415,6 +13424,418 @@
         <v>0</v>
       </c>
       <c r="BP61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7325193</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45434.54166666666</v>
+      </c>
+      <c r="F62">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>77</v>
+      </c>
+      <c r="H62" t="s">
+        <v>76</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>2</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+      <c r="O62" t="s">
+        <v>81</v>
+      </c>
+      <c r="P62" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q62">
+        <v>2.88</v>
+      </c>
+      <c r="R62">
+        <v>2.25</v>
+      </c>
+      <c r="S62">
+        <v>3.2</v>
+      </c>
+      <c r="T62">
+        <v>1.3</v>
+      </c>
+      <c r="U62">
+        <v>3.2</v>
+      </c>
+      <c r="V62">
+        <v>2.62</v>
+      </c>
+      <c r="W62">
+        <v>1.44</v>
+      </c>
+      <c r="X62">
+        <v>5.97</v>
+      </c>
+      <c r="Y62">
+        <v>1.09</v>
+      </c>
+      <c r="Z62">
+        <v>2.28</v>
+      </c>
+      <c r="AA62">
+        <v>3.9</v>
+      </c>
+      <c r="AB62">
+        <v>2.6</v>
+      </c>
+      <c r="AC62">
+        <v>1.01</v>
+      </c>
+      <c r="AD62">
+        <v>9.35</v>
+      </c>
+      <c r="AE62">
+        <v>1.23</v>
+      </c>
+      <c r="AF62">
+        <v>3.76</v>
+      </c>
+      <c r="AG62">
+        <v>1.6</v>
+      </c>
+      <c r="AH62">
+        <v>2.1</v>
+      </c>
+      <c r="AI62">
+        <v>1.57</v>
+      </c>
+      <c r="AJ62">
+        <v>2.34</v>
+      </c>
+      <c r="AK62">
+        <v>1.4</v>
+      </c>
+      <c r="AL62">
+        <v>1.2</v>
+      </c>
+      <c r="AM62">
+        <v>1.53</v>
+      </c>
+      <c r="AN62">
+        <v>2.4</v>
+      </c>
+      <c r="AO62">
+        <v>2</v>
+      </c>
+      <c r="AP62">
+        <v>2</v>
+      </c>
+      <c r="AQ62">
+        <v>2.14</v>
+      </c>
+      <c r="AR62">
+        <v>2.43</v>
+      </c>
+      <c r="AS62">
+        <v>1.88</v>
+      </c>
+      <c r="AT62">
+        <v>4.31</v>
+      </c>
+      <c r="AU62">
+        <v>5</v>
+      </c>
+      <c r="AV62">
+        <v>6</v>
+      </c>
+      <c r="AW62">
+        <v>6</v>
+      </c>
+      <c r="AX62">
+        <v>2</v>
+      </c>
+      <c r="AY62">
+        <v>11</v>
+      </c>
+      <c r="AZ62">
+        <v>8</v>
+      </c>
+      <c r="BA62">
+        <v>6</v>
+      </c>
+      <c r="BB62">
+        <v>3</v>
+      </c>
+      <c r="BC62">
+        <v>9</v>
+      </c>
+      <c r="BD62">
+        <v>0</v>
+      </c>
+      <c r="BE62">
+        <v>0</v>
+      </c>
+      <c r="BF62">
+        <v>0</v>
+      </c>
+      <c r="BG62">
+        <v>0</v>
+      </c>
+      <c r="BH62">
+        <v>0</v>
+      </c>
+      <c r="BI62">
+        <v>0</v>
+      </c>
+      <c r="BJ62">
+        <v>0</v>
+      </c>
+      <c r="BK62">
+        <v>0</v>
+      </c>
+      <c r="BL62">
+        <v>0</v>
+      </c>
+      <c r="BM62">
+        <v>0</v>
+      </c>
+      <c r="BN62">
+        <v>0</v>
+      </c>
+      <c r="BO62">
+        <v>0</v>
+      </c>
+      <c r="BP62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7325194</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45434.54166666666</v>
+      </c>
+      <c r="F63">
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>72</v>
+      </c>
+      <c r="H63" t="s">
+        <v>73</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>2</v>
+      </c>
+      <c r="M63">
+        <v>2</v>
+      </c>
+      <c r="N63">
+        <v>4</v>
+      </c>
+      <c r="O63" t="s">
+        <v>121</v>
+      </c>
+      <c r="P63" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q63">
+        <v>1.67</v>
+      </c>
+      <c r="R63">
+        <v>2.75</v>
+      </c>
+      <c r="S63">
+        <v>7.5</v>
+      </c>
+      <c r="T63">
+        <v>1.23</v>
+      </c>
+      <c r="U63">
+        <v>3.76</v>
+      </c>
+      <c r="V63">
+        <v>2.1</v>
+      </c>
+      <c r="W63">
+        <v>1.67</v>
+      </c>
+      <c r="X63">
+        <v>4.98</v>
+      </c>
+      <c r="Y63">
+        <v>1.14</v>
+      </c>
+      <c r="Z63">
+        <v>1.21</v>
+      </c>
+      <c r="AA63">
+        <v>6</v>
+      </c>
+      <c r="AB63">
+        <v>12</v>
+      </c>
+      <c r="AC63">
+        <v>1.01</v>
+      </c>
+      <c r="AD63">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE63">
+        <v>1.11</v>
+      </c>
+      <c r="AF63">
+        <v>5.46</v>
+      </c>
+      <c r="AG63">
+        <v>1.54</v>
+      </c>
+      <c r="AH63">
+        <v>2.44</v>
+      </c>
+      <c r="AI63">
+        <v>1.73</v>
+      </c>
+      <c r="AJ63">
+        <v>2.05</v>
+      </c>
+      <c r="AK63">
+        <v>1.04</v>
+      </c>
+      <c r="AL63">
+        <v>1.12</v>
+      </c>
+      <c r="AM63">
+        <v>3.75</v>
+      </c>
+      <c r="AN63">
+        <v>2.33</v>
+      </c>
+      <c r="AO63">
+        <v>1</v>
+      </c>
+      <c r="AP63">
+        <v>2.14</v>
+      </c>
+      <c r="AQ63">
+        <v>1</v>
+      </c>
+      <c r="AR63">
+        <v>2.2</v>
+      </c>
+      <c r="AS63">
+        <v>1.36</v>
+      </c>
+      <c r="AT63">
+        <v>3.56</v>
+      </c>
+      <c r="AU63">
+        <v>14</v>
+      </c>
+      <c r="AV63">
+        <v>4</v>
+      </c>
+      <c r="AW63">
+        <v>20</v>
+      </c>
+      <c r="AX63">
+        <v>2</v>
+      </c>
+      <c r="AY63">
+        <v>34</v>
+      </c>
+      <c r="AZ63">
+        <v>6</v>
+      </c>
+      <c r="BA63">
+        <v>14</v>
+      </c>
+      <c r="BB63">
+        <v>1</v>
+      </c>
+      <c r="BC63">
+        <v>15</v>
+      </c>
+      <c r="BD63">
+        <v>0</v>
+      </c>
+      <c r="BE63">
+        <v>0</v>
+      </c>
+      <c r="BF63">
+        <v>0</v>
+      </c>
+      <c r="BG63">
+        <v>0</v>
+      </c>
+      <c r="BH63">
+        <v>0</v>
+      </c>
+      <c r="BI63">
+        <v>0</v>
+      </c>
+      <c r="BJ63">
+        <v>0</v>
+      </c>
+      <c r="BK63">
+        <v>0</v>
+      </c>
+      <c r="BL63">
+        <v>0</v>
+      </c>
+      <c r="BM63">
+        <v>0</v>
+      </c>
+      <c r="BN63">
+        <v>0</v>
+      </c>
+      <c r="BO63">
+        <v>0</v>
+      </c>
+      <c r="BP63">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="163">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -382,6 +382,9 @@
     <t>['51', '90']</t>
   </si>
   <si>
+    <t>['56']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -494,6 +497,12 @@
   </si>
   <si>
     <t>['15', '75']</t>
+  </si>
+  <si>
+    <t>['27', '60', '71']</t>
+  </si>
+  <si>
+    <t>['40']</t>
   </si>
 </sst>
 </file>
@@ -855,7 +864,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP63"/>
+  <dimension ref="A1:BP65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1320,7 +1329,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1607,7 +1616,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1732,7 +1741,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -1813,7 +1822,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ5">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1938,7 +1947,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2350,7 +2359,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2637,7 +2646,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2762,7 +2771,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -2968,7 +2977,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3174,7 +3183,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3380,7 +3389,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3586,7 +3595,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3667,7 +3676,7 @@
         <v>1</v>
       </c>
       <c r="AQ14">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3792,7 +3801,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4076,7 +4085,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ16">
         <v>2.14</v>
@@ -4410,7 +4419,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -5234,7 +5243,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5312,10 +5321,10 @@
         <v>2</v>
       </c>
       <c r="AP22">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ22">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR22">
         <v>0.74</v>
@@ -5440,7 +5449,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5646,7 +5655,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -5852,7 +5861,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -5933,7 +5942,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ25">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR25">
         <v>1.98</v>
@@ -6264,7 +6273,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6470,7 +6479,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6882,7 +6891,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7088,7 +7097,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7294,7 +7303,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7500,7 +7509,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7706,7 +7715,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -7784,7 +7793,7 @@
         <v>0.67</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -7912,7 +7921,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -7993,7 +8002,7 @@
         <v>2</v>
       </c>
       <c r="AQ35">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR35">
         <v>2.56</v>
@@ -8405,7 +8414,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ37">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR37">
         <v>1.49</v>
@@ -8530,7 +8539,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8736,7 +8745,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -8942,7 +8951,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9148,7 +9157,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9354,7 +9363,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9560,7 +9569,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9972,7 +9981,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10178,7 +10187,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10259,7 +10268,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ46">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR46">
         <v>1.97</v>
@@ -10462,7 +10471,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ47">
         <v>0.67</v>
@@ -11208,7 +11217,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -11495,7 +11504,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ52">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR52">
         <v>1.6</v>
@@ -11907,7 +11916,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ54">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR54">
         <v>1.38</v>
@@ -12032,7 +12041,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12110,7 +12119,7 @@
         <v>1.17</v>
       </c>
       <c r="AP55">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ55">
         <v>1.63</v>
@@ -12238,7 +12247,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12444,7 +12453,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13062,7 +13071,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13474,7 +13483,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13680,7 +13689,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -13836,6 +13845,418 @@
         <v>0</v>
       </c>
       <c r="BP63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7325195</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45435.5</v>
+      </c>
+      <c r="F64">
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>79</v>
+      </c>
+      <c r="H64" t="s">
+        <v>78</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>3</v>
+      </c>
+      <c r="N64">
+        <v>4</v>
+      </c>
+      <c r="O64" t="s">
+        <v>104</v>
+      </c>
+      <c r="P64" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q64">
+        <v>3</v>
+      </c>
+      <c r="R64">
+        <v>2.3</v>
+      </c>
+      <c r="S64">
+        <v>3</v>
+      </c>
+      <c r="T64">
+        <v>1.33</v>
+      </c>
+      <c r="U64">
+        <v>3.14</v>
+      </c>
+      <c r="V64">
+        <v>2.4</v>
+      </c>
+      <c r="W64">
+        <v>1.51</v>
+      </c>
+      <c r="X64">
+        <v>6</v>
+      </c>
+      <c r="Y64">
+        <v>1.11</v>
+      </c>
+      <c r="Z64">
+        <v>6.36</v>
+      </c>
+      <c r="AA64">
+        <v>7.64</v>
+      </c>
+      <c r="AB64">
+        <v>1.21</v>
+      </c>
+      <c r="AC64">
+        <v>1.02</v>
+      </c>
+      <c r="AD64">
+        <v>10.5</v>
+      </c>
+      <c r="AE64">
+        <v>1.2</v>
+      </c>
+      <c r="AF64">
+        <v>4.33</v>
+      </c>
+      <c r="AG64">
+        <v>1.61</v>
+      </c>
+      <c r="AH64">
+        <v>2.1</v>
+      </c>
+      <c r="AI64">
+        <v>1.52</v>
+      </c>
+      <c r="AJ64">
+        <v>2.45</v>
+      </c>
+      <c r="AK64">
+        <v>1.43</v>
+      </c>
+      <c r="AL64">
+        <v>1.22</v>
+      </c>
+      <c r="AM64">
+        <v>1.52</v>
+      </c>
+      <c r="AN64">
+        <v>1</v>
+      </c>
+      <c r="AO64">
+        <v>0</v>
+      </c>
+      <c r="AP64">
+        <v>0.83</v>
+      </c>
+      <c r="AQ64">
+        <v>0.5</v>
+      </c>
+      <c r="AR64">
+        <v>1.24</v>
+      </c>
+      <c r="AS64">
+        <v>1.77</v>
+      </c>
+      <c r="AT64">
+        <v>3.01</v>
+      </c>
+      <c r="AU64">
+        <v>3</v>
+      </c>
+      <c r="AV64">
+        <v>8</v>
+      </c>
+      <c r="AW64">
+        <v>4</v>
+      </c>
+      <c r="AX64">
+        <v>4</v>
+      </c>
+      <c r="AY64">
+        <v>7</v>
+      </c>
+      <c r="AZ64">
+        <v>12</v>
+      </c>
+      <c r="BA64">
+        <v>3</v>
+      </c>
+      <c r="BB64">
+        <v>4</v>
+      </c>
+      <c r="BC64">
+        <v>7</v>
+      </c>
+      <c r="BD64">
+        <v>0</v>
+      </c>
+      <c r="BE64">
+        <v>0</v>
+      </c>
+      <c r="BF64">
+        <v>0</v>
+      </c>
+      <c r="BG64">
+        <v>0</v>
+      </c>
+      <c r="BH64">
+        <v>0</v>
+      </c>
+      <c r="BI64">
+        <v>0</v>
+      </c>
+      <c r="BJ64">
+        <v>0</v>
+      </c>
+      <c r="BK64">
+        <v>0</v>
+      </c>
+      <c r="BL64">
+        <v>0</v>
+      </c>
+      <c r="BM64">
+        <v>0</v>
+      </c>
+      <c r="BN64">
+        <v>0</v>
+      </c>
+      <c r="BO64">
+        <v>0</v>
+      </c>
+      <c r="BP64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7325196</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45435.58333333334</v>
+      </c>
+      <c r="F65">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>74</v>
+      </c>
+      <c r="H65" t="s">
+        <v>75</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>2</v>
+      </c>
+      <c r="O65" t="s">
+        <v>122</v>
+      </c>
+      <c r="P65" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q65">
+        <v>3</v>
+      </c>
+      <c r="R65">
+        <v>2.25</v>
+      </c>
+      <c r="S65">
+        <v>3.1</v>
+      </c>
+      <c r="T65">
+        <v>1.3</v>
+      </c>
+      <c r="U65">
+        <v>3.2</v>
+      </c>
+      <c r="V65">
+        <v>2.62</v>
+      </c>
+      <c r="W65">
+        <v>1.44</v>
+      </c>
+      <c r="X65">
+        <v>5.97</v>
+      </c>
+      <c r="Y65">
+        <v>1.09</v>
+      </c>
+      <c r="Z65">
+        <v>2.32</v>
+      </c>
+      <c r="AA65">
+        <v>2.67</v>
+      </c>
+      <c r="AB65">
+        <v>3.31</v>
+      </c>
+      <c r="AC65">
+        <v>1.01</v>
+      </c>
+      <c r="AD65">
+        <v>9.35</v>
+      </c>
+      <c r="AE65">
+        <v>1.2</v>
+      </c>
+      <c r="AF65">
+        <v>4</v>
+      </c>
+      <c r="AG65">
+        <v>1.75</v>
+      </c>
+      <c r="AH65">
+        <v>1.85</v>
+      </c>
+      <c r="AI65">
+        <v>1.57</v>
+      </c>
+      <c r="AJ65">
+        <v>2.34</v>
+      </c>
+      <c r="AK65">
+        <v>1.4</v>
+      </c>
+      <c r="AL65">
+        <v>1.25</v>
+      </c>
+      <c r="AM65">
+        <v>1.44</v>
+      </c>
+      <c r="AN65">
+        <v>1</v>
+      </c>
+      <c r="AO65">
+        <v>1.33</v>
+      </c>
+      <c r="AP65">
+        <v>1</v>
+      </c>
+      <c r="AQ65">
+        <v>1.29</v>
+      </c>
+      <c r="AR65">
+        <v>1.14</v>
+      </c>
+      <c r="AS65">
+        <v>1.75</v>
+      </c>
+      <c r="AT65">
+        <v>2.89</v>
+      </c>
+      <c r="AU65">
+        <v>3</v>
+      </c>
+      <c r="AV65">
+        <v>7</v>
+      </c>
+      <c r="AW65">
+        <v>9</v>
+      </c>
+      <c r="AX65">
+        <v>6</v>
+      </c>
+      <c r="AY65">
+        <v>12</v>
+      </c>
+      <c r="AZ65">
+        <v>13</v>
+      </c>
+      <c r="BA65">
+        <v>8</v>
+      </c>
+      <c r="BB65">
+        <v>2</v>
+      </c>
+      <c r="BC65">
+        <v>10</v>
+      </c>
+      <c r="BD65">
+        <v>0</v>
+      </c>
+      <c r="BE65">
+        <v>0</v>
+      </c>
+      <c r="BF65">
+        <v>0</v>
+      </c>
+      <c r="BG65">
+        <v>0</v>
+      </c>
+      <c r="BH65">
+        <v>0</v>
+      </c>
+      <c r="BI65">
+        <v>0</v>
+      </c>
+      <c r="BJ65">
+        <v>0</v>
+      </c>
+      <c r="BK65">
+        <v>0</v>
+      </c>
+      <c r="BL65">
+        <v>0</v>
+      </c>
+      <c r="BM65">
+        <v>0</v>
+      </c>
+      <c r="BN65">
+        <v>0</v>
+      </c>
+      <c r="BO65">
+        <v>0</v>
+      </c>
+      <c r="BP65">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="166">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -385,6 +385,9 @@
     <t>['56']</t>
   </si>
   <si>
+    <t>['28', '45+7']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -503,6 +506,12 @@
   </si>
   <si>
     <t>['40']</t>
+  </si>
+  <si>
+    <t>['45+1', '89']</t>
+  </si>
+  <si>
+    <t>['85', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -864,7 +873,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP65"/>
+  <dimension ref="A1:BP67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1329,7 +1338,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1407,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ3">
         <v>2.14</v>
@@ -1616,7 +1625,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ4">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1741,7 +1750,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -1947,7 +1956,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2231,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2359,7 +2368,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2437,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ8">
         <v>2.57</v>
@@ -2646,7 +2655,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ9">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2771,7 +2780,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -2977,7 +2986,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3183,7 +3192,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3389,7 +3398,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3595,7 +3604,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3801,7 +3810,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4291,7 +4300,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ17">
         <v>1</v>
@@ -4419,7 +4428,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4909,7 +4918,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ20">
         <v>1.83</v>
@@ -5243,7 +5252,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5449,7 +5458,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5655,7 +5664,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -5861,7 +5870,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -5942,7 +5951,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ25">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR25">
         <v>1.98</v>
@@ -6273,7 +6282,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6351,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ27">
         <v>0.67</v>
@@ -6479,7 +6488,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6891,7 +6900,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7097,7 +7106,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7303,7 +7312,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7509,7 +7518,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7715,7 +7724,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -7921,7 +7930,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8411,10 +8420,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ37">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR37">
         <v>1.49</v>
@@ -8539,7 +8548,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8745,7 +8754,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -8951,7 +8960,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9157,7 +9166,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9235,7 +9244,7 @@
         <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ41">
         <v>1.83</v>
@@ -9363,7 +9372,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9441,7 +9450,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ42">
         <v>2.57</v>
@@ -9569,7 +9578,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9981,7 +9990,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10187,7 +10196,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -11217,7 +11226,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -11501,7 +11510,7 @@
         <v>1.4</v>
       </c>
       <c r="AP52">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ52">
         <v>1.29</v>
@@ -11916,7 +11925,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ54">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR54">
         <v>1.38</v>
@@ -12041,7 +12050,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12247,7 +12256,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12325,7 +12334,7 @@
         <v>1.43</v>
       </c>
       <c r="AP56">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ56">
         <v>1.63</v>
@@ -12453,7 +12462,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13071,7 +13080,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13483,7 +13492,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13689,7 +13698,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -13895,7 +13904,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13976,7 +13985,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ64">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR64">
         <v>1.24</v>
@@ -14101,7 +14110,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14257,6 +14266,418 @@
         <v>0</v>
       </c>
       <c r="BP65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7325197</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45439.54166666666</v>
+      </c>
+      <c r="F66">
+        <v>13</v>
+      </c>
+      <c r="G66" t="s">
+        <v>75</v>
+      </c>
+      <c r="H66" t="s">
+        <v>78</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>2</v>
+      </c>
+      <c r="N66">
+        <v>2</v>
+      </c>
+      <c r="O66" t="s">
+        <v>81</v>
+      </c>
+      <c r="P66" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q66">
+        <v>1.91</v>
+      </c>
+      <c r="R66">
+        <v>2.63</v>
+      </c>
+      <c r="S66">
+        <v>4.75</v>
+      </c>
+      <c r="T66">
+        <v>1.25</v>
+      </c>
+      <c r="U66">
+        <v>3.5</v>
+      </c>
+      <c r="V66">
+        <v>2.27</v>
+      </c>
+      <c r="W66">
+        <v>1.56</v>
+      </c>
+      <c r="X66">
+        <v>5.1</v>
+      </c>
+      <c r="Y66">
+        <v>1.13</v>
+      </c>
+      <c r="Z66">
+        <v>1.81</v>
+      </c>
+      <c r="AA66">
+        <v>3.8</v>
+      </c>
+      <c r="AB66">
+        <v>3.8</v>
+      </c>
+      <c r="AC66">
+        <v>1.02</v>
+      </c>
+      <c r="AD66">
+        <v>11.5</v>
+      </c>
+      <c r="AE66">
+        <v>1.15</v>
+      </c>
+      <c r="AF66">
+        <v>4.6</v>
+      </c>
+      <c r="AG66">
+        <v>1.69</v>
+      </c>
+      <c r="AH66">
+        <v>2.05</v>
+      </c>
+      <c r="AI66">
+        <v>1.53</v>
+      </c>
+      <c r="AJ66">
+        <v>2.43</v>
+      </c>
+      <c r="AK66">
+        <v>1.21</v>
+      </c>
+      <c r="AL66">
+        <v>1.21</v>
+      </c>
+      <c r="AM66">
+        <v>1.97</v>
+      </c>
+      <c r="AN66">
+        <v>0.8</v>
+      </c>
+      <c r="AO66">
+        <v>0.5</v>
+      </c>
+      <c r="AP66">
+        <v>0.67</v>
+      </c>
+      <c r="AQ66">
+        <v>0.86</v>
+      </c>
+      <c r="AR66">
+        <v>1.95</v>
+      </c>
+      <c r="AS66">
+        <v>1.76</v>
+      </c>
+      <c r="AT66">
+        <v>3.71</v>
+      </c>
+      <c r="AU66">
+        <v>0</v>
+      </c>
+      <c r="AV66">
+        <v>6</v>
+      </c>
+      <c r="AW66">
+        <v>9</v>
+      </c>
+      <c r="AX66">
+        <v>3</v>
+      </c>
+      <c r="AY66">
+        <v>9</v>
+      </c>
+      <c r="AZ66">
+        <v>9</v>
+      </c>
+      <c r="BA66">
+        <v>7</v>
+      </c>
+      <c r="BB66">
+        <v>5</v>
+      </c>
+      <c r="BC66">
+        <v>12</v>
+      </c>
+      <c r="BD66">
+        <v>0</v>
+      </c>
+      <c r="BE66">
+        <v>0</v>
+      </c>
+      <c r="BF66">
+        <v>0</v>
+      </c>
+      <c r="BG66">
+        <v>0</v>
+      </c>
+      <c r="BH66">
+        <v>0</v>
+      </c>
+      <c r="BI66">
+        <v>0</v>
+      </c>
+      <c r="BJ66">
+        <v>0</v>
+      </c>
+      <c r="BK66">
+        <v>0</v>
+      </c>
+      <c r="BL66">
+        <v>0</v>
+      </c>
+      <c r="BM66">
+        <v>0</v>
+      </c>
+      <c r="BN66">
+        <v>0</v>
+      </c>
+      <c r="BO66">
+        <v>0</v>
+      </c>
+      <c r="BP66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7325198</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45440.5</v>
+      </c>
+      <c r="F67">
+        <v>13</v>
+      </c>
+      <c r="G67" t="s">
+        <v>71</v>
+      </c>
+      <c r="H67" t="s">
+        <v>74</v>
+      </c>
+      <c r="I67">
+        <v>2</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>2</v>
+      </c>
+      <c r="L67">
+        <v>2</v>
+      </c>
+      <c r="M67">
+        <v>2</v>
+      </c>
+      <c r="N67">
+        <v>4</v>
+      </c>
+      <c r="O67" t="s">
+        <v>123</v>
+      </c>
+      <c r="P67" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q67">
+        <v>2.65</v>
+      </c>
+      <c r="R67">
+        <v>2.15</v>
+      </c>
+      <c r="S67">
+        <v>3.5</v>
+      </c>
+      <c r="T67">
+        <v>1.33</v>
+      </c>
+      <c r="U67">
+        <v>2.95</v>
+      </c>
+      <c r="V67">
+        <v>2.45</v>
+      </c>
+      <c r="W67">
+        <v>1.45</v>
+      </c>
+      <c r="X67">
+        <v>5.8</v>
+      </c>
+      <c r="Y67">
+        <v>1.09</v>
+      </c>
+      <c r="Z67">
+        <v>2.1</v>
+      </c>
+      <c r="AA67">
+        <v>3.4</v>
+      </c>
+      <c r="AB67">
+        <v>3.2</v>
+      </c>
+      <c r="AC67">
+        <v>1.05</v>
+      </c>
+      <c r="AD67">
+        <v>8</v>
+      </c>
+      <c r="AE67">
+        <v>1.2</v>
+      </c>
+      <c r="AF67">
+        <v>3.9</v>
+      </c>
+      <c r="AG67">
+        <v>1.68</v>
+      </c>
+      <c r="AH67">
+        <v>2.1</v>
+      </c>
+      <c r="AI67">
+        <v>1.6</v>
+      </c>
+      <c r="AJ67">
+        <v>2.15</v>
+      </c>
+      <c r="AK67">
+        <v>1.35</v>
+      </c>
+      <c r="AL67">
+        <v>1.3</v>
+      </c>
+      <c r="AM67">
+        <v>1.45</v>
+      </c>
+      <c r="AN67">
+        <v>1.33</v>
+      </c>
+      <c r="AO67">
+        <v>1</v>
+      </c>
+      <c r="AP67">
+        <v>1.29</v>
+      </c>
+      <c r="AQ67">
+        <v>1</v>
+      </c>
+      <c r="AR67">
+        <v>1.58</v>
+      </c>
+      <c r="AS67">
+        <v>1.21</v>
+      </c>
+      <c r="AT67">
+        <v>2.79</v>
+      </c>
+      <c r="AU67">
+        <v>0</v>
+      </c>
+      <c r="AV67">
+        <v>8</v>
+      </c>
+      <c r="AW67">
+        <v>3</v>
+      </c>
+      <c r="AX67">
+        <v>8</v>
+      </c>
+      <c r="AY67">
+        <v>3</v>
+      </c>
+      <c r="AZ67">
+        <v>16</v>
+      </c>
+      <c r="BA67">
+        <v>2</v>
+      </c>
+      <c r="BB67">
+        <v>17</v>
+      </c>
+      <c r="BC67">
+        <v>19</v>
+      </c>
+      <c r="BD67">
+        <v>0</v>
+      </c>
+      <c r="BE67">
+        <v>0</v>
+      </c>
+      <c r="BF67">
+        <v>0</v>
+      </c>
+      <c r="BG67">
+        <v>0</v>
+      </c>
+      <c r="BH67">
+        <v>0</v>
+      </c>
+      <c r="BI67">
+        <v>0</v>
+      </c>
+      <c r="BJ67">
+        <v>0</v>
+      </c>
+      <c r="BK67">
+        <v>0</v>
+      </c>
+      <c r="BL67">
+        <v>0</v>
+      </c>
+      <c r="BM67">
+        <v>0</v>
+      </c>
+      <c r="BN67">
+        <v>0</v>
+      </c>
+      <c r="BO67">
+        <v>0</v>
+      </c>
+      <c r="BP67">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="168">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -388,6 +388,9 @@
     <t>['28', '45+7']</t>
   </si>
   <si>
+    <t>['1']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -512,6 +515,9 @@
   </si>
   <si>
     <t>['85', '90+3']</t>
+  </si>
+  <si>
+    <t>['33']</t>
   </si>
 </sst>
 </file>
@@ -873,7 +879,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP67"/>
+  <dimension ref="A1:BP68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1213,7 +1219,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1338,7 +1344,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1750,7 +1756,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -1956,7 +1962,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2368,7 +2374,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2652,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ9">
         <v>0.86</v>
@@ -2780,7 +2786,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -2861,7 +2867,7 @@
         <v>2</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2986,7 +2992,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3192,7 +3198,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3398,7 +3404,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3604,7 +3610,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3810,7 +3816,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4428,7 +4434,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4715,7 +4721,7 @@
         <v>1</v>
       </c>
       <c r="AQ19">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AR19">
         <v>1.58</v>
@@ -5252,7 +5258,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5458,7 +5464,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5536,7 +5542,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ23">
         <v>2.57</v>
@@ -5664,7 +5670,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -5870,7 +5876,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6282,7 +6288,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6488,7 +6494,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6775,7 +6781,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ29">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AR29">
         <v>2.32</v>
@@ -6900,7 +6906,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7106,7 +7112,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7184,7 +7190,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ31">
         <v>1.63</v>
@@ -7312,7 +7318,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7518,7 +7524,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7724,7 +7730,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -7930,7 +7936,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8548,7 +8554,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8754,7 +8760,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -8835,7 +8841,7 @@
         <v>1</v>
       </c>
       <c r="AQ39">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AR39">
         <v>1.08</v>
@@ -8960,7 +8966,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9166,7 +9172,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9372,7 +9378,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9578,7 +9584,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9990,7 +9996,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10196,7 +10202,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10274,7 +10280,7 @@
         <v>1.75</v>
       </c>
       <c r="AP46">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ46">
         <v>1.29</v>
@@ -11226,7 +11232,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -12050,7 +12056,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12256,7 +12262,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12462,7 +12468,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12746,7 +12752,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ58">
         <v>0.67</v>
@@ -12955,7 +12961,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ59">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AR59">
         <v>1.41</v>
@@ -13080,7 +13086,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13492,7 +13498,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13698,7 +13704,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -13904,7 +13910,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14110,7 +14116,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14316,7 +14322,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14409,22 +14415,22 @@
         <v>3.71</v>
       </c>
       <c r="AU66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV66">
+        <v>9</v>
+      </c>
+      <c r="AW66">
+        <v>17</v>
+      </c>
+      <c r="AX66">
         <v>6</v>
       </c>
-      <c r="AW66">
-        <v>9</v>
-      </c>
-      <c r="AX66">
-        <v>3</v>
-      </c>
       <c r="AY66">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AZ66">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA66">
         <v>7</v>
@@ -14522,7 +14528,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -14615,22 +14621,22 @@
         <v>2.79</v>
       </c>
       <c r="AU67">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV67">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX67">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY67">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AZ67">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BA67">
         <v>2</v>
@@ -14678,6 +14684,212 @@
         <v>0</v>
       </c>
       <c r="BP67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7325199</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45440.58333333334</v>
+      </c>
+      <c r="F68">
+        <v>13</v>
+      </c>
+      <c r="G68" t="s">
+        <v>76</v>
+      </c>
+      <c r="H68" t="s">
+        <v>79</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>2</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>2</v>
+      </c>
+      <c r="O68" t="s">
+        <v>124</v>
+      </c>
+      <c r="P68" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q68">
+        <v>1.5</v>
+      </c>
+      <c r="R68">
+        <v>2.9</v>
+      </c>
+      <c r="S68">
+        <v>9</v>
+      </c>
+      <c r="T68">
+        <v>1.25</v>
+      </c>
+      <c r="U68">
+        <v>3.5</v>
+      </c>
+      <c r="V68">
+        <v>2.06</v>
+      </c>
+      <c r="W68">
+        <v>1.69</v>
+      </c>
+      <c r="X68">
+        <v>4.4</v>
+      </c>
+      <c r="Y68">
+        <v>1.16</v>
+      </c>
+      <c r="Z68">
+        <v>1.2</v>
+      </c>
+      <c r="AA68">
+        <v>6.5</v>
+      </c>
+      <c r="AB68">
+        <v>11</v>
+      </c>
+      <c r="AC68">
+        <v>1.01</v>
+      </c>
+      <c r="AD68">
+        <v>11.25</v>
+      </c>
+      <c r="AE68">
+        <v>1.09</v>
+      </c>
+      <c r="AF68">
+        <v>5.8</v>
+      </c>
+      <c r="AG68">
+        <v>1.4</v>
+      </c>
+      <c r="AH68">
+        <v>2.37</v>
+      </c>
+      <c r="AI68">
+        <v>2.1</v>
+      </c>
+      <c r="AJ68">
+        <v>1.7</v>
+      </c>
+      <c r="AK68">
+        <v>1.01</v>
+      </c>
+      <c r="AL68">
+        <v>1.07</v>
+      </c>
+      <c r="AM68">
+        <v>4.3</v>
+      </c>
+      <c r="AN68">
+        <v>2.4</v>
+      </c>
+      <c r="AO68">
+        <v>0</v>
+      </c>
+      <c r="AP68">
+        <v>2.17</v>
+      </c>
+      <c r="AQ68">
+        <v>0.14</v>
+      </c>
+      <c r="AR68">
+        <v>2.01</v>
+      </c>
+      <c r="AS68">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT68">
+        <v>2.95</v>
+      </c>
+      <c r="AU68">
+        <v>4</v>
+      </c>
+      <c r="AV68">
+        <v>6</v>
+      </c>
+      <c r="AW68">
+        <v>13</v>
+      </c>
+      <c r="AX68">
+        <v>5</v>
+      </c>
+      <c r="AY68">
+        <v>17</v>
+      </c>
+      <c r="AZ68">
+        <v>11</v>
+      </c>
+      <c r="BA68">
+        <v>6</v>
+      </c>
+      <c r="BB68">
+        <v>6</v>
+      </c>
+      <c r="BC68">
+        <v>12</v>
+      </c>
+      <c r="BD68">
+        <v>0</v>
+      </c>
+      <c r="BE68">
+        <v>0</v>
+      </c>
+      <c r="BF68">
+        <v>0</v>
+      </c>
+      <c r="BG68">
+        <v>0</v>
+      </c>
+      <c r="BH68">
+        <v>0</v>
+      </c>
+      <c r="BI68">
+        <v>0</v>
+      </c>
+      <c r="BJ68">
+        <v>0</v>
+      </c>
+      <c r="BK68">
+        <v>0</v>
+      </c>
+      <c r="BL68">
+        <v>0</v>
+      </c>
+      <c r="BM68">
+        <v>0</v>
+      </c>
+      <c r="BN68">
+        <v>0</v>
+      </c>
+      <c r="BO68">
+        <v>0</v>
+      </c>
+      <c r="BP68">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="171">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -391,6 +391,9 @@
     <t>['1']</t>
   </si>
   <si>
+    <t>['18', '52']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -518,6 +521,12 @@
   </si>
   <si>
     <t>['33']</t>
+  </si>
+  <si>
+    <t>['22', '31', '42']</t>
+  </si>
+  <si>
+    <t>['54']</t>
   </si>
 </sst>
 </file>
@@ -879,7 +888,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP68"/>
+  <dimension ref="A1:BP70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1344,7 +1353,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1756,7 +1765,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -1834,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ5">
         <v>1.29</v>
@@ -1962,7 +1971,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2374,7 +2383,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2455,7 +2464,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ8">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AR8">
         <v>1.63</v>
@@ -2786,7 +2795,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -2864,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ10">
         <v>0.14</v>
@@ -2992,7 +3001,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3198,7 +3207,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3276,10 +3285,10 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ12">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AR12">
         <v>1.76</v>
@@ -3404,7 +3413,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3482,10 +3491,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
+        <v>1.71</v>
+      </c>
+      <c r="AQ13">
         <v>2</v>
-      </c>
-      <c r="AQ13">
-        <v>1.83</v>
       </c>
       <c r="AR13">
         <v>2.65</v>
@@ -3610,7 +3619,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3816,7 +3825,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4434,7 +4443,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4927,7 +4936,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ20">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR20">
         <v>2.07</v>
@@ -5258,7 +5267,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5464,7 +5473,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5545,7 +5554,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ23">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AR23">
         <v>2.56</v>
@@ -5670,7 +5679,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -5748,7 +5757,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ24">
         <v>0.67</v>
@@ -5876,7 +5885,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6160,7 +6169,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6288,7 +6297,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6494,7 +6503,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6906,7 +6915,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6987,7 +6996,7 @@
         <v>1</v>
       </c>
       <c r="AQ30">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR30">
         <v>1.13</v>
@@ -7112,7 +7121,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7318,7 +7327,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7396,10 +7405,10 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ32">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AR32">
         <v>1.47</v>
@@ -7524,7 +7533,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7730,7 +7739,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -7936,7 +7945,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8014,7 +8023,7 @@
         <v>1.33</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ35">
         <v>1.29</v>
@@ -8554,7 +8563,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8760,7 +8769,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -8966,7 +8975,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9044,7 +9053,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ40">
         <v>2.14</v>
@@ -9172,7 +9181,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9253,7 +9262,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ41">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR41">
         <v>1.7</v>
@@ -9378,7 +9387,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9459,7 +9468,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ42">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AR42">
         <v>2.19</v>
@@ -9584,7 +9593,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9996,7 +10005,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10074,10 +10083,10 @@
         <v>1.25</v>
       </c>
       <c r="AP45">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ45">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR45">
         <v>1.38</v>
@@ -10202,7 +10211,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10898,7 +10907,7 @@
         <v>1.25</v>
       </c>
       <c r="AP49">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ49">
         <v>1</v>
@@ -11107,7 +11116,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ50">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AR50">
         <v>1.81</v>
@@ -11232,7 +11241,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -11928,7 +11937,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ54">
         <v>0.86</v>
@@ -12056,7 +12065,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12262,7 +12271,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12468,7 +12477,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12549,7 +12558,7 @@
         <v>1</v>
       </c>
       <c r="AQ57">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR57">
         <v>1.88</v>
@@ -12958,7 +12967,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ59">
         <v>0.14</v>
@@ -13086,7 +13095,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13167,7 +13176,7 @@
         <v>1</v>
       </c>
       <c r="AQ60">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AR60">
         <v>1.27</v>
@@ -13498,7 +13507,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13576,7 +13585,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ62">
         <v>2.14</v>
@@ -13704,7 +13713,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -13910,7 +13919,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14116,7 +14125,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14322,7 +14331,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14528,7 +14537,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -14734,7 +14743,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -14890,6 +14899,418 @@
         <v>0</v>
       </c>
       <c r="BP68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7325200</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45441.54166666666</v>
+      </c>
+      <c r="F69">
+        <v>13</v>
+      </c>
+      <c r="G69" t="s">
+        <v>73</v>
+      </c>
+      <c r="H69" t="s">
+        <v>70</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>3</v>
+      </c>
+      <c r="K69">
+        <v>4</v>
+      </c>
+      <c r="L69">
+        <v>2</v>
+      </c>
+      <c r="M69">
+        <v>3</v>
+      </c>
+      <c r="N69">
+        <v>5</v>
+      </c>
+      <c r="O69" t="s">
+        <v>125</v>
+      </c>
+      <c r="P69" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q69">
+        <v>5</v>
+      </c>
+      <c r="R69">
+        <v>2.4</v>
+      </c>
+      <c r="S69">
+        <v>2.05</v>
+      </c>
+      <c r="T69">
+        <v>1.29</v>
+      </c>
+      <c r="U69">
+        <v>3.4</v>
+      </c>
+      <c r="V69">
+        <v>2.36</v>
+      </c>
+      <c r="W69">
+        <v>1.54</v>
+      </c>
+      <c r="X69">
+        <v>5.45</v>
+      </c>
+      <c r="Y69">
+        <v>1.13</v>
+      </c>
+      <c r="Z69">
+        <v>4.26</v>
+      </c>
+      <c r="AA69">
+        <v>3.61</v>
+      </c>
+      <c r="AB69">
+        <v>1.53</v>
+      </c>
+      <c r="AC69">
+        <v>1.03</v>
+      </c>
+      <c r="AD69">
+        <v>9.4</v>
+      </c>
+      <c r="AE69">
+        <v>1.18</v>
+      </c>
+      <c r="AF69">
+        <v>4.5</v>
+      </c>
+      <c r="AG69">
+        <v>1.55</v>
+      </c>
+      <c r="AH69">
+        <v>2.3</v>
+      </c>
+      <c r="AI69">
+        <v>1.67</v>
+      </c>
+      <c r="AJ69">
+        <v>2.1</v>
+      </c>
+      <c r="AK69">
+        <v>2.5</v>
+      </c>
+      <c r="AL69">
+        <v>1.2</v>
+      </c>
+      <c r="AM69">
+        <v>1.15</v>
+      </c>
+      <c r="AN69">
+        <v>1.25</v>
+      </c>
+      <c r="AO69">
+        <v>1.83</v>
+      </c>
+      <c r="AP69">
+        <v>1.11</v>
+      </c>
+      <c r="AQ69">
+        <v>2</v>
+      </c>
+      <c r="AR69">
+        <v>1.5</v>
+      </c>
+      <c r="AS69">
+        <v>1.79</v>
+      </c>
+      <c r="AT69">
+        <v>3.29</v>
+      </c>
+      <c r="AU69">
+        <v>7</v>
+      </c>
+      <c r="AV69">
+        <v>10</v>
+      </c>
+      <c r="AW69">
+        <v>11</v>
+      </c>
+      <c r="AX69">
+        <v>9</v>
+      </c>
+      <c r="AY69">
+        <v>18</v>
+      </c>
+      <c r="AZ69">
+        <v>19</v>
+      </c>
+      <c r="BA69">
+        <v>7</v>
+      </c>
+      <c r="BB69">
+        <v>8</v>
+      </c>
+      <c r="BC69">
+        <v>15</v>
+      </c>
+      <c r="BD69">
+        <v>0</v>
+      </c>
+      <c r="BE69">
+        <v>0</v>
+      </c>
+      <c r="BF69">
+        <v>0</v>
+      </c>
+      <c r="BG69">
+        <v>0</v>
+      </c>
+      <c r="BH69">
+        <v>0</v>
+      </c>
+      <c r="BI69">
+        <v>0</v>
+      </c>
+      <c r="BJ69">
+        <v>0</v>
+      </c>
+      <c r="BK69">
+        <v>0</v>
+      </c>
+      <c r="BL69">
+        <v>0</v>
+      </c>
+      <c r="BM69">
+        <v>0</v>
+      </c>
+      <c r="BN69">
+        <v>0</v>
+      </c>
+      <c r="BO69">
+        <v>0</v>
+      </c>
+      <c r="BP69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7325201</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45441.54166666666</v>
+      </c>
+      <c r="F70">
+        <v>13</v>
+      </c>
+      <c r="G70" t="s">
+        <v>77</v>
+      </c>
+      <c r="H70" t="s">
+        <v>72</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70" t="s">
+        <v>81</v>
+      </c>
+      <c r="P70" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q70">
+        <v>4.5</v>
+      </c>
+      <c r="R70">
+        <v>2.25</v>
+      </c>
+      <c r="S70">
+        <v>2.2</v>
+      </c>
+      <c r="T70">
+        <v>1.33</v>
+      </c>
+      <c r="U70">
+        <v>3.25</v>
+      </c>
+      <c r="V70">
+        <v>2.6</v>
+      </c>
+      <c r="W70">
+        <v>1.45</v>
+      </c>
+      <c r="X70">
+        <v>5.5</v>
+      </c>
+      <c r="Y70">
+        <v>1.12</v>
+      </c>
+      <c r="Z70">
+        <v>4.4</v>
+      </c>
+      <c r="AA70">
+        <v>3.46</v>
+      </c>
+      <c r="AB70">
+        <v>1.54</v>
+      </c>
+      <c r="AC70">
+        <v>1.01</v>
+      </c>
+      <c r="AD70">
+        <v>11</v>
+      </c>
+      <c r="AE70">
+        <v>1.25</v>
+      </c>
+      <c r="AF70">
+        <v>3.75</v>
+      </c>
+      <c r="AG70">
+        <v>1.7</v>
+      </c>
+      <c r="AH70">
+        <v>2.05</v>
+      </c>
+      <c r="AI70">
+        <v>1.75</v>
+      </c>
+      <c r="AJ70">
+        <v>2</v>
+      </c>
+      <c r="AK70">
+        <v>2.05</v>
+      </c>
+      <c r="AL70">
+        <v>1.2</v>
+      </c>
+      <c r="AM70">
+        <v>1.15</v>
+      </c>
+      <c r="AN70">
+        <v>2</v>
+      </c>
+      <c r="AO70">
+        <v>2.57</v>
+      </c>
+      <c r="AP70">
+        <v>1.71</v>
+      </c>
+      <c r="AQ70">
+        <v>2.63</v>
+      </c>
+      <c r="AR70">
+        <v>2.27</v>
+      </c>
+      <c r="AS70">
+        <v>2.64</v>
+      </c>
+      <c r="AT70">
+        <v>4.91</v>
+      </c>
+      <c r="AU70">
+        <v>5</v>
+      </c>
+      <c r="AV70">
+        <v>3</v>
+      </c>
+      <c r="AW70">
+        <v>8</v>
+      </c>
+      <c r="AX70">
+        <v>9</v>
+      </c>
+      <c r="AY70">
+        <v>13</v>
+      </c>
+      <c r="AZ70">
+        <v>12</v>
+      </c>
+      <c r="BA70">
+        <v>3</v>
+      </c>
+      <c r="BB70">
+        <v>7</v>
+      </c>
+      <c r="BC70">
+        <v>10</v>
+      </c>
+      <c r="BD70">
+        <v>0</v>
+      </c>
+      <c r="BE70">
+        <v>0</v>
+      </c>
+      <c r="BF70">
+        <v>0</v>
+      </c>
+      <c r="BG70">
+        <v>0</v>
+      </c>
+      <c r="BH70">
+        <v>0</v>
+      </c>
+      <c r="BI70">
+        <v>0</v>
+      </c>
+      <c r="BJ70">
+        <v>0</v>
+      </c>
+      <c r="BK70">
+        <v>0</v>
+      </c>
+      <c r="BL70">
+        <v>0</v>
+      </c>
+      <c r="BM70">
+        <v>0</v>
+      </c>
+      <c r="BN70">
+        <v>0</v>
+      </c>
+      <c r="BO70">
+        <v>0</v>
+      </c>
+      <c r="BP70">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="173">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -394,6 +394,9 @@
     <t>['18', '52']</t>
   </si>
   <si>
+    <t>['45+1', '49']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -527,6 +530,9 @@
   </si>
   <si>
     <t>['54']</t>
+  </si>
+  <si>
+    <t>['59']</t>
   </si>
 </sst>
 </file>
@@ -888,7 +894,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP70"/>
+  <dimension ref="A1:BP71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1353,7 +1359,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1765,7 +1771,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -1971,7 +1977,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2258,7 +2264,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2383,7 +2389,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2795,7 +2801,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -3001,7 +3007,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3207,7 +3213,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3413,7 +3419,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3619,7 +3625,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3825,7 +3831,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4109,7 +4115,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ16">
         <v>2.14</v>
@@ -4443,7 +4449,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -5267,7 +5273,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5345,7 +5351,7 @@
         <v>2</v>
       </c>
       <c r="AP22">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ22">
         <v>1.29</v>
@@ -5473,7 +5479,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5679,7 +5685,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -5885,7 +5891,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6172,7 +6178,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR26">
         <v>1.42</v>
@@ -6297,7 +6303,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6503,7 +6509,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6915,7 +6921,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7121,7 +7127,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7327,7 +7333,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7533,7 +7539,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7739,7 +7745,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -7817,7 +7823,7 @@
         <v>0.67</v>
       </c>
       <c r="AP34">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -7945,7 +7951,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8232,7 +8238,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR36">
         <v>2.43</v>
@@ -8563,7 +8569,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8769,7 +8775,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -8975,7 +8981,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9181,7 +9187,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9387,7 +9393,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9593,7 +9599,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -10005,7 +10011,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10211,7 +10217,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10495,7 +10501,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ47">
         <v>0.67</v>
@@ -10704,7 +10710,7 @@
         <v>1</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR48">
         <v>1.86</v>
@@ -11241,7 +11247,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -11322,7 +11328,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR51">
         <v>1.74</v>
@@ -12065,7 +12071,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12143,7 +12149,7 @@
         <v>1.17</v>
       </c>
       <c r="AP55">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ55">
         <v>1.63</v>
@@ -12271,7 +12277,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12477,7 +12483,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13095,7 +13101,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13507,7 +13513,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13713,7 +13719,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -13919,7 +13925,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13997,7 +14003,7 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ64">
         <v>0.86</v>
@@ -14125,7 +14131,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14331,7 +14337,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14537,7 +14543,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -14618,7 +14624,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ67">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR67">
         <v>1.58</v>
@@ -14743,7 +14749,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -14949,7 +14955,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15155,7 +15161,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15311,6 +15317,212 @@
         <v>0</v>
       </c>
       <c r="BP70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7325202</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45443.58333333334</v>
+      </c>
+      <c r="F71">
+        <v>14</v>
+      </c>
+      <c r="G71" t="s">
+        <v>79</v>
+      </c>
+      <c r="H71" t="s">
+        <v>74</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>3</v>
+      </c>
+      <c r="O71" t="s">
+        <v>126</v>
+      </c>
+      <c r="P71" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q71">
+        <v>4</v>
+      </c>
+      <c r="R71">
+        <v>2.1</v>
+      </c>
+      <c r="S71">
+        <v>2.5</v>
+      </c>
+      <c r="T71">
+        <v>1.36</v>
+      </c>
+      <c r="U71">
+        <v>2.88</v>
+      </c>
+      <c r="V71">
+        <v>2.88</v>
+      </c>
+      <c r="W71">
+        <v>1.36</v>
+      </c>
+      <c r="X71">
+        <v>7</v>
+      </c>
+      <c r="Y71">
+        <v>1.07</v>
+      </c>
+      <c r="Z71">
+        <v>3.6</v>
+      </c>
+      <c r="AA71">
+        <v>3.3</v>
+      </c>
+      <c r="AB71">
+        <v>1.91</v>
+      </c>
+      <c r="AC71">
+        <v>1.04</v>
+      </c>
+      <c r="AD71">
+        <v>10</v>
+      </c>
+      <c r="AE71">
+        <v>1.29</v>
+      </c>
+      <c r="AF71">
+        <v>3.25</v>
+      </c>
+      <c r="AG71">
+        <v>1.9</v>
+      </c>
+      <c r="AH71">
+        <v>1.83</v>
+      </c>
+      <c r="AI71">
+        <v>1.73</v>
+      </c>
+      <c r="AJ71">
+        <v>2.05</v>
+      </c>
+      <c r="AK71">
+        <v>1.73</v>
+      </c>
+      <c r="AL71">
+        <v>1.25</v>
+      </c>
+      <c r="AM71">
+        <v>1.22</v>
+      </c>
+      <c r="AN71">
+        <v>0.83</v>
+      </c>
+      <c r="AO71">
+        <v>1</v>
+      </c>
+      <c r="AP71">
+        <v>1.14</v>
+      </c>
+      <c r="AQ71">
+        <v>0.86</v>
+      </c>
+      <c r="AR71">
+        <v>1.2</v>
+      </c>
+      <c r="AS71">
+        <v>1.38</v>
+      </c>
+      <c r="AT71">
+        <v>2.58</v>
+      </c>
+      <c r="AU71">
+        <v>5</v>
+      </c>
+      <c r="AV71">
+        <v>5</v>
+      </c>
+      <c r="AW71">
+        <v>5</v>
+      </c>
+      <c r="AX71">
+        <v>3</v>
+      </c>
+      <c r="AY71">
+        <v>10</v>
+      </c>
+      <c r="AZ71">
+        <v>8</v>
+      </c>
+      <c r="BA71">
+        <v>3</v>
+      </c>
+      <c r="BB71">
+        <v>8</v>
+      </c>
+      <c r="BC71">
+        <v>11</v>
+      </c>
+      <c r="BD71">
+        <v>0</v>
+      </c>
+      <c r="BE71">
+        <v>0</v>
+      </c>
+      <c r="BF71">
+        <v>0</v>
+      </c>
+      <c r="BG71">
+        <v>0</v>
+      </c>
+      <c r="BH71">
+        <v>0</v>
+      </c>
+      <c r="BI71">
+        <v>0</v>
+      </c>
+      <c r="BJ71">
+        <v>0</v>
+      </c>
+      <c r="BK71">
+        <v>0</v>
+      </c>
+      <c r="BL71">
+        <v>0</v>
+      </c>
+      <c r="BM71">
+        <v>0</v>
+      </c>
+      <c r="BN71">
+        <v>0</v>
+      </c>
+      <c r="BO71">
+        <v>0</v>
+      </c>
+      <c r="BP71">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="175">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -395,6 +395,12 @@
   </si>
   <si>
     <t>['45+1', '49']</t>
+  </si>
+  <si>
+    <t>['15', '32']</t>
+  </si>
+  <si>
+    <t>['2', '72']</t>
   </si>
   <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
@@ -894,7 +900,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP71"/>
+  <dimension ref="A1:BP73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1231,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ2">
         <v>0.14</v>
@@ -1359,7 +1365,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1643,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ4">
         <v>0.86</v>
@@ -1771,7 +1777,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -1977,7 +1983,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2058,7 +2064,7 @@
         <v>1</v>
       </c>
       <c r="AQ6">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2389,7 +2395,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2801,7 +2807,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -3007,7 +3013,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3085,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -3213,7 +3219,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3419,7 +3425,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3625,7 +3631,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3831,7 +3837,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -3912,7 +3918,7 @@
         <v>1</v>
       </c>
       <c r="AQ15">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR15">
         <v>0.5</v>
@@ -4449,7 +4455,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -5145,10 +5151,10 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ21">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR21">
         <v>2.61</v>
@@ -5273,7 +5279,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5479,7 +5485,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5685,7 +5691,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -5766,7 +5772,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ24">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR24">
         <v>2.63</v>
@@ -5891,7 +5897,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -5969,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ25">
         <v>0.86</v>
@@ -6303,7 +6309,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6384,7 +6390,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ27">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR27">
         <v>2.19</v>
@@ -6509,7 +6515,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6793,7 +6799,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ29">
         <v>0.14</v>
@@ -6921,7 +6927,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7127,7 +7133,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7208,7 +7214,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ31">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR31">
         <v>2.12</v>
@@ -7333,7 +7339,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7539,7 +7545,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7617,10 +7623,10 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ33">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR33">
         <v>1.95</v>
@@ -7745,7 +7751,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -7951,7 +7957,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8235,7 +8241,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ36">
         <v>0.86</v>
@@ -8569,7 +8575,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8647,7 +8653,7 @@
         <v>2.33</v>
       </c>
       <c r="AP38">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ38">
         <v>2.14</v>
@@ -8775,7 +8781,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -8981,7 +8987,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9187,7 +9193,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9393,7 +9399,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9599,7 +9605,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9680,7 +9686,7 @@
         <v>1</v>
       </c>
       <c r="AQ43">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR43">
         <v>1.92</v>
@@ -9883,10 +9889,10 @@
         <v>1.4</v>
       </c>
       <c r="AP44">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ44">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR44">
         <v>2.3</v>
@@ -10011,7 +10017,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10217,7 +10223,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10504,7 +10510,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ47">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR47">
         <v>1.09</v>
@@ -11119,7 +11125,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ50">
         <v>2.63</v>
@@ -11247,7 +11253,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -11325,7 +11331,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ51">
         <v>0.86</v>
@@ -11737,7 +11743,7 @@
         <v>2.2</v>
       </c>
       <c r="AP53">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ53">
         <v>2.14</v>
@@ -12071,7 +12077,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12152,7 +12158,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ55">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR55">
         <v>1.18</v>
@@ -12277,7 +12283,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12358,7 +12364,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ56">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR56">
         <v>1.96</v>
@@ -12483,7 +12489,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12770,7 +12776,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ58">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR58">
         <v>1.96</v>
@@ -13101,7 +13107,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13385,10 +13391,10 @@
         <v>0.8</v>
       </c>
       <c r="AP61">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ61">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR61">
         <v>1.78</v>
@@ -13513,7 +13519,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13719,7 +13725,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -13797,7 +13803,7 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ63">
         <v>1</v>
@@ -13925,7 +13931,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14131,7 +14137,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14337,7 +14343,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14543,7 +14549,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -14749,7 +14755,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -14955,7 +14961,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15161,7 +15167,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15367,7 +15373,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15460,22 +15466,22 @@
         <v>2.58</v>
       </c>
       <c r="AU71">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV71">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW71">
         <v>5</v>
       </c>
       <c r="AX71">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AY71">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ71">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA71">
         <v>3</v>
@@ -15523,6 +15529,418 @@
         <v>0</v>
       </c>
       <c r="BP71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7325203</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45444.35416666666</v>
+      </c>
+      <c r="F72">
+        <v>14</v>
+      </c>
+      <c r="G72" t="s">
+        <v>70</v>
+      </c>
+      <c r="H72" t="s">
+        <v>77</v>
+      </c>
+      <c r="I72">
+        <v>2</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>2</v>
+      </c>
+      <c r="L72">
+        <v>2</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>2</v>
+      </c>
+      <c r="O72" t="s">
+        <v>127</v>
+      </c>
+      <c r="P72" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q72">
+        <v>2.91</v>
+      </c>
+      <c r="R72">
+        <v>2.23</v>
+      </c>
+      <c r="S72">
+        <v>3.08</v>
+      </c>
+      <c r="T72">
+        <v>1.31</v>
+      </c>
+      <c r="U72">
+        <v>3.26</v>
+      </c>
+      <c r="V72">
+        <v>2.43</v>
+      </c>
+      <c r="W72">
+        <v>1.52</v>
+      </c>
+      <c r="X72">
+        <v>5.7</v>
+      </c>
+      <c r="Y72">
+        <v>1.12</v>
+      </c>
+      <c r="Z72">
+        <v>2.8</v>
+      </c>
+      <c r="AA72">
+        <v>3.35</v>
+      </c>
+      <c r="AB72">
+        <v>2.38</v>
+      </c>
+      <c r="AC72">
+        <v>1.04</v>
+      </c>
+      <c r="AD72">
+        <v>8.5</v>
+      </c>
+      <c r="AE72">
+        <v>1.18</v>
+      </c>
+      <c r="AF72">
+        <v>4.5</v>
+      </c>
+      <c r="AG72">
+        <v>1.65</v>
+      </c>
+      <c r="AH72">
+        <v>2.15</v>
+      </c>
+      <c r="AI72">
+        <v>1.5</v>
+      </c>
+      <c r="AJ72">
+        <v>2.5</v>
+      </c>
+      <c r="AK72">
+        <v>1.57</v>
+      </c>
+      <c r="AL72">
+        <v>1.33</v>
+      </c>
+      <c r="AM72">
+        <v>1.4</v>
+      </c>
+      <c r="AN72">
+        <v>1.75</v>
+      </c>
+      <c r="AO72">
+        <v>1.63</v>
+      </c>
+      <c r="AP72">
+        <v>1.89</v>
+      </c>
+      <c r="AQ72">
+        <v>1.44</v>
+      </c>
+      <c r="AR72">
+        <v>1.97</v>
+      </c>
+      <c r="AS72">
+        <v>1.81</v>
+      </c>
+      <c r="AT72">
+        <v>3.78</v>
+      </c>
+      <c r="AU72">
+        <v>4</v>
+      </c>
+      <c r="AV72">
+        <v>6</v>
+      </c>
+      <c r="AW72">
+        <v>6</v>
+      </c>
+      <c r="AX72">
+        <v>4</v>
+      </c>
+      <c r="AY72">
+        <v>10</v>
+      </c>
+      <c r="AZ72">
+        <v>10</v>
+      </c>
+      <c r="BA72">
+        <v>6</v>
+      </c>
+      <c r="BB72">
+        <v>4</v>
+      </c>
+      <c r="BC72">
+        <v>10</v>
+      </c>
+      <c r="BD72">
+        <v>0</v>
+      </c>
+      <c r="BE72">
+        <v>0</v>
+      </c>
+      <c r="BF72">
+        <v>0</v>
+      </c>
+      <c r="BG72">
+        <v>0</v>
+      </c>
+      <c r="BH72">
+        <v>0</v>
+      </c>
+      <c r="BI72">
+        <v>0</v>
+      </c>
+      <c r="BJ72">
+        <v>0</v>
+      </c>
+      <c r="BK72">
+        <v>0</v>
+      </c>
+      <c r="BL72">
+        <v>0</v>
+      </c>
+      <c r="BM72">
+        <v>0</v>
+      </c>
+      <c r="BN72">
+        <v>0</v>
+      </c>
+      <c r="BO72">
+        <v>0</v>
+      </c>
+      <c r="BP72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7325204</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45444.54166666666</v>
+      </c>
+      <c r="F73">
+        <v>14</v>
+      </c>
+      <c r="G73" t="s">
+        <v>72</v>
+      </c>
+      <c r="H73" t="s">
+        <v>71</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>2</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>2</v>
+      </c>
+      <c r="O73" t="s">
+        <v>128</v>
+      </c>
+      <c r="P73" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q73">
+        <v>1.4</v>
+      </c>
+      <c r="R73">
+        <v>3.39</v>
+      </c>
+      <c r="S73">
+        <v>15.33</v>
+      </c>
+      <c r="T73">
+        <v>1.23</v>
+      </c>
+      <c r="U73">
+        <v>3.9</v>
+      </c>
+      <c r="V73">
+        <v>2.09</v>
+      </c>
+      <c r="W73">
+        <v>1.69</v>
+      </c>
+      <c r="X73">
+        <v>4.5</v>
+      </c>
+      <c r="Y73">
+        <v>1.18</v>
+      </c>
+      <c r="Z73">
+        <v>1.09</v>
+      </c>
+      <c r="AA73">
+        <v>9</v>
+      </c>
+      <c r="AB73">
+        <v>18</v>
+      </c>
+      <c r="AC73">
+        <v>1.01</v>
+      </c>
+      <c r="AD73">
+        <v>11.5</v>
+      </c>
+      <c r="AE73">
+        <v>1.11</v>
+      </c>
+      <c r="AF73">
+        <v>5.7</v>
+      </c>
+      <c r="AG73">
+        <v>1.32</v>
+      </c>
+      <c r="AH73">
+        <v>2.65</v>
+      </c>
+      <c r="AI73">
+        <v>2.8</v>
+      </c>
+      <c r="AJ73">
+        <v>1.38</v>
+      </c>
+      <c r="AK73">
+        <v>1.02</v>
+      </c>
+      <c r="AL73">
+        <v>1.04</v>
+      </c>
+      <c r="AM73">
+        <v>4.5</v>
+      </c>
+      <c r="AN73">
+        <v>2.14</v>
+      </c>
+      <c r="AO73">
+        <v>0.67</v>
+      </c>
+      <c r="AP73">
+        <v>2.25</v>
+      </c>
+      <c r="AQ73">
+        <v>0.57</v>
+      </c>
+      <c r="AR73">
+        <v>2.41</v>
+      </c>
+      <c r="AS73">
+        <v>1.5</v>
+      </c>
+      <c r="AT73">
+        <v>3.91</v>
+      </c>
+      <c r="AU73">
+        <v>16</v>
+      </c>
+      <c r="AV73">
+        <v>4</v>
+      </c>
+      <c r="AW73">
+        <v>10</v>
+      </c>
+      <c r="AX73">
+        <v>2</v>
+      </c>
+      <c r="AY73">
+        <v>26</v>
+      </c>
+      <c r="AZ73">
+        <v>6</v>
+      </c>
+      <c r="BA73">
+        <v>14</v>
+      </c>
+      <c r="BB73">
+        <v>2</v>
+      </c>
+      <c r="BC73">
+        <v>16</v>
+      </c>
+      <c r="BD73">
+        <v>0</v>
+      </c>
+      <c r="BE73">
+        <v>0</v>
+      </c>
+      <c r="BF73">
+        <v>0</v>
+      </c>
+      <c r="BG73">
+        <v>0</v>
+      </c>
+      <c r="BH73">
+        <v>0</v>
+      </c>
+      <c r="BI73">
+        <v>0</v>
+      </c>
+      <c r="BJ73">
+        <v>0</v>
+      </c>
+      <c r="BK73">
+        <v>0</v>
+      </c>
+      <c r="BL73">
+        <v>0</v>
+      </c>
+      <c r="BM73">
+        <v>0</v>
+      </c>
+      <c r="BN73">
+        <v>0</v>
+      </c>
+      <c r="BO73">
+        <v>0</v>
+      </c>
+      <c r="BP73">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="176">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -401,6 +401,9 @@
   </si>
   <si>
     <t>['2', '72']</t>
+  </si>
+  <si>
+    <t>['17', '38', '60', '90+7']</t>
   </si>
   <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
@@ -900,7 +903,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP73"/>
+  <dimension ref="A1:BP74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1365,7 +1368,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1446,7 +1449,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ3">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1777,7 +1780,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -1983,7 +1986,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2395,7 +2398,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2807,7 +2810,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -3013,7 +3016,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3219,7 +3222,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3425,7 +3428,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3631,7 +3634,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3709,7 +3712,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ14">
         <v>1.29</v>
@@ -3837,7 +3840,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4124,7 +4127,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ16">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4455,7 +4458,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4536,7 +4539,7 @@
         <v>1</v>
       </c>
       <c r="AQ18">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR18">
         <v>1.11</v>
@@ -4739,7 +4742,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ19">
         <v>0.14</v>
@@ -5279,7 +5282,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5485,7 +5488,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5691,7 +5694,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -5897,7 +5900,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6309,7 +6312,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6515,7 +6518,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6593,7 +6596,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -6927,7 +6930,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7133,7 +7136,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7339,7 +7342,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7545,7 +7548,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7751,7 +7754,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -7957,7 +7960,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8575,7 +8578,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8656,7 +8659,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ38">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR38">
         <v>1.67</v>
@@ -8781,7 +8784,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -8987,7 +8990,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9068,7 +9071,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ40">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR40">
         <v>1.38</v>
@@ -9193,7 +9196,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9399,7 +9402,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9605,7 +9608,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9683,7 +9686,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ43">
         <v>1.44</v>
@@ -10017,7 +10020,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10223,7 +10226,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10713,7 +10716,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ48">
         <v>0.86</v>
@@ -11253,7 +11256,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -11746,7 +11749,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ53">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR53">
         <v>2.19</v>
@@ -12077,7 +12080,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12283,7 +12286,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12489,7 +12492,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12567,7 +12570,7 @@
         <v>1.6</v>
       </c>
       <c r="AP57">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ57">
         <v>2</v>
@@ -13107,7 +13110,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13519,7 +13522,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13600,7 +13603,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ62">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR62">
         <v>2.43</v>
@@ -13725,7 +13728,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -13931,7 +13934,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14137,7 +14140,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14343,7 +14346,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14549,7 +14552,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -14755,7 +14758,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -14961,7 +14964,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15167,7 +15170,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15373,7 +15376,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15941,6 +15944,212 @@
         <v>0</v>
       </c>
       <c r="BP73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7325206</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45445.35416666666</v>
+      </c>
+      <c r="F74">
+        <v>14</v>
+      </c>
+      <c r="G74" t="s">
+        <v>78</v>
+      </c>
+      <c r="H74" t="s">
+        <v>76</v>
+      </c>
+      <c r="I74">
+        <v>2</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>3</v>
+      </c>
+      <c r="L74">
+        <v>4</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>5</v>
+      </c>
+      <c r="O74" t="s">
+        <v>129</v>
+      </c>
+      <c r="P74" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q74">
+        <v>5</v>
+      </c>
+      <c r="R74">
+        <v>2.38</v>
+      </c>
+      <c r="S74">
+        <v>2.05</v>
+      </c>
+      <c r="T74">
+        <v>1.3</v>
+      </c>
+      <c r="U74">
+        <v>3.32</v>
+      </c>
+      <c r="V74">
+        <v>2.43</v>
+      </c>
+      <c r="W74">
+        <v>1.52</v>
+      </c>
+      <c r="X74">
+        <v>5.65</v>
+      </c>
+      <c r="Y74">
+        <v>1.12</v>
+      </c>
+      <c r="Z74">
+        <v>5.1</v>
+      </c>
+      <c r="AA74">
+        <v>3.9</v>
+      </c>
+      <c r="AB74">
+        <v>1.44</v>
+      </c>
+      <c r="AC74">
+        <v>1.03</v>
+      </c>
+      <c r="AD74">
+        <v>9.4</v>
+      </c>
+      <c r="AE74">
+        <v>1.19</v>
+      </c>
+      <c r="AF74">
+        <v>4.12</v>
+      </c>
+      <c r="AG74">
+        <v>1.63</v>
+      </c>
+      <c r="AH74">
+        <v>2.19</v>
+      </c>
+      <c r="AI74">
+        <v>1.7</v>
+      </c>
+      <c r="AJ74">
+        <v>1.98</v>
+      </c>
+      <c r="AK74">
+        <v>2.4</v>
+      </c>
+      <c r="AL74">
+        <v>1.18</v>
+      </c>
+      <c r="AM74">
+        <v>1.11</v>
+      </c>
+      <c r="AN74">
+        <v>1</v>
+      </c>
+      <c r="AO74">
+        <v>2.14</v>
+      </c>
+      <c r="AP74">
+        <v>1.29</v>
+      </c>
+      <c r="AQ74">
+        <v>1.88</v>
+      </c>
+      <c r="AR74">
+        <v>1.81</v>
+      </c>
+      <c r="AS74">
+        <v>1.79</v>
+      </c>
+      <c r="AT74">
+        <v>3.6</v>
+      </c>
+      <c r="AU74">
+        <v>2</v>
+      </c>
+      <c r="AV74">
+        <v>3</v>
+      </c>
+      <c r="AW74">
+        <v>3</v>
+      </c>
+      <c r="AX74">
+        <v>3</v>
+      </c>
+      <c r="AY74">
+        <v>5</v>
+      </c>
+      <c r="AZ74">
+        <v>6</v>
+      </c>
+      <c r="BA74">
+        <v>0</v>
+      </c>
+      <c r="BB74">
+        <v>4</v>
+      </c>
+      <c r="BC74">
+        <v>4</v>
+      </c>
+      <c r="BD74">
+        <v>0</v>
+      </c>
+      <c r="BE74">
+        <v>0</v>
+      </c>
+      <c r="BF74">
+        <v>0</v>
+      </c>
+      <c r="BG74">
+        <v>0</v>
+      </c>
+      <c r="BH74">
+        <v>0</v>
+      </c>
+      <c r="BI74">
+        <v>0</v>
+      </c>
+      <c r="BJ74">
+        <v>0</v>
+      </c>
+      <c r="BK74">
+        <v>0</v>
+      </c>
+      <c r="BL74">
+        <v>0</v>
+      </c>
+      <c r="BM74">
+        <v>0</v>
+      </c>
+      <c r="BN74">
+        <v>0</v>
+      </c>
+      <c r="BO74">
+        <v>0</v>
+      </c>
+      <c r="BP74">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="177">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -404,6 +404,9 @@
   </si>
   <si>
     <t>['17', '38', '60', '90+7']</t>
+  </si>
+  <si>
+    <t>['46', '56', '59', '70']</t>
   </si>
   <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
@@ -903,7 +906,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP74"/>
+  <dimension ref="A1:BP75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1368,7 +1371,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1780,7 +1783,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -1986,7 +1989,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2270,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
         <v>0.86</v>
@@ -2398,7 +2401,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2810,7 +2813,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -3016,7 +3019,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3097,7 +3100,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR11">
         <v>1.79</v>
@@ -3222,7 +3225,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3428,7 +3431,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3634,7 +3637,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3840,7 +3843,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4333,7 +4336,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR17">
         <v>0.95</v>
@@ -4458,7 +4461,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4948,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ20">
         <v>2</v>
@@ -5282,7 +5285,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5488,7 +5491,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5694,7 +5697,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -5900,7 +5903,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6312,7 +6315,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6390,7 +6393,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ27">
         <v>0.57</v>
@@ -6518,7 +6521,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6599,7 +6602,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR28">
         <v>1.8</v>
@@ -6930,7 +6933,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7136,7 +7139,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7342,7 +7345,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7548,7 +7551,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7754,7 +7757,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -7835,7 +7838,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR34">
         <v>1.08</v>
@@ -7960,7 +7963,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8578,7 +8581,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8784,7 +8787,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -8990,7 +8993,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9196,7 +9199,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9402,7 +9405,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9480,7 +9483,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ42">
         <v>2.63</v>
@@ -9608,7 +9611,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -10020,7 +10023,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10226,7 +10229,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10925,7 +10928,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR49">
         <v>2.56</v>
@@ -11256,7 +11259,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -12080,7 +12083,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12286,7 +12289,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12364,7 +12367,7 @@
         <v>1.43</v>
       </c>
       <c r="AP56">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ56">
         <v>1.44</v>
@@ -12492,7 +12495,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13110,7 +13113,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13522,7 +13525,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13728,7 +13731,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -13809,7 +13812,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ63">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR63">
         <v>2.2</v>
@@ -13934,7 +13937,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14140,7 +14143,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14346,7 +14349,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14424,7 +14427,7 @@
         <v>0.5</v>
       </c>
       <c r="AP66">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ66">
         <v>0.86</v>
@@ -14552,7 +14555,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -14758,7 +14761,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -14964,7 +14967,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15170,7 +15173,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15376,7 +15379,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -16087,69 +16090,275 @@
         <v>3.6</v>
       </c>
       <c r="AU74">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AV74">
+        <v>7</v>
+      </c>
+      <c r="AW74">
+        <v>5</v>
+      </c>
+      <c r="AX74">
+        <v>10</v>
+      </c>
+      <c r="AY74">
+        <v>12</v>
+      </c>
+      <c r="AZ74">
+        <v>17</v>
+      </c>
+      <c r="BA74">
+        <v>0</v>
+      </c>
+      <c r="BB74">
+        <v>5</v>
+      </c>
+      <c r="BC74">
+        <v>5</v>
+      </c>
+      <c r="BD74">
+        <v>0</v>
+      </c>
+      <c r="BE74">
+        <v>0</v>
+      </c>
+      <c r="BF74">
+        <v>0</v>
+      </c>
+      <c r="BG74">
+        <v>0</v>
+      </c>
+      <c r="BH74">
+        <v>0</v>
+      </c>
+      <c r="BI74">
+        <v>0</v>
+      </c>
+      <c r="BJ74">
+        <v>0</v>
+      </c>
+      <c r="BK74">
+        <v>0</v>
+      </c>
+      <c r="BL74">
+        <v>0</v>
+      </c>
+      <c r="BM74">
+        <v>0</v>
+      </c>
+      <c r="BN74">
+        <v>0</v>
+      </c>
+      <c r="BO74">
+        <v>0</v>
+      </c>
+      <c r="BP74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7325205</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45445.58333333334</v>
+      </c>
+      <c r="F75">
+        <v>14</v>
+      </c>
+      <c r="G75" t="s">
+        <v>75</v>
+      </c>
+      <c r="H75" t="s">
+        <v>73</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>4</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>4</v>
+      </c>
+      <c r="O75" t="s">
+        <v>130</v>
+      </c>
+      <c r="P75" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q75">
+        <v>3.75</v>
+      </c>
+      <c r="R75">
+        <v>2.1</v>
+      </c>
+      <c r="S75">
+        <v>2.63</v>
+      </c>
+      <c r="T75">
+        <v>1.33</v>
+      </c>
+      <c r="U75">
         <v>3</v>
       </c>
-      <c r="AW74">
-        <v>3</v>
-      </c>
-      <c r="AX74">
-        <v>3</v>
-      </c>
-      <c r="AY74">
-        <v>5</v>
-      </c>
-      <c r="AZ74">
-        <v>6</v>
-      </c>
-      <c r="BA74">
-        <v>0</v>
-      </c>
-      <c r="BB74">
-        <v>4</v>
-      </c>
-      <c r="BC74">
-        <v>4</v>
-      </c>
-      <c r="BD74">
-        <v>0</v>
-      </c>
-      <c r="BE74">
-        <v>0</v>
-      </c>
-      <c r="BF74">
-        <v>0</v>
-      </c>
-      <c r="BG74">
-        <v>0</v>
-      </c>
-      <c r="BH74">
-        <v>0</v>
-      </c>
-      <c r="BI74">
-        <v>0</v>
-      </c>
-      <c r="BJ74">
-        <v>0</v>
-      </c>
-      <c r="BK74">
-        <v>0</v>
-      </c>
-      <c r="BL74">
-        <v>0</v>
-      </c>
-      <c r="BM74">
-        <v>0</v>
-      </c>
-      <c r="BN74">
-        <v>0</v>
-      </c>
-      <c r="BO74">
-        <v>0</v>
-      </c>
-      <c r="BP74">
+      <c r="V75">
+        <v>2.5</v>
+      </c>
+      <c r="W75">
+        <v>1.48</v>
+      </c>
+      <c r="X75">
+        <v>5.75</v>
+      </c>
+      <c r="Y75">
+        <v>1.1</v>
+      </c>
+      <c r="Z75">
+        <v>2.7</v>
+      </c>
+      <c r="AA75">
+        <v>3.25</v>
+      </c>
+      <c r="AB75">
+        <v>2.2</v>
+      </c>
+      <c r="AC75">
+        <v>1.02</v>
+      </c>
+      <c r="AD75">
+        <v>10</v>
+      </c>
+      <c r="AE75">
+        <v>1.25</v>
+      </c>
+      <c r="AF75">
+        <v>3.6</v>
+      </c>
+      <c r="AG75">
+        <v>1.67</v>
+      </c>
+      <c r="AH75">
+        <v>1.86</v>
+      </c>
+      <c r="AI75">
+        <v>1.62</v>
+      </c>
+      <c r="AJ75">
+        <v>2.2</v>
+      </c>
+      <c r="AK75">
+        <v>1.45</v>
+      </c>
+      <c r="AL75">
+        <v>1.3</v>
+      </c>
+      <c r="AM75">
+        <v>1.55</v>
+      </c>
+      <c r="AN75">
+        <v>0.67</v>
+      </c>
+      <c r="AO75">
+        <v>1</v>
+      </c>
+      <c r="AP75">
+        <v>1</v>
+      </c>
+      <c r="AQ75">
+        <v>0.86</v>
+      </c>
+      <c r="AR75">
+        <v>1.91</v>
+      </c>
+      <c r="AS75">
+        <v>1.29</v>
+      </c>
+      <c r="AT75">
+        <v>3.2</v>
+      </c>
+      <c r="AU75">
+        <v>10</v>
+      </c>
+      <c r="AV75">
+        <v>0</v>
+      </c>
+      <c r="AW75">
+        <v>18</v>
+      </c>
+      <c r="AX75">
+        <v>8</v>
+      </c>
+      <c r="AY75">
+        <v>28</v>
+      </c>
+      <c r="AZ75">
+        <v>8</v>
+      </c>
+      <c r="BA75">
+        <v>10</v>
+      </c>
+      <c r="BB75">
+        <v>7</v>
+      </c>
+      <c r="BC75">
+        <v>17</v>
+      </c>
+      <c r="BD75">
+        <v>0</v>
+      </c>
+      <c r="BE75">
+        <v>0</v>
+      </c>
+      <c r="BF75">
+        <v>0</v>
+      </c>
+      <c r="BG75">
+        <v>0</v>
+      </c>
+      <c r="BH75">
+        <v>0</v>
+      </c>
+      <c r="BI75">
+        <v>0</v>
+      </c>
+      <c r="BJ75">
+        <v>0</v>
+      </c>
+      <c r="BK75">
+        <v>0</v>
+      </c>
+      <c r="BL75">
+        <v>0</v>
+      </c>
+      <c r="BM75">
+        <v>0</v>
+      </c>
+      <c r="BN75">
+        <v>0</v>
+      </c>
+      <c r="BO75">
+        <v>0</v>
+      </c>
+      <c r="BP75">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="180">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -409,6 +409,12 @@
     <t>['46', '56', '59', '70']</t>
   </si>
   <si>
+    <t>['23', '34']</t>
+  </si>
+  <si>
+    <t>['69']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -499,9 +505,6 @@
     <t>['21', '33', '47']</t>
   </si>
   <si>
-    <t>['23', '34']</t>
-  </si>
-  <si>
     <t>['90+4']</t>
   </si>
   <si>
@@ -545,6 +548,12 @@
   </si>
   <si>
     <t>['59']</t>
+  </si>
+  <si>
+    <t>['4', '40', '71', '90+2', '90+5']</t>
+  </si>
+  <si>
+    <t>['23', '38', '55', '85']</t>
   </si>
 </sst>
 </file>
@@ -906,7 +915,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP75"/>
+  <dimension ref="A1:BP78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1371,7 +1380,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1658,7 +1667,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ4">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1783,7 +1792,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -1861,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
         <v>1.29</v>
@@ -1989,7 +1998,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2067,10 +2076,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ6">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2401,7 +2410,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2685,10 +2694,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2813,7 +2822,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -3019,7 +3028,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3225,7 +3234,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3303,7 +3312,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
         <v>2.63</v>
@@ -3431,7 +3440,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3512,7 +3521,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR13">
         <v>2.65</v>
@@ -3637,7 +3646,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3843,7 +3852,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -3921,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ15">
         <v>0.57</v>
@@ -4461,7 +4470,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4539,7 +4548,7 @@
         <v>2</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ18">
         <v>1.88</v>
@@ -4954,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="AQ20">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR20">
         <v>2.07</v>
@@ -5160,7 +5169,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ21">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR21">
         <v>2.61</v>
@@ -5285,7 +5294,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5491,7 +5500,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5569,7 +5578,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ23">
         <v>2.63</v>
@@ -5697,7 +5706,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -5903,7 +5912,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -5984,7 +5993,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ25">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR25">
         <v>1.98</v>
@@ -6187,7 +6196,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ26">
         <v>0.86</v>
@@ -6315,7 +6324,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6521,7 +6530,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6933,7 +6942,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7011,10 +7020,10 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ30">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR30">
         <v>1.13</v>
@@ -7139,7 +7148,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7217,10 +7226,10 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR31">
         <v>2.12</v>
@@ -7345,7 +7354,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7423,7 +7432,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ32">
         <v>2.63</v>
@@ -7551,7 +7560,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7632,7 +7641,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ33">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR33">
         <v>1.95</v>
@@ -7757,7 +7766,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -7963,7 +7972,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8456,7 +8465,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ37">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR37">
         <v>1.49</v>
@@ -8581,7 +8590,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8787,7 +8796,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -8865,7 +8874,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ39">
         <v>0.14</v>
@@ -8993,7 +9002,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9071,7 +9080,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ40">
         <v>1.88</v>
@@ -9199,7 +9208,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9280,7 +9289,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ41">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR41">
         <v>1.7</v>
@@ -9405,7 +9414,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9611,7 +9620,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9692,7 +9701,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ43">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR43">
         <v>1.92</v>
@@ -9898,7 +9907,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ44">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR44">
         <v>2.3</v>
@@ -10023,7 +10032,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10101,10 +10110,10 @@
         <v>1.25</v>
       </c>
       <c r="AP45">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ45">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR45">
         <v>1.38</v>
@@ -10229,7 +10238,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10307,7 +10316,7 @@
         <v>1.75</v>
       </c>
       <c r="AP46">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
         <v>1.29</v>
@@ -11259,7 +11268,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -11955,10 +11964,10 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ54">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR54">
         <v>1.38</v>
@@ -12083,7 +12092,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12164,7 +12173,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ55">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR55">
         <v>1.18</v>
@@ -12289,7 +12298,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12370,7 +12379,7 @@
         <v>1</v>
       </c>
       <c r="AQ56">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR56">
         <v>1.96</v>
@@ -12495,7 +12504,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12576,7 +12585,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ57">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR57">
         <v>1.88</v>
@@ -12779,7 +12788,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ58">
         <v>0.57</v>
@@ -12985,7 +12994,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ59">
         <v>0.14</v>
@@ -13113,7 +13122,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13191,7 +13200,7 @@
         <v>2.5</v>
       </c>
       <c r="AP60">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ60">
         <v>2.63</v>
@@ -13525,7 +13534,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13731,7 +13740,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -13937,7 +13946,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14018,7 +14027,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ64">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR64">
         <v>1.24</v>
@@ -14143,7 +14152,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14221,7 +14230,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ65">
         <v>1.29</v>
@@ -14349,7 +14358,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14430,7 +14439,7 @@
         <v>1</v>
       </c>
       <c r="AQ66">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR66">
         <v>1.95</v>
@@ -14555,7 +14564,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -14761,7 +14770,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -14839,7 +14848,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ68">
         <v>0.14</v>
@@ -14967,7 +14976,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15045,10 +15054,10 @@
         <v>1.83</v>
       </c>
       <c r="AP69">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ69">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR69">
         <v>1.5</v>
@@ -15173,7 +15182,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15379,7 +15388,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15666,7 +15675,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ72">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR72">
         <v>1.97</v>
@@ -16360,6 +16369,624 @@
       </c>
       <c r="BP75">
         <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7325207</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45458.25</v>
+      </c>
+      <c r="F76">
+        <v>15</v>
+      </c>
+      <c r="G76" t="s">
+        <v>73</v>
+      </c>
+      <c r="H76" t="s">
+        <v>77</v>
+      </c>
+      <c r="I76">
+        <v>2</v>
+      </c>
+      <c r="J76">
+        <v>2</v>
+      </c>
+      <c r="K76">
+        <v>4</v>
+      </c>
+      <c r="L76">
+        <v>2</v>
+      </c>
+      <c r="M76">
+        <v>5</v>
+      </c>
+      <c r="N76">
+        <v>7</v>
+      </c>
+      <c r="O76" t="s">
+        <v>131</v>
+      </c>
+      <c r="P76" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q76">
+        <v>5</v>
+      </c>
+      <c r="R76">
+        <v>2.38</v>
+      </c>
+      <c r="S76">
+        <v>2</v>
+      </c>
+      <c r="T76">
+        <v>1.3</v>
+      </c>
+      <c r="U76">
+        <v>3.32</v>
+      </c>
+      <c r="V76">
+        <v>2.4</v>
+      </c>
+      <c r="W76">
+        <v>1.53</v>
+      </c>
+      <c r="X76">
+        <v>5.6</v>
+      </c>
+      <c r="Y76">
+        <v>1.12</v>
+      </c>
+      <c r="Z76">
+        <v>4.9</v>
+      </c>
+      <c r="AA76">
+        <v>3.95</v>
+      </c>
+      <c r="AB76">
+        <v>1.47</v>
+      </c>
+      <c r="AC76">
+        <v>1.02</v>
+      </c>
+      <c r="AD76">
+        <v>10</v>
+      </c>
+      <c r="AE76">
+        <v>1.2</v>
+      </c>
+      <c r="AF76">
+        <v>4.33</v>
+      </c>
+      <c r="AG76">
+        <v>1.52</v>
+      </c>
+      <c r="AH76">
+        <v>2.1</v>
+      </c>
+      <c r="AI76">
+        <v>1.7</v>
+      </c>
+      <c r="AJ76">
+        <v>2.1</v>
+      </c>
+      <c r="AK76">
+        <v>2.4</v>
+      </c>
+      <c r="AL76">
+        <v>1.18</v>
+      </c>
+      <c r="AM76">
+        <v>1.11</v>
+      </c>
+      <c r="AN76">
+        <v>1.11</v>
+      </c>
+      <c r="AO76">
+        <v>1.44</v>
+      </c>
+      <c r="AP76">
+        <v>1</v>
+      </c>
+      <c r="AQ76">
+        <v>1.6</v>
+      </c>
+      <c r="AR76">
+        <v>1.56</v>
+      </c>
+      <c r="AS76">
+        <v>1.77</v>
+      </c>
+      <c r="AT76">
+        <v>3.33</v>
+      </c>
+      <c r="AU76">
+        <v>8</v>
+      </c>
+      <c r="AV76">
+        <v>11</v>
+      </c>
+      <c r="AW76">
+        <v>5</v>
+      </c>
+      <c r="AX76">
+        <v>9</v>
+      </c>
+      <c r="AY76">
+        <v>13</v>
+      </c>
+      <c r="AZ76">
+        <v>20</v>
+      </c>
+      <c r="BA76">
+        <v>6</v>
+      </c>
+      <c r="BB76">
+        <v>8</v>
+      </c>
+      <c r="BC76">
+        <v>14</v>
+      </c>
+      <c r="BD76">
+        <v>4.75</v>
+      </c>
+      <c r="BE76">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF76">
+        <v>1.27</v>
+      </c>
+      <c r="BG76">
+        <v>0</v>
+      </c>
+      <c r="BH76">
+        <v>0</v>
+      </c>
+      <c r="BI76">
+        <v>1.21</v>
+      </c>
+      <c r="BJ76">
+        <v>3.9</v>
+      </c>
+      <c r="BK76">
+        <v>1.38</v>
+      </c>
+      <c r="BL76">
+        <v>2.71</v>
+      </c>
+      <c r="BM76">
+        <v>1.64</v>
+      </c>
+      <c r="BN76">
+        <v>2.07</v>
+      </c>
+      <c r="BO76">
+        <v>2.04</v>
+      </c>
+      <c r="BP76">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7325208</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45458.25</v>
+      </c>
+      <c r="F77">
+        <v>15</v>
+      </c>
+      <c r="G77" t="s">
+        <v>76</v>
+      </c>
+      <c r="H77" t="s">
+        <v>70</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77" t="s">
+        <v>81</v>
+      </c>
+      <c r="P77" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q77">
+        <v>2.75</v>
+      </c>
+      <c r="R77">
+        <v>2.38</v>
+      </c>
+      <c r="S77">
+        <v>3.1</v>
+      </c>
+      <c r="T77">
+        <v>1.27</v>
+      </c>
+      <c r="U77">
+        <v>3.54</v>
+      </c>
+      <c r="V77">
+        <v>2.26</v>
+      </c>
+      <c r="W77">
+        <v>1.58</v>
+      </c>
+      <c r="X77">
+        <v>5.15</v>
+      </c>
+      <c r="Y77">
+        <v>1.14</v>
+      </c>
+      <c r="Z77">
+        <v>2.18</v>
+      </c>
+      <c r="AA77">
+        <v>3.3</v>
+      </c>
+      <c r="AB77">
+        <v>2.69</v>
+      </c>
+      <c r="AC77">
+        <v>1.03</v>
+      </c>
+      <c r="AD77">
+        <v>9</v>
+      </c>
+      <c r="AE77">
+        <v>1.18</v>
+      </c>
+      <c r="AF77">
+        <v>4.5</v>
+      </c>
+      <c r="AG77">
+        <v>1.46</v>
+      </c>
+      <c r="AH77">
+        <v>2.21</v>
+      </c>
+      <c r="AI77">
+        <v>1.45</v>
+      </c>
+      <c r="AJ77">
+        <v>2.6</v>
+      </c>
+      <c r="AK77">
+        <v>1.44</v>
+      </c>
+      <c r="AL77">
+        <v>1.22</v>
+      </c>
+      <c r="AM77">
+        <v>1.57</v>
+      </c>
+      <c r="AN77">
+        <v>2.17</v>
+      </c>
+      <c r="AO77">
+        <v>2</v>
+      </c>
+      <c r="AP77">
+        <v>2</v>
+      </c>
+      <c r="AQ77">
+        <v>1.88</v>
+      </c>
+      <c r="AR77">
+        <v>2</v>
+      </c>
+      <c r="AS77">
+        <v>1.88</v>
+      </c>
+      <c r="AT77">
+        <v>3.88</v>
+      </c>
+      <c r="AU77">
+        <v>8</v>
+      </c>
+      <c r="AV77">
+        <v>5</v>
+      </c>
+      <c r="AW77">
+        <v>13</v>
+      </c>
+      <c r="AX77">
+        <v>6</v>
+      </c>
+      <c r="AY77">
+        <v>21</v>
+      </c>
+      <c r="AZ77">
+        <v>11</v>
+      </c>
+      <c r="BA77">
+        <v>8</v>
+      </c>
+      <c r="BB77">
+        <v>2</v>
+      </c>
+      <c r="BC77">
+        <v>10</v>
+      </c>
+      <c r="BD77">
+        <v>2.01</v>
+      </c>
+      <c r="BE77">
+        <v>6.6</v>
+      </c>
+      <c r="BF77">
+        <v>2.13</v>
+      </c>
+      <c r="BG77">
+        <v>0</v>
+      </c>
+      <c r="BH77">
+        <v>0</v>
+      </c>
+      <c r="BI77">
+        <v>1.22</v>
+      </c>
+      <c r="BJ77">
+        <v>3.65</v>
+      </c>
+      <c r="BK77">
+        <v>1.4</v>
+      </c>
+      <c r="BL77">
+        <v>2.64</v>
+      </c>
+      <c r="BM77">
+        <v>1.69</v>
+      </c>
+      <c r="BN77">
+        <v>2</v>
+      </c>
+      <c r="BO77">
+        <v>2.11</v>
+      </c>
+      <c r="BP77">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7325209</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45458.33333333334</v>
+      </c>
+      <c r="F78">
+        <v>15</v>
+      </c>
+      <c r="G78" t="s">
+        <v>74</v>
+      </c>
+      <c r="H78" t="s">
+        <v>78</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>2</v>
+      </c>
+      <c r="K78">
+        <v>2</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>4</v>
+      </c>
+      <c r="N78">
+        <v>5</v>
+      </c>
+      <c r="O78" t="s">
+        <v>132</v>
+      </c>
+      <c r="P78" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q78">
+        <v>3.1</v>
+      </c>
+      <c r="R78">
+        <v>2.2</v>
+      </c>
+      <c r="S78">
+        <v>3.1</v>
+      </c>
+      <c r="T78">
+        <v>1.33</v>
+      </c>
+      <c r="U78">
+        <v>3</v>
+      </c>
+      <c r="V78">
+        <v>2.5</v>
+      </c>
+      <c r="W78">
+        <v>1.48</v>
+      </c>
+      <c r="X78">
+        <v>5.5</v>
+      </c>
+      <c r="Y78">
+        <v>1.11</v>
+      </c>
+      <c r="Z78">
+        <v>2.28</v>
+      </c>
+      <c r="AA78">
+        <v>3.3</v>
+      </c>
+      <c r="AB78">
+        <v>2.55</v>
+      </c>
+      <c r="AC78">
+        <v>1.01</v>
+      </c>
+      <c r="AD78">
+        <v>11.5</v>
+      </c>
+      <c r="AE78">
+        <v>1.21</v>
+      </c>
+      <c r="AF78">
+        <v>3.74</v>
+      </c>
+      <c r="AG78">
+        <v>1.59</v>
+      </c>
+      <c r="AH78">
+        <v>1.97</v>
+      </c>
+      <c r="AI78">
+        <v>1.57</v>
+      </c>
+      <c r="AJ78">
+        <v>2.25</v>
+      </c>
+      <c r="AK78">
+        <v>1.53</v>
+      </c>
+      <c r="AL78">
+        <v>1.3</v>
+      </c>
+      <c r="AM78">
+        <v>1.48</v>
+      </c>
+      <c r="AN78">
+        <v>1</v>
+      </c>
+      <c r="AO78">
+        <v>0.86</v>
+      </c>
+      <c r="AP78">
+        <v>0.88</v>
+      </c>
+      <c r="AQ78">
+        <v>1.13</v>
+      </c>
+      <c r="AR78">
+        <v>1.17</v>
+      </c>
+      <c r="AS78">
+        <v>1.77</v>
+      </c>
+      <c r="AT78">
+        <v>2.94</v>
+      </c>
+      <c r="AU78">
+        <v>0</v>
+      </c>
+      <c r="AV78">
+        <v>3</v>
+      </c>
+      <c r="AW78">
+        <v>5</v>
+      </c>
+      <c r="AX78">
+        <v>4</v>
+      </c>
+      <c r="AY78">
+        <v>5</v>
+      </c>
+      <c r="AZ78">
+        <v>7</v>
+      </c>
+      <c r="BA78">
+        <v>4</v>
+      </c>
+      <c r="BB78">
+        <v>3</v>
+      </c>
+      <c r="BC78">
+        <v>7</v>
+      </c>
+      <c r="BD78">
+        <v>2.35</v>
+      </c>
+      <c r="BE78">
+        <v>6.6</v>
+      </c>
+      <c r="BF78">
+        <v>1.85</v>
+      </c>
+      <c r="BG78">
+        <v>1.11</v>
+      </c>
+      <c r="BH78">
+        <v>5.5</v>
+      </c>
+      <c r="BI78">
+        <v>1.24</v>
+      </c>
+      <c r="BJ78">
+        <v>3.48</v>
+      </c>
+      <c r="BK78">
+        <v>1.43</v>
+      </c>
+      <c r="BL78">
+        <v>2.54</v>
+      </c>
+      <c r="BM78">
+        <v>1.74</v>
+      </c>
+      <c r="BN78">
+        <v>1.93</v>
+      </c>
+      <c r="BO78">
+        <v>2.19</v>
+      </c>
+      <c r="BP78">
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="182">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -415,6 +415,9 @@
     <t>['69']</t>
   </si>
   <si>
+    <t>['8', '88']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -550,10 +553,13 @@
     <t>['59']</t>
   </si>
   <si>
-    <t>['4', '40', '71', '90+2', '90+5']</t>
+    <t>['4', '40', '73', '90+2', '90+5']</t>
   </si>
   <si>
     <t>['23', '38', '55', '85']</t>
+  </si>
+  <si>
+    <t>['58']</t>
   </si>
 </sst>
 </file>
@@ -915,7 +921,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP78"/>
+  <dimension ref="A1:BP79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1380,7 +1386,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1664,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ4">
         <v>1.13</v>
@@ -1792,7 +1798,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -1873,7 +1879,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1998,7 +2004,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2410,7 +2416,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2822,7 +2828,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -3028,7 +3034,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3234,7 +3240,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3440,7 +3446,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3646,7 +3652,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3727,7 +3733,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ14">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3852,7 +3858,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4470,7 +4476,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -5166,7 +5172,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ21">
         <v>1.6</v>
@@ -5294,7 +5300,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5375,7 +5381,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ22">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR22">
         <v>0.74</v>
@@ -5500,7 +5506,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5706,7 +5712,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -5912,7 +5918,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6324,7 +6330,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6530,7 +6536,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6814,7 +6820,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ29">
         <v>0.14</v>
@@ -6942,7 +6948,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7148,7 +7154,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7354,7 +7360,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7560,7 +7566,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7766,7 +7772,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -7972,7 +7978,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8053,7 +8059,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ35">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR35">
         <v>2.56</v>
@@ -8256,7 +8262,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ36">
         <v>0.86</v>
@@ -8590,7 +8596,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8796,7 +8802,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -9002,7 +9008,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9208,7 +9214,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9414,7 +9420,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9620,7 +9626,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9904,7 +9910,7 @@
         <v>1.4</v>
       </c>
       <c r="AP44">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ44">
         <v>1.6</v>
@@ -10032,7 +10038,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10319,7 +10325,7 @@
         <v>2</v>
       </c>
       <c r="AQ46">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR46">
         <v>1.97</v>
@@ -11268,7 +11274,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -11555,7 +11561,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ52">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR52">
         <v>1.6</v>
@@ -11758,7 +11764,7 @@
         <v>2.2</v>
       </c>
       <c r="AP53">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ53">
         <v>1.88</v>
@@ -12092,7 +12098,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12298,7 +12304,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12504,7 +12510,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13122,7 +13128,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13534,7 +13540,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13740,7 +13746,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -13818,7 +13824,7 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ63">
         <v>0.86</v>
@@ -13946,7 +13952,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14152,7 +14158,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14233,7 +14239,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ65">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR65">
         <v>1.14</v>
@@ -14358,7 +14364,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14564,7 +14570,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -14770,7 +14776,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -14976,7 +14982,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15182,7 +15188,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15388,7 +15394,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15878,7 +15884,7 @@
         <v>0.67</v>
       </c>
       <c r="AP73">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ73">
         <v>0.57</v>
@@ -16418,7 +16424,7 @@
         <v>131</v>
       </c>
       <c r="P76" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16830,7 +16836,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -16923,31 +16929,31 @@
         <v>2.94</v>
       </c>
       <c r="AU78">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AV78">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AW78">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AX78">
+        <v>7</v>
+      </c>
+      <c r="AY78">
+        <v>18</v>
+      </c>
+      <c r="AZ78">
+        <v>16</v>
+      </c>
+      <c r="BA78">
+        <v>7</v>
+      </c>
+      <c r="BB78">
         <v>4</v>
       </c>
-      <c r="AY78">
-        <v>5</v>
-      </c>
-      <c r="AZ78">
-        <v>7</v>
-      </c>
-      <c r="BA78">
-        <v>4</v>
-      </c>
-      <c r="BB78">
-        <v>3</v>
-      </c>
       <c r="BC78">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BD78">
         <v>2.35</v>
@@ -16987,6 +16993,212 @@
       </c>
       <c r="BP78">
         <v>1.57</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7325210</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45459.25</v>
+      </c>
+      <c r="F79">
+        <v>15</v>
+      </c>
+      <c r="G79" t="s">
+        <v>72</v>
+      </c>
+      <c r="H79" t="s">
+        <v>75</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>2</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>3</v>
+      </c>
+      <c r="O79" t="s">
+        <v>133</v>
+      </c>
+      <c r="P79" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q79">
+        <v>1.53</v>
+      </c>
+      <c r="R79">
+        <v>2.5</v>
+      </c>
+      <c r="S79">
+        <v>17</v>
+      </c>
+      <c r="T79">
+        <v>1.33</v>
+      </c>
+      <c r="U79">
+        <v>3.14</v>
+      </c>
+      <c r="V79">
+        <v>2.4</v>
+      </c>
+      <c r="W79">
+        <v>1.51</v>
+      </c>
+      <c r="X79">
+        <v>6.2</v>
+      </c>
+      <c r="Y79">
+        <v>1.1</v>
+      </c>
+      <c r="Z79">
+        <v>1.17</v>
+      </c>
+      <c r="AA79">
+        <v>6</v>
+      </c>
+      <c r="AB79">
+        <v>11.96</v>
+      </c>
+      <c r="AC79">
+        <v>1.02</v>
+      </c>
+      <c r="AD79">
+        <v>12</v>
+      </c>
+      <c r="AE79">
+        <v>1.2</v>
+      </c>
+      <c r="AF79">
+        <v>4.2</v>
+      </c>
+      <c r="AG79">
+        <v>1.46</v>
+      </c>
+      <c r="AH79">
+        <v>2.52</v>
+      </c>
+      <c r="AI79">
+        <v>2.65</v>
+      </c>
+      <c r="AJ79">
+        <v>1.45</v>
+      </c>
+      <c r="AK79">
+        <v>1.01</v>
+      </c>
+      <c r="AL79">
+        <v>1.05</v>
+      </c>
+      <c r="AM79">
+        <v>4.75</v>
+      </c>
+      <c r="AN79">
+        <v>2.25</v>
+      </c>
+      <c r="AO79">
+        <v>1.29</v>
+      </c>
+      <c r="AP79">
+        <v>2.33</v>
+      </c>
+      <c r="AQ79">
+        <v>1.13</v>
+      </c>
+      <c r="AR79">
+        <v>2.5</v>
+      </c>
+      <c r="AS79">
+        <v>1.73</v>
+      </c>
+      <c r="AT79">
+        <v>4.23</v>
+      </c>
+      <c r="AU79">
+        <v>6</v>
+      </c>
+      <c r="AV79">
+        <v>5</v>
+      </c>
+      <c r="AW79">
+        <v>8</v>
+      </c>
+      <c r="AX79">
+        <v>6</v>
+      </c>
+      <c r="AY79">
+        <v>14</v>
+      </c>
+      <c r="AZ79">
+        <v>11</v>
+      </c>
+      <c r="BA79">
+        <v>7</v>
+      </c>
+      <c r="BB79">
+        <v>2</v>
+      </c>
+      <c r="BC79">
+        <v>9</v>
+      </c>
+      <c r="BD79">
+        <v>0</v>
+      </c>
+      <c r="BE79">
+        <v>0</v>
+      </c>
+      <c r="BF79">
+        <v>0</v>
+      </c>
+      <c r="BG79">
+        <v>0</v>
+      </c>
+      <c r="BH79">
+        <v>0</v>
+      </c>
+      <c r="BI79">
+        <v>0</v>
+      </c>
+      <c r="BJ79">
+        <v>0</v>
+      </c>
+      <c r="BK79">
+        <v>0</v>
+      </c>
+      <c r="BL79">
+        <v>0</v>
+      </c>
+      <c r="BM79">
+        <v>0</v>
+      </c>
+      <c r="BN79">
+        <v>0</v>
+      </c>
+      <c r="BO79">
+        <v>0</v>
+      </c>
+      <c r="BP79">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="184">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -418,6 +418,9 @@
     <t>['8', '88']</t>
   </si>
   <si>
+    <t>['42']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -560,6 +563,9 @@
   </si>
   <si>
     <t>['58']</t>
+  </si>
+  <si>
+    <t>['44']</t>
   </si>
 </sst>
 </file>
@@ -921,7 +927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP79"/>
+  <dimension ref="A1:BP80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1261,7 +1267,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ2">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1386,7 +1392,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1464,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ3">
         <v>1.88</v>
@@ -1798,7 +1804,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -2004,7 +2010,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2416,7 +2422,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2494,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ8">
         <v>2.63</v>
@@ -2828,7 +2834,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -2909,7 +2915,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ10">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3034,7 +3040,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3240,7 +3246,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3446,7 +3452,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3652,7 +3658,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3858,7 +3864,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4348,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ17">
         <v>0.86</v>
@@ -4476,7 +4482,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4763,7 +4769,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ19">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR19">
         <v>1.58</v>
@@ -5300,7 +5306,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5506,7 +5512,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5712,7 +5718,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -5918,7 +5924,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6330,7 +6336,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6536,7 +6542,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6823,7 +6829,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ29">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR29">
         <v>2.32</v>
@@ -6948,7 +6954,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7154,7 +7160,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7360,7 +7366,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7566,7 +7572,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7772,7 +7778,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -7978,7 +7984,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8468,7 +8474,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ37">
         <v>1.13</v>
@@ -8596,7 +8602,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8802,7 +8808,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -8883,7 +8889,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ39">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR39">
         <v>1.08</v>
@@ -9008,7 +9014,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9214,7 +9220,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9292,7 +9298,7 @@
         <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ41">
         <v>1.88</v>
@@ -9420,7 +9426,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9626,7 +9632,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -10038,7 +10044,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -11274,7 +11280,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -11558,7 +11564,7 @@
         <v>1.4</v>
       </c>
       <c r="AP52">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ52">
         <v>1.13</v>
@@ -12098,7 +12104,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12304,7 +12310,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12510,7 +12516,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13003,7 +13009,7 @@
         <v>1</v>
       </c>
       <c r="AQ59">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR59">
         <v>1.41</v>
@@ -13128,7 +13134,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13540,7 +13546,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13746,7 +13752,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -13952,7 +13958,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14158,7 +14164,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14364,7 +14370,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14570,7 +14576,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -14648,7 +14654,7 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ67">
         <v>0.86</v>
@@ -14776,7 +14782,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -14857,7 +14863,7 @@
         <v>2</v>
       </c>
       <c r="AQ68">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR68">
         <v>2.01</v>
@@ -14982,7 +14988,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15188,7 +15194,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15394,7 +15400,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -16424,7 +16430,7 @@
         <v>131</v>
       </c>
       <c r="P76" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16836,7 +16842,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17042,7 +17048,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q79">
         <v>1.53</v>
@@ -17135,22 +17141,22 @@
         <v>4.23</v>
       </c>
       <c r="AU79">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV79">
+        <v>4</v>
+      </c>
+      <c r="AW79">
         <v>5</v>
       </c>
-      <c r="AW79">
+      <c r="AX79">
+        <v>4</v>
+      </c>
+      <c r="AY79">
+        <v>9</v>
+      </c>
+      <c r="AZ79">
         <v>8</v>
-      </c>
-      <c r="AX79">
-        <v>6</v>
-      </c>
-      <c r="AY79">
-        <v>14</v>
-      </c>
-      <c r="AZ79">
-        <v>11</v>
       </c>
       <c r="BA79">
         <v>7</v>
@@ -17198,6 +17204,212 @@
         <v>0</v>
       </c>
       <c r="BP79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7325211</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45459.33333333334</v>
+      </c>
+      <c r="F80">
+        <v>15</v>
+      </c>
+      <c r="G80" t="s">
+        <v>71</v>
+      </c>
+      <c r="H80" t="s">
+        <v>79</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>2</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>2</v>
+      </c>
+      <c r="O80" t="s">
+        <v>134</v>
+      </c>
+      <c r="P80" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q80">
+        <v>2.3</v>
+      </c>
+      <c r="R80">
+        <v>2.3</v>
+      </c>
+      <c r="S80">
+        <v>4.33</v>
+      </c>
+      <c r="T80">
+        <v>1.3</v>
+      </c>
+      <c r="U80">
+        <v>3.32</v>
+      </c>
+      <c r="V80">
+        <v>2.36</v>
+      </c>
+      <c r="W80">
+        <v>1.54</v>
+      </c>
+      <c r="X80">
+        <v>5.55</v>
+      </c>
+      <c r="Y80">
+        <v>1.12</v>
+      </c>
+      <c r="Z80">
+        <v>1.72</v>
+      </c>
+      <c r="AA80">
+        <v>3.65</v>
+      </c>
+      <c r="AB80">
+        <v>4.01</v>
+      </c>
+      <c r="AC80">
+        <v>1.02</v>
+      </c>
+      <c r="AD80">
+        <v>10</v>
+      </c>
+      <c r="AE80">
+        <v>1.18</v>
+      </c>
+      <c r="AF80">
+        <v>4.5</v>
+      </c>
+      <c r="AG80">
+        <v>1.6</v>
+      </c>
+      <c r="AH80">
+        <v>2.19</v>
+      </c>
+      <c r="AI80">
+        <v>1.57</v>
+      </c>
+      <c r="AJ80">
+        <v>2.3</v>
+      </c>
+      <c r="AK80">
+        <v>1.16</v>
+      </c>
+      <c r="AL80">
+        <v>1.2</v>
+      </c>
+      <c r="AM80">
+        <v>2.05</v>
+      </c>
+      <c r="AN80">
+        <v>1.29</v>
+      </c>
+      <c r="AO80">
+        <v>0.14</v>
+      </c>
+      <c r="AP80">
+        <v>1.25</v>
+      </c>
+      <c r="AQ80">
+        <v>0.25</v>
+      </c>
+      <c r="AR80">
+        <v>1.48</v>
+      </c>
+      <c r="AS80">
+        <v>1.01</v>
+      </c>
+      <c r="AT80">
+        <v>2.49</v>
+      </c>
+      <c r="AU80">
+        <v>10</v>
+      </c>
+      <c r="AV80">
+        <v>4</v>
+      </c>
+      <c r="AW80">
+        <v>11</v>
+      </c>
+      <c r="AX80">
+        <v>3</v>
+      </c>
+      <c r="AY80">
+        <v>21</v>
+      </c>
+      <c r="AZ80">
+        <v>7</v>
+      </c>
+      <c r="BA80">
+        <v>8</v>
+      </c>
+      <c r="BB80">
+        <v>7</v>
+      </c>
+      <c r="BC80">
+        <v>15</v>
+      </c>
+      <c r="BD80">
+        <v>0</v>
+      </c>
+      <c r="BE80">
+        <v>0</v>
+      </c>
+      <c r="BF80">
+        <v>0</v>
+      </c>
+      <c r="BG80">
+        <v>0</v>
+      </c>
+      <c r="BH80">
+        <v>0</v>
+      </c>
+      <c r="BI80">
+        <v>0</v>
+      </c>
+      <c r="BJ80">
+        <v>0</v>
+      </c>
+      <c r="BK80">
+        <v>0</v>
+      </c>
+      <c r="BL80">
+        <v>0</v>
+      </c>
+      <c r="BM80">
+        <v>0</v>
+      </c>
+      <c r="BN80">
+        <v>0</v>
+      </c>
+      <c r="BO80">
+        <v>0</v>
+      </c>
+      <c r="BP80">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="186">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -409,6 +409,21 @@
     <t>['46', '56', '59', '70']</t>
   </si>
   <si>
+    <t>['23', '34']</t>
+  </si>
+  <si>
+    <t>['69']</t>
+  </si>
+  <si>
+    <t>['8', '88']</t>
+  </si>
+  <si>
+    <t>['42']</t>
+  </si>
+  <si>
+    <t>['7', '55']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -499,9 +514,6 @@
     <t>['21', '33', '47']</t>
   </si>
   <si>
-    <t>['23', '34']</t>
-  </si>
-  <si>
     <t>['90+4']</t>
   </si>
   <si>
@@ -545,6 +557,21 @@
   </si>
   <si>
     <t>['59']</t>
+  </si>
+  <si>
+    <t>['4', '40', '73', '90+2', '90+5']</t>
+  </si>
+  <si>
+    <t>['23', '38', '55', '85']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>['44']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
   </si>
 </sst>
 </file>
@@ -906,7 +933,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP75"/>
+  <dimension ref="A1:BP82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1246,7 +1273,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ2">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1371,7 +1398,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1449,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ3">
         <v>1.88</v>
@@ -1655,10 +1682,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ4">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1783,7 +1810,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -1861,10 +1888,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1989,7 +2016,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2067,10 +2094,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ6">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2276,7 +2303,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2401,7 +2428,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2479,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ8">
         <v>2.63</v>
@@ -2685,10 +2712,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="AQ9">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2813,7 +2840,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -2891,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3019,7 +3046,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3100,7 +3127,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ11">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR11">
         <v>1.79</v>
@@ -3225,7 +3252,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3303,7 +3330,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
         <v>2.63</v>
@@ -3431,7 +3458,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3509,10 +3536,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR13">
         <v>2.65</v>
@@ -3637,7 +3664,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3718,7 +3745,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ14">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3843,7 +3870,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -3921,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ15">
         <v>0.57</v>
@@ -4333,10 +4360,10 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ17">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR17">
         <v>0.95</v>
@@ -4461,7 +4488,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4539,7 +4566,7 @@
         <v>2</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ18">
         <v>1.88</v>
@@ -4748,7 +4775,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ19">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR19">
         <v>1.58</v>
@@ -4954,7 +4981,7 @@
         <v>1</v>
       </c>
       <c r="AQ20">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR20">
         <v>2.07</v>
@@ -5157,10 +5184,10 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ21">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR21">
         <v>2.61</v>
@@ -5285,7 +5312,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5366,7 +5393,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ22">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR22">
         <v>0.74</v>
@@ -5491,7 +5518,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5569,7 +5596,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="AQ23">
         <v>2.63</v>
@@ -5697,7 +5724,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -5775,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ24">
         <v>0.57</v>
@@ -5903,7 +5930,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -5984,7 +6011,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ25">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR25">
         <v>1.98</v>
@@ -6187,10 +6214,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ26">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR26">
         <v>1.42</v>
@@ -6315,7 +6342,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6521,7 +6548,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6602,7 +6629,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ28">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR28">
         <v>1.8</v>
@@ -6805,10 +6832,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ29">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR29">
         <v>2.32</v>
@@ -6933,7 +6960,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7011,10 +7038,10 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ30">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR30">
         <v>1.13</v>
@@ -7139,7 +7166,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7217,10 +7244,10 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="AQ31">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR31">
         <v>2.12</v>
@@ -7345,7 +7372,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7423,7 +7450,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ32">
         <v>2.63</v>
@@ -7551,7 +7578,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7632,7 +7659,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ33">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR33">
         <v>1.95</v>
@@ -7757,7 +7784,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -7838,7 +7865,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ34">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR34">
         <v>1.08</v>
@@ -7963,7 +7990,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8041,10 +8068,10 @@
         <v>1.33</v>
       </c>
       <c r="AP35">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ35">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR35">
         <v>2.56</v>
@@ -8247,10 +8274,10 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ36">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR36">
         <v>2.43</v>
@@ -8453,10 +8480,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ37">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR37">
         <v>1.49</v>
@@ -8581,7 +8608,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8787,7 +8814,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -8865,10 +8892,10 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ39">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR39">
         <v>1.08</v>
@@ -8993,7 +9020,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9071,7 +9098,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ40">
         <v>1.88</v>
@@ -9199,7 +9226,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9277,10 +9304,10 @@
         <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ41">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR41">
         <v>1.7</v>
@@ -9405,7 +9432,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9611,7 +9638,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9692,7 +9719,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ43">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR43">
         <v>1.92</v>
@@ -9895,10 +9922,10 @@
         <v>1.4</v>
       </c>
       <c r="AP44">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ44">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR44">
         <v>2.3</v>
@@ -10023,7 +10050,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10101,10 +10128,10 @@
         <v>1.25</v>
       </c>
       <c r="AP45">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ45">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR45">
         <v>1.38</v>
@@ -10229,7 +10256,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10307,10 +10334,10 @@
         <v>1.75</v>
       </c>
       <c r="AP46">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="AQ46">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR46">
         <v>1.97</v>
@@ -10722,7 +10749,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ48">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR48">
         <v>1.86</v>
@@ -10925,10 +10952,10 @@
         <v>1.25</v>
       </c>
       <c r="AP49">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ49">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR49">
         <v>2.56</v>
@@ -11259,7 +11286,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -11340,7 +11367,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ51">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR51">
         <v>1.74</v>
@@ -11543,10 +11570,10 @@
         <v>1.4</v>
       </c>
       <c r="AP52">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ52">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR52">
         <v>1.6</v>
@@ -11749,7 +11776,7 @@
         <v>2.2</v>
       </c>
       <c r="AP53">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ53">
         <v>1.88</v>
@@ -11955,10 +11982,10 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ54">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR54">
         <v>1.38</v>
@@ -12083,7 +12110,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12164,7 +12191,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ55">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR55">
         <v>1.18</v>
@@ -12289,7 +12316,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12370,7 +12397,7 @@
         <v>1</v>
       </c>
       <c r="AQ56">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR56">
         <v>1.96</v>
@@ -12495,7 +12522,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12576,7 +12603,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ57">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR57">
         <v>1.88</v>
@@ -12779,7 +12806,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="AQ58">
         <v>0.57</v>
@@ -12985,10 +13012,10 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ59">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR59">
         <v>1.41</v>
@@ -13113,7 +13140,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13191,7 +13218,7 @@
         <v>2.5</v>
       </c>
       <c r="AP60">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ60">
         <v>2.63</v>
@@ -13525,7 +13552,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13603,7 +13630,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ62">
         <v>1.88</v>
@@ -13731,7 +13758,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -13809,10 +13836,10 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ63">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR63">
         <v>2.2</v>
@@ -13937,7 +13964,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14018,7 +14045,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ64">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR64">
         <v>1.24</v>
@@ -14143,7 +14170,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14221,10 +14248,10 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ65">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR65">
         <v>1.14</v>
@@ -14349,7 +14376,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14430,7 +14457,7 @@
         <v>1</v>
       </c>
       <c r="AQ66">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR66">
         <v>1.95</v>
@@ -14555,7 +14582,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -14633,10 +14660,10 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ67">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR67">
         <v>1.58</v>
@@ -14761,7 +14788,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -14839,10 +14866,10 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>2.17</v>
+        <v>2.13</v>
       </c>
       <c r="AQ68">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AR68">
         <v>2.01</v>
@@ -14967,7 +14994,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15045,10 +15072,10 @@
         <v>1.83</v>
       </c>
       <c r="AP69">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ69">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR69">
         <v>1.5</v>
@@ -15173,7 +15200,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15251,7 +15278,7 @@
         <v>2.57</v>
       </c>
       <c r="AP70">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ70">
         <v>2.63</v>
@@ -15379,7 +15406,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15460,7 +15487,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ71">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR71">
         <v>1.2</v>
@@ -15666,7 +15693,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ72">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR72">
         <v>1.97</v>
@@ -15869,7 +15896,7 @@
         <v>0.67</v>
       </c>
       <c r="AP73">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ73">
         <v>0.57</v>
@@ -16284,7 +16311,7 @@
         <v>1</v>
       </c>
       <c r="AQ75">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR75">
         <v>1.91</v>
@@ -16359,6 +16386,1448 @@
         <v>0</v>
       </c>
       <c r="BP75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7325207</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45458.25</v>
+      </c>
+      <c r="F76">
+        <v>15</v>
+      </c>
+      <c r="G76" t="s">
+        <v>73</v>
+      </c>
+      <c r="H76" t="s">
+        <v>77</v>
+      </c>
+      <c r="I76">
+        <v>2</v>
+      </c>
+      <c r="J76">
+        <v>2</v>
+      </c>
+      <c r="K76">
+        <v>4</v>
+      </c>
+      <c r="L76">
+        <v>2</v>
+      </c>
+      <c r="M76">
+        <v>5</v>
+      </c>
+      <c r="N76">
+        <v>7</v>
+      </c>
+      <c r="O76" t="s">
+        <v>131</v>
+      </c>
+      <c r="P76" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q76">
+        <v>5</v>
+      </c>
+      <c r="R76">
+        <v>2.38</v>
+      </c>
+      <c r="S76">
+        <v>2</v>
+      </c>
+      <c r="T76">
+        <v>1.3</v>
+      </c>
+      <c r="U76">
+        <v>3.32</v>
+      </c>
+      <c r="V76">
+        <v>2.4</v>
+      </c>
+      <c r="W76">
+        <v>1.53</v>
+      </c>
+      <c r="X76">
+        <v>5.6</v>
+      </c>
+      <c r="Y76">
+        <v>1.12</v>
+      </c>
+      <c r="Z76">
+        <v>4.9</v>
+      </c>
+      <c r="AA76">
+        <v>3.95</v>
+      </c>
+      <c r="AB76">
+        <v>1.47</v>
+      </c>
+      <c r="AC76">
+        <v>1.02</v>
+      </c>
+      <c r="AD76">
+        <v>10</v>
+      </c>
+      <c r="AE76">
+        <v>1.2</v>
+      </c>
+      <c r="AF76">
+        <v>4.33</v>
+      </c>
+      <c r="AG76">
+        <v>1.52</v>
+      </c>
+      <c r="AH76">
+        <v>2.1</v>
+      </c>
+      <c r="AI76">
+        <v>1.7</v>
+      </c>
+      <c r="AJ76">
+        <v>2.1</v>
+      </c>
+      <c r="AK76">
+        <v>2.4</v>
+      </c>
+      <c r="AL76">
+        <v>1.18</v>
+      </c>
+      <c r="AM76">
+        <v>1.11</v>
+      </c>
+      <c r="AN76">
+        <v>1.11</v>
+      </c>
+      <c r="AO76">
+        <v>1.44</v>
+      </c>
+      <c r="AP76">
+        <v>1</v>
+      </c>
+      <c r="AQ76">
+        <v>1.6</v>
+      </c>
+      <c r="AR76">
+        <v>1.56</v>
+      </c>
+      <c r="AS76">
+        <v>1.77</v>
+      </c>
+      <c r="AT76">
+        <v>3.33</v>
+      </c>
+      <c r="AU76">
+        <v>8</v>
+      </c>
+      <c r="AV76">
+        <v>11</v>
+      </c>
+      <c r="AW76">
+        <v>5</v>
+      </c>
+      <c r="AX76">
+        <v>9</v>
+      </c>
+      <c r="AY76">
+        <v>13</v>
+      </c>
+      <c r="AZ76">
+        <v>20</v>
+      </c>
+      <c r="BA76">
+        <v>6</v>
+      </c>
+      <c r="BB76">
+        <v>8</v>
+      </c>
+      <c r="BC76">
+        <v>14</v>
+      </c>
+      <c r="BD76">
+        <v>4.75</v>
+      </c>
+      <c r="BE76">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF76">
+        <v>1.27</v>
+      </c>
+      <c r="BG76">
+        <v>0</v>
+      </c>
+      <c r="BH76">
+        <v>0</v>
+      </c>
+      <c r="BI76">
+        <v>1.21</v>
+      </c>
+      <c r="BJ76">
+        <v>3.9</v>
+      </c>
+      <c r="BK76">
+        <v>1.38</v>
+      </c>
+      <c r="BL76">
+        <v>2.71</v>
+      </c>
+      <c r="BM76">
+        <v>1.64</v>
+      </c>
+      <c r="BN76">
+        <v>2.07</v>
+      </c>
+      <c r="BO76">
+        <v>2.04</v>
+      </c>
+      <c r="BP76">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7325208</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45458.25</v>
+      </c>
+      <c r="F77">
+        <v>15</v>
+      </c>
+      <c r="G77" t="s">
+        <v>76</v>
+      </c>
+      <c r="H77" t="s">
+        <v>70</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77" t="s">
+        <v>81</v>
+      </c>
+      <c r="P77" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q77">
+        <v>2.75</v>
+      </c>
+      <c r="R77">
+        <v>2.38</v>
+      </c>
+      <c r="S77">
+        <v>3.1</v>
+      </c>
+      <c r="T77">
+        <v>1.27</v>
+      </c>
+      <c r="U77">
+        <v>3.54</v>
+      </c>
+      <c r="V77">
+        <v>2.26</v>
+      </c>
+      <c r="W77">
+        <v>1.58</v>
+      </c>
+      <c r="X77">
+        <v>5.15</v>
+      </c>
+      <c r="Y77">
+        <v>1.14</v>
+      </c>
+      <c r="Z77">
+        <v>2.18</v>
+      </c>
+      <c r="AA77">
+        <v>3.3</v>
+      </c>
+      <c r="AB77">
+        <v>2.69</v>
+      </c>
+      <c r="AC77">
+        <v>1.03</v>
+      </c>
+      <c r="AD77">
+        <v>9</v>
+      </c>
+      <c r="AE77">
+        <v>1.18</v>
+      </c>
+      <c r="AF77">
+        <v>4.5</v>
+      </c>
+      <c r="AG77">
+        <v>1.46</v>
+      </c>
+      <c r="AH77">
+        <v>2.21</v>
+      </c>
+      <c r="AI77">
+        <v>1.45</v>
+      </c>
+      <c r="AJ77">
+        <v>2.6</v>
+      </c>
+      <c r="AK77">
+        <v>1.44</v>
+      </c>
+      <c r="AL77">
+        <v>1.22</v>
+      </c>
+      <c r="AM77">
+        <v>1.57</v>
+      </c>
+      <c r="AN77">
+        <v>2.17</v>
+      </c>
+      <c r="AO77">
+        <v>2</v>
+      </c>
+      <c r="AP77">
+        <v>2.13</v>
+      </c>
+      <c r="AQ77">
+        <v>1.88</v>
+      </c>
+      <c r="AR77">
+        <v>2</v>
+      </c>
+      <c r="AS77">
+        <v>1.88</v>
+      </c>
+      <c r="AT77">
+        <v>3.88</v>
+      </c>
+      <c r="AU77">
+        <v>8</v>
+      </c>
+      <c r="AV77">
+        <v>5</v>
+      </c>
+      <c r="AW77">
+        <v>13</v>
+      </c>
+      <c r="AX77">
+        <v>6</v>
+      </c>
+      <c r="AY77">
+        <v>21</v>
+      </c>
+      <c r="AZ77">
+        <v>11</v>
+      </c>
+      <c r="BA77">
+        <v>8</v>
+      </c>
+      <c r="BB77">
+        <v>2</v>
+      </c>
+      <c r="BC77">
+        <v>10</v>
+      </c>
+      <c r="BD77">
+        <v>2.01</v>
+      </c>
+      <c r="BE77">
+        <v>6.6</v>
+      </c>
+      <c r="BF77">
+        <v>2.13</v>
+      </c>
+      <c r="BG77">
+        <v>0</v>
+      </c>
+      <c r="BH77">
+        <v>0</v>
+      </c>
+      <c r="BI77">
+        <v>1.22</v>
+      </c>
+      <c r="BJ77">
+        <v>3.65</v>
+      </c>
+      <c r="BK77">
+        <v>1.4</v>
+      </c>
+      <c r="BL77">
+        <v>2.64</v>
+      </c>
+      <c r="BM77">
+        <v>1.69</v>
+      </c>
+      <c r="BN77">
+        <v>2</v>
+      </c>
+      <c r="BO77">
+        <v>2.11</v>
+      </c>
+      <c r="BP77">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7325209</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45458.33333333334</v>
+      </c>
+      <c r="F78">
+        <v>15</v>
+      </c>
+      <c r="G78" t="s">
+        <v>74</v>
+      </c>
+      <c r="H78" t="s">
+        <v>78</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>2</v>
+      </c>
+      <c r="K78">
+        <v>2</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>4</v>
+      </c>
+      <c r="N78">
+        <v>5</v>
+      </c>
+      <c r="O78" t="s">
+        <v>132</v>
+      </c>
+      <c r="P78" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q78">
+        <v>3.1</v>
+      </c>
+      <c r="R78">
+        <v>2.2</v>
+      </c>
+      <c r="S78">
+        <v>3.1</v>
+      </c>
+      <c r="T78">
+        <v>1.33</v>
+      </c>
+      <c r="U78">
+        <v>3</v>
+      </c>
+      <c r="V78">
+        <v>2.5</v>
+      </c>
+      <c r="W78">
+        <v>1.48</v>
+      </c>
+      <c r="X78">
+        <v>5.5</v>
+      </c>
+      <c r="Y78">
+        <v>1.11</v>
+      </c>
+      <c r="Z78">
+        <v>2.28</v>
+      </c>
+      <c r="AA78">
+        <v>3.3</v>
+      </c>
+      <c r="AB78">
+        <v>2.55</v>
+      </c>
+      <c r="AC78">
+        <v>1.01</v>
+      </c>
+      <c r="AD78">
+        <v>11.5</v>
+      </c>
+      <c r="AE78">
+        <v>1.21</v>
+      </c>
+      <c r="AF78">
+        <v>3.74</v>
+      </c>
+      <c r="AG78">
+        <v>1.59</v>
+      </c>
+      <c r="AH78">
+        <v>1.97</v>
+      </c>
+      <c r="AI78">
+        <v>1.57</v>
+      </c>
+      <c r="AJ78">
+        <v>2.25</v>
+      </c>
+      <c r="AK78">
+        <v>1.53</v>
+      </c>
+      <c r="AL78">
+        <v>1.3</v>
+      </c>
+      <c r="AM78">
+        <v>1.48</v>
+      </c>
+      <c r="AN78">
+        <v>1</v>
+      </c>
+      <c r="AO78">
+        <v>0.86</v>
+      </c>
+      <c r="AP78">
+        <v>0.88</v>
+      </c>
+      <c r="AQ78">
+        <v>1.13</v>
+      </c>
+      <c r="AR78">
+        <v>1.17</v>
+      </c>
+      <c r="AS78">
+        <v>1.77</v>
+      </c>
+      <c r="AT78">
+        <v>2.94</v>
+      </c>
+      <c r="AU78">
+        <v>6</v>
+      </c>
+      <c r="AV78">
+        <v>9</v>
+      </c>
+      <c r="AW78">
+        <v>12</v>
+      </c>
+      <c r="AX78">
+        <v>7</v>
+      </c>
+      <c r="AY78">
+        <v>18</v>
+      </c>
+      <c r="AZ78">
+        <v>16</v>
+      </c>
+      <c r="BA78">
+        <v>7</v>
+      </c>
+      <c r="BB78">
+        <v>4</v>
+      </c>
+      <c r="BC78">
+        <v>11</v>
+      </c>
+      <c r="BD78">
+        <v>2.35</v>
+      </c>
+      <c r="BE78">
+        <v>6.6</v>
+      </c>
+      <c r="BF78">
+        <v>1.85</v>
+      </c>
+      <c r="BG78">
+        <v>1.11</v>
+      </c>
+      <c r="BH78">
+        <v>5.5</v>
+      </c>
+      <c r="BI78">
+        <v>1.24</v>
+      </c>
+      <c r="BJ78">
+        <v>3.48</v>
+      </c>
+      <c r="BK78">
+        <v>1.43</v>
+      </c>
+      <c r="BL78">
+        <v>2.54</v>
+      </c>
+      <c r="BM78">
+        <v>1.74</v>
+      </c>
+      <c r="BN78">
+        <v>1.93</v>
+      </c>
+      <c r="BO78">
+        <v>2.19</v>
+      </c>
+      <c r="BP78">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7325210</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45459.25</v>
+      </c>
+      <c r="F79">
+        <v>15</v>
+      </c>
+      <c r="G79" t="s">
+        <v>72</v>
+      </c>
+      <c r="H79" t="s">
+        <v>75</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>2</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>3</v>
+      </c>
+      <c r="O79" t="s">
+        <v>133</v>
+      </c>
+      <c r="P79" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q79">
+        <v>1.53</v>
+      </c>
+      <c r="R79">
+        <v>2.5</v>
+      </c>
+      <c r="S79">
+        <v>17</v>
+      </c>
+      <c r="T79">
+        <v>1.33</v>
+      </c>
+      <c r="U79">
+        <v>3.14</v>
+      </c>
+      <c r="V79">
+        <v>2.4</v>
+      </c>
+      <c r="W79">
+        <v>1.51</v>
+      </c>
+      <c r="X79">
+        <v>6.2</v>
+      </c>
+      <c r="Y79">
+        <v>1.1</v>
+      </c>
+      <c r="Z79">
+        <v>1.17</v>
+      </c>
+      <c r="AA79">
+        <v>6</v>
+      </c>
+      <c r="AB79">
+        <v>11.96</v>
+      </c>
+      <c r="AC79">
+        <v>1.02</v>
+      </c>
+      <c r="AD79">
+        <v>12</v>
+      </c>
+      <c r="AE79">
+        <v>1.2</v>
+      </c>
+      <c r="AF79">
+        <v>4.2</v>
+      </c>
+      <c r="AG79">
+        <v>1.46</v>
+      </c>
+      <c r="AH79">
+        <v>2.52</v>
+      </c>
+      <c r="AI79">
+        <v>2.65</v>
+      </c>
+      <c r="AJ79">
+        <v>1.45</v>
+      </c>
+      <c r="AK79">
+        <v>1.01</v>
+      </c>
+      <c r="AL79">
+        <v>1.05</v>
+      </c>
+      <c r="AM79">
+        <v>4.75</v>
+      </c>
+      <c r="AN79">
+        <v>2.25</v>
+      </c>
+      <c r="AO79">
+        <v>1.29</v>
+      </c>
+      <c r="AP79">
+        <v>2.33</v>
+      </c>
+      <c r="AQ79">
+        <v>1.13</v>
+      </c>
+      <c r="AR79">
+        <v>2.5</v>
+      </c>
+      <c r="AS79">
+        <v>1.73</v>
+      </c>
+      <c r="AT79">
+        <v>4.23</v>
+      </c>
+      <c r="AU79">
+        <v>6</v>
+      </c>
+      <c r="AV79">
+        <v>5</v>
+      </c>
+      <c r="AW79">
+        <v>8</v>
+      </c>
+      <c r="AX79">
+        <v>6</v>
+      </c>
+      <c r="AY79">
+        <v>14</v>
+      </c>
+      <c r="AZ79">
+        <v>11</v>
+      </c>
+      <c r="BA79">
+        <v>7</v>
+      </c>
+      <c r="BB79">
+        <v>2</v>
+      </c>
+      <c r="BC79">
+        <v>9</v>
+      </c>
+      <c r="BD79">
+        <v>0</v>
+      </c>
+      <c r="BE79">
+        <v>0</v>
+      </c>
+      <c r="BF79">
+        <v>0</v>
+      </c>
+      <c r="BG79">
+        <v>0</v>
+      </c>
+      <c r="BH79">
+        <v>0</v>
+      </c>
+      <c r="BI79">
+        <v>0</v>
+      </c>
+      <c r="BJ79">
+        <v>0</v>
+      </c>
+      <c r="BK79">
+        <v>0</v>
+      </c>
+      <c r="BL79">
+        <v>0</v>
+      </c>
+      <c r="BM79">
+        <v>0</v>
+      </c>
+      <c r="BN79">
+        <v>0</v>
+      </c>
+      <c r="BO79">
+        <v>0</v>
+      </c>
+      <c r="BP79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7325211</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45459.33333333334</v>
+      </c>
+      <c r="F80">
+        <v>15</v>
+      </c>
+      <c r="G80" t="s">
+        <v>71</v>
+      </c>
+      <c r="H80" t="s">
+        <v>79</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>2</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>2</v>
+      </c>
+      <c r="O80" t="s">
+        <v>134</v>
+      </c>
+      <c r="P80" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q80">
+        <v>2.3</v>
+      </c>
+      <c r="R80">
+        <v>2.3</v>
+      </c>
+      <c r="S80">
+        <v>4.33</v>
+      </c>
+      <c r="T80">
+        <v>1.3</v>
+      </c>
+      <c r="U80">
+        <v>3.32</v>
+      </c>
+      <c r="V80">
+        <v>2.36</v>
+      </c>
+      <c r="W80">
+        <v>1.54</v>
+      </c>
+      <c r="X80">
+        <v>5.55</v>
+      </c>
+      <c r="Y80">
+        <v>1.12</v>
+      </c>
+      <c r="Z80">
+        <v>1.72</v>
+      </c>
+      <c r="AA80">
+        <v>3.65</v>
+      </c>
+      <c r="AB80">
+        <v>4.01</v>
+      </c>
+      <c r="AC80">
+        <v>1.02</v>
+      </c>
+      <c r="AD80">
+        <v>10</v>
+      </c>
+      <c r="AE80">
+        <v>1.18</v>
+      </c>
+      <c r="AF80">
+        <v>4.5</v>
+      </c>
+      <c r="AG80">
+        <v>1.6</v>
+      </c>
+      <c r="AH80">
+        <v>2.19</v>
+      </c>
+      <c r="AI80">
+        <v>1.57</v>
+      </c>
+      <c r="AJ80">
+        <v>2.3</v>
+      </c>
+      <c r="AK80">
+        <v>1.16</v>
+      </c>
+      <c r="AL80">
+        <v>1.2</v>
+      </c>
+      <c r="AM80">
+        <v>2.05</v>
+      </c>
+      <c r="AN80">
+        <v>1.29</v>
+      </c>
+      <c r="AO80">
+        <v>0.14</v>
+      </c>
+      <c r="AP80">
+        <v>1.25</v>
+      </c>
+      <c r="AQ80">
+        <v>0.25</v>
+      </c>
+      <c r="AR80">
+        <v>1.48</v>
+      </c>
+      <c r="AS80">
+        <v>1.01</v>
+      </c>
+      <c r="AT80">
+        <v>2.49</v>
+      </c>
+      <c r="AU80">
+        <v>10</v>
+      </c>
+      <c r="AV80">
+        <v>4</v>
+      </c>
+      <c r="AW80">
+        <v>11</v>
+      </c>
+      <c r="AX80">
+        <v>3</v>
+      </c>
+      <c r="AY80">
+        <v>21</v>
+      </c>
+      <c r="AZ80">
+        <v>7</v>
+      </c>
+      <c r="BA80">
+        <v>8</v>
+      </c>
+      <c r="BB80">
+        <v>7</v>
+      </c>
+      <c r="BC80">
+        <v>15</v>
+      </c>
+      <c r="BD80">
+        <v>0</v>
+      </c>
+      <c r="BE80">
+        <v>0</v>
+      </c>
+      <c r="BF80">
+        <v>0</v>
+      </c>
+      <c r="BG80">
+        <v>0</v>
+      </c>
+      <c r="BH80">
+        <v>0</v>
+      </c>
+      <c r="BI80">
+        <v>0</v>
+      </c>
+      <c r="BJ80">
+        <v>0</v>
+      </c>
+      <c r="BK80">
+        <v>0</v>
+      </c>
+      <c r="BL80">
+        <v>0</v>
+      </c>
+      <c r="BM80">
+        <v>0</v>
+      </c>
+      <c r="BN80">
+        <v>0</v>
+      </c>
+      <c r="BO80">
+        <v>0</v>
+      </c>
+      <c r="BP80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7325212</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45461.5</v>
+      </c>
+      <c r="F81">
+        <v>16</v>
+      </c>
+      <c r="G81" t="s">
+        <v>77</v>
+      </c>
+      <c r="H81" t="s">
+        <v>74</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81" t="s">
+        <v>81</v>
+      </c>
+      <c r="P81" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q81">
+        <v>1.6</v>
+      </c>
+      <c r="R81">
+        <v>2.6</v>
+      </c>
+      <c r="S81">
+        <v>7.8</v>
+      </c>
+      <c r="T81">
+        <v>1.27</v>
+      </c>
+      <c r="U81">
+        <v>3.3</v>
+      </c>
+      <c r="V81">
+        <v>2.25</v>
+      </c>
+      <c r="W81">
+        <v>1.55</v>
+      </c>
+      <c r="X81">
+        <v>4.8</v>
+      </c>
+      <c r="Y81">
+        <v>1.13</v>
+      </c>
+      <c r="Z81">
+        <v>1.25</v>
+      </c>
+      <c r="AA81">
+        <v>5</v>
+      </c>
+      <c r="AB81">
+        <v>8.5</v>
+      </c>
+      <c r="AC81">
+        <v>1.02</v>
+      </c>
+      <c r="AD81">
+        <v>12</v>
+      </c>
+      <c r="AE81">
+        <v>1.14</v>
+      </c>
+      <c r="AF81">
+        <v>4.7</v>
+      </c>
+      <c r="AG81">
+        <v>1.53</v>
+      </c>
+      <c r="AH81">
+        <v>2.3</v>
+      </c>
+      <c r="AI81">
+        <v>1.85</v>
+      </c>
+      <c r="AJ81">
+        <v>1.8</v>
+      </c>
+      <c r="AK81">
+        <v>1.02</v>
+      </c>
+      <c r="AL81">
+        <v>1.09</v>
+      </c>
+      <c r="AM81">
+        <v>3.5</v>
+      </c>
+      <c r="AN81">
+        <v>1.71</v>
+      </c>
+      <c r="AO81">
+        <v>0.86</v>
+      </c>
+      <c r="AP81">
+        <v>1.5</v>
+      </c>
+      <c r="AQ81">
+        <v>1.13</v>
+      </c>
+      <c r="AR81">
+        <v>2.16</v>
+      </c>
+      <c r="AS81">
+        <v>1.4</v>
+      </c>
+      <c r="AT81">
+        <v>3.56</v>
+      </c>
+      <c r="AU81">
+        <v>6</v>
+      </c>
+      <c r="AV81">
+        <v>2</v>
+      </c>
+      <c r="AW81">
+        <v>2</v>
+      </c>
+      <c r="AX81">
+        <v>4</v>
+      </c>
+      <c r="AY81">
+        <v>8</v>
+      </c>
+      <c r="AZ81">
+        <v>6</v>
+      </c>
+      <c r="BA81">
+        <v>2</v>
+      </c>
+      <c r="BB81">
+        <v>2</v>
+      </c>
+      <c r="BC81">
+        <v>4</v>
+      </c>
+      <c r="BD81">
+        <v>0</v>
+      </c>
+      <c r="BE81">
+        <v>0</v>
+      </c>
+      <c r="BF81">
+        <v>0</v>
+      </c>
+      <c r="BG81">
+        <v>0</v>
+      </c>
+      <c r="BH81">
+        <v>0</v>
+      </c>
+      <c r="BI81">
+        <v>0</v>
+      </c>
+      <c r="BJ81">
+        <v>0</v>
+      </c>
+      <c r="BK81">
+        <v>0</v>
+      </c>
+      <c r="BL81">
+        <v>0</v>
+      </c>
+      <c r="BM81">
+        <v>0</v>
+      </c>
+      <c r="BN81">
+        <v>0</v>
+      </c>
+      <c r="BO81">
+        <v>0</v>
+      </c>
+      <c r="BP81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7325213</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45461.5</v>
+      </c>
+      <c r="F82">
+        <v>16</v>
+      </c>
+      <c r="G82" t="s">
+        <v>76</v>
+      </c>
+      <c r="H82" t="s">
+        <v>73</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>2</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>2</v>
+      </c>
+      <c r="O82" t="s">
+        <v>135</v>
+      </c>
+      <c r="P82" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q82">
+        <v>1.75</v>
+      </c>
+      <c r="R82">
+        <v>2.55</v>
+      </c>
+      <c r="S82">
+        <v>5.7</v>
+      </c>
+      <c r="T82">
+        <v>1.27</v>
+      </c>
+      <c r="U82">
+        <v>3.3</v>
+      </c>
+      <c r="V82">
+        <v>2.25</v>
+      </c>
+      <c r="W82">
+        <v>1.55</v>
+      </c>
+      <c r="X82">
+        <v>4.8</v>
+      </c>
+      <c r="Y82">
+        <v>1.13</v>
+      </c>
+      <c r="Z82">
+        <v>1.35</v>
+      </c>
+      <c r="AA82">
+        <v>4.35</v>
+      </c>
+      <c r="AB82">
+        <v>6.25</v>
+      </c>
+      <c r="AC82">
+        <v>1.02</v>
+      </c>
+      <c r="AD82">
+        <v>12</v>
+      </c>
+      <c r="AE82">
+        <v>1.14</v>
+      </c>
+      <c r="AF82">
+        <v>4.7</v>
+      </c>
+      <c r="AG82">
+        <v>1.52</v>
+      </c>
+      <c r="AH82">
+        <v>2.38</v>
+      </c>
+      <c r="AI82">
+        <v>1.67</v>
+      </c>
+      <c r="AJ82">
+        <v>2</v>
+      </c>
+      <c r="AK82">
+        <v>1.01</v>
+      </c>
+      <c r="AL82">
+        <v>1.16</v>
+      </c>
+      <c r="AM82">
+        <v>2.8</v>
+      </c>
+      <c r="AN82">
+        <v>2</v>
+      </c>
+      <c r="AO82">
+        <v>0.86</v>
+      </c>
+      <c r="AP82">
+        <v>2.13</v>
+      </c>
+      <c r="AQ82">
+        <v>0.75</v>
+      </c>
+      <c r="AR82">
+        <v>2.04</v>
+      </c>
+      <c r="AS82">
+        <v>1.22</v>
+      </c>
+      <c r="AT82">
+        <v>3.26</v>
+      </c>
+      <c r="AU82">
+        <v>4</v>
+      </c>
+      <c r="AV82">
+        <v>2</v>
+      </c>
+      <c r="AW82">
+        <v>2</v>
+      </c>
+      <c r="AX82">
+        <v>0</v>
+      </c>
+      <c r="AY82">
+        <v>6</v>
+      </c>
+      <c r="AZ82">
+        <v>2</v>
+      </c>
+      <c r="BA82">
+        <v>5</v>
+      </c>
+      <c r="BB82">
+        <v>1</v>
+      </c>
+      <c r="BC82">
+        <v>6</v>
+      </c>
+      <c r="BD82">
+        <v>0</v>
+      </c>
+      <c r="BE82">
+        <v>0</v>
+      </c>
+      <c r="BF82">
+        <v>0</v>
+      </c>
+      <c r="BG82">
+        <v>0</v>
+      </c>
+      <c r="BH82">
+        <v>0</v>
+      </c>
+      <c r="BI82">
+        <v>0</v>
+      </c>
+      <c r="BJ82">
+        <v>0</v>
+      </c>
+      <c r="BK82">
+        <v>0</v>
+      </c>
+      <c r="BL82">
+        <v>0</v>
+      </c>
+      <c r="BM82">
+        <v>0</v>
+      </c>
+      <c r="BN82">
+        <v>0</v>
+      </c>
+      <c r="BO82">
+        <v>0</v>
+      </c>
+      <c r="BP82">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="189">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -424,6 +424,9 @@
     <t>['7', '55']</t>
   </si>
   <si>
+    <t>['13', '52', '66']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -572,6 +575,12 @@
   </si>
   <si>
     <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['7', '22', '29', '51', '57', '66']</t>
+  </si>
+  <si>
+    <t>['87']</t>
   </si>
 </sst>
 </file>
@@ -933,7 +942,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP82"/>
+  <dimension ref="A1:BP85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1270,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ2">
         <v>0.25</v>
@@ -1398,7 +1407,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1810,7 +1819,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -1891,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2016,7 +2025,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2428,7 +2437,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2509,7 +2518,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ8">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AR8">
         <v>1.63</v>
@@ -2840,7 +2849,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -3046,7 +3055,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3124,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
         <v>0.75</v>
@@ -3252,7 +3261,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3333,7 +3342,7 @@
         <v>1</v>
       </c>
       <c r="AQ12">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AR12">
         <v>1.76</v>
@@ -3458,7 +3467,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3664,7 +3673,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3742,10 +3751,10 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ14">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3870,7 +3879,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -3951,7 +3960,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ15">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR15">
         <v>0.5</v>
@@ -4154,7 +4163,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
         <v>1.88</v>
@@ -4488,7 +4497,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4772,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ19">
         <v>0.25</v>
@@ -5312,7 +5321,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5390,10 +5399,10 @@
         <v>2</v>
       </c>
       <c r="AP22">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>0.74</v>
@@ -5518,7 +5527,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5599,7 +5608,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ23">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AR23">
         <v>2.56</v>
@@ -5724,7 +5733,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -5805,7 +5814,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ24">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR24">
         <v>2.63</v>
@@ -5930,7 +5939,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6008,7 +6017,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
         <v>1.13</v>
@@ -6342,7 +6351,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6423,7 +6432,7 @@
         <v>1</v>
       </c>
       <c r="AQ27">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR27">
         <v>2.19</v>
@@ -6548,7 +6557,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6626,7 +6635,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ28">
         <v>0.75</v>
@@ -6960,7 +6969,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7166,7 +7175,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7372,7 +7381,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7453,7 +7462,7 @@
         <v>1</v>
       </c>
       <c r="AQ32">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AR32">
         <v>1.47</v>
@@ -7578,7 +7587,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7656,7 +7665,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ33">
         <v>1.6</v>
@@ -7784,7 +7793,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -7862,7 +7871,7 @@
         <v>0.67</v>
       </c>
       <c r="AP34">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ34">
         <v>0.75</v>
@@ -7990,7 +7999,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8071,7 +8080,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ35">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>2.56</v>
@@ -8608,7 +8617,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8686,7 +8695,7 @@
         <v>2.33</v>
       </c>
       <c r="AP38">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
         <v>1.88</v>
@@ -8814,7 +8823,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -9020,7 +9029,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9226,7 +9235,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9432,7 +9441,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9513,7 +9522,7 @@
         <v>1</v>
       </c>
       <c r="AQ42">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AR42">
         <v>2.19</v>
@@ -9638,7 +9647,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9716,7 +9725,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ43">
         <v>1.6</v>
@@ -10050,7 +10059,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10337,7 +10346,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ46">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR46">
         <v>1.97</v>
@@ -10540,10 +10549,10 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ47">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR47">
         <v>1.09</v>
@@ -10746,7 +10755,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ48">
         <v>1.13</v>
@@ -11158,10 +11167,10 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ50">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AR50">
         <v>1.81</v>
@@ -11286,7 +11295,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -11364,7 +11373,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
         <v>1.13</v>
@@ -11573,7 +11582,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ52">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR52">
         <v>1.6</v>
@@ -12110,7 +12119,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12188,7 +12197,7 @@
         <v>1.17</v>
       </c>
       <c r="AP55">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ55">
         <v>1.6</v>
@@ -12316,7 +12325,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12522,7 +12531,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12600,7 +12609,7 @@
         <v>1.6</v>
       </c>
       <c r="AP57">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ57">
         <v>1.88</v>
@@ -12809,7 +12818,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ58">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR58">
         <v>1.96</v>
@@ -13140,7 +13149,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13221,7 +13230,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ60">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AR60">
         <v>1.27</v>
@@ -13424,10 +13433,10 @@
         <v>0.8</v>
       </c>
       <c r="AP61">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ61">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR61">
         <v>1.78</v>
@@ -13552,7 +13561,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13758,7 +13767,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -13964,7 +13973,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14042,7 +14051,7 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ64">
         <v>1.13</v>
@@ -14170,7 +14179,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14251,7 +14260,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ65">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR65">
         <v>1.14</v>
@@ -14376,7 +14385,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14582,7 +14591,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -14788,7 +14797,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -14994,7 +15003,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15200,7 +15209,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15281,7 +15290,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ70">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AR70">
         <v>2.27</v>
@@ -15406,7 +15415,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15484,7 +15493,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ71">
         <v>1.13</v>
@@ -15690,7 +15699,7 @@
         <v>1.63</v>
       </c>
       <c r="AP72">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ72">
         <v>1.6</v>
@@ -15899,7 +15908,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ73">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR73">
         <v>2.41</v>
@@ -16102,7 +16111,7 @@
         <v>2.14</v>
       </c>
       <c r="AP74">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ74">
         <v>1.88</v>
@@ -16436,7 +16445,7 @@
         <v>131</v>
       </c>
       <c r="P76" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16848,7 +16857,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17054,7 +17063,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q79">
         <v>1.53</v>
@@ -17135,7 +17144,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ79">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR79">
         <v>2.5</v>
@@ -17260,7 +17269,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17466,7 +17475,7 @@
         <v>81</v>
       </c>
       <c r="P81" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q81">
         <v>1.6</v>
@@ -17562,28 +17571,28 @@
         <v>6</v>
       </c>
       <c r="AV81">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW81">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AX81">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY81">
+        <v>16</v>
+      </c>
+      <c r="AZ81">
+        <v>10</v>
+      </c>
+      <c r="BA81">
+        <v>5</v>
+      </c>
+      <c r="BB81">
+        <v>3</v>
+      </c>
+      <c r="BC81">
         <v>8</v>
-      </c>
-      <c r="AZ81">
-        <v>6</v>
-      </c>
-      <c r="BA81">
-        <v>2</v>
-      </c>
-      <c r="BB81">
-        <v>2</v>
-      </c>
-      <c r="BC81">
-        <v>4</v>
       </c>
       <c r="BD81">
         <v>0</v>
@@ -17765,69 +17774,687 @@
         <v>3.26</v>
       </c>
       <c r="AU82">
+        <v>7</v>
+      </c>
+      <c r="AV82">
         <v>4</v>
       </c>
-      <c r="AV82">
-        <v>2</v>
-      </c>
       <c r="AW82">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AX82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY82">
+        <v>14</v>
+      </c>
+      <c r="AZ82">
         <v>6</v>
       </c>
-      <c r="AZ82">
-        <v>2</v>
-      </c>
       <c r="BA82">
+        <v>7</v>
+      </c>
+      <c r="BB82">
+        <v>4</v>
+      </c>
+      <c r="BC82">
+        <v>11</v>
+      </c>
+      <c r="BD82">
+        <v>0</v>
+      </c>
+      <c r="BE82">
+        <v>0</v>
+      </c>
+      <c r="BF82">
+        <v>0</v>
+      </c>
+      <c r="BG82">
+        <v>0</v>
+      </c>
+      <c r="BH82">
+        <v>0</v>
+      </c>
+      <c r="BI82">
+        <v>0</v>
+      </c>
+      <c r="BJ82">
+        <v>0</v>
+      </c>
+      <c r="BK82">
+        <v>0</v>
+      </c>
+      <c r="BL82">
+        <v>0</v>
+      </c>
+      <c r="BM82">
+        <v>0</v>
+      </c>
+      <c r="BN82">
+        <v>0</v>
+      </c>
+      <c r="BO82">
+        <v>0</v>
+      </c>
+      <c r="BP82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7325214</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45462.5</v>
+      </c>
+      <c r="F83">
+        <v>16</v>
+      </c>
+      <c r="G83" t="s">
+        <v>79</v>
+      </c>
+      <c r="H83" t="s">
+        <v>72</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>3</v>
+      </c>
+      <c r="K83">
+        <v>3</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>6</v>
+      </c>
+      <c r="N83">
+        <v>6</v>
+      </c>
+      <c r="O83" t="s">
+        <v>81</v>
+      </c>
+      <c r="P83" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q83">
+        <v>8.5</v>
+      </c>
+      <c r="R83">
+        <v>2.63</v>
+      </c>
+      <c r="S83">
+        <v>1.62</v>
+      </c>
+      <c r="T83">
+        <v>1.22</v>
+      </c>
+      <c r="U83">
+        <v>3.75</v>
+      </c>
+      <c r="V83">
+        <v>2.25</v>
+      </c>
+      <c r="W83">
+        <v>1.57</v>
+      </c>
+      <c r="X83">
         <v>5</v>
       </c>
-      <c r="BB82">
-        <v>1</v>
-      </c>
-      <c r="BC82">
+      <c r="Y83">
+        <v>1.14</v>
+      </c>
+      <c r="Z83">
+        <v>10</v>
+      </c>
+      <c r="AA83">
+        <v>5.2</v>
+      </c>
+      <c r="AB83">
+        <v>1.23</v>
+      </c>
+      <c r="AC83">
+        <v>1.01</v>
+      </c>
+      <c r="AD83">
+        <v>20</v>
+      </c>
+      <c r="AE83">
+        <v>1.12</v>
+      </c>
+      <c r="AF83">
+        <v>5.5</v>
+      </c>
+      <c r="AG83">
+        <v>1.39</v>
+      </c>
+      <c r="AH83">
+        <v>2.4</v>
+      </c>
+      <c r="AI83">
+        <v>1.85</v>
+      </c>
+      <c r="AJ83">
+        <v>1.91</v>
+      </c>
+      <c r="AK83">
+        <v>3.6</v>
+      </c>
+      <c r="AL83">
+        <v>1.08</v>
+      </c>
+      <c r="AM83">
+        <v>1.05</v>
+      </c>
+      <c r="AN83">
+        <v>1.14</v>
+      </c>
+      <c r="AO83">
+        <v>2.63</v>
+      </c>
+      <c r="AP83">
+        <v>1</v>
+      </c>
+      <c r="AQ83">
+        <v>2.67</v>
+      </c>
+      <c r="AR83">
+        <v>1.25</v>
+      </c>
+      <c r="AS83">
+        <v>2.49</v>
+      </c>
+      <c r="AT83">
+        <v>3.74</v>
+      </c>
+      <c r="AU83">
+        <v>2</v>
+      </c>
+      <c r="AV83">
+        <v>13</v>
+      </c>
+      <c r="AW83">
+        <v>2</v>
+      </c>
+      <c r="AX83">
+        <v>12</v>
+      </c>
+      <c r="AY83">
+        <v>4</v>
+      </c>
+      <c r="AZ83">
+        <v>25</v>
+      </c>
+      <c r="BA83">
+        <v>2</v>
+      </c>
+      <c r="BB83">
+        <v>11</v>
+      </c>
+      <c r="BC83">
+        <v>13</v>
+      </c>
+      <c r="BD83">
+        <v>0</v>
+      </c>
+      <c r="BE83">
+        <v>0</v>
+      </c>
+      <c r="BF83">
+        <v>0</v>
+      </c>
+      <c r="BG83">
+        <v>0</v>
+      </c>
+      <c r="BH83">
+        <v>0</v>
+      </c>
+      <c r="BI83">
+        <v>0</v>
+      </c>
+      <c r="BJ83">
+        <v>0</v>
+      </c>
+      <c r="BK83">
+        <v>0</v>
+      </c>
+      <c r="BL83">
+        <v>0</v>
+      </c>
+      <c r="BM83">
+        <v>0</v>
+      </c>
+      <c r="BN83">
+        <v>0</v>
+      </c>
+      <c r="BO83">
+        <v>0</v>
+      </c>
+      <c r="BP83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7325215</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45462.5</v>
+      </c>
+      <c r="F84">
+        <v>16</v>
+      </c>
+      <c r="G84" t="s">
+        <v>78</v>
+      </c>
+      <c r="H84" t="s">
+        <v>71</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84" t="s">
+        <v>81</v>
+      </c>
+      <c r="P84" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q84">
+        <v>2.63</v>
+      </c>
+      <c r="R84">
+        <v>2.25</v>
+      </c>
+      <c r="S84">
+        <v>3.5</v>
+      </c>
+      <c r="T84">
+        <v>1.32</v>
+      </c>
+      <c r="U84">
+        <v>3.2</v>
+      </c>
+      <c r="V84">
+        <v>2.45</v>
+      </c>
+      <c r="W84">
+        <v>1.51</v>
+      </c>
+      <c r="X84">
+        <v>5.8</v>
+      </c>
+      <c r="Y84">
+        <v>1.11</v>
+      </c>
+      <c r="Z84">
+        <v>2.24</v>
+      </c>
+      <c r="AA84">
+        <v>3.1</v>
+      </c>
+      <c r="AB84">
+        <v>3</v>
+      </c>
+      <c r="AC84">
+        <v>1.03</v>
+      </c>
+      <c r="AD84">
+        <v>9.1</v>
+      </c>
+      <c r="AE84">
+        <v>1.18</v>
+      </c>
+      <c r="AF84">
+        <v>4.05</v>
+      </c>
+      <c r="AG84">
+        <v>1.68</v>
+      </c>
+      <c r="AH84">
+        <v>2.05</v>
+      </c>
+      <c r="AI84">
+        <v>1.54</v>
+      </c>
+      <c r="AJ84">
+        <v>2.41</v>
+      </c>
+      <c r="AK84">
+        <v>1.41</v>
+      </c>
+      <c r="AL84">
+        <v>1.25</v>
+      </c>
+      <c r="AM84">
+        <v>1.53</v>
+      </c>
+      <c r="AN84">
+        <v>1.29</v>
+      </c>
+      <c r="AO84">
+        <v>0.57</v>
+      </c>
+      <c r="AP84">
+        <v>1.13</v>
+      </c>
+      <c r="AQ84">
+        <v>0.88</v>
+      </c>
+      <c r="AR84">
+        <v>1.8</v>
+      </c>
+      <c r="AS84">
+        <v>1.41</v>
+      </c>
+      <c r="AT84">
+        <v>3.21</v>
+      </c>
+      <c r="AU84">
+        <v>8</v>
+      </c>
+      <c r="AV84">
+        <v>5</v>
+      </c>
+      <c r="AW84">
+        <v>19</v>
+      </c>
+      <c r="AX84">
+        <v>5</v>
+      </c>
+      <c r="AY84">
+        <v>27</v>
+      </c>
+      <c r="AZ84">
+        <v>10</v>
+      </c>
+      <c r="BA84">
+        <v>15</v>
+      </c>
+      <c r="BB84">
+        <v>2</v>
+      </c>
+      <c r="BC84">
+        <v>17</v>
+      </c>
+      <c r="BD84">
+        <v>0</v>
+      </c>
+      <c r="BE84">
+        <v>0</v>
+      </c>
+      <c r="BF84">
+        <v>0</v>
+      </c>
+      <c r="BG84">
+        <v>0</v>
+      </c>
+      <c r="BH84">
+        <v>0</v>
+      </c>
+      <c r="BI84">
+        <v>0</v>
+      </c>
+      <c r="BJ84">
+        <v>0</v>
+      </c>
+      <c r="BK84">
+        <v>0</v>
+      </c>
+      <c r="BL84">
+        <v>0</v>
+      </c>
+      <c r="BM84">
+        <v>0</v>
+      </c>
+      <c r="BN84">
+        <v>0</v>
+      </c>
+      <c r="BO84">
+        <v>0</v>
+      </c>
+      <c r="BP84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7325216</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45462.54166666666</v>
+      </c>
+      <c r="F85">
+        <v>16</v>
+      </c>
+      <c r="G85" t="s">
+        <v>70</v>
+      </c>
+      <c r="H85" t="s">
+        <v>75</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>2</v>
+      </c>
+      <c r="L85">
+        <v>3</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>4</v>
+      </c>
+      <c r="O85" t="s">
+        <v>136</v>
+      </c>
+      <c r="P85" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q85">
+        <v>1.95</v>
+      </c>
+      <c r="R85">
+        <v>2.5</v>
+      </c>
+      <c r="S85">
+        <v>5</v>
+      </c>
+      <c r="T85">
+        <v>1.22</v>
+      </c>
+      <c r="U85">
+        <v>3.75</v>
+      </c>
+      <c r="V85">
+        <v>2.2</v>
+      </c>
+      <c r="W85">
+        <v>1.62</v>
+      </c>
+      <c r="X85">
+        <v>5</v>
+      </c>
+      <c r="Y85">
+        <v>1.14</v>
+      </c>
+      <c r="Z85">
+        <v>1.52</v>
+      </c>
+      <c r="AA85">
+        <v>3.85</v>
+      </c>
+      <c r="AB85">
+        <v>5.4</v>
+      </c>
+      <c r="AC85">
+        <v>1.01</v>
+      </c>
+      <c r="AD85">
+        <v>18</v>
+      </c>
+      <c r="AE85">
+        <v>1.14</v>
+      </c>
+      <c r="AF85">
+        <v>5</v>
+      </c>
+      <c r="AG85">
+        <v>1.52</v>
+      </c>
+      <c r="AH85">
+        <v>2.38</v>
+      </c>
+      <c r="AI85">
+        <v>1.57</v>
+      </c>
+      <c r="AJ85">
+        <v>2.34</v>
+      </c>
+      <c r="AK85">
+        <v>1.07</v>
+      </c>
+      <c r="AL85">
+        <v>1.2</v>
+      </c>
+      <c r="AM85">
+        <v>2.3</v>
+      </c>
+      <c r="AN85">
+        <v>1.89</v>
+      </c>
+      <c r="AO85">
+        <v>1.13</v>
+      </c>
+      <c r="AP85">
+        <v>2</v>
+      </c>
+      <c r="AQ85">
+        <v>1</v>
+      </c>
+      <c r="AR85">
+        <v>1.88</v>
+      </c>
+      <c r="AS85">
+        <v>1.68</v>
+      </c>
+      <c r="AT85">
+        <v>3.56</v>
+      </c>
+      <c r="AU85">
         <v>6</v>
       </c>
-      <c r="BD82">
-        <v>0</v>
-      </c>
-      <c r="BE82">
-        <v>0</v>
-      </c>
-      <c r="BF82">
-        <v>0</v>
-      </c>
-      <c r="BG82">
-        <v>0</v>
-      </c>
-      <c r="BH82">
-        <v>0</v>
-      </c>
-      <c r="BI82">
-        <v>0</v>
-      </c>
-      <c r="BJ82">
-        <v>0</v>
-      </c>
-      <c r="BK82">
-        <v>0</v>
-      </c>
-      <c r="BL82">
-        <v>0</v>
-      </c>
-      <c r="BM82">
-        <v>0</v>
-      </c>
-      <c r="BN82">
-        <v>0</v>
-      </c>
-      <c r="BO82">
-        <v>0</v>
-      </c>
-      <c r="BP82">
+      <c r="AV85">
+        <v>3</v>
+      </c>
+      <c r="AW85">
+        <v>13</v>
+      </c>
+      <c r="AX85">
+        <v>8</v>
+      </c>
+      <c r="AY85">
+        <v>19</v>
+      </c>
+      <c r="AZ85">
+        <v>11</v>
+      </c>
+      <c r="BA85">
+        <v>9</v>
+      </c>
+      <c r="BB85">
+        <v>5</v>
+      </c>
+      <c r="BC85">
+        <v>14</v>
+      </c>
+      <c r="BD85">
+        <v>0</v>
+      </c>
+      <c r="BE85">
+        <v>0</v>
+      </c>
+      <c r="BF85">
+        <v>0</v>
+      </c>
+      <c r="BG85">
+        <v>0</v>
+      </c>
+      <c r="BH85">
+        <v>0</v>
+      </c>
+      <c r="BI85">
+        <v>0</v>
+      </c>
+      <c r="BJ85">
+        <v>0</v>
+      </c>
+      <c r="BK85">
+        <v>0</v>
+      </c>
+      <c r="BL85">
+        <v>0</v>
+      </c>
+      <c r="BM85">
+        <v>0</v>
+      </c>
+      <c r="BN85">
+        <v>0</v>
+      </c>
+      <c r="BO85">
+        <v>0</v>
+      </c>
+      <c r="BP85">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="192">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -427,6 +427,9 @@
     <t>['13', '52', '66']</t>
   </si>
   <si>
+    <t>['45']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -581,6 +584,12 @@
   </si>
   <si>
     <t>['87']</t>
+  </si>
+  <si>
+    <t>['16', '89']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
   </si>
 </sst>
 </file>
@@ -942,7 +951,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP85"/>
+  <dimension ref="A1:BP88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1407,7 +1416,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1485,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ3">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1819,7 +1828,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -2025,7 +2034,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2103,10 +2112,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ6">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2437,7 +2446,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2515,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ8">
         <v>2.67</v>
@@ -2849,7 +2858,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -3055,7 +3064,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3136,7 +3145,7 @@
         <v>2</v>
       </c>
       <c r="AQ11">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR11">
         <v>1.79</v>
@@ -3261,7 +3270,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3467,7 +3476,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3673,7 +3682,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3879,7 +3888,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -3957,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ15">
         <v>0.88</v>
@@ -4166,7 +4175,7 @@
         <v>1</v>
       </c>
       <c r="AQ16">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4369,10 +4378,10 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>0.95</v>
@@ -4497,7 +4506,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4575,10 +4584,10 @@
         <v>2</v>
       </c>
       <c r="AP18">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ18">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR18">
         <v>1.11</v>
@@ -5196,7 +5205,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ21">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR21">
         <v>2.61</v>
@@ -5321,7 +5330,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5527,7 +5536,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5733,7 +5742,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -5939,7 +5948,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6351,7 +6360,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6557,7 +6566,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6638,7 +6647,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ28">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>1.8</v>
@@ -6969,7 +6978,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7047,7 +7056,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ30">
         <v>1.88</v>
@@ -7175,7 +7184,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7256,7 +7265,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ31">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR31">
         <v>2.12</v>
@@ -7381,7 +7390,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7587,7 +7596,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7668,7 +7677,7 @@
         <v>2</v>
       </c>
       <c r="AQ33">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR33">
         <v>1.95</v>
@@ -7793,7 +7802,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -7874,7 +7883,7 @@
         <v>1</v>
       </c>
       <c r="AQ34">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR34">
         <v>1.08</v>
@@ -7999,7 +8008,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8489,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ37">
         <v>1.13</v>
@@ -8617,7 +8626,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8698,7 +8707,7 @@
         <v>2</v>
       </c>
       <c r="AQ38">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR38">
         <v>1.67</v>
@@ -8823,7 +8832,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -8901,7 +8910,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ39">
         <v>0.25</v>
@@ -9029,7 +9038,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9110,7 +9119,7 @@
         <v>1</v>
       </c>
       <c r="AQ40">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR40">
         <v>1.38</v>
@@ -9235,7 +9244,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9313,7 +9322,7 @@
         <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ41">
         <v>1.88</v>
@@ -9441,7 +9450,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9647,7 +9656,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9728,7 +9737,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ43">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR43">
         <v>1.92</v>
@@ -9934,7 +9943,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ44">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR44">
         <v>2.3</v>
@@ -10059,7 +10068,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10964,7 +10973,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ49">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR49">
         <v>2.56</v>
@@ -11295,7 +11304,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -11579,7 +11588,7 @@
         <v>1.4</v>
       </c>
       <c r="AP52">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ52">
         <v>1</v>
@@ -11788,7 +11797,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ53">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR53">
         <v>2.19</v>
@@ -12119,7 +12128,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12200,7 +12209,7 @@
         <v>1</v>
       </c>
       <c r="AQ55">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR55">
         <v>1.18</v>
@@ -12325,7 +12334,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12406,7 +12415,7 @@
         <v>1</v>
       </c>
       <c r="AQ56">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR56">
         <v>1.96</v>
@@ -12531,7 +12540,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13149,7 +13158,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13227,7 +13236,7 @@
         <v>2.5</v>
       </c>
       <c r="AP60">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ60">
         <v>2.67</v>
@@ -13561,7 +13570,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13642,7 +13651,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ62">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR62">
         <v>2.43</v>
@@ -13767,7 +13776,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -13848,7 +13857,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ63">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR63">
         <v>2.2</v>
@@ -13973,7 +13982,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14179,7 +14188,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14257,7 +14266,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ65">
         <v>1</v>
@@ -14385,7 +14394,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14591,7 +14600,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -14669,7 +14678,7 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ67">
         <v>1.13</v>
@@ -14797,7 +14806,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -15003,7 +15012,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15209,7 +15218,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15415,7 +15424,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15702,7 +15711,7 @@
         <v>2</v>
       </c>
       <c r="AQ72">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR72">
         <v>1.97</v>
@@ -16114,7 +16123,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ74">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR74">
         <v>1.81</v>
@@ -16320,7 +16329,7 @@
         <v>1</v>
       </c>
       <c r="AQ75">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR75">
         <v>1.91</v>
@@ -16445,7 +16454,7 @@
         <v>131</v>
       </c>
       <c r="P76" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16526,7 +16535,7 @@
         <v>1</v>
       </c>
       <c r="AQ76">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR76">
         <v>1.56</v>
@@ -16857,7 +16866,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -16935,7 +16944,7 @@
         <v>0.86</v>
       </c>
       <c r="AP78">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ78">
         <v>1.13</v>
@@ -17063,7 +17072,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q79">
         <v>1.53</v>
@@ -17269,7 +17278,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17347,7 +17356,7 @@
         <v>0.14</v>
       </c>
       <c r="AP80">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ80">
         <v>0.25</v>
@@ -17475,7 +17484,7 @@
         <v>81</v>
       </c>
       <c r="P81" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q81">
         <v>1.6</v>
@@ -17762,7 +17771,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ82">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR82">
         <v>2.04</v>
@@ -17887,7 +17896,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q83">
         <v>8.5</v>
@@ -18093,7 +18102,7 @@
         <v>81</v>
       </c>
       <c r="P84" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18455,6 +18464,624 @@
         <v>0</v>
       </c>
       <c r="BP85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7325218</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45471.54166666666</v>
+      </c>
+      <c r="F86">
+        <v>17</v>
+      </c>
+      <c r="G86" t="s">
+        <v>71</v>
+      </c>
+      <c r="H86" t="s">
+        <v>77</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>2</v>
+      </c>
+      <c r="N86">
+        <v>2</v>
+      </c>
+      <c r="O86" t="s">
+        <v>81</v>
+      </c>
+      <c r="P86" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q86">
+        <v>5.66</v>
+      </c>
+      <c r="R86">
+        <v>2.3</v>
+      </c>
+      <c r="S86">
+        <v>2.07</v>
+      </c>
+      <c r="T86">
+        <v>1.3</v>
+      </c>
+      <c r="U86">
+        <v>3.2</v>
+      </c>
+      <c r="V86">
+        <v>2.62</v>
+      </c>
+      <c r="W86">
+        <v>1.44</v>
+      </c>
+      <c r="X86">
+        <v>6</v>
+      </c>
+      <c r="Y86">
+        <v>1.1</v>
+      </c>
+      <c r="Z86">
+        <v>6.2</v>
+      </c>
+      <c r="AA86">
+        <v>4.45</v>
+      </c>
+      <c r="AB86">
+        <v>1.43</v>
+      </c>
+      <c r="AC86">
+        <v>1.02</v>
+      </c>
+      <c r="AD86">
+        <v>12</v>
+      </c>
+      <c r="AE86">
+        <v>1.22</v>
+      </c>
+      <c r="AF86">
+        <v>3.75</v>
+      </c>
+      <c r="AG86">
+        <v>1.63</v>
+      </c>
+      <c r="AH86">
+        <v>2.15</v>
+      </c>
+      <c r="AI86">
+        <v>1.73</v>
+      </c>
+      <c r="AJ86">
+        <v>2.05</v>
+      </c>
+      <c r="AK86">
+        <v>2.3</v>
+      </c>
+      <c r="AL86">
+        <v>1.17</v>
+      </c>
+      <c r="AM86">
+        <v>1.11</v>
+      </c>
+      <c r="AN86">
+        <v>1.25</v>
+      </c>
+      <c r="AO86">
+        <v>1.6</v>
+      </c>
+      <c r="AP86">
+        <v>1.11</v>
+      </c>
+      <c r="AQ86">
+        <v>1.73</v>
+      </c>
+      <c r="AR86">
+        <v>1.61</v>
+      </c>
+      <c r="AS86">
+        <v>1.85</v>
+      </c>
+      <c r="AT86">
+        <v>3.46</v>
+      </c>
+      <c r="AU86">
+        <v>3</v>
+      </c>
+      <c r="AV86">
+        <v>9</v>
+      </c>
+      <c r="AW86">
+        <v>7</v>
+      </c>
+      <c r="AX86">
+        <v>13</v>
+      </c>
+      <c r="AY86">
+        <v>10</v>
+      </c>
+      <c r="AZ86">
+        <v>22</v>
+      </c>
+      <c r="BA86">
+        <v>1</v>
+      </c>
+      <c r="BB86">
+        <v>7</v>
+      </c>
+      <c r="BC86">
+        <v>8</v>
+      </c>
+      <c r="BD86">
+        <v>0</v>
+      </c>
+      <c r="BE86">
+        <v>0</v>
+      </c>
+      <c r="BF86">
+        <v>0</v>
+      </c>
+      <c r="BG86">
+        <v>0</v>
+      </c>
+      <c r="BH86">
+        <v>0</v>
+      </c>
+      <c r="BI86">
+        <v>0</v>
+      </c>
+      <c r="BJ86">
+        <v>0</v>
+      </c>
+      <c r="BK86">
+        <v>0</v>
+      </c>
+      <c r="BL86">
+        <v>0</v>
+      </c>
+      <c r="BM86">
+        <v>0</v>
+      </c>
+      <c r="BN86">
+        <v>0</v>
+      </c>
+      <c r="BO86">
+        <v>0</v>
+      </c>
+      <c r="BP86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7325219</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45471.54166666666</v>
+      </c>
+      <c r="F87">
+        <v>17</v>
+      </c>
+      <c r="G87" t="s">
+        <v>75</v>
+      </c>
+      <c r="H87" t="s">
+        <v>76</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>2</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>2</v>
+      </c>
+      <c r="O87" t="s">
+        <v>137</v>
+      </c>
+      <c r="P87" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q87">
+        <v>4.95</v>
+      </c>
+      <c r="R87">
+        <v>2.3</v>
+      </c>
+      <c r="S87">
+        <v>2.12</v>
+      </c>
+      <c r="T87">
+        <v>1.3</v>
+      </c>
+      <c r="U87">
+        <v>3.2</v>
+      </c>
+      <c r="V87">
+        <v>2.62</v>
+      </c>
+      <c r="W87">
+        <v>1.44</v>
+      </c>
+      <c r="X87">
+        <v>6</v>
+      </c>
+      <c r="Y87">
+        <v>1.1</v>
+      </c>
+      <c r="Z87">
+        <v>4.15</v>
+      </c>
+      <c r="AA87">
+        <v>3.76</v>
+      </c>
+      <c r="AB87">
+        <v>1.73</v>
+      </c>
+      <c r="AC87">
+        <v>1.02</v>
+      </c>
+      <c r="AD87">
+        <v>12</v>
+      </c>
+      <c r="AE87">
+        <v>1.22</v>
+      </c>
+      <c r="AF87">
+        <v>3.75</v>
+      </c>
+      <c r="AG87">
+        <v>1.73</v>
+      </c>
+      <c r="AH87">
+        <v>2</v>
+      </c>
+      <c r="AI87">
+        <v>1.65</v>
+      </c>
+      <c r="AJ87">
+        <v>2.18</v>
+      </c>
+      <c r="AK87">
+        <v>2.15</v>
+      </c>
+      <c r="AL87">
+        <v>1.18</v>
+      </c>
+      <c r="AM87">
+        <v>1.12</v>
+      </c>
+      <c r="AN87">
+        <v>1</v>
+      </c>
+      <c r="AO87">
+        <v>1.88</v>
+      </c>
+      <c r="AP87">
+        <v>1</v>
+      </c>
+      <c r="AQ87">
+        <v>1.78</v>
+      </c>
+      <c r="AR87">
+        <v>2.06</v>
+      </c>
+      <c r="AS87">
+        <v>1.83</v>
+      </c>
+      <c r="AT87">
+        <v>3.89</v>
+      </c>
+      <c r="AU87">
+        <v>5</v>
+      </c>
+      <c r="AV87">
+        <v>4</v>
+      </c>
+      <c r="AW87">
+        <v>18</v>
+      </c>
+      <c r="AX87">
+        <v>5</v>
+      </c>
+      <c r="AY87">
+        <v>23</v>
+      </c>
+      <c r="AZ87">
+        <v>9</v>
+      </c>
+      <c r="BA87">
+        <v>6</v>
+      </c>
+      <c r="BB87">
+        <v>6</v>
+      </c>
+      <c r="BC87">
+        <v>12</v>
+      </c>
+      <c r="BD87">
+        <v>0</v>
+      </c>
+      <c r="BE87">
+        <v>0</v>
+      </c>
+      <c r="BF87">
+        <v>0</v>
+      </c>
+      <c r="BG87">
+        <v>0</v>
+      </c>
+      <c r="BH87">
+        <v>0</v>
+      </c>
+      <c r="BI87">
+        <v>0</v>
+      </c>
+      <c r="BJ87">
+        <v>0</v>
+      </c>
+      <c r="BK87">
+        <v>0</v>
+      </c>
+      <c r="BL87">
+        <v>0</v>
+      </c>
+      <c r="BM87">
+        <v>0</v>
+      </c>
+      <c r="BN87">
+        <v>0</v>
+      </c>
+      <c r="BO87">
+        <v>0</v>
+      </c>
+      <c r="BP87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7325221</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45471.58333333334</v>
+      </c>
+      <c r="F88">
+        <v>17</v>
+      </c>
+      <c r="G88" t="s">
+        <v>74</v>
+      </c>
+      <c r="H88" t="s">
+        <v>73</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88" t="s">
+        <v>81</v>
+      </c>
+      <c r="P88" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q88">
+        <v>2.77</v>
+      </c>
+      <c r="R88">
+        <v>2.2</v>
+      </c>
+      <c r="S88">
+        <v>3.5</v>
+      </c>
+      <c r="T88">
+        <v>1.3</v>
+      </c>
+      <c r="U88">
+        <v>3.2</v>
+      </c>
+      <c r="V88">
+        <v>2.62</v>
+      </c>
+      <c r="W88">
+        <v>1.44</v>
+      </c>
+      <c r="X88">
+        <v>6</v>
+      </c>
+      <c r="Y88">
+        <v>1.1</v>
+      </c>
+      <c r="Z88">
+        <v>2.34</v>
+      </c>
+      <c r="AA88">
+        <v>3.42</v>
+      </c>
+      <c r="AB88">
+        <v>2.74</v>
+      </c>
+      <c r="AC88">
+        <v>1.02</v>
+      </c>
+      <c r="AD88">
+        <v>12</v>
+      </c>
+      <c r="AE88">
+        <v>1.22</v>
+      </c>
+      <c r="AF88">
+        <v>3.75</v>
+      </c>
+      <c r="AG88">
+        <v>1.78</v>
+      </c>
+      <c r="AH88">
+        <v>1.94</v>
+      </c>
+      <c r="AI88">
+        <v>1.57</v>
+      </c>
+      <c r="AJ88">
+        <v>2.34</v>
+      </c>
+      <c r="AK88">
+        <v>1.3</v>
+      </c>
+      <c r="AL88">
+        <v>1.25</v>
+      </c>
+      <c r="AM88">
+        <v>1.57</v>
+      </c>
+      <c r="AN88">
+        <v>0.88</v>
+      </c>
+      <c r="AO88">
+        <v>0.75</v>
+      </c>
+      <c r="AP88">
+        <v>0.78</v>
+      </c>
+      <c r="AQ88">
+        <v>1</v>
+      </c>
+      <c r="AR88">
+        <v>1.27</v>
+      </c>
+      <c r="AS88">
+        <v>1.18</v>
+      </c>
+      <c r="AT88">
+        <v>2.45</v>
+      </c>
+      <c r="AU88">
+        <v>11</v>
+      </c>
+      <c r="AV88">
+        <v>3</v>
+      </c>
+      <c r="AW88">
+        <v>10</v>
+      </c>
+      <c r="AX88">
+        <v>7</v>
+      </c>
+      <c r="AY88">
+        <v>21</v>
+      </c>
+      <c r="AZ88">
+        <v>10</v>
+      </c>
+      <c r="BA88">
+        <v>11</v>
+      </c>
+      <c r="BB88">
+        <v>7</v>
+      </c>
+      <c r="BC88">
+        <v>18</v>
+      </c>
+      <c r="BD88">
+        <v>0</v>
+      </c>
+      <c r="BE88">
+        <v>0</v>
+      </c>
+      <c r="BF88">
+        <v>0</v>
+      </c>
+      <c r="BG88">
+        <v>0</v>
+      </c>
+      <c r="BH88">
+        <v>0</v>
+      </c>
+      <c r="BI88">
+        <v>0</v>
+      </c>
+      <c r="BJ88">
+        <v>0</v>
+      </c>
+      <c r="BK88">
+        <v>0</v>
+      </c>
+      <c r="BL88">
+        <v>0</v>
+      </c>
+      <c r="BM88">
+        <v>0</v>
+      </c>
+      <c r="BN88">
+        <v>0</v>
+      </c>
+      <c r="BO88">
+        <v>0</v>
+      </c>
+      <c r="BP88">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="195">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -430,6 +430,9 @@
     <t>['45']</t>
   </si>
   <si>
+    <t>['74']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -590,6 +593,12 @@
   </si>
   <si>
     <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['36']</t>
+  </si>
+  <si>
+    <t>['19', '39']</t>
   </si>
 </sst>
 </file>
@@ -951,7 +960,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP88"/>
+  <dimension ref="A1:BP90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1416,7 +1425,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1828,7 +1837,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -2034,7 +2043,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2446,7 +2455,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2527,7 +2536,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ8">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AR8">
         <v>1.63</v>
@@ -2858,7 +2867,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -3064,7 +3073,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3270,7 +3279,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3351,7 +3360,7 @@
         <v>1</v>
       </c>
       <c r="AQ12">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AR12">
         <v>1.76</v>
@@ -3476,7 +3485,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3557,7 +3566,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ13">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR13">
         <v>2.65</v>
@@ -3682,7 +3691,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3760,7 +3769,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -3888,7 +3897,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4506,7 +4515,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4790,7 +4799,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
         <v>0.25</v>
@@ -4999,7 +5008,7 @@
         <v>1</v>
       </c>
       <c r="AQ20">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR20">
         <v>2.07</v>
@@ -5330,7 +5339,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5536,7 +5545,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5617,7 +5626,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ23">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AR23">
         <v>2.56</v>
@@ -5742,7 +5751,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -5948,7 +5957,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6360,7 +6369,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6566,7 +6575,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6644,7 +6653,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -6978,7 +6987,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7059,7 +7068,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ30">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR30">
         <v>1.13</v>
@@ -7184,7 +7193,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7390,7 +7399,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7471,7 +7480,7 @@
         <v>1</v>
       </c>
       <c r="AQ32">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AR32">
         <v>1.47</v>
@@ -7596,7 +7605,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7802,7 +7811,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -8008,7 +8017,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8626,7 +8635,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8832,7 +8841,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -9038,7 +9047,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9244,7 +9253,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9325,7 +9334,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ41">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR41">
         <v>1.7</v>
@@ -9450,7 +9459,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9531,7 +9540,7 @@
         <v>1</v>
       </c>
       <c r="AQ42">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AR42">
         <v>2.19</v>
@@ -9656,7 +9665,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9734,7 +9743,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ43">
         <v>1.73</v>
@@ -10068,7 +10077,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10149,7 +10158,7 @@
         <v>1</v>
       </c>
       <c r="AQ45">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR45">
         <v>1.38</v>
@@ -10764,7 +10773,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ48">
         <v>1.13</v>
@@ -11179,7 +11188,7 @@
         <v>2</v>
       </c>
       <c r="AQ50">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AR50">
         <v>1.81</v>
@@ -11304,7 +11313,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -12128,7 +12137,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12334,7 +12343,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12540,7 +12549,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12618,10 +12627,10 @@
         <v>1.6</v>
       </c>
       <c r="AP57">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ57">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR57">
         <v>1.88</v>
@@ -13158,7 +13167,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13239,7 +13248,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ60">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AR60">
         <v>1.27</v>
@@ -13570,7 +13579,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13776,7 +13785,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -13982,7 +13991,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14188,7 +14197,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14394,7 +14403,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14600,7 +14609,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -14806,7 +14815,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -15012,7 +15021,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15093,7 +15102,7 @@
         <v>1</v>
       </c>
       <c r="AQ69">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR69">
         <v>1.5</v>
@@ -15218,7 +15227,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15299,7 +15308,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ70">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AR70">
         <v>2.27</v>
@@ -15424,7 +15433,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -16120,7 +16129,7 @@
         <v>2.14</v>
       </c>
       <c r="AP74">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ74">
         <v>1.78</v>
@@ -16454,7 +16463,7 @@
         <v>131</v>
       </c>
       <c r="P76" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16741,7 +16750,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ77">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR77">
         <v>2</v>
@@ -16866,7 +16875,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17072,7 +17081,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q79">
         <v>1.53</v>
@@ -17278,7 +17287,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17484,7 +17493,7 @@
         <v>81</v>
       </c>
       <c r="P81" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q81">
         <v>1.6</v>
@@ -17896,7 +17905,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q83">
         <v>8.5</v>
@@ -17977,7 +17986,7 @@
         <v>1</v>
       </c>
       <c r="AQ83">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AR83">
         <v>1.25</v>
@@ -18102,7 +18111,7 @@
         <v>81</v>
       </c>
       <c r="P84" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18180,7 +18189,7 @@
         <v>0.57</v>
       </c>
       <c r="AP84">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ84">
         <v>0.88</v>
@@ -18514,7 +18523,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q86">
         <v>5.66</v>
@@ -18720,7 +18729,7 @@
         <v>137</v>
       </c>
       <c r="P87" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q87">
         <v>4.95</v>
@@ -18926,7 +18935,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q88">
         <v>2.77</v>
@@ -19082,6 +19091,418 @@
         <v>0</v>
       </c>
       <c r="BP88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7325217</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45472.35416666666</v>
+      </c>
+      <c r="F89">
+        <v>17</v>
+      </c>
+      <c r="G89" t="s">
+        <v>79</v>
+      </c>
+      <c r="H89" t="s">
+        <v>70</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>2</v>
+      </c>
+      <c r="O89" t="s">
+        <v>138</v>
+      </c>
+      <c r="P89" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q89">
+        <v>8</v>
+      </c>
+      <c r="R89">
+        <v>2.5</v>
+      </c>
+      <c r="S89">
+        <v>1.72</v>
+      </c>
+      <c r="T89">
+        <v>1.31</v>
+      </c>
+      <c r="U89">
+        <v>3.26</v>
+      </c>
+      <c r="V89">
+        <v>2.45</v>
+      </c>
+      <c r="W89">
+        <v>1.51</v>
+      </c>
+      <c r="X89">
+        <v>5.75</v>
+      </c>
+      <c r="Y89">
+        <v>1.12</v>
+      </c>
+      <c r="Z89">
+        <v>7.5</v>
+      </c>
+      <c r="AA89">
+        <v>5</v>
+      </c>
+      <c r="AB89">
+        <v>1.3</v>
+      </c>
+      <c r="AC89">
+        <v>1.01</v>
+      </c>
+      <c r="AD89">
+        <v>11.6</v>
+      </c>
+      <c r="AE89">
+        <v>1.18</v>
+      </c>
+      <c r="AF89">
+        <v>4.05</v>
+      </c>
+      <c r="AG89">
+        <v>1.65</v>
+      </c>
+      <c r="AH89">
+        <v>2.11</v>
+      </c>
+      <c r="AI89">
+        <v>2.05</v>
+      </c>
+      <c r="AJ89">
+        <v>1.73</v>
+      </c>
+      <c r="AK89">
+        <v>3.38</v>
+      </c>
+      <c r="AL89">
+        <v>1.12</v>
+      </c>
+      <c r="AM89">
+        <v>1.02</v>
+      </c>
+      <c r="AN89">
+        <v>1</v>
+      </c>
+      <c r="AO89">
+        <v>1.88</v>
+      </c>
+      <c r="AP89">
+        <v>1</v>
+      </c>
+      <c r="AQ89">
+        <v>1.78</v>
+      </c>
+      <c r="AR89">
+        <v>1.16</v>
+      </c>
+      <c r="AS89">
+        <v>1.84</v>
+      </c>
+      <c r="AT89">
+        <v>3</v>
+      </c>
+      <c r="AU89">
+        <v>3</v>
+      </c>
+      <c r="AV89">
+        <v>8</v>
+      </c>
+      <c r="AW89">
+        <v>4</v>
+      </c>
+      <c r="AX89">
+        <v>10</v>
+      </c>
+      <c r="AY89">
+        <v>7</v>
+      </c>
+      <c r="AZ89">
+        <v>18</v>
+      </c>
+      <c r="BA89">
+        <v>1</v>
+      </c>
+      <c r="BB89">
+        <v>11</v>
+      </c>
+      <c r="BC89">
+        <v>12</v>
+      </c>
+      <c r="BD89">
+        <v>0</v>
+      </c>
+      <c r="BE89">
+        <v>0</v>
+      </c>
+      <c r="BF89">
+        <v>0</v>
+      </c>
+      <c r="BG89">
+        <v>0</v>
+      </c>
+      <c r="BH89">
+        <v>0</v>
+      </c>
+      <c r="BI89">
+        <v>0</v>
+      </c>
+      <c r="BJ89">
+        <v>0</v>
+      </c>
+      <c r="BK89">
+        <v>0</v>
+      </c>
+      <c r="BL89">
+        <v>0</v>
+      </c>
+      <c r="BM89">
+        <v>0</v>
+      </c>
+      <c r="BN89">
+        <v>0</v>
+      </c>
+      <c r="BO89">
+        <v>0</v>
+      </c>
+      <c r="BP89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7325220</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45472.35416666666</v>
+      </c>
+      <c r="F90">
+        <v>17</v>
+      </c>
+      <c r="G90" t="s">
+        <v>78</v>
+      </c>
+      <c r="H90" t="s">
+        <v>72</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>2</v>
+      </c>
+      <c r="K90">
+        <v>2</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>2</v>
+      </c>
+      <c r="N90">
+        <v>3</v>
+      </c>
+      <c r="O90" t="s">
+        <v>122</v>
+      </c>
+      <c r="P90" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q90">
+        <v>11</v>
+      </c>
+      <c r="R90">
+        <v>2.6</v>
+      </c>
+      <c r="S90">
+        <v>1.64</v>
+      </c>
+      <c r="T90">
+        <v>1.29</v>
+      </c>
+      <c r="U90">
+        <v>3.25</v>
+      </c>
+      <c r="V90">
+        <v>2.5</v>
+      </c>
+      <c r="W90">
+        <v>1.5</v>
+      </c>
+      <c r="X90">
+        <v>6</v>
+      </c>
+      <c r="Y90">
+        <v>1.11</v>
+      </c>
+      <c r="Z90">
+        <v>11</v>
+      </c>
+      <c r="AA90">
+        <v>6</v>
+      </c>
+      <c r="AB90">
+        <v>1.18</v>
+      </c>
+      <c r="AC90">
+        <v>1.01</v>
+      </c>
+      <c r="AD90">
+        <v>15</v>
+      </c>
+      <c r="AE90">
+        <v>1.17</v>
+      </c>
+      <c r="AF90">
+        <v>4.5</v>
+      </c>
+      <c r="AG90">
+        <v>1.61</v>
+      </c>
+      <c r="AH90">
+        <v>2.17</v>
+      </c>
+      <c r="AI90">
+        <v>2.1</v>
+      </c>
+      <c r="AJ90">
+        <v>1.7</v>
+      </c>
+      <c r="AK90">
+        <v>3.8</v>
+      </c>
+      <c r="AL90">
+        <v>1.08</v>
+      </c>
+      <c r="AM90">
+        <v>1.02</v>
+      </c>
+      <c r="AN90">
+        <v>1.13</v>
+      </c>
+      <c r="AO90">
+        <v>2.67</v>
+      </c>
+      <c r="AP90">
+        <v>1</v>
+      </c>
+      <c r="AQ90">
+        <v>2.7</v>
+      </c>
+      <c r="AR90">
+        <v>1.96</v>
+      </c>
+      <c r="AS90">
+        <v>2.54</v>
+      </c>
+      <c r="AT90">
+        <v>4.5</v>
+      </c>
+      <c r="AU90">
+        <v>2</v>
+      </c>
+      <c r="AV90">
+        <v>4</v>
+      </c>
+      <c r="AW90">
+        <v>2</v>
+      </c>
+      <c r="AX90">
+        <v>6</v>
+      </c>
+      <c r="AY90">
+        <v>4</v>
+      </c>
+      <c r="AZ90">
+        <v>10</v>
+      </c>
+      <c r="BA90">
+        <v>8</v>
+      </c>
+      <c r="BB90">
+        <v>3</v>
+      </c>
+      <c r="BC90">
+        <v>11</v>
+      </c>
+      <c r="BD90">
+        <v>0</v>
+      </c>
+      <c r="BE90">
+        <v>0</v>
+      </c>
+      <c r="BF90">
+        <v>0</v>
+      </c>
+      <c r="BG90">
+        <v>0</v>
+      </c>
+      <c r="BH90">
+        <v>0</v>
+      </c>
+      <c r="BI90">
+        <v>0</v>
+      </c>
+      <c r="BJ90">
+        <v>0</v>
+      </c>
+      <c r="BK90">
+        <v>0</v>
+      </c>
+      <c r="BL90">
+        <v>0</v>
+      </c>
+      <c r="BM90">
+        <v>0</v>
+      </c>
+      <c r="BN90">
+        <v>0</v>
+      </c>
+      <c r="BO90">
+        <v>0</v>
+      </c>
+      <c r="BP90">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="199">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -433,6 +433,12 @@
     <t>['74']</t>
   </si>
   <si>
+    <t>['17', '21', '52', '64']</t>
+  </si>
+  <si>
+    <t>['17', '43']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -599,6 +605,12 @@
   </si>
   <si>
     <t>['19', '39']</t>
+  </si>
+  <si>
+    <t>['10', '86']</t>
+  </si>
+  <si>
+    <t>['2', '5']</t>
   </si>
 </sst>
 </file>
@@ -960,7 +972,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP90"/>
+  <dimension ref="A1:BP92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1425,7 +1437,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1837,7 +1849,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -2043,7 +2055,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2330,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2455,7 +2467,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2739,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ9">
         <v>1.13</v>
@@ -2867,7 +2879,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -3073,7 +3085,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3279,7 +3291,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3485,7 +3497,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3691,7 +3703,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3897,7 +3909,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -3978,7 +3990,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ15">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR15">
         <v>0.5</v>
@@ -4515,7 +4527,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -5339,7 +5351,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5545,7 +5557,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5623,7 +5635,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ23">
         <v>2.7</v>
@@ -5751,7 +5763,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -5832,7 +5844,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ24">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR24">
         <v>2.63</v>
@@ -5957,7 +5969,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6244,7 +6256,7 @@
         <v>1</v>
       </c>
       <c r="AQ26">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>1.42</v>
@@ -6369,7 +6381,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6450,7 +6462,7 @@
         <v>1</v>
       </c>
       <c r="AQ27">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR27">
         <v>2.19</v>
@@ -6575,7 +6587,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6987,7 +6999,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7193,7 +7205,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7271,7 +7283,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ31">
         <v>1.73</v>
@@ -7399,7 +7411,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7605,7 +7617,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7811,7 +7823,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -8017,7 +8029,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8304,7 +8316,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ36">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>2.43</v>
@@ -8635,7 +8647,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8841,7 +8853,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -9047,7 +9059,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9253,7 +9265,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9459,7 +9471,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9665,7 +9677,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -10077,7 +10089,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10361,7 +10373,7 @@
         <v>1.75</v>
       </c>
       <c r="AP46">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -10570,7 +10582,7 @@
         <v>1</v>
       </c>
       <c r="AQ47">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR47">
         <v>1.09</v>
@@ -10776,7 +10788,7 @@
         <v>1</v>
       </c>
       <c r="AQ48">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR48">
         <v>1.86</v>
@@ -11313,7 +11325,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -11394,7 +11406,7 @@
         <v>2</v>
       </c>
       <c r="AQ51">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR51">
         <v>1.74</v>
@@ -12137,7 +12149,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12343,7 +12355,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12549,7 +12561,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12833,10 +12845,10 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ58">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR58">
         <v>1.96</v>
@@ -13167,7 +13179,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13454,7 +13466,7 @@
         <v>2</v>
       </c>
       <c r="AQ61">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR61">
         <v>1.78</v>
@@ -13579,7 +13591,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13785,7 +13797,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -13991,7 +14003,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14197,7 +14209,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14403,7 +14415,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14609,7 +14621,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -14690,7 +14702,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ67">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR67">
         <v>1.58</v>
@@ -14815,7 +14827,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -14893,7 +14905,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ68">
         <v>0.25</v>
@@ -15021,7 +15033,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15227,7 +15239,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15433,7 +15445,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15514,7 +15526,7 @@
         <v>1</v>
       </c>
       <c r="AQ71">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR71">
         <v>1.2</v>
@@ -15926,7 +15938,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ73">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR73">
         <v>2.41</v>
@@ -16463,7 +16475,7 @@
         <v>131</v>
       </c>
       <c r="P76" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16747,7 +16759,7 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ77">
         <v>1.78</v>
@@ -16875,7 +16887,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17081,7 +17093,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q79">
         <v>1.53</v>
@@ -17287,7 +17299,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17493,7 +17505,7 @@
         <v>81</v>
       </c>
       <c r="P81" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q81">
         <v>1.6</v>
@@ -17574,7 +17586,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ81">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR81">
         <v>2.16</v>
@@ -17777,7 +17789,7 @@
         <v>0.86</v>
       </c>
       <c r="AP82">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ82">
         <v>1</v>
@@ -17905,7 +17917,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q83">
         <v>8.5</v>
@@ -18111,7 +18123,7 @@
         <v>81</v>
       </c>
       <c r="P84" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18192,7 +18204,7 @@
         <v>1</v>
       </c>
       <c r="AQ84">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR84">
         <v>1.8</v>
@@ -18523,7 +18535,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q86">
         <v>5.66</v>
@@ -18729,7 +18741,7 @@
         <v>137</v>
       </c>
       <c r="P87" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q87">
         <v>4.95</v>
@@ -18935,7 +18947,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q88">
         <v>2.77</v>
@@ -19141,7 +19153,7 @@
         <v>138</v>
       </c>
       <c r="P89" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -19347,7 +19359,7 @@
         <v>122</v>
       </c>
       <c r="P90" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q90">
         <v>11</v>
@@ -19504,6 +19516,418 @@
       </c>
       <c r="BP90">
         <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7325222</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45476.5</v>
+      </c>
+      <c r="F91">
+        <v>18</v>
+      </c>
+      <c r="G91" t="s">
+        <v>76</v>
+      </c>
+      <c r="H91" t="s">
+        <v>74</v>
+      </c>
+      <c r="I91">
+        <v>2</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>3</v>
+      </c>
+      <c r="L91">
+        <v>4</v>
+      </c>
+      <c r="M91">
+        <v>2</v>
+      </c>
+      <c r="N91">
+        <v>6</v>
+      </c>
+      <c r="O91" t="s">
+        <v>139</v>
+      </c>
+      <c r="P91" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q91">
+        <v>1.83</v>
+      </c>
+      <c r="R91">
+        <v>2.4</v>
+      </c>
+      <c r="S91">
+        <v>6.5</v>
+      </c>
+      <c r="T91">
+        <v>1.28</v>
+      </c>
+      <c r="U91">
+        <v>3.2</v>
+      </c>
+      <c r="V91">
+        <v>2.3</v>
+      </c>
+      <c r="W91">
+        <v>1.52</v>
+      </c>
+      <c r="X91">
+        <v>5</v>
+      </c>
+      <c r="Y91">
+        <v>1.12</v>
+      </c>
+      <c r="Z91">
+        <v>1.52</v>
+      </c>
+      <c r="AA91">
+        <v>3.85</v>
+      </c>
+      <c r="AB91">
+        <v>5.2</v>
+      </c>
+      <c r="AC91">
+        <v>1.03</v>
+      </c>
+      <c r="AD91">
+        <v>12</v>
+      </c>
+      <c r="AE91">
+        <v>1.16</v>
+      </c>
+      <c r="AF91">
+        <v>4.4</v>
+      </c>
+      <c r="AG91">
+        <v>1.73</v>
+      </c>
+      <c r="AH91">
+        <v>2</v>
+      </c>
+      <c r="AI91">
+        <v>1.9</v>
+      </c>
+      <c r="AJ91">
+        <v>1.85</v>
+      </c>
+      <c r="AK91">
+        <v>1.01</v>
+      </c>
+      <c r="AL91">
+        <v>1.05</v>
+      </c>
+      <c r="AM91">
+        <v>2.34</v>
+      </c>
+      <c r="AN91">
+        <v>2.13</v>
+      </c>
+      <c r="AO91">
+        <v>1.13</v>
+      </c>
+      <c r="AP91">
+        <v>2.22</v>
+      </c>
+      <c r="AQ91">
+        <v>1</v>
+      </c>
+      <c r="AR91">
+        <v>1.99</v>
+      </c>
+      <c r="AS91">
+        <v>1.38</v>
+      </c>
+      <c r="AT91">
+        <v>3.37</v>
+      </c>
+      <c r="AU91">
+        <v>7</v>
+      </c>
+      <c r="AV91">
+        <v>6</v>
+      </c>
+      <c r="AW91">
+        <v>12</v>
+      </c>
+      <c r="AX91">
+        <v>4</v>
+      </c>
+      <c r="AY91">
+        <v>19</v>
+      </c>
+      <c r="AZ91">
+        <v>10</v>
+      </c>
+      <c r="BA91">
+        <v>9</v>
+      </c>
+      <c r="BB91">
+        <v>4</v>
+      </c>
+      <c r="BC91">
+        <v>13</v>
+      </c>
+      <c r="BD91">
+        <v>1.25</v>
+      </c>
+      <c r="BE91">
+        <v>8.5</v>
+      </c>
+      <c r="BF91">
+        <v>5</v>
+      </c>
+      <c r="BG91">
+        <v>0</v>
+      </c>
+      <c r="BH91">
+        <v>0</v>
+      </c>
+      <c r="BI91">
+        <v>1.22</v>
+      </c>
+      <c r="BJ91">
+        <v>3.65</v>
+      </c>
+      <c r="BK91">
+        <v>1.4</v>
+      </c>
+      <c r="BL91">
+        <v>2.64</v>
+      </c>
+      <c r="BM91">
+        <v>1.69</v>
+      </c>
+      <c r="BN91">
+        <v>2</v>
+      </c>
+      <c r="BO91">
+        <v>2.11</v>
+      </c>
+      <c r="BP91">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7325224</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45476.58333333334</v>
+      </c>
+      <c r="F92">
+        <v>18</v>
+      </c>
+      <c r="G92" t="s">
+        <v>73</v>
+      </c>
+      <c r="H92" t="s">
+        <v>71</v>
+      </c>
+      <c r="I92">
+        <v>2</v>
+      </c>
+      <c r="J92">
+        <v>2</v>
+      </c>
+      <c r="K92">
+        <v>4</v>
+      </c>
+      <c r="L92">
+        <v>2</v>
+      </c>
+      <c r="M92">
+        <v>2</v>
+      </c>
+      <c r="N92">
+        <v>4</v>
+      </c>
+      <c r="O92" t="s">
+        <v>140</v>
+      </c>
+      <c r="P92" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q92">
+        <v>2.7</v>
+      </c>
+      <c r="R92">
+        <v>2.2</v>
+      </c>
+      <c r="S92">
+        <v>3.6</v>
+      </c>
+      <c r="T92">
+        <v>1.34</v>
+      </c>
+      <c r="U92">
+        <v>3.1</v>
+      </c>
+      <c r="V92">
+        <v>2.57</v>
+      </c>
+      <c r="W92">
+        <v>1.47</v>
+      </c>
+      <c r="X92">
+        <v>6.25</v>
+      </c>
+      <c r="Y92">
+        <v>1.1</v>
+      </c>
+      <c r="Z92">
+        <v>2.05</v>
+      </c>
+      <c r="AA92">
+        <v>3.25</v>
+      </c>
+      <c r="AB92">
+        <v>3.1</v>
+      </c>
+      <c r="AC92">
+        <v>1.02</v>
+      </c>
+      <c r="AD92">
+        <v>10.25</v>
+      </c>
+      <c r="AE92">
+        <v>1.22</v>
+      </c>
+      <c r="AF92">
+        <v>3.65</v>
+      </c>
+      <c r="AG92">
+        <v>1.7</v>
+      </c>
+      <c r="AH92">
+        <v>2.05</v>
+      </c>
+      <c r="AI92">
+        <v>1.57</v>
+      </c>
+      <c r="AJ92">
+        <v>2.25</v>
+      </c>
+      <c r="AK92">
+        <v>1.17</v>
+      </c>
+      <c r="AL92">
+        <v>1.18</v>
+      </c>
+      <c r="AM92">
+        <v>1.46</v>
+      </c>
+      <c r="AN92">
+        <v>1</v>
+      </c>
+      <c r="AO92">
+        <v>0.88</v>
+      </c>
+      <c r="AP92">
+        <v>1</v>
+      </c>
+      <c r="AQ92">
+        <v>0.89</v>
+      </c>
+      <c r="AR92">
+        <v>1.58</v>
+      </c>
+      <c r="AS92">
+        <v>1.4</v>
+      </c>
+      <c r="AT92">
+        <v>2.98</v>
+      </c>
+      <c r="AU92">
+        <v>7</v>
+      </c>
+      <c r="AV92">
+        <v>6</v>
+      </c>
+      <c r="AW92">
+        <v>8</v>
+      </c>
+      <c r="AX92">
+        <v>3</v>
+      </c>
+      <c r="AY92">
+        <v>15</v>
+      </c>
+      <c r="AZ92">
+        <v>9</v>
+      </c>
+      <c r="BA92">
+        <v>3</v>
+      </c>
+      <c r="BB92">
+        <v>4</v>
+      </c>
+      <c r="BC92">
+        <v>7</v>
+      </c>
+      <c r="BD92">
+        <v>2.03</v>
+      </c>
+      <c r="BE92">
+        <v>6.8</v>
+      </c>
+      <c r="BF92">
+        <v>2.09</v>
+      </c>
+      <c r="BG92">
+        <v>0</v>
+      </c>
+      <c r="BH92">
+        <v>0</v>
+      </c>
+      <c r="BI92">
+        <v>1.13</v>
+      </c>
+      <c r="BJ92">
+        <v>5.2</v>
+      </c>
+      <c r="BK92">
+        <v>1.25</v>
+      </c>
+      <c r="BL92">
+        <v>3.42</v>
+      </c>
+      <c r="BM92">
+        <v>1.47</v>
+      </c>
+      <c r="BN92">
+        <v>2.5</v>
+      </c>
+      <c r="BO92">
+        <v>1.75</v>
+      </c>
+      <c r="BP92">
+        <v>1.96</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="203">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -439,6 +439,15 @@
     <t>['17', '43']</t>
   </si>
   <si>
+    <t>['20', '36']</t>
+  </si>
+  <si>
+    <t>['57', '81']</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -611,6 +620,9 @@
   </si>
   <si>
     <t>['2', '5']</t>
+  </si>
+  <si>
+    <t>['22', '40']</t>
   </si>
 </sst>
 </file>
@@ -972,7 +984,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP92"/>
+  <dimension ref="A1:BP95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1312,7 +1324,7 @@
         <v>2</v>
       </c>
       <c r="AQ2">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1437,7 +1449,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1721,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ4">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1849,7 +1861,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -2055,7 +2067,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2339,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2467,7 +2479,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2754,7 +2766,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ9">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2879,7 +2891,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -2957,10 +2969,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ10">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3085,7 +3097,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3291,7 +3303,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3497,7 +3509,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3575,10 +3587,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ13">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR13">
         <v>2.65</v>
@@ -3703,7 +3715,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3909,7 +3921,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4527,7 +4539,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4814,7 +4826,7 @@
         <v>1</v>
       </c>
       <c r="AQ19">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR19">
         <v>1.58</v>
@@ -5017,10 +5029,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ20">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR20">
         <v>2.07</v>
@@ -5223,7 +5235,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ21">
         <v>1.73</v>
@@ -5351,7 +5363,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5557,7 +5569,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5763,7 +5775,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -5841,7 +5853,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ24">
         <v>0.89</v>
@@ -5969,7 +5981,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6050,7 +6062,7 @@
         <v>2</v>
       </c>
       <c r="AQ25">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR25">
         <v>1.98</v>
@@ -6381,7 +6393,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6459,7 +6471,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ27">
         <v>0.89</v>
@@ -6587,7 +6599,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6871,10 +6883,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ29">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR29">
         <v>2.32</v>
@@ -6999,7 +7011,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7080,7 +7092,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ30">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR30">
         <v>1.13</v>
@@ -7205,7 +7217,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7411,7 +7423,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7617,7 +7629,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7823,7 +7835,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -8029,7 +8041,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8107,7 +8119,7 @@
         <v>1.33</v>
       </c>
       <c r="AP35">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ35">
         <v>1</v>
@@ -8313,7 +8325,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -8522,7 +8534,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ37">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR37">
         <v>1.49</v>
@@ -8647,7 +8659,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8853,7 +8865,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -8934,7 +8946,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ39">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR39">
         <v>1.08</v>
@@ -9059,7 +9071,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9265,7 +9277,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9346,7 +9358,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ41">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR41">
         <v>1.7</v>
@@ -9471,7 +9483,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9549,7 +9561,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ42">
         <v>2.7</v>
@@ -9677,7 +9689,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9961,7 +9973,7 @@
         <v>1.4</v>
       </c>
       <c r="AP44">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ44">
         <v>1.73</v>
@@ -10089,7 +10101,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10170,7 +10182,7 @@
         <v>1</v>
       </c>
       <c r="AQ45">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR45">
         <v>1.38</v>
@@ -10991,7 +11003,7 @@
         <v>1.25</v>
       </c>
       <c r="AP49">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ49">
         <v>1</v>
@@ -11325,7 +11337,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -11815,7 +11827,7 @@
         <v>2.2</v>
       </c>
       <c r="AP53">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ53">
         <v>1.78</v>
@@ -12024,7 +12036,7 @@
         <v>1</v>
       </c>
       <c r="AQ54">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR54">
         <v>1.38</v>
@@ -12149,7 +12161,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12355,7 +12367,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12433,7 +12445,7 @@
         <v>1.43</v>
       </c>
       <c r="AP56">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ56">
         <v>1.73</v>
@@ -12561,7 +12573,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12642,7 +12654,7 @@
         <v>1</v>
       </c>
       <c r="AQ57">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR57">
         <v>1.88</v>
@@ -13054,7 +13066,7 @@
         <v>1</v>
       </c>
       <c r="AQ59">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR59">
         <v>1.41</v>
@@ -13179,7 +13191,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13591,7 +13603,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13669,7 +13681,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ62">
         <v>1.78</v>
@@ -13797,7 +13809,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -13875,7 +13887,7 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ63">
         <v>1</v>
@@ -14003,7 +14015,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14084,7 +14096,7 @@
         <v>1</v>
       </c>
       <c r="AQ64">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR64">
         <v>1.24</v>
@@ -14209,7 +14221,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14415,7 +14427,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14493,10 +14505,10 @@
         <v>0.5</v>
       </c>
       <c r="AP66">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ66">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR66">
         <v>1.95</v>
@@ -14621,7 +14633,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -14827,7 +14839,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -14908,7 +14920,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ68">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR68">
         <v>2.01</v>
@@ -15033,7 +15045,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15114,7 +15126,7 @@
         <v>1</v>
       </c>
       <c r="AQ69">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR69">
         <v>1.5</v>
@@ -15239,7 +15251,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15317,7 +15329,7 @@
         <v>2.57</v>
       </c>
       <c r="AP70">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ70">
         <v>2.7</v>
@@ -15445,7 +15457,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15935,7 +15947,7 @@
         <v>0.67</v>
       </c>
       <c r="AP73">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ73">
         <v>0.89</v>
@@ -16347,7 +16359,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ75">
         <v>1</v>
@@ -16475,7 +16487,7 @@
         <v>131</v>
       </c>
       <c r="P76" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16762,7 +16774,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ77">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR77">
         <v>2</v>
@@ -16887,7 +16899,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -16968,7 +16980,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ78">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR78">
         <v>1.17</v>
@@ -17093,7 +17105,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q79">
         <v>1.53</v>
@@ -17171,7 +17183,7 @@
         <v>1.29</v>
       </c>
       <c r="AP79">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ79">
         <v>1</v>
@@ -17299,7 +17311,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17380,7 +17392,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ80">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR80">
         <v>1.48</v>
@@ -17505,7 +17517,7 @@
         <v>81</v>
       </c>
       <c r="P81" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q81">
         <v>1.6</v>
@@ -17583,7 +17595,7 @@
         <v>0.86</v>
       </c>
       <c r="AP81">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ81">
         <v>1</v>
@@ -17917,7 +17929,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q83">
         <v>8.5</v>
@@ -18123,7 +18135,7 @@
         <v>81</v>
       </c>
       <c r="P84" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18535,7 +18547,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q86">
         <v>5.66</v>
@@ -18741,7 +18753,7 @@
         <v>137</v>
       </c>
       <c r="P87" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q87">
         <v>4.95</v>
@@ -18819,7 +18831,7 @@
         <v>1.88</v>
       </c>
       <c r="AP87">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ87">
         <v>1.78</v>
@@ -18947,7 +18959,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q88">
         <v>2.77</v>
@@ -19153,7 +19165,7 @@
         <v>138</v>
       </c>
       <c r="P89" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -19234,7 +19246,7 @@
         <v>1</v>
       </c>
       <c r="AQ89">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR89">
         <v>1.16</v>
@@ -19359,7 +19371,7 @@
         <v>122</v>
       </c>
       <c r="P90" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q90">
         <v>11</v>
@@ -19565,7 +19577,7 @@
         <v>139</v>
       </c>
       <c r="P91" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q91">
         <v>1.83</v>
@@ -19771,7 +19783,7 @@
         <v>140</v>
       </c>
       <c r="P92" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -19928,6 +19940,624 @@
       </c>
       <c r="BP92">
         <v>1.96</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7325223</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45477.54166666666</v>
+      </c>
+      <c r="F93">
+        <v>18</v>
+      </c>
+      <c r="G93" t="s">
+        <v>75</v>
+      </c>
+      <c r="H93" t="s">
+        <v>79</v>
+      </c>
+      <c r="I93">
+        <v>2</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>3</v>
+      </c>
+      <c r="L93">
+        <v>2</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>3</v>
+      </c>
+      <c r="O93" t="s">
+        <v>141</v>
+      </c>
+      <c r="P93" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q93">
+        <v>2.3</v>
+      </c>
+      <c r="R93">
+        <v>2.25</v>
+      </c>
+      <c r="S93">
+        <v>4.33</v>
+      </c>
+      <c r="T93">
+        <v>1.33</v>
+      </c>
+      <c r="U93">
+        <v>3.1</v>
+      </c>
+      <c r="V93">
+        <v>2.45</v>
+      </c>
+      <c r="W93">
+        <v>1.48</v>
+      </c>
+      <c r="X93">
+        <v>6</v>
+      </c>
+      <c r="Y93">
+        <v>1.11</v>
+      </c>
+      <c r="Z93">
+        <v>1.54</v>
+      </c>
+      <c r="AA93">
+        <v>3.49</v>
+      </c>
+      <c r="AB93">
+        <v>4.33</v>
+      </c>
+      <c r="AC93">
+        <v>1.01</v>
+      </c>
+      <c r="AD93">
+        <v>10.5</v>
+      </c>
+      <c r="AE93">
+        <v>1.22</v>
+      </c>
+      <c r="AF93">
+        <v>3.95</v>
+      </c>
+      <c r="AG93">
+        <v>1.59</v>
+      </c>
+      <c r="AH93">
+        <v>1.97</v>
+      </c>
+      <c r="AI93">
+        <v>1.7</v>
+      </c>
+      <c r="AJ93">
+        <v>1.95</v>
+      </c>
+      <c r="AK93">
+        <v>1.11</v>
+      </c>
+      <c r="AL93">
+        <v>1.18</v>
+      </c>
+      <c r="AM93">
+        <v>2.35</v>
+      </c>
+      <c r="AN93">
+        <v>1</v>
+      </c>
+      <c r="AO93">
+        <v>0.25</v>
+      </c>
+      <c r="AP93">
+        <v>1.22</v>
+      </c>
+      <c r="AQ93">
+        <v>0.22</v>
+      </c>
+      <c r="AR93">
+        <v>2.08</v>
+      </c>
+      <c r="AS93">
+        <v>1.01</v>
+      </c>
+      <c r="AT93">
+        <v>3.09</v>
+      </c>
+      <c r="AU93">
+        <v>10</v>
+      </c>
+      <c r="AV93">
+        <v>4</v>
+      </c>
+      <c r="AW93">
+        <v>11</v>
+      </c>
+      <c r="AX93">
+        <v>5</v>
+      </c>
+      <c r="AY93">
+        <v>21</v>
+      </c>
+      <c r="AZ93">
+        <v>9</v>
+      </c>
+      <c r="BA93">
+        <v>5</v>
+      </c>
+      <c r="BB93">
+        <v>4</v>
+      </c>
+      <c r="BC93">
+        <v>9</v>
+      </c>
+      <c r="BD93">
+        <v>0</v>
+      </c>
+      <c r="BE93">
+        <v>0</v>
+      </c>
+      <c r="BF93">
+        <v>0</v>
+      </c>
+      <c r="BG93">
+        <v>0</v>
+      </c>
+      <c r="BH93">
+        <v>0</v>
+      </c>
+      <c r="BI93">
+        <v>0</v>
+      </c>
+      <c r="BJ93">
+        <v>0</v>
+      </c>
+      <c r="BK93">
+        <v>0</v>
+      </c>
+      <c r="BL93">
+        <v>0</v>
+      </c>
+      <c r="BM93">
+        <v>0</v>
+      </c>
+      <c r="BN93">
+        <v>0</v>
+      </c>
+      <c r="BO93">
+        <v>0</v>
+      </c>
+      <c r="BP93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7325225</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45477.54166666666</v>
+      </c>
+      <c r="F94">
+        <v>18</v>
+      </c>
+      <c r="G94" t="s">
+        <v>77</v>
+      </c>
+      <c r="H94" t="s">
+        <v>78</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>2</v>
+      </c>
+      <c r="K94">
+        <v>2</v>
+      </c>
+      <c r="L94">
+        <v>2</v>
+      </c>
+      <c r="M94">
+        <v>2</v>
+      </c>
+      <c r="N94">
+        <v>4</v>
+      </c>
+      <c r="O94" t="s">
+        <v>142</v>
+      </c>
+      <c r="P94" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q94">
+        <v>2</v>
+      </c>
+      <c r="R94">
+        <v>2.38</v>
+      </c>
+      <c r="S94">
+        <v>5.5</v>
+      </c>
+      <c r="T94">
+        <v>1.28</v>
+      </c>
+      <c r="U94">
+        <v>3.35</v>
+      </c>
+      <c r="V94">
+        <v>2.3</v>
+      </c>
+      <c r="W94">
+        <v>1.55</v>
+      </c>
+      <c r="X94">
+        <v>5.45</v>
+      </c>
+      <c r="Y94">
+        <v>1.13</v>
+      </c>
+      <c r="Z94">
+        <v>1.55</v>
+      </c>
+      <c r="AA94">
+        <v>3.64</v>
+      </c>
+      <c r="AB94">
+        <v>4.49</v>
+      </c>
+      <c r="AC94">
+        <v>1.02</v>
+      </c>
+      <c r="AD94">
+        <v>10</v>
+      </c>
+      <c r="AE94">
+        <v>1.18</v>
+      </c>
+      <c r="AF94">
+        <v>4.5</v>
+      </c>
+      <c r="AG94">
+        <v>1.49</v>
+      </c>
+      <c r="AH94">
+        <v>2.15</v>
+      </c>
+      <c r="AI94">
+        <v>1.67</v>
+      </c>
+      <c r="AJ94">
+        <v>2</v>
+      </c>
+      <c r="AK94">
+        <v>1.08</v>
+      </c>
+      <c r="AL94">
+        <v>1.15</v>
+      </c>
+      <c r="AM94">
+        <v>2.65</v>
+      </c>
+      <c r="AN94">
+        <v>1.5</v>
+      </c>
+      <c r="AO94">
+        <v>1.13</v>
+      </c>
+      <c r="AP94">
+        <v>1.44</v>
+      </c>
+      <c r="AQ94">
+        <v>1.11</v>
+      </c>
+      <c r="AR94">
+        <v>2.14</v>
+      </c>
+      <c r="AS94">
+        <v>1.79</v>
+      </c>
+      <c r="AT94">
+        <v>3.93</v>
+      </c>
+      <c r="AU94">
+        <v>7</v>
+      </c>
+      <c r="AV94">
+        <v>4</v>
+      </c>
+      <c r="AW94">
+        <v>12</v>
+      </c>
+      <c r="AX94">
+        <v>13</v>
+      </c>
+      <c r="AY94">
+        <v>19</v>
+      </c>
+      <c r="AZ94">
+        <v>17</v>
+      </c>
+      <c r="BA94">
+        <v>6</v>
+      </c>
+      <c r="BB94">
+        <v>6</v>
+      </c>
+      <c r="BC94">
+        <v>12</v>
+      </c>
+      <c r="BD94">
+        <v>0</v>
+      </c>
+      <c r="BE94">
+        <v>0</v>
+      </c>
+      <c r="BF94">
+        <v>0</v>
+      </c>
+      <c r="BG94">
+        <v>0</v>
+      </c>
+      <c r="BH94">
+        <v>0</v>
+      </c>
+      <c r="BI94">
+        <v>0</v>
+      </c>
+      <c r="BJ94">
+        <v>0</v>
+      </c>
+      <c r="BK94">
+        <v>0</v>
+      </c>
+      <c r="BL94">
+        <v>0</v>
+      </c>
+      <c r="BM94">
+        <v>0</v>
+      </c>
+      <c r="BN94">
+        <v>0</v>
+      </c>
+      <c r="BO94">
+        <v>0</v>
+      </c>
+      <c r="BP94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7325226</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45477.54166666666</v>
+      </c>
+      <c r="F95">
+        <v>18</v>
+      </c>
+      <c r="G95" t="s">
+        <v>72</v>
+      </c>
+      <c r="H95" t="s">
+        <v>70</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="O95" t="s">
+        <v>143</v>
+      </c>
+      <c r="P95" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q95">
+        <v>2.25</v>
+      </c>
+      <c r="R95">
+        <v>2.25</v>
+      </c>
+      <c r="S95">
+        <v>4.5</v>
+      </c>
+      <c r="T95">
+        <v>1.33</v>
+      </c>
+      <c r="U95">
+        <v>3.1</v>
+      </c>
+      <c r="V95">
+        <v>2.4</v>
+      </c>
+      <c r="W95">
+        <v>1.5</v>
+      </c>
+      <c r="X95">
+        <v>5</v>
+      </c>
+      <c r="Y95">
+        <v>1.12</v>
+      </c>
+      <c r="Z95">
+        <v>1.56</v>
+      </c>
+      <c r="AA95">
+        <v>3.57</v>
+      </c>
+      <c r="AB95">
+        <v>4.53</v>
+      </c>
+      <c r="AC95">
+        <v>1.04</v>
+      </c>
+      <c r="AD95">
+        <v>12</v>
+      </c>
+      <c r="AE95">
+        <v>1.22</v>
+      </c>
+      <c r="AF95">
+        <v>4</v>
+      </c>
+      <c r="AG95">
+        <v>1.58</v>
+      </c>
+      <c r="AH95">
+        <v>1.99</v>
+      </c>
+      <c r="AI95">
+        <v>1.65</v>
+      </c>
+      <c r="AJ95">
+        <v>2.05</v>
+      </c>
+      <c r="AK95">
+        <v>1.12</v>
+      </c>
+      <c r="AL95">
+        <v>1.2</v>
+      </c>
+      <c r="AM95">
+        <v>2.25</v>
+      </c>
+      <c r="AN95">
+        <v>2.33</v>
+      </c>
+      <c r="AO95">
+        <v>1.78</v>
+      </c>
+      <c r="AP95">
+        <v>2.4</v>
+      </c>
+      <c r="AQ95">
+        <v>1.6</v>
+      </c>
+      <c r="AR95">
+        <v>2.41</v>
+      </c>
+      <c r="AS95">
+        <v>1.86</v>
+      </c>
+      <c r="AT95">
+        <v>4.27</v>
+      </c>
+      <c r="AU95">
+        <v>6</v>
+      </c>
+      <c r="AV95">
+        <v>2</v>
+      </c>
+      <c r="AW95">
+        <v>11</v>
+      </c>
+      <c r="AX95">
+        <v>6</v>
+      </c>
+      <c r="AY95">
+        <v>17</v>
+      </c>
+      <c r="AZ95">
+        <v>8</v>
+      </c>
+      <c r="BA95">
+        <v>5</v>
+      </c>
+      <c r="BB95">
+        <v>2</v>
+      </c>
+      <c r="BC95">
+        <v>7</v>
+      </c>
+      <c r="BD95">
+        <v>0</v>
+      </c>
+      <c r="BE95">
+        <v>0</v>
+      </c>
+      <c r="BF95">
+        <v>0</v>
+      </c>
+      <c r="BG95">
+        <v>0</v>
+      </c>
+      <c r="BH95">
+        <v>0</v>
+      </c>
+      <c r="BI95">
+        <v>0</v>
+      </c>
+      <c r="BJ95">
+        <v>0</v>
+      </c>
+      <c r="BK95">
+        <v>0</v>
+      </c>
+      <c r="BL95">
+        <v>0</v>
+      </c>
+      <c r="BM95">
+        <v>0</v>
+      </c>
+      <c r="BN95">
+        <v>0</v>
+      </c>
+      <c r="BO95">
+        <v>0</v>
+      </c>
+      <c r="BP95">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="203">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -984,7 +984,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP95"/>
+  <dimension ref="A1:BP96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ3">
         <v>1.78</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ8">
         <v>2.7</v>
@@ -4411,7 +4411,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ17">
         <v>1</v>
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ37">
         <v>1.11</v>
@@ -9355,7 +9355,7 @@
         <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ41">
         <v>1.6</v>
@@ -11621,7 +11621,7 @@
         <v>1.4</v>
       </c>
       <c r="AP52">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ52">
         <v>1</v>
@@ -14711,7 +14711,7 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ67">
         <v>1</v>
@@ -17389,7 +17389,7 @@
         <v>0.14</v>
       </c>
       <c r="AP80">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ80">
         <v>0.22</v>
@@ -18625,7 +18625,7 @@
         <v>1.6</v>
       </c>
       <c r="AP86">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ86">
         <v>1.73</v>
@@ -20557,6 +20557,212 @@
         <v>0</v>
       </c>
       <c r="BP95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7325227</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45485.5625</v>
+      </c>
+      <c r="F96">
+        <v>19</v>
+      </c>
+      <c r="G96" t="s">
+        <v>71</v>
+      </c>
+      <c r="H96" t="s">
+        <v>75</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96" t="s">
+        <v>81</v>
+      </c>
+      <c r="P96" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q96">
+        <v>3</v>
+      </c>
+      <c r="R96">
+        <v>2.2</v>
+      </c>
+      <c r="S96">
+        <v>3.1</v>
+      </c>
+      <c r="T96">
+        <v>0</v>
+      </c>
+      <c r="U96">
+        <v>0</v>
+      </c>
+      <c r="V96">
+        <v>0</v>
+      </c>
+      <c r="W96">
+        <v>0</v>
+      </c>
+      <c r="X96">
+        <v>0</v>
+      </c>
+      <c r="Y96">
+        <v>0</v>
+      </c>
+      <c r="Z96">
+        <v>3.1</v>
+      </c>
+      <c r="AA96">
+        <v>3.4</v>
+      </c>
+      <c r="AB96">
+        <v>2</v>
+      </c>
+      <c r="AC96">
+        <v>0</v>
+      </c>
+      <c r="AD96">
+        <v>0</v>
+      </c>
+      <c r="AE96">
+        <v>0</v>
+      </c>
+      <c r="AF96">
+        <v>0</v>
+      </c>
+      <c r="AG96">
+        <v>1.73</v>
+      </c>
+      <c r="AH96">
+        <v>1.91</v>
+      </c>
+      <c r="AI96">
+        <v>0</v>
+      </c>
+      <c r="AJ96">
+        <v>0</v>
+      </c>
+      <c r="AK96">
+        <v>0</v>
+      </c>
+      <c r="AL96">
+        <v>0</v>
+      </c>
+      <c r="AM96">
+        <v>0</v>
+      </c>
+      <c r="AN96">
+        <v>1.11</v>
+      </c>
+      <c r="AO96">
+        <v>1</v>
+      </c>
+      <c r="AP96">
+        <v>1.1</v>
+      </c>
+      <c r="AQ96">
+        <v>1</v>
+      </c>
+      <c r="AR96">
+        <v>1.57</v>
+      </c>
+      <c r="AS96">
+        <v>1.63</v>
+      </c>
+      <c r="AT96">
+        <v>3.2</v>
+      </c>
+      <c r="AU96">
+        <v>2</v>
+      </c>
+      <c r="AV96">
+        <v>2</v>
+      </c>
+      <c r="AW96">
+        <v>4</v>
+      </c>
+      <c r="AX96">
+        <v>3</v>
+      </c>
+      <c r="AY96">
+        <v>6</v>
+      </c>
+      <c r="AZ96">
+        <v>5</v>
+      </c>
+      <c r="BA96">
+        <v>2</v>
+      </c>
+      <c r="BB96">
+        <v>2</v>
+      </c>
+      <c r="BC96">
+        <v>4</v>
+      </c>
+      <c r="BD96">
+        <v>0</v>
+      </c>
+      <c r="BE96">
+        <v>0</v>
+      </c>
+      <c r="BF96">
+        <v>0</v>
+      </c>
+      <c r="BG96">
+        <v>0</v>
+      </c>
+      <c r="BH96">
+        <v>0</v>
+      </c>
+      <c r="BI96">
+        <v>0</v>
+      </c>
+      <c r="BJ96">
+        <v>0</v>
+      </c>
+      <c r="BK96">
+        <v>0</v>
+      </c>
+      <c r="BL96">
+        <v>0</v>
+      </c>
+      <c r="BM96">
+        <v>0</v>
+      </c>
+      <c r="BN96">
+        <v>0</v>
+      </c>
+      <c r="BO96">
+        <v>0</v>
+      </c>
+      <c r="BP96">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -20703,28 +20703,28 @@
         <v>2</v>
       </c>
       <c r="AV96">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW96">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX96">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AY96">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ96">
+        <v>18</v>
+      </c>
+      <c r="BA96">
         <v>5</v>
       </c>
-      <c r="BA96">
-        <v>2</v>
-      </c>
       <c r="BB96">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BC96">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="BD96">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="205">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -448,6 +448,12 @@
     <t>['23']</t>
   </si>
   <si>
+    <t>['39', '90+2']</t>
+  </si>
+  <si>
+    <t>['22', '40']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -622,7 +628,7 @@
     <t>['2', '5']</t>
   </si>
   <si>
-    <t>['22', '40']</t>
+    <t>['16', '68']</t>
   </si>
 </sst>
 </file>
@@ -984,7 +990,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP96"/>
+  <dimension ref="A1:BP98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1324,7 +1330,7 @@
         <v>2</v>
       </c>
       <c r="AQ2">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1449,7 +1455,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1530,7 +1536,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ3">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1861,7 +1867,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -2067,7 +2073,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2145,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
         <v>1.73</v>
@@ -2479,7 +2485,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2891,7 +2897,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -2972,7 +2978,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ10">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3097,7 +3103,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3303,7 +3309,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3509,7 +3515,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3715,7 +3721,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3921,7 +3927,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -3999,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
         <v>0.89</v>
@@ -4208,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="AQ16">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4539,7 +4545,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4617,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="AP18">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ18">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR18">
         <v>1.11</v>
@@ -4826,7 +4832,7 @@
         <v>1</v>
       </c>
       <c r="AQ19">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR19">
         <v>1.58</v>
@@ -5363,7 +5369,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5569,7 +5575,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5775,7 +5781,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -5981,7 +5987,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6393,7 +6399,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6599,7 +6605,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6886,7 +6892,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ29">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR29">
         <v>2.32</v>
@@ -7011,7 +7017,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7089,7 +7095,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
         <v>1.6</v>
@@ -7217,7 +7223,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7423,7 +7429,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7629,7 +7635,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7835,7 +7841,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -8041,7 +8047,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8659,7 +8665,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8740,7 +8746,7 @@
         <v>2</v>
       </c>
       <c r="AQ38">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR38">
         <v>1.67</v>
@@ -8865,7 +8871,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -8943,10 +8949,10 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ39">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR39">
         <v>1.08</v>
@@ -9071,7 +9077,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9152,7 +9158,7 @@
         <v>1</v>
       </c>
       <c r="AQ40">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR40">
         <v>1.38</v>
@@ -9277,7 +9283,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9483,7 +9489,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9689,7 +9695,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -10101,7 +10107,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -11337,7 +11343,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -11830,7 +11836,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ53">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR53">
         <v>2.19</v>
@@ -12161,7 +12167,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12367,7 +12373,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12573,7 +12579,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13066,7 +13072,7 @@
         <v>1</v>
       </c>
       <c r="AQ59">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR59">
         <v>1.41</v>
@@ -13191,7 +13197,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13269,7 +13275,7 @@
         <v>2.5</v>
       </c>
       <c r="AP60">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ60">
         <v>2.7</v>
@@ -13603,7 +13609,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13684,7 +13690,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ62">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR62">
         <v>2.43</v>
@@ -13809,7 +13815,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -14015,7 +14021,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14221,7 +14227,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14299,7 +14305,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ65">
         <v>1</v>
@@ -14427,7 +14433,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14633,7 +14639,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -14839,7 +14845,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -14920,7 +14926,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ68">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR68">
         <v>2.01</v>
@@ -15045,7 +15051,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15251,7 +15257,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15457,7 +15463,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -16156,7 +16162,7 @@
         <v>1</v>
       </c>
       <c r="AQ74">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR74">
         <v>1.81</v>
@@ -16487,7 +16493,7 @@
         <v>131</v>
       </c>
       <c r="P76" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16899,7 +16905,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -16977,7 +16983,7 @@
         <v>0.86</v>
       </c>
       <c r="AP78">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ78">
         <v>1.11</v>
@@ -17105,7 +17111,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q79">
         <v>1.53</v>
@@ -17311,7 +17317,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17392,7 +17398,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ80">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR80">
         <v>1.48</v>
@@ -17517,7 +17523,7 @@
         <v>81</v>
       </c>
       <c r="P81" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q81">
         <v>1.6</v>
@@ -17929,7 +17935,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q83">
         <v>8.5</v>
@@ -18135,7 +18141,7 @@
         <v>81</v>
       </c>
       <c r="P84" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18547,7 +18553,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q86">
         <v>5.66</v>
@@ -18753,7 +18759,7 @@
         <v>137</v>
       </c>
       <c r="P87" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q87">
         <v>4.95</v>
@@ -18834,7 +18840,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ87">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR87">
         <v>2.06</v>
@@ -18959,7 +18965,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q88">
         <v>2.77</v>
@@ -19037,7 +19043,7 @@
         <v>0.75</v>
       </c>
       <c r="AP88">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ88">
         <v>1</v>
@@ -19165,7 +19171,7 @@
         <v>138</v>
       </c>
       <c r="P89" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -19371,7 +19377,7 @@
         <v>122</v>
       </c>
       <c r="P90" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q90">
         <v>11</v>
@@ -19577,7 +19583,7 @@
         <v>139</v>
       </c>
       <c r="P91" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q91">
         <v>1.83</v>
@@ -19783,7 +19789,7 @@
         <v>140</v>
       </c>
       <c r="P92" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -19989,7 +19995,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q93">
         <v>2.3</v>
@@ -20070,7 +20076,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ93">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR93">
         <v>2.08</v>
@@ -20195,7 +20201,7 @@
         <v>142</v>
       </c>
       <c r="P94" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -20763,6 +20769,418 @@
         <v>0</v>
       </c>
       <c r="BP96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7325229</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45486.35416666666</v>
+      </c>
+      <c r="F97">
+        <v>19</v>
+      </c>
+      <c r="G97" t="s">
+        <v>74</v>
+      </c>
+      <c r="H97" t="s">
+        <v>79</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>2</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>2</v>
+      </c>
+      <c r="O97" t="s">
+        <v>144</v>
+      </c>
+      <c r="P97" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q97">
+        <v>2.6</v>
+      </c>
+      <c r="R97">
+        <v>2.3</v>
+      </c>
+      <c r="S97">
+        <v>3.4</v>
+      </c>
+      <c r="T97">
+        <v>1.32</v>
+      </c>
+      <c r="U97">
+        <v>3.14</v>
+      </c>
+      <c r="V97">
+        <v>2.54</v>
+      </c>
+      <c r="W97">
+        <v>1.49</v>
+      </c>
+      <c r="X97">
+        <v>5.5</v>
+      </c>
+      <c r="Y97">
+        <v>1.11</v>
+      </c>
+      <c r="Z97">
+        <v>2.05</v>
+      </c>
+      <c r="AA97">
+        <v>3.4</v>
+      </c>
+      <c r="AB97">
+        <v>2.9</v>
+      </c>
+      <c r="AC97">
+        <v>1.02</v>
+      </c>
+      <c r="AD97">
+        <v>10</v>
+      </c>
+      <c r="AE97">
+        <v>1.22</v>
+      </c>
+      <c r="AF97">
+        <v>3.8</v>
+      </c>
+      <c r="AG97">
+        <v>1.7</v>
+      </c>
+      <c r="AH97">
+        <v>1.95</v>
+      </c>
+      <c r="AI97">
+        <v>1.65</v>
+      </c>
+      <c r="AJ97">
+        <v>2.2</v>
+      </c>
+      <c r="AK97">
+        <v>1.31</v>
+      </c>
+      <c r="AL97">
+        <v>1.28</v>
+      </c>
+      <c r="AM97">
+        <v>1.83</v>
+      </c>
+      <c r="AN97">
+        <v>0.78</v>
+      </c>
+      <c r="AO97">
+        <v>0.22</v>
+      </c>
+      <c r="AP97">
+        <v>1</v>
+      </c>
+      <c r="AQ97">
+        <v>0.2</v>
+      </c>
+      <c r="AR97">
+        <v>1.43</v>
+      </c>
+      <c r="AS97">
+        <v>1.03</v>
+      </c>
+      <c r="AT97">
+        <v>2.46</v>
+      </c>
+      <c r="AU97">
+        <v>9</v>
+      </c>
+      <c r="AV97">
+        <v>5</v>
+      </c>
+      <c r="AW97">
+        <v>10</v>
+      </c>
+      <c r="AX97">
+        <v>7</v>
+      </c>
+      <c r="AY97">
+        <v>19</v>
+      </c>
+      <c r="AZ97">
+        <v>12</v>
+      </c>
+      <c r="BA97">
+        <v>5</v>
+      </c>
+      <c r="BB97">
+        <v>5</v>
+      </c>
+      <c r="BC97">
+        <v>10</v>
+      </c>
+      <c r="BD97">
+        <v>0</v>
+      </c>
+      <c r="BE97">
+        <v>0</v>
+      </c>
+      <c r="BF97">
+        <v>0</v>
+      </c>
+      <c r="BG97">
+        <v>0</v>
+      </c>
+      <c r="BH97">
+        <v>0</v>
+      </c>
+      <c r="BI97">
+        <v>0</v>
+      </c>
+      <c r="BJ97">
+        <v>0</v>
+      </c>
+      <c r="BK97">
+        <v>0</v>
+      </c>
+      <c r="BL97">
+        <v>0</v>
+      </c>
+      <c r="BM97">
+        <v>0</v>
+      </c>
+      <c r="BN97">
+        <v>0</v>
+      </c>
+      <c r="BO97">
+        <v>0</v>
+      </c>
+      <c r="BP97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7325228</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45486.45833333334</v>
+      </c>
+      <c r="F98">
+        <v>19</v>
+      </c>
+      <c r="G98" t="s">
+        <v>78</v>
+      </c>
+      <c r="H98" t="s">
+        <v>76</v>
+      </c>
+      <c r="I98">
+        <v>2</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>3</v>
+      </c>
+      <c r="L98">
+        <v>2</v>
+      </c>
+      <c r="M98">
+        <v>2</v>
+      </c>
+      <c r="N98">
+        <v>4</v>
+      </c>
+      <c r="O98" t="s">
+        <v>145</v>
+      </c>
+      <c r="P98" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q98">
+        <v>4</v>
+      </c>
+      <c r="R98">
+        <v>2.38</v>
+      </c>
+      <c r="S98">
+        <v>2.3</v>
+      </c>
+      <c r="T98">
+        <v>1.3</v>
+      </c>
+      <c r="U98">
+        <v>2.96</v>
+      </c>
+      <c r="V98">
+        <v>2.36</v>
+      </c>
+      <c r="W98">
+        <v>1.02</v>
+      </c>
+      <c r="X98">
+        <v>5</v>
+      </c>
+      <c r="Y98">
+        <v>1.14</v>
+      </c>
+      <c r="Z98">
+        <v>3.1</v>
+      </c>
+      <c r="AA98">
+        <v>3.6</v>
+      </c>
+      <c r="AB98">
+        <v>2.1</v>
+      </c>
+      <c r="AC98">
+        <v>1.01</v>
+      </c>
+      <c r="AD98">
+        <v>2.58</v>
+      </c>
+      <c r="AE98">
+        <v>1.01</v>
+      </c>
+      <c r="AF98">
+        <v>2.76</v>
+      </c>
+      <c r="AG98">
+        <v>1.7</v>
+      </c>
+      <c r="AH98">
+        <v>2.1</v>
+      </c>
+      <c r="AI98">
+        <v>1.63</v>
+      </c>
+      <c r="AJ98">
+        <v>2.28</v>
+      </c>
+      <c r="AK98">
+        <v>1.5</v>
+      </c>
+      <c r="AL98">
+        <v>1.25</v>
+      </c>
+      <c r="AM98">
+        <v>1.31</v>
+      </c>
+      <c r="AN98">
+        <v>1</v>
+      </c>
+      <c r="AO98">
+        <v>1.78</v>
+      </c>
+      <c r="AP98">
+        <v>1</v>
+      </c>
+      <c r="AQ98">
+        <v>1.7</v>
+      </c>
+      <c r="AR98">
+        <v>1.81</v>
+      </c>
+      <c r="AS98">
+        <v>1.76</v>
+      </c>
+      <c r="AT98">
+        <v>3.57</v>
+      </c>
+      <c r="AU98">
+        <v>4</v>
+      </c>
+      <c r="AV98">
+        <v>6</v>
+      </c>
+      <c r="AW98">
+        <v>4</v>
+      </c>
+      <c r="AX98">
+        <v>8</v>
+      </c>
+      <c r="AY98">
+        <v>8</v>
+      </c>
+      <c r="AZ98">
+        <v>14</v>
+      </c>
+      <c r="BA98">
+        <v>4</v>
+      </c>
+      <c r="BB98">
+        <v>3</v>
+      </c>
+      <c r="BC98">
+        <v>7</v>
+      </c>
+      <c r="BD98">
+        <v>0</v>
+      </c>
+      <c r="BE98">
+        <v>0</v>
+      </c>
+      <c r="BF98">
+        <v>0</v>
+      </c>
+      <c r="BG98">
+        <v>0</v>
+      </c>
+      <c r="BH98">
+        <v>0</v>
+      </c>
+      <c r="BI98">
+        <v>0</v>
+      </c>
+      <c r="BJ98">
+        <v>0</v>
+      </c>
+      <c r="BK98">
+        <v>0</v>
+      </c>
+      <c r="BL98">
+        <v>0</v>
+      </c>
+      <c r="BM98">
+        <v>0</v>
+      </c>
+      <c r="BN98">
+        <v>0</v>
+      </c>
+      <c r="BO98">
+        <v>0</v>
+      </c>
+      <c r="BP98">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="207">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -454,6 +454,9 @@
     <t>['22', '40']</t>
   </si>
   <si>
+    <t>['50', '78']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -629,6 +632,9 @@
   </si>
   <si>
     <t>['16', '68']</t>
+  </si>
+  <si>
+    <t>['33', '57', '78', '89']</t>
   </si>
 </sst>
 </file>
@@ -990,7 +996,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP98"/>
+  <dimension ref="A1:BP100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1455,7 +1461,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1536,7 +1542,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ3">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1867,7 +1873,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -2073,7 +2079,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2357,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2485,7 +2491,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2897,7 +2903,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -3103,7 +3109,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3309,7 +3315,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3515,7 +3521,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3596,7 +3602,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ13">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR13">
         <v>2.65</v>
@@ -3721,7 +3727,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3927,7 +3933,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4211,10 +4217,10 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ16">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4545,7 +4551,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4626,7 +4632,7 @@
         <v>1</v>
       </c>
       <c r="AQ18">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR18">
         <v>1.11</v>
@@ -5035,10 +5041,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ20">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR20">
         <v>2.07</v>
@@ -5369,7 +5375,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5447,7 +5453,7 @@
         <v>2</v>
       </c>
       <c r="AP22">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -5575,7 +5581,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5781,7 +5787,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -5987,7 +5993,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6399,7 +6405,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6477,7 +6483,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ27">
         <v>0.89</v>
@@ -6605,7 +6611,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -7017,7 +7023,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7098,7 +7104,7 @@
         <v>1</v>
       </c>
       <c r="AQ30">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR30">
         <v>1.13</v>
@@ -7223,7 +7229,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7429,7 +7435,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7635,7 +7641,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7841,7 +7847,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -7919,7 +7925,7 @@
         <v>0.67</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -8047,7 +8053,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8665,7 +8671,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8746,7 +8752,7 @@
         <v>2</v>
       </c>
       <c r="AQ38">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR38">
         <v>1.67</v>
@@ -8871,7 +8877,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -9077,7 +9083,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9158,7 +9164,7 @@
         <v>1</v>
       </c>
       <c r="AQ40">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR40">
         <v>1.38</v>
@@ -9283,7 +9289,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9364,7 +9370,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ41">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR41">
         <v>1.7</v>
@@ -9489,7 +9495,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9567,7 +9573,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ42">
         <v>2.7</v>
@@ -9695,7 +9701,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -10107,7 +10113,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10188,7 +10194,7 @@
         <v>1</v>
       </c>
       <c r="AQ45">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR45">
         <v>1.38</v>
@@ -10597,7 +10603,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ47">
         <v>0.89</v>
@@ -11343,7 +11349,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -11836,7 +11842,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ53">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR53">
         <v>2.19</v>
@@ -12167,7 +12173,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12245,7 +12251,7 @@
         <v>1.17</v>
       </c>
       <c r="AP55">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ55">
         <v>1.73</v>
@@ -12373,7 +12379,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12451,7 +12457,7 @@
         <v>1.43</v>
       </c>
       <c r="AP56">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ56">
         <v>1.73</v>
@@ -12579,7 +12585,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12660,7 +12666,7 @@
         <v>1</v>
       </c>
       <c r="AQ57">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR57">
         <v>1.88</v>
@@ -13197,7 +13203,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13609,7 +13615,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13690,7 +13696,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ62">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR62">
         <v>2.43</v>
@@ -13815,7 +13821,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -14021,7 +14027,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14099,7 +14105,7 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ64">
         <v>1.11</v>
@@ -14227,7 +14233,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14433,7 +14439,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14511,7 +14517,7 @@
         <v>0.5</v>
       </c>
       <c r="AP66">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ66">
         <v>1.11</v>
@@ -14639,7 +14645,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -14845,7 +14851,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -15051,7 +15057,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15132,7 +15138,7 @@
         <v>1</v>
       </c>
       <c r="AQ69">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR69">
         <v>1.5</v>
@@ -15257,7 +15263,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15463,7 +15469,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15541,7 +15547,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ71">
         <v>1</v>
@@ -16162,7 +16168,7 @@
         <v>1</v>
       </c>
       <c r="AQ74">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR74">
         <v>1.81</v>
@@ -16365,7 +16371,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ75">
         <v>1</v>
@@ -16493,7 +16499,7 @@
         <v>131</v>
       </c>
       <c r="P76" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16780,7 +16786,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ77">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR77">
         <v>2</v>
@@ -16905,7 +16911,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17111,7 +17117,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q79">
         <v>1.53</v>
@@ -17317,7 +17323,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17523,7 +17529,7 @@
         <v>81</v>
       </c>
       <c r="P81" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q81">
         <v>1.6</v>
@@ -17935,7 +17941,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q83">
         <v>8.5</v>
@@ -18013,7 +18019,7 @@
         <v>2.63</v>
       </c>
       <c r="AP83">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ83">
         <v>2.7</v>
@@ -18141,7 +18147,7 @@
         <v>81</v>
       </c>
       <c r="P84" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18553,7 +18559,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q86">
         <v>5.66</v>
@@ -18759,7 +18765,7 @@
         <v>137</v>
       </c>
       <c r="P87" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q87">
         <v>4.95</v>
@@ -18837,10 +18843,10 @@
         <v>1.88</v>
       </c>
       <c r="AP87">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ87">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR87">
         <v>2.06</v>
@@ -18965,7 +18971,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q88">
         <v>2.77</v>
@@ -19171,7 +19177,7 @@
         <v>138</v>
       </c>
       <c r="P89" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -19249,10 +19255,10 @@
         <v>1.88</v>
       </c>
       <c r="AP89">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ89">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR89">
         <v>1.16</v>
@@ -19377,7 +19383,7 @@
         <v>122</v>
       </c>
       <c r="P90" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q90">
         <v>11</v>
@@ -19583,7 +19589,7 @@
         <v>139</v>
       </c>
       <c r="P91" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q91">
         <v>1.83</v>
@@ -19789,7 +19795,7 @@
         <v>140</v>
       </c>
       <c r="P92" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -19995,7 +20001,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q93">
         <v>2.3</v>
@@ -20073,7 +20079,7 @@
         <v>0.25</v>
       </c>
       <c r="AP93">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ93">
         <v>0.2</v>
@@ -20488,7 +20494,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ95">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AR95">
         <v>2.41</v>
@@ -21025,7 +21031,7 @@
         <v>145</v>
       </c>
       <c r="P98" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -21106,7 +21112,7 @@
         <v>1</v>
       </c>
       <c r="AQ98">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR98">
         <v>1.81</v>
@@ -21181,6 +21187,418 @@
         <v>0</v>
       </c>
       <c r="BP98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7325230</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45492.54166666666</v>
+      </c>
+      <c r="F99">
+        <v>20</v>
+      </c>
+      <c r="G99" t="s">
+        <v>75</v>
+      </c>
+      <c r="H99" t="s">
+        <v>70</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>2</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>2</v>
+      </c>
+      <c r="O99" t="s">
+        <v>146</v>
+      </c>
+      <c r="P99" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q99">
+        <v>4.33</v>
+      </c>
+      <c r="R99">
+        <v>2.2</v>
+      </c>
+      <c r="S99">
+        <v>2.4</v>
+      </c>
+      <c r="T99">
+        <v>1.35</v>
+      </c>
+      <c r="U99">
+        <v>2.95</v>
+      </c>
+      <c r="V99">
+        <v>2.6</v>
+      </c>
+      <c r="W99">
+        <v>1.45</v>
+      </c>
+      <c r="X99">
+        <v>6.75</v>
+      </c>
+      <c r="Y99">
+        <v>1.1</v>
+      </c>
+      <c r="Z99">
+        <v>3.67</v>
+      </c>
+      <c r="AA99">
+        <v>3.58</v>
+      </c>
+      <c r="AB99">
+        <v>1.9</v>
+      </c>
+      <c r="AC99">
+        <v>1.03</v>
+      </c>
+      <c r="AD99">
+        <v>13</v>
+      </c>
+      <c r="AE99">
+        <v>1.24</v>
+      </c>
+      <c r="AF99">
+        <v>3.7</v>
+      </c>
+      <c r="AG99">
+        <v>1.82</v>
+      </c>
+      <c r="AH99">
+        <v>1.92</v>
+      </c>
+      <c r="AI99">
+        <v>1.7</v>
+      </c>
+      <c r="AJ99">
+        <v>2.05</v>
+      </c>
+      <c r="AK99">
+        <v>1.9</v>
+      </c>
+      <c r="AL99">
+        <v>1.24</v>
+      </c>
+      <c r="AM99">
+        <v>1.23</v>
+      </c>
+      <c r="AN99">
+        <v>1.22</v>
+      </c>
+      <c r="AO99">
+        <v>1.6</v>
+      </c>
+      <c r="AP99">
+        <v>1.4</v>
+      </c>
+      <c r="AQ99">
+        <v>1.45</v>
+      </c>
+      <c r="AR99">
+        <v>2.12</v>
+      </c>
+      <c r="AS99">
+        <v>1.78</v>
+      </c>
+      <c r="AT99">
+        <v>3.9</v>
+      </c>
+      <c r="AU99">
+        <v>7</v>
+      </c>
+      <c r="AV99">
+        <v>7</v>
+      </c>
+      <c r="AW99">
+        <v>14</v>
+      </c>
+      <c r="AX99">
+        <v>10</v>
+      </c>
+      <c r="AY99">
+        <v>21</v>
+      </c>
+      <c r="AZ99">
+        <v>17</v>
+      </c>
+      <c r="BA99">
+        <v>5</v>
+      </c>
+      <c r="BB99">
+        <v>4</v>
+      </c>
+      <c r="BC99">
+        <v>9</v>
+      </c>
+      <c r="BD99">
+        <v>0</v>
+      </c>
+      <c r="BE99">
+        <v>0</v>
+      </c>
+      <c r="BF99">
+        <v>0</v>
+      </c>
+      <c r="BG99">
+        <v>0</v>
+      </c>
+      <c r="BH99">
+        <v>0</v>
+      </c>
+      <c r="BI99">
+        <v>0</v>
+      </c>
+      <c r="BJ99">
+        <v>0</v>
+      </c>
+      <c r="BK99">
+        <v>0</v>
+      </c>
+      <c r="BL99">
+        <v>0</v>
+      </c>
+      <c r="BM99">
+        <v>0</v>
+      </c>
+      <c r="BN99">
+        <v>0</v>
+      </c>
+      <c r="BO99">
+        <v>0</v>
+      </c>
+      <c r="BP99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7325231</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45492.5625</v>
+      </c>
+      <c r="F100">
+        <v>20</v>
+      </c>
+      <c r="G100" t="s">
+        <v>79</v>
+      </c>
+      <c r="H100" t="s">
+        <v>76</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>4</v>
+      </c>
+      <c r="N100">
+        <v>4</v>
+      </c>
+      <c r="O100" t="s">
+        <v>81</v>
+      </c>
+      <c r="P100" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q100">
+        <v>6</v>
+      </c>
+      <c r="R100">
+        <v>2.38</v>
+      </c>
+      <c r="S100">
+        <v>1.91</v>
+      </c>
+      <c r="T100">
+        <v>1.32</v>
+      </c>
+      <c r="U100">
+        <v>3.2</v>
+      </c>
+      <c r="V100">
+        <v>2.5</v>
+      </c>
+      <c r="W100">
+        <v>1.48</v>
+      </c>
+      <c r="X100">
+        <v>6</v>
+      </c>
+      <c r="Y100">
+        <v>1.11</v>
+      </c>
+      <c r="Z100">
+        <v>4.77</v>
+      </c>
+      <c r="AA100">
+        <v>3.75</v>
+      </c>
+      <c r="AB100">
+        <v>1.4</v>
+      </c>
+      <c r="AC100">
+        <v>1.02</v>
+      </c>
+      <c r="AD100">
+        <v>10</v>
+      </c>
+      <c r="AE100">
+        <v>1.22</v>
+      </c>
+      <c r="AF100">
+        <v>4</v>
+      </c>
+      <c r="AG100">
+        <v>1.55</v>
+      </c>
+      <c r="AH100">
+        <v>2.25</v>
+      </c>
+      <c r="AI100">
+        <v>1.8</v>
+      </c>
+      <c r="AJ100">
+        <v>1.95</v>
+      </c>
+      <c r="AK100">
+        <v>2.35</v>
+      </c>
+      <c r="AL100">
+        <v>1.19</v>
+      </c>
+      <c r="AM100">
+        <v>1.14</v>
+      </c>
+      <c r="AN100">
+        <v>1</v>
+      </c>
+      <c r="AO100">
+        <v>1.7</v>
+      </c>
+      <c r="AP100">
+        <v>0.9</v>
+      </c>
+      <c r="AQ100">
+        <v>1.82</v>
+      </c>
+      <c r="AR100">
+        <v>1.13</v>
+      </c>
+      <c r="AS100">
+        <v>1.77</v>
+      </c>
+      <c r="AT100">
+        <v>2.9</v>
+      </c>
+      <c r="AU100">
+        <v>4</v>
+      </c>
+      <c r="AV100">
+        <v>13</v>
+      </c>
+      <c r="AW100">
+        <v>6</v>
+      </c>
+      <c r="AX100">
+        <v>11</v>
+      </c>
+      <c r="AY100">
+        <v>10</v>
+      </c>
+      <c r="AZ100">
+        <v>24</v>
+      </c>
+      <c r="BA100">
+        <v>3</v>
+      </c>
+      <c r="BB100">
+        <v>12</v>
+      </c>
+      <c r="BC100">
+        <v>15</v>
+      </c>
+      <c r="BD100">
+        <v>0</v>
+      </c>
+      <c r="BE100">
+        <v>0</v>
+      </c>
+      <c r="BF100">
+        <v>0</v>
+      </c>
+      <c r="BG100">
+        <v>0</v>
+      </c>
+      <c r="BH100">
+        <v>0</v>
+      </c>
+      <c r="BI100">
+        <v>0</v>
+      </c>
+      <c r="BJ100">
+        <v>0</v>
+      </c>
+      <c r="BK100">
+        <v>0</v>
+      </c>
+      <c r="BL100">
+        <v>0</v>
+      </c>
+      <c r="BM100">
+        <v>0</v>
+      </c>
+      <c r="BN100">
+        <v>0</v>
+      </c>
+      <c r="BO100">
+        <v>0</v>
+      </c>
+      <c r="BP100">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="208">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -455,6 +455,9 @@
   </si>
   <si>
     <t>['50', '78']</t>
+  </si>
+  <si>
+    <t>['23', '51', '90+5']</t>
   </si>
   <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
@@ -996,7 +999,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP100"/>
+  <dimension ref="A1:BP103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1461,7 +1464,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1745,10 +1748,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AQ4">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1873,7 +1876,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -2079,7 +2082,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2491,7 +2494,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2778,7 +2781,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ9">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2903,7 +2906,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -2981,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ10">
         <v>0.2</v>
@@ -3109,7 +3112,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3190,7 +3193,7 @@
         <v>2</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR11">
         <v>1.79</v>
@@ -3315,7 +3318,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3521,7 +3524,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3599,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ13">
         <v>1.45</v>
@@ -3727,7 +3730,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3933,7 +3936,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4014,7 +4017,7 @@
         <v>1</v>
       </c>
       <c r="AQ15">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR15">
         <v>0.5</v>
@@ -4426,7 +4429,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR17">
         <v>0.95</v>
@@ -4551,7 +4554,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -5247,7 +5250,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AQ21">
         <v>1.73</v>
@@ -5375,7 +5378,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5581,7 +5584,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5787,7 +5790,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -5865,10 +5868,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ24">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR24">
         <v>2.63</v>
@@ -5993,7 +5996,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6074,7 +6077,7 @@
         <v>2</v>
       </c>
       <c r="AQ25">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR25">
         <v>1.98</v>
@@ -6405,7 +6408,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6486,7 +6489,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ27">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR27">
         <v>2.19</v>
@@ -6611,7 +6614,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6692,7 +6695,7 @@
         <v>1</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR28">
         <v>1.8</v>
@@ -6895,7 +6898,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AQ29">
         <v>0.2</v>
@@ -7023,7 +7026,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7229,7 +7232,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7435,7 +7438,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7641,7 +7644,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7847,7 +7850,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -7928,7 +7931,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR34">
         <v>1.08</v>
@@ -8053,7 +8056,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8131,7 +8134,7 @@
         <v>1.33</v>
       </c>
       <c r="AP35">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ35">
         <v>1</v>
@@ -8337,7 +8340,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -8546,7 +8549,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ37">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR37">
         <v>1.49</v>
@@ -8671,7 +8674,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8877,7 +8880,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -9083,7 +9086,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9289,7 +9292,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9495,7 +9498,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9701,7 +9704,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9985,7 +9988,7 @@
         <v>1.4</v>
       </c>
       <c r="AP44">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AQ44">
         <v>1.73</v>
@@ -10113,7 +10116,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10606,7 +10609,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ47">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR47">
         <v>1.09</v>
@@ -11015,10 +11018,10 @@
         <v>1.25</v>
       </c>
       <c r="AP49">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR49">
         <v>2.56</v>
@@ -11349,7 +11352,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -11839,7 +11842,7 @@
         <v>2.2</v>
       </c>
       <c r="AP53">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AQ53">
         <v>1.82</v>
@@ -12048,7 +12051,7 @@
         <v>1</v>
       </c>
       <c r="AQ54">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR54">
         <v>1.38</v>
@@ -12173,7 +12176,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12379,7 +12382,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12585,7 +12588,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12872,7 +12875,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ58">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR58">
         <v>1.96</v>
@@ -13203,7 +13206,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13490,7 +13493,7 @@
         <v>2</v>
       </c>
       <c r="AQ61">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR61">
         <v>1.78</v>
@@ -13615,7 +13618,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13693,7 +13696,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ62">
         <v>1.82</v>
@@ -13821,7 +13824,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -13899,10 +13902,10 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AQ63">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR63">
         <v>2.2</v>
@@ -14027,7 +14030,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14108,7 +14111,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ64">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR64">
         <v>1.24</v>
@@ -14233,7 +14236,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14439,7 +14442,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14520,7 +14523,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ66">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR66">
         <v>1.95</v>
@@ -14645,7 +14648,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -14851,7 +14854,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -15057,7 +15060,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15263,7 +15266,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15341,7 +15344,7 @@
         <v>2.57</v>
       </c>
       <c r="AP70">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ70">
         <v>2.7</v>
@@ -15469,7 +15472,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15959,10 +15962,10 @@
         <v>0.67</v>
       </c>
       <c r="AP73">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AQ73">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR73">
         <v>2.41</v>
@@ -16374,7 +16377,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ75">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR75">
         <v>1.91</v>
@@ -16499,7 +16502,7 @@
         <v>131</v>
       </c>
       <c r="P76" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16911,7 +16914,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -16992,7 +16995,7 @@
         <v>1</v>
       </c>
       <c r="AQ78">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR78">
         <v>1.17</v>
@@ -17117,7 +17120,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q79">
         <v>1.53</v>
@@ -17195,7 +17198,7 @@
         <v>1.29</v>
       </c>
       <c r="AP79">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AQ79">
         <v>1</v>
@@ -17323,7 +17326,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17529,7 +17532,7 @@
         <v>81</v>
       </c>
       <c r="P81" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q81">
         <v>1.6</v>
@@ -17607,7 +17610,7 @@
         <v>0.86</v>
       </c>
       <c r="AP81">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ81">
         <v>1</v>
@@ -17816,7 +17819,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ82">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR82">
         <v>2.04</v>
@@ -17941,7 +17944,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q83">
         <v>8.5</v>
@@ -18147,7 +18150,7 @@
         <v>81</v>
       </c>
       <c r="P84" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18228,7 +18231,7 @@
         <v>1</v>
       </c>
       <c r="AQ84">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR84">
         <v>1.8</v>
@@ -18559,7 +18562,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q86">
         <v>5.66</v>
@@ -18765,7 +18768,7 @@
         <v>137</v>
       </c>
       <c r="P87" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q87">
         <v>4.95</v>
@@ -18971,7 +18974,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q88">
         <v>2.77</v>
@@ -19052,7 +19055,7 @@
         <v>1</v>
       </c>
       <c r="AQ88">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR88">
         <v>1.27</v>
@@ -19177,7 +19180,7 @@
         <v>138</v>
       </c>
       <c r="P89" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -19383,7 +19386,7 @@
         <v>122</v>
       </c>
       <c r="P90" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q90">
         <v>11</v>
@@ -19589,7 +19592,7 @@
         <v>139</v>
       </c>
       <c r="P91" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q91">
         <v>1.83</v>
@@ -19795,7 +19798,7 @@
         <v>140</v>
       </c>
       <c r="P92" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -19876,7 +19879,7 @@
         <v>1</v>
       </c>
       <c r="AQ92">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR92">
         <v>1.58</v>
@@ -20001,7 +20004,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q93">
         <v>2.3</v>
@@ -20285,10 +20288,10 @@
         <v>1.13</v>
       </c>
       <c r="AP94">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ94">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR94">
         <v>2.14</v>
@@ -20491,7 +20494,7 @@
         <v>1.78</v>
       </c>
       <c r="AP95">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AQ95">
         <v>1.45</v>
@@ -21031,7 +21034,7 @@
         <v>145</v>
       </c>
       <c r="P98" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -21443,7 +21446,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -21599,6 +21602,624 @@
         <v>0</v>
       </c>
       <c r="BP100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7325232</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45493.54166666666</v>
+      </c>
+      <c r="F101">
+        <v>20</v>
+      </c>
+      <c r="G101" t="s">
+        <v>74</v>
+      </c>
+      <c r="H101" t="s">
+        <v>78</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101" t="s">
+        <v>81</v>
+      </c>
+      <c r="P101" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q101">
+        <v>2.75</v>
+      </c>
+      <c r="R101">
+        <v>2.25</v>
+      </c>
+      <c r="S101">
+        <v>3.2</v>
+      </c>
+      <c r="T101">
+        <v>1.31</v>
+      </c>
+      <c r="U101">
+        <v>3.26</v>
+      </c>
+      <c r="V101">
+        <v>2.4</v>
+      </c>
+      <c r="W101">
+        <v>1.51</v>
+      </c>
+      <c r="X101">
+        <v>5.75</v>
+      </c>
+      <c r="Y101">
+        <v>1.12</v>
+      </c>
+      <c r="Z101">
+        <v>2.24</v>
+      </c>
+      <c r="AA101">
+        <v>3.19</v>
+      </c>
+      <c r="AB101">
+        <v>2.76</v>
+      </c>
+      <c r="AC101">
+        <v>1.01</v>
+      </c>
+      <c r="AD101">
+        <v>11</v>
+      </c>
+      <c r="AE101">
+        <v>1.2</v>
+      </c>
+      <c r="AF101">
+        <v>4.2</v>
+      </c>
+      <c r="AG101">
+        <v>1.65</v>
+      </c>
+      <c r="AH101">
+        <v>2.15</v>
+      </c>
+      <c r="AI101">
+        <v>1.55</v>
+      </c>
+      <c r="AJ101">
+        <v>2.35</v>
+      </c>
+      <c r="AK101">
+        <v>1.4</v>
+      </c>
+      <c r="AL101">
+        <v>1.25</v>
+      </c>
+      <c r="AM101">
+        <v>1.58</v>
+      </c>
+      <c r="AN101">
+        <v>1</v>
+      </c>
+      <c r="AO101">
+        <v>1.11</v>
+      </c>
+      <c r="AP101">
+        <v>1</v>
+      </c>
+      <c r="AQ101">
+        <v>1.1</v>
+      </c>
+      <c r="AR101">
+        <v>1.51</v>
+      </c>
+      <c r="AS101">
+        <v>1.79</v>
+      </c>
+      <c r="AT101">
+        <v>3.3</v>
+      </c>
+      <c r="AU101">
+        <v>11</v>
+      </c>
+      <c r="AV101">
+        <v>5</v>
+      </c>
+      <c r="AW101">
+        <v>10</v>
+      </c>
+      <c r="AX101">
+        <v>8</v>
+      </c>
+      <c r="AY101">
+        <v>21</v>
+      </c>
+      <c r="AZ101">
+        <v>13</v>
+      </c>
+      <c r="BA101">
+        <v>7</v>
+      </c>
+      <c r="BB101">
+        <v>2</v>
+      </c>
+      <c r="BC101">
+        <v>9</v>
+      </c>
+      <c r="BD101">
+        <v>0</v>
+      </c>
+      <c r="BE101">
+        <v>0</v>
+      </c>
+      <c r="BF101">
+        <v>0</v>
+      </c>
+      <c r="BG101">
+        <v>0</v>
+      </c>
+      <c r="BH101">
+        <v>0</v>
+      </c>
+      <c r="BI101">
+        <v>0</v>
+      </c>
+      <c r="BJ101">
+        <v>0</v>
+      </c>
+      <c r="BK101">
+        <v>0</v>
+      </c>
+      <c r="BL101">
+        <v>0</v>
+      </c>
+      <c r="BM101">
+        <v>0</v>
+      </c>
+      <c r="BN101">
+        <v>0</v>
+      </c>
+      <c r="BO101">
+        <v>0</v>
+      </c>
+      <c r="BP101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7325233</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45494.45833333334</v>
+      </c>
+      <c r="F102">
+        <v>20</v>
+      </c>
+      <c r="G102" t="s">
+        <v>72</v>
+      </c>
+      <c r="H102" t="s">
+        <v>71</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102" t="s">
+        <v>81</v>
+      </c>
+      <c r="P102" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q102">
+        <v>1.5</v>
+      </c>
+      <c r="R102">
+        <v>2.88</v>
+      </c>
+      <c r="S102">
+        <v>11</v>
+      </c>
+      <c r="T102">
+        <v>1.24</v>
+      </c>
+      <c r="U102">
+        <v>3.8</v>
+      </c>
+      <c r="V102">
+        <v>2.16</v>
+      </c>
+      <c r="W102">
+        <v>1.65</v>
+      </c>
+      <c r="X102">
+        <v>4.7</v>
+      </c>
+      <c r="Y102">
+        <v>1.17</v>
+      </c>
+      <c r="Z102">
+        <v>1.11</v>
+      </c>
+      <c r="AA102">
+        <v>7</v>
+      </c>
+      <c r="AB102">
+        <v>17</v>
+      </c>
+      <c r="AC102">
+        <v>1.01</v>
+      </c>
+      <c r="AD102">
+        <v>24</v>
+      </c>
+      <c r="AE102">
+        <v>1.11</v>
+      </c>
+      <c r="AF102">
+        <v>5.3</v>
+      </c>
+      <c r="AG102">
+        <v>1.38</v>
+      </c>
+      <c r="AH102">
+        <v>2.45</v>
+      </c>
+      <c r="AI102">
+        <v>2</v>
+      </c>
+      <c r="AJ102">
+        <v>1.77</v>
+      </c>
+      <c r="AK102">
+        <v>1.01</v>
+      </c>
+      <c r="AL102">
+        <v>1.06</v>
+      </c>
+      <c r="AM102">
+        <v>4.5</v>
+      </c>
+      <c r="AN102">
+        <v>2.4</v>
+      </c>
+      <c r="AO102">
+        <v>0.89</v>
+      </c>
+      <c r="AP102">
+        <v>2.27</v>
+      </c>
+      <c r="AQ102">
+        <v>0.9</v>
+      </c>
+      <c r="AR102">
+        <v>2.37</v>
+      </c>
+      <c r="AS102">
+        <v>1.39</v>
+      </c>
+      <c r="AT102">
+        <v>3.76</v>
+      </c>
+      <c r="AU102">
+        <v>14</v>
+      </c>
+      <c r="AV102">
+        <v>3</v>
+      </c>
+      <c r="AW102">
+        <v>20</v>
+      </c>
+      <c r="AX102">
+        <v>1</v>
+      </c>
+      <c r="AY102">
+        <v>34</v>
+      </c>
+      <c r="AZ102">
+        <v>4</v>
+      </c>
+      <c r="BA102">
+        <v>15</v>
+      </c>
+      <c r="BB102">
+        <v>0</v>
+      </c>
+      <c r="BC102">
+        <v>15</v>
+      </c>
+      <c r="BD102">
+        <v>0</v>
+      </c>
+      <c r="BE102">
+        <v>0</v>
+      </c>
+      <c r="BF102">
+        <v>0</v>
+      </c>
+      <c r="BG102">
+        <v>0</v>
+      </c>
+      <c r="BH102">
+        <v>0</v>
+      </c>
+      <c r="BI102">
+        <v>0</v>
+      </c>
+      <c r="BJ102">
+        <v>0</v>
+      </c>
+      <c r="BK102">
+        <v>0</v>
+      </c>
+      <c r="BL102">
+        <v>0</v>
+      </c>
+      <c r="BM102">
+        <v>0</v>
+      </c>
+      <c r="BN102">
+        <v>0</v>
+      </c>
+      <c r="BO102">
+        <v>0</v>
+      </c>
+      <c r="BP102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7325234</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45494.54166666666</v>
+      </c>
+      <c r="F103">
+        <v>20</v>
+      </c>
+      <c r="G103" t="s">
+        <v>77</v>
+      </c>
+      <c r="H103" t="s">
+        <v>73</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>2</v>
+      </c>
+      <c r="L103">
+        <v>3</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>4</v>
+      </c>
+      <c r="O103" t="s">
+        <v>147</v>
+      </c>
+      <c r="P103" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q103">
+        <v>1.91</v>
+      </c>
+      <c r="R103">
+        <v>2.3</v>
+      </c>
+      <c r="S103">
+        <v>6.5</v>
+      </c>
+      <c r="T103">
+        <v>1.36</v>
+      </c>
+      <c r="U103">
+        <v>2.99</v>
+      </c>
+      <c r="V103">
+        <v>2.5</v>
+      </c>
+      <c r="W103">
+        <v>1.48</v>
+      </c>
+      <c r="X103">
+        <v>6.05</v>
+      </c>
+      <c r="Y103">
+        <v>1.11</v>
+      </c>
+      <c r="Z103">
+        <v>1.45</v>
+      </c>
+      <c r="AA103">
+        <v>4.2</v>
+      </c>
+      <c r="AB103">
+        <v>5.5</v>
+      </c>
+      <c r="AC103">
+        <v>1.01</v>
+      </c>
+      <c r="AD103">
+        <v>10.5</v>
+      </c>
+      <c r="AE103">
+        <v>1.22</v>
+      </c>
+      <c r="AF103">
+        <v>4</v>
+      </c>
+      <c r="AG103">
+        <v>1.58</v>
+      </c>
+      <c r="AH103">
+        <v>2.23</v>
+      </c>
+      <c r="AI103">
+        <v>1.8</v>
+      </c>
+      <c r="AJ103">
+        <v>1.95</v>
+      </c>
+      <c r="AK103">
+        <v>1.09</v>
+      </c>
+      <c r="AL103">
+        <v>1.18</v>
+      </c>
+      <c r="AM103">
+        <v>2.45</v>
+      </c>
+      <c r="AN103">
+        <v>1.44</v>
+      </c>
+      <c r="AO103">
+        <v>1</v>
+      </c>
+      <c r="AP103">
+        <v>1.6</v>
+      </c>
+      <c r="AQ103">
+        <v>0.9</v>
+      </c>
+      <c r="AR103">
+        <v>2.14</v>
+      </c>
+      <c r="AS103">
+        <v>1.19</v>
+      </c>
+      <c r="AT103">
+        <v>3.33</v>
+      </c>
+      <c r="AU103">
+        <v>13</v>
+      </c>
+      <c r="AV103">
+        <v>6</v>
+      </c>
+      <c r="AW103">
+        <v>19</v>
+      </c>
+      <c r="AX103">
+        <v>9</v>
+      </c>
+      <c r="AY103">
+        <v>32</v>
+      </c>
+      <c r="AZ103">
+        <v>15</v>
+      </c>
+      <c r="BA103">
+        <v>10</v>
+      </c>
+      <c r="BB103">
+        <v>1</v>
+      </c>
+      <c r="BC103">
+        <v>11</v>
+      </c>
+      <c r="BD103">
+        <v>0</v>
+      </c>
+      <c r="BE103">
+        <v>0</v>
+      </c>
+      <c r="BF103">
+        <v>0</v>
+      </c>
+      <c r="BG103">
+        <v>0</v>
+      </c>
+      <c r="BH103">
+        <v>0</v>
+      </c>
+      <c r="BI103">
+        <v>0</v>
+      </c>
+      <c r="BJ103">
+        <v>0</v>
+      </c>
+      <c r="BK103">
+        <v>0</v>
+      </c>
+      <c r="BL103">
+        <v>0</v>
+      </c>
+      <c r="BM103">
+        <v>0</v>
+      </c>
+      <c r="BN103">
+        <v>0</v>
+      </c>
+      <c r="BO103">
+        <v>0</v>
+      </c>
+      <c r="BP103">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="209">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -458,6 +458,9 @@
   </si>
   <si>
     <t>['23', '51', '90+5']</t>
+  </si>
+  <si>
+    <t>['45+2', '80']</t>
   </si>
   <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
@@ -999,7 +1002,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP103"/>
+  <dimension ref="A1:BP104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1339,7 +1342,7 @@
         <v>2</v>
       </c>
       <c r="AQ2">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1464,7 +1467,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1876,7 +1879,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -2082,7 +2085,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2494,7 +2497,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2906,7 +2909,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -2987,7 +2990,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ10">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3112,7 +3115,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3318,7 +3321,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3524,7 +3527,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3730,7 +3733,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3808,7 +3811,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -3936,7 +3939,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4554,7 +4557,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4838,10 +4841,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ19">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR19">
         <v>1.58</v>
@@ -5378,7 +5381,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5584,7 +5587,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5790,7 +5793,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -5996,7 +5999,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6408,7 +6411,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6614,7 +6617,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6692,7 +6695,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ28">
         <v>0.9</v>
@@ -6901,7 +6904,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ29">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR29">
         <v>2.32</v>
@@ -7026,7 +7029,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7232,7 +7235,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7438,7 +7441,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7644,7 +7647,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7850,7 +7853,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -8056,7 +8059,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8674,7 +8677,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8880,7 +8883,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -8961,7 +8964,7 @@
         <v>1</v>
       </c>
       <c r="AQ39">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR39">
         <v>1.08</v>
@@ -9086,7 +9089,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9292,7 +9295,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9498,7 +9501,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9704,7 +9707,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9782,7 +9785,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ43">
         <v>1.73</v>
@@ -10116,7 +10119,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10812,7 +10815,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -11352,7 +11355,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -12176,7 +12179,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12382,7 +12385,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12588,7 +12591,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12666,7 +12669,7 @@
         <v>1.6</v>
       </c>
       <c r="AP57">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ57">
         <v>1.45</v>
@@ -13081,7 +13084,7 @@
         <v>1</v>
       </c>
       <c r="AQ59">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR59">
         <v>1.41</v>
@@ -13206,7 +13209,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13618,7 +13621,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13824,7 +13827,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -14030,7 +14033,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14236,7 +14239,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14442,7 +14445,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14648,7 +14651,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -14854,7 +14857,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -14935,7 +14938,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ68">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR68">
         <v>2.01</v>
@@ -15060,7 +15063,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15266,7 +15269,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15472,7 +15475,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -16168,7 +16171,7 @@
         <v>2.14</v>
       </c>
       <c r="AP74">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ74">
         <v>1.82</v>
@@ -16502,7 +16505,7 @@
         <v>131</v>
       </c>
       <c r="P76" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16914,7 +16917,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17120,7 +17123,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q79">
         <v>1.53</v>
@@ -17326,7 +17329,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17407,7 +17410,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ80">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR80">
         <v>1.48</v>
@@ -17532,7 +17535,7 @@
         <v>81</v>
       </c>
       <c r="P81" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q81">
         <v>1.6</v>
@@ -17944,7 +17947,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q83">
         <v>8.5</v>
@@ -18150,7 +18153,7 @@
         <v>81</v>
       </c>
       <c r="P84" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18228,7 +18231,7 @@
         <v>0.57</v>
       </c>
       <c r="AP84">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ84">
         <v>0.9</v>
@@ -18562,7 +18565,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q86">
         <v>5.66</v>
@@ -18768,7 +18771,7 @@
         <v>137</v>
       </c>
       <c r="P87" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q87">
         <v>4.95</v>
@@ -18974,7 +18977,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q88">
         <v>2.77</v>
@@ -19180,7 +19183,7 @@
         <v>138</v>
       </c>
       <c r="P89" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -19386,7 +19389,7 @@
         <v>122</v>
       </c>
       <c r="P90" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q90">
         <v>11</v>
@@ -19464,7 +19467,7 @@
         <v>2.67</v>
       </c>
       <c r="AP90">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ90">
         <v>2.7</v>
@@ -19592,7 +19595,7 @@
         <v>139</v>
       </c>
       <c r="P91" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q91">
         <v>1.83</v>
@@ -19798,7 +19801,7 @@
         <v>140</v>
       </c>
       <c r="P92" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20004,7 +20007,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q93">
         <v>2.3</v>
@@ -20085,7 +20088,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ93">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR93">
         <v>2.08</v>
@@ -20909,7 +20912,7 @@
         <v>1</v>
       </c>
       <c r="AQ97">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AR97">
         <v>1.43</v>
@@ -21034,7 +21037,7 @@
         <v>145</v>
       </c>
       <c r="P98" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -21112,7 +21115,7 @@
         <v>1.78</v>
       </c>
       <c r="AP98">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ98">
         <v>1.82</v>
@@ -21446,7 +21449,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -22064,7 +22067,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q103">
         <v>1.91</v>
@@ -22220,6 +22223,212 @@
         <v>0</v>
       </c>
       <c r="BP103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7325235</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45499.5625</v>
+      </c>
+      <c r="F104">
+        <v>21</v>
+      </c>
+      <c r="G104" t="s">
+        <v>78</v>
+      </c>
+      <c r="H104" t="s">
+        <v>79</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>2</v>
+      </c>
+      <c r="L104">
+        <v>2</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>3</v>
+      </c>
+      <c r="O104" t="s">
+        <v>148</v>
+      </c>
+      <c r="P104" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q104">
+        <v>2.2</v>
+      </c>
+      <c r="R104">
+        <v>2.4</v>
+      </c>
+      <c r="S104">
+        <v>4</v>
+      </c>
+      <c r="T104">
+        <v>1.28</v>
+      </c>
+      <c r="U104">
+        <v>3.46</v>
+      </c>
+      <c r="V104">
+        <v>2.31</v>
+      </c>
+      <c r="W104">
+        <v>1.57</v>
+      </c>
+      <c r="X104">
+        <v>5.25</v>
+      </c>
+      <c r="Y104">
+        <v>1.14</v>
+      </c>
+      <c r="Z104">
+        <v>1.67</v>
+      </c>
+      <c r="AA104">
+        <v>3.75</v>
+      </c>
+      <c r="AB104">
+        <v>4</v>
+      </c>
+      <c r="AC104">
+        <v>1.02</v>
+      </c>
+      <c r="AD104">
+        <v>18</v>
+      </c>
+      <c r="AE104">
+        <v>1.17</v>
+      </c>
+      <c r="AF104">
+        <v>4.5</v>
+      </c>
+      <c r="AG104">
+        <v>1.58</v>
+      </c>
+      <c r="AH104">
+        <v>2.25</v>
+      </c>
+      <c r="AI104">
+        <v>1.56</v>
+      </c>
+      <c r="AJ104">
+        <v>2.36</v>
+      </c>
+      <c r="AK104">
+        <v>1.17</v>
+      </c>
+      <c r="AL104">
+        <v>1.19</v>
+      </c>
+      <c r="AM104">
+        <v>2.1</v>
+      </c>
+      <c r="AN104">
+        <v>1</v>
+      </c>
+      <c r="AO104">
+        <v>0.2</v>
+      </c>
+      <c r="AP104">
+        <v>1.18</v>
+      </c>
+      <c r="AQ104">
+        <v>0.18</v>
+      </c>
+      <c r="AR104">
+        <v>1.75</v>
+      </c>
+      <c r="AS104">
+        <v>1.06</v>
+      </c>
+      <c r="AT104">
+        <v>2.81</v>
+      </c>
+      <c r="AU104">
+        <v>5</v>
+      </c>
+      <c r="AV104">
+        <v>4</v>
+      </c>
+      <c r="AW104">
+        <v>8</v>
+      </c>
+      <c r="AX104">
+        <v>4</v>
+      </c>
+      <c r="AY104">
+        <v>13</v>
+      </c>
+      <c r="AZ104">
+        <v>8</v>
+      </c>
+      <c r="BA104">
+        <v>6</v>
+      </c>
+      <c r="BB104">
+        <v>5</v>
+      </c>
+      <c r="BC104">
+        <v>11</v>
+      </c>
+      <c r="BD104">
+        <v>0</v>
+      </c>
+      <c r="BE104">
+        <v>0</v>
+      </c>
+      <c r="BF104">
+        <v>0</v>
+      </c>
+      <c r="BG104">
+        <v>0</v>
+      </c>
+      <c r="BH104">
+        <v>0</v>
+      </c>
+      <c r="BI104">
+        <v>0</v>
+      </c>
+      <c r="BJ104">
+        <v>0</v>
+      </c>
+      <c r="BK104">
+        <v>0</v>
+      </c>
+      <c r="BL104">
+        <v>0</v>
+      </c>
+      <c r="BM104">
+        <v>0</v>
+      </c>
+      <c r="BN104">
+        <v>0</v>
+      </c>
+      <c r="BO104">
+        <v>0</v>
+      </c>
+      <c r="BP104">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="210">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -461,6 +461,9 @@
   </si>
   <si>
     <t>['45+2', '80']</t>
+  </si>
+  <si>
+    <t>['5', '27', '36']</t>
   </si>
   <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
@@ -1002,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP104"/>
+  <dimension ref="A1:BP105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1467,7 +1470,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1879,7 +1882,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -1960,7 +1963,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2085,7 +2088,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2497,7 +2500,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2781,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ9">
         <v>1.1</v>
@@ -2909,7 +2912,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -3115,7 +3118,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3321,7 +3324,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3527,7 +3530,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3733,7 +3736,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3814,7 +3817,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3939,7 +3942,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4557,7 +4560,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -5381,7 +5384,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5462,7 +5465,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR22">
         <v>0.74</v>
@@ -5587,7 +5590,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5665,7 +5668,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ23">
         <v>2.7</v>
@@ -5793,7 +5796,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -5999,7 +6002,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6411,7 +6414,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6617,7 +6620,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -7029,7 +7032,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7235,7 +7238,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7313,7 +7316,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ31">
         <v>1.73</v>
@@ -7441,7 +7444,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7647,7 +7650,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7853,7 +7856,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -8059,7 +8062,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8140,7 +8143,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR35">
         <v>2.56</v>
@@ -8677,7 +8680,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8883,7 +8886,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -9089,7 +9092,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9295,7 +9298,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9501,7 +9504,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9707,7 +9710,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -10119,7 +10122,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10403,10 +10406,10 @@
         <v>1.75</v>
       </c>
       <c r="AP46">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR46">
         <v>1.97</v>
@@ -11355,7 +11358,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -11642,7 +11645,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ52">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR52">
         <v>1.6</v>
@@ -12179,7 +12182,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12385,7 +12388,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12591,7 +12594,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12875,7 +12878,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ58">
         <v>0.9</v>
@@ -13209,7 +13212,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13621,7 +13624,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13827,7 +13830,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -14033,7 +14036,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14239,7 +14242,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14320,7 +14323,7 @@
         <v>1</v>
       </c>
       <c r="AQ65">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR65">
         <v>1.14</v>
@@ -14445,7 +14448,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14651,7 +14654,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -14857,7 +14860,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -14935,7 +14938,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ68">
         <v>0.18</v>
@@ -15063,7 +15066,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15269,7 +15272,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15475,7 +15478,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -16505,7 +16508,7 @@
         <v>131</v>
       </c>
       <c r="P76" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16789,7 +16792,7 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ77">
         <v>1.45</v>
@@ -16917,7 +16920,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17123,7 +17126,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q79">
         <v>1.53</v>
@@ -17204,7 +17207,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ79">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR79">
         <v>2.5</v>
@@ -17329,7 +17332,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17535,7 +17538,7 @@
         <v>81</v>
       </c>
       <c r="P81" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q81">
         <v>1.6</v>
@@ -17819,7 +17822,7 @@
         <v>0.86</v>
       </c>
       <c r="AP82">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ82">
         <v>0.9</v>
@@ -17947,7 +17950,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q83">
         <v>8.5</v>
@@ -18153,7 +18156,7 @@
         <v>81</v>
       </c>
       <c r="P84" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18440,7 +18443,7 @@
         <v>2</v>
       </c>
       <c r="AQ85">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR85">
         <v>1.88</v>
@@ -18565,7 +18568,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q86">
         <v>5.66</v>
@@ -18771,7 +18774,7 @@
         <v>137</v>
       </c>
       <c r="P87" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q87">
         <v>4.95</v>
@@ -18977,7 +18980,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q88">
         <v>2.77</v>
@@ -19183,7 +19186,7 @@
         <v>138</v>
       </c>
       <c r="P89" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -19389,7 +19392,7 @@
         <v>122</v>
       </c>
       <c r="P90" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q90">
         <v>11</v>
@@ -19595,7 +19598,7 @@
         <v>139</v>
       </c>
       <c r="P91" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q91">
         <v>1.83</v>
@@ -19673,7 +19676,7 @@
         <v>1.13</v>
       </c>
       <c r="AP91">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ91">
         <v>1</v>
@@ -19801,7 +19804,7 @@
         <v>140</v>
       </c>
       <c r="P92" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20007,7 +20010,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q93">
         <v>2.3</v>
@@ -20706,7 +20709,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ96">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR96">
         <v>1.57</v>
@@ -21037,7 +21040,7 @@
         <v>145</v>
       </c>
       <c r="P98" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -21449,7 +21452,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -22067,7 +22070,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q103">
         <v>1.91</v>
@@ -22429,6 +22432,212 @@
         <v>0</v>
       </c>
       <c r="BP104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7325236</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45500.45833333334</v>
+      </c>
+      <c r="F105">
+        <v>21</v>
+      </c>
+      <c r="G105" t="s">
+        <v>76</v>
+      </c>
+      <c r="H105" t="s">
+        <v>75</v>
+      </c>
+      <c r="I105">
+        <v>3</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>3</v>
+      </c>
+      <c r="L105">
+        <v>3</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>3</v>
+      </c>
+      <c r="O105" t="s">
+        <v>149</v>
+      </c>
+      <c r="P105" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q105">
+        <v>1.95</v>
+      </c>
+      <c r="R105">
+        <v>2.5</v>
+      </c>
+      <c r="S105">
+        <v>5</v>
+      </c>
+      <c r="T105">
+        <v>1.28</v>
+      </c>
+      <c r="U105">
+        <v>3.46</v>
+      </c>
+      <c r="V105">
+        <v>2.31</v>
+      </c>
+      <c r="W105">
+        <v>1.57</v>
+      </c>
+      <c r="X105">
+        <v>5.2</v>
+      </c>
+      <c r="Y105">
+        <v>1.14</v>
+      </c>
+      <c r="Z105">
+        <v>1.66</v>
+      </c>
+      <c r="AA105">
+        <v>3.5</v>
+      </c>
+      <c r="AB105">
+        <v>4.2</v>
+      </c>
+      <c r="AC105">
+        <v>1.02</v>
+      </c>
+      <c r="AD105">
+        <v>18</v>
+      </c>
+      <c r="AE105">
+        <v>1.17</v>
+      </c>
+      <c r="AF105">
+        <v>4.5</v>
+      </c>
+      <c r="AG105">
+        <v>1.7</v>
+      </c>
+      <c r="AH105">
+        <v>2.05</v>
+      </c>
+      <c r="AI105">
+        <v>1.6</v>
+      </c>
+      <c r="AJ105">
+        <v>2.27</v>
+      </c>
+      <c r="AK105">
+        <v>1.13</v>
+      </c>
+      <c r="AL105">
+        <v>1.18</v>
+      </c>
+      <c r="AM105">
+        <v>2.28</v>
+      </c>
+      <c r="AN105">
+        <v>2.22</v>
+      </c>
+      <c r="AO105">
+        <v>1</v>
+      </c>
+      <c r="AP105">
+        <v>2.3</v>
+      </c>
+      <c r="AQ105">
+        <v>0.91</v>
+      </c>
+      <c r="AR105">
+        <v>2.01</v>
+      </c>
+      <c r="AS105">
+        <v>1.67</v>
+      </c>
+      <c r="AT105">
+        <v>3.68</v>
+      </c>
+      <c r="AU105">
+        <v>7</v>
+      </c>
+      <c r="AV105">
+        <v>10</v>
+      </c>
+      <c r="AW105">
+        <v>3</v>
+      </c>
+      <c r="AX105">
+        <v>8</v>
+      </c>
+      <c r="AY105">
+        <v>10</v>
+      </c>
+      <c r="AZ105">
+        <v>18</v>
+      </c>
+      <c r="BA105">
+        <v>2</v>
+      </c>
+      <c r="BB105">
+        <v>4</v>
+      </c>
+      <c r="BC105">
+        <v>6</v>
+      </c>
+      <c r="BD105">
+        <v>0</v>
+      </c>
+      <c r="BE105">
+        <v>0</v>
+      </c>
+      <c r="BF105">
+        <v>0</v>
+      </c>
+      <c r="BG105">
+        <v>0</v>
+      </c>
+      <c r="BH105">
+        <v>0</v>
+      </c>
+      <c r="BI105">
+        <v>0</v>
+      </c>
+      <c r="BJ105">
+        <v>0</v>
+      </c>
+      <c r="BK105">
+        <v>0</v>
+      </c>
+      <c r="BL105">
+        <v>0</v>
+      </c>
+      <c r="BM105">
+        <v>0</v>
+      </c>
+      <c r="BN105">
+        <v>0</v>
+      </c>
+      <c r="BO105">
+        <v>0</v>
+      </c>
+      <c r="BP105">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="211">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -464,6 +464,9 @@
   </si>
   <si>
     <t>['5', '27', '36']</t>
+  </si>
+  <si>
+    <t>['61']</t>
   </si>
   <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
@@ -1005,7 +1008,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP105"/>
+  <dimension ref="A1:BP106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1470,7 +1473,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1548,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ3">
         <v>1.82</v>
@@ -1882,7 +1885,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -2088,7 +2091,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2500,7 +2503,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2578,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ8">
         <v>2.7</v>
@@ -2912,7 +2915,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -3118,7 +3121,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3324,7 +3327,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3530,7 +3533,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3736,7 +3739,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3942,7 +3945,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4432,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ17">
         <v>0.9</v>
@@ -4560,7 +4563,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -5384,7 +5387,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5590,7 +5593,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5796,7 +5799,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -6002,7 +6005,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6414,7 +6417,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6620,7 +6623,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -7032,7 +7035,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7238,7 +7241,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7444,7 +7447,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7650,7 +7653,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7856,7 +7859,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -8062,7 +8065,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8552,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ37">
         <v>1.1</v>
@@ -8680,7 +8683,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8886,7 +8889,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -9092,7 +9095,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9298,7 +9301,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9376,7 +9379,7 @@
         <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ41">
         <v>1.45</v>
@@ -9504,7 +9507,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9710,7 +9713,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -10122,7 +10125,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -11358,7 +11361,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -11642,7 +11645,7 @@
         <v>1.4</v>
       </c>
       <c r="AP52">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ52">
         <v>0.91</v>
@@ -12182,7 +12185,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12388,7 +12391,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12594,7 +12597,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13212,7 +13215,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13624,7 +13627,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13830,7 +13833,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -14036,7 +14039,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14242,7 +14245,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14448,7 +14451,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14654,7 +14657,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -14732,7 +14735,7 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ67">
         <v>1</v>
@@ -14860,7 +14863,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -15066,7 +15069,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15272,7 +15275,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15478,7 +15481,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -16508,7 +16511,7 @@
         <v>131</v>
       </c>
       <c r="P76" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16920,7 +16923,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17126,7 +17129,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q79">
         <v>1.53</v>
@@ -17332,7 +17335,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17410,7 +17413,7 @@
         <v>0.14</v>
       </c>
       <c r="AP80">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ80">
         <v>0.18</v>
@@ -17538,7 +17541,7 @@
         <v>81</v>
       </c>
       <c r="P81" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q81">
         <v>1.6</v>
@@ -17950,7 +17953,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q83">
         <v>8.5</v>
@@ -18156,7 +18159,7 @@
         <v>81</v>
       </c>
       <c r="P84" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18568,7 +18571,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q86">
         <v>5.66</v>
@@ -18646,7 +18649,7 @@
         <v>1.6</v>
       </c>
       <c r="AP86">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ86">
         <v>1.73</v>
@@ -18774,7 +18777,7 @@
         <v>137</v>
       </c>
       <c r="P87" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q87">
         <v>4.95</v>
@@ -18980,7 +18983,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q88">
         <v>2.77</v>
@@ -19186,7 +19189,7 @@
         <v>138</v>
       </c>
       <c r="P89" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -19392,7 +19395,7 @@
         <v>122</v>
       </c>
       <c r="P90" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q90">
         <v>11</v>
@@ -19598,7 +19601,7 @@
         <v>139</v>
       </c>
       <c r="P91" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q91">
         <v>1.83</v>
@@ -19804,7 +19807,7 @@
         <v>140</v>
       </c>
       <c r="P92" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20010,7 +20013,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q93">
         <v>2.3</v>
@@ -20706,7 +20709,7 @@
         <v>1</v>
       </c>
       <c r="AP96">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ96">
         <v>0.91</v>
@@ -21040,7 +21043,7 @@
         <v>145</v>
       </c>
       <c r="P98" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -21452,7 +21455,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -22070,7 +22073,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q103">
         <v>1.91</v>
@@ -22638,6 +22641,212 @@
         <v>0</v>
       </c>
       <c r="BP105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7325237</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45501.54166666666</v>
+      </c>
+      <c r="F106">
+        <v>21</v>
+      </c>
+      <c r="G106" t="s">
+        <v>71</v>
+      </c>
+      <c r="H106" t="s">
+        <v>74</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106">
+        <v>2</v>
+      </c>
+      <c r="O106" t="s">
+        <v>150</v>
+      </c>
+      <c r="P106" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q106">
+        <v>2.88</v>
+      </c>
+      <c r="R106">
+        <v>2.38</v>
+      </c>
+      <c r="S106">
+        <v>3</v>
+      </c>
+      <c r="T106">
+        <v>1.3</v>
+      </c>
+      <c r="U106">
+        <v>3.32</v>
+      </c>
+      <c r="V106">
+        <v>2.38</v>
+      </c>
+      <c r="W106">
+        <v>1.54</v>
+      </c>
+      <c r="X106">
+        <v>5.55</v>
+      </c>
+      <c r="Y106">
+        <v>1.12</v>
+      </c>
+      <c r="Z106">
+        <v>2.75</v>
+      </c>
+      <c r="AA106">
+        <v>3.05</v>
+      </c>
+      <c r="AB106">
+        <v>2.35</v>
+      </c>
+      <c r="AC106">
+        <v>1.01</v>
+      </c>
+      <c r="AD106">
+        <v>11</v>
+      </c>
+      <c r="AE106">
+        <v>1.16</v>
+      </c>
+      <c r="AF106">
+        <v>4.3</v>
+      </c>
+      <c r="AG106">
+        <v>1.85</v>
+      </c>
+      <c r="AH106">
+        <v>1.86</v>
+      </c>
+      <c r="AI106">
+        <v>1.5</v>
+      </c>
+      <c r="AJ106">
+        <v>2.34</v>
+      </c>
+      <c r="AK106">
+        <v>1.41</v>
+      </c>
+      <c r="AL106">
+        <v>1.25</v>
+      </c>
+      <c r="AM106">
+        <v>1.54</v>
+      </c>
+      <c r="AN106">
+        <v>1.1</v>
+      </c>
+      <c r="AO106">
+        <v>1</v>
+      </c>
+      <c r="AP106">
+        <v>1.09</v>
+      </c>
+      <c r="AQ106">
+        <v>1</v>
+      </c>
+      <c r="AR106">
+        <v>1.5</v>
+      </c>
+      <c r="AS106">
+        <v>1.39</v>
+      </c>
+      <c r="AT106">
+        <v>2.89</v>
+      </c>
+      <c r="AU106">
+        <v>4</v>
+      </c>
+      <c r="AV106">
+        <v>5</v>
+      </c>
+      <c r="AW106">
+        <v>5</v>
+      </c>
+      <c r="AX106">
+        <v>6</v>
+      </c>
+      <c r="AY106">
+        <v>9</v>
+      </c>
+      <c r="AZ106">
+        <v>11</v>
+      </c>
+      <c r="BA106">
+        <v>3</v>
+      </c>
+      <c r="BB106">
+        <v>8</v>
+      </c>
+      <c r="BC106">
+        <v>11</v>
+      </c>
+      <c r="BD106">
+        <v>0</v>
+      </c>
+      <c r="BE106">
+        <v>0</v>
+      </c>
+      <c r="BF106">
+        <v>0</v>
+      </c>
+      <c r="BG106">
+        <v>0</v>
+      </c>
+      <c r="BH106">
+        <v>0</v>
+      </c>
+      <c r="BI106">
+        <v>0</v>
+      </c>
+      <c r="BJ106">
+        <v>0</v>
+      </c>
+      <c r="BK106">
+        <v>0</v>
+      </c>
+      <c r="BL106">
+        <v>0</v>
+      </c>
+      <c r="BM106">
+        <v>0</v>
+      </c>
+      <c r="BN106">
+        <v>0</v>
+      </c>
+      <c r="BO106">
+        <v>0</v>
+      </c>
+      <c r="BP106">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="211">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1008,7 +1008,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP106"/>
+  <dimension ref="A1:BP107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2375,10 +2375,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -5053,7 +5053,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ20">
         <v>1.45</v>
@@ -6292,7 +6292,7 @@
         <v>1</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR26">
         <v>1.42</v>
@@ -6495,7 +6495,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ27">
         <v>0.9</v>
@@ -8352,7 +8352,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR36">
         <v>2.43</v>
@@ -9585,7 +9585,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ42">
         <v>2.7</v>
@@ -10824,7 +10824,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR48">
         <v>1.86</v>
@@ -11442,7 +11442,7 @@
         <v>2</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR51">
         <v>1.74</v>
@@ -12469,7 +12469,7 @@
         <v>1.43</v>
       </c>
       <c r="AP56">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ56">
         <v>1.73</v>
@@ -14529,7 +14529,7 @@
         <v>0.5</v>
       </c>
       <c r="AP66">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ66">
         <v>1.1</v>
@@ -14738,7 +14738,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ67">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR67">
         <v>1.58</v>
@@ -15562,7 +15562,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ71">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR71">
         <v>1.2</v>
@@ -16383,7 +16383,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ75">
         <v>0.9</v>
@@ -17622,7 +17622,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ81">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR81">
         <v>2.16</v>
@@ -18855,7 +18855,7 @@
         <v>1.88</v>
       </c>
       <c r="AP87">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ87">
         <v>1.82</v>
@@ -19682,7 +19682,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ91">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR91">
         <v>1.99</v>
@@ -20091,7 +20091,7 @@
         <v>0.25</v>
       </c>
       <c r="AP93">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ93">
         <v>0.18</v>
@@ -21327,7 +21327,7 @@
         <v>1.6</v>
       </c>
       <c r="AP99">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ99">
         <v>1.45</v>
@@ -22772,7 +22772,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ106">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR106">
         <v>1.5</v>
@@ -22847,6 +22847,212 @@
         <v>0</v>
       </c>
       <c r="BP106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7325238</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45506.5625</v>
+      </c>
+      <c r="F107">
+        <v>22</v>
+      </c>
+      <c r="G107" t="s">
+        <v>75</v>
+      </c>
+      <c r="H107" t="s">
+        <v>74</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>1</v>
+      </c>
+      <c r="O107" t="s">
+        <v>81</v>
+      </c>
+      <c r="P107" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q107">
+        <v>1.06</v>
+      </c>
+      <c r="R107">
+        <v>1.2</v>
+      </c>
+      <c r="S107">
+        <v>1.06</v>
+      </c>
+      <c r="T107">
+        <v>1.45</v>
+      </c>
+      <c r="U107">
+        <v>2.6</v>
+      </c>
+      <c r="V107">
+        <v>3.2</v>
+      </c>
+      <c r="W107">
+        <v>1.3</v>
+      </c>
+      <c r="X107">
+        <v>7</v>
+      </c>
+      <c r="Y107">
+        <v>1.08</v>
+      </c>
+      <c r="Z107">
+        <v>2.1</v>
+      </c>
+      <c r="AA107">
+        <v>3.2</v>
+      </c>
+      <c r="AB107">
+        <v>3.1</v>
+      </c>
+      <c r="AC107">
+        <v>1.07</v>
+      </c>
+      <c r="AD107">
+        <v>7.5</v>
+      </c>
+      <c r="AE107">
+        <v>1.36</v>
+      </c>
+      <c r="AF107">
+        <v>2.95</v>
+      </c>
+      <c r="AG107">
+        <v>2.05</v>
+      </c>
+      <c r="AH107">
+        <v>1.68</v>
+      </c>
+      <c r="AI107">
+        <v>1.9</v>
+      </c>
+      <c r="AJ107">
+        <v>1.83</v>
+      </c>
+      <c r="AK107">
+        <v>1.25</v>
+      </c>
+      <c r="AL107">
+        <v>1.25</v>
+      </c>
+      <c r="AM107">
+        <v>1.57</v>
+      </c>
+      <c r="AN107">
+        <v>1.4</v>
+      </c>
+      <c r="AO107">
+        <v>1</v>
+      </c>
+      <c r="AP107">
+        <v>1.27</v>
+      </c>
+      <c r="AQ107">
+        <v>1.18</v>
+      </c>
+      <c r="AR107">
+        <v>2.13</v>
+      </c>
+      <c r="AS107">
+        <v>1.41</v>
+      </c>
+      <c r="AT107">
+        <v>3.54</v>
+      </c>
+      <c r="AU107">
+        <v>7</v>
+      </c>
+      <c r="AV107">
+        <v>5</v>
+      </c>
+      <c r="AW107">
+        <v>7</v>
+      </c>
+      <c r="AX107">
+        <v>7</v>
+      </c>
+      <c r="AY107">
+        <v>14</v>
+      </c>
+      <c r="AZ107">
+        <v>12</v>
+      </c>
+      <c r="BA107">
+        <v>4</v>
+      </c>
+      <c r="BB107">
+        <v>4</v>
+      </c>
+      <c r="BC107">
+        <v>8</v>
+      </c>
+      <c r="BD107">
+        <v>0</v>
+      </c>
+      <c r="BE107">
+        <v>0</v>
+      </c>
+      <c r="BF107">
+        <v>0</v>
+      </c>
+      <c r="BG107">
+        <v>0</v>
+      </c>
+      <c r="BH107">
+        <v>0</v>
+      </c>
+      <c r="BI107">
+        <v>0</v>
+      </c>
+      <c r="BJ107">
+        <v>0</v>
+      </c>
+      <c r="BK107">
+        <v>0</v>
+      </c>
+      <c r="BL107">
+        <v>0</v>
+      </c>
+      <c r="BM107">
+        <v>0</v>
+      </c>
+      <c r="BN107">
+        <v>0</v>
+      </c>
+      <c r="BO107">
+        <v>0</v>
+      </c>
+      <c r="BP107">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="215">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -469,6 +469,9 @@
     <t>['61']</t>
   </si>
   <si>
+    <t>['63', '66', '88']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -647,6 +650,15 @@
   </si>
   <si>
     <t>['33', '57', '78', '89']</t>
+  </si>
+  <si>
+    <t>['55', '85']</t>
+  </si>
+  <si>
+    <t>['48']</t>
+  </si>
+  <si>
+    <t>['21', '35']</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1020,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP107"/>
+  <dimension ref="A1:BP111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1345,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ2">
         <v>0.18</v>
@@ -1473,7 +1485,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1551,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1760,7 +1772,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ4">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1885,7 +1897,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -1963,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ5">
         <v>0.91</v>
@@ -2091,7 +2103,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2172,7 +2184,7 @@
         <v>1</v>
       </c>
       <c r="AQ6">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2503,7 +2515,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2581,10 +2593,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AR8">
         <v>1.63</v>
@@ -2790,7 +2802,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ9">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2915,7 +2927,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -3121,7 +3133,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3199,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ11">
         <v>0.9</v>
@@ -3327,7 +3339,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3405,10 +3417,10 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ12">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AR12">
         <v>1.76</v>
@@ -3533,7 +3545,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3739,7 +3751,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3945,7 +3957,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4229,10 +4241,10 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ16">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4435,7 +4447,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ17">
         <v>0.9</v>
@@ -4563,7 +4575,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4644,7 +4656,7 @@
         <v>1</v>
       </c>
       <c r="AQ18">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR18">
         <v>1.11</v>
@@ -5262,7 +5274,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ21">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR21">
         <v>2.61</v>
@@ -5387,7 +5399,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5465,7 +5477,7 @@
         <v>2</v>
       </c>
       <c r="AP22">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ22">
         <v>0.91</v>
@@ -5593,7 +5605,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5674,7 +5686,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ23">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AR23">
         <v>2.56</v>
@@ -5799,7 +5811,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -6005,7 +6017,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6083,10 +6095,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ25">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR25">
         <v>1.98</v>
@@ -6289,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ26">
         <v>1.18</v>
@@ -6417,7 +6429,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6623,7 +6635,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -7035,7 +7047,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7241,7 +7253,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7322,7 +7334,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ31">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR31">
         <v>2.12</v>
@@ -7447,7 +7459,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7525,10 +7537,10 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ32">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AR32">
         <v>1.47</v>
@@ -7653,7 +7665,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7731,10 +7743,10 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ33">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR33">
         <v>1.95</v>
@@ -7859,7 +7871,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -7937,7 +7949,7 @@
         <v>0.67</v>
       </c>
       <c r="AP34">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ34">
         <v>0.9</v>
@@ -8065,7 +8077,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8555,10 +8567,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ37">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR37">
         <v>1.49</v>
@@ -8683,7 +8695,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8761,10 +8773,10 @@
         <v>2.33</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ38">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR38">
         <v>1.67</v>
@@ -8889,7 +8901,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -9095,7 +9107,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9173,10 +9185,10 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ40">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR40">
         <v>1.38</v>
@@ -9301,7 +9313,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9379,7 +9391,7 @@
         <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
         <v>1.45</v>
@@ -9507,7 +9519,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9588,7 +9600,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ42">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AR42">
         <v>2.19</v>
@@ -9713,7 +9725,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9794,7 +9806,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ43">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR43">
         <v>1.92</v>
@@ -10000,7 +10012,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ44">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR44">
         <v>2.3</v>
@@ -10125,7 +10137,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10203,7 +10215,7 @@
         <v>1.25</v>
       </c>
       <c r="AP45">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ45">
         <v>1.45</v>
@@ -10615,7 +10627,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ47">
         <v>0.9</v>
@@ -11233,10 +11245,10 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ50">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AR50">
         <v>1.81</v>
@@ -11361,7 +11373,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -11439,7 +11451,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ51">
         <v>1.18</v>
@@ -11645,7 +11657,7 @@
         <v>1.4</v>
       </c>
       <c r="AP52">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ52">
         <v>0.91</v>
@@ -11854,7 +11866,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ53">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR53">
         <v>2.19</v>
@@ -12057,10 +12069,10 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ54">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR54">
         <v>1.38</v>
@@ -12185,7 +12197,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12263,10 +12275,10 @@
         <v>1.17</v>
       </c>
       <c r="AP55">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ55">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR55">
         <v>1.18</v>
@@ -12391,7 +12403,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12472,7 +12484,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ56">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR56">
         <v>1.96</v>
@@ -12597,7 +12609,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13087,7 +13099,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ59">
         <v>0.18</v>
@@ -13215,7 +13227,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13296,7 +13308,7 @@
         <v>1</v>
       </c>
       <c r="AQ60">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AR60">
         <v>1.27</v>
@@ -13499,7 +13511,7 @@
         <v>0.8</v>
       </c>
       <c r="AP61">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ61">
         <v>0.9</v>
@@ -13627,7 +13639,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13708,7 +13720,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ62">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR62">
         <v>2.43</v>
@@ -13833,7 +13845,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -14039,7 +14051,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14117,10 +14129,10 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ64">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR64">
         <v>1.24</v>
@@ -14245,7 +14257,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14451,7 +14463,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14532,7 +14544,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ66">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR66">
         <v>1.95</v>
@@ -14657,7 +14669,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -14735,7 +14747,7 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ67">
         <v>1.18</v>
@@ -14863,7 +14875,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -15069,7 +15081,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15147,7 +15159,7 @@
         <v>1.83</v>
       </c>
       <c r="AP69">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ69">
         <v>1.45</v>
@@ -15275,7 +15287,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15356,7 +15368,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ70">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AR70">
         <v>2.27</v>
@@ -15481,7 +15493,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15559,7 +15571,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ71">
         <v>1.18</v>
@@ -15765,10 +15777,10 @@
         <v>1.63</v>
       </c>
       <c r="AP72">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ72">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR72">
         <v>1.97</v>
@@ -16180,7 +16192,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ74">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR74">
         <v>1.81</v>
@@ -16511,7 +16523,7 @@
         <v>131</v>
       </c>
       <c r="P76" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16589,10 +16601,10 @@
         <v>1.44</v>
       </c>
       <c r="AP76">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ76">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR76">
         <v>1.56</v>
@@ -16923,7 +16935,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17004,7 +17016,7 @@
         <v>1</v>
       </c>
       <c r="AQ78">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR78">
         <v>1.17</v>
@@ -17129,7 +17141,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q79">
         <v>1.53</v>
@@ -17335,7 +17347,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17413,7 +17425,7 @@
         <v>0.14</v>
       </c>
       <c r="AP80">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ80">
         <v>0.18</v>
@@ -17541,7 +17553,7 @@
         <v>81</v>
       </c>
       <c r="P81" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q81">
         <v>1.6</v>
@@ -17953,7 +17965,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q83">
         <v>8.5</v>
@@ -18031,10 +18043,10 @@
         <v>2.63</v>
       </c>
       <c r="AP83">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ83">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AR83">
         <v>1.25</v>
@@ -18159,7 +18171,7 @@
         <v>81</v>
       </c>
       <c r="P84" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18443,7 +18455,7 @@
         <v>1.13</v>
       </c>
       <c r="AP85">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ85">
         <v>0.91</v>
@@ -18571,7 +18583,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q86">
         <v>5.66</v>
@@ -18649,10 +18661,10 @@
         <v>1.6</v>
       </c>
       <c r="AP86">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ86">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR86">
         <v>1.61</v>
@@ -18777,7 +18789,7 @@
         <v>137</v>
       </c>
       <c r="P87" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q87">
         <v>4.95</v>
@@ -18858,7 +18870,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ87">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR87">
         <v>2.06</v>
@@ -18983,7 +18995,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q88">
         <v>2.77</v>
@@ -19189,7 +19201,7 @@
         <v>138</v>
       </c>
       <c r="P89" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -19267,7 +19279,7 @@
         <v>1.88</v>
       </c>
       <c r="AP89">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ89">
         <v>1.45</v>
@@ -19395,7 +19407,7 @@
         <v>122</v>
       </c>
       <c r="P90" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q90">
         <v>11</v>
@@ -19476,7 +19488,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ90">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AR90">
         <v>1.96</v>
@@ -19601,7 +19613,7 @@
         <v>139</v>
       </c>
       <c r="P91" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q91">
         <v>1.83</v>
@@ -19807,7 +19819,7 @@
         <v>140</v>
       </c>
       <c r="P92" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -19885,7 +19897,7 @@
         <v>0.88</v>
       </c>
       <c r="AP92">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ92">
         <v>0.9</v>
@@ -20013,7 +20025,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q93">
         <v>2.3</v>
@@ -20300,7 +20312,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ94">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR94">
         <v>2.14</v>
@@ -20709,7 +20721,7 @@
         <v>1</v>
       </c>
       <c r="AP96">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ96">
         <v>0.91</v>
@@ -21043,7 +21055,7 @@
         <v>145</v>
       </c>
       <c r="P98" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -21124,7 +21136,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ98">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR98">
         <v>1.81</v>
@@ -21455,7 +21467,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -21533,10 +21545,10 @@
         <v>1.7</v>
       </c>
       <c r="AP100">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ100">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR100">
         <v>1.13</v>
@@ -21742,7 +21754,7 @@
         <v>1</v>
       </c>
       <c r="AQ101">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR101">
         <v>1.51</v>
@@ -22073,7 +22085,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q103">
         <v>1.91</v>
@@ -22769,7 +22781,7 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AQ106">
         <v>1.18</v>
@@ -22897,7 +22909,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q107">
         <v>1.06</v>
@@ -22993,19 +23005,19 @@
         <v>7</v>
       </c>
       <c r="AV107">
+        <v>4</v>
+      </c>
+      <c r="AW107">
+        <v>3</v>
+      </c>
+      <c r="AX107">
         <v>5</v>
       </c>
-      <c r="AW107">
-        <v>7</v>
-      </c>
-      <c r="AX107">
-        <v>7</v>
-      </c>
       <c r="AY107">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AZ107">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA107">
         <v>4</v>
@@ -23053,6 +23065,830 @@
         <v>0</v>
       </c>
       <c r="BP107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7325239</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45507.45833333334</v>
+      </c>
+      <c r="F108">
+        <v>22</v>
+      </c>
+      <c r="G108" t="s">
+        <v>73</v>
+      </c>
+      <c r="H108" t="s">
+        <v>76</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>2</v>
+      </c>
+      <c r="N108">
+        <v>2</v>
+      </c>
+      <c r="O108" t="s">
+        <v>81</v>
+      </c>
+      <c r="P108" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q108">
+        <v>4.33</v>
+      </c>
+      <c r="R108">
+        <v>2.75</v>
+      </c>
+      <c r="S108">
+        <v>1.95</v>
+      </c>
+      <c r="T108">
+        <v>1.2</v>
+      </c>
+      <c r="U108">
+        <v>4.1</v>
+      </c>
+      <c r="V108">
+        <v>2</v>
+      </c>
+      <c r="W108">
+        <v>1.75</v>
+      </c>
+      <c r="X108">
+        <v>4.1</v>
+      </c>
+      <c r="Y108">
+        <v>1.2</v>
+      </c>
+      <c r="Z108">
+        <v>4.85</v>
+      </c>
+      <c r="AA108">
+        <v>4.1</v>
+      </c>
+      <c r="AB108">
+        <v>1.46</v>
+      </c>
+      <c r="AC108">
+        <v>1.01</v>
+      </c>
+      <c r="AD108">
+        <v>29</v>
+      </c>
+      <c r="AE108">
+        <v>1.1</v>
+      </c>
+      <c r="AF108">
+        <v>5.75</v>
+      </c>
+      <c r="AG108">
+        <v>1.44</v>
+      </c>
+      <c r="AH108">
+        <v>2.26</v>
+      </c>
+      <c r="AI108">
+        <v>1.44</v>
+      </c>
+      <c r="AJ108">
+        <v>2.51</v>
+      </c>
+      <c r="AK108">
+        <v>2.55</v>
+      </c>
+      <c r="AL108">
+        <v>1.15</v>
+      </c>
+      <c r="AM108">
+        <v>1.14</v>
+      </c>
+      <c r="AN108">
+        <v>1</v>
+      </c>
+      <c r="AO108">
+        <v>1.82</v>
+      </c>
+      <c r="AP108">
+        <v>0.92</v>
+      </c>
+      <c r="AQ108">
+        <v>1.92</v>
+      </c>
+      <c r="AR108">
+        <v>1.62</v>
+      </c>
+      <c r="AS108">
+        <v>1.87</v>
+      </c>
+      <c r="AT108">
+        <v>3.49</v>
+      </c>
+      <c r="AU108">
+        <v>5</v>
+      </c>
+      <c r="AV108">
+        <v>5</v>
+      </c>
+      <c r="AW108">
+        <v>8</v>
+      </c>
+      <c r="AX108">
+        <v>3</v>
+      </c>
+      <c r="AY108">
+        <v>13</v>
+      </c>
+      <c r="AZ108">
+        <v>8</v>
+      </c>
+      <c r="BA108">
+        <v>9</v>
+      </c>
+      <c r="BB108">
+        <v>7</v>
+      </c>
+      <c r="BC108">
+        <v>16</v>
+      </c>
+      <c r="BD108">
+        <v>0</v>
+      </c>
+      <c r="BE108">
+        <v>0</v>
+      </c>
+      <c r="BF108">
+        <v>0</v>
+      </c>
+      <c r="BG108">
+        <v>0</v>
+      </c>
+      <c r="BH108">
+        <v>0</v>
+      </c>
+      <c r="BI108">
+        <v>0</v>
+      </c>
+      <c r="BJ108">
+        <v>0</v>
+      </c>
+      <c r="BK108">
+        <v>0</v>
+      </c>
+      <c r="BL108">
+        <v>0</v>
+      </c>
+      <c r="BM108">
+        <v>0</v>
+      </c>
+      <c r="BN108">
+        <v>0</v>
+      </c>
+      <c r="BO108">
+        <v>0</v>
+      </c>
+      <c r="BP108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7325241</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45507.54166666666</v>
+      </c>
+      <c r="F109">
+        <v>22</v>
+      </c>
+      <c r="G109" t="s">
+        <v>70</v>
+      </c>
+      <c r="H109" t="s">
+        <v>78</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>3</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109">
+        <v>4</v>
+      </c>
+      <c r="O109" t="s">
+        <v>151</v>
+      </c>
+      <c r="P109" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q109">
+        <v>2.2</v>
+      </c>
+      <c r="R109">
+        <v>2.6</v>
+      </c>
+      <c r="S109">
+        <v>3.75</v>
+      </c>
+      <c r="T109">
+        <v>1.24</v>
+      </c>
+      <c r="U109">
+        <v>3.8</v>
+      </c>
+      <c r="V109">
+        <v>2.13</v>
+      </c>
+      <c r="W109">
+        <v>1.67</v>
+      </c>
+      <c r="X109">
+        <v>4.6</v>
+      </c>
+      <c r="Y109">
+        <v>1.17</v>
+      </c>
+      <c r="Z109">
+        <v>1.67</v>
+      </c>
+      <c r="AA109">
+        <v>3.8</v>
+      </c>
+      <c r="AB109">
+        <v>4.4</v>
+      </c>
+      <c r="AC109">
+        <v>1.01</v>
+      </c>
+      <c r="AD109">
+        <v>22</v>
+      </c>
+      <c r="AE109">
+        <v>1.11</v>
+      </c>
+      <c r="AF109">
+        <v>5.25</v>
+      </c>
+      <c r="AG109">
+        <v>1.61</v>
+      </c>
+      <c r="AH109">
+        <v>2.1</v>
+      </c>
+      <c r="AI109">
+        <v>1.46</v>
+      </c>
+      <c r="AJ109">
+        <v>2.45</v>
+      </c>
+      <c r="AK109">
+        <v>1.16</v>
+      </c>
+      <c r="AL109">
+        <v>1.19</v>
+      </c>
+      <c r="AM109">
+        <v>1.95</v>
+      </c>
+      <c r="AN109">
+        <v>2</v>
+      </c>
+      <c r="AO109">
+        <v>1.1</v>
+      </c>
+      <c r="AP109">
+        <v>2.09</v>
+      </c>
+      <c r="AQ109">
+        <v>1</v>
+      </c>
+      <c r="AR109">
+        <v>1.91</v>
+      </c>
+      <c r="AS109">
+        <v>1.75</v>
+      </c>
+      <c r="AT109">
+        <v>3.66</v>
+      </c>
+      <c r="AU109">
+        <v>4</v>
+      </c>
+      <c r="AV109">
+        <v>7</v>
+      </c>
+      <c r="AW109">
+        <v>3</v>
+      </c>
+      <c r="AX109">
+        <v>4</v>
+      </c>
+      <c r="AY109">
+        <v>7</v>
+      </c>
+      <c r="AZ109">
+        <v>11</v>
+      </c>
+      <c r="BA109">
+        <v>9</v>
+      </c>
+      <c r="BB109">
+        <v>5</v>
+      </c>
+      <c r="BC109">
+        <v>14</v>
+      </c>
+      <c r="BD109">
+        <v>0</v>
+      </c>
+      <c r="BE109">
+        <v>0</v>
+      </c>
+      <c r="BF109">
+        <v>0</v>
+      </c>
+      <c r="BG109">
+        <v>0</v>
+      </c>
+      <c r="BH109">
+        <v>0</v>
+      </c>
+      <c r="BI109">
+        <v>0</v>
+      </c>
+      <c r="BJ109">
+        <v>0</v>
+      </c>
+      <c r="BK109">
+        <v>0</v>
+      </c>
+      <c r="BL109">
+        <v>0</v>
+      </c>
+      <c r="BM109">
+        <v>0</v>
+      </c>
+      <c r="BN109">
+        <v>0</v>
+      </c>
+      <c r="BO109">
+        <v>0</v>
+      </c>
+      <c r="BP109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7325240</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45508.45833333334</v>
+      </c>
+      <c r="F110">
+        <v>22</v>
+      </c>
+      <c r="G110" t="s">
+        <v>71</v>
+      </c>
+      <c r="H110" t="s">
+        <v>77</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>2</v>
+      </c>
+      <c r="K110">
+        <v>2</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>2</v>
+      </c>
+      <c r="N110">
+        <v>2</v>
+      </c>
+      <c r="O110" t="s">
+        <v>81</v>
+      </c>
+      <c r="P110" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q110">
+        <v>4</v>
+      </c>
+      <c r="R110">
+        <v>2.5</v>
+      </c>
+      <c r="S110">
+        <v>2.2</v>
+      </c>
+      <c r="T110">
+        <v>1.27</v>
+      </c>
+      <c r="U110">
+        <v>3.54</v>
+      </c>
+      <c r="V110">
+        <v>2.29</v>
+      </c>
+      <c r="W110">
+        <v>1.58</v>
+      </c>
+      <c r="X110">
+        <v>5.15</v>
+      </c>
+      <c r="Y110">
+        <v>1.14</v>
+      </c>
+      <c r="Z110">
+        <v>4.98</v>
+      </c>
+      <c r="AA110">
+        <v>4.37</v>
+      </c>
+      <c r="AB110">
+        <v>1.49</v>
+      </c>
+      <c r="AC110">
+        <v>1.02</v>
+      </c>
+      <c r="AD110">
+        <v>10</v>
+      </c>
+      <c r="AE110">
+        <v>1.14</v>
+      </c>
+      <c r="AF110">
+        <v>4.6</v>
+      </c>
+      <c r="AG110">
+        <v>1.65</v>
+      </c>
+      <c r="AH110">
+        <v>2.1</v>
+      </c>
+      <c r="AI110">
+        <v>1.53</v>
+      </c>
+      <c r="AJ110">
+        <v>2.28</v>
+      </c>
+      <c r="AK110">
+        <v>1.88</v>
+      </c>
+      <c r="AL110">
+        <v>1.19</v>
+      </c>
+      <c r="AM110">
+        <v>1.22</v>
+      </c>
+      <c r="AN110">
+        <v>1.09</v>
+      </c>
+      <c r="AO110">
+        <v>1.73</v>
+      </c>
+      <c r="AP110">
+        <v>1</v>
+      </c>
+      <c r="AQ110">
+        <v>1.83</v>
+      </c>
+      <c r="AR110">
+        <v>1.47</v>
+      </c>
+      <c r="AS110">
+        <v>1.9</v>
+      </c>
+      <c r="AT110">
+        <v>3.37</v>
+      </c>
+      <c r="AU110">
+        <v>5</v>
+      </c>
+      <c r="AV110">
+        <v>5</v>
+      </c>
+      <c r="AW110">
+        <v>4</v>
+      </c>
+      <c r="AX110">
+        <v>2</v>
+      </c>
+      <c r="AY110">
+        <v>9</v>
+      </c>
+      <c r="AZ110">
+        <v>7</v>
+      </c>
+      <c r="BA110">
+        <v>8</v>
+      </c>
+      <c r="BB110">
+        <v>4</v>
+      </c>
+      <c r="BC110">
+        <v>12</v>
+      </c>
+      <c r="BD110">
+        <v>0</v>
+      </c>
+      <c r="BE110">
+        <v>0</v>
+      </c>
+      <c r="BF110">
+        <v>0</v>
+      </c>
+      <c r="BG110">
+        <v>0</v>
+      </c>
+      <c r="BH110">
+        <v>0</v>
+      </c>
+      <c r="BI110">
+        <v>0</v>
+      </c>
+      <c r="BJ110">
+        <v>0</v>
+      </c>
+      <c r="BK110">
+        <v>0</v>
+      </c>
+      <c r="BL110">
+        <v>0</v>
+      </c>
+      <c r="BM110">
+        <v>0</v>
+      </c>
+      <c r="BN110">
+        <v>0</v>
+      </c>
+      <c r="BO110">
+        <v>0</v>
+      </c>
+      <c r="BP110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7325242</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45508.54166666666</v>
+      </c>
+      <c r="F111">
+        <v>22</v>
+      </c>
+      <c r="G111" t="s">
+        <v>79</v>
+      </c>
+      <c r="H111" t="s">
+        <v>72</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="O111" t="s">
+        <v>81</v>
+      </c>
+      <c r="P111" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q111">
+        <v>10</v>
+      </c>
+      <c r="R111">
+        <v>2.88</v>
+      </c>
+      <c r="S111">
+        <v>1.5</v>
+      </c>
+      <c r="T111">
+        <v>1.2</v>
+      </c>
+      <c r="U111">
+        <v>4</v>
+      </c>
+      <c r="V111">
+        <v>2.1</v>
+      </c>
+      <c r="W111">
+        <v>1.67</v>
+      </c>
+      <c r="X111">
+        <v>4.5</v>
+      </c>
+      <c r="Y111">
+        <v>1.17</v>
+      </c>
+      <c r="Z111">
+        <v>19.86</v>
+      </c>
+      <c r="AA111">
+        <v>10.26</v>
+      </c>
+      <c r="AB111">
+        <v>1.09</v>
+      </c>
+      <c r="AC111">
+        <v>1.01</v>
+      </c>
+      <c r="AD111">
+        <v>23</v>
+      </c>
+      <c r="AE111">
+        <v>1.11</v>
+      </c>
+      <c r="AF111">
+        <v>6</v>
+      </c>
+      <c r="AG111">
+        <v>1.37</v>
+      </c>
+      <c r="AH111">
+        <v>2.85</v>
+      </c>
+      <c r="AI111">
+        <v>2.1</v>
+      </c>
+      <c r="AJ111">
+        <v>1.7</v>
+      </c>
+      <c r="AK111">
+        <v>5.5</v>
+      </c>
+      <c r="AL111">
+        <v>1.05</v>
+      </c>
+      <c r="AM111">
+        <v>1.01</v>
+      </c>
+      <c r="AN111">
+        <v>0.9</v>
+      </c>
+      <c r="AO111">
+        <v>2.7</v>
+      </c>
+      <c r="AP111">
+        <v>0.82</v>
+      </c>
+      <c r="AQ111">
+        <v>2.73</v>
+      </c>
+      <c r="AR111">
+        <v>1.13</v>
+      </c>
+      <c r="AS111">
+        <v>2.42</v>
+      </c>
+      <c r="AT111">
+        <v>3.55</v>
+      </c>
+      <c r="AU111">
+        <v>3</v>
+      </c>
+      <c r="AV111">
+        <v>9</v>
+      </c>
+      <c r="AW111">
+        <v>1</v>
+      </c>
+      <c r="AX111">
+        <v>7</v>
+      </c>
+      <c r="AY111">
+        <v>4</v>
+      </c>
+      <c r="AZ111">
+        <v>16</v>
+      </c>
+      <c r="BA111">
+        <v>1</v>
+      </c>
+      <c r="BB111">
+        <v>11</v>
+      </c>
+      <c r="BC111">
+        <v>12</v>
+      </c>
+      <c r="BD111">
+        <v>0</v>
+      </c>
+      <c r="BE111">
+        <v>0</v>
+      </c>
+      <c r="BF111">
+        <v>0</v>
+      </c>
+      <c r="BG111">
+        <v>0</v>
+      </c>
+      <c r="BH111">
+        <v>0</v>
+      </c>
+      <c r="BI111">
+        <v>0</v>
+      </c>
+      <c r="BJ111">
+        <v>0</v>
+      </c>
+      <c r="BK111">
+        <v>0</v>
+      </c>
+      <c r="BL111">
+        <v>0</v>
+      </c>
+      <c r="BM111">
+        <v>0</v>
+      </c>
+      <c r="BN111">
+        <v>0</v>
+      </c>
+      <c r="BO111">
+        <v>0</v>
+      </c>
+      <c r="BP111">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -23005,19 +23005,19 @@
         <v>7</v>
       </c>
       <c r="AV107">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW107">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AX107">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY107">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ107">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA107">
         <v>4</v>
@@ -23211,19 +23211,19 @@
         <v>5</v>
       </c>
       <c r="AV108">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW108">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AX108">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY108">
+        <v>16</v>
+      </c>
+      <c r="AZ108">
         <v>13</v>
-      </c>
-      <c r="AZ108">
-        <v>8</v>
       </c>
       <c r="BA108">
         <v>9</v>
@@ -23414,22 +23414,22 @@
         <v>3.66</v>
       </c>
       <c r="AU109">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AV109">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW109">
         <v>3</v>
       </c>
       <c r="AX109">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AY109">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ109">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA109">
         <v>9</v>
@@ -23623,19 +23623,19 @@
         <v>5</v>
       </c>
       <c r="AV110">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW110">
+        <v>7</v>
+      </c>
+      <c r="AX110">
         <v>4</v>
       </c>
-      <c r="AX110">
-        <v>2</v>
-      </c>
       <c r="AY110">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ110">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA110">
         <v>8</v>
@@ -23829,28 +23829,28 @@
         <v>3</v>
       </c>
       <c r="AV111">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW111">
         <v>1</v>
       </c>
       <c r="AX111">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AY111">
         <v>4</v>
       </c>
       <c r="AZ111">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BA111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB111">
         <v>11</v>
       </c>
       <c r="BC111">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD111">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="216">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -660,6 +660,9 @@
   <si>
     <t>['21', '35']</t>
   </si>
+  <si>
+    <t>['69', '82', '85']</t>
+  </si>
 </sst>
 </file>
 
@@ -1020,7 +1023,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP111"/>
+  <dimension ref="A1:BP112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1975,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ5">
         <v>0.91</v>
@@ -3417,7 +3420,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ12">
         <v>2.73</v>
@@ -4038,7 +4041,7 @@
         <v>1</v>
       </c>
       <c r="AQ15">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR15">
         <v>0.5</v>
@@ -5892,7 +5895,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ24">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR24">
         <v>2.63</v>
@@ -6301,7 +6304,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ26">
         <v>1.18</v>
@@ -6510,7 +6513,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ27">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR27">
         <v>2.19</v>
@@ -7537,7 +7540,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ32">
         <v>2.73</v>
@@ -9185,7 +9188,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ40">
         <v>1.92</v>
@@ -10215,7 +10218,7 @@
         <v>1.25</v>
       </c>
       <c r="AP45">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ45">
         <v>1.45</v>
@@ -10630,7 +10633,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ47">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR47">
         <v>1.09</v>
@@ -12069,7 +12072,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ54">
         <v>1</v>
@@ -12896,7 +12899,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ58">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR58">
         <v>1.96</v>
@@ -13099,7 +13102,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ59">
         <v>0.18</v>
@@ -13514,7 +13517,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ61">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR61">
         <v>1.78</v>
@@ -15159,7 +15162,7 @@
         <v>1.83</v>
       </c>
       <c r="AP69">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ69">
         <v>1.45</v>
@@ -15986,7 +15989,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ73">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR73">
         <v>2.41</v>
@@ -16601,7 +16604,7 @@
         <v>1.44</v>
       </c>
       <c r="AP76">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ76">
         <v>1.83</v>
@@ -18252,7 +18255,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ84">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR84">
         <v>1.8</v>
@@ -19897,10 +19900,10 @@
         <v>0.88</v>
       </c>
       <c r="AP92">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ92">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR92">
         <v>1.58</v>
@@ -21960,7 +21963,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ102">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR102">
         <v>2.37</v>
@@ -23193,7 +23196,7 @@
         <v>1.82</v>
       </c>
       <c r="AP108">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ108">
         <v>1.92</v>
@@ -23889,6 +23892,212 @@
         <v>0</v>
       </c>
       <c r="BP111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7325243</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45513.5625</v>
+      </c>
+      <c r="F112">
+        <v>23</v>
+      </c>
+      <c r="G112" t="s">
+        <v>73</v>
+      </c>
+      <c r="H112" t="s">
+        <v>71</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>3</v>
+      </c>
+      <c r="N112">
+        <v>3</v>
+      </c>
+      <c r="O112" t="s">
+        <v>81</v>
+      </c>
+      <c r="P112" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q112">
+        <v>2.88</v>
+      </c>
+      <c r="R112">
+        <v>2.25</v>
+      </c>
+      <c r="S112">
+        <v>3.1</v>
+      </c>
+      <c r="T112">
+        <v>1.32</v>
+      </c>
+      <c r="U112">
+        <v>3.2</v>
+      </c>
+      <c r="V112">
+        <v>2.51</v>
+      </c>
+      <c r="W112">
+        <v>1.49</v>
+      </c>
+      <c r="X112">
+        <v>5.95</v>
+      </c>
+      <c r="Y112">
+        <v>1.11</v>
+      </c>
+      <c r="Z112">
+        <v>2.18</v>
+      </c>
+      <c r="AA112">
+        <v>3.38</v>
+      </c>
+      <c r="AB112">
+        <v>2.91</v>
+      </c>
+      <c r="AC112">
+        <v>1.02</v>
+      </c>
+      <c r="AD112">
+        <v>10</v>
+      </c>
+      <c r="AE112">
+        <v>1.19</v>
+      </c>
+      <c r="AF112">
+        <v>3.92</v>
+      </c>
+      <c r="AG112">
+        <v>1.61</v>
+      </c>
+      <c r="AH112">
+        <v>2.1</v>
+      </c>
+      <c r="AI112">
+        <v>1.56</v>
+      </c>
+      <c r="AJ112">
+        <v>2.21</v>
+      </c>
+      <c r="AK112">
+        <v>1.41</v>
+      </c>
+      <c r="AL112">
+        <v>1.26</v>
+      </c>
+      <c r="AM112">
+        <v>1.53</v>
+      </c>
+      <c r="AN112">
+        <v>0.92</v>
+      </c>
+      <c r="AO112">
+        <v>0.9</v>
+      </c>
+      <c r="AP112">
+        <v>0.85</v>
+      </c>
+      <c r="AQ112">
+        <v>1.09</v>
+      </c>
+      <c r="AR112">
+        <v>1.62</v>
+      </c>
+      <c r="AS112">
+        <v>1.31</v>
+      </c>
+      <c r="AT112">
+        <v>2.93</v>
+      </c>
+      <c r="AU112">
+        <v>4</v>
+      </c>
+      <c r="AV112">
+        <v>8</v>
+      </c>
+      <c r="AW112">
+        <v>7</v>
+      </c>
+      <c r="AX112">
+        <v>7</v>
+      </c>
+      <c r="AY112">
+        <v>11</v>
+      </c>
+      <c r="AZ112">
+        <v>15</v>
+      </c>
+      <c r="BA112">
+        <v>7</v>
+      </c>
+      <c r="BB112">
+        <v>3</v>
+      </c>
+      <c r="BC112">
+        <v>10</v>
+      </c>
+      <c r="BD112">
+        <v>0</v>
+      </c>
+      <c r="BE112">
+        <v>0</v>
+      </c>
+      <c r="BF112">
+        <v>0</v>
+      </c>
+      <c r="BG112">
+        <v>0</v>
+      </c>
+      <c r="BH112">
+        <v>0</v>
+      </c>
+      <c r="BI112">
+        <v>0</v>
+      </c>
+      <c r="BJ112">
+        <v>0</v>
+      </c>
+      <c r="BK112">
+        <v>0</v>
+      </c>
+      <c r="BL112">
+        <v>0</v>
+      </c>
+      <c r="BM112">
+        <v>0</v>
+      </c>
+      <c r="BN112">
+        <v>0</v>
+      </c>
+      <c r="BO112">
+        <v>0</v>
+      </c>
+      <c r="BP112">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="218">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -472,6 +472,9 @@
     <t>['63', '66', '88']</t>
   </si>
   <si>
+    <t>['90']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -662,6 +665,9 @@
   </si>
   <si>
     <t>['69', '82', '85']</t>
+  </si>
+  <si>
+    <t>['23', '26', '54', '88']</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1029,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP112"/>
+  <dimension ref="A1:BP113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1488,7 +1494,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1900,7 +1906,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -2106,7 +2112,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2184,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ6">
         <v>1.83</v>
@@ -2518,7 +2524,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2599,7 +2605,7 @@
         <v>1</v>
       </c>
       <c r="AQ8">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AR8">
         <v>1.63</v>
@@ -2930,7 +2936,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -3136,7 +3142,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3342,7 +3348,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3423,7 +3429,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ12">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AR12">
         <v>1.76</v>
@@ -3548,7 +3554,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3754,7 +3760,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3960,7 +3966,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4038,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ15">
         <v>1.09</v>
@@ -4578,7 +4584,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4656,7 +4662,7 @@
         <v>2</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ18">
         <v>1.92</v>
@@ -5402,7 +5408,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5608,7 +5614,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5689,7 +5695,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ23">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AR23">
         <v>2.56</v>
@@ -5814,7 +5820,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -6020,7 +6026,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6432,7 +6438,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6638,7 +6644,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -7050,7 +7056,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7128,7 +7134,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ30">
         <v>1.45</v>
@@ -7256,7 +7262,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7462,7 +7468,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7543,7 +7549,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ32">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AR32">
         <v>1.47</v>
@@ -7668,7 +7674,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7874,7 +7880,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -8080,7 +8086,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8698,7 +8704,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8904,7 +8910,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -8982,7 +8988,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ39">
         <v>0.18</v>
@@ -9110,7 +9116,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9316,7 +9322,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9522,7 +9528,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9603,7 +9609,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ42">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AR42">
         <v>2.19</v>
@@ -9728,7 +9734,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -10140,7 +10146,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -11251,7 +11257,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ50">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AR50">
         <v>1.81</v>
@@ -11376,7 +11382,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -12200,7 +12206,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12406,7 +12412,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12612,7 +12618,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13230,7 +13236,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13308,10 +13314,10 @@
         <v>2.5</v>
       </c>
       <c r="AP60">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ60">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AR60">
         <v>1.27</v>
@@ -13642,7 +13648,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13848,7 +13854,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -14054,7 +14060,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14260,7 +14266,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14338,7 +14344,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ65">
         <v>0.91</v>
@@ -14466,7 +14472,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14672,7 +14678,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -14878,7 +14884,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -15084,7 +15090,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15290,7 +15296,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15371,7 +15377,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ70">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AR70">
         <v>2.27</v>
@@ -15496,7 +15502,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -16526,7 +16532,7 @@
         <v>131</v>
       </c>
       <c r="P76" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16938,7 +16944,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17016,7 +17022,7 @@
         <v>0.86</v>
       </c>
       <c r="AP78">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ78">
         <v>1</v>
@@ -17144,7 +17150,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q79">
         <v>1.53</v>
@@ -17350,7 +17356,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17556,7 +17562,7 @@
         <v>81</v>
       </c>
       <c r="P81" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q81">
         <v>1.6</v>
@@ -17968,7 +17974,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q83">
         <v>8.5</v>
@@ -18049,7 +18055,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ83">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AR83">
         <v>1.25</v>
@@ -18174,7 +18180,7 @@
         <v>81</v>
       </c>
       <c r="P84" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18586,7 +18592,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q86">
         <v>5.66</v>
@@ -18792,7 +18798,7 @@
         <v>137</v>
       </c>
       <c r="P87" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q87">
         <v>4.95</v>
@@ -18998,7 +19004,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q88">
         <v>2.77</v>
@@ -19076,7 +19082,7 @@
         <v>0.75</v>
       </c>
       <c r="AP88">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ88">
         <v>0.9</v>
@@ -19204,7 +19210,7 @@
         <v>138</v>
       </c>
       <c r="P89" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -19410,7 +19416,7 @@
         <v>122</v>
       </c>
       <c r="P90" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q90">
         <v>11</v>
@@ -19491,7 +19497,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ90">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AR90">
         <v>1.96</v>
@@ -19616,7 +19622,7 @@
         <v>139</v>
       </c>
       <c r="P91" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q91">
         <v>1.83</v>
@@ -19822,7 +19828,7 @@
         <v>140</v>
       </c>
       <c r="P92" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20028,7 +20034,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q93">
         <v>2.3</v>
@@ -20930,7 +20936,7 @@
         <v>0.22</v>
       </c>
       <c r="AP97">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ97">
         <v>0.18</v>
@@ -21058,7 +21064,7 @@
         <v>145</v>
       </c>
       <c r="P98" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -21470,7 +21476,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -21754,7 +21760,7 @@
         <v>1.11</v>
       </c>
       <c r="AP101">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ101">
         <v>1</v>
@@ -22088,7 +22094,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q103">
         <v>1.91</v>
@@ -22912,7 +22918,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q107">
         <v>1.06</v>
@@ -23118,7 +23124,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23324,7 +23330,7 @@
         <v>151</v>
       </c>
       <c r="P109" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q109">
         <v>2.2</v>
@@ -23530,7 +23536,7 @@
         <v>81</v>
       </c>
       <c r="P110" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23817,7 +23823,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ111">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AR111">
         <v>1.13</v>
@@ -23942,7 +23948,7 @@
         <v>81</v>
       </c>
       <c r="P112" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24098,6 +24104,212 @@
         <v>0</v>
       </c>
       <c r="BP112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7325245</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45514.54166666666</v>
+      </c>
+      <c r="F113">
+        <v>23</v>
+      </c>
+      <c r="G113" t="s">
+        <v>74</v>
+      </c>
+      <c r="H113" t="s">
+        <v>72</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>2</v>
+      </c>
+      <c r="K113">
+        <v>2</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>4</v>
+      </c>
+      <c r="N113">
+        <v>5</v>
+      </c>
+      <c r="O113" t="s">
+        <v>152</v>
+      </c>
+      <c r="P113" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q113">
+        <v>8</v>
+      </c>
+      <c r="R113">
+        <v>2.4</v>
+      </c>
+      <c r="S113">
+        <v>1.73</v>
+      </c>
+      <c r="T113">
+        <v>1.32</v>
+      </c>
+      <c r="U113">
+        <v>3.2</v>
+      </c>
+      <c r="V113">
+        <v>2.54</v>
+      </c>
+      <c r="W113">
+        <v>1.48</v>
+      </c>
+      <c r="X113">
+        <v>6</v>
+      </c>
+      <c r="Y113">
+        <v>1.11</v>
+      </c>
+      <c r="Z113">
+        <v>9</v>
+      </c>
+      <c r="AA113">
+        <v>4.75</v>
+      </c>
+      <c r="AB113">
+        <v>1.29</v>
+      </c>
+      <c r="AC113">
+        <v>1.02</v>
+      </c>
+      <c r="AD113">
+        <v>10</v>
+      </c>
+      <c r="AE113">
+        <v>1.2</v>
+      </c>
+      <c r="AF113">
+        <v>3.86</v>
+      </c>
+      <c r="AG113">
+        <v>1.65</v>
+      </c>
+      <c r="AH113">
+        <v>2.1</v>
+      </c>
+      <c r="AI113">
+        <v>2.19</v>
+      </c>
+      <c r="AJ113">
+        <v>1.64</v>
+      </c>
+      <c r="AK113">
+        <v>3.52</v>
+      </c>
+      <c r="AL113">
+        <v>1.12</v>
+      </c>
+      <c r="AM113">
+        <v>1.01</v>
+      </c>
+      <c r="AN113">
+        <v>1</v>
+      </c>
+      <c r="AO113">
+        <v>2.73</v>
+      </c>
+      <c r="AP113">
+        <v>0.92</v>
+      </c>
+      <c r="AQ113">
+        <v>2.75</v>
+      </c>
+      <c r="AR113">
+        <v>1.62</v>
+      </c>
+      <c r="AS113">
+        <v>2.42</v>
+      </c>
+      <c r="AT113">
+        <v>4.04</v>
+      </c>
+      <c r="AU113">
+        <v>2</v>
+      </c>
+      <c r="AV113">
+        <v>5</v>
+      </c>
+      <c r="AW113">
+        <v>2</v>
+      </c>
+      <c r="AX113">
+        <v>13</v>
+      </c>
+      <c r="AY113">
+        <v>4</v>
+      </c>
+      <c r="AZ113">
+        <v>18</v>
+      </c>
+      <c r="BA113">
+        <v>0</v>
+      </c>
+      <c r="BB113">
+        <v>17</v>
+      </c>
+      <c r="BC113">
+        <v>17</v>
+      </c>
+      <c r="BD113">
+        <v>0</v>
+      </c>
+      <c r="BE113">
+        <v>0</v>
+      </c>
+      <c r="BF113">
+        <v>0</v>
+      </c>
+      <c r="BG113">
+        <v>0</v>
+      </c>
+      <c r="BH113">
+        <v>0</v>
+      </c>
+      <c r="BI113">
+        <v>0</v>
+      </c>
+      <c r="BJ113">
+        <v>0</v>
+      </c>
+      <c r="BK113">
+        <v>0</v>
+      </c>
+      <c r="BL113">
+        <v>0</v>
+      </c>
+      <c r="BM113">
+        <v>0</v>
+      </c>
+      <c r="BN113">
+        <v>0</v>
+      </c>
+      <c r="BO113">
+        <v>0</v>
+      </c>
+      <c r="BP113">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="220">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -475,6 +475,9 @@
     <t>['90']</t>
   </si>
   <si>
+    <t>['72']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -668,6 +671,9 @@
   </si>
   <si>
     <t>['23', '26', '54', '88']</t>
+  </si>
+  <si>
+    <t>['39']</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1035,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP113"/>
+  <dimension ref="A1:BP114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1369,7 +1375,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ2">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1494,7 +1500,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1906,7 +1912,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -2112,7 +2118,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2396,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ7">
         <v>1.18</v>
@@ -2524,7 +2530,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2936,7 +2942,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -3017,7 +3023,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ10">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3142,7 +3148,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3348,7 +3354,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3554,7 +3560,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3760,7 +3766,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3966,7 +3972,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4584,7 +4590,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4871,7 +4877,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ19">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AR19">
         <v>1.58</v>
@@ -5074,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ20">
         <v>1.45</v>
@@ -5408,7 +5414,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5614,7 +5620,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5820,7 +5826,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -6026,7 +6032,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6438,7 +6444,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6516,7 +6522,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ27">
         <v>1.09</v>
@@ -6644,7 +6650,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6931,7 +6937,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ29">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AR29">
         <v>2.32</v>
@@ -7056,7 +7062,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7262,7 +7268,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7468,7 +7474,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7674,7 +7680,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7880,7 +7886,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -8086,7 +8092,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8704,7 +8710,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8910,7 +8916,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -8991,7 +8997,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ39">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AR39">
         <v>1.08</v>
@@ -9116,7 +9122,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9322,7 +9328,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9528,7 +9534,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9606,7 +9612,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ42">
         <v>2.75</v>
@@ -9734,7 +9740,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -10146,7 +10152,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -11382,7 +11388,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -12206,7 +12212,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12412,7 +12418,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12490,7 +12496,7 @@
         <v>1.43</v>
       </c>
       <c r="AP56">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ56">
         <v>1.83</v>
@@ -12618,7 +12624,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13111,7 +13117,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ59">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AR59">
         <v>1.41</v>
@@ -13236,7 +13242,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13648,7 +13654,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13854,7 +13860,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -14060,7 +14066,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14266,7 +14272,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14472,7 +14478,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14550,7 +14556,7 @@
         <v>0.5</v>
       </c>
       <c r="AP66">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ66">
         <v>1</v>
@@ -14678,7 +14684,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -14884,7 +14890,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -14965,7 +14971,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ68">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AR68">
         <v>2.01</v>
@@ -15090,7 +15096,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15296,7 +15302,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15502,7 +15508,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -16404,7 +16410,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ75">
         <v>0.9</v>
@@ -16532,7 +16538,7 @@
         <v>131</v>
       </c>
       <c r="P76" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16944,7 +16950,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17150,7 +17156,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q79">
         <v>1.53</v>
@@ -17356,7 +17362,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17437,7 +17443,7 @@
         <v>1</v>
       </c>
       <c r="AQ80">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AR80">
         <v>1.48</v>
@@ -17562,7 +17568,7 @@
         <v>81</v>
       </c>
       <c r="P81" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q81">
         <v>1.6</v>
@@ -17974,7 +17980,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q83">
         <v>8.5</v>
@@ -18180,7 +18186,7 @@
         <v>81</v>
       </c>
       <c r="P84" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18592,7 +18598,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q86">
         <v>5.66</v>
@@ -18798,7 +18804,7 @@
         <v>137</v>
       </c>
       <c r="P87" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q87">
         <v>4.95</v>
@@ -18876,7 +18882,7 @@
         <v>1.88</v>
       </c>
       <c r="AP87">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ87">
         <v>1.92</v>
@@ -19004,7 +19010,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q88">
         <v>2.77</v>
@@ -19210,7 +19216,7 @@
         <v>138</v>
       </c>
       <c r="P89" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -19416,7 +19422,7 @@
         <v>122</v>
       </c>
       <c r="P90" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q90">
         <v>11</v>
@@ -19622,7 +19628,7 @@
         <v>139</v>
       </c>
       <c r="P91" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q91">
         <v>1.83</v>
@@ -19828,7 +19834,7 @@
         <v>140</v>
       </c>
       <c r="P92" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20034,7 +20040,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q93">
         <v>2.3</v>
@@ -20112,10 +20118,10 @@
         <v>0.25</v>
       </c>
       <c r="AP93">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ93">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AR93">
         <v>2.08</v>
@@ -20939,7 +20945,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ97">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AR97">
         <v>1.43</v>
@@ -21064,7 +21070,7 @@
         <v>145</v>
       </c>
       <c r="P98" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -21348,7 +21354,7 @@
         <v>1.6</v>
       </c>
       <c r="AP99">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ99">
         <v>1.45</v>
@@ -21476,7 +21482,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -22094,7 +22100,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q103">
         <v>1.91</v>
@@ -22381,7 +22387,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ104">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AR104">
         <v>1.75</v>
@@ -22918,7 +22924,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q107">
         <v>1.06</v>
@@ -22996,7 +23002,7 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ107">
         <v>1.18</v>
@@ -23124,7 +23130,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23330,7 +23336,7 @@
         <v>151</v>
       </c>
       <c r="P109" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q109">
         <v>2.2</v>
@@ -23536,7 +23542,7 @@
         <v>81</v>
       </c>
       <c r="P110" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23948,7 +23954,7 @@
         <v>81</v>
       </c>
       <c r="P112" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24154,7 +24160,7 @@
         <v>152</v>
       </c>
       <c r="P113" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -24310,6 +24316,212 @@
         <v>0</v>
       </c>
       <c r="BP113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7325246</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45515.45833333334</v>
+      </c>
+      <c r="F114">
+        <v>23</v>
+      </c>
+      <c r="G114" t="s">
+        <v>75</v>
+      </c>
+      <c r="H114" t="s">
+        <v>79</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114">
+        <v>2</v>
+      </c>
+      <c r="O114" t="s">
+        <v>153</v>
+      </c>
+      <c r="P114" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q114">
+        <v>2.1</v>
+      </c>
+      <c r="R114">
+        <v>2.3</v>
+      </c>
+      <c r="S114">
+        <v>4.75</v>
+      </c>
+      <c r="T114">
+        <v>1.33</v>
+      </c>
+      <c r="U114">
+        <v>3.14</v>
+      </c>
+      <c r="V114">
+        <v>2.54</v>
+      </c>
+      <c r="W114">
+        <v>1.48</v>
+      </c>
+      <c r="X114">
+        <v>6.1</v>
+      </c>
+      <c r="Y114">
+        <v>1.1</v>
+      </c>
+      <c r="Z114">
+        <v>1.59</v>
+      </c>
+      <c r="AA114">
+        <v>3.9</v>
+      </c>
+      <c r="AB114">
+        <v>4.6</v>
+      </c>
+      <c r="AC114">
+        <v>1.02</v>
+      </c>
+      <c r="AD114">
+        <v>11</v>
+      </c>
+      <c r="AE114">
+        <v>1.21</v>
+      </c>
+      <c r="AF114">
+        <v>3.74</v>
+      </c>
+      <c r="AG114">
+        <v>1.63</v>
+      </c>
+      <c r="AH114">
+        <v>1.92</v>
+      </c>
+      <c r="AI114">
+        <v>1.72</v>
+      </c>
+      <c r="AJ114">
+        <v>1.95</v>
+      </c>
+      <c r="AK114">
+        <v>1.14</v>
+      </c>
+      <c r="AL114">
+        <v>1.21</v>
+      </c>
+      <c r="AM114">
+        <v>2.16</v>
+      </c>
+      <c r="AN114">
+        <v>1.27</v>
+      </c>
+      <c r="AO114">
+        <v>0.18</v>
+      </c>
+      <c r="AP114">
+        <v>1.25</v>
+      </c>
+      <c r="AQ114">
+        <v>0.25</v>
+      </c>
+      <c r="AR114">
+        <v>2.08</v>
+      </c>
+      <c r="AS114">
+        <v>1.08</v>
+      </c>
+      <c r="AT114">
+        <v>3.16</v>
+      </c>
+      <c r="AU114">
+        <v>6</v>
+      </c>
+      <c r="AV114">
+        <v>3</v>
+      </c>
+      <c r="AW114">
+        <v>9</v>
+      </c>
+      <c r="AX114">
+        <v>7</v>
+      </c>
+      <c r="AY114">
+        <v>15</v>
+      </c>
+      <c r="AZ114">
+        <v>10</v>
+      </c>
+      <c r="BA114">
+        <v>4</v>
+      </c>
+      <c r="BB114">
+        <v>4</v>
+      </c>
+      <c r="BC114">
+        <v>8</v>
+      </c>
+      <c r="BD114">
+        <v>0</v>
+      </c>
+      <c r="BE114">
+        <v>0</v>
+      </c>
+      <c r="BF114">
+        <v>0</v>
+      </c>
+      <c r="BG114">
+        <v>0</v>
+      </c>
+      <c r="BH114">
+        <v>0</v>
+      </c>
+      <c r="BI114">
+        <v>0</v>
+      </c>
+      <c r="BJ114">
+        <v>0</v>
+      </c>
+      <c r="BK114">
+        <v>0</v>
+      </c>
+      <c r="BL114">
+        <v>0</v>
+      </c>
+      <c r="BM114">
+        <v>0</v>
+      </c>
+      <c r="BN114">
+        <v>0</v>
+      </c>
+      <c r="BO114">
+        <v>0</v>
+      </c>
+      <c r="BP114">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="221">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -476,6 +476,9 @@
   </si>
   <si>
     <t>['72']</t>
+  </si>
+  <si>
+    <t>['35', '51', '90+3']</t>
   </si>
   <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
@@ -1035,7 +1038,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP114"/>
+  <dimension ref="A1:BP115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1500,7 +1503,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1784,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -1912,7 +1915,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -1993,7 +1996,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ5">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2118,7 +2121,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2530,7 +2533,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2942,7 +2945,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -3148,7 +3151,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3354,7 +3357,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3560,7 +3563,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3766,7 +3769,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3847,7 +3850,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ14">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3972,7 +3975,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4590,7 +4593,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -5286,7 +5289,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ21">
         <v>1.83</v>
@@ -5414,7 +5417,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5495,7 +5498,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ22">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR22">
         <v>0.74</v>
@@ -5620,7 +5623,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5826,7 +5829,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -6032,7 +6035,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6444,7 +6447,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6650,7 +6653,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6934,7 +6937,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ29">
         <v>0.25</v>
@@ -7062,7 +7065,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7268,7 +7271,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7474,7 +7477,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7680,7 +7683,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7886,7 +7889,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -8092,7 +8095,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8173,7 +8176,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ35">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR35">
         <v>2.56</v>
@@ -8376,7 +8379,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ36">
         <v>1.18</v>
@@ -8710,7 +8713,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8916,7 +8919,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -9122,7 +9125,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9328,7 +9331,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9534,7 +9537,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9740,7 +9743,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -10024,7 +10027,7 @@
         <v>1.4</v>
       </c>
       <c r="AP44">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ44">
         <v>1.83</v>
@@ -10152,7 +10155,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10439,7 +10442,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ46">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR46">
         <v>1.97</v>
@@ -11388,7 +11391,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -11675,7 +11678,7 @@
         <v>1</v>
       </c>
       <c r="AQ52">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR52">
         <v>1.6</v>
@@ -11878,7 +11881,7 @@
         <v>2.2</v>
       </c>
       <c r="AP53">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ53">
         <v>1.92</v>
@@ -12212,7 +12215,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12418,7 +12421,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12624,7 +12627,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13242,7 +13245,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13654,7 +13657,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13860,7 +13863,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -13938,7 +13941,7 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ63">
         <v>0.9</v>
@@ -14066,7 +14069,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14272,7 +14275,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14353,7 +14356,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ65">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR65">
         <v>1.14</v>
@@ -14478,7 +14481,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14684,7 +14687,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -14890,7 +14893,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -15096,7 +15099,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15302,7 +15305,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15508,7 +15511,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15998,7 +16001,7 @@
         <v>0.67</v>
       </c>
       <c r="AP73">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ73">
         <v>1.09</v>
@@ -16538,7 +16541,7 @@
         <v>131</v>
       </c>
       <c r="P76" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16950,7 +16953,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17156,7 +17159,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q79">
         <v>1.53</v>
@@ -17234,10 +17237,10 @@
         <v>1.29</v>
       </c>
       <c r="AP79">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ79">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR79">
         <v>2.5</v>
@@ -17362,7 +17365,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17568,7 +17571,7 @@
         <v>81</v>
       </c>
       <c r="P81" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q81">
         <v>1.6</v>
@@ -17980,7 +17983,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q83">
         <v>8.5</v>
@@ -18186,7 +18189,7 @@
         <v>81</v>
       </c>
       <c r="P84" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18473,7 +18476,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ85">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR85">
         <v>1.88</v>
@@ -18598,7 +18601,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q86">
         <v>5.66</v>
@@ -18804,7 +18807,7 @@
         <v>137</v>
       </c>
       <c r="P87" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q87">
         <v>4.95</v>
@@ -19010,7 +19013,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q88">
         <v>2.77</v>
@@ -19216,7 +19219,7 @@
         <v>138</v>
       </c>
       <c r="P89" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -19422,7 +19425,7 @@
         <v>122</v>
       </c>
       <c r="P90" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q90">
         <v>11</v>
@@ -19628,7 +19631,7 @@
         <v>139</v>
       </c>
       <c r="P91" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q91">
         <v>1.83</v>
@@ -19834,7 +19837,7 @@
         <v>140</v>
       </c>
       <c r="P92" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20040,7 +20043,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q93">
         <v>2.3</v>
@@ -20530,7 +20533,7 @@
         <v>1.78</v>
       </c>
       <c r="AP95">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ95">
         <v>1.45</v>
@@ -20739,7 +20742,7 @@
         <v>1</v>
       </c>
       <c r="AQ96">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR96">
         <v>1.57</v>
@@ -21070,7 +21073,7 @@
         <v>145</v>
       </c>
       <c r="P98" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -21482,7 +21485,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -21972,7 +21975,7 @@
         <v>0.89</v>
       </c>
       <c r="AP102">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ102">
         <v>1.09</v>
@@ -22100,7 +22103,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q103">
         <v>1.91</v>
@@ -22593,7 +22596,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ105">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR105">
         <v>2.01</v>
@@ -22924,7 +22927,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q107">
         <v>1.06</v>
@@ -23130,7 +23133,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23336,7 +23339,7 @@
         <v>151</v>
       </c>
       <c r="P109" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q109">
         <v>2.2</v>
@@ -23542,7 +23545,7 @@
         <v>81</v>
       </c>
       <c r="P110" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23954,7 +23957,7 @@
         <v>81</v>
       </c>
       <c r="P112" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24160,7 +24163,7 @@
         <v>152</v>
       </c>
       <c r="P113" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -24366,7 +24369,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q114">
         <v>2.1</v>
@@ -24522,6 +24525,212 @@
         <v>0</v>
       </c>
       <c r="BP114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7325250</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45520.5625</v>
+      </c>
+      <c r="F115">
+        <v>24</v>
+      </c>
+      <c r="G115" t="s">
+        <v>72</v>
+      </c>
+      <c r="H115" t="s">
+        <v>75</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>3</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>4</v>
+      </c>
+      <c r="O115" t="s">
+        <v>154</v>
+      </c>
+      <c r="P115" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q115">
+        <v>1.69</v>
+      </c>
+      <c r="R115">
+        <v>2.54</v>
+      </c>
+      <c r="S115">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="T115">
+        <v>1.3</v>
+      </c>
+      <c r="U115">
+        <v>3.32</v>
+      </c>
+      <c r="V115">
+        <v>2.43</v>
+      </c>
+      <c r="W115">
+        <v>1.52</v>
+      </c>
+      <c r="X115">
+        <v>5.65</v>
+      </c>
+      <c r="Y115">
+        <v>1.12</v>
+      </c>
+      <c r="Z115">
+        <v>1.22</v>
+      </c>
+      <c r="AA115">
+        <v>5.85</v>
+      </c>
+      <c r="AB115">
+        <v>11.4</v>
+      </c>
+      <c r="AC115">
+        <v>1.02</v>
+      </c>
+      <c r="AD115">
+        <v>17</v>
+      </c>
+      <c r="AE115">
+        <v>1.18</v>
+      </c>
+      <c r="AF115">
+        <v>4.15</v>
+      </c>
+      <c r="AG115">
+        <v>1.57</v>
+      </c>
+      <c r="AH115">
+        <v>2.31</v>
+      </c>
+      <c r="AI115">
+        <v>2.09</v>
+      </c>
+      <c r="AJ115">
+        <v>1.7</v>
+      </c>
+      <c r="AK115">
+        <v>1.02</v>
+      </c>
+      <c r="AL115">
+        <v>1.11</v>
+      </c>
+      <c r="AM115">
+        <v>3.52</v>
+      </c>
+      <c r="AN115">
+        <v>2.27</v>
+      </c>
+      <c r="AO115">
+        <v>0.91</v>
+      </c>
+      <c r="AP115">
+        <v>2.33</v>
+      </c>
+      <c r="AQ115">
+        <v>0.83</v>
+      </c>
+      <c r="AR115">
+        <v>2.51</v>
+      </c>
+      <c r="AS115">
+        <v>1.74</v>
+      </c>
+      <c r="AT115">
+        <v>4.25</v>
+      </c>
+      <c r="AU115">
+        <v>7</v>
+      </c>
+      <c r="AV115">
+        <v>3</v>
+      </c>
+      <c r="AW115">
+        <v>12</v>
+      </c>
+      <c r="AX115">
+        <v>2</v>
+      </c>
+      <c r="AY115">
+        <v>19</v>
+      </c>
+      <c r="AZ115">
+        <v>5</v>
+      </c>
+      <c r="BA115">
+        <v>7</v>
+      </c>
+      <c r="BB115">
+        <v>5</v>
+      </c>
+      <c r="BC115">
+        <v>12</v>
+      </c>
+      <c r="BD115">
+        <v>0</v>
+      </c>
+      <c r="BE115">
+        <v>0</v>
+      </c>
+      <c r="BF115">
+        <v>0</v>
+      </c>
+      <c r="BG115">
+        <v>0</v>
+      </c>
+      <c r="BH115">
+        <v>0</v>
+      </c>
+      <c r="BI115">
+        <v>0</v>
+      </c>
+      <c r="BJ115">
+        <v>0</v>
+      </c>
+      <c r="BK115">
+        <v>0</v>
+      </c>
+      <c r="BL115">
+        <v>0</v>
+      </c>
+      <c r="BM115">
+        <v>0</v>
+      </c>
+      <c r="BN115">
+        <v>0</v>
+      </c>
+      <c r="BO115">
+        <v>0</v>
+      </c>
+      <c r="BP115">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="222">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -478,7 +478,7 @@
     <t>['72']</t>
   </si>
   <si>
-    <t>['35', '51', '90+3']</t>
+    <t>['8', '53']</t>
   </si>
   <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
@@ -677,6 +677,9 @@
   </si>
   <si>
     <t>['39']</t>
+  </si>
+  <si>
+    <t>['77', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1787,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.33</v>
+        <v>2.27</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -1996,7 +1999,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ5">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -3232,7 +3235,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ11">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR11">
         <v>1.79</v>
@@ -3847,10 +3850,10 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ14">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4468,7 +4471,7 @@
         <v>1</v>
       </c>
       <c r="AQ17">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR17">
         <v>0.95</v>
@@ -4877,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ19">
         <v>0.25</v>
@@ -5289,7 +5292,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>2.33</v>
+        <v>2.27</v>
       </c>
       <c r="AQ21">
         <v>1.83</v>
@@ -5498,7 +5501,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ22">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="AR22">
         <v>0.74</v>
@@ -6731,10 +6734,10 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ28">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR28">
         <v>1.8</v>
@@ -6937,7 +6940,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.33</v>
+        <v>2.27</v>
       </c>
       <c r="AQ29">
         <v>0.25</v>
@@ -7970,7 +7973,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ34">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR34">
         <v>1.08</v>
@@ -8176,7 +8179,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ35">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="AR35">
         <v>2.56</v>
@@ -8379,7 +8382,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2.33</v>
+        <v>2.27</v>
       </c>
       <c r="AQ36">
         <v>1.18</v>
@@ -9821,7 +9824,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ43">
         <v>1.83</v>
@@ -10027,7 +10030,7 @@
         <v>1.4</v>
       </c>
       <c r="AP44">
-        <v>2.33</v>
+        <v>2.27</v>
       </c>
       <c r="AQ44">
         <v>1.83</v>
@@ -10442,7 +10445,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ46">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="AR46">
         <v>1.97</v>
@@ -10851,7 +10854,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ48">
         <v>1.18</v>
@@ -11060,7 +11063,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ49">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR49">
         <v>2.56</v>
@@ -11678,7 +11681,7 @@
         <v>1</v>
       </c>
       <c r="AQ52">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="AR52">
         <v>1.6</v>
@@ -11881,7 +11884,7 @@
         <v>2.2</v>
       </c>
       <c r="AP53">
-        <v>2.33</v>
+        <v>2.27</v>
       </c>
       <c r="AQ53">
         <v>1.92</v>
@@ -12705,7 +12708,7 @@
         <v>1.6</v>
       </c>
       <c r="AP57">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ57">
         <v>1.45</v>
@@ -13941,10 +13944,10 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>2.33</v>
+        <v>2.27</v>
       </c>
       <c r="AQ63">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR63">
         <v>2.2</v>
@@ -14356,7 +14359,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ65">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="AR65">
         <v>1.14</v>
@@ -16001,7 +16004,7 @@
         <v>0.67</v>
       </c>
       <c r="AP73">
-        <v>2.33</v>
+        <v>2.27</v>
       </c>
       <c r="AQ73">
         <v>1.09</v>
@@ -16207,7 +16210,7 @@
         <v>2.14</v>
       </c>
       <c r="AP74">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ74">
         <v>1.92</v>
@@ -16416,7 +16419,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ75">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR75">
         <v>1.91</v>
@@ -17237,10 +17240,10 @@
         <v>1.29</v>
       </c>
       <c r="AP79">
-        <v>2.33</v>
+        <v>2.27</v>
       </c>
       <c r="AQ79">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="AR79">
         <v>2.5</v>
@@ -17858,7 +17861,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ82">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR82">
         <v>2.04</v>
@@ -18267,7 +18270,7 @@
         <v>0.57</v>
       </c>
       <c r="AP84">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ84">
         <v>1.09</v>
@@ -18476,7 +18479,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ85">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="AR85">
         <v>1.88</v>
@@ -19094,7 +19097,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ88">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR88">
         <v>1.27</v>
@@ -19503,7 +19506,7 @@
         <v>2.67</v>
       </c>
       <c r="AP90">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ90">
         <v>2.75</v>
@@ -20533,7 +20536,7 @@
         <v>1.78</v>
       </c>
       <c r="AP95">
-        <v>2.33</v>
+        <v>2.27</v>
       </c>
       <c r="AQ95">
         <v>1.45</v>
@@ -20742,7 +20745,7 @@
         <v>1</v>
       </c>
       <c r="AQ96">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="AR96">
         <v>1.57</v>
@@ -21151,7 +21154,7 @@
         <v>1.78</v>
       </c>
       <c r="AP98">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ98">
         <v>1.92</v>
@@ -21975,7 +21978,7 @@
         <v>0.89</v>
       </c>
       <c r="AP102">
-        <v>2.33</v>
+        <v>2.27</v>
       </c>
       <c r="AQ102">
         <v>1.09</v>
@@ -22184,7 +22187,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ103">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR103">
         <v>2.14</v>
@@ -22387,7 +22390,7 @@
         <v>0.2</v>
       </c>
       <c r="AP104">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ104">
         <v>0.25</v>
@@ -22596,7 +22599,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ105">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="AR105">
         <v>2.01</v>
@@ -24533,7 +24536,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>7325250</v>
+        <v>7325249</v>
       </c>
       <c r="C115" t="s">
         <v>68</v>
@@ -24542,16 +24545,16 @@
         <v>69</v>
       </c>
       <c r="E115" s="2">
-        <v>45520.5625</v>
+        <v>45521.45833333334</v>
       </c>
       <c r="F115">
         <v>24</v>
       </c>
       <c r="G115" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H115" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I115">
         <v>1</v>
@@ -24563,10 +24566,10 @@
         <v>1</v>
       </c>
       <c r="L115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N115">
         <v>4</v>
@@ -24575,121 +24578,121 @@
         <v>154</v>
       </c>
       <c r="P115" t="s">
-        <v>122</v>
+        <v>221</v>
       </c>
       <c r="Q115">
-        <v>1.69</v>
+        <v>2.5</v>
       </c>
       <c r="R115">
-        <v>2.54</v>
+        <v>2.1</v>
       </c>
       <c r="S115">
-        <v>8.449999999999999</v>
+        <v>4</v>
       </c>
       <c r="T115">
+        <v>1.4</v>
+      </c>
+      <c r="U115">
+        <v>2.75</v>
+      </c>
+      <c r="V115">
+        <v>2.8</v>
+      </c>
+      <c r="W115">
+        <v>1.38</v>
+      </c>
+      <c r="X115">
+        <v>7.5</v>
+      </c>
+      <c r="Y115">
+        <v>1.08</v>
+      </c>
+      <c r="Z115">
+        <v>1.6</v>
+      </c>
+      <c r="AA115">
+        <v>3.42</v>
+      </c>
+      <c r="AB115">
+        <v>3.98</v>
+      </c>
+      <c r="AC115">
+        <v>1.04</v>
+      </c>
+      <c r="AD115">
+        <v>13</v>
+      </c>
+      <c r="AE115">
+        <v>1.28</v>
+      </c>
+      <c r="AF115">
+        <v>3.4</v>
+      </c>
+      <c r="AG115">
+        <v>1.85</v>
+      </c>
+      <c r="AH115">
+        <v>1.85</v>
+      </c>
+      <c r="AI115">
+        <v>1.78</v>
+      </c>
+      <c r="AJ115">
+        <v>1.95</v>
+      </c>
+      <c r="AK115">
         <v>1.3</v>
       </c>
-      <c r="U115">
-        <v>3.32</v>
-      </c>
-      <c r="V115">
-        <v>2.43</v>
-      </c>
-      <c r="W115">
-        <v>1.52</v>
-      </c>
-      <c r="X115">
-        <v>5.65</v>
-      </c>
-      <c r="Y115">
-        <v>1.12</v>
-      </c>
-      <c r="Z115">
-        <v>1.22</v>
-      </c>
-      <c r="AA115">
-        <v>5.85</v>
-      </c>
-      <c r="AB115">
-        <v>11.4</v>
-      </c>
-      <c r="AC115">
-        <v>1.02</v>
-      </c>
-      <c r="AD115">
-        <v>17</v>
-      </c>
-      <c r="AE115">
+      <c r="AL115">
+        <v>1.23</v>
+      </c>
+      <c r="AM115">
+        <v>1.78</v>
+      </c>
+      <c r="AN115">
         <v>1.18</v>
       </c>
-      <c r="AF115">
-        <v>4.15</v>
-      </c>
-      <c r="AG115">
-        <v>1.57</v>
-      </c>
-      <c r="AH115">
-        <v>2.31</v>
-      </c>
-      <c r="AI115">
-        <v>2.09</v>
-      </c>
-      <c r="AJ115">
-        <v>1.7</v>
-      </c>
-      <c r="AK115">
-        <v>1.02</v>
-      </c>
-      <c r="AL115">
-        <v>1.11</v>
-      </c>
-      <c r="AM115">
-        <v>3.52</v>
-      </c>
-      <c r="AN115">
-        <v>2.27</v>
-      </c>
       <c r="AO115">
+        <v>0.9</v>
+      </c>
+      <c r="AP115">
+        <v>1.17</v>
+      </c>
+      <c r="AQ115">
         <v>0.91</v>
       </c>
-      <c r="AP115">
-        <v>2.33</v>
-      </c>
-      <c r="AQ115">
-        <v>0.83</v>
-      </c>
       <c r="AR115">
-        <v>2.51</v>
+        <v>1.74</v>
       </c>
       <c r="AS115">
-        <v>1.74</v>
+        <v>1.24</v>
       </c>
       <c r="AT115">
-        <v>4.25</v>
+        <v>2.98</v>
       </c>
       <c r="AU115">
+        <v>5</v>
+      </c>
+      <c r="AV115">
+        <v>6</v>
+      </c>
+      <c r="AW115">
+        <v>11</v>
+      </c>
+      <c r="AX115">
         <v>7</v>
       </c>
-      <c r="AV115">
-        <v>3</v>
-      </c>
-      <c r="AW115">
-        <v>12</v>
-      </c>
-      <c r="AX115">
-        <v>2</v>
-      </c>
       <c r="AY115">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ115">
+        <v>13</v>
+      </c>
+      <c r="BA115">
         <v>5</v>
       </c>
-      <c r="BA115">
+      <c r="BB115">
         <v>7</v>
-      </c>
-      <c r="BB115">
-        <v>5</v>
       </c>
       <c r="BC115">
         <v>12</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="226">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -478,7 +478,19 @@
     <t>['72']</t>
   </si>
   <si>
+    <t>['35', '51', '90+3']</t>
+  </si>
+  <si>
     <t>['8', '53']</t>
+  </si>
+  <si>
+    <t>['6', '12', '15', '39', '49']</t>
+  </si>
+  <si>
+    <t>['13']</t>
+  </si>
+  <si>
+    <t>['68']</t>
   </si>
   <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
@@ -1041,7 +1053,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP115"/>
+  <dimension ref="A1:BP119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1378,10 +1390,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ2">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1506,7 +1518,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1790,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -1918,7 +1930,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -1999,7 +2011,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ5">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2124,7 +2136,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2411,7 +2423,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ7">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2536,7 +2548,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2820,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -2948,7 +2960,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -3026,10 +3038,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ10">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3154,7 +3166,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3232,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ11">
         <v>0.91</v>
@@ -3360,7 +3372,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3566,7 +3578,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3644,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ13">
         <v>1.45</v>
@@ -3772,7 +3784,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3853,7 +3865,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ14">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3978,7 +3990,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4059,7 +4071,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ15">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0.5</v>
@@ -4596,7 +4608,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4883,7 +4895,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ19">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR19">
         <v>1.58</v>
@@ -5292,7 +5304,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ21">
         <v>1.83</v>
@@ -5420,7 +5432,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5501,7 +5513,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ22">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR22">
         <v>0.74</v>
@@ -5626,7 +5638,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5704,7 +5716,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ23">
         <v>2.75</v>
@@ -5832,7 +5844,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -5910,10 +5922,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ24">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR24">
         <v>2.63</v>
@@ -6038,7 +6050,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6116,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6325,7 +6337,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ26">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR26">
         <v>1.42</v>
@@ -6450,7 +6462,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6531,7 +6543,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ27">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>2.19</v>
@@ -6656,7 +6668,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6940,10 +6952,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ29">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR29">
         <v>2.32</v>
@@ -7068,7 +7080,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7274,7 +7286,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7352,7 +7364,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ31">
         <v>1.83</v>
@@ -7480,7 +7492,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7686,7 +7698,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7764,7 +7776,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ33">
         <v>1.83</v>
@@ -7892,7 +7904,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -8098,7 +8110,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8176,10 +8188,10 @@
         <v>1.33</v>
       </c>
       <c r="AP35">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ35">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR35">
         <v>2.56</v>
@@ -8382,10 +8394,10 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ36">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR36">
         <v>2.43</v>
@@ -8716,7 +8728,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8794,7 +8806,7 @@
         <v>2.33</v>
       </c>
       <c r="AP38">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ38">
         <v>1.92</v>
@@ -8922,7 +8934,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -9003,7 +9015,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ39">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR39">
         <v>1.08</v>
@@ -9128,7 +9140,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9334,7 +9346,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9540,7 +9552,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9746,7 +9758,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -10030,7 +10042,7 @@
         <v>1.4</v>
       </c>
       <c r="AP44">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ44">
         <v>1.83</v>
@@ -10158,7 +10170,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10442,10 +10454,10 @@
         <v>1.75</v>
       </c>
       <c r="AP46">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ46">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR46">
         <v>1.97</v>
@@ -10651,7 +10663,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ47">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR47">
         <v>1.09</v>
@@ -10857,7 +10869,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ48">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR48">
         <v>1.86</v>
@@ -11060,7 +11072,7 @@
         <v>1.25</v>
       </c>
       <c r="AP49">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ49">
         <v>0.91</v>
@@ -11266,7 +11278,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ50">
         <v>2.75</v>
@@ -11394,7 +11406,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -11472,10 +11484,10 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ51">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR51">
         <v>1.74</v>
@@ -11681,7 +11693,7 @@
         <v>1</v>
       </c>
       <c r="AQ52">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR52">
         <v>1.6</v>
@@ -11884,7 +11896,7 @@
         <v>2.2</v>
       </c>
       <c r="AP53">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ53">
         <v>1.92</v>
@@ -12218,7 +12230,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12424,7 +12436,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12630,7 +12642,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12914,10 +12926,10 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ58">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR58">
         <v>1.96</v>
@@ -13123,7 +13135,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ59">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR59">
         <v>1.41</v>
@@ -13248,7 +13260,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13532,10 +13544,10 @@
         <v>0.8</v>
       </c>
       <c r="AP61">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ61">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR61">
         <v>1.78</v>
@@ -13660,7 +13672,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13738,7 +13750,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ62">
         <v>1.92</v>
@@ -13866,7 +13878,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -13944,7 +13956,7 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ63">
         <v>0.91</v>
@@ -14072,7 +14084,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14278,7 +14290,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14359,7 +14371,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ65">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR65">
         <v>1.14</v>
@@ -14484,7 +14496,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14690,7 +14702,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -14771,7 +14783,7 @@
         <v>1</v>
       </c>
       <c r="AQ67">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR67">
         <v>1.58</v>
@@ -14896,7 +14908,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -14974,10 +14986,10 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ68">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR68">
         <v>2.01</v>
@@ -15102,7 +15114,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15308,7 +15320,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15386,7 +15398,7 @@
         <v>2.57</v>
       </c>
       <c r="AP70">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ70">
         <v>2.75</v>
@@ -15514,7 +15526,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15595,7 +15607,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ71">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR71">
         <v>1.2</v>
@@ -15798,7 +15810,7 @@
         <v>1.63</v>
       </c>
       <c r="AP72">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ72">
         <v>1.83</v>
@@ -16004,10 +16016,10 @@
         <v>0.67</v>
       </c>
       <c r="AP73">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ73">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR73">
         <v>2.41</v>
@@ -16544,7 +16556,7 @@
         <v>131</v>
       </c>
       <c r="P76" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16828,7 +16840,7 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ77">
         <v>1.45</v>
@@ -16956,7 +16968,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17162,7 +17174,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q79">
         <v>1.53</v>
@@ -17240,10 +17252,10 @@
         <v>1.29</v>
       </c>
       <c r="AP79">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ79">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR79">
         <v>2.5</v>
@@ -17368,7 +17380,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17449,7 +17461,7 @@
         <v>1</v>
       </c>
       <c r="AQ80">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR80">
         <v>1.48</v>
@@ -17574,7 +17586,7 @@
         <v>81</v>
       </c>
       <c r="P81" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q81">
         <v>1.6</v>
@@ -17652,10 +17664,10 @@
         <v>0.86</v>
       </c>
       <c r="AP81">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ81">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR81">
         <v>2.16</v>
@@ -17858,7 +17870,7 @@
         <v>0.86</v>
       </c>
       <c r="AP82">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ82">
         <v>0.91</v>
@@ -17986,7 +17998,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q83">
         <v>8.5</v>
@@ -18192,7 +18204,7 @@
         <v>81</v>
       </c>
       <c r="P84" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18273,7 +18285,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ84">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR84">
         <v>1.8</v>
@@ -18476,10 +18488,10 @@
         <v>1.13</v>
       </c>
       <c r="AP85">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ85">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR85">
         <v>1.88</v>
@@ -18604,7 +18616,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q86">
         <v>5.66</v>
@@ -18810,7 +18822,7 @@
         <v>137</v>
       </c>
       <c r="P87" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q87">
         <v>4.95</v>
@@ -19016,7 +19028,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q88">
         <v>2.77</v>
@@ -19222,7 +19234,7 @@
         <v>138</v>
       </c>
       <c r="P89" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -19428,7 +19440,7 @@
         <v>122</v>
       </c>
       <c r="P90" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q90">
         <v>11</v>
@@ -19634,7 +19646,7 @@
         <v>139</v>
       </c>
       <c r="P91" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q91">
         <v>1.83</v>
@@ -19712,10 +19724,10 @@
         <v>1.13</v>
       </c>
       <c r="AP91">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ91">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR91">
         <v>1.99</v>
@@ -19840,7 +19852,7 @@
         <v>140</v>
       </c>
       <c r="P92" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -19921,7 +19933,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ92">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR92">
         <v>1.58</v>
@@ -20046,7 +20058,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q93">
         <v>2.3</v>
@@ -20127,7 +20139,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ93">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR93">
         <v>2.08</v>
@@ -20330,7 +20342,7 @@
         <v>1.13</v>
       </c>
       <c r="AP94">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ94">
         <v>1</v>
@@ -20536,7 +20548,7 @@
         <v>1.78</v>
       </c>
       <c r="AP95">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ95">
         <v>1.45</v>
@@ -20745,7 +20757,7 @@
         <v>1</v>
       </c>
       <c r="AQ96">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR96">
         <v>1.57</v>
@@ -20951,7 +20963,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ97">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR97">
         <v>1.43</v>
@@ -21076,7 +21088,7 @@
         <v>145</v>
       </c>
       <c r="P98" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -21488,7 +21500,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -21978,10 +21990,10 @@
         <v>0.89</v>
       </c>
       <c r="AP102">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ102">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR102">
         <v>2.37</v>
@@ -22106,7 +22118,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q103">
         <v>1.91</v>
@@ -22184,7 +22196,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ103">
         <v>0.91</v>
@@ -22393,7 +22405,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ104">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR104">
         <v>1.75</v>
@@ -22596,10 +22608,10 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ105">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR105">
         <v>2.01</v>
@@ -22805,7 +22817,7 @@
         <v>1</v>
       </c>
       <c r="AQ106">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR106">
         <v>1.5</v>
@@ -22930,7 +22942,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q107">
         <v>1.06</v>
@@ -23011,7 +23023,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ107">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR107">
         <v>2.13</v>
@@ -23136,7 +23148,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23342,7 +23354,7 @@
         <v>151</v>
       </c>
       <c r="P109" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q109">
         <v>2.2</v>
@@ -23420,7 +23432,7 @@
         <v>1.1</v>
       </c>
       <c r="AP109">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ109">
         <v>1</v>
@@ -23548,7 +23560,7 @@
         <v>81</v>
       </c>
       <c r="P110" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23960,7 +23972,7 @@
         <v>81</v>
       </c>
       <c r="P112" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24041,7 +24053,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ112">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR112">
         <v>1.62</v>
@@ -24166,7 +24178,7 @@
         <v>152</v>
       </c>
       <c r="P113" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -24372,7 +24384,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q114">
         <v>2.1</v>
@@ -24453,7 +24465,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ114">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR114">
         <v>2.08</v>
@@ -24536,7 +24548,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>7325249</v>
+        <v>7325250</v>
       </c>
       <c r="C115" t="s">
         <v>68</v>
@@ -24545,16 +24557,16 @@
         <v>69</v>
       </c>
       <c r="E115" s="2">
-        <v>45521.45833333334</v>
+        <v>45520.5625</v>
       </c>
       <c r="F115">
         <v>24</v>
       </c>
       <c r="G115" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H115" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I115">
         <v>1</v>
@@ -24566,10 +24578,10 @@
         <v>1</v>
       </c>
       <c r="L115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N115">
         <v>4</v>
@@ -24578,121 +24590,121 @@
         <v>154</v>
       </c>
       <c r="P115" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="Q115">
-        <v>2.5</v>
+        <v>1.69</v>
       </c>
       <c r="R115">
-        <v>2.1</v>
+        <v>2.54</v>
       </c>
       <c r="S115">
-        <v>4</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="T115">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="U115">
-        <v>2.75</v>
+        <v>3.32</v>
       </c>
       <c r="V115">
-        <v>2.8</v>
+        <v>2.43</v>
       </c>
       <c r="W115">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
       <c r="X115">
-        <v>7.5</v>
+        <v>5.65</v>
       </c>
       <c r="Y115">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="Z115">
-        <v>1.6</v>
+        <v>1.22</v>
       </c>
       <c r="AA115">
-        <v>3.42</v>
+        <v>5.85</v>
       </c>
       <c r="AB115">
-        <v>3.98</v>
+        <v>11.4</v>
       </c>
       <c r="AC115">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AD115">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE115">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="AF115">
-        <v>3.4</v>
+        <v>4.15</v>
       </c>
       <c r="AG115">
-        <v>1.85</v>
+        <v>1.57</v>
       </c>
       <c r="AH115">
-        <v>1.85</v>
+        <v>2.31</v>
       </c>
       <c r="AI115">
-        <v>1.78</v>
+        <v>2.09</v>
       </c>
       <c r="AJ115">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="AK115">
-        <v>1.3</v>
+        <v>1.02</v>
       </c>
       <c r="AL115">
-        <v>1.23</v>
+        <v>1.11</v>
       </c>
       <c r="AM115">
-        <v>1.78</v>
+        <v>3.52</v>
       </c>
       <c r="AN115">
-        <v>1.18</v>
+        <v>2.27</v>
       </c>
       <c r="AO115">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AP115">
-        <v>1.17</v>
+        <v>2.33</v>
       </c>
       <c r="AQ115">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR115">
+        <v>2.51</v>
+      </c>
+      <c r="AS115">
         <v>1.74</v>
       </c>
-      <c r="AS115">
-        <v>1.24</v>
-      </c>
       <c r="AT115">
-        <v>2.98</v>
+        <v>4.25</v>
       </c>
       <c r="AU115">
+        <v>7</v>
+      </c>
+      <c r="AV115">
+        <v>3</v>
+      </c>
+      <c r="AW115">
+        <v>12</v>
+      </c>
+      <c r="AX115">
+        <v>2</v>
+      </c>
+      <c r="AY115">
+        <v>19</v>
+      </c>
+      <c r="AZ115">
         <v>5</v>
       </c>
-      <c r="AV115">
-        <v>6</v>
-      </c>
-      <c r="AW115">
-        <v>11</v>
-      </c>
-      <c r="AX115">
+      <c r="BA115">
         <v>7</v>
       </c>
-      <c r="AY115">
-        <v>16</v>
-      </c>
-      <c r="AZ115">
-        <v>13</v>
-      </c>
-      <c r="BA115">
+      <c r="BB115">
         <v>5</v>
-      </c>
-      <c r="BB115">
-        <v>7</v>
       </c>
       <c r="BC115">
         <v>12</v>
@@ -24734,6 +24746,830 @@
         <v>0</v>
       </c>
       <c r="BP115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7325249</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45521.45833333334</v>
+      </c>
+      <c r="F116">
+        <v>24</v>
+      </c>
+      <c r="G116" t="s">
+        <v>78</v>
+      </c>
+      <c r="H116" t="s">
+        <v>73</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>2</v>
+      </c>
+      <c r="M116">
+        <v>2</v>
+      </c>
+      <c r="N116">
+        <v>4</v>
+      </c>
+      <c r="O116" t="s">
+        <v>155</v>
+      </c>
+      <c r="P116" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q116">
+        <v>2.5</v>
+      </c>
+      <c r="R116">
+        <v>2.1</v>
+      </c>
+      <c r="S116">
+        <v>4</v>
+      </c>
+      <c r="T116">
+        <v>1.4</v>
+      </c>
+      <c r="U116">
+        <v>2.75</v>
+      </c>
+      <c r="V116">
+        <v>2.8</v>
+      </c>
+      <c r="W116">
+        <v>1.38</v>
+      </c>
+      <c r="X116">
+        <v>7.5</v>
+      </c>
+      <c r="Y116">
+        <v>1.08</v>
+      </c>
+      <c r="Z116">
+        <v>1.6</v>
+      </c>
+      <c r="AA116">
+        <v>3.42</v>
+      </c>
+      <c r="AB116">
+        <v>3.98</v>
+      </c>
+      <c r="AC116">
+        <v>1.04</v>
+      </c>
+      <c r="AD116">
+        <v>13</v>
+      </c>
+      <c r="AE116">
+        <v>1.28</v>
+      </c>
+      <c r="AF116">
+        <v>3.4</v>
+      </c>
+      <c r="AG116">
+        <v>1.85</v>
+      </c>
+      <c r="AH116">
+        <v>1.85</v>
+      </c>
+      <c r="AI116">
+        <v>1.78</v>
+      </c>
+      <c r="AJ116">
+        <v>1.95</v>
+      </c>
+      <c r="AK116">
+        <v>1.3</v>
+      </c>
+      <c r="AL116">
+        <v>1.23</v>
+      </c>
+      <c r="AM116">
+        <v>1.78</v>
+      </c>
+      <c r="AN116">
+        <v>1.18</v>
+      </c>
+      <c r="AO116">
+        <v>0.9</v>
+      </c>
+      <c r="AP116">
+        <v>1.17</v>
+      </c>
+      <c r="AQ116">
+        <v>0.91</v>
+      </c>
+      <c r="AR116">
+        <v>1.74</v>
+      </c>
+      <c r="AS116">
+        <v>1.24</v>
+      </c>
+      <c r="AT116">
+        <v>2.98</v>
+      </c>
+      <c r="AU116">
+        <v>5</v>
+      </c>
+      <c r="AV116">
+        <v>6</v>
+      </c>
+      <c r="AW116">
+        <v>11</v>
+      </c>
+      <c r="AX116">
+        <v>7</v>
+      </c>
+      <c r="AY116">
+        <v>16</v>
+      </c>
+      <c r="AZ116">
+        <v>13</v>
+      </c>
+      <c r="BA116">
+        <v>5</v>
+      </c>
+      <c r="BB116">
+        <v>7</v>
+      </c>
+      <c r="BC116">
+        <v>12</v>
+      </c>
+      <c r="BD116">
+        <v>0</v>
+      </c>
+      <c r="BE116">
+        <v>0</v>
+      </c>
+      <c r="BF116">
+        <v>0</v>
+      </c>
+      <c r="BG116">
+        <v>0</v>
+      </c>
+      <c r="BH116">
+        <v>0</v>
+      </c>
+      <c r="BI116">
+        <v>0</v>
+      </c>
+      <c r="BJ116">
+        <v>0</v>
+      </c>
+      <c r="BK116">
+        <v>0</v>
+      </c>
+      <c r="BL116">
+        <v>0</v>
+      </c>
+      <c r="BM116">
+        <v>0</v>
+      </c>
+      <c r="BN116">
+        <v>0</v>
+      </c>
+      <c r="BO116">
+        <v>0</v>
+      </c>
+      <c r="BP116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7325251</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45522.35416666666</v>
+      </c>
+      <c r="F117">
+        <v>24</v>
+      </c>
+      <c r="G117" t="s">
+        <v>76</v>
+      </c>
+      <c r="H117" t="s">
+        <v>71</v>
+      </c>
+      <c r="I117">
+        <v>4</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>4</v>
+      </c>
+      <c r="L117">
+        <v>5</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117">
+        <v>6</v>
+      </c>
+      <c r="O117" t="s">
+        <v>156</v>
+      </c>
+      <c r="P117" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q117">
+        <v>1.91</v>
+      </c>
+      <c r="R117">
+        <v>2.38</v>
+      </c>
+      <c r="S117">
+        <v>6.5</v>
+      </c>
+      <c r="T117">
+        <v>1.32</v>
+      </c>
+      <c r="U117">
+        <v>3.2</v>
+      </c>
+      <c r="V117">
+        <v>2.51</v>
+      </c>
+      <c r="W117">
+        <v>1.49</v>
+      </c>
+      <c r="X117">
+        <v>5.95</v>
+      </c>
+      <c r="Y117">
+        <v>1.11</v>
+      </c>
+      <c r="Z117">
+        <v>1.41</v>
+      </c>
+      <c r="AA117">
+        <v>4.45</v>
+      </c>
+      <c r="AB117">
+        <v>6.1</v>
+      </c>
+      <c r="AC117">
+        <v>1.02</v>
+      </c>
+      <c r="AD117">
+        <v>10</v>
+      </c>
+      <c r="AE117">
+        <v>1.19</v>
+      </c>
+      <c r="AF117">
+        <v>3.9</v>
+      </c>
+      <c r="AG117">
+        <v>1.6</v>
+      </c>
+      <c r="AH117">
+        <v>2.25</v>
+      </c>
+      <c r="AI117">
+        <v>1.82</v>
+      </c>
+      <c r="AJ117">
+        <v>1.94</v>
+      </c>
+      <c r="AK117">
+        <v>1.08</v>
+      </c>
+      <c r="AL117">
+        <v>1.17</v>
+      </c>
+      <c r="AM117">
+        <v>2.57</v>
+      </c>
+      <c r="AN117">
+        <v>2.3</v>
+      </c>
+      <c r="AO117">
+        <v>1.09</v>
+      </c>
+      <c r="AP117">
+        <v>2.36</v>
+      </c>
+      <c r="AQ117">
+        <v>1</v>
+      </c>
+      <c r="AR117">
+        <v>1.95</v>
+      </c>
+      <c r="AS117">
+        <v>1.37</v>
+      </c>
+      <c r="AT117">
+        <v>3.32</v>
+      </c>
+      <c r="AU117">
+        <v>12</v>
+      </c>
+      <c r="AV117">
+        <v>9</v>
+      </c>
+      <c r="AW117">
+        <v>6</v>
+      </c>
+      <c r="AX117">
+        <v>9</v>
+      </c>
+      <c r="AY117">
+        <v>18</v>
+      </c>
+      <c r="AZ117">
+        <v>18</v>
+      </c>
+      <c r="BA117">
+        <v>10</v>
+      </c>
+      <c r="BB117">
+        <v>5</v>
+      </c>
+      <c r="BC117">
+        <v>15</v>
+      </c>
+      <c r="BD117">
+        <v>0</v>
+      </c>
+      <c r="BE117">
+        <v>0</v>
+      </c>
+      <c r="BF117">
+        <v>0</v>
+      </c>
+      <c r="BG117">
+        <v>0</v>
+      </c>
+      <c r="BH117">
+        <v>0</v>
+      </c>
+      <c r="BI117">
+        <v>0</v>
+      </c>
+      <c r="BJ117">
+        <v>0</v>
+      </c>
+      <c r="BK117">
+        <v>0</v>
+      </c>
+      <c r="BL117">
+        <v>0</v>
+      </c>
+      <c r="BM117">
+        <v>0</v>
+      </c>
+      <c r="BN117">
+        <v>0</v>
+      </c>
+      <c r="BO117">
+        <v>0</v>
+      </c>
+      <c r="BP117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7325252</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45522.45833333334</v>
+      </c>
+      <c r="F118">
+        <v>24</v>
+      </c>
+      <c r="G118" t="s">
+        <v>77</v>
+      </c>
+      <c r="H118" t="s">
+        <v>74</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>1</v>
+      </c>
+      <c r="O118" t="s">
+        <v>157</v>
+      </c>
+      <c r="P118" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q118">
+        <v>2</v>
+      </c>
+      <c r="R118">
+        <v>2.3</v>
+      </c>
+      <c r="S118">
+        <v>5.5</v>
+      </c>
+      <c r="T118">
+        <v>1.32</v>
+      </c>
+      <c r="U118">
+        <v>3.2</v>
+      </c>
+      <c r="V118">
+        <v>2.51</v>
+      </c>
+      <c r="W118">
+        <v>1.49</v>
+      </c>
+      <c r="X118">
+        <v>6</v>
+      </c>
+      <c r="Y118">
+        <v>1.11</v>
+      </c>
+      <c r="Z118">
+        <v>1.42</v>
+      </c>
+      <c r="AA118">
+        <v>4.4</v>
+      </c>
+      <c r="AB118">
+        <v>5.3</v>
+      </c>
+      <c r="AC118">
+        <v>1.02</v>
+      </c>
+      <c r="AD118">
+        <v>10</v>
+      </c>
+      <c r="AE118">
+        <v>1.2</v>
+      </c>
+      <c r="AF118">
+        <v>3.88</v>
+      </c>
+      <c r="AG118">
+        <v>1.6</v>
+      </c>
+      <c r="AH118">
+        <v>2.23</v>
+      </c>
+      <c r="AI118">
+        <v>1.8</v>
+      </c>
+      <c r="AJ118">
+        <v>1.96</v>
+      </c>
+      <c r="AK118">
+        <v>1.09</v>
+      </c>
+      <c r="AL118">
+        <v>1.18</v>
+      </c>
+      <c r="AM118">
+        <v>2.48</v>
+      </c>
+      <c r="AN118">
+        <v>1.6</v>
+      </c>
+      <c r="AO118">
+        <v>1.18</v>
+      </c>
+      <c r="AP118">
+        <v>1.73</v>
+      </c>
+      <c r="AQ118">
+        <v>1.08</v>
+      </c>
+      <c r="AR118">
+        <v>2.29</v>
+      </c>
+      <c r="AS118">
+        <v>1.41</v>
+      </c>
+      <c r="AT118">
+        <v>3.7</v>
+      </c>
+      <c r="AU118">
+        <v>6</v>
+      </c>
+      <c r="AV118">
+        <v>2</v>
+      </c>
+      <c r="AW118">
+        <v>11</v>
+      </c>
+      <c r="AX118">
+        <v>2</v>
+      </c>
+      <c r="AY118">
+        <v>17</v>
+      </c>
+      <c r="AZ118">
+        <v>4</v>
+      </c>
+      <c r="BA118">
+        <v>6</v>
+      </c>
+      <c r="BB118">
+        <v>0</v>
+      </c>
+      <c r="BC118">
+        <v>6</v>
+      </c>
+      <c r="BD118">
+        <v>0</v>
+      </c>
+      <c r="BE118">
+        <v>0</v>
+      </c>
+      <c r="BF118">
+        <v>0</v>
+      </c>
+      <c r="BG118">
+        <v>0</v>
+      </c>
+      <c r="BH118">
+        <v>0</v>
+      </c>
+      <c r="BI118">
+        <v>0</v>
+      </c>
+      <c r="BJ118">
+        <v>0</v>
+      </c>
+      <c r="BK118">
+        <v>0</v>
+      </c>
+      <c r="BL118">
+        <v>0</v>
+      </c>
+      <c r="BM118">
+        <v>0</v>
+      </c>
+      <c r="BN118">
+        <v>0</v>
+      </c>
+      <c r="BO118">
+        <v>0</v>
+      </c>
+      <c r="BP118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7325248</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45522.54166666666</v>
+      </c>
+      <c r="F119">
+        <v>24</v>
+      </c>
+      <c r="G119" t="s">
+        <v>70</v>
+      </c>
+      <c r="H119" t="s">
+        <v>79</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>1</v>
+      </c>
+      <c r="O119" t="s">
+        <v>158</v>
+      </c>
+      <c r="P119" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q119">
+        <v>1.7</v>
+      </c>
+      <c r="R119">
+        <v>2.55</v>
+      </c>
+      <c r="S119">
+        <v>7</v>
+      </c>
+      <c r="T119">
+        <v>1.32</v>
+      </c>
+      <c r="U119">
+        <v>3.15</v>
+      </c>
+      <c r="V119">
+        <v>2.45</v>
+      </c>
+      <c r="W119">
+        <v>1.48</v>
+      </c>
+      <c r="X119">
+        <v>6</v>
+      </c>
+      <c r="Y119">
+        <v>1.12</v>
+      </c>
+      <c r="Z119">
+        <v>1.25</v>
+      </c>
+      <c r="AA119">
+        <v>5</v>
+      </c>
+      <c r="AB119">
+        <v>9</v>
+      </c>
+      <c r="AC119">
+        <v>1.02</v>
+      </c>
+      <c r="AD119">
+        <v>17</v>
+      </c>
+      <c r="AE119">
+        <v>1.2</v>
+      </c>
+      <c r="AF119">
+        <v>4.2</v>
+      </c>
+      <c r="AG119">
+        <v>1.64</v>
+      </c>
+      <c r="AH119">
+        <v>2.12</v>
+      </c>
+      <c r="AI119">
+        <v>2.1</v>
+      </c>
+      <c r="AJ119">
+        <v>1.68</v>
+      </c>
+      <c r="AK119">
+        <v>1.01</v>
+      </c>
+      <c r="AL119">
+        <v>1.09</v>
+      </c>
+      <c r="AM119">
+        <v>3.6</v>
+      </c>
+      <c r="AN119">
+        <v>2.09</v>
+      </c>
+      <c r="AO119">
+        <v>0.25</v>
+      </c>
+      <c r="AP119">
+        <v>2.17</v>
+      </c>
+      <c r="AQ119">
+        <v>0.23</v>
+      </c>
+      <c r="AR119">
+        <v>1.88</v>
+      </c>
+      <c r="AS119">
+        <v>1.09</v>
+      </c>
+      <c r="AT119">
+        <v>2.97</v>
+      </c>
+      <c r="AU119">
+        <v>5</v>
+      </c>
+      <c r="AV119">
+        <v>3</v>
+      </c>
+      <c r="AW119">
+        <v>11</v>
+      </c>
+      <c r="AX119">
+        <v>5</v>
+      </c>
+      <c r="AY119">
+        <v>16</v>
+      </c>
+      <c r="AZ119">
+        <v>8</v>
+      </c>
+      <c r="BA119">
+        <v>13</v>
+      </c>
+      <c r="BB119">
+        <v>5</v>
+      </c>
+      <c r="BC119">
+        <v>18</v>
+      </c>
+      <c r="BD119">
+        <v>0</v>
+      </c>
+      <c r="BE119">
+        <v>0</v>
+      </c>
+      <c r="BF119">
+        <v>0</v>
+      </c>
+      <c r="BG119">
+        <v>0</v>
+      </c>
+      <c r="BH119">
+        <v>0</v>
+      </c>
+      <c r="BI119">
+        <v>0</v>
+      </c>
+      <c r="BJ119">
+        <v>0</v>
+      </c>
+      <c r="BK119">
+        <v>0</v>
+      </c>
+      <c r="BL119">
+        <v>0</v>
+      </c>
+      <c r="BM119">
+        <v>0</v>
+      </c>
+      <c r="BN119">
+        <v>0</v>
+      </c>
+      <c r="BO119">
+        <v>0</v>
+      </c>
+      <c r="BP119">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="226">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1053,7 +1053,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP119"/>
+  <dimension ref="A1:BP120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2214,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ6">
         <v>1.83</v>
@@ -3659,7 +3659,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ13">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR13">
         <v>2.65</v>
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4686,7 +4686,7 @@
         <v>2</v>
       </c>
       <c r="AP18">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ18">
         <v>1.92</v>
@@ -5101,7 +5101,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ20">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR20">
         <v>2.07</v>
@@ -7158,10 +7158,10 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ30">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR30">
         <v>1.13</v>
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ39">
         <v>0.23</v>
@@ -9427,7 +9427,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR41">
         <v>1.7</v>
@@ -10251,7 +10251,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ45">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR45">
         <v>1.38</v>
@@ -12723,7 +12723,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ57">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR57">
         <v>1.88</v>
@@ -13338,7 +13338,7 @@
         <v>2.5</v>
       </c>
       <c r="AP60">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ60">
         <v>2.75</v>
@@ -14368,7 +14368,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ65">
         <v>0.83</v>
@@ -15195,7 +15195,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ69">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR69">
         <v>1.5</v>
@@ -16843,7 +16843,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ77">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR77">
         <v>2</v>
@@ -17046,7 +17046,7 @@
         <v>0.86</v>
       </c>
       <c r="AP78">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ78">
         <v>1</v>
@@ -19106,7 +19106,7 @@
         <v>0.75</v>
       </c>
       <c r="AP88">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ88">
         <v>0.91</v>
@@ -19315,7 +19315,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ89">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR89">
         <v>1.16</v>
@@ -20551,7 +20551,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ95">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR95">
         <v>2.41</v>
@@ -20960,7 +20960,7 @@
         <v>0.22</v>
       </c>
       <c r="AP97">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ97">
         <v>0.23</v>
@@ -21375,7 +21375,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ99">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR99">
         <v>2.12</v>
@@ -21784,7 +21784,7 @@
         <v>1.11</v>
       </c>
       <c r="AP101">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ101">
         <v>1</v>
@@ -24256,7 +24256,7 @@
         <v>2.73</v>
       </c>
       <c r="AP113">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AQ113">
         <v>2.75</v>
@@ -25570,6 +25570,212 @@
         <v>0</v>
       </c>
       <c r="BP119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7325253</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45527.5625</v>
+      </c>
+      <c r="F120">
+        <v>25</v>
+      </c>
+      <c r="G120" t="s">
+        <v>74</v>
+      </c>
+      <c r="H120" t="s">
+        <v>70</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120">
+        <v>1</v>
+      </c>
+      <c r="O120" t="s">
+        <v>81</v>
+      </c>
+      <c r="P120" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q120">
+        <v>5.33</v>
+      </c>
+      <c r="R120">
+        <v>2.45</v>
+      </c>
+      <c r="S120">
+        <v>2.05</v>
+      </c>
+      <c r="T120">
+        <v>1.32</v>
+      </c>
+      <c r="U120">
+        <v>3.2</v>
+      </c>
+      <c r="V120">
+        <v>2.45</v>
+      </c>
+      <c r="W120">
+        <v>1.52</v>
+      </c>
+      <c r="X120">
+        <v>5.95</v>
+      </c>
+      <c r="Y120">
+        <v>1.11</v>
+      </c>
+      <c r="Z120">
+        <v>5.35</v>
+      </c>
+      <c r="AA120">
+        <v>4.2</v>
+      </c>
+      <c r="AB120">
+        <v>1.51</v>
+      </c>
+      <c r="AC120">
+        <v>1.03</v>
+      </c>
+      <c r="AD120">
+        <v>9</v>
+      </c>
+      <c r="AE120">
+        <v>1.2</v>
+      </c>
+      <c r="AF120">
+        <v>4</v>
+      </c>
+      <c r="AG120">
+        <v>1.72</v>
+      </c>
+      <c r="AH120">
+        <v>2</v>
+      </c>
+      <c r="AI120">
+        <v>1.73</v>
+      </c>
+      <c r="AJ120">
+        <v>2.06</v>
+      </c>
+      <c r="AK120">
+        <v>2.28</v>
+      </c>
+      <c r="AL120">
+        <v>1.19</v>
+      </c>
+      <c r="AM120">
+        <v>1.12</v>
+      </c>
+      <c r="AN120">
+        <v>0.92</v>
+      </c>
+      <c r="AO120">
+        <v>1.45</v>
+      </c>
+      <c r="AP120">
+        <v>0.85</v>
+      </c>
+      <c r="AQ120">
+        <v>1.58</v>
+      </c>
+      <c r="AR120">
+        <v>1.53</v>
+      </c>
+      <c r="AS120">
+        <v>1.82</v>
+      </c>
+      <c r="AT120">
+        <v>3.35</v>
+      </c>
+      <c r="AU120">
+        <v>3</v>
+      </c>
+      <c r="AV120">
+        <v>8</v>
+      </c>
+      <c r="AW120">
+        <v>7</v>
+      </c>
+      <c r="AX120">
+        <v>12</v>
+      </c>
+      <c r="AY120">
+        <v>10</v>
+      </c>
+      <c r="AZ120">
+        <v>20</v>
+      </c>
+      <c r="BA120">
+        <v>9</v>
+      </c>
+      <c r="BB120">
+        <v>7</v>
+      </c>
+      <c r="BC120">
+        <v>16</v>
+      </c>
+      <c r="BD120">
+        <v>0</v>
+      </c>
+      <c r="BE120">
+        <v>0</v>
+      </c>
+      <c r="BF120">
+        <v>0</v>
+      </c>
+      <c r="BG120">
+        <v>0</v>
+      </c>
+      <c r="BH120">
+        <v>0</v>
+      </c>
+      <c r="BI120">
+        <v>0</v>
+      </c>
+      <c r="BJ120">
+        <v>0</v>
+      </c>
+      <c r="BK120">
+        <v>0</v>
+      </c>
+      <c r="BL120">
+        <v>0</v>
+      </c>
+      <c r="BM120">
+        <v>0</v>
+      </c>
+      <c r="BN120">
+        <v>0</v>
+      </c>
+      <c r="BO120">
+        <v>0</v>
+      </c>
+      <c r="BP120">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="228">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -693,6 +693,12 @@
   <si>
     <t>['77', '90+3']</t>
   </si>
+  <si>
+    <t>['83']</t>
+  </si>
+  <si>
+    <t>['21', '46', '50']</t>
+  </si>
 </sst>
 </file>
 
@@ -1053,7 +1059,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP120"/>
+  <dimension ref="A1:BP122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1596,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ3">
         <v>1.92</v>
@@ -1805,7 +1811,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2217,7 +2223,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ6">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2420,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ7">
         <v>1.08</v>
@@ -2626,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ8">
         <v>2.75</v>
@@ -2835,7 +2841,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -4480,7 +4486,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ17">
         <v>0.91</v>
@@ -5098,7 +5104,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ20">
         <v>1.58</v>
@@ -5307,7 +5313,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ21">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR21">
         <v>2.61</v>
@@ -6131,7 +6137,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR25">
         <v>1.98</v>
@@ -6540,7 +6546,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -7367,7 +7373,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ31">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR31">
         <v>2.12</v>
@@ -7779,7 +7785,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ33">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR33">
         <v>1.95</v>
@@ -8600,10 +8606,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ37">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR37">
         <v>1.49</v>
@@ -9424,7 +9430,7 @@
         <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ41">
         <v>1.58</v>
@@ -9630,7 +9636,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ42">
         <v>2.75</v>
@@ -9839,7 +9845,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ43">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR43">
         <v>1.92</v>
@@ -10045,7 +10051,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ44">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR44">
         <v>2.3</v>
@@ -11690,7 +11696,7 @@
         <v>1.4</v>
       </c>
       <c r="AP52">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ52">
         <v>0.83</v>
@@ -12105,7 +12111,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR54">
         <v>1.38</v>
@@ -12311,7 +12317,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ55">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR55">
         <v>1.18</v>
@@ -12514,10 +12520,10 @@
         <v>1.43</v>
       </c>
       <c r="AP56">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ56">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR56">
         <v>1.96</v>
@@ -14165,7 +14171,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ64">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR64">
         <v>1.24</v>
@@ -14574,10 +14580,10 @@
         <v>0.5</v>
       </c>
       <c r="AP66">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ66">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR66">
         <v>1.95</v>
@@ -14780,7 +14786,7 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ67">
         <v>1.08</v>
@@ -15813,7 +15819,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ72">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR72">
         <v>1.97</v>
@@ -16428,7 +16434,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ75">
         <v>0.91</v>
@@ -16637,7 +16643,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ76">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR76">
         <v>1.56</v>
@@ -17049,7 +17055,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ78">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR78">
         <v>1.17</v>
@@ -17458,7 +17464,7 @@
         <v>0.14</v>
       </c>
       <c r="AP80">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ80">
         <v>0.23</v>
@@ -18694,10 +18700,10 @@
         <v>1.6</v>
       </c>
       <c r="AP86">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ86">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR86">
         <v>1.61</v>
@@ -18900,7 +18906,7 @@
         <v>1.88</v>
       </c>
       <c r="AP87">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ87">
         <v>1.92</v>
@@ -20136,7 +20142,7 @@
         <v>0.25</v>
       </c>
       <c r="AP93">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ93">
         <v>0.23</v>
@@ -20345,7 +20351,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ94">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR94">
         <v>2.14</v>
@@ -20754,7 +20760,7 @@
         <v>1</v>
       </c>
       <c r="AP96">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ96">
         <v>0.83</v>
@@ -21372,7 +21378,7 @@
         <v>1.6</v>
       </c>
       <c r="AP99">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ99">
         <v>1.58</v>
@@ -21787,7 +21793,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ101">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR101">
         <v>1.51</v>
@@ -22814,7 +22820,7 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ106">
         <v>1.08</v>
@@ -23020,7 +23026,7 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ107">
         <v>1.08</v>
@@ -23435,7 +23441,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ109">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR109">
         <v>1.91</v>
@@ -23638,10 +23644,10 @@
         <v>1.73</v>
       </c>
       <c r="AP110">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ110">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR110">
         <v>1.47</v>
@@ -24462,7 +24468,7 @@
         <v>0.18</v>
       </c>
       <c r="AP114">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ114">
         <v>0.23</v>
@@ -25776,6 +25782,418 @@
         <v>0</v>
       </c>
       <c r="BP120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7325254</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45528.45833333334</v>
+      </c>
+      <c r="F121">
+        <v>25</v>
+      </c>
+      <c r="G121" t="s">
+        <v>71</v>
+      </c>
+      <c r="H121" t="s">
+        <v>78</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+      <c r="N121">
+        <v>1</v>
+      </c>
+      <c r="O121" t="s">
+        <v>81</v>
+      </c>
+      <c r="P121" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q121">
+        <v>3.1</v>
+      </c>
+      <c r="R121">
+        <v>2.2</v>
+      </c>
+      <c r="S121">
+        <v>3</v>
+      </c>
+      <c r="T121">
+        <v>1.33</v>
+      </c>
+      <c r="U121">
+        <v>3.14</v>
+      </c>
+      <c r="V121">
+        <v>2.51</v>
+      </c>
+      <c r="W121">
+        <v>1.49</v>
+      </c>
+      <c r="X121">
+        <v>5.95</v>
+      </c>
+      <c r="Y121">
+        <v>1.11</v>
+      </c>
+      <c r="Z121">
+        <v>2.5</v>
+      </c>
+      <c r="AA121">
+        <v>3.3</v>
+      </c>
+      <c r="AB121">
+        <v>2.55</v>
+      </c>
+      <c r="AC121">
+        <v>1.01</v>
+      </c>
+      <c r="AD121">
+        <v>14</v>
+      </c>
+      <c r="AE121">
+        <v>1.19</v>
+      </c>
+      <c r="AF121">
+        <v>3.9</v>
+      </c>
+      <c r="AG121">
+        <v>1.65</v>
+      </c>
+      <c r="AH121">
+        <v>2</v>
+      </c>
+      <c r="AI121">
+        <v>1.53</v>
+      </c>
+      <c r="AJ121">
+        <v>2.38</v>
+      </c>
+      <c r="AK121">
+        <v>1.48</v>
+      </c>
+      <c r="AL121">
+        <v>1.26</v>
+      </c>
+      <c r="AM121">
+        <v>1.44</v>
+      </c>
+      <c r="AN121">
+        <v>1</v>
+      </c>
+      <c r="AO121">
+        <v>1</v>
+      </c>
+      <c r="AP121">
+        <v>0.92</v>
+      </c>
+      <c r="AQ121">
+        <v>1.17</v>
+      </c>
+      <c r="AR121">
+        <v>1.47</v>
+      </c>
+      <c r="AS121">
+        <v>1.76</v>
+      </c>
+      <c r="AT121">
+        <v>3.23</v>
+      </c>
+      <c r="AU121">
+        <v>2</v>
+      </c>
+      <c r="AV121">
+        <v>9</v>
+      </c>
+      <c r="AW121">
+        <v>6</v>
+      </c>
+      <c r="AX121">
+        <v>11</v>
+      </c>
+      <c r="AY121">
+        <v>8</v>
+      </c>
+      <c r="AZ121">
+        <v>20</v>
+      </c>
+      <c r="BA121">
+        <v>5</v>
+      </c>
+      <c r="BB121">
+        <v>7</v>
+      </c>
+      <c r="BC121">
+        <v>12</v>
+      </c>
+      <c r="BD121">
+        <v>0</v>
+      </c>
+      <c r="BE121">
+        <v>0</v>
+      </c>
+      <c r="BF121">
+        <v>0</v>
+      </c>
+      <c r="BG121">
+        <v>0</v>
+      </c>
+      <c r="BH121">
+        <v>0</v>
+      </c>
+      <c r="BI121">
+        <v>0</v>
+      </c>
+      <c r="BJ121">
+        <v>0</v>
+      </c>
+      <c r="BK121">
+        <v>0</v>
+      </c>
+      <c r="BL121">
+        <v>0</v>
+      </c>
+      <c r="BM121">
+        <v>0</v>
+      </c>
+      <c r="BN121">
+        <v>0</v>
+      </c>
+      <c r="BO121">
+        <v>0</v>
+      </c>
+      <c r="BP121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7325255</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45528.54166666666</v>
+      </c>
+      <c r="F122">
+        <v>25</v>
+      </c>
+      <c r="G122" t="s">
+        <v>75</v>
+      </c>
+      <c r="H122" t="s">
+        <v>77</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122">
+        <v>3</v>
+      </c>
+      <c r="N122">
+        <v>4</v>
+      </c>
+      <c r="O122" t="s">
+        <v>153</v>
+      </c>
+      <c r="P122" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q122">
+        <v>6.41</v>
+      </c>
+      <c r="R122">
+        <v>2.52</v>
+      </c>
+      <c r="S122">
+        <v>1.86</v>
+      </c>
+      <c r="T122">
+        <v>1.34</v>
+      </c>
+      <c r="U122">
+        <v>3.06</v>
+      </c>
+      <c r="V122">
+        <v>2.45</v>
+      </c>
+      <c r="W122">
+        <v>1.52</v>
+      </c>
+      <c r="X122">
+        <v>5.5</v>
+      </c>
+      <c r="Y122">
+        <v>1.11</v>
+      </c>
+      <c r="Z122">
+        <v>5.1</v>
+      </c>
+      <c r="AA122">
+        <v>3.9</v>
+      </c>
+      <c r="AB122">
+        <v>1.5</v>
+      </c>
+      <c r="AC122">
+        <v>1.01</v>
+      </c>
+      <c r="AD122">
+        <v>11</v>
+      </c>
+      <c r="AE122">
+        <v>1.2</v>
+      </c>
+      <c r="AF122">
+        <v>4</v>
+      </c>
+      <c r="AG122">
+        <v>1.7</v>
+      </c>
+      <c r="AH122">
+        <v>1.95</v>
+      </c>
+      <c r="AI122">
+        <v>1.85</v>
+      </c>
+      <c r="AJ122">
+        <v>1.85</v>
+      </c>
+      <c r="AK122">
+        <v>2.75</v>
+      </c>
+      <c r="AL122">
+        <v>1.18</v>
+      </c>
+      <c r="AM122">
+        <v>1.12</v>
+      </c>
+      <c r="AN122">
+        <v>1.25</v>
+      </c>
+      <c r="AO122">
+        <v>1.83</v>
+      </c>
+      <c r="AP122">
+        <v>1.15</v>
+      </c>
+      <c r="AQ122">
+        <v>1.92</v>
+      </c>
+      <c r="AR122">
+        <v>2.06</v>
+      </c>
+      <c r="AS122">
+        <v>1.86</v>
+      </c>
+      <c r="AT122">
+        <v>3.92</v>
+      </c>
+      <c r="AU122">
+        <v>6</v>
+      </c>
+      <c r="AV122">
+        <v>6</v>
+      </c>
+      <c r="AW122">
+        <v>7</v>
+      </c>
+      <c r="AX122">
+        <v>7</v>
+      </c>
+      <c r="AY122">
+        <v>13</v>
+      </c>
+      <c r="AZ122">
+        <v>13</v>
+      </c>
+      <c r="BA122">
+        <v>4</v>
+      </c>
+      <c r="BB122">
+        <v>5</v>
+      </c>
+      <c r="BC122">
+        <v>9</v>
+      </c>
+      <c r="BD122">
+        <v>0</v>
+      </c>
+      <c r="BE122">
+        <v>0</v>
+      </c>
+      <c r="BF122">
+        <v>0</v>
+      </c>
+      <c r="BG122">
+        <v>0</v>
+      </c>
+      <c r="BH122">
+        <v>0</v>
+      </c>
+      <c r="BI122">
+        <v>0</v>
+      </c>
+      <c r="BJ122">
+        <v>0</v>
+      </c>
+      <c r="BK122">
+        <v>0</v>
+      </c>
+      <c r="BL122">
+        <v>0</v>
+      </c>
+      <c r="BM122">
+        <v>0</v>
+      </c>
+      <c r="BN122">
+        <v>0</v>
+      </c>
+      <c r="BO122">
+        <v>0</v>
+      </c>
+      <c r="BP122">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="229">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -491,6 +491,9 @@
   </si>
   <si>
     <t>['68']</t>
+  </si>
+  <si>
+    <t>['20', '65', '67']</t>
   </si>
   <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
@@ -1059,7 +1062,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP122"/>
+  <dimension ref="A1:BP124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1524,7 +1527,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1605,7 +1608,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ3">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1808,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ4">
         <v>1.17</v>
@@ -1936,7 +1939,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -2142,7 +2145,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2554,7 +2557,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2966,7 +2969,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -3172,7 +3175,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3253,7 +3256,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ11">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR11">
         <v>1.79</v>
@@ -3378,7 +3381,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3584,7 +3587,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3790,7 +3793,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3996,7 +3999,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4280,10 +4283,10 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ16">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4489,7 +4492,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ17">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR17">
         <v>0.95</v>
@@ -4614,7 +4617,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4695,7 +4698,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ18">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR18">
         <v>1.11</v>
@@ -5310,7 +5313,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ21">
         <v>1.92</v>
@@ -5438,7 +5441,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5516,7 +5519,7 @@
         <v>2</v>
       </c>
       <c r="AP22">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ22">
         <v>0.83</v>
@@ -5644,7 +5647,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5850,7 +5853,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -6056,7 +6059,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6468,7 +6471,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6674,7 +6677,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6755,7 +6758,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ28">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR28">
         <v>1.8</v>
@@ -6958,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ29">
         <v>0.23</v>
@@ -7086,7 +7089,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7292,7 +7295,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7498,7 +7501,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7704,7 +7707,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7910,7 +7913,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -7988,10 +7991,10 @@
         <v>0.67</v>
       </c>
       <c r="AP34">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ34">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR34">
         <v>1.08</v>
@@ -8116,7 +8119,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8400,7 +8403,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ36">
         <v>1.08</v>
@@ -8734,7 +8737,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8815,7 +8818,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ38">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR38">
         <v>1.67</v>
@@ -8940,7 +8943,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -9146,7 +9149,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9227,7 +9230,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ40">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR40">
         <v>1.38</v>
@@ -9352,7 +9355,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9558,7 +9561,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9764,7 +9767,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -10048,7 +10051,7 @@
         <v>1.4</v>
       </c>
       <c r="AP44">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ44">
         <v>1.92</v>
@@ -10176,7 +10179,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10666,7 +10669,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ47">
         <v>1</v>
@@ -11081,7 +11084,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ49">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR49">
         <v>2.56</v>
@@ -11412,7 +11415,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -11902,10 +11905,10 @@
         <v>2.2</v>
       </c>
       <c r="AP53">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ53">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR53">
         <v>2.19</v>
@@ -12236,7 +12239,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12314,7 +12317,7 @@
         <v>1.17</v>
       </c>
       <c r="AP55">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ55">
         <v>1.92</v>
@@ -12442,7 +12445,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12648,7 +12651,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13266,7 +13269,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13678,7 +13681,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13759,7 +13762,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ62">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR62">
         <v>2.43</v>
@@ -13884,7 +13887,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -13962,10 +13965,10 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ63">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR63">
         <v>2.2</v>
@@ -14090,7 +14093,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14168,7 +14171,7 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ64">
         <v>1.17</v>
@@ -14296,7 +14299,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14502,7 +14505,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14708,7 +14711,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -14914,7 +14917,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -15120,7 +15123,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15326,7 +15329,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15532,7 +15535,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15610,7 +15613,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ71">
         <v>1.08</v>
@@ -16022,7 +16025,7 @@
         <v>0.67</v>
       </c>
       <c r="AP73">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ73">
         <v>1</v>
@@ -16231,7 +16234,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ74">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR74">
         <v>1.81</v>
@@ -16437,7 +16440,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ75">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR75">
         <v>1.91</v>
@@ -16562,7 +16565,7 @@
         <v>131</v>
       </c>
       <c r="P76" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16974,7 +16977,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17180,7 +17183,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q79">
         <v>1.53</v>
@@ -17258,7 +17261,7 @@
         <v>1.29</v>
       </c>
       <c r="AP79">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ79">
         <v>0.83</v>
@@ -17386,7 +17389,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17592,7 +17595,7 @@
         <v>81</v>
       </c>
       <c r="P81" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q81">
         <v>1.6</v>
@@ -17879,7 +17882,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ82">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR82">
         <v>2.04</v>
@@ -18004,7 +18007,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q83">
         <v>8.5</v>
@@ -18082,7 +18085,7 @@
         <v>2.63</v>
       </c>
       <c r="AP83">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ83">
         <v>2.75</v>
@@ -18210,7 +18213,7 @@
         <v>81</v>
       </c>
       <c r="P84" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18622,7 +18625,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q86">
         <v>5.66</v>
@@ -18828,7 +18831,7 @@
         <v>137</v>
       </c>
       <c r="P87" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q87">
         <v>4.95</v>
@@ -18909,7 +18912,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ87">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR87">
         <v>2.06</v>
@@ -19034,7 +19037,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q88">
         <v>2.77</v>
@@ -19115,7 +19118,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ88">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR88">
         <v>1.27</v>
@@ -19240,7 +19243,7 @@
         <v>138</v>
       </c>
       <c r="P89" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -19318,7 +19321,7 @@
         <v>1.88</v>
       </c>
       <c r="AP89">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ89">
         <v>1.58</v>
@@ -19446,7 +19449,7 @@
         <v>122</v>
       </c>
       <c r="P90" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q90">
         <v>11</v>
@@ -19652,7 +19655,7 @@
         <v>139</v>
       </c>
       <c r="P91" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q91">
         <v>1.83</v>
@@ -19858,7 +19861,7 @@
         <v>140</v>
       </c>
       <c r="P92" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20064,7 +20067,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q93">
         <v>2.3</v>
@@ -20554,7 +20557,7 @@
         <v>1.78</v>
       </c>
       <c r="AP95">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ95">
         <v>1.58</v>
@@ -21094,7 +21097,7 @@
         <v>145</v>
       </c>
       <c r="P98" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -21175,7 +21178,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ98">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR98">
         <v>1.81</v>
@@ -21506,7 +21509,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -21584,10 +21587,10 @@
         <v>1.7</v>
       </c>
       <c r="AP100">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ100">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR100">
         <v>1.13</v>
@@ -21996,7 +21999,7 @@
         <v>0.89</v>
       </c>
       <c r="AP102">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ102">
         <v>1</v>
@@ -22124,7 +22127,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q103">
         <v>1.91</v>
@@ -22205,7 +22208,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ103">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR103">
         <v>2.14</v>
@@ -22948,7 +22951,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q107">
         <v>1.06</v>
@@ -23154,7 +23157,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23235,7 +23238,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ108">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR108">
         <v>1.62</v>
@@ -23360,7 +23363,7 @@
         <v>151</v>
       </c>
       <c r="P109" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q109">
         <v>2.2</v>
@@ -23566,7 +23569,7 @@
         <v>81</v>
       </c>
       <c r="P110" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23850,7 +23853,7 @@
         <v>2.7</v>
       </c>
       <c r="AP111">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ111">
         <v>2.75</v>
@@ -23978,7 +23981,7 @@
         <v>81</v>
       </c>
       <c r="P112" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24184,7 +24187,7 @@
         <v>152</v>
       </c>
       <c r="P113" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -24390,7 +24393,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q114">
         <v>2.1</v>
@@ -24674,7 +24677,7 @@
         <v>0.91</v>
       </c>
       <c r="AP115">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ115">
         <v>0.83</v>
@@ -24802,7 +24805,7 @@
         <v>155</v>
       </c>
       <c r="P116" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q116">
         <v>2.5</v>
@@ -24883,7 +24886,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ116">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR116">
         <v>1.74</v>
@@ -25008,7 +25011,7 @@
         <v>156</v>
       </c>
       <c r="P117" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q117">
         <v>1.91</v>
@@ -25626,7 +25629,7 @@
         <v>81</v>
       </c>
       <c r="P120" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q120">
         <v>5.33</v>
@@ -25832,7 +25835,7 @@
         <v>81</v>
       </c>
       <c r="P121" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -26038,7 +26041,7 @@
         <v>153</v>
       </c>
       <c r="P122" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q122">
         <v>6.41</v>
@@ -26131,22 +26134,22 @@
         <v>3.92</v>
       </c>
       <c r="AU122">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV122">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW122">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX122">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY122">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AZ122">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BA122">
         <v>4</v>
@@ -26194,6 +26197,418 @@
         <v>0</v>
       </c>
       <c r="BP122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7325256</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45529.45833333334</v>
+      </c>
+      <c r="F123">
+        <v>25</v>
+      </c>
+      <c r="G123" t="s">
+        <v>79</v>
+      </c>
+      <c r="H123" t="s">
+        <v>73</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>2</v>
+      </c>
+      <c r="O123" t="s">
+        <v>104</v>
+      </c>
+      <c r="P123" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q123">
+        <v>3.25</v>
+      </c>
+      <c r="R123">
+        <v>2.2</v>
+      </c>
+      <c r="S123">
+        <v>2.88</v>
+      </c>
+      <c r="T123">
+        <v>1.35</v>
+      </c>
+      <c r="U123">
+        <v>2.9</v>
+      </c>
+      <c r="V123">
+        <v>2.6</v>
+      </c>
+      <c r="W123">
+        <v>1.45</v>
+      </c>
+      <c r="X123">
+        <v>6.75</v>
+      </c>
+      <c r="Y123">
+        <v>1.11</v>
+      </c>
+      <c r="Z123">
+        <v>2.82</v>
+      </c>
+      <c r="AA123">
+        <v>3.35</v>
+      </c>
+      <c r="AB123">
+        <v>2.36</v>
+      </c>
+      <c r="AC123">
+        <v>1.03</v>
+      </c>
+      <c r="AD123">
+        <v>14</v>
+      </c>
+      <c r="AE123">
+        <v>1.22</v>
+      </c>
+      <c r="AF123">
+        <v>3.7</v>
+      </c>
+      <c r="AG123">
+        <v>1.77</v>
+      </c>
+      <c r="AH123">
+        <v>1.94</v>
+      </c>
+      <c r="AI123">
+        <v>1.6</v>
+      </c>
+      <c r="AJ123">
+        <v>2.2</v>
+      </c>
+      <c r="AK123">
+        <v>1.52</v>
+      </c>
+      <c r="AL123">
+        <v>1.25</v>
+      </c>
+      <c r="AM123">
+        <v>1.45</v>
+      </c>
+      <c r="AN123">
+        <v>0.82</v>
+      </c>
+      <c r="AO123">
+        <v>0.91</v>
+      </c>
+      <c r="AP123">
+        <v>0.83</v>
+      </c>
+      <c r="AQ123">
+        <v>0.92</v>
+      </c>
+      <c r="AR123">
+        <v>1.09</v>
+      </c>
+      <c r="AS123">
+        <v>1.29</v>
+      </c>
+      <c r="AT123">
+        <v>2.38</v>
+      </c>
+      <c r="AU123">
+        <v>6</v>
+      </c>
+      <c r="AV123">
+        <v>4</v>
+      </c>
+      <c r="AW123">
+        <v>6</v>
+      </c>
+      <c r="AX123">
+        <v>4</v>
+      </c>
+      <c r="AY123">
+        <v>12</v>
+      </c>
+      <c r="AZ123">
+        <v>8</v>
+      </c>
+      <c r="BA123">
+        <v>5</v>
+      </c>
+      <c r="BB123">
+        <v>0</v>
+      </c>
+      <c r="BC123">
+        <v>5</v>
+      </c>
+      <c r="BD123">
+        <v>0</v>
+      </c>
+      <c r="BE123">
+        <v>0</v>
+      </c>
+      <c r="BF123">
+        <v>0</v>
+      </c>
+      <c r="BG123">
+        <v>0</v>
+      </c>
+      <c r="BH123">
+        <v>0</v>
+      </c>
+      <c r="BI123">
+        <v>0</v>
+      </c>
+      <c r="BJ123">
+        <v>0</v>
+      </c>
+      <c r="BK123">
+        <v>0</v>
+      </c>
+      <c r="BL123">
+        <v>0</v>
+      </c>
+      <c r="BM123">
+        <v>0</v>
+      </c>
+      <c r="BN123">
+        <v>0</v>
+      </c>
+      <c r="BO123">
+        <v>0</v>
+      </c>
+      <c r="BP123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7325257</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45529.54166666666</v>
+      </c>
+      <c r="F124">
+        <v>25</v>
+      </c>
+      <c r="G124" t="s">
+        <v>72</v>
+      </c>
+      <c r="H124" t="s">
+        <v>76</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>3</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>3</v>
+      </c>
+      <c r="O124" t="s">
+        <v>159</v>
+      </c>
+      <c r="P124" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q124">
+        <v>2.38</v>
+      </c>
+      <c r="R124">
+        <v>2.38</v>
+      </c>
+      <c r="S124">
+        <v>3.75</v>
+      </c>
+      <c r="T124">
+        <v>1.3</v>
+      </c>
+      <c r="U124">
+        <v>2.9</v>
+      </c>
+      <c r="V124">
+        <v>2.65</v>
+      </c>
+      <c r="W124">
+        <v>1.46</v>
+      </c>
+      <c r="X124">
+        <v>7.25</v>
+      </c>
+      <c r="Y124">
+        <v>1.1</v>
+      </c>
+      <c r="Z124">
+        <v>1.71</v>
+      </c>
+      <c r="AA124">
+        <v>3.6</v>
+      </c>
+      <c r="AB124">
+        <v>3.9</v>
+      </c>
+      <c r="AC124">
+        <v>1.01</v>
+      </c>
+      <c r="AD124">
+        <v>11</v>
+      </c>
+      <c r="AE124">
+        <v>1.24</v>
+      </c>
+      <c r="AF124">
+        <v>3.6</v>
+      </c>
+      <c r="AG124">
+        <v>1.73</v>
+      </c>
+      <c r="AH124">
+        <v>1.91</v>
+      </c>
+      <c r="AI124">
+        <v>1.72</v>
+      </c>
+      <c r="AJ124">
+        <v>2</v>
+      </c>
+      <c r="AK124">
+        <v>1.32</v>
+      </c>
+      <c r="AL124">
+        <v>1.22</v>
+      </c>
+      <c r="AM124">
+        <v>1.6</v>
+      </c>
+      <c r="AN124">
+        <v>2.33</v>
+      </c>
+      <c r="AO124">
+        <v>1.92</v>
+      </c>
+      <c r="AP124">
+        <v>2.38</v>
+      </c>
+      <c r="AQ124">
+        <v>1.77</v>
+      </c>
+      <c r="AR124">
+        <v>2.48</v>
+      </c>
+      <c r="AS124">
+        <v>1.84</v>
+      </c>
+      <c r="AT124">
+        <v>4.32</v>
+      </c>
+      <c r="AU124">
+        <v>5</v>
+      </c>
+      <c r="AV124">
+        <v>3</v>
+      </c>
+      <c r="AW124">
+        <v>6</v>
+      </c>
+      <c r="AX124">
+        <v>8</v>
+      </c>
+      <c r="AY124">
+        <v>11</v>
+      </c>
+      <c r="AZ124">
+        <v>11</v>
+      </c>
+      <c r="BA124">
+        <v>4</v>
+      </c>
+      <c r="BB124">
+        <v>1</v>
+      </c>
+      <c r="BC124">
+        <v>5</v>
+      </c>
+      <c r="BD124">
+        <v>0</v>
+      </c>
+      <c r="BE124">
+        <v>0</v>
+      </c>
+      <c r="BF124">
+        <v>0</v>
+      </c>
+      <c r="BG124">
+        <v>0</v>
+      </c>
+      <c r="BH124">
+        <v>0</v>
+      </c>
+      <c r="BI124">
+        <v>0</v>
+      </c>
+      <c r="BJ124">
+        <v>0</v>
+      </c>
+      <c r="BK124">
+        <v>0</v>
+      </c>
+      <c r="BL124">
+        <v>0</v>
+      </c>
+      <c r="BM124">
+        <v>0</v>
+      </c>
+      <c r="BN124">
+        <v>0</v>
+      </c>
+      <c r="BO124">
+        <v>0</v>
+      </c>
+      <c r="BP124">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -26134,22 +26134,22 @@
         <v>3.92</v>
       </c>
       <c r="AU122">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV122">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW122">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX122">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY122">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ122">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA122">
         <v>4</v>
@@ -26340,22 +26340,22 @@
         <v>2.38</v>
       </c>
       <c r="AU123">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV123">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW123">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AX123">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AY123">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AZ123">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BA123">
         <v>5</v>
@@ -26546,22 +26546,22 @@
         <v>4.32</v>
       </c>
       <c r="AU124">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AV124">
         <v>3</v>
       </c>
       <c r="AW124">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AX124">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY124">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AZ124">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA124">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="230">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -494,6 +494,9 @@
   </si>
   <si>
     <t>['20', '65', '67']</t>
+  </si>
+  <si>
+    <t>['3', '79']</t>
   </si>
   <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
@@ -1062,7 +1065,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP124"/>
+  <dimension ref="A1:BP125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1399,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ2">
         <v>0.23</v>
@@ -1527,7 +1530,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1939,7 +1942,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -2145,7 +2148,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2557,7 +2560,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2638,7 +2641,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ8">
-        <v>2.75</v>
+        <v>2.54</v>
       </c>
       <c r="AR8">
         <v>1.63</v>
@@ -2969,7 +2972,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -3175,7 +3178,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3253,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ11">
         <v>0.92</v>
@@ -3381,7 +3384,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3462,7 +3465,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ12">
-        <v>2.75</v>
+        <v>2.54</v>
       </c>
       <c r="AR12">
         <v>1.76</v>
@@ -3587,7 +3590,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3793,7 +3796,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3999,7 +4002,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4617,7 +4620,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -5441,7 +5444,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5647,7 +5650,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5728,7 +5731,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ23">
-        <v>2.75</v>
+        <v>2.54</v>
       </c>
       <c r="AR23">
         <v>2.56</v>
@@ -5853,7 +5856,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -6059,7 +6062,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6137,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ25">
         <v>1.17</v>
@@ -6471,7 +6474,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6677,7 +6680,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -7089,7 +7092,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7295,7 +7298,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7501,7 +7504,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7582,7 +7585,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ32">
-        <v>2.75</v>
+        <v>2.54</v>
       </c>
       <c r="AR32">
         <v>1.47</v>
@@ -7707,7 +7710,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7785,7 +7788,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ33">
         <v>1.92</v>
@@ -7913,7 +7916,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -8119,7 +8122,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8737,7 +8740,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8815,7 +8818,7 @@
         <v>2.33</v>
       </c>
       <c r="AP38">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ38">
         <v>1.77</v>
@@ -8943,7 +8946,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -9149,7 +9152,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9355,7 +9358,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9561,7 +9564,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9642,7 +9645,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ42">
-        <v>2.75</v>
+        <v>2.54</v>
       </c>
       <c r="AR42">
         <v>2.19</v>
@@ -9767,7 +9770,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -10179,7 +10182,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -11287,10 +11290,10 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ50">
-        <v>2.75</v>
+        <v>2.54</v>
       </c>
       <c r="AR50">
         <v>1.81</v>
@@ -11415,7 +11418,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -11493,7 +11496,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ51">
         <v>1.08</v>
@@ -12239,7 +12242,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12445,7 +12448,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12651,7 +12654,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13269,7 +13272,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13350,7 +13353,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ60">
-        <v>2.75</v>
+        <v>2.54</v>
       </c>
       <c r="AR60">
         <v>1.27</v>
@@ -13553,7 +13556,7 @@
         <v>0.8</v>
       </c>
       <c r="AP61">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ61">
         <v>1</v>
@@ -13681,7 +13684,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13887,7 +13890,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -14093,7 +14096,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14299,7 +14302,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14505,7 +14508,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14711,7 +14714,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -14917,7 +14920,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -15123,7 +15126,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15329,7 +15332,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15410,7 +15413,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ70">
-        <v>2.75</v>
+        <v>2.54</v>
       </c>
       <c r="AR70">
         <v>2.27</v>
@@ -15535,7 +15538,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15819,7 +15822,7 @@
         <v>1.63</v>
       </c>
       <c r="AP72">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ72">
         <v>1.92</v>
@@ -16565,7 +16568,7 @@
         <v>131</v>
       </c>
       <c r="P76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16977,7 +16980,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17183,7 +17186,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q79">
         <v>1.53</v>
@@ -17389,7 +17392,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17595,7 +17598,7 @@
         <v>81</v>
       </c>
       <c r="P81" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q81">
         <v>1.6</v>
@@ -18007,7 +18010,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q83">
         <v>8.5</v>
@@ -18088,7 +18091,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ83">
-        <v>2.75</v>
+        <v>2.54</v>
       </c>
       <c r="AR83">
         <v>1.25</v>
@@ -18213,7 +18216,7 @@
         <v>81</v>
       </c>
       <c r="P84" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18497,7 +18500,7 @@
         <v>1.13</v>
       </c>
       <c r="AP85">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ85">
         <v>0.83</v>
@@ -18625,7 +18628,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q86">
         <v>5.66</v>
@@ -18831,7 +18834,7 @@
         <v>137</v>
       </c>
       <c r="P87" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q87">
         <v>4.95</v>
@@ -19037,7 +19040,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q88">
         <v>2.77</v>
@@ -19243,7 +19246,7 @@
         <v>138</v>
       </c>
       <c r="P89" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -19449,7 +19452,7 @@
         <v>122</v>
       </c>
       <c r="P90" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q90">
         <v>11</v>
@@ -19530,7 +19533,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ90">
-        <v>2.75</v>
+        <v>2.54</v>
       </c>
       <c r="AR90">
         <v>1.96</v>
@@ -19655,7 +19658,7 @@
         <v>139</v>
       </c>
       <c r="P91" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q91">
         <v>1.83</v>
@@ -19861,7 +19864,7 @@
         <v>140</v>
       </c>
       <c r="P92" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20067,7 +20070,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q93">
         <v>2.3</v>
@@ -21097,7 +21100,7 @@
         <v>145</v>
       </c>
       <c r="P98" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -21509,7 +21512,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -22127,7 +22130,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q103">
         <v>1.91</v>
@@ -22951,7 +22954,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q107">
         <v>1.06</v>
@@ -23157,7 +23160,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23363,7 +23366,7 @@
         <v>151</v>
       </c>
       <c r="P109" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q109">
         <v>2.2</v>
@@ -23441,7 +23444,7 @@
         <v>1.1</v>
       </c>
       <c r="AP109">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ109">
         <v>1.17</v>
@@ -23569,7 +23572,7 @@
         <v>81</v>
       </c>
       <c r="P110" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23856,7 +23859,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ111">
-        <v>2.75</v>
+        <v>2.54</v>
       </c>
       <c r="AR111">
         <v>1.13</v>
@@ -23981,7 +23984,7 @@
         <v>81</v>
       </c>
       <c r="P112" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24187,7 +24190,7 @@
         <v>152</v>
       </c>
       <c r="P113" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -24268,7 +24271,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ113">
-        <v>2.75</v>
+        <v>2.54</v>
       </c>
       <c r="AR113">
         <v>1.62</v>
@@ -24393,7 +24396,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q114">
         <v>2.1</v>
@@ -24805,7 +24808,7 @@
         <v>155</v>
       </c>
       <c r="P116" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q116">
         <v>2.5</v>
@@ -25011,7 +25014,7 @@
         <v>156</v>
       </c>
       <c r="P117" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q117">
         <v>1.91</v>
@@ -25501,7 +25504,7 @@
         <v>0.25</v>
       </c>
       <c r="AP119">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ119">
         <v>0.23</v>
@@ -25629,7 +25632,7 @@
         <v>81</v>
       </c>
       <c r="P120" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q120">
         <v>5.33</v>
@@ -25835,7 +25838,7 @@
         <v>81</v>
       </c>
       <c r="P121" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -26041,7 +26044,7 @@
         <v>153</v>
       </c>
       <c r="P122" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q122">
         <v>6.41</v>
@@ -26247,7 +26250,7 @@
         <v>104</v>
       </c>
       <c r="P123" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26609,6 +26612,212 @@
         <v>0</v>
       </c>
       <c r="BP124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7325258</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45534.5625</v>
+      </c>
+      <c r="F125">
+        <v>26</v>
+      </c>
+      <c r="G125" t="s">
+        <v>70</v>
+      </c>
+      <c r="H125" t="s">
+        <v>72</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>2</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+      <c r="N125">
+        <v>3</v>
+      </c>
+      <c r="O125" t="s">
+        <v>160</v>
+      </c>
+      <c r="P125" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q125">
+        <v>4</v>
+      </c>
+      <c r="R125">
+        <v>2.2</v>
+      </c>
+      <c r="S125">
+        <v>2.4</v>
+      </c>
+      <c r="T125">
+        <v>1.38</v>
+      </c>
+      <c r="U125">
+        <v>2.9</v>
+      </c>
+      <c r="V125">
+        <v>2.77</v>
+      </c>
+      <c r="W125">
+        <v>1.41</v>
+      </c>
+      <c r="X125">
+        <v>6.85</v>
+      </c>
+      <c r="Y125">
+        <v>1.08</v>
+      </c>
+      <c r="Z125">
+        <v>4.4</v>
+      </c>
+      <c r="AA125">
+        <v>3.75</v>
+      </c>
+      <c r="AB125">
+        <v>1.67</v>
+      </c>
+      <c r="AC125">
+        <v>1.01</v>
+      </c>
+      <c r="AD125">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE125">
+        <v>1.26</v>
+      </c>
+      <c r="AF125">
+        <v>3.34</v>
+      </c>
+      <c r="AG125">
+        <v>1.82</v>
+      </c>
+      <c r="AH125">
+        <v>1.89</v>
+      </c>
+      <c r="AI125">
+        <v>1.73</v>
+      </c>
+      <c r="AJ125">
+        <v>1.94</v>
+      </c>
+      <c r="AK125">
+        <v>1.83</v>
+      </c>
+      <c r="AL125">
+        <v>1.25</v>
+      </c>
+      <c r="AM125">
+        <v>1.22</v>
+      </c>
+      <c r="AN125">
+        <v>2.17</v>
+      </c>
+      <c r="AO125">
+        <v>2.75</v>
+      </c>
+      <c r="AP125">
+        <v>2.23</v>
+      </c>
+      <c r="AQ125">
+        <v>2.54</v>
+      </c>
+      <c r="AR125">
+        <v>1.88</v>
+      </c>
+      <c r="AS125">
+        <v>2.39</v>
+      </c>
+      <c r="AT125">
+        <v>4.27</v>
+      </c>
+      <c r="AU125">
+        <v>10</v>
+      </c>
+      <c r="AV125">
+        <v>6</v>
+      </c>
+      <c r="AW125">
+        <v>2</v>
+      </c>
+      <c r="AX125">
+        <v>11</v>
+      </c>
+      <c r="AY125">
+        <v>12</v>
+      </c>
+      <c r="AZ125">
+        <v>17</v>
+      </c>
+      <c r="BA125">
+        <v>2</v>
+      </c>
+      <c r="BB125">
+        <v>6</v>
+      </c>
+      <c r="BC125">
+        <v>8</v>
+      </c>
+      <c r="BD125">
+        <v>0</v>
+      </c>
+      <c r="BE125">
+        <v>0</v>
+      </c>
+      <c r="BF125">
+        <v>0</v>
+      </c>
+      <c r="BG125">
+        <v>0</v>
+      </c>
+      <c r="BH125">
+        <v>0</v>
+      </c>
+      <c r="BI125">
+        <v>0</v>
+      </c>
+      <c r="BJ125">
+        <v>0</v>
+      </c>
+      <c r="BK125">
+        <v>0</v>
+      </c>
+      <c r="BL125">
+        <v>0</v>
+      </c>
+      <c r="BM125">
+        <v>0</v>
+      </c>
+      <c r="BN125">
+        <v>0</v>
+      </c>
+      <c r="BO125">
+        <v>0</v>
+      </c>
+      <c r="BP125">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="231">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -705,6 +705,9 @@
   <si>
     <t>['21', '46', '50']</t>
   </si>
+  <si>
+    <t>['25']</t>
+  </si>
 </sst>
 </file>
 
@@ -1065,7 +1068,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP125"/>
+  <dimension ref="A1:BP126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2023,7 +2026,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ5">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -3874,10 +3877,10 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ14">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4904,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ19">
         <v>0.23</v>
@@ -5525,7 +5528,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ22">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>0.74</v>
@@ -6758,7 +6761,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ28">
         <v>0.92</v>
@@ -8203,7 +8206,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ35">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>2.56</v>
@@ -9848,7 +9851,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ43">
         <v>1.92</v>
@@ -10469,7 +10472,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ46">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR46">
         <v>1.97</v>
@@ -10878,7 +10881,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ48">
         <v>1.08</v>
@@ -11705,7 +11708,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ52">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR52">
         <v>1.6</v>
@@ -12732,7 +12735,7 @@
         <v>1.6</v>
       </c>
       <c r="AP57">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ57">
         <v>1.58</v>
@@ -14383,7 +14386,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ65">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR65">
         <v>1.14</v>
@@ -16234,7 +16237,7 @@
         <v>2.14</v>
       </c>
       <c r="AP74">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ74">
         <v>1.77</v>
@@ -17267,7 +17270,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ79">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR79">
         <v>2.5</v>
@@ -18294,7 +18297,7 @@
         <v>0.57</v>
       </c>
       <c r="AP84">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ84">
         <v>1</v>
@@ -18503,7 +18506,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ85">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR85">
         <v>1.88</v>
@@ -19530,7 +19533,7 @@
         <v>2.67</v>
       </c>
       <c r="AP90">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ90">
         <v>2.54</v>
@@ -20769,7 +20772,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ96">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR96">
         <v>1.57</v>
@@ -21178,7 +21181,7 @@
         <v>1.78</v>
       </c>
       <c r="AP98">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ98">
         <v>1.77</v>
@@ -22414,7 +22417,7 @@
         <v>0.2</v>
       </c>
       <c r="AP104">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ104">
         <v>0.23</v>
@@ -22623,7 +22626,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ105">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR105">
         <v>2.01</v>
@@ -24683,7 +24686,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ115">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR115">
         <v>2.51</v>
@@ -24886,7 +24889,7 @@
         <v>0.9</v>
       </c>
       <c r="AP116">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ116">
         <v>0.92</v>
@@ -26818,6 +26821,212 @@
         <v>0</v>
       </c>
       <c r="BP125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7325259</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45535.45833333334</v>
+      </c>
+      <c r="F126">
+        <v>26</v>
+      </c>
+      <c r="G126" t="s">
+        <v>78</v>
+      </c>
+      <c r="H126" t="s">
+        <v>75</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+      <c r="N126">
+        <v>1</v>
+      </c>
+      <c r="O126" t="s">
+        <v>81</v>
+      </c>
+      <c r="P126" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q126">
+        <v>2.6</v>
+      </c>
+      <c r="R126">
+        <v>2.05</v>
+      </c>
+      <c r="S126">
+        <v>4.33</v>
+      </c>
+      <c r="T126">
+        <v>1.44</v>
+      </c>
+      <c r="U126">
+        <v>2.66</v>
+      </c>
+      <c r="V126">
+        <v>3.04</v>
+      </c>
+      <c r="W126">
+        <v>1.35</v>
+      </c>
+      <c r="X126">
+        <v>8</v>
+      </c>
+      <c r="Y126">
+        <v>1.06</v>
+      </c>
+      <c r="Z126">
+        <v>1.88</v>
+      </c>
+      <c r="AA126">
+        <v>3.3</v>
+      </c>
+      <c r="AB126">
+        <v>3.4</v>
+      </c>
+      <c r="AC126">
+        <v>1.05</v>
+      </c>
+      <c r="AD126">
+        <v>8</v>
+      </c>
+      <c r="AE126">
+        <v>1.3</v>
+      </c>
+      <c r="AF126">
+        <v>3.2</v>
+      </c>
+      <c r="AG126">
+        <v>1.88</v>
+      </c>
+      <c r="AH126">
+        <v>1.93</v>
+      </c>
+      <c r="AI126">
+        <v>1.83</v>
+      </c>
+      <c r="AJ126">
+        <v>1.83</v>
+      </c>
+      <c r="AK126">
+        <v>1.24</v>
+      </c>
+      <c r="AL126">
+        <v>1.28</v>
+      </c>
+      <c r="AM126">
+        <v>1.74</v>
+      </c>
+      <c r="AN126">
+        <v>1.17</v>
+      </c>
+      <c r="AO126">
+        <v>0.83</v>
+      </c>
+      <c r="AP126">
+        <v>1.08</v>
+      </c>
+      <c r="AQ126">
+        <v>1</v>
+      </c>
+      <c r="AR126">
+        <v>1.74</v>
+      </c>
+      <c r="AS126">
+        <v>1.66</v>
+      </c>
+      <c r="AT126">
+        <v>3.4</v>
+      </c>
+      <c r="AU126">
+        <v>9</v>
+      </c>
+      <c r="AV126">
+        <v>7</v>
+      </c>
+      <c r="AW126">
+        <v>10</v>
+      </c>
+      <c r="AX126">
+        <v>4</v>
+      </c>
+      <c r="AY126">
+        <v>19</v>
+      </c>
+      <c r="AZ126">
+        <v>11</v>
+      </c>
+      <c r="BA126">
+        <v>10</v>
+      </c>
+      <c r="BB126">
+        <v>5</v>
+      </c>
+      <c r="BC126">
+        <v>15</v>
+      </c>
+      <c r="BD126">
+        <v>0</v>
+      </c>
+      <c r="BE126">
+        <v>0</v>
+      </c>
+      <c r="BF126">
+        <v>0</v>
+      </c>
+      <c r="BG126">
+        <v>0</v>
+      </c>
+      <c r="BH126">
+        <v>0</v>
+      </c>
+      <c r="BI126">
+        <v>0</v>
+      </c>
+      <c r="BJ126">
+        <v>0</v>
+      </c>
+      <c r="BK126">
+        <v>0</v>
+      </c>
+      <c r="BL126">
+        <v>0</v>
+      </c>
+      <c r="BM126">
+        <v>0</v>
+      </c>
+      <c r="BN126">
+        <v>0</v>
+      </c>
+      <c r="BO126">
+        <v>0</v>
+      </c>
+      <c r="BP126">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="235">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -499,6 +499,12 @@
     <t>['3', '79']</t>
   </si>
   <si>
+    <t>['53', '71']</t>
+  </si>
+  <si>
+    <t>['51', '85']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -707,6 +713,12 @@
   </si>
   <si>
     <t>['25']</t>
+  </si>
+  <si>
+    <t>['26', '88']</t>
+  </si>
+  <si>
+    <t>['6', '9', '37', '62']</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1080,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP126"/>
+  <dimension ref="A1:BP129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1533,7 +1545,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1945,7 +1957,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -2023,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -2151,7 +2163,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2232,7 +2244,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ6">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2438,7 +2450,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ7">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2563,7 +2575,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2847,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AQ9">
         <v>1.17</v>
@@ -2975,7 +2987,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -3181,7 +3193,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3387,7 +3399,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3465,7 +3477,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
         <v>2.54</v>
@@ -3593,7 +3605,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3799,7 +3811,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -4005,7 +4017,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4289,7 +4301,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ16">
         <v>1.77</v>
@@ -4623,7 +4635,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -5322,7 +5334,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ21">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR21">
         <v>2.61</v>
@@ -5447,7 +5459,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5525,7 +5537,7 @@
         <v>2</v>
       </c>
       <c r="AP22">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -5653,7 +5665,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5731,7 +5743,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AQ23">
         <v>2.54</v>
@@ -5859,7 +5871,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -6065,7 +6077,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6349,10 +6361,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ26">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>1.42</v>
@@ -6477,7 +6489,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6683,7 +6695,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -7095,7 +7107,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7301,7 +7313,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7379,10 +7391,10 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AQ31">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR31">
         <v>2.12</v>
@@ -7507,7 +7519,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7585,7 +7597,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ32">
         <v>2.54</v>
@@ -7713,7 +7725,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7794,7 +7806,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ33">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR33">
         <v>1.95</v>
@@ -7919,7 +7931,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -7997,7 +8009,7 @@
         <v>0.67</v>
       </c>
       <c r="AP34">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ34">
         <v>0.92</v>
@@ -8125,7 +8137,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8412,7 +8424,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ36">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>2.43</v>
@@ -8743,7 +8755,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8949,7 +8961,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -9155,7 +9167,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9233,7 +9245,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ40">
         <v>1.77</v>
@@ -9361,7 +9373,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9567,7 +9579,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9773,7 +9785,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9854,7 +9866,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ43">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR43">
         <v>1.92</v>
@@ -10060,7 +10072,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ44">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR44">
         <v>2.3</v>
@@ -10185,7 +10197,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10263,7 +10275,7 @@
         <v>1.25</v>
       </c>
       <c r="AP45">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ45">
         <v>1.58</v>
@@ -10469,7 +10481,7 @@
         <v>1.75</v>
       </c>
       <c r="AP46">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -10675,7 +10687,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ47">
         <v>1</v>
@@ -10884,7 +10896,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ48">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR48">
         <v>1.86</v>
@@ -11421,7 +11433,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -11502,7 +11514,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ51">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR51">
         <v>1.74</v>
@@ -12117,7 +12129,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ54">
         <v>1.17</v>
@@ -12245,7 +12257,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12323,10 +12335,10 @@
         <v>1.17</v>
       </c>
       <c r="AP55">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ55">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR55">
         <v>1.18</v>
@@ -12451,7 +12463,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12532,7 +12544,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ56">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR56">
         <v>1.96</v>
@@ -12657,7 +12669,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12941,7 +12953,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AQ58">
         <v>1</v>
@@ -13147,7 +13159,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ59">
         <v>0.23</v>
@@ -13275,7 +13287,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13687,7 +13699,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13893,7 +13905,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -14099,7 +14111,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14177,7 +14189,7 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ64">
         <v>1.17</v>
@@ -14305,7 +14317,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14511,7 +14523,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14717,7 +14729,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -14798,7 +14810,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ67">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR67">
         <v>1.58</v>
@@ -14923,7 +14935,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -15001,7 +15013,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AQ68">
         <v>0.23</v>
@@ -15129,7 +15141,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15207,7 +15219,7 @@
         <v>1.83</v>
       </c>
       <c r="AP69">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ69">
         <v>1.58</v>
@@ -15335,7 +15347,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15541,7 +15553,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15619,10 +15631,10 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ71">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR71">
         <v>1.2</v>
@@ -15828,7 +15840,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ72">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR72">
         <v>1.97</v>
@@ -16571,7 +16583,7 @@
         <v>131</v>
       </c>
       <c r="P76" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16649,10 +16661,10 @@
         <v>1.44</v>
       </c>
       <c r="AP76">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ76">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR76">
         <v>1.56</v>
@@ -16855,7 +16867,7 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AQ77">
         <v>1.58</v>
@@ -16983,7 +16995,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17189,7 +17201,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q79">
         <v>1.53</v>
@@ -17395,7 +17407,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17601,7 +17613,7 @@
         <v>81</v>
       </c>
       <c r="P81" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q81">
         <v>1.6</v>
@@ -17682,7 +17694,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ81">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR81">
         <v>2.16</v>
@@ -17885,7 +17897,7 @@
         <v>0.86</v>
       </c>
       <c r="AP82">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AQ82">
         <v>0.92</v>
@@ -18013,7 +18025,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q83">
         <v>8.5</v>
@@ -18091,7 +18103,7 @@
         <v>2.63</v>
       </c>
       <c r="AP83">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ83">
         <v>2.54</v>
@@ -18219,7 +18231,7 @@
         <v>81</v>
       </c>
       <c r="P84" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18631,7 +18643,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q86">
         <v>5.66</v>
@@ -18712,7 +18724,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ86">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR86">
         <v>1.61</v>
@@ -18837,7 +18849,7 @@
         <v>137</v>
       </c>
       <c r="P87" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q87">
         <v>4.95</v>
@@ -19043,7 +19055,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q88">
         <v>2.77</v>
@@ -19249,7 +19261,7 @@
         <v>138</v>
       </c>
       <c r="P89" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -19327,7 +19339,7 @@
         <v>1.88</v>
       </c>
       <c r="AP89">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ89">
         <v>1.58</v>
@@ -19455,7 +19467,7 @@
         <v>122</v>
       </c>
       <c r="P90" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q90">
         <v>11</v>
@@ -19661,7 +19673,7 @@
         <v>139</v>
       </c>
       <c r="P91" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q91">
         <v>1.83</v>
@@ -19739,10 +19751,10 @@
         <v>1.13</v>
       </c>
       <c r="AP91">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AQ91">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR91">
         <v>1.99</v>
@@ -19867,7 +19879,7 @@
         <v>140</v>
       </c>
       <c r="P92" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -19945,7 +19957,7 @@
         <v>0.88</v>
       </c>
       <c r="AP92">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ92">
         <v>1</v>
@@ -20073,7 +20085,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q93">
         <v>2.3</v>
@@ -21103,7 +21115,7 @@
         <v>145</v>
       </c>
       <c r="P98" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -21515,7 +21527,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -21593,7 +21605,7 @@
         <v>1.7</v>
       </c>
       <c r="AP100">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ100">
         <v>1.77</v>
@@ -22133,7 +22145,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q103">
         <v>1.91</v>
@@ -22623,7 +22635,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AQ105">
         <v>1</v>
@@ -22832,7 +22844,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ106">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR106">
         <v>1.5</v>
@@ -22957,7 +22969,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q107">
         <v>1.06</v>
@@ -23038,7 +23050,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ107">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR107">
         <v>2.13</v>
@@ -23163,7 +23175,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23241,7 +23253,7 @@
         <v>1.82</v>
       </c>
       <c r="AP108">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ108">
         <v>1.77</v>
@@ -23369,7 +23381,7 @@
         <v>151</v>
       </c>
       <c r="P109" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q109">
         <v>2.2</v>
@@ -23575,7 +23587,7 @@
         <v>81</v>
       </c>
       <c r="P110" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23656,7 +23668,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ110">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR110">
         <v>1.47</v>
@@ -23859,7 +23871,7 @@
         <v>2.7</v>
       </c>
       <c r="AP111">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ111">
         <v>2.54</v>
@@ -23987,7 +23999,7 @@
         <v>81</v>
       </c>
       <c r="P112" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24065,7 +24077,7 @@
         <v>0.9</v>
       </c>
       <c r="AP112">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AQ112">
         <v>1</v>
@@ -24193,7 +24205,7 @@
         <v>152</v>
       </c>
       <c r="P113" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -24399,7 +24411,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q114">
         <v>2.1</v>
@@ -24811,7 +24823,7 @@
         <v>155</v>
       </c>
       <c r="P116" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q116">
         <v>2.5</v>
@@ -25017,7 +25029,7 @@
         <v>156</v>
       </c>
       <c r="P117" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q117">
         <v>1.91</v>
@@ -25095,7 +25107,7 @@
         <v>1.09</v>
       </c>
       <c r="AP117">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AQ117">
         <v>1</v>
@@ -25304,7 +25316,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ118">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR118">
         <v>2.29</v>
@@ -25635,7 +25647,7 @@
         <v>81</v>
       </c>
       <c r="P120" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q120">
         <v>5.33</v>
@@ -25841,7 +25853,7 @@
         <v>81</v>
       </c>
       <c r="P121" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -26047,7 +26059,7 @@
         <v>153</v>
       </c>
       <c r="P122" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q122">
         <v>6.41</v>
@@ -26128,7 +26140,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ122">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR122">
         <v>2.06</v>
@@ -26253,7 +26265,7 @@
         <v>104</v>
       </c>
       <c r="P123" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26331,7 +26343,7 @@
         <v>0.91</v>
       </c>
       <c r="AP123">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ123">
         <v>0.92</v>
@@ -26665,7 +26677,7 @@
         <v>160</v>
       </c>
       <c r="P125" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -26871,7 +26883,7 @@
         <v>81</v>
       </c>
       <c r="P126" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q126">
         <v>2.6</v>
@@ -27027,6 +27039,624 @@
         <v>0</v>
       </c>
       <c r="BP126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7325260</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45536.35416666666</v>
+      </c>
+      <c r="F127">
+        <v>26</v>
+      </c>
+      <c r="G127" t="s">
+        <v>79</v>
+      </c>
+      <c r="H127" t="s">
+        <v>71</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>2</v>
+      </c>
+      <c r="M127">
+        <v>2</v>
+      </c>
+      <c r="N127">
+        <v>4</v>
+      </c>
+      <c r="O127" t="s">
+        <v>161</v>
+      </c>
+      <c r="P127" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q127">
+        <v>3.75</v>
+      </c>
+      <c r="R127">
+        <v>2.1</v>
+      </c>
+      <c r="S127">
+        <v>2.63</v>
+      </c>
+      <c r="T127">
+        <v>1.41</v>
+      </c>
+      <c r="U127">
+        <v>2.77</v>
+      </c>
+      <c r="V127">
+        <v>2.9</v>
+      </c>
+      <c r="W127">
+        <v>1.38</v>
+      </c>
+      <c r="X127">
+        <v>7.4</v>
+      </c>
+      <c r="Y127">
+        <v>1.07</v>
+      </c>
+      <c r="Z127">
+        <v>2.64</v>
+      </c>
+      <c r="AA127">
+        <v>3.02</v>
+      </c>
+      <c r="AB127">
+        <v>2.17</v>
+      </c>
+      <c r="AC127">
+        <v>1.03</v>
+      </c>
+      <c r="AD127">
+        <v>9</v>
+      </c>
+      <c r="AE127">
+        <v>1.29</v>
+      </c>
+      <c r="AF127">
+        <v>3.3</v>
+      </c>
+      <c r="AG127">
+        <v>1.8</v>
+      </c>
+      <c r="AH127">
+        <v>1.96</v>
+      </c>
+      <c r="AI127">
+        <v>1.67</v>
+      </c>
+      <c r="AJ127">
+        <v>2.1</v>
+      </c>
+      <c r="AK127">
+        <v>1.65</v>
+      </c>
+      <c r="AL127">
+        <v>1.28</v>
+      </c>
+      <c r="AM127">
+        <v>1.29</v>
+      </c>
+      <c r="AN127">
+        <v>0.83</v>
+      </c>
+      <c r="AO127">
+        <v>1</v>
+      </c>
+      <c r="AP127">
+        <v>0.85</v>
+      </c>
+      <c r="AQ127">
+        <v>1</v>
+      </c>
+      <c r="AR127">
+        <v>1.18</v>
+      </c>
+      <c r="AS127">
+        <v>1.43</v>
+      </c>
+      <c r="AT127">
+        <v>2.61</v>
+      </c>
+      <c r="AU127">
+        <v>6</v>
+      </c>
+      <c r="AV127">
+        <v>4</v>
+      </c>
+      <c r="AW127">
+        <v>2</v>
+      </c>
+      <c r="AX127">
+        <v>8</v>
+      </c>
+      <c r="AY127">
+        <v>8</v>
+      </c>
+      <c r="AZ127">
+        <v>12</v>
+      </c>
+      <c r="BA127">
+        <v>8</v>
+      </c>
+      <c r="BB127">
+        <v>10</v>
+      </c>
+      <c r="BC127">
+        <v>18</v>
+      </c>
+      <c r="BD127">
+        <v>0</v>
+      </c>
+      <c r="BE127">
+        <v>0</v>
+      </c>
+      <c r="BF127">
+        <v>0</v>
+      </c>
+      <c r="BG127">
+        <v>0</v>
+      </c>
+      <c r="BH127">
+        <v>0</v>
+      </c>
+      <c r="BI127">
+        <v>0</v>
+      </c>
+      <c r="BJ127">
+        <v>0</v>
+      </c>
+      <c r="BK127">
+        <v>0</v>
+      </c>
+      <c r="BL127">
+        <v>0</v>
+      </c>
+      <c r="BM127">
+        <v>0</v>
+      </c>
+      <c r="BN127">
+        <v>0</v>
+      </c>
+      <c r="BO127">
+        <v>0</v>
+      </c>
+      <c r="BP127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7325261</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45536.45833333334</v>
+      </c>
+      <c r="F128">
+        <v>26</v>
+      </c>
+      <c r="G128" t="s">
+        <v>76</v>
+      </c>
+      <c r="H128" t="s">
+        <v>77</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>3</v>
+      </c>
+      <c r="K128">
+        <v>3</v>
+      </c>
+      <c r="L128">
+        <v>2</v>
+      </c>
+      <c r="M128">
+        <v>4</v>
+      </c>
+      <c r="N128">
+        <v>6</v>
+      </c>
+      <c r="O128" t="s">
+        <v>162</v>
+      </c>
+      <c r="P128" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q128">
+        <v>2.63</v>
+      </c>
+      <c r="R128">
+        <v>2.2</v>
+      </c>
+      <c r="S128">
+        <v>3.5</v>
+      </c>
+      <c r="T128">
+        <v>1.35</v>
+      </c>
+      <c r="U128">
+        <v>3.04</v>
+      </c>
+      <c r="V128">
+        <v>2.62</v>
+      </c>
+      <c r="W128">
+        <v>1.45</v>
+      </c>
+      <c r="X128">
+        <v>6.4</v>
+      </c>
+      <c r="Y128">
+        <v>1.1</v>
+      </c>
+      <c r="Z128">
+        <v>2.1</v>
+      </c>
+      <c r="AA128">
+        <v>3.02</v>
+      </c>
+      <c r="AB128">
+        <v>2.76</v>
+      </c>
+      <c r="AC128">
+        <v>1.02</v>
+      </c>
+      <c r="AD128">
+        <v>10</v>
+      </c>
+      <c r="AE128">
+        <v>1.2</v>
+      </c>
+      <c r="AF128">
+        <v>4</v>
+      </c>
+      <c r="AG128">
+        <v>1.88</v>
+      </c>
+      <c r="AH128">
+        <v>1.92</v>
+      </c>
+      <c r="AI128">
+        <v>1.57</v>
+      </c>
+      <c r="AJ128">
+        <v>2.25</v>
+      </c>
+      <c r="AK128">
+        <v>1.33</v>
+      </c>
+      <c r="AL128">
+        <v>1.26</v>
+      </c>
+      <c r="AM128">
+        <v>1.61</v>
+      </c>
+      <c r="AN128">
+        <v>2.36</v>
+      </c>
+      <c r="AO128">
+        <v>1.92</v>
+      </c>
+      <c r="AP128">
+        <v>2.17</v>
+      </c>
+      <c r="AQ128">
+        <v>2</v>
+      </c>
+      <c r="AR128">
+        <v>2</v>
+      </c>
+      <c r="AS128">
+        <v>1.84</v>
+      </c>
+      <c r="AT128">
+        <v>3.84</v>
+      </c>
+      <c r="AU128">
+        <v>7</v>
+      </c>
+      <c r="AV128">
+        <v>9</v>
+      </c>
+      <c r="AW128">
+        <v>12</v>
+      </c>
+      <c r="AX128">
+        <v>5</v>
+      </c>
+      <c r="AY128">
+        <v>19</v>
+      </c>
+      <c r="AZ128">
+        <v>14</v>
+      </c>
+      <c r="BA128">
+        <v>4</v>
+      </c>
+      <c r="BB128">
+        <v>3</v>
+      </c>
+      <c r="BC128">
+        <v>7</v>
+      </c>
+      <c r="BD128">
+        <v>0</v>
+      </c>
+      <c r="BE128">
+        <v>0</v>
+      </c>
+      <c r="BF128">
+        <v>0</v>
+      </c>
+      <c r="BG128">
+        <v>0</v>
+      </c>
+      <c r="BH128">
+        <v>0</v>
+      </c>
+      <c r="BI128">
+        <v>0</v>
+      </c>
+      <c r="BJ128">
+        <v>0</v>
+      </c>
+      <c r="BK128">
+        <v>0</v>
+      </c>
+      <c r="BL128">
+        <v>0</v>
+      </c>
+      <c r="BM128">
+        <v>0</v>
+      </c>
+      <c r="BN128">
+        <v>0</v>
+      </c>
+      <c r="BO128">
+        <v>0</v>
+      </c>
+      <c r="BP128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7325262</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45536.54166666666</v>
+      </c>
+      <c r="F129">
+        <v>26</v>
+      </c>
+      <c r="G129" t="s">
+        <v>73</v>
+      </c>
+      <c r="H129" t="s">
+        <v>74</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>1</v>
+      </c>
+      <c r="O129" t="s">
+        <v>116</v>
+      </c>
+      <c r="P129" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q129">
+        <v>3.25</v>
+      </c>
+      <c r="R129">
+        <v>2.2</v>
+      </c>
+      <c r="S129">
+        <v>2.88</v>
+      </c>
+      <c r="T129">
+        <v>1.35</v>
+      </c>
+      <c r="U129">
+        <v>3.04</v>
+      </c>
+      <c r="V129">
+        <v>2.62</v>
+      </c>
+      <c r="W129">
+        <v>1.45</v>
+      </c>
+      <c r="X129">
+        <v>6.4</v>
+      </c>
+      <c r="Y129">
+        <v>1.1</v>
+      </c>
+      <c r="Z129">
+        <v>2.51</v>
+      </c>
+      <c r="AA129">
+        <v>3.52</v>
+      </c>
+      <c r="AB129">
+        <v>1.97</v>
+      </c>
+      <c r="AC129">
+        <v>1.02</v>
+      </c>
+      <c r="AD129">
+        <v>10</v>
+      </c>
+      <c r="AE129">
+        <v>1.22</v>
+      </c>
+      <c r="AF129">
+        <v>3.8</v>
+      </c>
+      <c r="AG129">
+        <v>1.67</v>
+      </c>
+      <c r="AH129">
+        <v>1.84</v>
+      </c>
+      <c r="AI129">
+        <v>1.57</v>
+      </c>
+      <c r="AJ129">
+        <v>2.25</v>
+      </c>
+      <c r="AK129">
+        <v>1.52</v>
+      </c>
+      <c r="AL129">
+        <v>1.27</v>
+      </c>
+      <c r="AM129">
+        <v>1.39</v>
+      </c>
+      <c r="AN129">
+        <v>0.85</v>
+      </c>
+      <c r="AO129">
+        <v>1.08</v>
+      </c>
+      <c r="AP129">
+        <v>1</v>
+      </c>
+      <c r="AQ129">
+        <v>1</v>
+      </c>
+      <c r="AR129">
+        <v>1.6</v>
+      </c>
+      <c r="AS129">
+        <v>1.34</v>
+      </c>
+      <c r="AT129">
+        <v>2.94</v>
+      </c>
+      <c r="AU129">
+        <v>4</v>
+      </c>
+      <c r="AV129">
+        <v>4</v>
+      </c>
+      <c r="AW129">
+        <v>2</v>
+      </c>
+      <c r="AX129">
+        <v>15</v>
+      </c>
+      <c r="AY129">
+        <v>6</v>
+      </c>
+      <c r="AZ129">
+        <v>19</v>
+      </c>
+      <c r="BA129">
+        <v>1</v>
+      </c>
+      <c r="BB129">
+        <v>6</v>
+      </c>
+      <c r="BC129">
+        <v>7</v>
+      </c>
+      <c r="BD129">
+        <v>0</v>
+      </c>
+      <c r="BE129">
+        <v>0</v>
+      </c>
+      <c r="BF129">
+        <v>0</v>
+      </c>
+      <c r="BG129">
+        <v>0</v>
+      </c>
+      <c r="BH129">
+        <v>0</v>
+      </c>
+      <c r="BI129">
+        <v>0</v>
+      </c>
+      <c r="BJ129">
+        <v>0</v>
+      </c>
+      <c r="BK129">
+        <v>0</v>
+      </c>
+      <c r="BL129">
+        <v>0</v>
+      </c>
+      <c r="BM129">
+        <v>0</v>
+      </c>
+      <c r="BN129">
+        <v>0</v>
+      </c>
+      <c r="BO129">
+        <v>0</v>
+      </c>
+      <c r="BP129">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -27182,22 +27182,22 @@
         <v>2.61</v>
       </c>
       <c r="AU127">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV127">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW127">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AX127">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AY127">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AZ127">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BA127">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="237">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -505,6 +505,9 @@
     <t>['51', '85']</t>
   </si>
   <si>
+    <t>['17', '69', '74', '80']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -719,6 +722,9 @@
   </si>
   <si>
     <t>['6', '9', '37', '62']</t>
+  </si>
+  <si>
+    <t>['26']</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1086,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP129"/>
+  <dimension ref="A1:BP130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1545,7 +1551,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1957,7 +1963,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -2163,7 +2169,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2447,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2575,7 +2581,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2987,7 +2993,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -3193,7 +3199,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3274,7 +3280,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ11">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR11">
         <v>1.79</v>
@@ -3399,7 +3405,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3605,7 +3611,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3811,7 +3817,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -4017,7 +4023,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4510,7 +4516,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ17">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR17">
         <v>0.95</v>
@@ -4635,7 +4641,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -5125,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ20">
         <v>1.58</v>
@@ -5459,7 +5465,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5665,7 +5671,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5871,7 +5877,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -6077,7 +6083,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6489,7 +6495,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6567,7 +6573,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -6695,7 +6701,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6776,7 +6782,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ28">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR28">
         <v>1.8</v>
@@ -7107,7 +7113,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7313,7 +7319,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7519,7 +7525,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7725,7 +7731,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7931,7 +7937,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -8012,7 +8018,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ34">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR34">
         <v>1.08</v>
@@ -8137,7 +8143,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8755,7 +8761,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8961,7 +8967,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -9167,7 +9173,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9373,7 +9379,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9579,7 +9585,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9657,7 +9663,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ42">
         <v>2.54</v>
@@ -9785,7 +9791,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -10197,7 +10203,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -11102,7 +11108,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ49">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR49">
         <v>2.56</v>
@@ -11433,7 +11439,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -12257,7 +12263,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12463,7 +12469,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12541,7 +12547,7 @@
         <v>1.43</v>
       </c>
       <c r="AP56">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ56">
         <v>2</v>
@@ -12669,7 +12675,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13287,7 +13293,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13699,7 +13705,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13905,7 +13911,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -13986,7 +13992,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ63">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR63">
         <v>2.2</v>
@@ -14111,7 +14117,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14317,7 +14323,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14523,7 +14529,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14601,7 +14607,7 @@
         <v>0.5</v>
       </c>
       <c r="AP66">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ66">
         <v>1.17</v>
@@ -14729,7 +14735,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -14935,7 +14941,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -15141,7 +15147,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15347,7 +15353,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15553,7 +15559,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -16455,10 +16461,10 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ75">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR75">
         <v>1.91</v>
@@ -16583,7 +16589,7 @@
         <v>131</v>
       </c>
       <c r="P76" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16995,7 +17001,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17201,7 +17207,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q79">
         <v>1.53</v>
@@ -17407,7 +17413,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17613,7 +17619,7 @@
         <v>81</v>
       </c>
       <c r="P81" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q81">
         <v>1.6</v>
@@ -17900,7 +17906,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ82">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR82">
         <v>2.04</v>
@@ -18025,7 +18031,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q83">
         <v>8.5</v>
@@ -18231,7 +18237,7 @@
         <v>81</v>
       </c>
       <c r="P84" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18643,7 +18649,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q86">
         <v>5.66</v>
@@ -18849,7 +18855,7 @@
         <v>137</v>
       </c>
       <c r="P87" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q87">
         <v>4.95</v>
@@ -18927,7 +18933,7 @@
         <v>1.88</v>
       </c>
       <c r="AP87">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ87">
         <v>1.77</v>
@@ -19055,7 +19061,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q88">
         <v>2.77</v>
@@ -19136,7 +19142,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ88">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR88">
         <v>1.27</v>
@@ -19261,7 +19267,7 @@
         <v>138</v>
       </c>
       <c r="P89" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -19467,7 +19473,7 @@
         <v>122</v>
       </c>
       <c r="P90" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q90">
         <v>11</v>
@@ -19673,7 +19679,7 @@
         <v>139</v>
       </c>
       <c r="P91" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q91">
         <v>1.83</v>
@@ -19879,7 +19885,7 @@
         <v>140</v>
       </c>
       <c r="P92" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20085,7 +20091,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q93">
         <v>2.3</v>
@@ -20163,7 +20169,7 @@
         <v>0.25</v>
       </c>
       <c r="AP93">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ93">
         <v>0.23</v>
@@ -21115,7 +21121,7 @@
         <v>145</v>
       </c>
       <c r="P98" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -21399,7 +21405,7 @@
         <v>1.6</v>
       </c>
       <c r="AP99">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ99">
         <v>1.58</v>
@@ -21527,7 +21533,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -22145,7 +22151,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q103">
         <v>1.91</v>
@@ -22226,7 +22232,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ103">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR103">
         <v>2.14</v>
@@ -22969,7 +22975,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q107">
         <v>1.06</v>
@@ -23047,7 +23053,7 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ107">
         <v>1</v>
@@ -23175,7 +23181,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23381,7 +23387,7 @@
         <v>151</v>
       </c>
       <c r="P109" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q109">
         <v>2.2</v>
@@ -23587,7 +23593,7 @@
         <v>81</v>
       </c>
       <c r="P110" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23999,7 +24005,7 @@
         <v>81</v>
       </c>
       <c r="P112" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24205,7 +24211,7 @@
         <v>152</v>
       </c>
       <c r="P113" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -24411,7 +24417,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q114">
         <v>2.1</v>
@@ -24489,7 +24495,7 @@
         <v>0.18</v>
       </c>
       <c r="AP114">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ114">
         <v>0.23</v>
@@ -24823,7 +24829,7 @@
         <v>155</v>
       </c>
       <c r="P116" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q116">
         <v>2.5</v>
@@ -24904,7 +24910,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ116">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR116">
         <v>1.74</v>
@@ -25029,7 +25035,7 @@
         <v>156</v>
       </c>
       <c r="P117" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q117">
         <v>1.91</v>
@@ -25647,7 +25653,7 @@
         <v>81</v>
       </c>
       <c r="P120" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q120">
         <v>5.33</v>
@@ -25853,7 +25859,7 @@
         <v>81</v>
       </c>
       <c r="P121" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -26059,7 +26065,7 @@
         <v>153</v>
       </c>
       <c r="P122" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q122">
         <v>6.41</v>
@@ -26137,7 +26143,7 @@
         <v>1.83</v>
       </c>
       <c r="AP122">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ122">
         <v>2</v>
@@ -26265,7 +26271,7 @@
         <v>104</v>
       </c>
       <c r="P123" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26346,7 +26352,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ123">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR123">
         <v>1.09</v>
@@ -26677,7 +26683,7 @@
         <v>160</v>
       </c>
       <c r="P125" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -26883,7 +26889,7 @@
         <v>81</v>
       </c>
       <c r="P126" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q126">
         <v>2.6</v>
@@ -27089,7 +27095,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q127">
         <v>3.75</v>
@@ -27295,7 +27301,7 @@
         <v>162</v>
       </c>
       <c r="P128" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q128">
         <v>2.63</v>
@@ -27657,6 +27663,212 @@
         <v>0</v>
       </c>
       <c r="BP129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7325265</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45548.54166666666</v>
+      </c>
+      <c r="F130">
+        <v>27</v>
+      </c>
+      <c r="G130" t="s">
+        <v>75</v>
+      </c>
+      <c r="H130" t="s">
+        <v>73</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>2</v>
+      </c>
+      <c r="L130">
+        <v>4</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <v>5</v>
+      </c>
+      <c r="O130" t="s">
+        <v>163</v>
+      </c>
+      <c r="P130" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q130">
+        <v>2.4</v>
+      </c>
+      <c r="R130">
+        <v>2.3</v>
+      </c>
+      <c r="S130">
+        <v>3.75</v>
+      </c>
+      <c r="T130">
+        <v>1.35</v>
+      </c>
+      <c r="U130">
+        <v>3.05</v>
+      </c>
+      <c r="V130">
+        <v>2.4</v>
+      </c>
+      <c r="W130">
+        <v>1.51</v>
+      </c>
+      <c r="X130">
+        <v>5.95</v>
+      </c>
+      <c r="Y130">
+        <v>1.11</v>
+      </c>
+      <c r="Z130">
+        <v>1.95</v>
+      </c>
+      <c r="AA130">
+        <v>3.45</v>
+      </c>
+      <c r="AB130">
+        <v>3.5</v>
+      </c>
+      <c r="AC130">
+        <v>1.03</v>
+      </c>
+      <c r="AD130">
+        <v>12</v>
+      </c>
+      <c r="AE130">
+        <v>1.2</v>
+      </c>
+      <c r="AF130">
+        <v>4.5</v>
+      </c>
+      <c r="AG130">
+        <v>1.67</v>
+      </c>
+      <c r="AH130">
+        <v>2.07</v>
+      </c>
+      <c r="AI130">
+        <v>1.57</v>
+      </c>
+      <c r="AJ130">
+        <v>2.25</v>
+      </c>
+      <c r="AK130">
+        <v>1.2</v>
+      </c>
+      <c r="AL130">
+        <v>1.2</v>
+      </c>
+      <c r="AM130">
+        <v>1.9</v>
+      </c>
+      <c r="AN130">
+        <v>1.15</v>
+      </c>
+      <c r="AO130">
+        <v>0.92</v>
+      </c>
+      <c r="AP130">
+        <v>1.29</v>
+      </c>
+      <c r="AQ130">
+        <v>0.85</v>
+      </c>
+      <c r="AR130">
+        <v>2.02</v>
+      </c>
+      <c r="AS130">
+        <v>1.35</v>
+      </c>
+      <c r="AT130">
+        <v>3.37</v>
+      </c>
+      <c r="AU130">
+        <v>10</v>
+      </c>
+      <c r="AV130">
+        <v>8</v>
+      </c>
+      <c r="AW130">
+        <v>10</v>
+      </c>
+      <c r="AX130">
+        <v>4</v>
+      </c>
+      <c r="AY130">
+        <v>20</v>
+      </c>
+      <c r="AZ130">
+        <v>12</v>
+      </c>
+      <c r="BA130">
+        <v>5</v>
+      </c>
+      <c r="BB130">
+        <v>3</v>
+      </c>
+      <c r="BC130">
+        <v>8</v>
+      </c>
+      <c r="BD130">
+        <v>0</v>
+      </c>
+      <c r="BE130">
+        <v>0</v>
+      </c>
+      <c r="BF130">
+        <v>0</v>
+      </c>
+      <c r="BG130">
+        <v>0</v>
+      </c>
+      <c r="BH130">
+        <v>0</v>
+      </c>
+      <c r="BI130">
+        <v>0</v>
+      </c>
+      <c r="BJ130">
+        <v>0</v>
+      </c>
+      <c r="BK130">
+        <v>0</v>
+      </c>
+      <c r="BL130">
+        <v>0</v>
+      </c>
+      <c r="BM130">
+        <v>0</v>
+      </c>
+      <c r="BN130">
+        <v>0</v>
+      </c>
+      <c r="BO130">
+        <v>0</v>
+      </c>
+      <c r="BP130">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="242">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -508,6 +508,12 @@
     <t>['17', '69', '74', '80']</t>
   </si>
   <si>
+    <t>['34', '62', '86']</t>
+  </si>
+  <si>
+    <t>['3', '19', '32', '42', '45', '49', '87']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -725,6 +731,15 @@
   </si>
   <si>
     <t>['26']</t>
+  </si>
+  <si>
+    <t>['3', '29', '52', '75']</t>
+  </si>
+  <si>
+    <t>['83', '90+6']</t>
+  </si>
+  <si>
+    <t>['4', '27', '37', '70']</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP130"/>
+  <dimension ref="A1:BP133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1426,7 +1441,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ2">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1551,7 +1566,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1629,10 +1644,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ3">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1963,7 +1978,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -2169,7 +2184,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2247,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ6">
         <v>2</v>
@@ -2581,7 +2596,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2659,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ8">
         <v>2.54</v>
@@ -2993,7 +3008,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -3071,10 +3086,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ10">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3199,7 +3214,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3405,7 +3420,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3611,7 +3626,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3689,10 +3704,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ13">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR13">
         <v>2.65</v>
@@ -3817,7 +3832,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -4023,7 +4038,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4101,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4310,7 +4325,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ16">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4513,7 +4528,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ17">
         <v>0.85</v>
@@ -4641,7 +4656,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4719,10 +4734,10 @@
         <v>2</v>
       </c>
       <c r="AP18">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ18">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR18">
         <v>1.11</v>
@@ -4928,7 +4943,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ19">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR19">
         <v>1.58</v>
@@ -5134,7 +5149,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ20">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR20">
         <v>2.07</v>
@@ -5465,7 +5480,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5671,7 +5686,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5877,7 +5892,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -5955,7 +5970,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -6083,7 +6098,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6495,7 +6510,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6701,7 +6716,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6988,7 +7003,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ29">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR29">
         <v>2.32</v>
@@ -7113,7 +7128,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7191,10 +7206,10 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ30">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR30">
         <v>1.13</v>
@@ -7319,7 +7334,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7525,7 +7540,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7731,7 +7746,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7937,7 +7952,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -8143,7 +8158,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8221,7 +8236,7 @@
         <v>1.33</v>
       </c>
       <c r="AP35">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ35">
         <v>1</v>
@@ -8633,7 +8648,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ37">
         <v>1.17</v>
@@ -8761,7 +8776,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8842,7 +8857,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ38">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR38">
         <v>1.67</v>
@@ -8967,7 +8982,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -9045,10 +9060,10 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ39">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR39">
         <v>1.08</v>
@@ -9173,7 +9188,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9254,7 +9269,7 @@
         <v>1</v>
       </c>
       <c r="AQ40">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR40">
         <v>1.38</v>
@@ -9379,7 +9394,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9457,10 +9472,10 @@
         <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ41">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR41">
         <v>1.7</v>
@@ -9585,7 +9600,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9791,7 +9806,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -10203,7 +10218,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10284,7 +10299,7 @@
         <v>1</v>
       </c>
       <c r="AQ45">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR45">
         <v>1.38</v>
@@ -11105,7 +11120,7 @@
         <v>1.25</v>
       </c>
       <c r="AP49">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ49">
         <v>0.85</v>
@@ -11439,7 +11454,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -11723,7 +11738,7 @@
         <v>1.4</v>
       </c>
       <c r="AP52">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ52">
         <v>1</v>
@@ -11932,7 +11947,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ53">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR53">
         <v>2.19</v>
@@ -12263,7 +12278,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12469,7 +12484,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12675,7 +12690,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12756,7 +12771,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ57">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR57">
         <v>1.88</v>
@@ -13168,7 +13183,7 @@
         <v>1</v>
       </c>
       <c r="AQ59">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR59">
         <v>1.41</v>
@@ -13293,7 +13308,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13371,7 +13386,7 @@
         <v>2.5</v>
       </c>
       <c r="AP60">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ60">
         <v>2.54</v>
@@ -13705,7 +13720,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13783,10 +13798,10 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ62">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR62">
         <v>2.43</v>
@@ -13911,7 +13926,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -14117,7 +14132,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14323,7 +14338,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14401,7 +14416,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ65">
         <v>1</v>
@@ -14529,7 +14544,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14735,7 +14750,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -14813,7 +14828,7 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ67">
         <v>1</v>
@@ -14941,7 +14956,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -15022,7 +15037,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ68">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR68">
         <v>2.01</v>
@@ -15147,7 +15162,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15228,7 +15243,7 @@
         <v>1</v>
       </c>
       <c r="AQ69">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR69">
         <v>1.5</v>
@@ -15353,7 +15368,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15431,7 +15446,7 @@
         <v>2.57</v>
       </c>
       <c r="AP70">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ70">
         <v>2.54</v>
@@ -15559,7 +15574,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -16258,7 +16273,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ74">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR74">
         <v>1.81</v>
@@ -16589,7 +16604,7 @@
         <v>131</v>
       </c>
       <c r="P76" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16876,7 +16891,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ77">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR77">
         <v>2</v>
@@ -17001,7 +17016,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17079,7 +17094,7 @@
         <v>0.86</v>
       </c>
       <c r="AP78">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ78">
         <v>1.17</v>
@@ -17207,7 +17222,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q79">
         <v>1.53</v>
@@ -17413,7 +17428,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17491,10 +17506,10 @@
         <v>0.14</v>
       </c>
       <c r="AP80">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ80">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR80">
         <v>1.48</v>
@@ -17619,7 +17634,7 @@
         <v>81</v>
       </c>
       <c r="P81" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q81">
         <v>1.6</v>
@@ -17697,7 +17712,7 @@
         <v>0.86</v>
       </c>
       <c r="AP81">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ81">
         <v>1</v>
@@ -18031,7 +18046,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q83">
         <v>8.5</v>
@@ -18237,7 +18252,7 @@
         <v>81</v>
       </c>
       <c r="P84" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18649,7 +18664,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q86">
         <v>5.66</v>
@@ -18727,7 +18742,7 @@
         <v>1.6</v>
       </c>
       <c r="AP86">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ86">
         <v>2</v>
@@ -18855,7 +18870,7 @@
         <v>137</v>
       </c>
       <c r="P87" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q87">
         <v>4.95</v>
@@ -18936,7 +18951,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ87">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR87">
         <v>2.06</v>
@@ -19061,7 +19076,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q88">
         <v>2.77</v>
@@ -19139,7 +19154,7 @@
         <v>0.75</v>
       </c>
       <c r="AP88">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ88">
         <v>0.85</v>
@@ -19267,7 +19282,7 @@
         <v>138</v>
       </c>
       <c r="P89" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -19348,7 +19363,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ89">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR89">
         <v>1.16</v>
@@ -19473,7 +19488,7 @@
         <v>122</v>
       </c>
       <c r="P90" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q90">
         <v>11</v>
@@ -19679,7 +19694,7 @@
         <v>139</v>
       </c>
       <c r="P91" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q91">
         <v>1.83</v>
@@ -19885,7 +19900,7 @@
         <v>140</v>
       </c>
       <c r="P92" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20091,7 +20106,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q93">
         <v>2.3</v>
@@ -20172,7 +20187,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ93">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR93">
         <v>2.08</v>
@@ -20375,7 +20390,7 @@
         <v>1.13</v>
       </c>
       <c r="AP94">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ94">
         <v>1.17</v>
@@ -20584,7 +20599,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ95">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR95">
         <v>2.41</v>
@@ -20787,7 +20802,7 @@
         <v>1</v>
       </c>
       <c r="AP96">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ96">
         <v>1</v>
@@ -20993,10 +21008,10 @@
         <v>0.22</v>
       </c>
       <c r="AP97">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ97">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR97">
         <v>1.43</v>
@@ -21121,7 +21136,7 @@
         <v>145</v>
       </c>
       <c r="P98" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -21202,7 +21217,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ98">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR98">
         <v>1.81</v>
@@ -21408,7 +21423,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ99">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR99">
         <v>2.12</v>
@@ -21533,7 +21548,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -21614,7 +21629,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ100">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR100">
         <v>1.13</v>
@@ -21817,7 +21832,7 @@
         <v>1.11</v>
       </c>
       <c r="AP101">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ101">
         <v>1.17</v>
@@ -22151,7 +22166,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q103">
         <v>1.91</v>
@@ -22229,7 +22244,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ103">
         <v>0.85</v>
@@ -22438,7 +22453,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ104">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR104">
         <v>1.75</v>
@@ -22847,7 +22862,7 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ106">
         <v>1</v>
@@ -22975,7 +22990,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q107">
         <v>1.06</v>
@@ -23181,7 +23196,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23262,7 +23277,7 @@
         <v>1</v>
       </c>
       <c r="AQ108">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR108">
         <v>1.62</v>
@@ -23387,7 +23402,7 @@
         <v>151</v>
       </c>
       <c r="P109" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q109">
         <v>2.2</v>
@@ -23593,7 +23608,7 @@
         <v>81</v>
       </c>
       <c r="P110" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23671,7 +23686,7 @@
         <v>1.73</v>
       </c>
       <c r="AP110">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ110">
         <v>2</v>
@@ -24005,7 +24020,7 @@
         <v>81</v>
       </c>
       <c r="P112" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24211,7 +24226,7 @@
         <v>152</v>
       </c>
       <c r="P113" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -24289,7 +24304,7 @@
         <v>2.73</v>
       </c>
       <c r="AP113">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ113">
         <v>2.54</v>
@@ -24417,7 +24432,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q114">
         <v>2.1</v>
@@ -24498,7 +24513,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ114">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR114">
         <v>2.08</v>
@@ -24829,7 +24844,7 @@
         <v>155</v>
       </c>
       <c r="P116" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q116">
         <v>2.5</v>
@@ -25035,7 +25050,7 @@
         <v>156</v>
       </c>
       <c r="P117" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q117">
         <v>1.91</v>
@@ -25319,7 +25334,7 @@
         <v>1.18</v>
       </c>
       <c r="AP118">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ118">
         <v>1</v>
@@ -25528,7 +25543,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ119">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR119">
         <v>1.88</v>
@@ -25653,7 +25668,7 @@
         <v>81</v>
       </c>
       <c r="P120" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q120">
         <v>5.33</v>
@@ -25731,10 +25746,10 @@
         <v>1.45</v>
       </c>
       <c r="AP120">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ120">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR120">
         <v>1.53</v>
@@ -25859,7 +25874,7 @@
         <v>81</v>
       </c>
       <c r="P121" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -25937,7 +25952,7 @@
         <v>1</v>
       </c>
       <c r="AP121">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AQ121">
         <v>1.17</v>
@@ -26065,7 +26080,7 @@
         <v>153</v>
       </c>
       <c r="P122" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q122">
         <v>6.41</v>
@@ -26271,7 +26286,7 @@
         <v>104</v>
       </c>
       <c r="P123" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26558,7 +26573,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ124">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR124">
         <v>2.48</v>
@@ -26683,7 +26698,7 @@
         <v>160</v>
       </c>
       <c r="P125" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -26889,7 +26904,7 @@
         <v>81</v>
       </c>
       <c r="P126" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q126">
         <v>2.6</v>
@@ -27095,7 +27110,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q127">
         <v>3.75</v>
@@ -27301,7 +27316,7 @@
         <v>162</v>
       </c>
       <c r="P128" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q128">
         <v>2.63</v>
@@ -27713,7 +27728,7 @@
         <v>163</v>
       </c>
       <c r="P130" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -27827,48 +27842,666 @@
         <v>5</v>
       </c>
       <c r="BB130">
+        <v>2</v>
+      </c>
+      <c r="BC130">
+        <v>7</v>
+      </c>
+      <c r="BD130">
+        <v>0</v>
+      </c>
+      <c r="BE130">
+        <v>0</v>
+      </c>
+      <c r="BF130">
+        <v>0</v>
+      </c>
+      <c r="BG130">
+        <v>0</v>
+      </c>
+      <c r="BH130">
+        <v>0</v>
+      </c>
+      <c r="BI130">
+        <v>0</v>
+      </c>
+      <c r="BJ130">
+        <v>0</v>
+      </c>
+      <c r="BK130">
+        <v>0</v>
+      </c>
+      <c r="BL130">
+        <v>0</v>
+      </c>
+      <c r="BM130">
+        <v>0</v>
+      </c>
+      <c r="BN130">
+        <v>0</v>
+      </c>
+      <c r="BO130">
+        <v>0</v>
+      </c>
+      <c r="BP130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7325263</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45549.35416666666</v>
+      </c>
+      <c r="F131">
+        <v>27</v>
+      </c>
+      <c r="G131" t="s">
+        <v>71</v>
+      </c>
+      <c r="H131" t="s">
+        <v>70</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>2</v>
+      </c>
+      <c r="K131">
         <v>3</v>
       </c>
-      <c r="BC130">
+      <c r="L131">
+        <v>3</v>
+      </c>
+      <c r="M131">
+        <v>4</v>
+      </c>
+      <c r="N131">
+        <v>7</v>
+      </c>
+      <c r="O131" t="s">
+        <v>164</v>
+      </c>
+      <c r="P131" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q131">
+        <v>5</v>
+      </c>
+      <c r="R131">
+        <v>2.3</v>
+      </c>
+      <c r="S131">
+        <v>2.05</v>
+      </c>
+      <c r="T131">
+        <v>1.32</v>
+      </c>
+      <c r="U131">
+        <v>3.2</v>
+      </c>
+      <c r="V131">
+        <v>2.5</v>
+      </c>
+      <c r="W131">
+        <v>1.48</v>
+      </c>
+      <c r="X131">
+        <v>5.95</v>
+      </c>
+      <c r="Y131">
+        <v>1.11</v>
+      </c>
+      <c r="Z131">
+        <v>6</v>
+      </c>
+      <c r="AA131">
+        <v>4.1</v>
+      </c>
+      <c r="AB131">
+        <v>1.5</v>
+      </c>
+      <c r="AC131">
+        <v>1.01</v>
+      </c>
+      <c r="AD131">
+        <v>11</v>
+      </c>
+      <c r="AE131">
+        <v>1.22</v>
+      </c>
+      <c r="AF131">
+        <v>4</v>
+      </c>
+      <c r="AG131">
+        <v>1.7</v>
+      </c>
+      <c r="AH131">
+        <v>2.1</v>
+      </c>
+      <c r="AI131">
+        <v>1.75</v>
+      </c>
+      <c r="AJ131">
+        <v>2</v>
+      </c>
+      <c r="AK131">
+        <v>2.35</v>
+      </c>
+      <c r="AL131">
+        <v>1.17</v>
+      </c>
+      <c r="AM131">
+        <v>1.1</v>
+      </c>
+      <c r="AN131">
+        <v>0.92</v>
+      </c>
+      <c r="AO131">
+        <v>1.58</v>
+      </c>
+      <c r="AP131">
+        <v>0.86</v>
+      </c>
+      <c r="AQ131">
+        <v>1.69</v>
+      </c>
+      <c r="AR131">
+        <v>1.43</v>
+      </c>
+      <c r="AS131">
+        <v>1.86</v>
+      </c>
+      <c r="AT131">
+        <v>3.29</v>
+      </c>
+      <c r="AU131">
+        <v>6</v>
+      </c>
+      <c r="AV131">
+        <v>13</v>
+      </c>
+      <c r="AW131">
+        <v>6</v>
+      </c>
+      <c r="AX131">
+        <v>4</v>
+      </c>
+      <c r="AY131">
+        <v>12</v>
+      </c>
+      <c r="AZ131">
+        <v>17</v>
+      </c>
+      <c r="BA131">
+        <v>6</v>
+      </c>
+      <c r="BB131">
+        <v>10</v>
+      </c>
+      <c r="BC131">
+        <v>16</v>
+      </c>
+      <c r="BD131">
+        <v>0</v>
+      </c>
+      <c r="BE131">
+        <v>0</v>
+      </c>
+      <c r="BF131">
+        <v>0</v>
+      </c>
+      <c r="BG131">
+        <v>0</v>
+      </c>
+      <c r="BH131">
+        <v>0</v>
+      </c>
+      <c r="BI131">
+        <v>0</v>
+      </c>
+      <c r="BJ131">
+        <v>0</v>
+      </c>
+      <c r="BK131">
+        <v>0</v>
+      </c>
+      <c r="BL131">
+        <v>0</v>
+      </c>
+      <c r="BM131">
+        <v>0</v>
+      </c>
+      <c r="BN131">
+        <v>0</v>
+      </c>
+      <c r="BO131">
+        <v>0</v>
+      </c>
+      <c r="BP131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7325266</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45549.45833333334</v>
+      </c>
+      <c r="F132">
+        <v>27</v>
+      </c>
+      <c r="G132" t="s">
+        <v>77</v>
+      </c>
+      <c r="H132" t="s">
+        <v>79</v>
+      </c>
+      <c r="I132">
+        <v>5</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>5</v>
+      </c>
+      <c r="L132">
+        <v>7</v>
+      </c>
+      <c r="M132">
+        <v>2</v>
+      </c>
+      <c r="N132">
+        <v>9</v>
+      </c>
+      <c r="O132" t="s">
+        <v>165</v>
+      </c>
+      <c r="P132" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q132">
+        <v>1.67</v>
+      </c>
+      <c r="R132">
+        <v>2.6</v>
+      </c>
+      <c r="S132">
+        <v>7.5</v>
+      </c>
+      <c r="T132">
+        <v>1.27</v>
+      </c>
+      <c r="U132">
+        <v>3.54</v>
+      </c>
+      <c r="V132">
+        <v>2.26</v>
+      </c>
+      <c r="W132">
+        <v>1.58</v>
+      </c>
+      <c r="X132">
+        <v>5.2</v>
+      </c>
+      <c r="Y132">
+        <v>1.14</v>
+      </c>
+      <c r="Z132">
+        <v>1.2</v>
+      </c>
+      <c r="AA132">
+        <v>6</v>
+      </c>
+      <c r="AB132">
+        <v>11</v>
+      </c>
+      <c r="AC132">
+        <v>1.01</v>
+      </c>
+      <c r="AD132">
+        <v>17</v>
+      </c>
+      <c r="AE132">
+        <v>1.16</v>
+      </c>
+      <c r="AF132">
+        <v>4.75</v>
+      </c>
+      <c r="AG132">
+        <v>1.53</v>
+      </c>
+      <c r="AH132">
+        <v>2.38</v>
+      </c>
+      <c r="AI132">
+        <v>2</v>
+      </c>
+      <c r="AJ132">
+        <v>1.75</v>
+      </c>
+      <c r="AK132">
+        <v>1.01</v>
+      </c>
+      <c r="AL132">
+        <v>1.08</v>
+      </c>
+      <c r="AM132">
+        <v>4</v>
+      </c>
+      <c r="AN132">
+        <v>1.73</v>
+      </c>
+      <c r="AO132">
+        <v>0.23</v>
+      </c>
+      <c r="AP132">
+        <v>1.83</v>
+      </c>
+      <c r="AQ132">
+        <v>0.21</v>
+      </c>
+      <c r="AR132">
+        <v>2.26</v>
+      </c>
+      <c r="AS132">
+        <v>1.08</v>
+      </c>
+      <c r="AT132">
+        <v>3.34</v>
+      </c>
+      <c r="AU132">
+        <v>15</v>
+      </c>
+      <c r="AV132">
+        <v>7</v>
+      </c>
+      <c r="AW132">
+        <v>4</v>
+      </c>
+      <c r="AX132">
+        <v>5</v>
+      </c>
+      <c r="AY132">
+        <v>19</v>
+      </c>
+      <c r="AZ132">
+        <v>12</v>
+      </c>
+      <c r="BA132">
+        <v>5</v>
+      </c>
+      <c r="BB132">
+        <v>4</v>
+      </c>
+      <c r="BC132">
+        <v>9</v>
+      </c>
+      <c r="BD132">
+        <v>0</v>
+      </c>
+      <c r="BE132">
+        <v>0</v>
+      </c>
+      <c r="BF132">
+        <v>0</v>
+      </c>
+      <c r="BG132">
+        <v>0</v>
+      </c>
+      <c r="BH132">
+        <v>0</v>
+      </c>
+      <c r="BI132">
+        <v>0</v>
+      </c>
+      <c r="BJ132">
+        <v>0</v>
+      </c>
+      <c r="BK132">
+        <v>0</v>
+      </c>
+      <c r="BL132">
+        <v>0</v>
+      </c>
+      <c r="BM132">
+        <v>0</v>
+      </c>
+      <c r="BN132">
+        <v>0</v>
+      </c>
+      <c r="BO132">
+        <v>0</v>
+      </c>
+      <c r="BP132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7325267</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45550.35416666666</v>
+      </c>
+      <c r="F133">
+        <v>27</v>
+      </c>
+      <c r="G133" t="s">
+        <v>74</v>
+      </c>
+      <c r="H133" t="s">
+        <v>76</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>3</v>
+      </c>
+      <c r="K133">
+        <v>3</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>4</v>
+      </c>
+      <c r="N133">
+        <v>4</v>
+      </c>
+      <c r="O133" t="s">
+        <v>81</v>
+      </c>
+      <c r="P133" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q133">
+        <v>4.75</v>
+      </c>
+      <c r="R133">
+        <v>2.4</v>
+      </c>
+      <c r="S133">
+        <v>2</v>
+      </c>
+      <c r="T133">
+        <v>1.29</v>
+      </c>
+      <c r="U133">
+        <v>3.4</v>
+      </c>
+      <c r="V133">
+        <v>2.25</v>
+      </c>
+      <c r="W133">
+        <v>1.57</v>
+      </c>
+      <c r="X133">
+        <v>5</v>
+      </c>
+      <c r="Y133">
+        <v>1.13</v>
+      </c>
+      <c r="Z133">
+        <v>4.1</v>
+      </c>
+      <c r="AA133">
+        <v>3.65</v>
+      </c>
+      <c r="AB133">
+        <v>1.66</v>
+      </c>
+      <c r="AC133">
+        <v>1.02</v>
+      </c>
+      <c r="AD133">
+        <v>19</v>
+      </c>
+      <c r="AE133">
+        <v>1.17</v>
+      </c>
+      <c r="AF133">
+        <v>4.5</v>
+      </c>
+      <c r="AG133">
+        <v>1.7</v>
+      </c>
+      <c r="AH133">
+        <v>1.95</v>
+      </c>
+      <c r="AI133">
+        <v>1.65</v>
+      </c>
+      <c r="AJ133">
+        <v>2.1</v>
+      </c>
+      <c r="AK133">
+        <v>2.38</v>
+      </c>
+      <c r="AL133">
+        <v>1.22</v>
+      </c>
+      <c r="AM133">
+        <v>1.17</v>
+      </c>
+      <c r="AN133">
+        <v>0.85</v>
+      </c>
+      <c r="AO133">
+        <v>1.77</v>
+      </c>
+      <c r="AP133">
+        <v>0.79</v>
+      </c>
+      <c r="AQ133">
+        <v>1.86</v>
+      </c>
+      <c r="AR133">
+        <v>1.5</v>
+      </c>
+      <c r="AS133">
+        <v>1.8</v>
+      </c>
+      <c r="AT133">
+        <v>3.3</v>
+      </c>
+      <c r="AU133">
+        <v>2</v>
+      </c>
+      <c r="AV133">
+        <v>0</v>
+      </c>
+      <c r="AW133">
         <v>8</v>
       </c>
-      <c r="BD130">
-        <v>0</v>
-      </c>
-      <c r="BE130">
-        <v>0</v>
-      </c>
-      <c r="BF130">
-        <v>0</v>
-      </c>
-      <c r="BG130">
-        <v>0</v>
-      </c>
-      <c r="BH130">
-        <v>0</v>
-      </c>
-      <c r="BI130">
-        <v>0</v>
-      </c>
-      <c r="BJ130">
-        <v>0</v>
-      </c>
-      <c r="BK130">
-        <v>0</v>
-      </c>
-      <c r="BL130">
-        <v>0</v>
-      </c>
-      <c r="BM130">
-        <v>0</v>
-      </c>
-      <c r="BN130">
-        <v>0</v>
-      </c>
-      <c r="BO130">
-        <v>0</v>
-      </c>
-      <c r="BP130">
+      <c r="AX133">
+        <v>6</v>
+      </c>
+      <c r="AY133">
+        <v>10</v>
+      </c>
+      <c r="AZ133">
+        <v>6</v>
+      </c>
+      <c r="BA133">
+        <v>7</v>
+      </c>
+      <c r="BB133">
+        <v>4</v>
+      </c>
+      <c r="BC133">
+        <v>11</v>
+      </c>
+      <c r="BD133">
+        <v>0</v>
+      </c>
+      <c r="BE133">
+        <v>0</v>
+      </c>
+      <c r="BF133">
+        <v>0</v>
+      </c>
+      <c r="BG133">
+        <v>0</v>
+      </c>
+      <c r="BH133">
+        <v>0</v>
+      </c>
+      <c r="BI133">
+        <v>0</v>
+      </c>
+      <c r="BJ133">
+        <v>0</v>
+      </c>
+      <c r="BK133">
+        <v>0</v>
+      </c>
+      <c r="BL133">
+        <v>0</v>
+      </c>
+      <c r="BM133">
+        <v>0</v>
+      </c>
+      <c r="BN133">
+        <v>0</v>
+      </c>
+      <c r="BO133">
+        <v>0</v>
+      </c>
+      <c r="BP133">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -28442,19 +28442,19 @@
         <v>2</v>
       </c>
       <c r="AV133">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW133">
         <v>8</v>
       </c>
       <c r="AX133">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AY133">
         <v>10</v>
       </c>
       <c r="AZ133">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BA133">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="246">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -514,6 +514,12 @@
     <t>['3', '19', '32', '42', '45', '49', '87']</t>
   </si>
   <si>
+    <t>['77']</t>
+  </si>
+  <si>
+    <t>['4', '25', '27']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -740,6 +746,12 @@
   </si>
   <si>
     <t>['4', '27', '37', '70']</t>
+  </si>
+  <si>
+    <t>['63']</t>
+  </si>
+  <si>
+    <t>['45', '90+8']</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP133"/>
+  <dimension ref="A1:BP136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1566,7 +1578,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1644,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ3">
         <v>1.86</v>
@@ -1978,7 +1990,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -2056,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -2184,7 +2196,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2265,7 +2277,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ6">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2596,7 +2608,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2674,10 +2686,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ8">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AR8">
         <v>1.63</v>
@@ -3008,7 +3020,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -3214,7 +3226,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3420,7 +3432,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3498,10 +3510,10 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ12">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AR12">
         <v>1.76</v>
@@ -3626,7 +3638,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3707,7 +3719,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ13">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR13">
         <v>2.65</v>
@@ -3832,7 +3844,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3910,7 +3922,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -4038,7 +4050,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4528,7 +4540,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ17">
         <v>0.85</v>
@@ -4656,7 +4668,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4940,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ19">
         <v>0.21</v>
@@ -5149,7 +5161,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ20">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR20">
         <v>2.07</v>
@@ -5355,7 +5367,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ21">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR21">
         <v>2.61</v>
@@ -5480,7 +5492,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5686,7 +5698,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5767,7 +5779,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ23">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AR23">
         <v>2.56</v>
@@ -5892,7 +5904,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -6098,7 +6110,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6382,7 +6394,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6510,7 +6522,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6716,7 +6728,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6794,7 +6806,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ28">
         <v>0.85</v>
@@ -7128,7 +7140,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7209,7 +7221,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ30">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR30">
         <v>1.13</v>
@@ -7334,7 +7346,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7415,7 +7427,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ31">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR31">
         <v>2.12</v>
@@ -7540,7 +7552,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7618,10 +7630,10 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ32">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AR32">
         <v>1.47</v>
@@ -7746,7 +7758,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7827,7 +7839,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ33">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR33">
         <v>1.95</v>
@@ -7952,7 +7964,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -8158,7 +8170,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8648,7 +8660,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ37">
         <v>1.17</v>
@@ -8776,7 +8788,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8982,7 +8994,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -9188,7 +9200,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9266,7 +9278,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ40">
         <v>1.86</v>
@@ -9394,7 +9406,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9472,10 +9484,10 @@
         <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ41">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR41">
         <v>1.7</v>
@@ -9600,7 +9612,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9681,7 +9693,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ42">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AR42">
         <v>2.19</v>
@@ -9806,7 +9818,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9884,10 +9896,10 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ43">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR43">
         <v>1.92</v>
@@ -10093,7 +10105,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ44">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR44">
         <v>2.3</v>
@@ -10218,7 +10230,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10296,10 +10308,10 @@
         <v>1.25</v>
       </c>
       <c r="AP45">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ45">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR45">
         <v>1.38</v>
@@ -10914,7 +10926,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -11329,7 +11341,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ50">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AR50">
         <v>1.81</v>
@@ -11454,7 +11466,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -11738,7 +11750,7 @@
         <v>1.4</v>
       </c>
       <c r="AP52">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ52">
         <v>1</v>
@@ -12150,7 +12162,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ54">
         <v>1.17</v>
@@ -12278,7 +12290,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12359,7 +12371,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ55">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR55">
         <v>1.18</v>
@@ -12484,7 +12496,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12565,7 +12577,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ56">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR56">
         <v>1.96</v>
@@ -12690,7 +12702,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12768,10 +12780,10 @@
         <v>1.6</v>
       </c>
       <c r="AP57">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ57">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR57">
         <v>1.88</v>
@@ -13180,7 +13192,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ59">
         <v>0.21</v>
@@ -13308,7 +13320,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13389,7 +13401,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ60">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AR60">
         <v>1.27</v>
@@ -13720,7 +13732,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13926,7 +13938,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -14132,7 +14144,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14338,7 +14350,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14544,7 +14556,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14750,7 +14762,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -14828,7 +14840,7 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ67">
         <v>1</v>
@@ -14956,7 +14968,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -15162,7 +15174,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15240,10 +15252,10 @@
         <v>1.83</v>
       </c>
       <c r="AP69">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ69">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR69">
         <v>1.5</v>
@@ -15368,7 +15380,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15449,7 +15461,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ70">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AR70">
         <v>2.27</v>
@@ -15574,7 +15586,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15861,7 +15873,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ72">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR72">
         <v>1.97</v>
@@ -16270,7 +16282,7 @@
         <v>2.14</v>
       </c>
       <c r="AP74">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ74">
         <v>1.86</v>
@@ -16604,7 +16616,7 @@
         <v>131</v>
       </c>
       <c r="P76" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16682,10 +16694,10 @@
         <v>1.44</v>
       </c>
       <c r="AP76">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ76">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR76">
         <v>1.56</v>
@@ -16891,7 +16903,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ77">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR77">
         <v>2</v>
@@ -17016,7 +17028,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17222,7 +17234,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q79">
         <v>1.53</v>
@@ -17428,7 +17440,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17506,7 +17518,7 @@
         <v>0.14</v>
       </c>
       <c r="AP80">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ80">
         <v>0.21</v>
@@ -17634,7 +17646,7 @@
         <v>81</v>
       </c>
       <c r="P81" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q81">
         <v>1.6</v>
@@ -18046,7 +18058,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q83">
         <v>8.5</v>
@@ -18127,7 +18139,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ83">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AR83">
         <v>1.25</v>
@@ -18252,7 +18264,7 @@
         <v>81</v>
       </c>
       <c r="P84" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18330,7 +18342,7 @@
         <v>0.57</v>
       </c>
       <c r="AP84">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ84">
         <v>1</v>
@@ -18664,7 +18676,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q86">
         <v>5.66</v>
@@ -18742,10 +18754,10 @@
         <v>1.6</v>
       </c>
       <c r="AP86">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ86">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR86">
         <v>1.61</v>
@@ -18870,7 +18882,7 @@
         <v>137</v>
       </c>
       <c r="P87" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q87">
         <v>4.95</v>
@@ -19076,7 +19088,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q88">
         <v>2.77</v>
@@ -19282,7 +19294,7 @@
         <v>138</v>
       </c>
       <c r="P89" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -19363,7 +19375,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ89">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR89">
         <v>1.16</v>
@@ -19488,7 +19500,7 @@
         <v>122</v>
       </c>
       <c r="P90" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q90">
         <v>11</v>
@@ -19566,10 +19578,10 @@
         <v>2.67</v>
       </c>
       <c r="AP90">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ90">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AR90">
         <v>1.96</v>
@@ -19694,7 +19706,7 @@
         <v>139</v>
       </c>
       <c r="P91" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q91">
         <v>1.83</v>
@@ -19900,7 +19912,7 @@
         <v>140</v>
       </c>
       <c r="P92" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -19978,7 +19990,7 @@
         <v>0.88</v>
       </c>
       <c r="AP92">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ92">
         <v>1</v>
@@ -20106,7 +20118,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q93">
         <v>2.3</v>
@@ -20599,7 +20611,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ95">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR95">
         <v>2.41</v>
@@ -20802,7 +20814,7 @@
         <v>1</v>
       </c>
       <c r="AP96">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ96">
         <v>1</v>
@@ -21136,7 +21148,7 @@
         <v>145</v>
       </c>
       <c r="P98" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -21214,7 +21226,7 @@
         <v>1.78</v>
       </c>
       <c r="AP98">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ98">
         <v>1.86</v>
@@ -21423,7 +21435,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ99">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR99">
         <v>2.12</v>
@@ -21548,7 +21560,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -22166,7 +22178,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q103">
         <v>1.91</v>
@@ -22450,7 +22462,7 @@
         <v>0.2</v>
       </c>
       <c r="AP104">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ104">
         <v>0.21</v>
@@ -22862,7 +22874,7 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ106">
         <v>1</v>
@@ -22990,7 +23002,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q107">
         <v>1.06</v>
@@ -23196,7 +23208,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23274,7 +23286,7 @@
         <v>1.82</v>
       </c>
       <c r="AP108">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ108">
         <v>1.86</v>
@@ -23402,7 +23414,7 @@
         <v>151</v>
       </c>
       <c r="P109" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q109">
         <v>2.2</v>
@@ -23608,7 +23620,7 @@
         <v>81</v>
       </c>
       <c r="P110" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23686,10 +23698,10 @@
         <v>1.73</v>
       </c>
       <c r="AP110">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ110">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR110">
         <v>1.47</v>
@@ -23895,7 +23907,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ111">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AR111">
         <v>1.13</v>
@@ -24020,7 +24032,7 @@
         <v>81</v>
       </c>
       <c r="P112" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24098,7 +24110,7 @@
         <v>0.9</v>
       </c>
       <c r="AP112">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ112">
         <v>1</v>
@@ -24226,7 +24238,7 @@
         <v>152</v>
       </c>
       <c r="P113" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -24307,7 +24319,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ113">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AR113">
         <v>1.62</v>
@@ -24432,7 +24444,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q114">
         <v>2.1</v>
@@ -24844,7 +24856,7 @@
         <v>155</v>
       </c>
       <c r="P116" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q116">
         <v>2.5</v>
@@ -24922,7 +24934,7 @@
         <v>0.9</v>
       </c>
       <c r="AP116">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ116">
         <v>0.85</v>
@@ -25050,7 +25062,7 @@
         <v>156</v>
       </c>
       <c r="P117" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q117">
         <v>1.91</v>
@@ -25668,7 +25680,7 @@
         <v>81</v>
       </c>
       <c r="P120" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q120">
         <v>5.33</v>
@@ -25749,7 +25761,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ120">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR120">
         <v>1.53</v>
@@ -25874,7 +25886,7 @@
         <v>81</v>
       </c>
       <c r="P121" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -25952,7 +25964,7 @@
         <v>1</v>
       </c>
       <c r="AP121">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ121">
         <v>1.17</v>
@@ -26080,7 +26092,7 @@
         <v>153</v>
       </c>
       <c r="P122" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q122">
         <v>6.41</v>
@@ -26161,7 +26173,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ122">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR122">
         <v>2.06</v>
@@ -26286,7 +26298,7 @@
         <v>104</v>
       </c>
       <c r="P123" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26698,7 +26710,7 @@
         <v>160</v>
       </c>
       <c r="P125" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -26779,7 +26791,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ125">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AR125">
         <v>1.88</v>
@@ -26904,7 +26916,7 @@
         <v>81</v>
       </c>
       <c r="P126" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q126">
         <v>2.6</v>
@@ -26982,7 +26994,7 @@
         <v>0.83</v>
       </c>
       <c r="AP126">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ126">
         <v>1</v>
@@ -27110,7 +27122,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q127">
         <v>3.75</v>
@@ -27316,7 +27328,7 @@
         <v>162</v>
       </c>
       <c r="P128" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q128">
         <v>2.63</v>
@@ -27397,7 +27409,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ128">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR128">
         <v>2</v>
@@ -27600,7 +27612,7 @@
         <v>1.08</v>
       </c>
       <c r="AP129">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ129">
         <v>1</v>
@@ -27728,7 +27740,7 @@
         <v>163</v>
       </c>
       <c r="P130" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -27934,7 +27946,7 @@
         <v>164</v>
       </c>
       <c r="P131" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -28012,10 +28024,10 @@
         <v>1.58</v>
       </c>
       <c r="AP131">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AQ131">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AR131">
         <v>1.43</v>
@@ -28140,7 +28152,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q132">
         <v>1.67</v>
@@ -28346,7 +28358,7 @@
         <v>81</v>
       </c>
       <c r="P133" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q133">
         <v>4.75</v>
@@ -28502,6 +28514,624 @@
         <v>0</v>
       </c>
       <c r="BP133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7325268</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45552.47916666666</v>
+      </c>
+      <c r="F134">
+        <v>28</v>
+      </c>
+      <c r="G134" t="s">
+        <v>78</v>
+      </c>
+      <c r="H134" t="s">
+        <v>70</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134">
+        <v>2</v>
+      </c>
+      <c r="O134" t="s">
+        <v>166</v>
+      </c>
+      <c r="P134" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q134">
+        <v>4.33</v>
+      </c>
+      <c r="R134">
+        <v>2.2</v>
+      </c>
+      <c r="S134">
+        <v>2.3</v>
+      </c>
+      <c r="T134">
+        <v>1.3</v>
+      </c>
+      <c r="U134">
+        <v>3.2</v>
+      </c>
+      <c r="V134">
+        <v>2.63</v>
+      </c>
+      <c r="W134">
+        <v>1.44</v>
+      </c>
+      <c r="X134">
+        <v>6</v>
+      </c>
+      <c r="Y134">
+        <v>1.1</v>
+      </c>
+      <c r="Z134">
+        <v>4.2</v>
+      </c>
+      <c r="AA134">
+        <v>3.7</v>
+      </c>
+      <c r="AB134">
+        <v>1.73</v>
+      </c>
+      <c r="AC134">
+        <v>1.04</v>
+      </c>
+      <c r="AD134">
+        <v>11</v>
+      </c>
+      <c r="AE134">
+        <v>1.22</v>
+      </c>
+      <c r="AF134">
+        <v>4.2</v>
+      </c>
+      <c r="AG134">
+        <v>1.67</v>
+      </c>
+      <c r="AH134">
+        <v>2.07</v>
+      </c>
+      <c r="AI134">
+        <v>1.62</v>
+      </c>
+      <c r="AJ134">
+        <v>2.2</v>
+      </c>
+      <c r="AK134">
+        <v>1.95</v>
+      </c>
+      <c r="AL134">
+        <v>1.22</v>
+      </c>
+      <c r="AM134">
+        <v>1.14</v>
+      </c>
+      <c r="AN134">
+        <v>1.08</v>
+      </c>
+      <c r="AO134">
+        <v>1.69</v>
+      </c>
+      <c r="AP134">
+        <v>1.07</v>
+      </c>
+      <c r="AQ134">
+        <v>1.64</v>
+      </c>
+      <c r="AR134">
+        <v>1.79</v>
+      </c>
+      <c r="AS134">
+        <v>1.9</v>
+      </c>
+      <c r="AT134">
+        <v>3.69</v>
+      </c>
+      <c r="AU134">
+        <v>7</v>
+      </c>
+      <c r="AV134">
+        <v>4</v>
+      </c>
+      <c r="AW134">
+        <v>5</v>
+      </c>
+      <c r="AX134">
+        <v>6</v>
+      </c>
+      <c r="AY134">
+        <v>12</v>
+      </c>
+      <c r="AZ134">
+        <v>10</v>
+      </c>
+      <c r="BA134">
+        <v>5</v>
+      </c>
+      <c r="BB134">
+        <v>4</v>
+      </c>
+      <c r="BC134">
+        <v>9</v>
+      </c>
+      <c r="BD134">
+        <v>0</v>
+      </c>
+      <c r="BE134">
+        <v>0</v>
+      </c>
+      <c r="BF134">
+        <v>0</v>
+      </c>
+      <c r="BG134">
+        <v>0</v>
+      </c>
+      <c r="BH134">
+        <v>0</v>
+      </c>
+      <c r="BI134">
+        <v>0</v>
+      </c>
+      <c r="BJ134">
+        <v>0</v>
+      </c>
+      <c r="BK134">
+        <v>0</v>
+      </c>
+      <c r="BL134">
+        <v>0</v>
+      </c>
+      <c r="BM134">
+        <v>0</v>
+      </c>
+      <c r="BN134">
+        <v>0</v>
+      </c>
+      <c r="BO134">
+        <v>0</v>
+      </c>
+      <c r="BP134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7325269</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45552.47916666666</v>
+      </c>
+      <c r="F135">
+        <v>28</v>
+      </c>
+      <c r="G135" t="s">
+        <v>71</v>
+      </c>
+      <c r="H135" t="s">
+        <v>72</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>1</v>
+      </c>
+      <c r="N135">
+        <v>1</v>
+      </c>
+      <c r="O135" t="s">
+        <v>81</v>
+      </c>
+      <c r="P135" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q135">
+        <v>10</v>
+      </c>
+      <c r="R135">
+        <v>2.8</v>
+      </c>
+      <c r="S135">
+        <v>1.53</v>
+      </c>
+      <c r="T135">
+        <v>1.22</v>
+      </c>
+      <c r="U135">
+        <v>3.75</v>
+      </c>
+      <c r="V135">
+        <v>2.25</v>
+      </c>
+      <c r="W135">
+        <v>1.57</v>
+      </c>
+      <c r="X135">
+        <v>5.5</v>
+      </c>
+      <c r="Y135">
+        <v>1.13</v>
+      </c>
+      <c r="Z135">
+        <v>14</v>
+      </c>
+      <c r="AA135">
+        <v>6.5</v>
+      </c>
+      <c r="AB135">
+        <v>1.15</v>
+      </c>
+      <c r="AC135">
+        <v>1.01</v>
+      </c>
+      <c r="AD135">
+        <v>17</v>
+      </c>
+      <c r="AE135">
+        <v>1.14</v>
+      </c>
+      <c r="AF135">
+        <v>5.5</v>
+      </c>
+      <c r="AG135">
+        <v>1.5</v>
+      </c>
+      <c r="AH135">
+        <v>2.41</v>
+      </c>
+      <c r="AI135">
+        <v>2.2</v>
+      </c>
+      <c r="AJ135">
+        <v>1.62</v>
+      </c>
+      <c r="AK135">
+        <v>4.4</v>
+      </c>
+      <c r="AL135">
+        <v>1.08</v>
+      </c>
+      <c r="AM135">
+        <v>1.04</v>
+      </c>
+      <c r="AN135">
+        <v>0.86</v>
+      </c>
+      <c r="AO135">
+        <v>2.54</v>
+      </c>
+      <c r="AP135">
+        <v>0.8</v>
+      </c>
+      <c r="AQ135">
+        <v>2.57</v>
+      </c>
+      <c r="AR135">
+        <v>1.44</v>
+      </c>
+      <c r="AS135">
+        <v>2.36</v>
+      </c>
+      <c r="AT135">
+        <v>3.8</v>
+      </c>
+      <c r="AU135">
+        <v>0</v>
+      </c>
+      <c r="AV135">
+        <v>6</v>
+      </c>
+      <c r="AW135">
+        <v>5</v>
+      </c>
+      <c r="AX135">
+        <v>17</v>
+      </c>
+      <c r="AY135">
+        <v>5</v>
+      </c>
+      <c r="AZ135">
+        <v>23</v>
+      </c>
+      <c r="BA135">
+        <v>3</v>
+      </c>
+      <c r="BB135">
+        <v>11</v>
+      </c>
+      <c r="BC135">
+        <v>14</v>
+      </c>
+      <c r="BD135">
+        <v>0</v>
+      </c>
+      <c r="BE135">
+        <v>0</v>
+      </c>
+      <c r="BF135">
+        <v>0</v>
+      </c>
+      <c r="BG135">
+        <v>0</v>
+      </c>
+      <c r="BH135">
+        <v>0</v>
+      </c>
+      <c r="BI135">
+        <v>0</v>
+      </c>
+      <c r="BJ135">
+        <v>0</v>
+      </c>
+      <c r="BK135">
+        <v>0</v>
+      </c>
+      <c r="BL135">
+        <v>0</v>
+      </c>
+      <c r="BM135">
+        <v>0</v>
+      </c>
+      <c r="BN135">
+        <v>0</v>
+      </c>
+      <c r="BO135">
+        <v>0</v>
+      </c>
+      <c r="BP135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7325271</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45552.5625</v>
+      </c>
+      <c r="F136">
+        <v>28</v>
+      </c>
+      <c r="G136" t="s">
+        <v>73</v>
+      </c>
+      <c r="H136" t="s">
+        <v>77</v>
+      </c>
+      <c r="I136">
+        <v>3</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>4</v>
+      </c>
+      <c r="L136">
+        <v>3</v>
+      </c>
+      <c r="M136">
+        <v>2</v>
+      </c>
+      <c r="N136">
+        <v>5</v>
+      </c>
+      <c r="O136" t="s">
+        <v>167</v>
+      </c>
+      <c r="P136" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q136">
+        <v>7.5</v>
+      </c>
+      <c r="R136">
+        <v>2.8</v>
+      </c>
+      <c r="S136">
+        <v>1.57</v>
+      </c>
+      <c r="T136">
+        <v>1.22</v>
+      </c>
+      <c r="U136">
+        <v>3.9</v>
+      </c>
+      <c r="V136">
+        <v>2.05</v>
+      </c>
+      <c r="W136">
+        <v>1.68</v>
+      </c>
+      <c r="X136">
+        <v>4.4</v>
+      </c>
+      <c r="Y136">
+        <v>1.18</v>
+      </c>
+      <c r="Z136">
+        <v>6.5</v>
+      </c>
+      <c r="AA136">
+        <v>4.75</v>
+      </c>
+      <c r="AB136">
+        <v>1.38</v>
+      </c>
+      <c r="AC136">
+        <v>1.01</v>
+      </c>
+      <c r="AD136">
+        <v>25</v>
+      </c>
+      <c r="AE136">
+        <v>1.1</v>
+      </c>
+      <c r="AF136">
+        <v>6.5</v>
+      </c>
+      <c r="AG136">
+        <v>1.55</v>
+      </c>
+      <c r="AH136">
+        <v>2.3</v>
+      </c>
+      <c r="AI136">
+        <v>1.73</v>
+      </c>
+      <c r="AJ136">
+        <v>2</v>
+      </c>
+      <c r="AK136">
+        <v>3.6</v>
+      </c>
+      <c r="AL136">
+        <v>1.09</v>
+      </c>
+      <c r="AM136">
+        <v>1.02</v>
+      </c>
+      <c r="AN136">
+        <v>1</v>
+      </c>
+      <c r="AO136">
+        <v>2</v>
+      </c>
+      <c r="AP136">
+        <v>1.13</v>
+      </c>
+      <c r="AQ136">
+        <v>1.87</v>
+      </c>
+      <c r="AR136">
+        <v>1.55</v>
+      </c>
+      <c r="AS136">
+        <v>1.85</v>
+      </c>
+      <c r="AT136">
+        <v>3.4</v>
+      </c>
+      <c r="AU136">
+        <v>5</v>
+      </c>
+      <c r="AV136">
+        <v>12</v>
+      </c>
+      <c r="AW136">
+        <v>5</v>
+      </c>
+      <c r="AX136">
+        <v>17</v>
+      </c>
+      <c r="AY136">
+        <v>10</v>
+      </c>
+      <c r="AZ136">
+        <v>29</v>
+      </c>
+      <c r="BA136">
+        <v>2</v>
+      </c>
+      <c r="BB136">
+        <v>6</v>
+      </c>
+      <c r="BC136">
+        <v>8</v>
+      </c>
+      <c r="BD136">
+        <v>0</v>
+      </c>
+      <c r="BE136">
+        <v>0</v>
+      </c>
+      <c r="BF136">
+        <v>0</v>
+      </c>
+      <c r="BG136">
+        <v>0</v>
+      </c>
+      <c r="BH136">
+        <v>0</v>
+      </c>
+      <c r="BI136">
+        <v>0</v>
+      </c>
+      <c r="BJ136">
+        <v>0</v>
+      </c>
+      <c r="BK136">
+        <v>0</v>
+      </c>
+      <c r="BL136">
+        <v>0</v>
+      </c>
+      <c r="BM136">
+        <v>0</v>
+      </c>
+      <c r="BN136">
+        <v>0</v>
+      </c>
+      <c r="BO136">
+        <v>0</v>
+      </c>
+      <c r="BP136">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="249">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -520,6 +520,12 @@
     <t>['4', '25', '27']</t>
   </si>
   <si>
+    <t>['11', '56', '83']</t>
+  </si>
+  <si>
+    <t>['2', '21']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -752,6 +758,9 @@
   </si>
   <si>
     <t>['45', '90+8']</t>
+  </si>
+  <si>
+    <t>['39', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP136"/>
+  <dimension ref="A1:BP138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1453,7 +1462,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ2">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1578,7 +1587,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1990,7 +1999,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -2196,7 +2205,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2274,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AQ6">
         <v>1.87</v>
@@ -2608,7 +2617,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2892,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ9">
         <v>1.17</v>
@@ -3020,7 +3029,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -3101,7 +3110,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ10">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3226,7 +3235,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3432,7 +3441,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3638,7 +3647,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3844,7 +3853,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -4050,7 +4059,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4128,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4668,7 +4677,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4746,7 +4755,7 @@
         <v>2</v>
       </c>
       <c r="AP18">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AQ18">
         <v>1.86</v>
@@ -4955,7 +4964,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ19">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AR19">
         <v>1.58</v>
@@ -5492,7 +5501,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5698,7 +5707,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5776,7 +5785,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ23">
         <v>2.57</v>
@@ -5904,7 +5913,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -6110,7 +6119,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6522,7 +6531,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6728,7 +6737,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -7015,7 +7024,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ29">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AR29">
         <v>2.32</v>
@@ -7140,7 +7149,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7218,7 +7227,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AQ30">
         <v>1.64</v>
@@ -7346,7 +7355,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7424,7 +7433,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ31">
         <v>1.87</v>
@@ -7552,7 +7561,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7758,7 +7767,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7964,7 +7973,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -8170,7 +8179,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8788,7 +8797,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8994,7 +9003,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -9072,10 +9081,10 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AQ39">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AR39">
         <v>1.08</v>
@@ -9200,7 +9209,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9406,7 +9415,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9612,7 +9621,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9818,7 +9827,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -10230,7 +10239,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10514,7 +10523,7 @@
         <v>1.75</v>
       </c>
       <c r="AP46">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -11466,7 +11475,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -12290,7 +12299,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12496,7 +12505,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12702,7 +12711,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12986,7 +12995,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ58">
         <v>1</v>
@@ -13195,7 +13204,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ59">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AR59">
         <v>1.41</v>
@@ -13320,7 +13329,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13398,7 +13407,7 @@
         <v>2.5</v>
       </c>
       <c r="AP60">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AQ60">
         <v>2.57</v>
@@ -13732,7 +13741,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13938,7 +13947,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -14144,7 +14153,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14350,7 +14359,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14428,7 +14437,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AQ65">
         <v>1</v>
@@ -14556,7 +14565,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14762,7 +14771,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -14968,7 +14977,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -15046,10 +15055,10 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ68">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AR68">
         <v>2.01</v>
@@ -15174,7 +15183,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15380,7 +15389,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15586,7 +15595,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -16616,7 +16625,7 @@
         <v>131</v>
       </c>
       <c r="P76" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16900,7 +16909,7 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ77">
         <v>1.64</v>
@@ -17028,7 +17037,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17106,7 +17115,7 @@
         <v>0.86</v>
       </c>
       <c r="AP78">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AQ78">
         <v>1.17</v>
@@ -17234,7 +17243,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q79">
         <v>1.53</v>
@@ -17440,7 +17449,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17521,7 +17530,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ80">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AR80">
         <v>1.48</v>
@@ -17646,7 +17655,7 @@
         <v>81</v>
       </c>
       <c r="P81" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q81">
         <v>1.6</v>
@@ -17930,7 +17939,7 @@
         <v>0.86</v>
       </c>
       <c r="AP82">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ82">
         <v>0.85</v>
@@ -18058,7 +18067,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q83">
         <v>8.5</v>
@@ -18264,7 +18273,7 @@
         <v>81</v>
       </c>
       <c r="P84" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18676,7 +18685,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q86">
         <v>5.66</v>
@@ -18882,7 +18891,7 @@
         <v>137</v>
       </c>
       <c r="P87" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q87">
         <v>4.95</v>
@@ -19088,7 +19097,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q88">
         <v>2.77</v>
@@ -19166,7 +19175,7 @@
         <v>0.75</v>
       </c>
       <c r="AP88">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AQ88">
         <v>0.85</v>
@@ -19294,7 +19303,7 @@
         <v>138</v>
       </c>
       <c r="P89" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -19500,7 +19509,7 @@
         <v>122</v>
       </c>
       <c r="P90" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q90">
         <v>11</v>
@@ -19706,7 +19715,7 @@
         <v>139</v>
       </c>
       <c r="P91" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q91">
         <v>1.83</v>
@@ -19784,7 +19793,7 @@
         <v>1.13</v>
       </c>
       <c r="AP91">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ91">
         <v>1</v>
@@ -19912,7 +19921,7 @@
         <v>140</v>
       </c>
       <c r="P92" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20118,7 +20127,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q93">
         <v>2.3</v>
@@ -20199,7 +20208,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ93">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AR93">
         <v>2.08</v>
@@ -21020,10 +21029,10 @@
         <v>0.22</v>
       </c>
       <c r="AP97">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AQ97">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AR97">
         <v>1.43</v>
@@ -21148,7 +21157,7 @@
         <v>145</v>
       </c>
       <c r="P98" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -21560,7 +21569,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -21844,7 +21853,7 @@
         <v>1.11</v>
       </c>
       <c r="AP101">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AQ101">
         <v>1.17</v>
@@ -22178,7 +22187,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q103">
         <v>1.91</v>
@@ -22465,7 +22474,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ104">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AR104">
         <v>1.75</v>
@@ -22668,7 +22677,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ105">
         <v>1</v>
@@ -23002,7 +23011,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q107">
         <v>1.06</v>
@@ -23208,7 +23217,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23414,7 +23423,7 @@
         <v>151</v>
       </c>
       <c r="P109" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q109">
         <v>2.2</v>
@@ -23620,7 +23629,7 @@
         <v>81</v>
       </c>
       <c r="P110" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24032,7 +24041,7 @@
         <v>81</v>
       </c>
       <c r="P112" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24238,7 +24247,7 @@
         <v>152</v>
       </c>
       <c r="P113" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -24316,7 +24325,7 @@
         <v>2.73</v>
       </c>
       <c r="AP113">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AQ113">
         <v>2.57</v>
@@ -24444,7 +24453,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q114">
         <v>2.1</v>
@@ -24525,7 +24534,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ114">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AR114">
         <v>2.08</v>
@@ -24856,7 +24865,7 @@
         <v>155</v>
       </c>
       <c r="P116" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q116">
         <v>2.5</v>
@@ -25062,7 +25071,7 @@
         <v>156</v>
       </c>
       <c r="P117" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q117">
         <v>1.91</v>
@@ -25140,7 +25149,7 @@
         <v>1.09</v>
       </c>
       <c r="AP117">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ117">
         <v>1</v>
@@ -25555,7 +25564,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ119">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AR119">
         <v>1.88</v>
@@ -25680,7 +25689,7 @@
         <v>81</v>
       </c>
       <c r="P120" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q120">
         <v>5.33</v>
@@ -25758,7 +25767,7 @@
         <v>1.45</v>
       </c>
       <c r="AP120">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AQ120">
         <v>1.64</v>
@@ -25886,7 +25895,7 @@
         <v>81</v>
       </c>
       <c r="P121" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -26092,7 +26101,7 @@
         <v>153</v>
       </c>
       <c r="P122" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q122">
         <v>6.41</v>
@@ -26298,7 +26307,7 @@
         <v>104</v>
       </c>
       <c r="P123" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26710,7 +26719,7 @@
         <v>160</v>
       </c>
       <c r="P125" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -26916,7 +26925,7 @@
         <v>81</v>
       </c>
       <c r="P126" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q126">
         <v>2.6</v>
@@ -27122,7 +27131,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q127">
         <v>3.75</v>
@@ -27328,7 +27337,7 @@
         <v>162</v>
       </c>
       <c r="P128" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q128">
         <v>2.63</v>
@@ -27406,7 +27415,7 @@
         <v>1.92</v>
       </c>
       <c r="AP128">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ128">
         <v>1.87</v>
@@ -27740,7 +27749,7 @@
         <v>163</v>
       </c>
       <c r="P130" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -27946,7 +27955,7 @@
         <v>164</v>
       </c>
       <c r="P131" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -28152,7 +28161,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q132">
         <v>1.67</v>
@@ -28233,7 +28242,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ132">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AR132">
         <v>2.26</v>
@@ -28358,7 +28367,7 @@
         <v>81</v>
       </c>
       <c r="P133" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q133">
         <v>4.75</v>
@@ -28436,7 +28445,7 @@
         <v>1.77</v>
       </c>
       <c r="AP133">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AQ133">
         <v>1.86</v>
@@ -28564,7 +28573,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q134">
         <v>4.33</v>
@@ -28770,7 +28779,7 @@
         <v>81</v>
       </c>
       <c r="P135" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q135">
         <v>10</v>
@@ -28976,7 +28985,7 @@
         <v>167</v>
       </c>
       <c r="P136" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q136">
         <v>7.5</v>
@@ -29132,6 +29141,418 @@
         <v>0</v>
       </c>
       <c r="BP136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7325270</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45553.47916666666</v>
+      </c>
+      <c r="F137">
+        <v>28</v>
+      </c>
+      <c r="G137" t="s">
+        <v>76</v>
+      </c>
+      <c r="H137" t="s">
+        <v>79</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>3</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>3</v>
+      </c>
+      <c r="O137" t="s">
+        <v>168</v>
+      </c>
+      <c r="P137" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q137">
+        <v>1.57</v>
+      </c>
+      <c r="R137">
+        <v>2.75</v>
+      </c>
+      <c r="S137">
+        <v>8.5</v>
+      </c>
+      <c r="T137">
+        <v>1.24</v>
+      </c>
+      <c r="U137">
+        <v>3.8</v>
+      </c>
+      <c r="V137">
+        <v>2.14</v>
+      </c>
+      <c r="W137">
+        <v>1.66</v>
+      </c>
+      <c r="X137">
+        <v>4.65</v>
+      </c>
+      <c r="Y137">
+        <v>1.17</v>
+      </c>
+      <c r="Z137">
+        <v>1.15</v>
+      </c>
+      <c r="AA137">
+        <v>5.16</v>
+      </c>
+      <c r="AB137">
+        <v>9.31</v>
+      </c>
+      <c r="AC137">
+        <v>1.01</v>
+      </c>
+      <c r="AD137">
+        <v>23</v>
+      </c>
+      <c r="AE137">
+        <v>1.11</v>
+      </c>
+      <c r="AF137">
+        <v>5.2</v>
+      </c>
+      <c r="AG137">
+        <v>1.37</v>
+      </c>
+      <c r="AH137">
+        <v>2.85</v>
+      </c>
+      <c r="AI137">
+        <v>2</v>
+      </c>
+      <c r="AJ137">
+        <v>1.69</v>
+      </c>
+      <c r="AK137">
+        <v>1.02</v>
+      </c>
+      <c r="AL137">
+        <v>1.11</v>
+      </c>
+      <c r="AM137">
+        <v>4.33</v>
+      </c>
+      <c r="AN137">
+        <v>2.17</v>
+      </c>
+      <c r="AO137">
+        <v>0.21</v>
+      </c>
+      <c r="AP137">
+        <v>2.23</v>
+      </c>
+      <c r="AQ137">
+        <v>0.2</v>
+      </c>
+      <c r="AR137">
+        <v>2.02</v>
+      </c>
+      <c r="AS137">
+        <v>1.12</v>
+      </c>
+      <c r="AT137">
+        <v>3.14</v>
+      </c>
+      <c r="AU137">
+        <v>11</v>
+      </c>
+      <c r="AV137">
+        <v>2</v>
+      </c>
+      <c r="AW137">
+        <v>12</v>
+      </c>
+      <c r="AX137">
+        <v>8</v>
+      </c>
+      <c r="AY137">
+        <v>23</v>
+      </c>
+      <c r="AZ137">
+        <v>10</v>
+      </c>
+      <c r="BA137">
+        <v>9</v>
+      </c>
+      <c r="BB137">
+        <v>6</v>
+      </c>
+      <c r="BC137">
+        <v>15</v>
+      </c>
+      <c r="BD137">
+        <v>0</v>
+      </c>
+      <c r="BE137">
+        <v>0</v>
+      </c>
+      <c r="BF137">
+        <v>0</v>
+      </c>
+      <c r="BG137">
+        <v>0</v>
+      </c>
+      <c r="BH137">
+        <v>0</v>
+      </c>
+      <c r="BI137">
+        <v>0</v>
+      </c>
+      <c r="BJ137">
+        <v>0</v>
+      </c>
+      <c r="BK137">
+        <v>0</v>
+      </c>
+      <c r="BL137">
+        <v>0</v>
+      </c>
+      <c r="BM137">
+        <v>0</v>
+      </c>
+      <c r="BN137">
+        <v>0</v>
+      </c>
+      <c r="BO137">
+        <v>0</v>
+      </c>
+      <c r="BP137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7325272</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45553.54166666666</v>
+      </c>
+      <c r="F138">
+        <v>28</v>
+      </c>
+      <c r="G138" t="s">
+        <v>74</v>
+      </c>
+      <c r="H138" t="s">
+        <v>75</v>
+      </c>
+      <c r="I138">
+        <v>2</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+      <c r="K138">
+        <v>3</v>
+      </c>
+      <c r="L138">
+        <v>2</v>
+      </c>
+      <c r="M138">
+        <v>2</v>
+      </c>
+      <c r="N138">
+        <v>4</v>
+      </c>
+      <c r="O138" t="s">
+        <v>169</v>
+      </c>
+      <c r="P138" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q138">
+        <v>4</v>
+      </c>
+      <c r="R138">
+        <v>2.1</v>
+      </c>
+      <c r="S138">
+        <v>2.6</v>
+      </c>
+      <c r="T138">
+        <v>1.4</v>
+      </c>
+      <c r="U138">
+        <v>2.81</v>
+      </c>
+      <c r="V138">
+        <v>2.85</v>
+      </c>
+      <c r="W138">
+        <v>1.39</v>
+      </c>
+      <c r="X138">
+        <v>7.4</v>
+      </c>
+      <c r="Y138">
+        <v>1.07</v>
+      </c>
+      <c r="Z138">
+        <v>3.25</v>
+      </c>
+      <c r="AA138">
+        <v>3.6</v>
+      </c>
+      <c r="AB138">
+        <v>1.91</v>
+      </c>
+      <c r="AC138">
+        <v>1.06</v>
+      </c>
+      <c r="AD138">
+        <v>9</v>
+      </c>
+      <c r="AE138">
+        <v>1.3</v>
+      </c>
+      <c r="AF138">
+        <v>3.4</v>
+      </c>
+      <c r="AG138">
+        <v>2.02</v>
+      </c>
+      <c r="AH138">
+        <v>1.71</v>
+      </c>
+      <c r="AI138">
+        <v>1.67</v>
+      </c>
+      <c r="AJ138">
+        <v>2.1</v>
+      </c>
+      <c r="AK138">
+        <v>1.68</v>
+      </c>
+      <c r="AL138">
+        <v>1.28</v>
+      </c>
+      <c r="AM138">
+        <v>1.28</v>
+      </c>
+      <c r="AN138">
+        <v>0.79</v>
+      </c>
+      <c r="AO138">
+        <v>1</v>
+      </c>
+      <c r="AP138">
+        <v>0.8</v>
+      </c>
+      <c r="AQ138">
+        <v>1</v>
+      </c>
+      <c r="AR138">
+        <v>1.47</v>
+      </c>
+      <c r="AS138">
+        <v>1.65</v>
+      </c>
+      <c r="AT138">
+        <v>3.12</v>
+      </c>
+      <c r="AU138">
+        <v>4</v>
+      </c>
+      <c r="AV138">
+        <v>7</v>
+      </c>
+      <c r="AW138">
+        <v>9</v>
+      </c>
+      <c r="AX138">
+        <v>4</v>
+      </c>
+      <c r="AY138">
+        <v>13</v>
+      </c>
+      <c r="AZ138">
+        <v>11</v>
+      </c>
+      <c r="BA138">
+        <v>8</v>
+      </c>
+      <c r="BB138">
+        <v>4</v>
+      </c>
+      <c r="BC138">
+        <v>12</v>
+      </c>
+      <c r="BD138">
+        <v>0</v>
+      </c>
+      <c r="BE138">
+        <v>0</v>
+      </c>
+      <c r="BF138">
+        <v>0</v>
+      </c>
+      <c r="BG138">
+        <v>0</v>
+      </c>
+      <c r="BH138">
+        <v>0</v>
+      </c>
+      <c r="BI138">
+        <v>0</v>
+      </c>
+      <c r="BJ138">
+        <v>0</v>
+      </c>
+      <c r="BK138">
+        <v>0</v>
+      </c>
+      <c r="BL138">
+        <v>0</v>
+      </c>
+      <c r="BM138">
+        <v>0</v>
+      </c>
+      <c r="BN138">
+        <v>0</v>
+      </c>
+      <c r="BO138">
+        <v>0</v>
+      </c>
+      <c r="BP138">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="252">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -526,6 +526,9 @@
     <t>['2', '21']</t>
   </si>
   <si>
+    <t>['7', '45+1', '49', '82']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -761,6 +764,12 @@
   </si>
   <si>
     <t>['39', '90+5']</t>
+  </si>
+  <si>
+    <t>['9', '13', '17']</t>
+  </si>
+  <si>
+    <t>['8', '32', '63', '88']</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1131,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP138"/>
+  <dimension ref="A1:BP140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1587,7 +1596,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1874,7 +1883,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ4">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1999,7 +2008,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -2205,7 +2214,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2617,7 +2626,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2904,7 +2913,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ9">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3029,7 +3038,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -3107,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ10">
         <v>0.2</v>
@@ -3235,7 +3244,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3441,7 +3450,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3647,7 +3656,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3725,7 +3734,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ13">
         <v>1.64</v>
@@ -3853,7 +3862,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -4059,7 +4068,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4140,7 +4149,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR15">
         <v>0.5</v>
@@ -4343,7 +4352,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ16">
         <v>1.86</v>
@@ -4677,7 +4686,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -5501,7 +5510,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5579,7 +5588,7 @@
         <v>2</v>
       </c>
       <c r="AP22">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -5707,7 +5716,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5913,7 +5922,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -5991,10 +6000,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR24">
         <v>2.63</v>
@@ -6119,7 +6128,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6200,7 +6209,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ25">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR25">
         <v>1.98</v>
@@ -6531,7 +6540,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6612,7 +6621,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR27">
         <v>2.19</v>
@@ -6737,7 +6746,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -7149,7 +7158,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7355,7 +7364,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7561,7 +7570,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7767,7 +7776,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7973,7 +7982,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -8051,7 +8060,7 @@
         <v>0.67</v>
       </c>
       <c r="AP34">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ34">
         <v>0.85</v>
@@ -8179,7 +8188,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8257,7 +8266,7 @@
         <v>1.33</v>
       </c>
       <c r="AP35">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ35">
         <v>1</v>
@@ -8672,7 +8681,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ37">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR37">
         <v>1.49</v>
@@ -8797,7 +8806,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -9003,7 +9012,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -9209,7 +9218,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9415,7 +9424,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9621,7 +9630,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9827,7 +9836,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -10239,7 +10248,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10729,10 +10738,10 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR47">
         <v>1.09</v>
@@ -11141,7 +11150,7 @@
         <v>1.25</v>
       </c>
       <c r="AP49">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ49">
         <v>0.85</v>
@@ -11475,7 +11484,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -12174,7 +12183,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ54">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR54">
         <v>1.38</v>
@@ -12299,7 +12308,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12377,7 +12386,7 @@
         <v>1.17</v>
       </c>
       <c r="AP55">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ55">
         <v>1.87</v>
@@ -12505,7 +12514,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12711,7 +12720,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12998,7 +13007,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR58">
         <v>1.96</v>
@@ -13329,7 +13338,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13616,7 +13625,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ61">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR61">
         <v>1.78</v>
@@ -13741,7 +13750,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13819,7 +13828,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ62">
         <v>1.86</v>
@@ -13947,7 +13956,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -14153,7 +14162,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14231,10 +14240,10 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ64">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR64">
         <v>1.24</v>
@@ -14359,7 +14368,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14565,7 +14574,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14646,7 +14655,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ66">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR66">
         <v>1.95</v>
@@ -14771,7 +14780,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -14977,7 +14986,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -15183,7 +15192,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15389,7 +15398,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15467,7 +15476,7 @@
         <v>2.57</v>
       </c>
       <c r="AP70">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ70">
         <v>2.57</v>
@@ -15595,7 +15604,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15673,7 +15682,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ71">
         <v>1</v>
@@ -16088,7 +16097,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ73">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR73">
         <v>2.41</v>
@@ -16625,7 +16634,7 @@
         <v>131</v>
       </c>
       <c r="P76" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -17037,7 +17046,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17118,7 +17127,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ78">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR78">
         <v>1.17</v>
@@ -17243,7 +17252,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q79">
         <v>1.53</v>
@@ -17449,7 +17458,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17655,7 +17664,7 @@
         <v>81</v>
       </c>
       <c r="P81" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q81">
         <v>1.6</v>
@@ -17733,7 +17742,7 @@
         <v>0.86</v>
       </c>
       <c r="AP81">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ81">
         <v>1</v>
@@ -18067,7 +18076,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q83">
         <v>8.5</v>
@@ -18145,7 +18154,7 @@
         <v>2.63</v>
       </c>
       <c r="AP83">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ83">
         <v>2.57</v>
@@ -18273,7 +18282,7 @@
         <v>81</v>
       </c>
       <c r="P84" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18354,7 +18363,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ84">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR84">
         <v>1.8</v>
@@ -18685,7 +18694,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q86">
         <v>5.66</v>
@@ -18891,7 +18900,7 @@
         <v>137</v>
       </c>
       <c r="P87" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q87">
         <v>4.95</v>
@@ -19097,7 +19106,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q88">
         <v>2.77</v>
@@ -19303,7 +19312,7 @@
         <v>138</v>
       </c>
       <c r="P89" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -19381,7 +19390,7 @@
         <v>1.88</v>
       </c>
       <c r="AP89">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ89">
         <v>1.64</v>
@@ -19509,7 +19518,7 @@
         <v>122</v>
       </c>
       <c r="P90" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q90">
         <v>11</v>
@@ -19715,7 +19724,7 @@
         <v>139</v>
       </c>
       <c r="P91" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q91">
         <v>1.83</v>
@@ -19921,7 +19930,7 @@
         <v>140</v>
       </c>
       <c r="P92" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20002,7 +20011,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ92">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR92">
         <v>1.58</v>
@@ -20127,7 +20136,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q93">
         <v>2.3</v>
@@ -20411,10 +20420,10 @@
         <v>1.13</v>
       </c>
       <c r="AP94">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ94">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR94">
         <v>2.14</v>
@@ -21157,7 +21166,7 @@
         <v>145</v>
       </c>
       <c r="P98" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -21569,7 +21578,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -21647,7 +21656,7 @@
         <v>1.7</v>
       </c>
       <c r="AP100">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ100">
         <v>1.86</v>
@@ -21856,7 +21865,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ101">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR101">
         <v>1.51</v>
@@ -22062,7 +22071,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ102">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR102">
         <v>2.37</v>
@@ -22187,7 +22196,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q103">
         <v>1.91</v>
@@ -22265,7 +22274,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ103">
         <v>0.85</v>
@@ -23011,7 +23020,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q107">
         <v>1.06</v>
@@ -23217,7 +23226,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23423,7 +23432,7 @@
         <v>151</v>
       </c>
       <c r="P109" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q109">
         <v>2.2</v>
@@ -23504,7 +23513,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ109">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR109">
         <v>1.91</v>
@@ -23629,7 +23638,7 @@
         <v>81</v>
       </c>
       <c r="P110" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23913,7 +23922,7 @@
         <v>2.7</v>
       </c>
       <c r="AP111">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ111">
         <v>2.57</v>
@@ -24041,7 +24050,7 @@
         <v>81</v>
       </c>
       <c r="P112" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24122,7 +24131,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ112">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR112">
         <v>1.62</v>
@@ -24247,7 +24256,7 @@
         <v>152</v>
       </c>
       <c r="P113" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -24453,7 +24462,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q114">
         <v>2.1</v>
@@ -24865,7 +24874,7 @@
         <v>155</v>
       </c>
       <c r="P116" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q116">
         <v>2.5</v>
@@ -25071,7 +25080,7 @@
         <v>156</v>
       </c>
       <c r="P117" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q117">
         <v>1.91</v>
@@ -25152,7 +25161,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ117">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR117">
         <v>1.95</v>
@@ -25355,7 +25364,7 @@
         <v>1.18</v>
       </c>
       <c r="AP118">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ118">
         <v>1</v>
@@ -25689,7 +25698,7 @@
         <v>81</v>
       </c>
       <c r="P120" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q120">
         <v>5.33</v>
@@ -25895,7 +25904,7 @@
         <v>81</v>
       </c>
       <c r="P121" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -25976,7 +25985,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ121">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR121">
         <v>1.47</v>
@@ -26101,7 +26110,7 @@
         <v>153</v>
       </c>
       <c r="P122" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q122">
         <v>6.41</v>
@@ -26307,7 +26316,7 @@
         <v>104</v>
       </c>
       <c r="P123" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26385,7 +26394,7 @@
         <v>0.91</v>
       </c>
       <c r="AP123">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ123">
         <v>0.85</v>
@@ -26719,7 +26728,7 @@
         <v>160</v>
       </c>
       <c r="P125" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -26925,7 +26934,7 @@
         <v>81</v>
       </c>
       <c r="P126" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q126">
         <v>2.6</v>
@@ -27131,7 +27140,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q127">
         <v>3.75</v>
@@ -27209,10 +27218,10 @@
         <v>1</v>
       </c>
       <c r="AP127">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ127">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR127">
         <v>1.18</v>
@@ -27337,7 +27346,7 @@
         <v>162</v>
       </c>
       <c r="P128" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q128">
         <v>2.63</v>
@@ -27749,7 +27758,7 @@
         <v>163</v>
       </c>
       <c r="P130" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -27955,7 +27964,7 @@
         <v>164</v>
       </c>
       <c r="P131" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -28161,7 +28170,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q132">
         <v>1.67</v>
@@ -28239,7 +28248,7 @@
         <v>0.23</v>
       </c>
       <c r="AP132">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ132">
         <v>0.2</v>
@@ -28367,7 +28376,7 @@
         <v>81</v>
       </c>
       <c r="P133" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q133">
         <v>4.75</v>
@@ -28573,7 +28582,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q134">
         <v>4.33</v>
@@ -28779,7 +28788,7 @@
         <v>81</v>
       </c>
       <c r="P135" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q135">
         <v>10</v>
@@ -28985,7 +28994,7 @@
         <v>167</v>
       </c>
       <c r="P136" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q136">
         <v>7.5</v>
@@ -29397,7 +29406,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -29553,6 +29562,418 @@
         <v>0</v>
       </c>
       <c r="BP138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7325273</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45556.27083333334</v>
+      </c>
+      <c r="F139">
+        <v>29</v>
+      </c>
+      <c r="G139" t="s">
+        <v>77</v>
+      </c>
+      <c r="H139" t="s">
+        <v>71</v>
+      </c>
+      <c r="I139">
+        <v>2</v>
+      </c>
+      <c r="J139">
+        <v>3</v>
+      </c>
+      <c r="K139">
+        <v>5</v>
+      </c>
+      <c r="L139">
+        <v>4</v>
+      </c>
+      <c r="M139">
+        <v>3</v>
+      </c>
+      <c r="N139">
+        <v>7</v>
+      </c>
+      <c r="O139" t="s">
+        <v>170</v>
+      </c>
+      <c r="P139" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q139">
+        <v>1.8</v>
+      </c>
+      <c r="R139">
+        <v>2.5</v>
+      </c>
+      <c r="S139">
+        <v>6.5</v>
+      </c>
+      <c r="T139">
+        <v>1.29</v>
+      </c>
+      <c r="U139">
+        <v>3.25</v>
+      </c>
+      <c r="V139">
+        <v>2.38</v>
+      </c>
+      <c r="W139">
+        <v>1.53</v>
+      </c>
+      <c r="X139">
+        <v>5.5</v>
+      </c>
+      <c r="Y139">
+        <v>1.13</v>
+      </c>
+      <c r="Z139">
+        <v>1.3</v>
+      </c>
+      <c r="AA139">
+        <v>5.25</v>
+      </c>
+      <c r="AB139">
+        <v>8.25</v>
+      </c>
+      <c r="AC139">
+        <v>1.01</v>
+      </c>
+      <c r="AD139">
+        <v>15</v>
+      </c>
+      <c r="AE139">
+        <v>1.2</v>
+      </c>
+      <c r="AF139">
+        <v>4.5</v>
+      </c>
+      <c r="AG139">
+        <v>1.42</v>
+      </c>
+      <c r="AH139">
+        <v>2.65</v>
+      </c>
+      <c r="AI139">
+        <v>1.8</v>
+      </c>
+      <c r="AJ139">
+        <v>1.91</v>
+      </c>
+      <c r="AK139">
+        <v>1.06</v>
+      </c>
+      <c r="AL139">
+        <v>1.12</v>
+      </c>
+      <c r="AM139">
+        <v>2.88</v>
+      </c>
+      <c r="AN139">
+        <v>1.83</v>
+      </c>
+      <c r="AO139">
+        <v>1</v>
+      </c>
+      <c r="AP139">
+        <v>1.92</v>
+      </c>
+      <c r="AQ139">
+        <v>0.93</v>
+      </c>
+      <c r="AR139">
+        <v>2.3</v>
+      </c>
+      <c r="AS139">
+        <v>1.48</v>
+      </c>
+      <c r="AT139">
+        <v>3.78</v>
+      </c>
+      <c r="AU139">
+        <v>9</v>
+      </c>
+      <c r="AV139">
+        <v>6</v>
+      </c>
+      <c r="AW139">
+        <v>8</v>
+      </c>
+      <c r="AX139">
+        <v>3</v>
+      </c>
+      <c r="AY139">
+        <v>17</v>
+      </c>
+      <c r="AZ139">
+        <v>9</v>
+      </c>
+      <c r="BA139">
+        <v>10</v>
+      </c>
+      <c r="BB139">
+        <v>6</v>
+      </c>
+      <c r="BC139">
+        <v>16</v>
+      </c>
+      <c r="BD139">
+        <v>0</v>
+      </c>
+      <c r="BE139">
+        <v>0</v>
+      </c>
+      <c r="BF139">
+        <v>0</v>
+      </c>
+      <c r="BG139">
+        <v>0</v>
+      </c>
+      <c r="BH139">
+        <v>0</v>
+      </c>
+      <c r="BI139">
+        <v>0</v>
+      </c>
+      <c r="BJ139">
+        <v>0</v>
+      </c>
+      <c r="BK139">
+        <v>0</v>
+      </c>
+      <c r="BL139">
+        <v>0</v>
+      </c>
+      <c r="BM139">
+        <v>0</v>
+      </c>
+      <c r="BN139">
+        <v>0</v>
+      </c>
+      <c r="BO139">
+        <v>0</v>
+      </c>
+      <c r="BP139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7325274</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45556.35416666666</v>
+      </c>
+      <c r="F140">
+        <v>29</v>
+      </c>
+      <c r="G140" t="s">
+        <v>79</v>
+      </c>
+      <c r="H140" t="s">
+        <v>78</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>2</v>
+      </c>
+      <c r="K140">
+        <v>2</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>4</v>
+      </c>
+      <c r="N140">
+        <v>4</v>
+      </c>
+      <c r="O140" t="s">
+        <v>81</v>
+      </c>
+      <c r="P140" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q140">
+        <v>4.5</v>
+      </c>
+      <c r="R140">
+        <v>2.3</v>
+      </c>
+      <c r="S140">
+        <v>2.2</v>
+      </c>
+      <c r="T140">
+        <v>1.32</v>
+      </c>
+      <c r="U140">
+        <v>3.05</v>
+      </c>
+      <c r="V140">
+        <v>2.5</v>
+      </c>
+      <c r="W140">
+        <v>1.48</v>
+      </c>
+      <c r="X140">
+        <v>6.25</v>
+      </c>
+      <c r="Y140">
+        <v>1.11</v>
+      </c>
+      <c r="Z140">
+        <v>3.95</v>
+      </c>
+      <c r="AA140">
+        <v>3.7</v>
+      </c>
+      <c r="AB140">
+        <v>1.72</v>
+      </c>
+      <c r="AC140">
+        <v>1.03</v>
+      </c>
+      <c r="AD140">
+        <v>15</v>
+      </c>
+      <c r="AE140">
+        <v>1.22</v>
+      </c>
+      <c r="AF140">
+        <v>3.9</v>
+      </c>
+      <c r="AG140">
+        <v>1.69</v>
+      </c>
+      <c r="AH140">
+        <v>2.04</v>
+      </c>
+      <c r="AI140">
+        <v>1.7</v>
+      </c>
+      <c r="AJ140">
+        <v>2</v>
+      </c>
+      <c r="AK140">
+        <v>2.15</v>
+      </c>
+      <c r="AL140">
+        <v>1.2</v>
+      </c>
+      <c r="AM140">
+        <v>1.18</v>
+      </c>
+      <c r="AN140">
+        <v>0.85</v>
+      </c>
+      <c r="AO140">
+        <v>1.17</v>
+      </c>
+      <c r="AP140">
+        <v>0.79</v>
+      </c>
+      <c r="AQ140">
+        <v>1.31</v>
+      </c>
+      <c r="AR140">
+        <v>1.26</v>
+      </c>
+      <c r="AS140">
+        <v>1.82</v>
+      </c>
+      <c r="AT140">
+        <v>3.08</v>
+      </c>
+      <c r="AU140">
+        <v>3</v>
+      </c>
+      <c r="AV140">
+        <v>5</v>
+      </c>
+      <c r="AW140">
+        <v>6</v>
+      </c>
+      <c r="AX140">
+        <v>2</v>
+      </c>
+      <c r="AY140">
+        <v>9</v>
+      </c>
+      <c r="AZ140">
+        <v>7</v>
+      </c>
+      <c r="BA140">
+        <v>5</v>
+      </c>
+      <c r="BB140">
+        <v>8</v>
+      </c>
+      <c r="BC140">
+        <v>13</v>
+      </c>
+      <c r="BD140">
+        <v>0</v>
+      </c>
+      <c r="BE140">
+        <v>0</v>
+      </c>
+      <c r="BF140">
+        <v>0</v>
+      </c>
+      <c r="BG140">
+        <v>0</v>
+      </c>
+      <c r="BH140">
+        <v>0</v>
+      </c>
+      <c r="BI140">
+        <v>0</v>
+      </c>
+      <c r="BJ140">
+        <v>0</v>
+      </c>
+      <c r="BK140">
+        <v>0</v>
+      </c>
+      <c r="BL140">
+        <v>0</v>
+      </c>
+      <c r="BM140">
+        <v>0</v>
+      </c>
+      <c r="BN140">
+        <v>0</v>
+      </c>
+      <c r="BO140">
+        <v>0</v>
+      </c>
+      <c r="BP140">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="253">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -527,6 +527,9 @@
   </si>
   <si>
     <t>['7', '45+1', '49', '82']</t>
+  </si>
+  <si>
+    <t>['45+1', '90+3']</t>
   </si>
   <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
@@ -1131,7 +1134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP140"/>
+  <dimension ref="A1:BP141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1468,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ2">
         <v>0.2</v>
@@ -1596,7 +1599,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -2008,7 +2011,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -2089,7 +2092,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2214,7 +2217,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2626,7 +2629,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -3038,7 +3041,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -3244,7 +3247,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3322,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ11">
         <v>0.85</v>
@@ -3450,7 +3453,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3656,7 +3659,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3862,7 +3865,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3943,7 +3946,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4068,7 +4071,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4686,7 +4689,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -5510,7 +5513,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5591,7 +5594,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR22">
         <v>0.74</v>
@@ -5716,7 +5719,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5922,7 +5925,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -6128,7 +6131,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6206,7 +6209,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ25">
         <v>1.31</v>
@@ -6540,7 +6543,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6746,7 +6749,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -7158,7 +7161,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7364,7 +7367,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7570,7 +7573,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7776,7 +7779,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7854,7 +7857,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ33">
         <v>1.87</v>
@@ -7982,7 +7985,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -8188,7 +8191,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8269,7 +8272,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR35">
         <v>2.56</v>
@@ -8806,7 +8809,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8884,7 +8887,7 @@
         <v>2.33</v>
       </c>
       <c r="AP38">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ38">
         <v>1.86</v>
@@ -9012,7 +9015,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -9218,7 +9221,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9424,7 +9427,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9630,7 +9633,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9836,7 +9839,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -10248,7 +10251,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10535,7 +10538,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR46">
         <v>1.97</v>
@@ -11356,7 +11359,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ50">
         <v>2.57</v>
@@ -11484,7 +11487,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -11562,7 +11565,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ51">
         <v>1</v>
@@ -11771,7 +11774,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ52">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR52">
         <v>1.6</v>
@@ -12308,7 +12311,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12514,7 +12517,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12720,7 +12723,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13338,7 +13341,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13622,7 +13625,7 @@
         <v>0.8</v>
       </c>
       <c r="AP61">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ61">
         <v>0.93</v>
@@ -13750,7 +13753,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13956,7 +13959,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -14162,7 +14165,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14368,7 +14371,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14449,7 +14452,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ65">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR65">
         <v>1.14</v>
@@ -14574,7 +14577,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14780,7 +14783,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -14986,7 +14989,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -15192,7 +15195,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15398,7 +15401,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15604,7 +15607,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15888,7 +15891,7 @@
         <v>1.63</v>
       </c>
       <c r="AP72">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ72">
         <v>1.87</v>
@@ -16634,7 +16637,7 @@
         <v>131</v>
       </c>
       <c r="P76" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -17046,7 +17049,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17252,7 +17255,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q79">
         <v>1.53</v>
@@ -17333,7 +17336,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ79">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR79">
         <v>2.5</v>
@@ -17458,7 +17461,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17664,7 +17667,7 @@
         <v>81</v>
       </c>
       <c r="P81" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q81">
         <v>1.6</v>
@@ -18076,7 +18079,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q83">
         <v>8.5</v>
@@ -18282,7 +18285,7 @@
         <v>81</v>
       </c>
       <c r="P84" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18566,10 +18569,10 @@
         <v>1.13</v>
       </c>
       <c r="AP85">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ85">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR85">
         <v>1.88</v>
@@ -18694,7 +18697,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q86">
         <v>5.66</v>
@@ -18900,7 +18903,7 @@
         <v>137</v>
       </c>
       <c r="P87" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q87">
         <v>4.95</v>
@@ -19106,7 +19109,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q88">
         <v>2.77</v>
@@ -19312,7 +19315,7 @@
         <v>138</v>
       </c>
       <c r="P89" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -19518,7 +19521,7 @@
         <v>122</v>
       </c>
       <c r="P90" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q90">
         <v>11</v>
@@ -19724,7 +19727,7 @@
         <v>139</v>
       </c>
       <c r="P91" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q91">
         <v>1.83</v>
@@ -19930,7 +19933,7 @@
         <v>140</v>
       </c>
       <c r="P92" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20136,7 +20139,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q93">
         <v>2.3</v>
@@ -20835,7 +20838,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ96">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR96">
         <v>1.57</v>
@@ -21166,7 +21169,7 @@
         <v>145</v>
       </c>
       <c r="P98" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -21578,7 +21581,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -22196,7 +22199,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q103">
         <v>1.91</v>
@@ -22689,7 +22692,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ105">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR105">
         <v>2.01</v>
@@ -23020,7 +23023,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q107">
         <v>1.06</v>
@@ -23226,7 +23229,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23432,7 +23435,7 @@
         <v>151</v>
       </c>
       <c r="P109" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q109">
         <v>2.2</v>
@@ -23510,7 +23513,7 @@
         <v>1.1</v>
       </c>
       <c r="AP109">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ109">
         <v>1.31</v>
@@ -23638,7 +23641,7 @@
         <v>81</v>
       </c>
       <c r="P110" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24050,7 +24053,7 @@
         <v>81</v>
       </c>
       <c r="P112" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24256,7 +24259,7 @@
         <v>152</v>
       </c>
       <c r="P113" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -24462,7 +24465,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q114">
         <v>2.1</v>
@@ -24749,7 +24752,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ115">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR115">
         <v>2.51</v>
@@ -24874,7 +24877,7 @@
         <v>155</v>
       </c>
       <c r="P116" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q116">
         <v>2.5</v>
@@ -25080,7 +25083,7 @@
         <v>156</v>
       </c>
       <c r="P117" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q117">
         <v>1.91</v>
@@ -25570,7 +25573,7 @@
         <v>0.25</v>
       </c>
       <c r="AP119">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ119">
         <v>0.2</v>
@@ -25698,7 +25701,7 @@
         <v>81</v>
       </c>
       <c r="P120" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q120">
         <v>5.33</v>
@@ -25904,7 +25907,7 @@
         <v>81</v>
       </c>
       <c r="P121" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -26110,7 +26113,7 @@
         <v>153</v>
       </c>
       <c r="P122" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q122">
         <v>6.41</v>
@@ -26316,7 +26319,7 @@
         <v>104</v>
       </c>
       <c r="P123" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26728,7 +26731,7 @@
         <v>160</v>
       </c>
       <c r="P125" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -26806,7 +26809,7 @@
         <v>2.75</v>
       </c>
       <c r="AP125">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ125">
         <v>2.57</v>
@@ -26934,7 +26937,7 @@
         <v>81</v>
       </c>
       <c r="P126" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q126">
         <v>2.6</v>
@@ -27015,7 +27018,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ126">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR126">
         <v>1.74</v>
@@ -27140,7 +27143,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q127">
         <v>3.75</v>
@@ -27346,7 +27349,7 @@
         <v>162</v>
       </c>
       <c r="P128" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q128">
         <v>2.63</v>
@@ -27758,7 +27761,7 @@
         <v>163</v>
       </c>
       <c r="P130" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -27964,7 +27967,7 @@
         <v>164</v>
       </c>
       <c r="P131" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -28170,7 +28173,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q132">
         <v>1.67</v>
@@ -28376,7 +28379,7 @@
         <v>81</v>
       </c>
       <c r="P133" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q133">
         <v>4.75</v>
@@ -28582,7 +28585,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q134">
         <v>4.33</v>
@@ -28788,7 +28791,7 @@
         <v>81</v>
       </c>
       <c r="P135" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q135">
         <v>10</v>
@@ -28994,7 +28997,7 @@
         <v>167</v>
       </c>
       <c r="P136" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q136">
         <v>7.5</v>
@@ -29406,7 +29409,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -29487,7 +29490,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ138">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR138">
         <v>1.47</v>
@@ -29612,7 +29615,7 @@
         <v>170</v>
       </c>
       <c r="P139" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q139">
         <v>1.8</v>
@@ -29818,7 +29821,7 @@
         <v>81</v>
       </c>
       <c r="P140" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q140">
         <v>4.5</v>
@@ -29914,66 +29917,272 @@
         <v>3</v>
       </c>
       <c r="AV140">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AW140">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AX140">
         <v>2</v>
       </c>
       <c r="AY140">
+        <v>14</v>
+      </c>
+      <c r="AZ140">
+        <v>11</v>
+      </c>
+      <c r="BA140">
+        <v>8</v>
+      </c>
+      <c r="BB140">
         <v>9</v>
       </c>
-      <c r="AZ140">
+      <c r="BC140">
+        <v>17</v>
+      </c>
+      <c r="BD140">
+        <v>0</v>
+      </c>
+      <c r="BE140">
+        <v>0</v>
+      </c>
+      <c r="BF140">
+        <v>0</v>
+      </c>
+      <c r="BG140">
+        <v>0</v>
+      </c>
+      <c r="BH140">
+        <v>0</v>
+      </c>
+      <c r="BI140">
+        <v>0</v>
+      </c>
+      <c r="BJ140">
+        <v>0</v>
+      </c>
+      <c r="BK140">
+        <v>0</v>
+      </c>
+      <c r="BL140">
+        <v>0</v>
+      </c>
+      <c r="BM140">
+        <v>0</v>
+      </c>
+      <c r="BN140">
+        <v>0</v>
+      </c>
+      <c r="BO140">
+        <v>0</v>
+      </c>
+      <c r="BP140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7325275</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45556.45833333334</v>
+      </c>
+      <c r="F141">
+        <v>29</v>
+      </c>
+      <c r="G141" t="s">
+        <v>70</v>
+      </c>
+      <c r="H141" t="s">
+        <v>75</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>2</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+      <c r="N141">
+        <v>3</v>
+      </c>
+      <c r="O141" t="s">
+        <v>171</v>
+      </c>
+      <c r="P141" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q141">
+        <v>2.1</v>
+      </c>
+      <c r="R141">
+        <v>2.3</v>
+      </c>
+      <c r="S141">
+        <v>4.75</v>
+      </c>
+      <c r="T141">
+        <v>1.3</v>
+      </c>
+      <c r="U141">
+        <v>3.15</v>
+      </c>
+      <c r="V141">
+        <v>2.62</v>
+      </c>
+      <c r="W141">
+        <v>1.44</v>
+      </c>
+      <c r="X141">
+        <v>6</v>
+      </c>
+      <c r="Y141">
+        <v>1.1</v>
+      </c>
+      <c r="Z141">
+        <v>1.55</v>
+      </c>
+      <c r="AA141">
+        <v>4</v>
+      </c>
+      <c r="AB141">
+        <v>4.77</v>
+      </c>
+      <c r="AC141">
+        <v>1.04</v>
+      </c>
+      <c r="AD141">
+        <v>11</v>
+      </c>
+      <c r="AE141">
+        <v>1.19</v>
+      </c>
+      <c r="AF141">
+        <v>3.64</v>
+      </c>
+      <c r="AG141">
+        <v>1.6</v>
+      </c>
+      <c r="AH141">
+        <v>2.19</v>
+      </c>
+      <c r="AI141">
+        <v>1.73</v>
+      </c>
+      <c r="AJ141">
+        <v>2.05</v>
+      </c>
+      <c r="AK141">
+        <v>1.18</v>
+      </c>
+      <c r="AL141">
+        <v>1.2</v>
+      </c>
+      <c r="AM141">
+        <v>1.95</v>
+      </c>
+      <c r="AN141">
+        <v>2.23</v>
+      </c>
+      <c r="AO141">
+        <v>1</v>
+      </c>
+      <c r="AP141">
+        <v>2.29</v>
+      </c>
+      <c r="AQ141">
+        <v>0.93</v>
+      </c>
+      <c r="AR141">
+        <v>1.87</v>
+      </c>
+      <c r="AS141">
+        <v>1.64</v>
+      </c>
+      <c r="AT141">
+        <v>3.51</v>
+      </c>
+      <c r="AU141">
+        <v>9</v>
+      </c>
+      <c r="AV141">
+        <v>8</v>
+      </c>
+      <c r="AW141">
+        <v>9</v>
+      </c>
+      <c r="AX141">
+        <v>3</v>
+      </c>
+      <c r="AY141">
+        <v>18</v>
+      </c>
+      <c r="AZ141">
+        <v>11</v>
+      </c>
+      <c r="BA141">
         <v>7</v>
       </c>
-      <c r="BA140">
-        <v>5</v>
-      </c>
-      <c r="BB140">
-        <v>8</v>
-      </c>
-      <c r="BC140">
-        <v>13</v>
-      </c>
-      <c r="BD140">
-        <v>0</v>
-      </c>
-      <c r="BE140">
-        <v>0</v>
-      </c>
-      <c r="BF140">
-        <v>0</v>
-      </c>
-      <c r="BG140">
-        <v>0</v>
-      </c>
-      <c r="BH140">
-        <v>0</v>
-      </c>
-      <c r="BI140">
-        <v>0</v>
-      </c>
-      <c r="BJ140">
-        <v>0</v>
-      </c>
-      <c r="BK140">
-        <v>0</v>
-      </c>
-      <c r="BL140">
-        <v>0</v>
-      </c>
-      <c r="BM140">
-        <v>0</v>
-      </c>
-      <c r="BN140">
-        <v>0</v>
-      </c>
-      <c r="BO140">
-        <v>0</v>
-      </c>
-      <c r="BP140">
+      <c r="BB141">
+        <v>7</v>
+      </c>
+      <c r="BC141">
+        <v>14</v>
+      </c>
+      <c r="BD141">
+        <v>0</v>
+      </c>
+      <c r="BE141">
+        <v>0</v>
+      </c>
+      <c r="BF141">
+        <v>0</v>
+      </c>
+      <c r="BG141">
+        <v>0</v>
+      </c>
+      <c r="BH141">
+        <v>0</v>
+      </c>
+      <c r="BI141">
+        <v>0</v>
+      </c>
+      <c r="BJ141">
+        <v>0</v>
+      </c>
+      <c r="BK141">
+        <v>0</v>
+      </c>
+      <c r="BL141">
+        <v>0</v>
+      </c>
+      <c r="BM141">
+        <v>0</v>
+      </c>
+      <c r="BN141">
+        <v>0</v>
+      </c>
+      <c r="BO141">
+        <v>0</v>
+      </c>
+      <c r="BP141">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="256">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -532,6 +532,12 @@
     <t>['45+1', '90+3']</t>
   </si>
   <si>
+    <t>['4', '11', '67']</t>
+  </si>
+  <si>
+    <t>['53', '61', '90+6']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -773,6 +779,9 @@
   </si>
   <si>
     <t>['8', '32', '63', '88']</t>
+  </si>
+  <si>
+    <t>['22']</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP141"/>
+  <dimension ref="A1:BP143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1599,7 +1608,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1883,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AQ4">
         <v>1.31</v>
@@ -2011,7 +2020,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -2217,7 +2226,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2504,7 +2513,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2629,7 +2638,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2913,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ9">
         <v>1.31</v>
@@ -3041,7 +3050,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -3247,7 +3256,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3328,7 +3337,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ11">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR11">
         <v>1.79</v>
@@ -3453,7 +3462,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3659,7 +3668,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3865,7 +3874,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -4071,7 +4080,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4564,7 +4573,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ17">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR17">
         <v>0.95</v>
@@ -4689,7 +4698,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -5385,7 +5394,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AQ21">
         <v>1.87</v>
@@ -5513,7 +5522,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5719,7 +5728,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5797,7 +5806,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ23">
         <v>2.57</v>
@@ -5925,7 +5934,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -6131,7 +6140,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6418,7 +6427,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR26">
         <v>1.42</v>
@@ -6543,7 +6552,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6749,7 +6758,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6830,7 +6839,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ28">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR28">
         <v>1.8</v>
@@ -7033,7 +7042,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AQ29">
         <v>0.2</v>
@@ -7161,7 +7170,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7367,7 +7376,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7445,7 +7454,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ31">
         <v>1.87</v>
@@ -7573,7 +7582,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7779,7 +7788,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7985,7 +7994,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -8066,7 +8075,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ34">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR34">
         <v>1.08</v>
@@ -8191,7 +8200,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8475,10 +8484,10 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR36">
         <v>2.43</v>
@@ -8809,7 +8818,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -9015,7 +9024,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -9221,7 +9230,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9427,7 +9436,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9633,7 +9642,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9839,7 +9848,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -10123,7 +10132,7 @@
         <v>1.4</v>
       </c>
       <c r="AP44">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AQ44">
         <v>1.87</v>
@@ -10251,7 +10260,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10535,7 +10544,7 @@
         <v>1.75</v>
       </c>
       <c r="AP46">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ46">
         <v>0.93</v>
@@ -10950,7 +10959,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR48">
         <v>1.86</v>
@@ -11156,7 +11165,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ49">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR49">
         <v>2.56</v>
@@ -11487,7 +11496,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -11568,7 +11577,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR51">
         <v>1.74</v>
@@ -11977,7 +11986,7 @@
         <v>2.2</v>
       </c>
       <c r="AP53">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AQ53">
         <v>1.86</v>
@@ -12311,7 +12320,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12517,7 +12526,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12723,7 +12732,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13007,7 +13016,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ58">
         <v>0.93</v>
@@ -13341,7 +13350,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13753,7 +13762,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13959,7 +13968,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -14037,10 +14046,10 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AQ63">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR63">
         <v>2.2</v>
@@ -14165,7 +14174,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14371,7 +14380,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14577,7 +14586,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14783,7 +14792,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -14864,7 +14873,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ67">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR67">
         <v>1.58</v>
@@ -14989,7 +14998,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -15067,7 +15076,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ68">
         <v>0.2</v>
@@ -15195,7 +15204,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15401,7 +15410,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15607,7 +15616,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15688,7 +15697,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ71">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR71">
         <v>1.2</v>
@@ -16097,7 +16106,7 @@
         <v>0.67</v>
       </c>
       <c r="AP73">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AQ73">
         <v>0.93</v>
@@ -16512,7 +16521,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ75">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR75">
         <v>1.91</v>
@@ -16637,7 +16646,7 @@
         <v>131</v>
       </c>
       <c r="P76" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16921,7 +16930,7 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ77">
         <v>1.64</v>
@@ -17049,7 +17058,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17255,7 +17264,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q79">
         <v>1.53</v>
@@ -17333,7 +17342,7 @@
         <v>1.29</v>
       </c>
       <c r="AP79">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AQ79">
         <v>0.93</v>
@@ -17461,7 +17470,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17667,7 +17676,7 @@
         <v>81</v>
       </c>
       <c r="P81" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q81">
         <v>1.6</v>
@@ -17748,7 +17757,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ81">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR81">
         <v>2.16</v>
@@ -17951,10 +17960,10 @@
         <v>0.86</v>
       </c>
       <c r="AP82">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ82">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR82">
         <v>2.04</v>
@@ -18079,7 +18088,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q83">
         <v>8.5</v>
@@ -18285,7 +18294,7 @@
         <v>81</v>
       </c>
       <c r="P84" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18697,7 +18706,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q86">
         <v>5.66</v>
@@ -18903,7 +18912,7 @@
         <v>137</v>
       </c>
       <c r="P87" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q87">
         <v>4.95</v>
@@ -19109,7 +19118,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q88">
         <v>2.77</v>
@@ -19190,7 +19199,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ88">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR88">
         <v>1.27</v>
@@ -19315,7 +19324,7 @@
         <v>138</v>
       </c>
       <c r="P89" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -19521,7 +19530,7 @@
         <v>122</v>
       </c>
       <c r="P90" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q90">
         <v>11</v>
@@ -19727,7 +19736,7 @@
         <v>139</v>
       </c>
       <c r="P91" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q91">
         <v>1.83</v>
@@ -19805,10 +19814,10 @@
         <v>1.13</v>
       </c>
       <c r="AP91">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ91">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR91">
         <v>1.99</v>
@@ -19933,7 +19942,7 @@
         <v>140</v>
       </c>
       <c r="P92" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20139,7 +20148,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q93">
         <v>2.3</v>
@@ -20629,7 +20638,7 @@
         <v>1.78</v>
       </c>
       <c r="AP95">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AQ95">
         <v>1.64</v>
@@ -21169,7 +21178,7 @@
         <v>145</v>
       </c>
       <c r="P98" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -21581,7 +21590,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -22071,7 +22080,7 @@
         <v>0.89</v>
       </c>
       <c r="AP102">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AQ102">
         <v>0.93</v>
@@ -22199,7 +22208,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q103">
         <v>1.91</v>
@@ -22280,7 +22289,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ103">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR103">
         <v>2.14</v>
@@ -22689,7 +22698,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ105">
         <v>0.93</v>
@@ -22898,7 +22907,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ106">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR106">
         <v>1.5</v>
@@ -23023,7 +23032,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q107">
         <v>1.06</v>
@@ -23104,7 +23113,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ107">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR107">
         <v>2.13</v>
@@ -23229,7 +23238,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23435,7 +23444,7 @@
         <v>151</v>
       </c>
       <c r="P109" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q109">
         <v>2.2</v>
@@ -23641,7 +23650,7 @@
         <v>81</v>
       </c>
       <c r="P110" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24053,7 +24062,7 @@
         <v>81</v>
       </c>
       <c r="P112" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24259,7 +24268,7 @@
         <v>152</v>
       </c>
       <c r="P113" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -24465,7 +24474,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q114">
         <v>2.1</v>
@@ -24749,7 +24758,7 @@
         <v>0.91</v>
       </c>
       <c r="AP115">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AQ115">
         <v>0.93</v>
@@ -24877,7 +24886,7 @@
         <v>155</v>
       </c>
       <c r="P116" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q116">
         <v>2.5</v>
@@ -24958,7 +24967,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ116">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR116">
         <v>1.74</v>
@@ -25083,7 +25092,7 @@
         <v>156</v>
       </c>
       <c r="P117" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q117">
         <v>1.91</v>
@@ -25161,7 +25170,7 @@
         <v>1.09</v>
       </c>
       <c r="AP117">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ117">
         <v>0.93</v>
@@ -25370,7 +25379,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ118">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR118">
         <v>2.29</v>
@@ -25701,7 +25710,7 @@
         <v>81</v>
       </c>
       <c r="P120" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q120">
         <v>5.33</v>
@@ -25907,7 +25916,7 @@
         <v>81</v>
       </c>
       <c r="P121" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -26113,7 +26122,7 @@
         <v>153</v>
       </c>
       <c r="P122" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q122">
         <v>6.41</v>
@@ -26319,7 +26328,7 @@
         <v>104</v>
       </c>
       <c r="P123" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26400,7 +26409,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ123">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR123">
         <v>1.09</v>
@@ -26603,7 +26612,7 @@
         <v>1.92</v>
       </c>
       <c r="AP124">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AQ124">
         <v>1.86</v>
@@ -26731,7 +26740,7 @@
         <v>160</v>
       </c>
       <c r="P125" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -26937,7 +26946,7 @@
         <v>81</v>
       </c>
       <c r="P126" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q126">
         <v>2.6</v>
@@ -27143,7 +27152,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q127">
         <v>3.75</v>
@@ -27349,7 +27358,7 @@
         <v>162</v>
       </c>
       <c r="P128" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q128">
         <v>2.63</v>
@@ -27427,7 +27436,7 @@
         <v>1.92</v>
       </c>
       <c r="AP128">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ128">
         <v>1.87</v>
@@ -27636,7 +27645,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ129">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR129">
         <v>1.6</v>
@@ -27761,7 +27770,7 @@
         <v>163</v>
       </c>
       <c r="P130" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -27842,7 +27851,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ130">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR130">
         <v>2.02</v>
@@ -27967,7 +27976,7 @@
         <v>164</v>
       </c>
       <c r="P131" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -28173,7 +28182,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q132">
         <v>1.67</v>
@@ -28379,7 +28388,7 @@
         <v>81</v>
       </c>
       <c r="P133" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q133">
         <v>4.75</v>
@@ -28585,7 +28594,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q134">
         <v>4.33</v>
@@ -28791,7 +28800,7 @@
         <v>81</v>
       </c>
       <c r="P135" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q135">
         <v>10</v>
@@ -28997,7 +29006,7 @@
         <v>167</v>
       </c>
       <c r="P136" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q136">
         <v>7.5</v>
@@ -29281,7 +29290,7 @@
         <v>0.21</v>
       </c>
       <c r="AP137">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ137">
         <v>0.2</v>
@@ -29409,7 +29418,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -29615,7 +29624,7 @@
         <v>170</v>
       </c>
       <c r="P139" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q139">
         <v>1.8</v>
@@ -29821,7 +29830,7 @@
         <v>81</v>
       </c>
       <c r="P140" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q140">
         <v>4.5</v>
@@ -30027,7 +30036,7 @@
         <v>171</v>
       </c>
       <c r="P141" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q141">
         <v>2.1</v>
@@ -30183,6 +30192,418 @@
         <v>0</v>
       </c>
       <c r="BP141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7325276</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45557.35416666666</v>
+      </c>
+      <c r="F142">
+        <v>29</v>
+      </c>
+      <c r="G142" t="s">
+        <v>76</v>
+      </c>
+      <c r="H142" t="s">
+        <v>73</v>
+      </c>
+      <c r="I142">
+        <v>2</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>2</v>
+      </c>
+      <c r="L142">
+        <v>3</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
+        <v>4</v>
+      </c>
+      <c r="O142" t="s">
+        <v>172</v>
+      </c>
+      <c r="P142" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q142">
+        <v>1.73</v>
+      </c>
+      <c r="R142">
+        <v>2.75</v>
+      </c>
+      <c r="S142">
+        <v>6.5</v>
+      </c>
+      <c r="T142">
+        <v>1.22</v>
+      </c>
+      <c r="U142">
+        <v>3.7</v>
+      </c>
+      <c r="V142">
+        <v>2.15</v>
+      </c>
+      <c r="W142">
+        <v>1.67</v>
+      </c>
+      <c r="X142">
+        <v>4.7</v>
+      </c>
+      <c r="Y142">
+        <v>1.17</v>
+      </c>
+      <c r="Z142">
+        <v>1.3</v>
+      </c>
+      <c r="AA142">
+        <v>5</v>
+      </c>
+      <c r="AB142">
+        <v>7.6</v>
+      </c>
+      <c r="AC142">
+        <v>1.01</v>
+      </c>
+      <c r="AD142">
+        <v>17</v>
+      </c>
+      <c r="AE142">
+        <v>1.09</v>
+      </c>
+      <c r="AF142">
+        <v>5.8</v>
+      </c>
+      <c r="AG142">
+        <v>1.42</v>
+      </c>
+      <c r="AH142">
+        <v>2.65</v>
+      </c>
+      <c r="AI142">
+        <v>1.73</v>
+      </c>
+      <c r="AJ142">
+        <v>2.18</v>
+      </c>
+      <c r="AK142">
+        <v>1.07</v>
+      </c>
+      <c r="AL142">
+        <v>1.12</v>
+      </c>
+      <c r="AM142">
+        <v>2.65</v>
+      </c>
+      <c r="AN142">
+        <v>2.23</v>
+      </c>
+      <c r="AO142">
+        <v>0.85</v>
+      </c>
+      <c r="AP142">
+        <v>2.29</v>
+      </c>
+      <c r="AQ142">
+        <v>0.79</v>
+      </c>
+      <c r="AR142">
+        <v>2.07</v>
+      </c>
+      <c r="AS142">
+        <v>1.38</v>
+      </c>
+      <c r="AT142">
+        <v>3.45</v>
+      </c>
+      <c r="AU142">
+        <v>10</v>
+      </c>
+      <c r="AV142">
+        <v>10</v>
+      </c>
+      <c r="AW142">
+        <v>11</v>
+      </c>
+      <c r="AX142">
+        <v>3</v>
+      </c>
+      <c r="AY142">
+        <v>21</v>
+      </c>
+      <c r="AZ142">
+        <v>13</v>
+      </c>
+      <c r="BA142">
+        <v>7</v>
+      </c>
+      <c r="BB142">
+        <v>5</v>
+      </c>
+      <c r="BC142">
+        <v>12</v>
+      </c>
+      <c r="BD142">
+        <v>0</v>
+      </c>
+      <c r="BE142">
+        <v>0</v>
+      </c>
+      <c r="BF142">
+        <v>0</v>
+      </c>
+      <c r="BG142">
+        <v>0</v>
+      </c>
+      <c r="BH142">
+        <v>0</v>
+      </c>
+      <c r="BI142">
+        <v>0</v>
+      </c>
+      <c r="BJ142">
+        <v>0</v>
+      </c>
+      <c r="BK142">
+        <v>0</v>
+      </c>
+      <c r="BL142">
+        <v>0</v>
+      </c>
+      <c r="BM142">
+        <v>0</v>
+      </c>
+      <c r="BN142">
+        <v>0</v>
+      </c>
+      <c r="BO142">
+        <v>0</v>
+      </c>
+      <c r="BP142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7325277</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45557.54166666666</v>
+      </c>
+      <c r="F143">
+        <v>29</v>
+      </c>
+      <c r="G143" t="s">
+        <v>72</v>
+      </c>
+      <c r="H143" t="s">
+        <v>74</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143">
+        <v>3</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143">
+        <v>4</v>
+      </c>
+      <c r="O143" t="s">
+        <v>173</v>
+      </c>
+      <c r="P143" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q143">
+        <v>1.5</v>
+      </c>
+      <c r="R143">
+        <v>2.88</v>
+      </c>
+      <c r="S143">
+        <v>11</v>
+      </c>
+      <c r="T143">
+        <v>1.22</v>
+      </c>
+      <c r="U143">
+        <v>3.75</v>
+      </c>
+      <c r="V143">
+        <v>2.25</v>
+      </c>
+      <c r="W143">
+        <v>1.57</v>
+      </c>
+      <c r="X143">
+        <v>5.5</v>
+      </c>
+      <c r="Y143">
+        <v>1.12</v>
+      </c>
+      <c r="Z143">
+        <v>1.09</v>
+      </c>
+      <c r="AA143">
+        <v>8</v>
+      </c>
+      <c r="AB143">
+        <v>17</v>
+      </c>
+      <c r="AC143">
+        <v>1.01</v>
+      </c>
+      <c r="AD143">
+        <v>19</v>
+      </c>
+      <c r="AE143">
+        <v>1.14</v>
+      </c>
+      <c r="AF143">
+        <v>5</v>
+      </c>
+      <c r="AG143">
+        <v>1.48</v>
+      </c>
+      <c r="AH143">
+        <v>2.47</v>
+      </c>
+      <c r="AI143">
+        <v>2.25</v>
+      </c>
+      <c r="AJ143">
+        <v>1.61</v>
+      </c>
+      <c r="AK143">
+        <v>1.01</v>
+      </c>
+      <c r="AL143">
+        <v>1.08</v>
+      </c>
+      <c r="AM143">
+        <v>5</v>
+      </c>
+      <c r="AN143">
+        <v>2.38</v>
+      </c>
+      <c r="AO143">
+        <v>1</v>
+      </c>
+      <c r="AP143">
+        <v>2.43</v>
+      </c>
+      <c r="AQ143">
+        <v>0.93</v>
+      </c>
+      <c r="AR143">
+        <v>2.46</v>
+      </c>
+      <c r="AS143">
+        <v>1.39</v>
+      </c>
+      <c r="AT143">
+        <v>3.85</v>
+      </c>
+      <c r="AU143">
+        <v>11</v>
+      </c>
+      <c r="AV143">
+        <v>3</v>
+      </c>
+      <c r="AW143">
+        <v>11</v>
+      </c>
+      <c r="AX143">
+        <v>1</v>
+      </c>
+      <c r="AY143">
+        <v>22</v>
+      </c>
+      <c r="AZ143">
+        <v>4</v>
+      </c>
+      <c r="BA143">
+        <v>8</v>
+      </c>
+      <c r="BB143">
+        <v>1</v>
+      </c>
+      <c r="BC143">
+        <v>9</v>
+      </c>
+      <c r="BD143">
+        <v>0</v>
+      </c>
+      <c r="BE143">
+        <v>0</v>
+      </c>
+      <c r="BF143">
+        <v>0</v>
+      </c>
+      <c r="BG143">
+        <v>0</v>
+      </c>
+      <c r="BH143">
+        <v>0</v>
+      </c>
+      <c r="BI143">
+        <v>0</v>
+      </c>
+      <c r="BJ143">
+        <v>0</v>
+      </c>
+      <c r="BK143">
+        <v>0</v>
+      </c>
+      <c r="BL143">
+        <v>0</v>
+      </c>
+      <c r="BM143">
+        <v>0</v>
+      </c>
+      <c r="BN143">
+        <v>0</v>
+      </c>
+      <c r="BO143">
+        <v>0</v>
+      </c>
+      <c r="BP143">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="259">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -538,6 +538,12 @@
     <t>['53', '61', '90+6']</t>
   </si>
   <si>
+    <t>['45', '75', '81']</t>
+  </si>
+  <si>
+    <t>['34', '59']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -782,6 +788,9 @@
   </si>
   <si>
     <t>['22']</t>
+  </si>
+  <si>
+    <t>['6', '31', '70']</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1152,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP143"/>
+  <dimension ref="A1:BP145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1608,7 +1617,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1895,7 +1904,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ4">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2020,7 +2029,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -2226,7 +2235,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2638,7 +2647,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2922,10 +2931,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ9">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3050,7 +3059,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -3128,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ10">
         <v>0.2</v>
@@ -3256,7 +3265,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3462,7 +3471,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3668,7 +3677,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3746,10 +3755,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ13">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR13">
         <v>2.65</v>
@@ -3874,7 +3883,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -4080,7 +4089,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4698,7 +4707,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -5191,7 +5200,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ20">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR20">
         <v>2.07</v>
@@ -5522,7 +5531,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5728,7 +5737,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5806,7 +5815,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ23">
         <v>2.57</v>
@@ -5934,7 +5943,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -6012,7 +6021,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ24">
         <v>0.93</v>
@@ -6140,7 +6149,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6221,7 +6230,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ25">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR25">
         <v>1.98</v>
@@ -6552,7 +6561,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6758,7 +6767,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -7170,7 +7179,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7251,7 +7260,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ30">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR30">
         <v>1.13</v>
@@ -7376,7 +7385,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7454,7 +7463,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ31">
         <v>1.87</v>
@@ -7582,7 +7591,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7788,7 +7797,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7994,7 +8003,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -8200,7 +8209,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8278,7 +8287,7 @@
         <v>1.33</v>
       </c>
       <c r="AP35">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ35">
         <v>0.93</v>
@@ -8693,7 +8702,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ37">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR37">
         <v>1.49</v>
@@ -8818,7 +8827,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -9024,7 +9033,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -9230,7 +9239,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9436,7 +9445,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9517,7 +9526,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ41">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR41">
         <v>1.7</v>
@@ -9642,7 +9651,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9848,7 +9857,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -10260,7 +10269,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10341,7 +10350,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ45">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR45">
         <v>1.38</v>
@@ -10544,7 +10553,7 @@
         <v>1.75</v>
       </c>
       <c r="AP46">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ46">
         <v>0.93</v>
@@ -11162,7 +11171,7 @@
         <v>1.25</v>
       </c>
       <c r="AP49">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ49">
         <v>0.79</v>
@@ -11496,7 +11505,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -12195,7 +12204,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ54">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR54">
         <v>1.38</v>
@@ -12320,7 +12329,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12526,7 +12535,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12732,7 +12741,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12813,7 +12822,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ57">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR57">
         <v>1.88</v>
@@ -13016,7 +13025,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ58">
         <v>0.93</v>
@@ -13350,7 +13359,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13762,7 +13771,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13840,7 +13849,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ62">
         <v>1.86</v>
@@ -13968,7 +13977,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -14174,7 +14183,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14255,7 +14264,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ64">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR64">
         <v>1.24</v>
@@ -14380,7 +14389,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14586,7 +14595,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14667,7 +14676,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ66">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR66">
         <v>1.95</v>
@@ -14792,7 +14801,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -14998,7 +15007,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -15076,7 +15085,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ68">
         <v>0.2</v>
@@ -15204,7 +15213,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15285,7 +15294,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ69">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR69">
         <v>1.5</v>
@@ -15410,7 +15419,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15488,7 +15497,7 @@
         <v>2.57</v>
       </c>
       <c r="AP70">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ70">
         <v>2.57</v>
@@ -15616,7 +15625,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -16646,7 +16655,7 @@
         <v>131</v>
       </c>
       <c r="P76" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16930,10 +16939,10 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ77">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR77">
         <v>2</v>
@@ -17058,7 +17067,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17139,7 +17148,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ78">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR78">
         <v>1.17</v>
@@ -17264,7 +17273,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q79">
         <v>1.53</v>
@@ -17470,7 +17479,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17676,7 +17685,7 @@
         <v>81</v>
       </c>
       <c r="P81" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q81">
         <v>1.6</v>
@@ -17754,7 +17763,7 @@
         <v>0.86</v>
       </c>
       <c r="AP81">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ81">
         <v>0.93</v>
@@ -17960,7 +17969,7 @@
         <v>0.86</v>
       </c>
       <c r="AP82">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ82">
         <v>0.79</v>
@@ -18088,7 +18097,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q83">
         <v>8.5</v>
@@ -18294,7 +18303,7 @@
         <v>81</v>
       </c>
       <c r="P84" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18706,7 +18715,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q86">
         <v>5.66</v>
@@ -18912,7 +18921,7 @@
         <v>137</v>
       </c>
       <c r="P87" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q87">
         <v>4.95</v>
@@ -19118,7 +19127,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q88">
         <v>2.77</v>
@@ -19324,7 +19333,7 @@
         <v>138</v>
       </c>
       <c r="P89" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -19405,7 +19414,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ89">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR89">
         <v>1.16</v>
@@ -19530,7 +19539,7 @@
         <v>122</v>
       </c>
       <c r="P90" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q90">
         <v>11</v>
@@ -19736,7 +19745,7 @@
         <v>139</v>
       </c>
       <c r="P91" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q91">
         <v>1.83</v>
@@ -19814,7 +19823,7 @@
         <v>1.13</v>
       </c>
       <c r="AP91">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ91">
         <v>0.93</v>
@@ -19942,7 +19951,7 @@
         <v>140</v>
       </c>
       <c r="P92" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20148,7 +20157,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q93">
         <v>2.3</v>
@@ -20432,10 +20441,10 @@
         <v>1.13</v>
       </c>
       <c r="AP94">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ94">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR94">
         <v>2.14</v>
@@ -20641,7 +20650,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ95">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR95">
         <v>2.41</v>
@@ -21178,7 +21187,7 @@
         <v>145</v>
       </c>
       <c r="P98" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -21465,7 +21474,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ99">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR99">
         <v>2.12</v>
@@ -21590,7 +21599,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -21877,7 +21886,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ101">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR101">
         <v>1.51</v>
@@ -22208,7 +22217,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q103">
         <v>1.91</v>
@@ -22286,7 +22295,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ103">
         <v>0.79</v>
@@ -22698,7 +22707,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ105">
         <v>0.93</v>
@@ -23032,7 +23041,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q107">
         <v>1.06</v>
@@ -23238,7 +23247,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23444,7 +23453,7 @@
         <v>151</v>
       </c>
       <c r="P109" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q109">
         <v>2.2</v>
@@ -23525,7 +23534,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ109">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR109">
         <v>1.91</v>
@@ -23650,7 +23659,7 @@
         <v>81</v>
       </c>
       <c r="P110" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24062,7 +24071,7 @@
         <v>81</v>
       </c>
       <c r="P112" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24268,7 +24277,7 @@
         <v>152</v>
       </c>
       <c r="P113" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -24474,7 +24483,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q114">
         <v>2.1</v>
@@ -24886,7 +24895,7 @@
         <v>155</v>
       </c>
       <c r="P116" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q116">
         <v>2.5</v>
@@ -25092,7 +25101,7 @@
         <v>156</v>
       </c>
       <c r="P117" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q117">
         <v>1.91</v>
@@ -25170,7 +25179,7 @@
         <v>1.09</v>
       </c>
       <c r="AP117">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ117">
         <v>0.93</v>
@@ -25376,7 +25385,7 @@
         <v>1.18</v>
       </c>
       <c r="AP118">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ118">
         <v>0.93</v>
@@ -25710,7 +25719,7 @@
         <v>81</v>
       </c>
       <c r="P120" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q120">
         <v>5.33</v>
@@ -25791,7 +25800,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ120">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR120">
         <v>1.53</v>
@@ -25916,7 +25925,7 @@
         <v>81</v>
       </c>
       <c r="P121" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -25997,7 +26006,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ121">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR121">
         <v>1.47</v>
@@ -26122,7 +26131,7 @@
         <v>153</v>
       </c>
       <c r="P122" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q122">
         <v>6.41</v>
@@ -26328,7 +26337,7 @@
         <v>104</v>
       </c>
       <c r="P123" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26740,7 +26749,7 @@
         <v>160</v>
       </c>
       <c r="P125" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -26946,7 +26955,7 @@
         <v>81</v>
       </c>
       <c r="P126" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q126">
         <v>2.6</v>
@@ -27152,7 +27161,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q127">
         <v>3.75</v>
@@ -27358,7 +27367,7 @@
         <v>162</v>
       </c>
       <c r="P128" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q128">
         <v>2.63</v>
@@ -27436,7 +27445,7 @@
         <v>1.92</v>
       </c>
       <c r="AP128">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ128">
         <v>1.87</v>
@@ -27770,7 +27779,7 @@
         <v>163</v>
       </c>
       <c r="P130" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -27976,7 +27985,7 @@
         <v>164</v>
       </c>
       <c r="P131" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -28057,7 +28066,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ131">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR131">
         <v>1.43</v>
@@ -28182,7 +28191,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q132">
         <v>1.67</v>
@@ -28260,7 +28269,7 @@
         <v>0.23</v>
       </c>
       <c r="AP132">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ132">
         <v>0.2</v>
@@ -28388,7 +28397,7 @@
         <v>81</v>
       </c>
       <c r="P133" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q133">
         <v>4.75</v>
@@ -28594,7 +28603,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q134">
         <v>4.33</v>
@@ -28675,7 +28684,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ134">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR134">
         <v>1.79</v>
@@ -28800,7 +28809,7 @@
         <v>81</v>
       </c>
       <c r="P135" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q135">
         <v>10</v>
@@ -29006,7 +29015,7 @@
         <v>167</v>
       </c>
       <c r="P136" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q136">
         <v>7.5</v>
@@ -29290,7 +29299,7 @@
         <v>0.21</v>
       </c>
       <c r="AP137">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ137">
         <v>0.2</v>
@@ -29418,7 +29427,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -29624,7 +29633,7 @@
         <v>170</v>
       </c>
       <c r="P139" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q139">
         <v>1.8</v>
@@ -29702,7 +29711,7 @@
         <v>1</v>
       </c>
       <c r="AP139">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ139">
         <v>0.93</v>
@@ -29830,7 +29839,7 @@
         <v>81</v>
       </c>
       <c r="P140" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q140">
         <v>4.5</v>
@@ -29911,7 +29920,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ140">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR140">
         <v>1.26</v>
@@ -30036,7 +30045,7 @@
         <v>171</v>
       </c>
       <c r="P141" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q141">
         <v>2.1</v>
@@ -30320,7 +30329,7 @@
         <v>0.85</v>
       </c>
       <c r="AP142">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ142">
         <v>0.79</v>
@@ -30448,7 +30457,7 @@
         <v>173</v>
       </c>
       <c r="P143" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q143">
         <v>1.5</v>
@@ -30604,6 +30613,418 @@
         <v>0</v>
       </c>
       <c r="BP143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7325247</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45560.45833333334</v>
+      </c>
+      <c r="F144">
+        <v>23</v>
+      </c>
+      <c r="G144" t="s">
+        <v>76</v>
+      </c>
+      <c r="H144" t="s">
+        <v>70</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>3</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>3</v>
+      </c>
+      <c r="O144" t="s">
+        <v>174</v>
+      </c>
+      <c r="P144" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q144">
+        <v>2.88</v>
+      </c>
+      <c r="R144">
+        <v>2.2</v>
+      </c>
+      <c r="S144">
+        <v>3.25</v>
+      </c>
+      <c r="T144">
+        <v>1.3</v>
+      </c>
+      <c r="U144">
+        <v>3.2</v>
+      </c>
+      <c r="V144">
+        <v>2.5</v>
+      </c>
+      <c r="W144">
+        <v>1.48</v>
+      </c>
+      <c r="X144">
+        <v>6</v>
+      </c>
+      <c r="Y144">
+        <v>1.11</v>
+      </c>
+      <c r="Z144">
+        <v>2.2</v>
+      </c>
+      <c r="AA144">
+        <v>3.3</v>
+      </c>
+      <c r="AB144">
+        <v>2.75</v>
+      </c>
+      <c r="AC144">
+        <v>1.03</v>
+      </c>
+      <c r="AD144">
+        <v>12</v>
+      </c>
+      <c r="AE144">
+        <v>1.2</v>
+      </c>
+      <c r="AF144">
+        <v>4.33</v>
+      </c>
+      <c r="AG144">
+        <v>1.65</v>
+      </c>
+      <c r="AH144">
+        <v>2</v>
+      </c>
+      <c r="AI144">
+        <v>1.57</v>
+      </c>
+      <c r="AJ144">
+        <v>2.25</v>
+      </c>
+      <c r="AK144">
+        <v>1.42</v>
+      </c>
+      <c r="AL144">
+        <v>1.2</v>
+      </c>
+      <c r="AM144">
+        <v>1.6</v>
+      </c>
+      <c r="AN144">
+        <v>2.29</v>
+      </c>
+      <c r="AO144">
+        <v>1.64</v>
+      </c>
+      <c r="AP144">
+        <v>2.33</v>
+      </c>
+      <c r="AQ144">
+        <v>1.53</v>
+      </c>
+      <c r="AR144">
+        <v>2.1</v>
+      </c>
+      <c r="AS144">
+        <v>1.86</v>
+      </c>
+      <c r="AT144">
+        <v>3.96</v>
+      </c>
+      <c r="AU144">
+        <v>9</v>
+      </c>
+      <c r="AV144">
+        <v>5</v>
+      </c>
+      <c r="AW144">
+        <v>6</v>
+      </c>
+      <c r="AX144">
+        <v>9</v>
+      </c>
+      <c r="AY144">
+        <v>15</v>
+      </c>
+      <c r="AZ144">
+        <v>14</v>
+      </c>
+      <c r="BA144">
+        <v>6</v>
+      </c>
+      <c r="BB144">
+        <v>10</v>
+      </c>
+      <c r="BC144">
+        <v>16</v>
+      </c>
+      <c r="BD144">
+        <v>0</v>
+      </c>
+      <c r="BE144">
+        <v>0</v>
+      </c>
+      <c r="BF144">
+        <v>0</v>
+      </c>
+      <c r="BG144">
+        <v>0</v>
+      </c>
+      <c r="BH144">
+        <v>0</v>
+      </c>
+      <c r="BI144">
+        <v>0</v>
+      </c>
+      <c r="BJ144">
+        <v>0</v>
+      </c>
+      <c r="BK144">
+        <v>0</v>
+      </c>
+      <c r="BL144">
+        <v>0</v>
+      </c>
+      <c r="BM144">
+        <v>0</v>
+      </c>
+      <c r="BN144">
+        <v>0</v>
+      </c>
+      <c r="BO144">
+        <v>0</v>
+      </c>
+      <c r="BP144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7325244</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45560.45833333334</v>
+      </c>
+      <c r="F145">
+        <v>23</v>
+      </c>
+      <c r="G145" t="s">
+        <v>77</v>
+      </c>
+      <c r="H145" t="s">
+        <v>78</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>2</v>
+      </c>
+      <c r="K145">
+        <v>3</v>
+      </c>
+      <c r="L145">
+        <v>2</v>
+      </c>
+      <c r="M145">
+        <v>3</v>
+      </c>
+      <c r="N145">
+        <v>5</v>
+      </c>
+      <c r="O145" t="s">
+        <v>175</v>
+      </c>
+      <c r="P145" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q145">
+        <v>2</v>
+      </c>
+      <c r="R145">
+        <v>2.4</v>
+      </c>
+      <c r="S145">
+        <v>5</v>
+      </c>
+      <c r="T145">
+        <v>1.29</v>
+      </c>
+      <c r="U145">
+        <v>3.15</v>
+      </c>
+      <c r="V145">
+        <v>2.37</v>
+      </c>
+      <c r="W145">
+        <v>1.53</v>
+      </c>
+      <c r="X145">
+        <v>5.75</v>
+      </c>
+      <c r="Y145">
+        <v>1.11</v>
+      </c>
+      <c r="Z145">
+        <v>1.5</v>
+      </c>
+      <c r="AA145">
+        <v>4.1</v>
+      </c>
+      <c r="AB145">
+        <v>4.8</v>
+      </c>
+      <c r="AC145">
+        <v>1.02</v>
+      </c>
+      <c r="AD145">
+        <v>13</v>
+      </c>
+      <c r="AE145">
+        <v>1.15</v>
+      </c>
+      <c r="AF145">
+        <v>3.98</v>
+      </c>
+      <c r="AG145">
+        <v>1.63</v>
+      </c>
+      <c r="AH145">
+        <v>2.2</v>
+      </c>
+      <c r="AI145">
+        <v>1.69</v>
+      </c>
+      <c r="AJ145">
+        <v>2</v>
+      </c>
+      <c r="AK145">
+        <v>1.12</v>
+      </c>
+      <c r="AL145">
+        <v>1.18</v>
+      </c>
+      <c r="AM145">
+        <v>2.3</v>
+      </c>
+      <c r="AN145">
+        <v>1.92</v>
+      </c>
+      <c r="AO145">
+        <v>1.31</v>
+      </c>
+      <c r="AP145">
+        <v>1.79</v>
+      </c>
+      <c r="AQ145">
+        <v>1.43</v>
+      </c>
+      <c r="AR145">
+        <v>2.29</v>
+      </c>
+      <c r="AS145">
+        <v>1.8</v>
+      </c>
+      <c r="AT145">
+        <v>4.09</v>
+      </c>
+      <c r="AU145">
+        <v>6</v>
+      </c>
+      <c r="AV145">
+        <v>7</v>
+      </c>
+      <c r="AW145">
+        <v>13</v>
+      </c>
+      <c r="AX145">
+        <v>0</v>
+      </c>
+      <c r="AY145">
+        <v>19</v>
+      </c>
+      <c r="AZ145">
+        <v>7</v>
+      </c>
+      <c r="BA145">
+        <v>7</v>
+      </c>
+      <c r="BB145">
+        <v>2</v>
+      </c>
+      <c r="BC145">
+        <v>9</v>
+      </c>
+      <c r="BD145">
+        <v>0</v>
+      </c>
+      <c r="BE145">
+        <v>0</v>
+      </c>
+      <c r="BF145">
+        <v>0</v>
+      </c>
+      <c r="BG145">
+        <v>0</v>
+      </c>
+      <c r="BH145">
+        <v>0</v>
+      </c>
+      <c r="BI145">
+        <v>0</v>
+      </c>
+      <c r="BJ145">
+        <v>0</v>
+      </c>
+      <c r="BK145">
+        <v>0</v>
+      </c>
+      <c r="BL145">
+        <v>0</v>
+      </c>
+      <c r="BM145">
+        <v>0</v>
+      </c>
+      <c r="BN145">
+        <v>0</v>
+      </c>
+      <c r="BO145">
+        <v>0</v>
+      </c>
+      <c r="BP145">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="260">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -542,6 +542,9 @@
   </si>
   <si>
     <t>['34', '59']</t>
+  </si>
+  <si>
+    <t>['1', '23', '34', '90']</t>
   </si>
   <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
@@ -1152,7 +1155,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP145"/>
+  <dimension ref="A1:BP146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1617,7 +1620,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1901,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ4">
         <v>1.43</v>
@@ -2029,7 +2032,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -2235,7 +2238,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2647,7 +2650,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -3059,7 +3062,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -3265,7 +3268,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3346,7 +3349,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ11">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR11">
         <v>1.79</v>
@@ -3471,7 +3474,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3677,7 +3680,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3883,7 +3886,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -4089,7 +4092,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4582,7 +4585,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ17">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR17">
         <v>0.95</v>
@@ -4707,7 +4710,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -5403,7 +5406,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ21">
         <v>1.87</v>
@@ -5531,7 +5534,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5737,7 +5740,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5943,7 +5946,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -6149,7 +6152,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6561,7 +6564,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6767,7 +6770,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6848,7 +6851,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ28">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR28">
         <v>1.8</v>
@@ -7051,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ29">
         <v>0.2</v>
@@ -7179,7 +7182,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7385,7 +7388,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7591,7 +7594,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7797,7 +7800,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -8003,7 +8006,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -8084,7 +8087,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ34">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR34">
         <v>1.08</v>
@@ -8209,7 +8212,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8493,7 +8496,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ36">
         <v>0.93</v>
@@ -8827,7 +8830,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -9033,7 +9036,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -9239,7 +9242,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9445,7 +9448,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9651,7 +9654,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9857,7 +9860,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -10141,7 +10144,7 @@
         <v>1.4</v>
       </c>
       <c r="AP44">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ44">
         <v>1.87</v>
@@ -10269,7 +10272,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -11174,7 +11177,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ49">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR49">
         <v>2.56</v>
@@ -11505,7 +11508,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -11995,7 +11998,7 @@
         <v>2.2</v>
       </c>
       <c r="AP53">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ53">
         <v>1.86</v>
@@ -12329,7 +12332,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12535,7 +12538,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12741,7 +12744,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13359,7 +13362,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13771,7 +13774,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13977,7 +13980,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -14055,10 +14058,10 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ63">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR63">
         <v>2.2</v>
@@ -14183,7 +14186,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14389,7 +14392,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14595,7 +14598,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14801,7 +14804,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -15007,7 +15010,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -15213,7 +15216,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15419,7 +15422,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15625,7 +15628,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -16115,7 +16118,7 @@
         <v>0.67</v>
       </c>
       <c r="AP73">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ73">
         <v>0.93</v>
@@ -16530,7 +16533,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ75">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR75">
         <v>1.91</v>
@@ -16655,7 +16658,7 @@
         <v>131</v>
       </c>
       <c r="P76" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -17067,7 +17070,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17273,7 +17276,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q79">
         <v>1.53</v>
@@ -17351,7 +17354,7 @@
         <v>1.29</v>
       </c>
       <c r="AP79">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ79">
         <v>0.93</v>
@@ -17479,7 +17482,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17685,7 +17688,7 @@
         <v>81</v>
       </c>
       <c r="P81" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q81">
         <v>1.6</v>
@@ -17972,7 +17975,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ82">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR82">
         <v>2.04</v>
@@ -18097,7 +18100,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q83">
         <v>8.5</v>
@@ -18303,7 +18306,7 @@
         <v>81</v>
       </c>
       <c r="P84" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18715,7 +18718,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q86">
         <v>5.66</v>
@@ -18921,7 +18924,7 @@
         <v>137</v>
       </c>
       <c r="P87" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q87">
         <v>4.95</v>
@@ -19127,7 +19130,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q88">
         <v>2.77</v>
@@ -19208,7 +19211,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ88">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR88">
         <v>1.27</v>
@@ -19333,7 +19336,7 @@
         <v>138</v>
       </c>
       <c r="P89" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -19539,7 +19542,7 @@
         <v>122</v>
       </c>
       <c r="P90" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q90">
         <v>11</v>
@@ -19745,7 +19748,7 @@
         <v>139</v>
       </c>
       <c r="P91" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q91">
         <v>1.83</v>
@@ -19951,7 +19954,7 @@
         <v>140</v>
       </c>
       <c r="P92" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20157,7 +20160,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q93">
         <v>2.3</v>
@@ -20647,7 +20650,7 @@
         <v>1.78</v>
       </c>
       <c r="AP95">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ95">
         <v>1.53</v>
@@ -21187,7 +21190,7 @@
         <v>145</v>
       </c>
       <c r="P98" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -21599,7 +21602,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -22089,7 +22092,7 @@
         <v>0.89</v>
       </c>
       <c r="AP102">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ102">
         <v>0.93</v>
@@ -22217,7 +22220,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q103">
         <v>1.91</v>
@@ -22298,7 +22301,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ103">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR103">
         <v>2.14</v>
@@ -23041,7 +23044,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q107">
         <v>1.06</v>
@@ -23247,7 +23250,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23453,7 +23456,7 @@
         <v>151</v>
       </c>
       <c r="P109" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q109">
         <v>2.2</v>
@@ -23659,7 +23662,7 @@
         <v>81</v>
       </c>
       <c r="P110" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24071,7 +24074,7 @@
         <v>81</v>
       </c>
       <c r="P112" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24277,7 +24280,7 @@
         <v>152</v>
       </c>
       <c r="P113" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -24483,7 +24486,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q114">
         <v>2.1</v>
@@ -24767,7 +24770,7 @@
         <v>0.91</v>
       </c>
       <c r="AP115">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ115">
         <v>0.93</v>
@@ -24895,7 +24898,7 @@
         <v>155</v>
       </c>
       <c r="P116" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q116">
         <v>2.5</v>
@@ -24976,7 +24979,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ116">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR116">
         <v>1.74</v>
@@ -25101,7 +25104,7 @@
         <v>156</v>
       </c>
       <c r="P117" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q117">
         <v>1.91</v>
@@ -25719,7 +25722,7 @@
         <v>81</v>
       </c>
       <c r="P120" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q120">
         <v>5.33</v>
@@ -25925,7 +25928,7 @@
         <v>81</v>
       </c>
       <c r="P121" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -26131,7 +26134,7 @@
         <v>153</v>
       </c>
       <c r="P122" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q122">
         <v>6.41</v>
@@ -26337,7 +26340,7 @@
         <v>104</v>
       </c>
       <c r="P123" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26418,7 +26421,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ123">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR123">
         <v>1.09</v>
@@ -26621,7 +26624,7 @@
         <v>1.92</v>
       </c>
       <c r="AP124">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ124">
         <v>1.86</v>
@@ -26749,7 +26752,7 @@
         <v>160</v>
       </c>
       <c r="P125" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -26955,7 +26958,7 @@
         <v>81</v>
       </c>
       <c r="P126" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q126">
         <v>2.6</v>
@@ -27161,7 +27164,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q127">
         <v>3.75</v>
@@ -27367,7 +27370,7 @@
         <v>162</v>
       </c>
       <c r="P128" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q128">
         <v>2.63</v>
@@ -27779,7 +27782,7 @@
         <v>163</v>
       </c>
       <c r="P130" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -27860,7 +27863,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ130">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR130">
         <v>2.02</v>
@@ -27985,7 +27988,7 @@
         <v>164</v>
       </c>
       <c r="P131" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -28191,7 +28194,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q132">
         <v>1.67</v>
@@ -28397,7 +28400,7 @@
         <v>81</v>
       </c>
       <c r="P133" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q133">
         <v>4.75</v>
@@ -28603,7 +28606,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q134">
         <v>4.33</v>
@@ -28809,7 +28812,7 @@
         <v>81</v>
       </c>
       <c r="P135" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q135">
         <v>10</v>
@@ -29015,7 +29018,7 @@
         <v>167</v>
       </c>
       <c r="P136" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q136">
         <v>7.5</v>
@@ -29427,7 +29430,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -29633,7 +29636,7 @@
         <v>170</v>
       </c>
       <c r="P139" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q139">
         <v>1.8</v>
@@ -29839,7 +29842,7 @@
         <v>81</v>
       </c>
       <c r="P140" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q140">
         <v>4.5</v>
@@ -30045,7 +30048,7 @@
         <v>171</v>
       </c>
       <c r="P141" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q141">
         <v>2.1</v>
@@ -30332,7 +30335,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ142">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR142">
         <v>2.07</v>
@@ -30457,7 +30460,7 @@
         <v>173</v>
       </c>
       <c r="P143" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q143">
         <v>1.5</v>
@@ -30535,7 +30538,7 @@
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AQ143">
         <v>0.93</v>
@@ -30869,7 +30872,7 @@
         <v>175</v>
       </c>
       <c r="P145" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -31025,6 +31028,212 @@
         <v>0</v>
       </c>
       <c r="BP145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7325278</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45562.54166666666</v>
+      </c>
+      <c r="F146">
+        <v>30</v>
+      </c>
+      <c r="G146" t="s">
+        <v>72</v>
+      </c>
+      <c r="H146" t="s">
+        <v>73</v>
+      </c>
+      <c r="I146">
+        <v>3</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>3</v>
+      </c>
+      <c r="L146">
+        <v>4</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>4</v>
+      </c>
+      <c r="O146" t="s">
+        <v>176</v>
+      </c>
+      <c r="P146" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q146">
+        <v>1.62</v>
+      </c>
+      <c r="R146">
+        <v>2.75</v>
+      </c>
+      <c r="S146">
+        <v>8</v>
+      </c>
+      <c r="T146">
+        <v>1.25</v>
+      </c>
+      <c r="U146">
+        <v>3.7</v>
+      </c>
+      <c r="V146">
+        <v>2.25</v>
+      </c>
+      <c r="W146">
+        <v>1.57</v>
+      </c>
+      <c r="X146">
+        <v>4.9</v>
+      </c>
+      <c r="Y146">
+        <v>1.16</v>
+      </c>
+      <c r="Z146">
+        <v>1.19</v>
+      </c>
+      <c r="AA146">
+        <v>6.35</v>
+      </c>
+      <c r="AB146">
+        <v>12.2</v>
+      </c>
+      <c r="AC146">
+        <v>1.01</v>
+      </c>
+      <c r="AD146">
+        <v>17</v>
+      </c>
+      <c r="AE146">
+        <v>1.11</v>
+      </c>
+      <c r="AF146">
+        <v>5.5</v>
+      </c>
+      <c r="AG146">
+        <v>1.4</v>
+      </c>
+      <c r="AH146">
+        <v>2.71</v>
+      </c>
+      <c r="AI146">
+        <v>1.83</v>
+      </c>
+      <c r="AJ146">
+        <v>1.83</v>
+      </c>
+      <c r="AK146">
+        <v>1.05</v>
+      </c>
+      <c r="AL146">
+        <v>1.03</v>
+      </c>
+      <c r="AM146">
+        <v>3.25</v>
+      </c>
+      <c r="AN146">
+        <v>2.43</v>
+      </c>
+      <c r="AO146">
+        <v>0.79</v>
+      </c>
+      <c r="AP146">
+        <v>2.47</v>
+      </c>
+      <c r="AQ146">
+        <v>0.73</v>
+      </c>
+      <c r="AR146">
+        <v>2.47</v>
+      </c>
+      <c r="AS146">
+        <v>1.43</v>
+      </c>
+      <c r="AT146">
+        <v>3.9</v>
+      </c>
+      <c r="AU146">
+        <v>3</v>
+      </c>
+      <c r="AV146">
+        <v>4</v>
+      </c>
+      <c r="AW146">
+        <v>7</v>
+      </c>
+      <c r="AX146">
+        <v>0</v>
+      </c>
+      <c r="AY146">
+        <v>10</v>
+      </c>
+      <c r="AZ146">
+        <v>4</v>
+      </c>
+      <c r="BA146">
+        <v>8</v>
+      </c>
+      <c r="BB146">
+        <v>1</v>
+      </c>
+      <c r="BC146">
+        <v>9</v>
+      </c>
+      <c r="BD146">
+        <v>0</v>
+      </c>
+      <c r="BE146">
+        <v>0</v>
+      </c>
+      <c r="BF146">
+        <v>0</v>
+      </c>
+      <c r="BG146">
+        <v>0</v>
+      </c>
+      <c r="BH146">
+        <v>0</v>
+      </c>
+      <c r="BI146">
+        <v>0</v>
+      </c>
+      <c r="BJ146">
+        <v>0</v>
+      </c>
+      <c r="BK146">
+        <v>0</v>
+      </c>
+      <c r="BL146">
+        <v>0</v>
+      </c>
+      <c r="BM146">
+        <v>0</v>
+      </c>
+      <c r="BN146">
+        <v>0</v>
+      </c>
+      <c r="BO146">
+        <v>0</v>
+      </c>
+      <c r="BP146">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="263">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -532,10 +532,10 @@
     <t>['45+1', '90+3']</t>
   </si>
   <si>
-    <t>['4', '11', '67']</t>
+    <t>['53', '61', '90+6']</t>
   </si>
   <si>
-    <t>['53', '61', '90+6']</t>
+    <t>['4', '11', '67']</t>
   </si>
   <si>
     <t>['45', '75', '81']</t>
@@ -545,6 +545,12 @@
   </si>
   <si>
     <t>['1', '23', '34', '90']</t>
+  </si>
+  <si>
+    <t>['47', '60', '75', '90+1']</t>
+  </si>
+  <si>
+    <t>['28', '42', '46']</t>
   </si>
   <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
@@ -794,6 +800,9 @@
   </si>
   <si>
     <t>['6', '31', '70']</t>
+  </si>
+  <si>
+    <t>['70', '77', '85']</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP146"/>
+  <dimension ref="A1:BP149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1492,10 +1501,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ2">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1620,7 +1629,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1698,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ3">
         <v>1.86</v>
@@ -2032,7 +2041,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -2238,7 +2247,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2319,7 +2328,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ6">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2525,7 +2534,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ7">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2650,7 +2659,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2728,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ8">
         <v>2.57</v>
@@ -3062,7 +3071,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -3143,7 +3152,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ10">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3268,7 +3277,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3346,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ11">
         <v>0.73</v>
@@ -3474,7 +3483,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3680,7 +3689,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3886,7 +3895,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3964,7 +3973,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
         <v>0.93</v>
@@ -4092,7 +4101,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4582,7 +4591,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ17">
         <v>0.73</v>
@@ -4710,7 +4719,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4994,10 +5003,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AR19">
         <v>1.58</v>
@@ -5409,7 +5418,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ21">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR21">
         <v>2.61</v>
@@ -5534,7 +5543,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5740,7 +5749,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5946,7 +5955,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -6152,7 +6161,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6230,7 +6239,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ25">
         <v>1.43</v>
@@ -6439,7 +6448,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ26">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR26">
         <v>1.42</v>
@@ -6564,7 +6573,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6770,7 +6779,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6848,7 +6857,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ28">
         <v>0.73</v>
@@ -7057,7 +7066,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ29">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AR29">
         <v>2.32</v>
@@ -7182,7 +7191,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7388,7 +7397,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7469,7 +7478,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ31">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR31">
         <v>2.12</v>
@@ -7594,7 +7603,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7800,7 +7809,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7878,10 +7887,10 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ33">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR33">
         <v>1.95</v>
@@ -8006,7 +8015,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -8212,7 +8221,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8499,7 +8508,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ36">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR36">
         <v>2.43</v>
@@ -8702,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ37">
         <v>1.43</v>
@@ -8830,7 +8839,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8908,7 +8917,7 @@
         <v>2.33</v>
       </c>
       <c r="AP38">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ38">
         <v>1.86</v>
@@ -9036,7 +9045,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -9117,7 +9126,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ39">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AR39">
         <v>1.08</v>
@@ -9242,7 +9251,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9448,7 +9457,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9526,7 +9535,7 @@
         <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ41">
         <v>1.53</v>
@@ -9654,7 +9663,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9860,7 +9869,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9938,10 +9947,10 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ43">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR43">
         <v>1.92</v>
@@ -10147,7 +10156,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ44">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR44">
         <v>2.3</v>
@@ -10272,7 +10281,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10968,10 +10977,10 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ48">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR48">
         <v>1.86</v>
@@ -11380,7 +11389,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ50">
         <v>2.57</v>
@@ -11508,7 +11517,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -11586,10 +11595,10 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ51">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR51">
         <v>1.74</v>
@@ -11792,7 +11801,7 @@
         <v>1.4</v>
       </c>
       <c r="AP52">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ52">
         <v>0.93</v>
@@ -12332,7 +12341,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12413,7 +12422,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ55">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR55">
         <v>1.18</v>
@@ -12538,7 +12547,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12619,7 +12628,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ56">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR56">
         <v>1.96</v>
@@ -12744,7 +12753,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12822,7 +12831,7 @@
         <v>1.6</v>
       </c>
       <c r="AP57">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ57">
         <v>1.53</v>
@@ -13237,7 +13246,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ59">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AR59">
         <v>1.41</v>
@@ -13362,7 +13371,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13646,7 +13655,7 @@
         <v>0.8</v>
       </c>
       <c r="AP61">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ61">
         <v>0.93</v>
@@ -13774,7 +13783,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13980,7 +13989,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -14186,7 +14195,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14392,7 +14401,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14598,7 +14607,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14804,7 +14813,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -14882,10 +14891,10 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ67">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR67">
         <v>1.58</v>
@@ -15010,7 +15019,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -15091,7 +15100,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ68">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AR68">
         <v>2.01</v>
@@ -15216,7 +15225,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15422,7 +15431,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15628,7 +15637,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15709,7 +15718,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ71">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR71">
         <v>1.2</v>
@@ -15912,10 +15921,10 @@
         <v>1.63</v>
       </c>
       <c r="AP72">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ72">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR72">
         <v>1.97</v>
@@ -16324,7 +16333,7 @@
         <v>2.14</v>
       </c>
       <c r="AP74">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ74">
         <v>1.86</v>
@@ -16658,7 +16667,7 @@
         <v>131</v>
       </c>
       <c r="P76" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16739,7 +16748,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ76">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR76">
         <v>1.56</v>
@@ -17070,7 +17079,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17276,7 +17285,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q79">
         <v>1.53</v>
@@ -17482,7 +17491,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17560,10 +17569,10 @@
         <v>0.14</v>
       </c>
       <c r="AP80">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ80">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AR80">
         <v>1.48</v>
@@ -17688,7 +17697,7 @@
         <v>81</v>
       </c>
       <c r="P81" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q81">
         <v>1.6</v>
@@ -17769,7 +17778,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ81">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR81">
         <v>2.16</v>
@@ -18100,7 +18109,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q83">
         <v>8.5</v>
@@ -18306,7 +18315,7 @@
         <v>81</v>
       </c>
       <c r="P84" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18384,7 +18393,7 @@
         <v>0.57</v>
       </c>
       <c r="AP84">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ84">
         <v>0.93</v>
@@ -18590,7 +18599,7 @@
         <v>1.13</v>
       </c>
       <c r="AP85">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ85">
         <v>0.93</v>
@@ -18718,7 +18727,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q86">
         <v>5.66</v>
@@ -18796,10 +18805,10 @@
         <v>1.6</v>
       </c>
       <c r="AP86">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ86">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR86">
         <v>1.61</v>
@@ -18924,7 +18933,7 @@
         <v>137</v>
       </c>
       <c r="P87" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q87">
         <v>4.95</v>
@@ -19130,7 +19139,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q88">
         <v>2.77</v>
@@ -19336,7 +19345,7 @@
         <v>138</v>
       </c>
       <c r="P89" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -19542,7 +19551,7 @@
         <v>122</v>
       </c>
       <c r="P90" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q90">
         <v>11</v>
@@ -19620,7 +19629,7 @@
         <v>2.67</v>
       </c>
       <c r="AP90">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ90">
         <v>2.57</v>
@@ -19748,7 +19757,7 @@
         <v>139</v>
       </c>
       <c r="P91" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q91">
         <v>1.83</v>
@@ -19829,7 +19838,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ91">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR91">
         <v>1.99</v>
@@ -19954,7 +19963,7 @@
         <v>140</v>
       </c>
       <c r="P92" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20160,7 +20169,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q93">
         <v>2.3</v>
@@ -20241,7 +20250,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ93">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AR93">
         <v>2.08</v>
@@ -20856,7 +20865,7 @@
         <v>1</v>
       </c>
       <c r="AP96">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ96">
         <v>0.93</v>
@@ -21065,7 +21074,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ97">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AR97">
         <v>1.43</v>
@@ -21190,7 +21199,7 @@
         <v>145</v>
       </c>
       <c r="P98" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -21268,7 +21277,7 @@
         <v>1.78</v>
       </c>
       <c r="AP98">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ98">
         <v>1.86</v>
@@ -21602,7 +21611,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -22220,7 +22229,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q103">
         <v>1.91</v>
@@ -22504,10 +22513,10 @@
         <v>0.2</v>
       </c>
       <c r="AP104">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ104">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AR104">
         <v>1.75</v>
@@ -22916,10 +22925,10 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ106">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR106">
         <v>1.5</v>
@@ -23044,7 +23053,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q107">
         <v>1.06</v>
@@ -23125,7 +23134,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ107">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR107">
         <v>2.13</v>
@@ -23250,7 +23259,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23456,7 +23465,7 @@
         <v>151</v>
       </c>
       <c r="P109" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q109">
         <v>2.2</v>
@@ -23534,7 +23543,7 @@
         <v>1.1</v>
       </c>
       <c r="AP109">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ109">
         <v>1.43</v>
@@ -23662,7 +23671,7 @@
         <v>81</v>
       </c>
       <c r="P110" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23740,10 +23749,10 @@
         <v>1.73</v>
       </c>
       <c r="AP110">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ110">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR110">
         <v>1.47</v>
@@ -24074,7 +24083,7 @@
         <v>81</v>
       </c>
       <c r="P112" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24280,7 +24289,7 @@
         <v>152</v>
       </c>
       <c r="P113" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -24486,7 +24495,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q114">
         <v>2.1</v>
@@ -24567,7 +24576,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ114">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AR114">
         <v>2.08</v>
@@ -24898,7 +24907,7 @@
         <v>155</v>
       </c>
       <c r="P116" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q116">
         <v>2.5</v>
@@ -24976,7 +24985,7 @@
         <v>0.9</v>
       </c>
       <c r="AP116">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ116">
         <v>0.73</v>
@@ -25104,7 +25113,7 @@
         <v>156</v>
       </c>
       <c r="P117" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q117">
         <v>1.91</v>
@@ -25391,7 +25400,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ118">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR118">
         <v>2.29</v>
@@ -25594,10 +25603,10 @@
         <v>0.25</v>
       </c>
       <c r="AP119">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ119">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AR119">
         <v>1.88</v>
@@ -25722,7 +25731,7 @@
         <v>81</v>
       </c>
       <c r="P120" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q120">
         <v>5.33</v>
@@ -25928,7 +25937,7 @@
         <v>81</v>
       </c>
       <c r="P121" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -26006,7 +26015,7 @@
         <v>1</v>
       </c>
       <c r="AP121">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ121">
         <v>1.43</v>
@@ -26134,7 +26143,7 @@
         <v>153</v>
       </c>
       <c r="P122" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q122">
         <v>6.41</v>
@@ -26215,7 +26224,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ122">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR122">
         <v>2.06</v>
@@ -26340,7 +26349,7 @@
         <v>104</v>
       </c>
       <c r="P123" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26752,7 +26761,7 @@
         <v>160</v>
       </c>
       <c r="P125" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -26830,7 +26839,7 @@
         <v>2.75</v>
       </c>
       <c r="AP125">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ125">
         <v>2.57</v>
@@ -26958,7 +26967,7 @@
         <v>81</v>
       </c>
       <c r="P126" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q126">
         <v>2.6</v>
@@ -27036,7 +27045,7 @@
         <v>0.83</v>
       </c>
       <c r="AP126">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ126">
         <v>0.93</v>
@@ -27164,7 +27173,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q127">
         <v>3.75</v>
@@ -27370,7 +27379,7 @@
         <v>162</v>
       </c>
       <c r="P128" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q128">
         <v>2.63</v>
@@ -27451,7 +27460,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ128">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR128">
         <v>2</v>
@@ -27657,7 +27666,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ129">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR129">
         <v>1.6</v>
@@ -27782,7 +27791,7 @@
         <v>163</v>
       </c>
       <c r="P130" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -27988,7 +27997,7 @@
         <v>164</v>
       </c>
       <c r="P131" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -28066,7 +28075,7 @@
         <v>1.58</v>
       </c>
       <c r="AP131">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ131">
         <v>1.53</v>
@@ -28194,7 +28203,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q132">
         <v>1.67</v>
@@ -28275,7 +28284,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ132">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AR132">
         <v>2.26</v>
@@ -28400,7 +28409,7 @@
         <v>81</v>
       </c>
       <c r="P133" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q133">
         <v>4.75</v>
@@ -28606,7 +28615,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q134">
         <v>4.33</v>
@@ -28684,7 +28693,7 @@
         <v>1.69</v>
       </c>
       <c r="AP134">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ134">
         <v>1.53</v>
@@ -28812,7 +28821,7 @@
         <v>81</v>
       </c>
       <c r="P135" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q135">
         <v>10</v>
@@ -28890,7 +28899,7 @@
         <v>2.54</v>
       </c>
       <c r="AP135">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ135">
         <v>2.57</v>
@@ -29018,7 +29027,7 @@
         <v>167</v>
       </c>
       <c r="P136" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q136">
         <v>7.5</v>
@@ -29099,7 +29108,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ136">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR136">
         <v>1.55</v>
@@ -29305,7 +29314,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ137">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AR137">
         <v>2.02</v>
@@ -29430,7 +29439,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -29636,7 +29645,7 @@
         <v>170</v>
       </c>
       <c r="P139" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q139">
         <v>1.8</v>
@@ -29842,7 +29851,7 @@
         <v>81</v>
       </c>
       <c r="P140" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q140">
         <v>4.5</v>
@@ -30048,7 +30057,7 @@
         <v>171</v>
       </c>
       <c r="P141" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q141">
         <v>2.1</v>
@@ -30126,7 +30135,7 @@
         <v>1</v>
       </c>
       <c r="AP141">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ141">
         <v>0.93</v>
@@ -30212,7 +30221,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>7325276</v>
+        <v>7325277</v>
       </c>
       <c r="C142" t="s">
         <v>68</v>
@@ -30221,25 +30230,25 @@
         <v>69</v>
       </c>
       <c r="E142" s="2">
-        <v>45557.35416666666</v>
+        <v>45556.875</v>
       </c>
       <c r="F142">
         <v>29</v>
       </c>
       <c r="G142" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H142" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L142">
         <v>3</v>
@@ -30254,124 +30263,124 @@
         <v>172</v>
       </c>
       <c r="P142" t="s">
-        <v>99</v>
+        <v>260</v>
       </c>
       <c r="Q142">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="R142">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="S142">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="T142">
         <v>1.22</v>
       </c>
       <c r="U142">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="V142">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="W142">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="X142">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="Y142">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="Z142">
-        <v>1.3</v>
+        <v>1.09</v>
       </c>
       <c r="AA142">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AB142">
-        <v>7.6</v>
+        <v>17</v>
       </c>
       <c r="AC142">
         <v>1.01</v>
       </c>
       <c r="AD142">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE142">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="AF142">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="AG142">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="AH142">
-        <v>2.65</v>
+        <v>2.47</v>
       </c>
       <c r="AI142">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="AJ142">
-        <v>2.18</v>
+        <v>1.61</v>
       </c>
       <c r="AK142">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="AL142">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="AM142">
-        <v>2.65</v>
+        <v>5</v>
       </c>
       <c r="AN142">
-        <v>2.23</v>
+        <v>2.38</v>
       </c>
       <c r="AO142">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AP142">
-        <v>2.33</v>
+        <v>2.47</v>
       </c>
       <c r="AQ142">
-        <v>0.73</v>
+        <v>0.87</v>
       </c>
       <c r="AR142">
-        <v>2.07</v>
+        <v>2.46</v>
       </c>
       <c r="AS142">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="AT142">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="AU142">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV142">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AW142">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AX142">
+        <v>1</v>
+      </c>
+      <c r="AY142">
+        <v>13</v>
+      </c>
+      <c r="AZ142">
         <v>3</v>
       </c>
-      <c r="AY142">
-        <v>21</v>
-      </c>
-      <c r="AZ142">
-        <v>13</v>
-      </c>
       <c r="BA142">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB142">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BC142">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD142">
         <v>0</v>
@@ -30418,7 +30427,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>7325277</v>
+        <v>7325276</v>
       </c>
       <c r="C143" t="s">
         <v>68</v>
@@ -30427,25 +30436,25 @@
         <v>69</v>
       </c>
       <c r="E143" s="2">
-        <v>45557.54166666666</v>
+        <v>45557.35416666666</v>
       </c>
       <c r="F143">
         <v>29</v>
       </c>
       <c r="G143" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H143" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L143">
         <v>3</v>
@@ -30460,124 +30469,124 @@
         <v>173</v>
       </c>
       <c r="P143" t="s">
-        <v>258</v>
+        <v>99</v>
       </c>
       <c r="Q143">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="R143">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="S143">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="T143">
         <v>1.22</v>
       </c>
       <c r="U143">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="V143">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="W143">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="X143">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="Y143">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="Z143">
-        <v>1.09</v>
+        <v>1.3</v>
       </c>
       <c r="AA143">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AB143">
-        <v>17</v>
+        <v>7.6</v>
       </c>
       <c r="AC143">
         <v>1.01</v>
       </c>
       <c r="AD143">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE143">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="AF143">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="AG143">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AH143">
-        <v>2.47</v>
+        <v>2.65</v>
       </c>
       <c r="AI143">
-        <v>2.25</v>
+        <v>1.73</v>
       </c>
       <c r="AJ143">
-        <v>1.61</v>
+        <v>2.18</v>
       </c>
       <c r="AK143">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="AL143">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="AM143">
-        <v>5</v>
+        <v>2.65</v>
       </c>
       <c r="AN143">
-        <v>2.38</v>
+        <v>2.23</v>
       </c>
       <c r="AO143">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="AP143">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AQ143">
-        <v>0.93</v>
+        <v>0.73</v>
       </c>
       <c r="AR143">
-        <v>2.46</v>
+        <v>2.07</v>
       </c>
       <c r="AS143">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="AT143">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="AU143">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV143">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AW143">
         <v>11</v>
       </c>
       <c r="AX143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY143">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ143">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="BA143">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB143">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BC143">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD143">
         <v>0</v>
@@ -30633,7 +30642,7 @@
         <v>69</v>
       </c>
       <c r="E144" s="2">
-        <v>45560.45833333334</v>
+        <v>45559.875</v>
       </c>
       <c r="F144">
         <v>23</v>
@@ -30759,22 +30768,22 @@
         <v>3.96</v>
       </c>
       <c r="AU144">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV144">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW144">
+        <v>4</v>
+      </c>
+      <c r="AX144">
         <v>6</v>
       </c>
-      <c r="AX144">
-        <v>9</v>
-      </c>
       <c r="AY144">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ144">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA144">
         <v>6</v>
@@ -30872,7 +30881,7 @@
         <v>175</v>
       </c>
       <c r="P145" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -31045,7 +31054,7 @@
         <v>69</v>
       </c>
       <c r="E146" s="2">
-        <v>45562.54166666666</v>
+        <v>45561.875</v>
       </c>
       <c r="F146">
         <v>30</v>
@@ -31162,78 +31171,696 @@
         <v>0.73</v>
       </c>
       <c r="AR146">
-        <v>2.47</v>
+        <v>2.46</v>
       </c>
       <c r="AS146">
         <v>1.43</v>
       </c>
       <c r="AT146">
-        <v>3.9</v>
+        <v>3.89</v>
       </c>
       <c r="AU146">
+        <v>5</v>
+      </c>
+      <c r="AV146">
+        <v>5</v>
+      </c>
+      <c r="AW146">
+        <v>8</v>
+      </c>
+      <c r="AX146">
+        <v>0</v>
+      </c>
+      <c r="AY146">
+        <v>13</v>
+      </c>
+      <c r="AZ146">
+        <v>5</v>
+      </c>
+      <c r="BA146">
+        <v>15</v>
+      </c>
+      <c r="BB146">
+        <v>2</v>
+      </c>
+      <c r="BC146">
+        <v>17</v>
+      </c>
+      <c r="BD146">
+        <v>0</v>
+      </c>
+      <c r="BE146">
+        <v>0</v>
+      </c>
+      <c r="BF146">
+        <v>0</v>
+      </c>
+      <c r="BG146">
+        <v>0</v>
+      </c>
+      <c r="BH146">
+        <v>0</v>
+      </c>
+      <c r="BI146">
+        <v>0</v>
+      </c>
+      <c r="BJ146">
+        <v>0</v>
+      </c>
+      <c r="BK146">
+        <v>0</v>
+      </c>
+      <c r="BL146">
+        <v>0</v>
+      </c>
+      <c r="BM146">
+        <v>0</v>
+      </c>
+      <c r="BN146">
+        <v>0</v>
+      </c>
+      <c r="BO146">
+        <v>0</v>
+      </c>
+      <c r="BP146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7325279</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45563.35416666666</v>
+      </c>
+      <c r="F147">
+        <v>30</v>
+      </c>
+      <c r="G147" t="s">
+        <v>71</v>
+      </c>
+      <c r="H147" t="s">
+        <v>79</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>4</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+      <c r="N147">
+        <v>5</v>
+      </c>
+      <c r="O147" t="s">
+        <v>177</v>
+      </c>
+      <c r="P147" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q147">
+        <v>2.25</v>
+      </c>
+      <c r="R147">
+        <v>2.4</v>
+      </c>
+      <c r="S147">
+        <v>4.1</v>
+      </c>
+      <c r="T147">
+        <v>1.27</v>
+      </c>
+      <c r="U147">
+        <v>3.3</v>
+      </c>
+      <c r="V147">
+        <v>2.15</v>
+      </c>
+      <c r="W147">
+        <v>1.6</v>
+      </c>
+      <c r="X147">
+        <v>4.5</v>
+      </c>
+      <c r="Y147">
+        <v>1.15</v>
+      </c>
+      <c r="Z147">
+        <v>1.66</v>
+      </c>
+      <c r="AA147">
+        <v>3.96</v>
+      </c>
+      <c r="AB147">
+        <v>4.25</v>
+      </c>
+      <c r="AC147">
+        <v>1.01</v>
+      </c>
+      <c r="AD147">
+        <v>20</v>
+      </c>
+      <c r="AE147">
+        <v>1.15</v>
+      </c>
+      <c r="AF147">
+        <v>4.7</v>
+      </c>
+      <c r="AG147">
+        <v>1.55</v>
+      </c>
+      <c r="AH147">
+        <v>2.3</v>
+      </c>
+      <c r="AI147">
+        <v>1.52</v>
+      </c>
+      <c r="AJ147">
+        <v>2.35</v>
+      </c>
+      <c r="AK147">
+        <v>1.23</v>
+      </c>
+      <c r="AL147">
+        <v>1.2</v>
+      </c>
+      <c r="AM147">
+        <v>2</v>
+      </c>
+      <c r="AN147">
+        <v>0.8</v>
+      </c>
+      <c r="AO147">
+        <v>0.2</v>
+      </c>
+      <c r="AP147">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ147">
+        <v>0.19</v>
+      </c>
+      <c r="AR147">
+        <v>1.38</v>
+      </c>
+      <c r="AS147">
+        <v>1.11</v>
+      </c>
+      <c r="AT147">
+        <v>2.49</v>
+      </c>
+      <c r="AU147">
+        <v>9</v>
+      </c>
+      <c r="AV147">
+        <v>10</v>
+      </c>
+      <c r="AW147">
+        <v>8</v>
+      </c>
+      <c r="AX147">
+        <v>8</v>
+      </c>
+      <c r="AY147">
+        <v>17</v>
+      </c>
+      <c r="AZ147">
+        <v>18</v>
+      </c>
+      <c r="BA147">
         <v>3</v>
       </c>
-      <c r="AV146">
+      <c r="BB147">
+        <v>5</v>
+      </c>
+      <c r="BC147">
+        <v>8</v>
+      </c>
+      <c r="BD147">
+        <v>0</v>
+      </c>
+      <c r="BE147">
+        <v>0</v>
+      </c>
+      <c r="BF147">
+        <v>0</v>
+      </c>
+      <c r="BG147">
+        <v>0</v>
+      </c>
+      <c r="BH147">
+        <v>0</v>
+      </c>
+      <c r="BI147">
+        <v>0</v>
+      </c>
+      <c r="BJ147">
+        <v>0</v>
+      </c>
+      <c r="BK147">
+        <v>0</v>
+      </c>
+      <c r="BL147">
+        <v>0</v>
+      </c>
+      <c r="BM147">
+        <v>0</v>
+      </c>
+      <c r="BN147">
+        <v>0</v>
+      </c>
+      <c r="BO147">
+        <v>0</v>
+      </c>
+      <c r="BP147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7325281</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45564.35416666666</v>
+      </c>
+      <c r="F148">
+        <v>30</v>
+      </c>
+      <c r="G148" t="s">
+        <v>70</v>
+      </c>
+      <c r="H148" t="s">
+        <v>74</v>
+      </c>
+      <c r="I148">
+        <v>2</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>2</v>
+      </c>
+      <c r="L148">
+        <v>3</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>3</v>
+      </c>
+      <c r="O148" t="s">
+        <v>178</v>
+      </c>
+      <c r="P148" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q148">
+        <v>1.73</v>
+      </c>
+      <c r="R148">
+        <v>2.6</v>
+      </c>
+      <c r="S148">
+        <v>7</v>
+      </c>
+      <c r="T148">
+        <v>1.27</v>
+      </c>
+      <c r="U148">
+        <v>3.54</v>
+      </c>
+      <c r="V148">
+        <v>2.29</v>
+      </c>
+      <c r="W148">
+        <v>1.58</v>
+      </c>
+      <c r="X148">
+        <v>5.15</v>
+      </c>
+      <c r="Y148">
+        <v>1.14</v>
+      </c>
+      <c r="Z148">
+        <v>1.31</v>
+      </c>
+      <c r="AA148">
+        <v>5.1</v>
+      </c>
+      <c r="AB148">
+        <v>8.1</v>
+      </c>
+      <c r="AC148">
+        <v>1.01</v>
+      </c>
+      <c r="AD148">
+        <v>17</v>
+      </c>
+      <c r="AE148">
+        <v>1.13</v>
+      </c>
+      <c r="AF148">
+        <v>5.2</v>
+      </c>
+      <c r="AG148">
+        <v>1.52</v>
+      </c>
+      <c r="AH148">
+        <v>2.38</v>
+      </c>
+      <c r="AI148">
+        <v>1.91</v>
+      </c>
+      <c r="AJ148">
+        <v>1.8</v>
+      </c>
+      <c r="AK148">
+        <v>1.02</v>
+      </c>
+      <c r="AL148">
+        <v>1.1</v>
+      </c>
+      <c r="AM148">
+        <v>3.46</v>
+      </c>
+      <c r="AN148">
+        <v>2.29</v>
+      </c>
+      <c r="AO148">
+        <v>0.93</v>
+      </c>
+      <c r="AP148">
+        <v>2.33</v>
+      </c>
+      <c r="AQ148">
+        <v>0.87</v>
+      </c>
+      <c r="AR148">
+        <v>1.91</v>
+      </c>
+      <c r="AS148">
+        <v>1.39</v>
+      </c>
+      <c r="AT148">
+        <v>3.3</v>
+      </c>
+      <c r="AU148">
+        <v>6</v>
+      </c>
+      <c r="AV148">
+        <v>3</v>
+      </c>
+      <c r="AW148">
+        <v>5</v>
+      </c>
+      <c r="AX148">
+        <v>10</v>
+      </c>
+      <c r="AY148">
+        <v>11</v>
+      </c>
+      <c r="AZ148">
+        <v>13</v>
+      </c>
+      <c r="BA148">
+        <v>6</v>
+      </c>
+      <c r="BB148">
+        <v>1</v>
+      </c>
+      <c r="BC148">
+        <v>7</v>
+      </c>
+      <c r="BD148">
+        <v>0</v>
+      </c>
+      <c r="BE148">
+        <v>0</v>
+      </c>
+      <c r="BF148">
+        <v>0</v>
+      </c>
+      <c r="BG148">
+        <v>0</v>
+      </c>
+      <c r="BH148">
+        <v>0</v>
+      </c>
+      <c r="BI148">
+        <v>0</v>
+      </c>
+      <c r="BJ148">
+        <v>0</v>
+      </c>
+      <c r="BK148">
+        <v>0</v>
+      </c>
+      <c r="BL148">
+        <v>0</v>
+      </c>
+      <c r="BM148">
+        <v>0</v>
+      </c>
+      <c r="BN148">
+        <v>0</v>
+      </c>
+      <c r="BO148">
+        <v>0</v>
+      </c>
+      <c r="BP148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7325282</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45564.45833333334</v>
+      </c>
+      <c r="F149">
+        <v>30</v>
+      </c>
+      <c r="G149" t="s">
+        <v>78</v>
+      </c>
+      <c r="H149" t="s">
+        <v>77</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>3</v>
+      </c>
+      <c r="N149">
+        <v>3</v>
+      </c>
+      <c r="O149" t="s">
+        <v>81</v>
+      </c>
+      <c r="P149" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q149">
+        <v>4.4</v>
+      </c>
+      <c r="R149">
+        <v>2.45</v>
+      </c>
+      <c r="S149">
+        <v>2.08</v>
+      </c>
+      <c r="T149">
+        <v>1.25</v>
+      </c>
+      <c r="U149">
+        <v>3.7</v>
+      </c>
+      <c r="V149">
+        <v>2.16</v>
+      </c>
+      <c r="W149">
+        <v>1.65</v>
+      </c>
+      <c r="X149">
+        <v>4.75</v>
+      </c>
+      <c r="Y149">
+        <v>1.16</v>
+      </c>
+      <c r="Z149">
+        <v>4.39</v>
+      </c>
+      <c r="AA149">
+        <v>4.15</v>
+      </c>
+      <c r="AB149">
+        <v>1.63</v>
+      </c>
+      <c r="AC149">
+        <v>0</v>
+      </c>
+      <c r="AD149">
+        <v>17</v>
+      </c>
+      <c r="AE149">
+        <v>1.1</v>
+      </c>
+      <c r="AF149">
+        <v>4.85</v>
+      </c>
+      <c r="AG149">
+        <v>1.52</v>
+      </c>
+      <c r="AH149">
+        <v>2.38</v>
+      </c>
+      <c r="AI149">
+        <v>1.5</v>
+      </c>
+      <c r="AJ149">
+        <v>2.34</v>
+      </c>
+      <c r="AK149">
+        <v>2.14</v>
+      </c>
+      <c r="AL149">
+        <v>1.19</v>
+      </c>
+      <c r="AM149">
+        <v>1.22</v>
+      </c>
+      <c r="AN149">
+        <v>1.07</v>
+      </c>
+      <c r="AO149">
+        <v>1.87</v>
+      </c>
+      <c r="AP149">
+        <v>1</v>
+      </c>
+      <c r="AQ149">
+        <v>1.94</v>
+      </c>
+      <c r="AR149">
+        <v>1.77</v>
+      </c>
+      <c r="AS149">
+        <v>1.93</v>
+      </c>
+      <c r="AT149">
+        <v>3.7</v>
+      </c>
+      <c r="AU149">
+        <v>3</v>
+      </c>
+      <c r="AV149">
+        <v>7</v>
+      </c>
+      <c r="AW149">
+        <v>7</v>
+      </c>
+      <c r="AX149">
+        <v>8</v>
+      </c>
+      <c r="AY149">
+        <v>10</v>
+      </c>
+      <c r="AZ149">
+        <v>15</v>
+      </c>
+      <c r="BA149">
+        <v>2</v>
+      </c>
+      <c r="BB149">
         <v>4</v>
       </c>
-      <c r="AW146">
-        <v>7</v>
-      </c>
-      <c r="AX146">
-        <v>0</v>
-      </c>
-      <c r="AY146">
-        <v>10</v>
-      </c>
-      <c r="AZ146">
-        <v>4</v>
-      </c>
-      <c r="BA146">
-        <v>8</v>
-      </c>
-      <c r="BB146">
-        <v>1</v>
-      </c>
-      <c r="BC146">
-        <v>9</v>
-      </c>
-      <c r="BD146">
-        <v>0</v>
-      </c>
-      <c r="BE146">
-        <v>0</v>
-      </c>
-      <c r="BF146">
-        <v>0</v>
-      </c>
-      <c r="BG146">
-        <v>0</v>
-      </c>
-      <c r="BH146">
-        <v>0</v>
-      </c>
-      <c r="BI146">
-        <v>0</v>
-      </c>
-      <c r="BJ146">
-        <v>0</v>
-      </c>
-      <c r="BK146">
-        <v>0</v>
-      </c>
-      <c r="BL146">
-        <v>0</v>
-      </c>
-      <c r="BM146">
-        <v>0</v>
-      </c>
-      <c r="BN146">
-        <v>0</v>
-      </c>
-      <c r="BO146">
-        <v>0</v>
-      </c>
-      <c r="BP146">
+      <c r="BC149">
+        <v>6</v>
+      </c>
+      <c r="BD149">
+        <v>0</v>
+      </c>
+      <c r="BE149">
+        <v>0</v>
+      </c>
+      <c r="BF149">
+        <v>0</v>
+      </c>
+      <c r="BG149">
+        <v>0</v>
+      </c>
+      <c r="BH149">
+        <v>0</v>
+      </c>
+      <c r="BI149">
+        <v>0</v>
+      </c>
+      <c r="BJ149">
+        <v>0</v>
+      </c>
+      <c r="BK149">
+        <v>0</v>
+      </c>
+      <c r="BL149">
+        <v>0</v>
+      </c>
+      <c r="BM149">
+        <v>0</v>
+      </c>
+      <c r="BN149">
+        <v>0</v>
+      </c>
+      <c r="BO149">
+        <v>0</v>
+      </c>
+      <c r="BP149">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="265">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -532,10 +532,10 @@
     <t>['45+1', '90+3']</t>
   </si>
   <si>
-    <t>['53', '61', '90+6']</t>
+    <t>['4', '11', '67']</t>
   </si>
   <si>
-    <t>['4', '11', '67']</t>
+    <t>['53', '61', '90+6']</t>
   </si>
   <si>
     <t>['45', '75', '81']</t>
@@ -548,6 +548,9 @@
   </si>
   <si>
     <t>['47', '60', '75', '90+1']</t>
+  </si>
+  <si>
+    <t>['14', '67']</t>
   </si>
   <si>
     <t>['28', '42', '46']</t>
@@ -800,6 +803,9 @@
   </si>
   <si>
     <t>['6', '31', '70']</t>
+  </si>
+  <si>
+    <t>['22', '25', '44']</t>
   </si>
   <si>
     <t>['70', '77', '85']</t>
@@ -1164,7 +1170,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP149"/>
+  <dimension ref="A1:BP150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1629,7 +1635,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1710,7 +1716,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ3">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2041,7 +2047,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -2247,7 +2253,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2531,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ7">
         <v>0.87</v>
@@ -2659,7 +2665,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -3071,7 +3077,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -3277,7 +3283,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3483,7 +3489,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3689,7 +3695,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3895,7 +3901,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -4101,7 +4107,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4388,7 +4394,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ16">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4719,7 +4725,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4800,7 +4806,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ18">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR18">
         <v>1.11</v>
@@ -5209,7 +5215,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ20">
         <v>1.53</v>
@@ -5543,7 +5549,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5749,7 +5755,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5955,7 +5961,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -6161,7 +6167,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6573,7 +6579,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6651,7 +6657,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ27">
         <v>0.93</v>
@@ -6779,7 +6785,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -7191,7 +7197,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7397,7 +7403,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7603,7 +7609,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7809,7 +7815,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -8015,7 +8021,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -8221,7 +8227,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8839,7 +8845,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8920,7 +8926,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ38">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR38">
         <v>1.67</v>
@@ -9045,7 +9051,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -9251,7 +9257,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9332,7 +9338,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ40">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR40">
         <v>1.38</v>
@@ -9457,7 +9463,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9663,7 +9669,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9741,7 +9747,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ42">
         <v>2.57</v>
@@ -9869,7 +9875,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -10281,7 +10287,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -11517,7 +11523,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -12010,7 +12016,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ53">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR53">
         <v>2.19</v>
@@ -12341,7 +12347,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12547,7 +12553,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12625,7 +12631,7 @@
         <v>1.43</v>
       </c>
       <c r="AP56">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ56">
         <v>1.94</v>
@@ -12753,7 +12759,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13371,7 +13377,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13783,7 +13789,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13864,7 +13870,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ62">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR62">
         <v>2.43</v>
@@ -13989,7 +13995,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -14195,7 +14201,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14401,7 +14407,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14607,7 +14613,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14685,7 +14691,7 @@
         <v>0.5</v>
       </c>
       <c r="AP66">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ66">
         <v>1.43</v>
@@ -14813,7 +14819,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -15019,7 +15025,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -15225,7 +15231,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15431,7 +15437,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15637,7 +15643,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -16336,7 +16342,7 @@
         <v>1</v>
       </c>
       <c r="AQ74">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR74">
         <v>1.81</v>
@@ -16539,7 +16545,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ75">
         <v>0.73</v>
@@ -16667,7 +16673,7 @@
         <v>131</v>
       </c>
       <c r="P76" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -17079,7 +17085,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17285,7 +17291,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q79">
         <v>1.53</v>
@@ -17491,7 +17497,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17697,7 +17703,7 @@
         <v>81</v>
       </c>
       <c r="P81" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q81">
         <v>1.6</v>
@@ -18109,7 +18115,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q83">
         <v>8.5</v>
@@ -18315,7 +18321,7 @@
         <v>81</v>
       </c>
       <c r="P84" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18727,7 +18733,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q86">
         <v>5.66</v>
@@ -18933,7 +18939,7 @@
         <v>137</v>
       </c>
       <c r="P87" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q87">
         <v>4.95</v>
@@ -19011,10 +19017,10 @@
         <v>1.88</v>
       </c>
       <c r="AP87">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ87">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR87">
         <v>2.06</v>
@@ -19139,7 +19145,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q88">
         <v>2.77</v>
@@ -19345,7 +19351,7 @@
         <v>138</v>
       </c>
       <c r="P89" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -19551,7 +19557,7 @@
         <v>122</v>
       </c>
       <c r="P90" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q90">
         <v>11</v>
@@ -19757,7 +19763,7 @@
         <v>139</v>
       </c>
       <c r="P91" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q91">
         <v>1.83</v>
@@ -19963,7 +19969,7 @@
         <v>140</v>
       </c>
       <c r="P92" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20169,7 +20175,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q93">
         <v>2.3</v>
@@ -20247,7 +20253,7 @@
         <v>0.25</v>
       </c>
       <c r="AP93">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ93">
         <v>0.19</v>
@@ -21199,7 +21205,7 @@
         <v>145</v>
       </c>
       <c r="P98" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -21280,7 +21286,7 @@
         <v>1</v>
       </c>
       <c r="AQ98">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR98">
         <v>1.81</v>
@@ -21483,7 +21489,7 @@
         <v>1.6</v>
       </c>
       <c r="AP99">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ99">
         <v>1.53</v>
@@ -21611,7 +21617,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -21692,7 +21698,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ100">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR100">
         <v>1.13</v>
@@ -22229,7 +22235,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q103">
         <v>1.91</v>
@@ -23053,7 +23059,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q107">
         <v>1.06</v>
@@ -23131,7 +23137,7 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ107">
         <v>0.87</v>
@@ -23259,7 +23265,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23340,7 +23346,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ108">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR108">
         <v>1.62</v>
@@ -23465,7 +23471,7 @@
         <v>151</v>
       </c>
       <c r="P109" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q109">
         <v>2.2</v>
@@ -23671,7 +23677,7 @@
         <v>81</v>
       </c>
       <c r="P110" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24083,7 +24089,7 @@
         <v>81</v>
       </c>
       <c r="P112" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24289,7 +24295,7 @@
         <v>152</v>
       </c>
       <c r="P113" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -24495,7 +24501,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q114">
         <v>2.1</v>
@@ -24573,7 +24579,7 @@
         <v>0.18</v>
       </c>
       <c r="AP114">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ114">
         <v>0.19</v>
@@ -24907,7 +24913,7 @@
         <v>155</v>
       </c>
       <c r="P116" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q116">
         <v>2.5</v>
@@ -25113,7 +25119,7 @@
         <v>156</v>
       </c>
       <c r="P117" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q117">
         <v>1.91</v>
@@ -25731,7 +25737,7 @@
         <v>81</v>
       </c>
       <c r="P120" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q120">
         <v>5.33</v>
@@ -25937,7 +25943,7 @@
         <v>81</v>
       </c>
       <c r="P121" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -26143,7 +26149,7 @@
         <v>153</v>
       </c>
       <c r="P122" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q122">
         <v>6.41</v>
@@ -26221,7 +26227,7 @@
         <v>1.83</v>
       </c>
       <c r="AP122">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ122">
         <v>1.94</v>
@@ -26349,7 +26355,7 @@
         <v>104</v>
       </c>
       <c r="P123" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26636,7 +26642,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ124">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR124">
         <v>2.48</v>
@@ -26761,7 +26767,7 @@
         <v>160</v>
       </c>
       <c r="P125" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -26967,7 +26973,7 @@
         <v>81</v>
       </c>
       <c r="P126" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q126">
         <v>2.6</v>
@@ -27173,7 +27179,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q127">
         <v>3.75</v>
@@ -27379,7 +27385,7 @@
         <v>162</v>
       </c>
       <c r="P128" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q128">
         <v>2.63</v>
@@ -27791,7 +27797,7 @@
         <v>163</v>
       </c>
       <c r="P130" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -27869,7 +27875,7 @@
         <v>0.92</v>
       </c>
       <c r="AP130">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ130">
         <v>0.73</v>
@@ -27997,7 +28003,7 @@
         <v>164</v>
       </c>
       <c r="P131" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -28203,7 +28209,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q132">
         <v>1.67</v>
@@ -28409,7 +28415,7 @@
         <v>81</v>
       </c>
       <c r="P133" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q133">
         <v>4.75</v>
@@ -28490,7 +28496,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ133">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR133">
         <v>1.5</v>
@@ -28615,7 +28621,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q134">
         <v>4.33</v>
@@ -28821,7 +28827,7 @@
         <v>81</v>
       </c>
       <c r="P135" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q135">
         <v>10</v>
@@ -29027,7 +29033,7 @@
         <v>167</v>
       </c>
       <c r="P136" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q136">
         <v>7.5</v>
@@ -29439,7 +29445,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -29645,7 +29651,7 @@
         <v>170</v>
       </c>
       <c r="P139" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q139">
         <v>1.8</v>
@@ -29851,7 +29857,7 @@
         <v>81</v>
       </c>
       <c r="P140" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q140">
         <v>4.5</v>
@@ -30057,7 +30063,7 @@
         <v>171</v>
       </c>
       <c r="P141" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q141">
         <v>2.1</v>
@@ -30221,7 +30227,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>7325277</v>
+        <v>7325276</v>
       </c>
       <c r="C142" t="s">
         <v>68</v>
@@ -30236,19 +30242,19 @@
         <v>29</v>
       </c>
       <c r="G142" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H142" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L142">
         <v>3</v>
@@ -30263,124 +30269,124 @@
         <v>172</v>
       </c>
       <c r="P142" t="s">
-        <v>260</v>
+        <v>99</v>
       </c>
       <c r="Q142">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="R142">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="S142">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="T142">
         <v>1.22</v>
       </c>
       <c r="U142">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="V142">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="W142">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="X142">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="Y142">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="Z142">
-        <v>1.09</v>
+        <v>1.3</v>
       </c>
       <c r="AA142">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AB142">
-        <v>17</v>
+        <v>7.6</v>
       </c>
       <c r="AC142">
         <v>1.01</v>
       </c>
       <c r="AD142">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE142">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="AF142">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="AG142">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AH142">
-        <v>2.47</v>
+        <v>2.65</v>
       </c>
       <c r="AI142">
-        <v>2.25</v>
+        <v>1.73</v>
       </c>
       <c r="AJ142">
-        <v>1.61</v>
+        <v>2.18</v>
       </c>
       <c r="AK142">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="AL142">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="AM142">
-        <v>5</v>
+        <v>2.65</v>
       </c>
       <c r="AN142">
-        <v>2.38</v>
+        <v>2.23</v>
       </c>
       <c r="AO142">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="AP142">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AQ142">
-        <v>0.87</v>
+        <v>0.73</v>
       </c>
       <c r="AR142">
-        <v>2.46</v>
+        <v>2.07</v>
       </c>
       <c r="AS142">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="AT142">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="AU142">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV142">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AW142">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AX142">
         <v>1</v>
       </c>
       <c r="AY142">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ142">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BA142">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB142">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BC142">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD142">
         <v>0</v>
@@ -30427,7 +30433,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>7325276</v>
+        <v>7325277</v>
       </c>
       <c r="C143" t="s">
         <v>68</v>
@@ -30436,25 +30442,25 @@
         <v>69</v>
       </c>
       <c r="E143" s="2">
-        <v>45557.35416666666</v>
+        <v>45556.875</v>
       </c>
       <c r="F143">
         <v>29</v>
       </c>
       <c r="G143" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H143" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I143">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L143">
         <v>3</v>
@@ -30469,124 +30475,124 @@
         <v>173</v>
       </c>
       <c r="P143" t="s">
-        <v>99</v>
+        <v>261</v>
       </c>
       <c r="Q143">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="R143">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="S143">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="T143">
         <v>1.22</v>
       </c>
       <c r="U143">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="V143">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="W143">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="X143">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="Y143">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="Z143">
-        <v>1.3</v>
+        <v>1.09</v>
       </c>
       <c r="AA143">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AB143">
-        <v>7.6</v>
+        <v>17</v>
       </c>
       <c r="AC143">
         <v>1.01</v>
       </c>
       <c r="AD143">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE143">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="AF143">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="AG143">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="AH143">
-        <v>2.65</v>
+        <v>2.47</v>
       </c>
       <c r="AI143">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="AJ143">
-        <v>2.18</v>
+        <v>1.61</v>
       </c>
       <c r="AK143">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="AL143">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="AM143">
-        <v>2.65</v>
+        <v>5</v>
       </c>
       <c r="AN143">
-        <v>2.23</v>
+        <v>2.38</v>
       </c>
       <c r="AO143">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AP143">
-        <v>2.33</v>
+        <v>2.47</v>
       </c>
       <c r="AQ143">
-        <v>0.73</v>
+        <v>0.87</v>
       </c>
       <c r="AR143">
-        <v>2.07</v>
+        <v>2.46</v>
       </c>
       <c r="AS143">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="AT143">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="AU143">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV143">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AW143">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AX143">
+        <v>1</v>
+      </c>
+      <c r="AY143">
+        <v>13</v>
+      </c>
+      <c r="AZ143">
         <v>3</v>
       </c>
-      <c r="AY143">
-        <v>21</v>
-      </c>
-      <c r="AZ143">
-        <v>13</v>
-      </c>
       <c r="BA143">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB143">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BC143">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD143">
         <v>0</v>
@@ -30759,13 +30765,13 @@
         <v>1.53</v>
       </c>
       <c r="AR144">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="AS144">
         <v>1.86</v>
       </c>
       <c r="AT144">
-        <v>3.96</v>
+        <v>3.92</v>
       </c>
       <c r="AU144">
         <v>8</v>
@@ -30848,7 +30854,7 @@
         <v>69</v>
       </c>
       <c r="E145" s="2">
-        <v>45560.45833333334</v>
+        <v>45559.875</v>
       </c>
       <c r="F145">
         <v>23</v>
@@ -30881,7 +30887,7 @@
         <v>175</v>
       </c>
       <c r="P145" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -30974,22 +30980,22 @@
         <v>4.09</v>
       </c>
       <c r="AU145">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV145">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW145">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AX145">
         <v>0</v>
       </c>
       <c r="AY145">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AZ145">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BA145">
         <v>7</v>
@@ -31174,10 +31180,10 @@
         <v>2.46</v>
       </c>
       <c r="AS146">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="AT146">
-        <v>3.89</v>
+        <v>3.85</v>
       </c>
       <c r="AU146">
         <v>5</v>
@@ -31260,7 +31266,7 @@
         <v>69</v>
       </c>
       <c r="E147" s="2">
-        <v>45563.35416666666</v>
+        <v>45562.875</v>
       </c>
       <c r="F147">
         <v>30</v>
@@ -31386,22 +31392,22 @@
         <v>2.49</v>
       </c>
       <c r="AU147">
+        <v>6</v>
+      </c>
+      <c r="AV147">
+        <v>8</v>
+      </c>
+      <c r="AW147">
+        <v>6</v>
+      </c>
+      <c r="AX147">
         <v>9</v>
       </c>
-      <c r="AV147">
-        <v>10</v>
-      </c>
-      <c r="AW147">
-        <v>8</v>
-      </c>
-      <c r="AX147">
-        <v>8</v>
-      </c>
       <c r="AY147">
+        <v>12</v>
+      </c>
+      <c r="AZ147">
         <v>17</v>
-      </c>
-      <c r="AZ147">
-        <v>18</v>
       </c>
       <c r="BA147">
         <v>3</v>
@@ -31457,7 +31463,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>7325281</v>
+        <v>7325280</v>
       </c>
       <c r="C148" t="s">
         <v>68</v>
@@ -31466,157 +31472,157 @@
         <v>69</v>
       </c>
       <c r="E148" s="2">
-        <v>45564.35416666666</v>
+        <v>45563.875</v>
       </c>
       <c r="F148">
         <v>30</v>
       </c>
       <c r="G148" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H148" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>3</v>
+      </c>
+      <c r="K148">
+        <v>4</v>
+      </c>
+      <c r="L148">
         <v>2</v>
       </c>
-      <c r="J148">
-        <v>0</v>
-      </c>
-      <c r="K148">
-        <v>2</v>
-      </c>
-      <c r="L148">
+      <c r="M148">
         <v>3</v>
       </c>
-      <c r="M148">
-        <v>0</v>
-      </c>
       <c r="N148">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O148" t="s">
         <v>178</v>
       </c>
       <c r="P148" t="s">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="Q148">
-        <v>1.73</v>
+        <v>4.75</v>
       </c>
       <c r="R148">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="S148">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="T148">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="U148">
-        <v>3.54</v>
+        <v>3.42</v>
       </c>
       <c r="V148">
-        <v>2.29</v>
+        <v>2.36</v>
       </c>
       <c r="W148">
+        <v>1.55</v>
+      </c>
+      <c r="X148">
+        <v>5.4</v>
+      </c>
+      <c r="Y148">
+        <v>1.13</v>
+      </c>
+      <c r="Z148">
+        <v>4.88</v>
+      </c>
+      <c r="AA148">
+        <v>4.1</v>
+      </c>
+      <c r="AB148">
         <v>1.58</v>
       </c>
-      <c r="X148">
-        <v>5.15</v>
-      </c>
-      <c r="Y148">
+      <c r="AC148">
+        <v>1.02</v>
+      </c>
+      <c r="AD148">
+        <v>13</v>
+      </c>
+      <c r="AE148">
         <v>1.14</v>
       </c>
-      <c r="Z148">
-        <v>1.31</v>
-      </c>
-      <c r="AA148">
-        <v>5.1</v>
-      </c>
-      <c r="AB148">
-        <v>8.1</v>
-      </c>
-      <c r="AC148">
-        <v>1.01</v>
-      </c>
-      <c r="AD148">
-        <v>17</v>
-      </c>
-      <c r="AE148">
-        <v>1.13</v>
-      </c>
       <c r="AF148">
-        <v>5.2</v>
+        <v>4.2</v>
       </c>
       <c r="AG148">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="AH148">
-        <v>2.38</v>
+        <v>2.15</v>
       </c>
       <c r="AI148">
-        <v>1.91</v>
+        <v>1.61</v>
       </c>
       <c r="AJ148">
-        <v>1.8</v>
+        <v>2.12</v>
       </c>
       <c r="AK148">
-        <v>1.02</v>
+        <v>2.15</v>
       </c>
       <c r="AL148">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AM148">
-        <v>3.46</v>
+        <v>1.12</v>
       </c>
       <c r="AN148">
-        <v>2.29</v>
+        <v>1.29</v>
       </c>
       <c r="AO148">
-        <v>0.93</v>
+        <v>1.86</v>
       </c>
       <c r="AP148">
-        <v>2.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ148">
-        <v>0.87</v>
+        <v>1.93</v>
       </c>
       <c r="AR148">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="AS148">
-        <v>1.39</v>
+        <v>1.77</v>
       </c>
       <c r="AT148">
-        <v>3.3</v>
+        <v>3.82</v>
       </c>
       <c r="AU148">
+        <v>9</v>
+      </c>
+      <c r="AV148">
+        <v>5</v>
+      </c>
+      <c r="AW148">
         <v>6</v>
       </c>
-      <c r="AV148">
-        <v>3</v>
-      </c>
-      <c r="AW148">
-        <v>5</v>
-      </c>
       <c r="AX148">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY148">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ148">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA148">
         <v>6</v>
       </c>
       <c r="BB148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC148">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD148">
         <v>0</v>
@@ -31663,7 +31669,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>7325282</v>
+        <v>7325281</v>
       </c>
       <c r="C149" t="s">
         <v>68</v>
@@ -31672,88 +31678,88 @@
         <v>69</v>
       </c>
       <c r="E149" s="2">
-        <v>45564.45833333334</v>
+        <v>45563.875</v>
       </c>
       <c r="F149">
         <v>30</v>
       </c>
       <c r="G149" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H149" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J149">
         <v>0</v>
       </c>
       <c r="K149">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L149">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M149">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N149">
         <v>3</v>
       </c>
       <c r="O149" t="s">
+        <v>179</v>
+      </c>
+      <c r="P149" t="s">
         <v>81</v>
       </c>
-      <c r="P149" t="s">
-        <v>262</v>
-      </c>
       <c r="Q149">
-        <v>4.4</v>
+        <v>1.73</v>
       </c>
       <c r="R149">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="S149">
-        <v>2.08</v>
+        <v>7</v>
       </c>
       <c r="T149">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="U149">
-        <v>3.7</v>
+        <v>3.54</v>
       </c>
       <c r="V149">
-        <v>2.16</v>
+        <v>2.29</v>
       </c>
       <c r="W149">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="X149">
-        <v>4.75</v>
+        <v>5.15</v>
       </c>
       <c r="Y149">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="Z149">
-        <v>4.39</v>
+        <v>1.31</v>
       </c>
       <c r="AA149">
-        <v>4.15</v>
+        <v>5.1</v>
       </c>
       <c r="AB149">
-        <v>1.63</v>
+        <v>8.1</v>
       </c>
       <c r="AC149">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AD149">
         <v>17</v>
       </c>
       <c r="AE149">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="AF149">
-        <v>4.85</v>
+        <v>5.2</v>
       </c>
       <c r="AG149">
         <v>1.52</v>
@@ -31762,64 +31768,64 @@
         <v>2.38</v>
       </c>
       <c r="AI149">
-        <v>1.5</v>
+        <v>1.91</v>
       </c>
       <c r="AJ149">
-        <v>2.34</v>
+        <v>1.8</v>
       </c>
       <c r="AK149">
-        <v>2.14</v>
+        <v>1.02</v>
       </c>
       <c r="AL149">
-        <v>1.19</v>
+        <v>1.1</v>
       </c>
       <c r="AM149">
-        <v>1.22</v>
+        <v>3.46</v>
       </c>
       <c r="AN149">
-        <v>1.07</v>
+        <v>2.29</v>
       </c>
       <c r="AO149">
-        <v>1.87</v>
+        <v>0.93</v>
       </c>
       <c r="AP149">
+        <v>2.33</v>
+      </c>
+      <c r="AQ149">
+        <v>0.87</v>
+      </c>
+      <c r="AR149">
+        <v>1.91</v>
+      </c>
+      <c r="AS149">
+        <v>1.39</v>
+      </c>
+      <c r="AT149">
+        <v>3.3</v>
+      </c>
+      <c r="AU149">
+        <v>4</v>
+      </c>
+      <c r="AV149">
+        <v>4</v>
+      </c>
+      <c r="AW149">
+        <v>5</v>
+      </c>
+      <c r="AX149">
+        <v>6</v>
+      </c>
+      <c r="AY149">
+        <v>9</v>
+      </c>
+      <c r="AZ149">
+        <v>10</v>
+      </c>
+      <c r="BA149">
+        <v>5</v>
+      </c>
+      <c r="BB149">
         <v>1</v>
-      </c>
-      <c r="AQ149">
-        <v>1.94</v>
-      </c>
-      <c r="AR149">
-        <v>1.77</v>
-      </c>
-      <c r="AS149">
-        <v>1.93</v>
-      </c>
-      <c r="AT149">
-        <v>3.7</v>
-      </c>
-      <c r="AU149">
-        <v>3</v>
-      </c>
-      <c r="AV149">
-        <v>7</v>
-      </c>
-      <c r="AW149">
-        <v>7</v>
-      </c>
-      <c r="AX149">
-        <v>8</v>
-      </c>
-      <c r="AY149">
-        <v>10</v>
-      </c>
-      <c r="AZ149">
-        <v>15</v>
-      </c>
-      <c r="BA149">
-        <v>2</v>
-      </c>
-      <c r="BB149">
-        <v>4</v>
       </c>
       <c r="BC149">
         <v>6</v>
@@ -31861,6 +31867,212 @@
         <v>0</v>
       </c>
       <c r="BP149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7325282</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45564.45833333334</v>
+      </c>
+      <c r="F150">
+        <v>30</v>
+      </c>
+      <c r="G150" t="s">
+        <v>78</v>
+      </c>
+      <c r="H150" t="s">
+        <v>77</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>3</v>
+      </c>
+      <c r="N150">
+        <v>3</v>
+      </c>
+      <c r="O150" t="s">
+        <v>81</v>
+      </c>
+      <c r="P150" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q150">
+        <v>4.4</v>
+      </c>
+      <c r="R150">
+        <v>2.45</v>
+      </c>
+      <c r="S150">
+        <v>2.08</v>
+      </c>
+      <c r="T150">
+        <v>1.25</v>
+      </c>
+      <c r="U150">
+        <v>3.7</v>
+      </c>
+      <c r="V150">
+        <v>2.16</v>
+      </c>
+      <c r="W150">
+        <v>1.65</v>
+      </c>
+      <c r="X150">
+        <v>4.75</v>
+      </c>
+      <c r="Y150">
+        <v>1.16</v>
+      </c>
+      <c r="Z150">
+        <v>4.39</v>
+      </c>
+      <c r="AA150">
+        <v>4.15</v>
+      </c>
+      <c r="AB150">
+        <v>1.63</v>
+      </c>
+      <c r="AC150">
+        <v>0</v>
+      </c>
+      <c r="AD150">
+        <v>17</v>
+      </c>
+      <c r="AE150">
+        <v>1.1</v>
+      </c>
+      <c r="AF150">
+        <v>4.85</v>
+      </c>
+      <c r="AG150">
+        <v>1.52</v>
+      </c>
+      <c r="AH150">
+        <v>2.38</v>
+      </c>
+      <c r="AI150">
+        <v>1.5</v>
+      </c>
+      <c r="AJ150">
+        <v>2.34</v>
+      </c>
+      <c r="AK150">
+        <v>2.14</v>
+      </c>
+      <c r="AL150">
+        <v>1.19</v>
+      </c>
+      <c r="AM150">
+        <v>1.22</v>
+      </c>
+      <c r="AN150">
+        <v>1.07</v>
+      </c>
+      <c r="AO150">
+        <v>1.87</v>
+      </c>
+      <c r="AP150">
+        <v>1</v>
+      </c>
+      <c r="AQ150">
+        <v>1.94</v>
+      </c>
+      <c r="AR150">
+        <v>1.77</v>
+      </c>
+      <c r="AS150">
+        <v>1.93</v>
+      </c>
+      <c r="AT150">
+        <v>3.7</v>
+      </c>
+      <c r="AU150">
+        <v>3</v>
+      </c>
+      <c r="AV150">
+        <v>7</v>
+      </c>
+      <c r="AW150">
+        <v>7</v>
+      </c>
+      <c r="AX150">
+        <v>8</v>
+      </c>
+      <c r="AY150">
+        <v>10</v>
+      </c>
+      <c r="AZ150">
+        <v>15</v>
+      </c>
+      <c r="BA150">
+        <v>2</v>
+      </c>
+      <c r="BB150">
+        <v>4</v>
+      </c>
+      <c r="BC150">
+        <v>6</v>
+      </c>
+      <c r="BD150">
+        <v>0</v>
+      </c>
+      <c r="BE150">
+        <v>0</v>
+      </c>
+      <c r="BF150">
+        <v>0</v>
+      </c>
+      <c r="BG150">
+        <v>0</v>
+      </c>
+      <c r="BH150">
+        <v>0</v>
+      </c>
+      <c r="BI150">
+        <v>0</v>
+      </c>
+      <c r="BJ150">
+        <v>0</v>
+      </c>
+      <c r="BK150">
+        <v>0</v>
+      </c>
+      <c r="BL150">
+        <v>0</v>
+      </c>
+      <c r="BM150">
+        <v>0</v>
+      </c>
+      <c r="BN150">
+        <v>0</v>
+      </c>
+      <c r="BO150">
+        <v>0</v>
+      </c>
+      <c r="BP150">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -31884,7 +31884,7 @@
         <v>69</v>
       </c>
       <c r="E150" s="2">
-        <v>45564.45833333334</v>
+        <v>45563.875</v>
       </c>
       <c r="F150">
         <v>30</v>
@@ -32013,19 +32013,19 @@
         <v>3</v>
       </c>
       <c r="AV150">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW150">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX150">
         <v>8</v>
       </c>
       <c r="AY150">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ150">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BA150">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="265">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1170,7 +1170,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP150"/>
+  <dimension ref="A1:BP151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1740,10 +1740,10 @@
         <v>4</v>
       </c>
       <c r="AY3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA3">
         <v>5</v>
@@ -1919,10 +1919,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="AQ4">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1946,10 +1946,10 @@
         <v>1</v>
       </c>
       <c r="AY4">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AZ4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA4">
         <v>3</v>
@@ -2152,10 +2152,10 @@
         <v>6</v>
       </c>
       <c r="AY5">
+        <v>14</v>
+      </c>
+      <c r="AZ5">
         <v>13</v>
-      </c>
-      <c r="AZ5">
-        <v>11</v>
       </c>
       <c r="BA5">
         <v>9</v>
@@ -2358,10 +2358,10 @@
         <v>9</v>
       </c>
       <c r="AY6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BA6">
         <v>2</v>
@@ -2952,7 +2952,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ9">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3800,10 +3800,10 @@
         <v>9</v>
       </c>
       <c r="AY13">
+        <v>25</v>
+      </c>
+      <c r="AZ13">
         <v>20</v>
-      </c>
-      <c r="AZ13">
-        <v>14</v>
       </c>
       <c r="BA13">
         <v>9</v>
@@ -4006,10 +4006,10 @@
         <v>6</v>
       </c>
       <c r="AY14">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ14">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA14">
         <v>4</v>
@@ -5421,7 +5421,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="AQ21">
         <v>1.94</v>
@@ -5654,10 +5654,10 @@
         <v>14</v>
       </c>
       <c r="AY22">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ22">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BA22">
         <v>0</v>
@@ -6248,7 +6248,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ25">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR25">
         <v>1.98</v>
@@ -7069,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="AQ29">
         <v>0.19</v>
@@ -7096,10 +7096,10 @@
         <v>2</v>
       </c>
       <c r="AY29">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="AZ29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA29">
         <v>7</v>
@@ -7714,10 +7714,10 @@
         <v>21</v>
       </c>
       <c r="AY32">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ32">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="BA32">
         <v>5</v>
@@ -7920,10 +7920,10 @@
         <v>10</v>
       </c>
       <c r="AY33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ33">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="BA33">
         <v>2</v>
@@ -8126,10 +8126,10 @@
         <v>6</v>
       </c>
       <c r="AY34">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ34">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BA34">
         <v>6</v>
@@ -8332,10 +8332,10 @@
         <v>7</v>
       </c>
       <c r="AY35">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AZ35">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BA35">
         <v>12</v>
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="AQ36">
         <v>0.87</v>
@@ -8720,7 +8720,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ37">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR37">
         <v>1.49</v>
@@ -9156,10 +9156,10 @@
         <v>4</v>
       </c>
       <c r="AY39">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AZ39">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BA39">
         <v>11</v>
@@ -9980,10 +9980,10 @@
         <v>10</v>
       </c>
       <c r="AY43">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AZ43">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="BA43">
         <v>4</v>
@@ -10159,7 +10159,7 @@
         <v>1.4</v>
       </c>
       <c r="AP44">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="AQ44">
         <v>1.94</v>
@@ -10392,10 +10392,10 @@
         <v>6</v>
       </c>
       <c r="AY45">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ45">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA45">
         <v>4</v>
@@ -10598,10 +10598,10 @@
         <v>6</v>
       </c>
       <c r="AY46">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ46">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA46">
         <v>5</v>
@@ -11010,10 +11010,10 @@
         <v>3</v>
       </c>
       <c r="AY48">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ48">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA48">
         <v>7</v>
@@ -12013,7 +12013,7 @@
         <v>2.2</v>
       </c>
       <c r="AP53">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="AQ53">
         <v>1.93</v>
@@ -12222,7 +12222,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ54">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR54">
         <v>1.38</v>
@@ -14073,7 +14073,7 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="AQ63">
         <v>0.73</v>
@@ -14282,7 +14282,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ64">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR64">
         <v>1.24</v>
@@ -14694,7 +14694,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ66">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR66">
         <v>1.95</v>
@@ -14718,10 +14718,10 @@
         <v>6</v>
       </c>
       <c r="AY66">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AZ66">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA66">
         <v>7</v>
@@ -16133,7 +16133,7 @@
         <v>0.67</v>
       </c>
       <c r="AP73">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="AQ73">
         <v>0.93</v>
@@ -17166,7 +17166,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ78">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR78">
         <v>1.17</v>
@@ -17369,7 +17369,7 @@
         <v>1.29</v>
       </c>
       <c r="AP79">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="AQ79">
         <v>0.93</v>
@@ -20462,7 +20462,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ94">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR94">
         <v>2.14</v>
@@ -20665,7 +20665,7 @@
         <v>1.78</v>
       </c>
       <c r="AP95">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="AQ95">
         <v>1.53</v>
@@ -21904,7 +21904,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ101">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR101">
         <v>1.51</v>
@@ -22107,7 +22107,7 @@
         <v>0.89</v>
       </c>
       <c r="AP102">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="AQ102">
         <v>0.93</v>
@@ -23552,7 +23552,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ109">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR109">
         <v>1.91</v>
@@ -24785,7 +24785,7 @@
         <v>0.91</v>
       </c>
       <c r="AP115">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="AQ115">
         <v>0.93</v>
@@ -26024,7 +26024,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ121">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR121">
         <v>1.47</v>
@@ -26639,7 +26639,7 @@
         <v>1.92</v>
       </c>
       <c r="AP124">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="AQ124">
         <v>1.93</v>
@@ -29938,7 +29938,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ140">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR140">
         <v>1.26</v>
@@ -30553,7 +30553,7 @@
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="AQ143">
         <v>0.87</v>
@@ -30968,7 +30968,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ145">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AR145">
         <v>2.29</v>
@@ -31171,7 +31171,7 @@
         <v>0.79</v>
       </c>
       <c r="AP146">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="AQ146">
         <v>0.73</v>
@@ -32073,6 +32073,212 @@
         <v>0</v>
       </c>
       <c r="BP150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7325264</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45566.875</v>
+      </c>
+      <c r="F151">
+        <v>27</v>
+      </c>
+      <c r="G151" t="s">
+        <v>72</v>
+      </c>
+      <c r="H151" t="s">
+        <v>78</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+      <c r="O151" t="s">
+        <v>81</v>
+      </c>
+      <c r="P151" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q151">
+        <v>1.62</v>
+      </c>
+      <c r="R151">
+        <v>2.63</v>
+      </c>
+      <c r="S151">
+        <v>8</v>
+      </c>
+      <c r="T151">
+        <v>1.24</v>
+      </c>
+      <c r="U151">
+        <v>3.7</v>
+      </c>
+      <c r="V151">
+        <v>2.15</v>
+      </c>
+      <c r="W151">
+        <v>1.62</v>
+      </c>
+      <c r="X151">
+        <v>4.8</v>
+      </c>
+      <c r="Y151">
+        <v>1.16</v>
+      </c>
+      <c r="Z151">
+        <v>1.25</v>
+      </c>
+      <c r="AA151">
+        <v>5.75</v>
+      </c>
+      <c r="AB151">
+        <v>10</v>
+      </c>
+      <c r="AC151">
+        <v>1.01</v>
+      </c>
+      <c r="AD151">
+        <v>23</v>
+      </c>
+      <c r="AE151">
+        <v>1.14</v>
+      </c>
+      <c r="AF151">
+        <v>4.9</v>
+      </c>
+      <c r="AG151">
+        <v>1.52</v>
+      </c>
+      <c r="AH151">
+        <v>2.38</v>
+      </c>
+      <c r="AI151">
+        <v>1.88</v>
+      </c>
+      <c r="AJ151">
+        <v>1.85</v>
+      </c>
+      <c r="AK151">
+        <v>1.03</v>
+      </c>
+      <c r="AL151">
+        <v>1.08</v>
+      </c>
+      <c r="AM151">
+        <v>3.4</v>
+      </c>
+      <c r="AN151">
+        <v>2.47</v>
+      </c>
+      <c r="AO151">
+        <v>1.43</v>
+      </c>
+      <c r="AP151">
+        <v>2.38</v>
+      </c>
+      <c r="AQ151">
+        <v>1.4</v>
+      </c>
+      <c r="AR151">
+        <v>2.46</v>
+      </c>
+      <c r="AS151">
+        <v>1.8</v>
+      </c>
+      <c r="AT151">
+        <v>4.26</v>
+      </c>
+      <c r="AU151">
+        <v>5</v>
+      </c>
+      <c r="AV151">
+        <v>3</v>
+      </c>
+      <c r="AW151">
+        <v>2</v>
+      </c>
+      <c r="AX151">
+        <v>1</v>
+      </c>
+      <c r="AY151">
+        <v>7</v>
+      </c>
+      <c r="AZ151">
+        <v>4</v>
+      </c>
+      <c r="BA151">
+        <v>8</v>
+      </c>
+      <c r="BB151">
+        <v>2</v>
+      </c>
+      <c r="BC151">
+        <v>10</v>
+      </c>
+      <c r="BD151">
+        <v>0</v>
+      </c>
+      <c r="BE151">
+        <v>0</v>
+      </c>
+      <c r="BF151">
+        <v>0</v>
+      </c>
+      <c r="BG151">
+        <v>0</v>
+      </c>
+      <c r="BH151">
+        <v>0</v>
+      </c>
+      <c r="BI151">
+        <v>0</v>
+      </c>
+      <c r="BJ151">
+        <v>0</v>
+      </c>
+      <c r="BK151">
+        <v>0</v>
+      </c>
+      <c r="BL151">
+        <v>0</v>
+      </c>
+      <c r="BM151">
+        <v>0</v>
+      </c>
+      <c r="BN151">
+        <v>0</v>
+      </c>
+      <c r="BO151">
+        <v>0</v>
+      </c>
+      <c r="BP151">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="270">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -556,6 +556,12 @@
     <t>['28', '42', '46']</t>
   </si>
   <si>
+    <t>['71']</t>
+  </si>
+  <si>
+    <t>['25']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -763,9 +769,6 @@
     <t>['21', '46', '50']</t>
   </si>
   <si>
-    <t>['25']</t>
-  </si>
-  <si>
     <t>['26', '88']</t>
   </si>
   <si>
@@ -809,6 +812,18 @@
   </si>
   <si>
     <t>['70', '77', '85']</t>
+  </si>
+  <si>
+    <t>['3', '52', '63', '70']</t>
+  </si>
+  <si>
+    <t>['17', '31']</t>
+  </si>
+  <si>
+    <t>['24', '77']</t>
+  </si>
+  <si>
+    <t>['81']</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP151"/>
+  <dimension ref="A1:BP155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1635,7 +1650,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1716,7 +1731,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ3">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2047,7 +2062,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -2125,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ5">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2253,7 +2268,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2665,7 +2680,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2746,7 +2761,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ8">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AR8">
         <v>1.63</v>
@@ -3077,7 +3092,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -3155,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ10">
         <v>0.19</v>
@@ -3283,7 +3298,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3489,7 +3504,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3567,10 +3582,10 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ12">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AR12">
         <v>1.76</v>
@@ -3695,7 +3710,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3773,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ13">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR13">
         <v>2.65</v>
@@ -3901,7 +3916,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3979,10 +3994,10 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ14">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4107,7 +4122,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4391,10 +4406,10 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AQ16">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4725,7 +4740,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4806,7 +4821,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ18">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AR18">
         <v>1.11</v>
@@ -5009,7 +5024,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ19">
         <v>0.19</v>
@@ -5218,7 +5233,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ20">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR20">
         <v>2.07</v>
@@ -5549,7 +5564,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5627,10 +5642,10 @@
         <v>2</v>
       </c>
       <c r="AP22">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AQ22">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR22">
         <v>0.74</v>
@@ -5755,7 +5770,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5836,7 +5851,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ23">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AR23">
         <v>2.56</v>
@@ -5961,7 +5976,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -6039,7 +6054,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ24">
         <v>0.93</v>
@@ -6167,7 +6182,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6451,7 +6466,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ26">
         <v>0.87</v>
@@ -6579,7 +6594,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6785,7 +6800,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6863,7 +6878,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ28">
         <v>0.73</v>
@@ -7197,7 +7212,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7278,7 +7293,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ30">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR30">
         <v>1.13</v>
@@ -7403,7 +7418,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7609,7 +7624,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7687,10 +7702,10 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ32">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AR32">
         <v>1.47</v>
@@ -7815,7 +7830,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -8021,7 +8036,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -8099,7 +8114,7 @@
         <v>0.67</v>
       </c>
       <c r="AP34">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AQ34">
         <v>0.73</v>
@@ -8227,7 +8242,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8305,10 +8320,10 @@
         <v>1.33</v>
       </c>
       <c r="AP35">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ35">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR35">
         <v>2.56</v>
@@ -8845,7 +8860,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8926,7 +8941,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ38">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AR38">
         <v>1.67</v>
@@ -9051,7 +9066,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -9257,7 +9272,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9335,10 +9350,10 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ40">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AR40">
         <v>1.38</v>
@@ -9463,7 +9478,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9544,7 +9559,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ41">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR41">
         <v>1.7</v>
@@ -9669,7 +9684,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9750,7 +9765,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ42">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AR42">
         <v>2.19</v>
@@ -9875,7 +9890,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9953,7 +9968,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ43">
         <v>1.94</v>
@@ -10287,7 +10302,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10365,10 +10380,10 @@
         <v>1.25</v>
       </c>
       <c r="AP45">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ45">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR45">
         <v>1.38</v>
@@ -10574,7 +10589,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ46">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR46">
         <v>1.97</v>
@@ -10777,7 +10792,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AQ47">
         <v>0.93</v>
@@ -10983,7 +10998,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ48">
         <v>0.87</v>
@@ -11189,7 +11204,7 @@
         <v>1.25</v>
       </c>
       <c r="AP49">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ49">
         <v>0.73</v>
@@ -11398,7 +11413,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ50">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AR50">
         <v>1.81</v>
@@ -11523,7 +11538,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -11810,7 +11825,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ52">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR52">
         <v>1.6</v>
@@ -12016,7 +12031,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ53">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AR53">
         <v>2.19</v>
@@ -12219,7 +12234,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ54">
         <v>1.4</v>
@@ -12347,7 +12362,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12425,7 +12440,7 @@
         <v>1.17</v>
       </c>
       <c r="AP55">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AQ55">
         <v>1.94</v>
@@ -12553,7 +12568,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12759,7 +12774,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12837,10 +12852,10 @@
         <v>1.6</v>
       </c>
       <c r="AP57">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ57">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR57">
         <v>1.88</v>
@@ -13249,7 +13264,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ59">
         <v>0.19</v>
@@ -13377,7 +13392,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13458,7 +13473,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ60">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AR60">
         <v>1.27</v>
@@ -13789,7 +13804,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13867,10 +13882,10 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ62">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AR62">
         <v>2.43</v>
@@ -13995,7 +14010,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -14201,7 +14216,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14279,7 +14294,7 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AQ64">
         <v>1.4</v>
@@ -14407,7 +14422,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14488,7 +14503,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ65">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR65">
         <v>1.14</v>
@@ -14613,7 +14628,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14819,7 +14834,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -15025,7 +15040,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -15231,7 +15246,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15309,10 +15324,10 @@
         <v>1.83</v>
       </c>
       <c r="AP69">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ69">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR69">
         <v>1.5</v>
@@ -15437,7 +15452,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15515,10 +15530,10 @@
         <v>2.57</v>
       </c>
       <c r="AP70">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ70">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AR70">
         <v>2.27</v>
@@ -15643,7 +15658,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15721,7 +15736,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AQ71">
         <v>0.87</v>
@@ -16339,10 +16354,10 @@
         <v>2.14</v>
       </c>
       <c r="AP74">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ74">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AR74">
         <v>1.81</v>
@@ -16673,7 +16688,7 @@
         <v>131</v>
       </c>
       <c r="P76" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16751,7 +16766,7 @@
         <v>1.44</v>
       </c>
       <c r="AP76">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ76">
         <v>1.94</v>
@@ -16960,7 +16975,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ77">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR77">
         <v>2</v>
@@ -17085,7 +17100,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17291,7 +17306,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q79">
         <v>1.53</v>
@@ -17372,7 +17387,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ79">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR79">
         <v>2.5</v>
@@ -17497,7 +17512,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17703,7 +17718,7 @@
         <v>81</v>
       </c>
       <c r="P81" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q81">
         <v>1.6</v>
@@ -17781,7 +17796,7 @@
         <v>0.86</v>
       </c>
       <c r="AP81">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ81">
         <v>0.87</v>
@@ -18115,7 +18130,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q83">
         <v>8.5</v>
@@ -18193,10 +18208,10 @@
         <v>2.63</v>
       </c>
       <c r="AP83">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AQ83">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AR83">
         <v>1.25</v>
@@ -18321,7 +18336,7 @@
         <v>81</v>
       </c>
       <c r="P84" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18399,7 +18414,7 @@
         <v>0.57</v>
       </c>
       <c r="AP84">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ84">
         <v>0.93</v>
@@ -18608,7 +18623,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ85">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR85">
         <v>1.88</v>
@@ -18733,7 +18748,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q86">
         <v>5.66</v>
@@ -18939,7 +18954,7 @@
         <v>137</v>
       </c>
       <c r="P87" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q87">
         <v>4.95</v>
@@ -19020,7 +19035,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ87">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AR87">
         <v>2.06</v>
@@ -19145,7 +19160,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q88">
         <v>2.77</v>
@@ -19351,7 +19366,7 @@
         <v>138</v>
       </c>
       <c r="P89" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -19429,10 +19444,10 @@
         <v>1.88</v>
       </c>
       <c r="AP89">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AQ89">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR89">
         <v>1.16</v>
@@ -19557,7 +19572,7 @@
         <v>122</v>
       </c>
       <c r="P90" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q90">
         <v>11</v>
@@ -19635,10 +19650,10 @@
         <v>2.67</v>
       </c>
       <c r="AP90">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ90">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AR90">
         <v>1.96</v>
@@ -19763,7 +19778,7 @@
         <v>139</v>
       </c>
       <c r="P91" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q91">
         <v>1.83</v>
@@ -19969,7 +19984,7 @@
         <v>140</v>
       </c>
       <c r="P92" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20047,7 +20062,7 @@
         <v>0.88</v>
       </c>
       <c r="AP92">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ92">
         <v>0.93</v>
@@ -20175,7 +20190,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q93">
         <v>2.3</v>
@@ -20459,7 +20474,7 @@
         <v>1.13</v>
       </c>
       <c r="AP94">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ94">
         <v>1.4</v>
@@ -20668,7 +20683,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ95">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR95">
         <v>2.41</v>
@@ -20874,7 +20889,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ96">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR96">
         <v>1.57</v>
@@ -21205,7 +21220,7 @@
         <v>145</v>
       </c>
       <c r="P98" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -21283,10 +21298,10 @@
         <v>1.78</v>
       </c>
       <c r="AP98">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ98">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AR98">
         <v>1.81</v>
@@ -21492,7 +21507,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ99">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR99">
         <v>2.12</v>
@@ -21617,7 +21632,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -21695,10 +21710,10 @@
         <v>1.7</v>
       </c>
       <c r="AP100">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AQ100">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AR100">
         <v>1.13</v>
@@ -22235,7 +22250,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q103">
         <v>1.91</v>
@@ -22313,7 +22328,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ103">
         <v>0.73</v>
@@ -22519,7 +22534,7 @@
         <v>0.2</v>
       </c>
       <c r="AP104">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ104">
         <v>0.19</v>
@@ -22728,7 +22743,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ105">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR105">
         <v>2.01</v>
@@ -23059,7 +23074,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q107">
         <v>1.06</v>
@@ -23265,7 +23280,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23343,10 +23358,10 @@
         <v>1.82</v>
       </c>
       <c r="AP108">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ108">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AR108">
         <v>1.62</v>
@@ -23471,7 +23486,7 @@
         <v>151</v>
       </c>
       <c r="P109" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q109">
         <v>2.2</v>
@@ -23677,7 +23692,7 @@
         <v>81</v>
       </c>
       <c r="P110" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23961,10 +23976,10 @@
         <v>2.7</v>
       </c>
       <c r="AP111">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AQ111">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AR111">
         <v>1.13</v>
@@ -24089,7 +24104,7 @@
         <v>81</v>
       </c>
       <c r="P112" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24167,7 +24182,7 @@
         <v>0.9</v>
       </c>
       <c r="AP112">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ112">
         <v>0.93</v>
@@ -24295,7 +24310,7 @@
         <v>152</v>
       </c>
       <c r="P113" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -24376,7 +24391,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ113">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AR113">
         <v>1.62</v>
@@ -24501,7 +24516,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q114">
         <v>2.1</v>
@@ -24788,7 +24803,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ115">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR115">
         <v>2.51</v>
@@ -24913,7 +24928,7 @@
         <v>155</v>
       </c>
       <c r="P116" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q116">
         <v>2.5</v>
@@ -24991,7 +25006,7 @@
         <v>0.9</v>
       </c>
       <c r="AP116">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ116">
         <v>0.73</v>
@@ -25119,7 +25134,7 @@
         <v>156</v>
       </c>
       <c r="P117" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q117">
         <v>1.91</v>
@@ -25403,7 +25418,7 @@
         <v>1.18</v>
       </c>
       <c r="AP118">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ118">
         <v>0.87</v>
@@ -25737,7 +25752,7 @@
         <v>81</v>
       </c>
       <c r="P120" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q120">
         <v>5.33</v>
@@ -25818,7 +25833,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ120">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR120">
         <v>1.53</v>
@@ -25943,7 +25958,7 @@
         <v>81</v>
       </c>
       <c r="P121" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -26149,7 +26164,7 @@
         <v>153</v>
       </c>
       <c r="P122" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q122">
         <v>6.41</v>
@@ -26355,7 +26370,7 @@
         <v>104</v>
       </c>
       <c r="P123" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26433,7 +26448,7 @@
         <v>0.91</v>
       </c>
       <c r="AP123">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AQ123">
         <v>0.73</v>
@@ -26642,7 +26657,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ124">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AR124">
         <v>2.48</v>
@@ -26767,7 +26782,7 @@
         <v>160</v>
       </c>
       <c r="P125" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -26848,7 +26863,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ125">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AR125">
         <v>1.88</v>
@@ -26973,7 +26988,7 @@
         <v>81</v>
       </c>
       <c r="P126" t="s">
-        <v>249</v>
+        <v>181</v>
       </c>
       <c r="Q126">
         <v>2.6</v>
@@ -27051,10 +27066,10 @@
         <v>0.83</v>
       </c>
       <c r="AP126">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ126">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR126">
         <v>1.74</v>
@@ -27179,7 +27194,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q127">
         <v>3.75</v>
@@ -27257,7 +27272,7 @@
         <v>1</v>
       </c>
       <c r="AP127">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AQ127">
         <v>0.93</v>
@@ -27385,7 +27400,7 @@
         <v>162</v>
       </c>
       <c r="P128" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q128">
         <v>2.63</v>
@@ -27669,7 +27684,7 @@
         <v>1.08</v>
       </c>
       <c r="AP129">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ129">
         <v>0.87</v>
@@ -27797,7 +27812,7 @@
         <v>163</v>
       </c>
       <c r="P130" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -28003,7 +28018,7 @@
         <v>164</v>
       </c>
       <c r="P131" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -28084,7 +28099,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ131">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR131">
         <v>1.43</v>
@@ -28209,7 +28224,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q132">
         <v>1.67</v>
@@ -28287,7 +28302,7 @@
         <v>0.23</v>
       </c>
       <c r="AP132">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ132">
         <v>0.19</v>
@@ -28415,7 +28430,7 @@
         <v>81</v>
       </c>
       <c r="P133" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q133">
         <v>4.75</v>
@@ -28496,7 +28511,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ133">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AR133">
         <v>1.5</v>
@@ -28621,7 +28636,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q134">
         <v>4.33</v>
@@ -28699,10 +28714,10 @@
         <v>1.69</v>
       </c>
       <c r="AP134">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ134">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR134">
         <v>1.79</v>
@@ -28827,7 +28842,7 @@
         <v>81</v>
       </c>
       <c r="P135" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q135">
         <v>10</v>
@@ -28908,7 +28923,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ135">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AR135">
         <v>1.44</v>
@@ -29033,7 +29048,7 @@
         <v>167</v>
       </c>
       <c r="P136" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q136">
         <v>7.5</v>
@@ -29111,7 +29126,7 @@
         <v>2</v>
       </c>
       <c r="AP136">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ136">
         <v>1.94</v>
@@ -29445,7 +29460,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -29526,7 +29541,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ138">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR138">
         <v>1.47</v>
@@ -29651,7 +29666,7 @@
         <v>170</v>
       </c>
       <c r="P139" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q139">
         <v>1.8</v>
@@ -29729,7 +29744,7 @@
         <v>1</v>
       </c>
       <c r="AP139">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ139">
         <v>0.93</v>
@@ -29857,7 +29872,7 @@
         <v>81</v>
       </c>
       <c r="P140" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q140">
         <v>4.5</v>
@@ -29935,7 +29950,7 @@
         <v>1.17</v>
       </c>
       <c r="AP140">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AQ140">
         <v>1.4</v>
@@ -30063,7 +30078,7 @@
         <v>171</v>
       </c>
       <c r="P141" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q141">
         <v>2.1</v>
@@ -30144,7 +30159,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ141">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AR141">
         <v>1.87</v>
@@ -30475,7 +30490,7 @@
         <v>173</v>
       </c>
       <c r="P143" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q143">
         <v>1.5</v>
@@ -30762,7 +30777,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ144">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR144">
         <v>2.06</v>
@@ -30887,7 +30902,7 @@
         <v>175</v>
       </c>
       <c r="P145" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -30965,7 +30980,7 @@
         <v>1.31</v>
       </c>
       <c r="AP145">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AQ145">
         <v>1.4</v>
@@ -31505,7 +31520,7 @@
         <v>178</v>
       </c>
       <c r="P148" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q148">
         <v>4.75</v>
@@ -31586,7 +31601,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ148">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AR148">
         <v>2.05</v>
@@ -31917,7 +31932,7 @@
         <v>81</v>
       </c>
       <c r="P150" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q150">
         <v>4.4</v>
@@ -31995,7 +32010,7 @@
         <v>1.87</v>
       </c>
       <c r="AP150">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ150">
         <v>1.94</v>
@@ -32279,6 +32294,830 @@
         <v>0</v>
       </c>
       <c r="BP151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7325283</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45569.875</v>
+      </c>
+      <c r="F152">
+        <v>31</v>
+      </c>
+      <c r="G152" t="s">
+        <v>79</v>
+      </c>
+      <c r="H152" t="s">
+        <v>70</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>4</v>
+      </c>
+      <c r="N152">
+        <v>4</v>
+      </c>
+      <c r="O152" t="s">
+        <v>81</v>
+      </c>
+      <c r="P152" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q152">
+        <v>9</v>
+      </c>
+      <c r="R152">
+        <v>2.6</v>
+      </c>
+      <c r="S152">
+        <v>1.62</v>
+      </c>
+      <c r="T152">
+        <v>1.25</v>
+      </c>
+      <c r="U152">
+        <v>3.6</v>
+      </c>
+      <c r="V152">
+        <v>2.2</v>
+      </c>
+      <c r="W152">
+        <v>1.6</v>
+      </c>
+      <c r="X152">
+        <v>5</v>
+      </c>
+      <c r="Y152">
+        <v>1.13</v>
+      </c>
+      <c r="Z152">
+        <v>8.5</v>
+      </c>
+      <c r="AA152">
+        <v>5.5</v>
+      </c>
+      <c r="AB152">
+        <v>1.25</v>
+      </c>
+      <c r="AC152">
+        <v>1.01</v>
+      </c>
+      <c r="AD152">
+        <v>17</v>
+      </c>
+      <c r="AE152">
+        <v>1.13</v>
+      </c>
+      <c r="AF152">
+        <v>5.2</v>
+      </c>
+      <c r="AG152">
+        <v>1.55</v>
+      </c>
+      <c r="AH152">
+        <v>2.28</v>
+      </c>
+      <c r="AI152">
+        <v>2</v>
+      </c>
+      <c r="AJ152">
+        <v>1.73</v>
+      </c>
+      <c r="AK152">
+        <v>3.75</v>
+      </c>
+      <c r="AL152">
+        <v>1.08</v>
+      </c>
+      <c r="AM152">
+        <v>1.04</v>
+      </c>
+      <c r="AN152">
+        <v>0.79</v>
+      </c>
+      <c r="AO152">
+        <v>1.53</v>
+      </c>
+      <c r="AP152">
+        <v>0.73</v>
+      </c>
+      <c r="AQ152">
+        <v>1.63</v>
+      </c>
+      <c r="AR152">
+        <v>1.29</v>
+      </c>
+      <c r="AS152">
+        <v>1.86</v>
+      </c>
+      <c r="AT152">
+        <v>3.15</v>
+      </c>
+      <c r="AU152">
+        <v>5</v>
+      </c>
+      <c r="AV152">
+        <v>7</v>
+      </c>
+      <c r="AW152">
+        <v>2</v>
+      </c>
+      <c r="AX152">
+        <v>8</v>
+      </c>
+      <c r="AY152">
+        <v>7</v>
+      </c>
+      <c r="AZ152">
+        <v>15</v>
+      </c>
+      <c r="BA152">
+        <v>4</v>
+      </c>
+      <c r="BB152">
+        <v>7</v>
+      </c>
+      <c r="BC152">
+        <v>11</v>
+      </c>
+      <c r="BD152">
+        <v>0</v>
+      </c>
+      <c r="BE152">
+        <v>0</v>
+      </c>
+      <c r="BF152">
+        <v>0</v>
+      </c>
+      <c r="BG152">
+        <v>0</v>
+      </c>
+      <c r="BH152">
+        <v>0</v>
+      </c>
+      <c r="BI152">
+        <v>0</v>
+      </c>
+      <c r="BJ152">
+        <v>0</v>
+      </c>
+      <c r="BK152">
+        <v>0</v>
+      </c>
+      <c r="BL152">
+        <v>0</v>
+      </c>
+      <c r="BM152">
+        <v>0</v>
+      </c>
+      <c r="BN152">
+        <v>0</v>
+      </c>
+      <c r="BO152">
+        <v>0</v>
+      </c>
+      <c r="BP152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7325284</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45569.875</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153" t="s">
+        <v>78</v>
+      </c>
+      <c r="H153" t="s">
+        <v>72</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>2</v>
+      </c>
+      <c r="K153">
+        <v>2</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>2</v>
+      </c>
+      <c r="N153">
+        <v>2</v>
+      </c>
+      <c r="O153" t="s">
+        <v>81</v>
+      </c>
+      <c r="P153" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q153">
+        <v>6</v>
+      </c>
+      <c r="R153">
+        <v>2.5</v>
+      </c>
+      <c r="S153">
+        <v>1.83</v>
+      </c>
+      <c r="T153">
+        <v>1.29</v>
+      </c>
+      <c r="U153">
+        <v>3.4</v>
+      </c>
+      <c r="V153">
+        <v>2.38</v>
+      </c>
+      <c r="W153">
+        <v>1.54</v>
+      </c>
+      <c r="X153">
+        <v>5.5</v>
+      </c>
+      <c r="Y153">
+        <v>1.13</v>
+      </c>
+      <c r="Z153">
+        <v>8</v>
+      </c>
+      <c r="AA153">
+        <v>5</v>
+      </c>
+      <c r="AB153">
+        <v>1.28</v>
+      </c>
+      <c r="AC153">
+        <v>1.01</v>
+      </c>
+      <c r="AD153">
+        <v>13</v>
+      </c>
+      <c r="AE153">
+        <v>1.14</v>
+      </c>
+      <c r="AF153">
+        <v>4.8</v>
+      </c>
+      <c r="AG153">
+        <v>1.63</v>
+      </c>
+      <c r="AH153">
+        <v>2.15</v>
+      </c>
+      <c r="AI153">
+        <v>1.67</v>
+      </c>
+      <c r="AJ153">
+        <v>2.1</v>
+      </c>
+      <c r="AK153">
+        <v>2.64</v>
+      </c>
+      <c r="AL153">
+        <v>1.15</v>
+      </c>
+      <c r="AM153">
+        <v>1.08</v>
+      </c>
+      <c r="AN153">
+        <v>1</v>
+      </c>
+      <c r="AO153">
+        <v>2.57</v>
+      </c>
+      <c r="AP153">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ153">
+        <v>2.6</v>
+      </c>
+      <c r="AR153">
+        <v>1.77</v>
+      </c>
+      <c r="AS153">
+        <v>2.35</v>
+      </c>
+      <c r="AT153">
+        <v>4.12</v>
+      </c>
+      <c r="AU153">
+        <v>8</v>
+      </c>
+      <c r="AV153">
+        <v>5</v>
+      </c>
+      <c r="AW153">
+        <v>2</v>
+      </c>
+      <c r="AX153">
+        <v>8</v>
+      </c>
+      <c r="AY153">
+        <v>10</v>
+      </c>
+      <c r="AZ153">
+        <v>13</v>
+      </c>
+      <c r="BA153">
+        <v>3</v>
+      </c>
+      <c r="BB153">
+        <v>10</v>
+      </c>
+      <c r="BC153">
+        <v>13</v>
+      </c>
+      <c r="BD153">
+        <v>0</v>
+      </c>
+      <c r="BE153">
+        <v>0</v>
+      </c>
+      <c r="BF153">
+        <v>0</v>
+      </c>
+      <c r="BG153">
+        <v>0</v>
+      </c>
+      <c r="BH153">
+        <v>0</v>
+      </c>
+      <c r="BI153">
+        <v>0</v>
+      </c>
+      <c r="BJ153">
+        <v>0</v>
+      </c>
+      <c r="BK153">
+        <v>0</v>
+      </c>
+      <c r="BL153">
+        <v>0</v>
+      </c>
+      <c r="BM153">
+        <v>0</v>
+      </c>
+      <c r="BN153">
+        <v>0</v>
+      </c>
+      <c r="BO153">
+        <v>0</v>
+      </c>
+      <c r="BP153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7325285</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45570.45833333334</v>
+      </c>
+      <c r="F154">
+        <v>31</v>
+      </c>
+      <c r="G154" t="s">
+        <v>73</v>
+      </c>
+      <c r="H154" t="s">
+        <v>75</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <v>2</v>
+      </c>
+      <c r="N154">
+        <v>3</v>
+      </c>
+      <c r="O154" t="s">
+        <v>180</v>
+      </c>
+      <c r="P154" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q154">
+        <v>3</v>
+      </c>
+      <c r="R154">
+        <v>2.4</v>
+      </c>
+      <c r="S154">
+        <v>2.75</v>
+      </c>
+      <c r="T154">
+        <v>1.28</v>
+      </c>
+      <c r="U154">
+        <v>3.46</v>
+      </c>
+      <c r="V154">
+        <v>2.31</v>
+      </c>
+      <c r="W154">
+        <v>1.57</v>
+      </c>
+      <c r="X154">
+        <v>5.25</v>
+      </c>
+      <c r="Y154">
+        <v>1.14</v>
+      </c>
+      <c r="Z154">
+        <v>3.1</v>
+      </c>
+      <c r="AA154">
+        <v>3.5</v>
+      </c>
+      <c r="AB154">
+        <v>1.95</v>
+      </c>
+      <c r="AC154">
+        <v>1.01</v>
+      </c>
+      <c r="AD154">
+        <v>13</v>
+      </c>
+      <c r="AE154">
+        <v>1.14</v>
+      </c>
+      <c r="AF154">
+        <v>4.8</v>
+      </c>
+      <c r="AG154">
+        <v>1.55</v>
+      </c>
+      <c r="AH154">
+        <v>2.2</v>
+      </c>
+      <c r="AI154">
+        <v>1.44</v>
+      </c>
+      <c r="AJ154">
+        <v>2.63</v>
+      </c>
+      <c r="AK154">
+        <v>1.5</v>
+      </c>
+      <c r="AL154">
+        <v>1.24</v>
+      </c>
+      <c r="AM154">
+        <v>1.43</v>
+      </c>
+      <c r="AN154">
+        <v>1.13</v>
+      </c>
+      <c r="AO154">
+        <v>0.93</v>
+      </c>
+      <c r="AP154">
+        <v>1.06</v>
+      </c>
+      <c r="AQ154">
+        <v>1.06</v>
+      </c>
+      <c r="AR154">
+        <v>1.53</v>
+      </c>
+      <c r="AS154">
+        <v>1.64</v>
+      </c>
+      <c r="AT154">
+        <v>3.17</v>
+      </c>
+      <c r="AU154">
+        <v>9</v>
+      </c>
+      <c r="AV154">
+        <v>8</v>
+      </c>
+      <c r="AW154">
+        <v>11</v>
+      </c>
+      <c r="AX154">
+        <v>7</v>
+      </c>
+      <c r="AY154">
+        <v>20</v>
+      </c>
+      <c r="AZ154">
+        <v>15</v>
+      </c>
+      <c r="BA154">
+        <v>1</v>
+      </c>
+      <c r="BB154">
+        <v>7</v>
+      </c>
+      <c r="BC154">
+        <v>8</v>
+      </c>
+      <c r="BD154">
+        <v>0</v>
+      </c>
+      <c r="BE154">
+        <v>0</v>
+      </c>
+      <c r="BF154">
+        <v>0</v>
+      </c>
+      <c r="BG154">
+        <v>0</v>
+      </c>
+      <c r="BH154">
+        <v>0</v>
+      </c>
+      <c r="BI154">
+        <v>0</v>
+      </c>
+      <c r="BJ154">
+        <v>0</v>
+      </c>
+      <c r="BK154">
+        <v>0</v>
+      </c>
+      <c r="BL154">
+        <v>0</v>
+      </c>
+      <c r="BM154">
+        <v>0</v>
+      </c>
+      <c r="BN154">
+        <v>0</v>
+      </c>
+      <c r="BO154">
+        <v>0</v>
+      </c>
+      <c r="BP154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>7325286</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45570.875</v>
+      </c>
+      <c r="F155">
+        <v>31</v>
+      </c>
+      <c r="G155" t="s">
+        <v>77</v>
+      </c>
+      <c r="H155" t="s">
+        <v>76</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+      <c r="N155">
+        <v>2</v>
+      </c>
+      <c r="O155" t="s">
+        <v>181</v>
+      </c>
+      <c r="P155" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q155">
+        <v>3.1</v>
+      </c>
+      <c r="R155">
+        <v>2.3</v>
+      </c>
+      <c r="S155">
+        <v>2.75</v>
+      </c>
+      <c r="T155">
+        <v>1.3</v>
+      </c>
+      <c r="U155">
+        <v>3.32</v>
+      </c>
+      <c r="V155">
+        <v>2.4</v>
+      </c>
+      <c r="W155">
+        <v>1.53</v>
+      </c>
+      <c r="X155">
+        <v>5.6</v>
+      </c>
+      <c r="Y155">
+        <v>1.12</v>
+      </c>
+      <c r="Z155">
+        <v>2.47</v>
+      </c>
+      <c r="AA155">
+        <v>3.67</v>
+      </c>
+      <c r="AB155">
+        <v>2.55</v>
+      </c>
+      <c r="AC155">
+        <v>1.01</v>
+      </c>
+      <c r="AD155">
+        <v>11</v>
+      </c>
+      <c r="AE155">
+        <v>1.15</v>
+      </c>
+      <c r="AF155">
+        <v>4.05</v>
+      </c>
+      <c r="AG155">
+        <v>1.55</v>
+      </c>
+      <c r="AH155">
+        <v>2.3</v>
+      </c>
+      <c r="AI155">
+        <v>1.51</v>
+      </c>
+      <c r="AJ155">
+        <v>2.48</v>
+      </c>
+      <c r="AK155">
+        <v>1.53</v>
+      </c>
+      <c r="AL155">
+        <v>1.24</v>
+      </c>
+      <c r="AM155">
+        <v>1.4</v>
+      </c>
+      <c r="AN155">
+        <v>1.79</v>
+      </c>
+      <c r="AO155">
+        <v>1.93</v>
+      </c>
+      <c r="AP155">
+        <v>1.73</v>
+      </c>
+      <c r="AQ155">
+        <v>1.88</v>
+      </c>
+      <c r="AR155">
+        <v>2.29</v>
+      </c>
+      <c r="AS155">
+        <v>1.77</v>
+      </c>
+      <c r="AT155">
+        <v>4.06</v>
+      </c>
+      <c r="AU155">
+        <v>0</v>
+      </c>
+      <c r="AV155">
+        <v>3</v>
+      </c>
+      <c r="AW155">
+        <v>4</v>
+      </c>
+      <c r="AX155">
+        <v>1</v>
+      </c>
+      <c r="AY155">
+        <v>4</v>
+      </c>
+      <c r="AZ155">
+        <v>4</v>
+      </c>
+      <c r="BA155">
+        <v>1</v>
+      </c>
+      <c r="BB155">
+        <v>1</v>
+      </c>
+      <c r="BC155">
+        <v>2</v>
+      </c>
+      <c r="BD155">
+        <v>0</v>
+      </c>
+      <c r="BE155">
+        <v>0</v>
+      </c>
+      <c r="BF155">
+        <v>0</v>
+      </c>
+      <c r="BG155">
+        <v>0</v>
+      </c>
+      <c r="BH155">
+        <v>0</v>
+      </c>
+      <c r="BI155">
+        <v>0</v>
+      </c>
+      <c r="BJ155">
+        <v>0</v>
+      </c>
+      <c r="BK155">
+        <v>0</v>
+      </c>
+      <c r="BL155">
+        <v>0</v>
+      </c>
+      <c r="BM155">
+        <v>0</v>
+      </c>
+      <c r="BN155">
+        <v>0</v>
+      </c>
+      <c r="BO155">
+        <v>0</v>
+      </c>
+      <c r="BP155">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="271">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -550,16 +550,19 @@
     <t>['47', '60', '75', '90+1']</t>
   </si>
   <si>
-    <t>['14', '67']</t>
+    <t>['28', '42', '46']</t>
   </si>
   <si>
-    <t>['28', '42', '46']</t>
+    <t>['14', '67']</t>
   </si>
   <si>
     <t>['71']</t>
   </si>
   <si>
     <t>['25']</t>
+  </si>
+  <si>
+    <t>['41', '56', '70']</t>
   </si>
   <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
@@ -808,10 +811,10 @@
     <t>['6', '31', '70']</t>
   </si>
   <si>
-    <t>['22', '25', '44']</t>
+    <t>['70', '77', '85']</t>
   </si>
   <si>
-    <t>['70', '77', '85']</t>
+    <t>['22', '25', '44']</t>
   </si>
   <si>
     <t>['3', '52', '63', '70']</t>
@@ -1185,7 +1188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP155"/>
+  <dimension ref="A1:BP156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1650,7 +1653,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -2062,7 +2065,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -2268,7 +2271,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2346,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ6">
         <v>1.94</v>
@@ -2680,7 +2683,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -3092,7 +3095,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -3298,7 +3301,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3504,7 +3507,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3710,7 +3713,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3916,7 +3919,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -4122,7 +4125,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4200,10 +4203,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ15">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR15">
         <v>0.5</v>
@@ -4740,7 +4743,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4818,7 +4821,7 @@
         <v>2</v>
       </c>
       <c r="AP18">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ18">
         <v>1.88</v>
@@ -5564,7 +5567,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5770,7 +5773,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5976,7 +5979,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -6057,7 +6060,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ24">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR24">
         <v>2.63</v>
@@ -6182,7 +6185,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6594,7 +6597,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6675,7 +6678,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ27">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR27">
         <v>2.19</v>
@@ -6800,7 +6803,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -7212,7 +7215,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7290,7 +7293,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ30">
         <v>1.63</v>
@@ -7418,7 +7421,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7624,7 +7627,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7830,7 +7833,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -8036,7 +8039,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -8242,7 +8245,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8860,7 +8863,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -9066,7 +9069,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -9144,7 +9147,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ39">
         <v>0.19</v>
@@ -9272,7 +9275,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9478,7 +9481,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9684,7 +9687,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9890,7 +9893,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -10302,7 +10305,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10795,7 +10798,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ47">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR47">
         <v>1.09</v>
@@ -11538,7 +11541,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -12362,7 +12365,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12568,7 +12571,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12774,7 +12777,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13061,7 +13064,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ58">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR58">
         <v>1.96</v>
@@ -13392,7 +13395,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13470,7 +13473,7 @@
         <v>2.5</v>
       </c>
       <c r="AP60">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ60">
         <v>2.6</v>
@@ -13679,7 +13682,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ61">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR61">
         <v>1.78</v>
@@ -13804,7 +13807,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -14010,7 +14013,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -14216,7 +14219,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14422,7 +14425,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14500,7 +14503,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ65">
         <v>1.06</v>
@@ -14628,7 +14631,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14834,7 +14837,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -15040,7 +15043,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -15246,7 +15249,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15452,7 +15455,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15658,7 +15661,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -16151,7 +16154,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ73">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR73">
         <v>2.41</v>
@@ -16688,7 +16691,7 @@
         <v>131</v>
       </c>
       <c r="P76" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -17100,7 +17103,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17178,7 +17181,7 @@
         <v>0.86</v>
       </c>
       <c r="AP78">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ78">
         <v>1.4</v>
@@ -17306,7 +17309,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q79">
         <v>1.53</v>
@@ -17512,7 +17515,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17718,7 +17721,7 @@
         <v>81</v>
       </c>
       <c r="P81" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q81">
         <v>1.6</v>
@@ -18130,7 +18133,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q83">
         <v>8.5</v>
@@ -18336,7 +18339,7 @@
         <v>81</v>
       </c>
       <c r="P84" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18417,7 +18420,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ84">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR84">
         <v>1.8</v>
@@ -18748,7 +18751,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q86">
         <v>5.66</v>
@@ -18954,7 +18957,7 @@
         <v>137</v>
       </c>
       <c r="P87" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q87">
         <v>4.95</v>
@@ -19160,7 +19163,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q88">
         <v>2.77</v>
@@ -19238,7 +19241,7 @@
         <v>0.75</v>
       </c>
       <c r="AP88">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ88">
         <v>0.73</v>
@@ -19366,7 +19369,7 @@
         <v>138</v>
       </c>
       <c r="P89" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -19572,7 +19575,7 @@
         <v>122</v>
       </c>
       <c r="P90" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q90">
         <v>11</v>
@@ -19778,7 +19781,7 @@
         <v>139</v>
       </c>
       <c r="P91" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q91">
         <v>1.83</v>
@@ -19984,7 +19987,7 @@
         <v>140</v>
       </c>
       <c r="P92" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20065,7 +20068,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ92">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR92">
         <v>1.58</v>
@@ -20190,7 +20193,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q93">
         <v>2.3</v>
@@ -21092,7 +21095,7 @@
         <v>0.22</v>
       </c>
       <c r="AP97">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ97">
         <v>0.19</v>
@@ -21220,7 +21223,7 @@
         <v>145</v>
       </c>
       <c r="P98" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -21632,7 +21635,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -21916,7 +21919,7 @@
         <v>1.11</v>
       </c>
       <c r="AP101">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ101">
         <v>1.4</v>
@@ -22125,7 +22128,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ102">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR102">
         <v>2.37</v>
@@ -22250,7 +22253,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q103">
         <v>1.91</v>
@@ -23074,7 +23077,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q107">
         <v>1.06</v>
@@ -23280,7 +23283,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23486,7 +23489,7 @@
         <v>151</v>
       </c>
       <c r="P109" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q109">
         <v>2.2</v>
@@ -23692,7 +23695,7 @@
         <v>81</v>
       </c>
       <c r="P110" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24104,7 +24107,7 @@
         <v>81</v>
       </c>
       <c r="P112" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24185,7 +24188,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ112">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR112">
         <v>1.62</v>
@@ -24310,7 +24313,7 @@
         <v>152</v>
       </c>
       <c r="P113" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -24388,7 +24391,7 @@
         <v>2.73</v>
       </c>
       <c r="AP113">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ113">
         <v>2.6</v>
@@ -24516,7 +24519,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q114">
         <v>2.1</v>
@@ -24928,7 +24931,7 @@
         <v>155</v>
       </c>
       <c r="P116" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q116">
         <v>2.5</v>
@@ -25134,7 +25137,7 @@
         <v>156</v>
       </c>
       <c r="P117" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q117">
         <v>1.91</v>
@@ -25215,7 +25218,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ117">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR117">
         <v>1.95</v>
@@ -25752,7 +25755,7 @@
         <v>81</v>
       </c>
       <c r="P120" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q120">
         <v>5.33</v>
@@ -25830,7 +25833,7 @@
         <v>1.45</v>
       </c>
       <c r="AP120">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ120">
         <v>1.63</v>
@@ -25958,7 +25961,7 @@
         <v>81</v>
       </c>
       <c r="P121" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -26164,7 +26167,7 @@
         <v>153</v>
       </c>
       <c r="P122" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q122">
         <v>6.41</v>
@@ -26370,7 +26373,7 @@
         <v>104</v>
       </c>
       <c r="P123" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26782,7 +26785,7 @@
         <v>160</v>
       </c>
       <c r="P125" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -27194,7 +27197,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q127">
         <v>3.75</v>
@@ -27275,7 +27278,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ127">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR127">
         <v>1.18</v>
@@ -27400,7 +27403,7 @@
         <v>162</v>
       </c>
       <c r="P128" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q128">
         <v>2.63</v>
@@ -27812,7 +27815,7 @@
         <v>163</v>
       </c>
       <c r="P130" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -28018,7 +28021,7 @@
         <v>164</v>
       </c>
       <c r="P131" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -28224,7 +28227,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q132">
         <v>1.67</v>
@@ -28430,7 +28433,7 @@
         <v>81</v>
       </c>
       <c r="P133" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q133">
         <v>4.75</v>
@@ -28508,7 +28511,7 @@
         <v>1.77</v>
       </c>
       <c r="AP133">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ133">
         <v>1.88</v>
@@ -28636,7 +28639,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q134">
         <v>4.33</v>
@@ -28842,7 +28845,7 @@
         <v>81</v>
       </c>
       <c r="P135" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q135">
         <v>10</v>
@@ -29048,7 +29051,7 @@
         <v>167</v>
       </c>
       <c r="P136" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q136">
         <v>7.5</v>
@@ -29460,7 +29463,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -29538,7 +29541,7 @@
         <v>1</v>
       </c>
       <c r="AP138">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ138">
         <v>1.06</v>
@@ -29666,7 +29669,7 @@
         <v>170</v>
       </c>
       <c r="P139" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q139">
         <v>1.8</v>
@@ -29747,7 +29750,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ139">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR139">
         <v>2.3</v>
@@ -29872,7 +29875,7 @@
         <v>81</v>
       </c>
       <c r="P140" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q140">
         <v>4.5</v>
@@ -30078,7 +30081,7 @@
         <v>171</v>
       </c>
       <c r="P141" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q141">
         <v>2.1</v>
@@ -30251,7 +30254,7 @@
         <v>69</v>
       </c>
       <c r="E142" s="2">
-        <v>45556.875</v>
+        <v>45557.35416666666</v>
       </c>
       <c r="F142">
         <v>29</v>
@@ -30377,22 +30380,22 @@
         <v>3.45</v>
       </c>
       <c r="AU142">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AV142">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AW142">
         <v>11</v>
       </c>
       <c r="AX142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY142">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ142">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA142">
         <v>7</v>
@@ -30457,7 +30460,7 @@
         <v>69</v>
       </c>
       <c r="E143" s="2">
-        <v>45556.875</v>
+        <v>45557.54166666666</v>
       </c>
       <c r="F143">
         <v>29</v>
@@ -30490,7 +30493,7 @@
         <v>173</v>
       </c>
       <c r="P143" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q143">
         <v>1.5</v>
@@ -30583,22 +30586,22 @@
         <v>3.85</v>
       </c>
       <c r="AU143">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AV143">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW143">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AX143">
         <v>1</v>
       </c>
       <c r="AY143">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AZ143">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA143">
         <v>8</v>
@@ -30663,7 +30666,7 @@
         <v>69</v>
       </c>
       <c r="E144" s="2">
-        <v>45559.875</v>
+        <v>45560.45833333334</v>
       </c>
       <c r="F144">
         <v>23</v>
@@ -30780,31 +30783,31 @@
         <v>1.63</v>
       </c>
       <c r="AR144">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="AS144">
         <v>1.86</v>
       </c>
       <c r="AT144">
-        <v>3.92</v>
+        <v>3.96</v>
       </c>
       <c r="AU144">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV144">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW144">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX144">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AY144">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ144">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA144">
         <v>6</v>
@@ -30869,7 +30872,7 @@
         <v>69</v>
       </c>
       <c r="E145" s="2">
-        <v>45559.875</v>
+        <v>45560.45833333334</v>
       </c>
       <c r="F145">
         <v>23</v>
@@ -30902,7 +30905,7 @@
         <v>175</v>
       </c>
       <c r="P145" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -30995,22 +30998,22 @@
         <v>4.09</v>
       </c>
       <c r="AU145">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV145">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW145">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AX145">
         <v>0</v>
       </c>
       <c r="AY145">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ145">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BA145">
         <v>7</v>
@@ -31075,7 +31078,7 @@
         <v>69</v>
       </c>
       <c r="E146" s="2">
-        <v>45561.875</v>
+        <v>45562.54166666666</v>
       </c>
       <c r="F146">
         <v>30</v>
@@ -31192,13 +31195,13 @@
         <v>0.73</v>
       </c>
       <c r="AR146">
-        <v>2.46</v>
+        <v>2.47</v>
       </c>
       <c r="AS146">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="AT146">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="AU146">
         <v>5</v>
@@ -31281,10 +31284,10 @@
         <v>69</v>
       </c>
       <c r="E147" s="2">
-        <v>45562.875</v>
+        <v>45563.35416666666</v>
       </c>
       <c r="F147">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G147" t="s">
         <v>71</v>
@@ -31407,22 +31410,22 @@
         <v>2.49</v>
       </c>
       <c r="AU147">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AV147">
+        <v>10</v>
+      </c>
+      <c r="AW147">
         <v>8</v>
       </c>
-      <c r="AW147">
-        <v>6</v>
-      </c>
       <c r="AX147">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY147">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ147">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA147">
         <v>3</v>
@@ -31478,7 +31481,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>7325280</v>
+        <v>7325281</v>
       </c>
       <c r="C148" t="s">
         <v>68</v>
@@ -31487,157 +31490,157 @@
         <v>69</v>
       </c>
       <c r="E148" s="2">
-        <v>45563.875</v>
+        <v>45564.35416666666</v>
       </c>
       <c r="F148">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G148" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H148" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>2</v>
+      </c>
+      <c r="L148">
         <v>3</v>
       </c>
-      <c r="K148">
-        <v>4</v>
-      </c>
-      <c r="L148">
-        <v>2</v>
-      </c>
       <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
         <v>3</v>
-      </c>
-      <c r="N148">
-        <v>5</v>
       </c>
       <c r="O148" t="s">
         <v>178</v>
       </c>
       <c r="P148" t="s">
-        <v>264</v>
+        <v>81</v>
       </c>
       <c r="Q148">
-        <v>4.75</v>
+        <v>1.73</v>
       </c>
       <c r="R148">
-        <v>2.36</v>
+        <v>2.6</v>
       </c>
       <c r="S148">
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="T148">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="U148">
-        <v>3.42</v>
+        <v>3.54</v>
       </c>
       <c r="V148">
-        <v>2.36</v>
+        <v>2.29</v>
       </c>
       <c r="W148">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="X148">
-        <v>5.4</v>
+        <v>5.15</v>
       </c>
       <c r="Y148">
+        <v>1.14</v>
+      </c>
+      <c r="Z148">
+        <v>1.31</v>
+      </c>
+      <c r="AA148">
+        <v>5.1</v>
+      </c>
+      <c r="AB148">
+        <v>8.1</v>
+      </c>
+      <c r="AC148">
+        <v>1.01</v>
+      </c>
+      <c r="AD148">
+        <v>17</v>
+      </c>
+      <c r="AE148">
         <v>1.13</v>
       </c>
-      <c r="Z148">
-        <v>4.88</v>
-      </c>
-      <c r="AA148">
-        <v>4.1</v>
-      </c>
-      <c r="AB148">
-        <v>1.58</v>
-      </c>
-      <c r="AC148">
+      <c r="AF148">
+        <v>5.2</v>
+      </c>
+      <c r="AG148">
+        <v>1.52</v>
+      </c>
+      <c r="AH148">
+        <v>2.38</v>
+      </c>
+      <c r="AI148">
+        <v>1.91</v>
+      </c>
+      <c r="AJ148">
+        <v>1.8</v>
+      </c>
+      <c r="AK148">
         <v>1.02</v>
       </c>
-      <c r="AD148">
+      <c r="AL148">
+        <v>1.1</v>
+      </c>
+      <c r="AM148">
+        <v>3.46</v>
+      </c>
+      <c r="AN148">
+        <v>2.29</v>
+      </c>
+      <c r="AO148">
+        <v>0.93</v>
+      </c>
+      <c r="AP148">
+        <v>2.33</v>
+      </c>
+      <c r="AQ148">
+        <v>0.87</v>
+      </c>
+      <c r="AR148">
+        <v>1.91</v>
+      </c>
+      <c r="AS148">
+        <v>1.34</v>
+      </c>
+      <c r="AT148">
+        <v>3.25</v>
+      </c>
+      <c r="AU148">
+        <v>6</v>
+      </c>
+      <c r="AV148">
+        <v>3</v>
+      </c>
+      <c r="AW148">
+        <v>5</v>
+      </c>
+      <c r="AX148">
+        <v>10</v>
+      </c>
+      <c r="AY148">
+        <v>11</v>
+      </c>
+      <c r="AZ148">
         <v>13</v>
-      </c>
-      <c r="AE148">
-        <v>1.14</v>
-      </c>
-      <c r="AF148">
-        <v>4.2</v>
-      </c>
-      <c r="AG148">
-        <v>1.63</v>
-      </c>
-      <c r="AH148">
-        <v>2.15</v>
-      </c>
-      <c r="AI148">
-        <v>1.61</v>
-      </c>
-      <c r="AJ148">
-        <v>2.12</v>
-      </c>
-      <c r="AK148">
-        <v>2.15</v>
-      </c>
-      <c r="AL148">
-        <v>1.18</v>
-      </c>
-      <c r="AM148">
-        <v>1.12</v>
-      </c>
-      <c r="AN148">
-        <v>1.29</v>
-      </c>
-      <c r="AO148">
-        <v>1.86</v>
-      </c>
-      <c r="AP148">
-        <v>1.2</v>
-      </c>
-      <c r="AQ148">
-        <v>1.88</v>
-      </c>
-      <c r="AR148">
-        <v>2.05</v>
-      </c>
-      <c r="AS148">
-        <v>1.77</v>
-      </c>
-      <c r="AT148">
-        <v>3.82</v>
-      </c>
-      <c r="AU148">
-        <v>9</v>
-      </c>
-      <c r="AV148">
-        <v>5</v>
-      </c>
-      <c r="AW148">
-        <v>6</v>
-      </c>
-      <c r="AX148">
-        <v>9</v>
-      </c>
-      <c r="AY148">
-        <v>15</v>
-      </c>
-      <c r="AZ148">
-        <v>14</v>
       </c>
       <c r="BA148">
         <v>6</v>
       </c>
       <c r="BB148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC148">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD148">
         <v>0</v>
@@ -31684,7 +31687,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>7325281</v>
+        <v>7325282</v>
       </c>
       <c r="C149" t="s">
         <v>68</v>
@@ -31693,88 +31696,88 @@
         <v>69</v>
       </c>
       <c r="E149" s="2">
-        <v>45563.875</v>
+        <v>45564.45833333334</v>
       </c>
       <c r="F149">
         <v>30</v>
       </c>
       <c r="G149" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H149" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I149">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J149">
         <v>0</v>
       </c>
       <c r="K149">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
         <v>3</v>
-      </c>
-      <c r="M149">
-        <v>0</v>
       </c>
       <c r="N149">
         <v>3</v>
       </c>
       <c r="O149" t="s">
-        <v>179</v>
+        <v>81</v>
       </c>
       <c r="P149" t="s">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="Q149">
-        <v>1.73</v>
+        <v>4.4</v>
       </c>
       <c r="R149">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="S149">
-        <v>7</v>
+        <v>2.08</v>
       </c>
       <c r="T149">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="U149">
-        <v>3.54</v>
+        <v>3.7</v>
       </c>
       <c r="V149">
-        <v>2.29</v>
+        <v>2.16</v>
       </c>
       <c r="W149">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="X149">
-        <v>5.15</v>
+        <v>4.75</v>
       </c>
       <c r="Y149">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="Z149">
-        <v>1.31</v>
+        <v>4.39</v>
       </c>
       <c r="AA149">
-        <v>5.1</v>
+        <v>4.15</v>
       </c>
       <c r="AB149">
-        <v>8.1</v>
+        <v>1.63</v>
       </c>
       <c r="AC149">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AD149">
         <v>17</v>
       </c>
       <c r="AE149">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="AF149">
-        <v>5.2</v>
+        <v>4.85</v>
       </c>
       <c r="AG149">
         <v>1.52</v>
@@ -31783,64 +31786,64 @@
         <v>2.38</v>
       </c>
       <c r="AI149">
-        <v>1.91</v>
+        <v>1.5</v>
       </c>
       <c r="AJ149">
-        <v>1.8</v>
+        <v>2.34</v>
       </c>
       <c r="AK149">
-        <v>1.02</v>
+        <v>2.14</v>
       </c>
       <c r="AL149">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="AM149">
-        <v>3.46</v>
+        <v>1.22</v>
       </c>
       <c r="AN149">
-        <v>2.29</v>
+        <v>1.07</v>
       </c>
       <c r="AO149">
-        <v>0.93</v>
+        <v>1.87</v>
       </c>
       <c r="AP149">
-        <v>2.33</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ149">
-        <v>0.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR149">
-        <v>1.91</v>
+        <v>1.77</v>
       </c>
       <c r="AS149">
-        <v>1.39</v>
+        <v>1.93</v>
       </c>
       <c r="AT149">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="AU149">
+        <v>3</v>
+      </c>
+      <c r="AV149">
+        <v>7</v>
+      </c>
+      <c r="AW149">
+        <v>7</v>
+      </c>
+      <c r="AX149">
+        <v>8</v>
+      </c>
+      <c r="AY149">
+        <v>10</v>
+      </c>
+      <c r="AZ149">
+        <v>15</v>
+      </c>
+      <c r="BA149">
+        <v>2</v>
+      </c>
+      <c r="BB149">
         <v>4</v>
-      </c>
-      <c r="AV149">
-        <v>4</v>
-      </c>
-      <c r="AW149">
-        <v>5</v>
-      </c>
-      <c r="AX149">
-        <v>6</v>
-      </c>
-      <c r="AY149">
-        <v>9</v>
-      </c>
-      <c r="AZ149">
-        <v>10</v>
-      </c>
-      <c r="BA149">
-        <v>5</v>
-      </c>
-      <c r="BB149">
-        <v>1</v>
       </c>
       <c r="BC149">
         <v>6</v>
@@ -31890,7 +31893,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>7325282</v>
+        <v>7325280</v>
       </c>
       <c r="C150" t="s">
         <v>68</v>
@@ -31899,157 +31902,157 @@
         <v>69</v>
       </c>
       <c r="E150" s="2">
-        <v>45563.875</v>
+        <v>45564.54166666666</v>
       </c>
       <c r="F150">
         <v>30</v>
       </c>
       <c r="G150" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H150" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K150">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L150">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M150">
         <v>3</v>
       </c>
       <c r="N150">
+        <v>5</v>
+      </c>
+      <c r="O150" t="s">
+        <v>179</v>
+      </c>
+      <c r="P150" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q150">
+        <v>4.75</v>
+      </c>
+      <c r="R150">
+        <v>2.36</v>
+      </c>
+      <c r="S150">
+        <v>2.1</v>
+      </c>
+      <c r="T150">
+        <v>1.28</v>
+      </c>
+      <c r="U150">
+        <v>3.42</v>
+      </c>
+      <c r="V150">
+        <v>2.36</v>
+      </c>
+      <c r="W150">
+        <v>1.55</v>
+      </c>
+      <c r="X150">
+        <v>5.4</v>
+      </c>
+      <c r="Y150">
+        <v>1.13</v>
+      </c>
+      <c r="Z150">
+        <v>4.88</v>
+      </c>
+      <c r="AA150">
+        <v>4.1</v>
+      </c>
+      <c r="AB150">
+        <v>1.58</v>
+      </c>
+      <c r="AC150">
+        <v>1.02</v>
+      </c>
+      <c r="AD150">
+        <v>13</v>
+      </c>
+      <c r="AE150">
+        <v>1.14</v>
+      </c>
+      <c r="AF150">
+        <v>4.2</v>
+      </c>
+      <c r="AG150">
+        <v>1.63</v>
+      </c>
+      <c r="AH150">
+        <v>2.15</v>
+      </c>
+      <c r="AI150">
+        <v>1.61</v>
+      </c>
+      <c r="AJ150">
+        <v>2.12</v>
+      </c>
+      <c r="AK150">
+        <v>2.15</v>
+      </c>
+      <c r="AL150">
+        <v>1.18</v>
+      </c>
+      <c r="AM150">
+        <v>1.12</v>
+      </c>
+      <c r="AN150">
+        <v>1.29</v>
+      </c>
+      <c r="AO150">
+        <v>1.86</v>
+      </c>
+      <c r="AP150">
+        <v>1.2</v>
+      </c>
+      <c r="AQ150">
+        <v>1.88</v>
+      </c>
+      <c r="AR150">
+        <v>2.05</v>
+      </c>
+      <c r="AS150">
+        <v>1.77</v>
+      </c>
+      <c r="AT150">
+        <v>3.82</v>
+      </c>
+      <c r="AU150">
+        <v>11</v>
+      </c>
+      <c r="AV150">
+        <v>8</v>
+      </c>
+      <c r="AW150">
+        <v>13</v>
+      </c>
+      <c r="AX150">
+        <v>10</v>
+      </c>
+      <c r="AY150">
+        <v>24</v>
+      </c>
+      <c r="AZ150">
+        <v>18</v>
+      </c>
+      <c r="BA150">
+        <v>6</v>
+      </c>
+      <c r="BB150">
         <v>3</v>
       </c>
-      <c r="O150" t="s">
-        <v>81</v>
-      </c>
-      <c r="P150" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q150">
-        <v>4.4</v>
-      </c>
-      <c r="R150">
-        <v>2.45</v>
-      </c>
-      <c r="S150">
-        <v>2.08</v>
-      </c>
-      <c r="T150">
-        <v>1.25</v>
-      </c>
-      <c r="U150">
-        <v>3.7</v>
-      </c>
-      <c r="V150">
-        <v>2.16</v>
-      </c>
-      <c r="W150">
-        <v>1.65</v>
-      </c>
-      <c r="X150">
-        <v>4.75</v>
-      </c>
-      <c r="Y150">
-        <v>1.16</v>
-      </c>
-      <c r="Z150">
-        <v>4.39</v>
-      </c>
-      <c r="AA150">
-        <v>4.15</v>
-      </c>
-      <c r="AB150">
-        <v>1.63</v>
-      </c>
-      <c r="AC150">
-        <v>0</v>
-      </c>
-      <c r="AD150">
-        <v>17</v>
-      </c>
-      <c r="AE150">
-        <v>1.1</v>
-      </c>
-      <c r="AF150">
-        <v>4.85</v>
-      </c>
-      <c r="AG150">
-        <v>1.52</v>
-      </c>
-      <c r="AH150">
-        <v>2.38</v>
-      </c>
-      <c r="AI150">
-        <v>1.5</v>
-      </c>
-      <c r="AJ150">
-        <v>2.34</v>
-      </c>
-      <c r="AK150">
-        <v>2.14</v>
-      </c>
-      <c r="AL150">
-        <v>1.19</v>
-      </c>
-      <c r="AM150">
-        <v>1.22</v>
-      </c>
-      <c r="AN150">
-        <v>1.07</v>
-      </c>
-      <c r="AO150">
-        <v>1.87</v>
-      </c>
-      <c r="AP150">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AQ150">
-        <v>1.94</v>
-      </c>
-      <c r="AR150">
-        <v>1.77</v>
-      </c>
-      <c r="AS150">
-        <v>1.93</v>
-      </c>
-      <c r="AT150">
-        <v>3.7</v>
-      </c>
-      <c r="AU150">
-        <v>3</v>
-      </c>
-      <c r="AV150">
-        <v>3</v>
-      </c>
-      <c r="AW150">
-        <v>5</v>
-      </c>
-      <c r="AX150">
-        <v>8</v>
-      </c>
-      <c r="AY150">
-        <v>8</v>
-      </c>
-      <c r="AZ150">
-        <v>11</v>
-      </c>
-      <c r="BA150">
-        <v>2</v>
-      </c>
-      <c r="BB150">
-        <v>4</v>
-      </c>
       <c r="BC150">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BD150">
         <v>0</v>
@@ -32105,7 +32108,7 @@
         <v>69</v>
       </c>
       <c r="E151" s="2">
-        <v>45566.875</v>
+        <v>45567.5</v>
       </c>
       <c r="F151">
         <v>27</v>
@@ -32222,13 +32225,13 @@
         <v>1.4</v>
       </c>
       <c r="AR151">
-        <v>2.46</v>
+        <v>2.47</v>
       </c>
       <c r="AS151">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AT151">
-        <v>4.26</v>
+        <v>4.23</v>
       </c>
       <c r="AU151">
         <v>5</v>
@@ -32311,7 +32314,7 @@
         <v>69</v>
       </c>
       <c r="E152" s="2">
-        <v>45569.875</v>
+        <v>45570.27083333334</v>
       </c>
       <c r="F152">
         <v>31</v>
@@ -32344,7 +32347,7 @@
         <v>81</v>
       </c>
       <c r="P152" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q152">
         <v>9</v>
@@ -32431,28 +32434,28 @@
         <v>1.29</v>
       </c>
       <c r="AS152">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="AT152">
-        <v>3.15</v>
+        <v>3.14</v>
       </c>
       <c r="AU152">
+        <v>4</v>
+      </c>
+      <c r="AV152">
+        <v>10</v>
+      </c>
+      <c r="AW152">
         <v>5</v>
       </c>
-      <c r="AV152">
-        <v>7</v>
-      </c>
-      <c r="AW152">
-        <v>2</v>
-      </c>
       <c r="AX152">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AY152">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ152">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BA152">
         <v>4</v>
@@ -32517,10 +32520,10 @@
         <v>69</v>
       </c>
       <c r="E153" s="2">
-        <v>45569.875</v>
+        <v>45570.35416666666</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G153" t="s">
         <v>78</v>
@@ -32550,7 +32553,7 @@
         <v>81</v>
       </c>
       <c r="P153" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q153">
         <v>6</v>
@@ -32634,31 +32637,31 @@
         <v>2.6</v>
       </c>
       <c r="AR153">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="AS153">
         <v>2.35</v>
       </c>
       <c r="AT153">
-        <v>4.12</v>
+        <v>4.08</v>
       </c>
       <c r="AU153">
+        <v>6</v>
+      </c>
+      <c r="AV153">
+        <v>6</v>
+      </c>
+      <c r="AW153">
         <v>8</v>
       </c>
-      <c r="AV153">
-        <v>5</v>
-      </c>
-      <c r="AW153">
-        <v>2</v>
-      </c>
       <c r="AX153">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AY153">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ153">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA153">
         <v>3</v>
@@ -32756,7 +32759,7 @@
         <v>180</v>
       </c>
       <c r="P154" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -32929,7 +32932,7 @@
         <v>69</v>
       </c>
       <c r="E155" s="2">
-        <v>45570.875</v>
+        <v>45571.35416666666</v>
       </c>
       <c r="F155">
         <v>31</v>
@@ -32962,7 +32965,7 @@
         <v>181</v>
       </c>
       <c r="P155" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q155">
         <v>3.1</v>
@@ -33046,78 +33049,284 @@
         <v>1.88</v>
       </c>
       <c r="AR155">
-        <v>2.29</v>
+        <v>2.3</v>
       </c>
       <c r="AS155">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="AT155">
-        <v>4.06</v>
+        <v>4.09</v>
       </c>
       <c r="AU155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV155">
+        <v>4</v>
+      </c>
+      <c r="AW155">
+        <v>10</v>
+      </c>
+      <c r="AX155">
+        <v>4</v>
+      </c>
+      <c r="AY155">
+        <v>12</v>
+      </c>
+      <c r="AZ155">
+        <v>8</v>
+      </c>
+      <c r="BA155">
+        <v>2</v>
+      </c>
+      <c r="BB155">
+        <v>2</v>
+      </c>
+      <c r="BC155">
+        <v>4</v>
+      </c>
+      <c r="BD155">
+        <v>0</v>
+      </c>
+      <c r="BE155">
+        <v>0</v>
+      </c>
+      <c r="BF155">
+        <v>0</v>
+      </c>
+      <c r="BG155">
+        <v>0</v>
+      </c>
+      <c r="BH155">
+        <v>0</v>
+      </c>
+      <c r="BI155">
+        <v>0</v>
+      </c>
+      <c r="BJ155">
+        <v>0</v>
+      </c>
+      <c r="BK155">
+        <v>0</v>
+      </c>
+      <c r="BL155">
+        <v>0</v>
+      </c>
+      <c r="BM155">
+        <v>0</v>
+      </c>
+      <c r="BN155">
+        <v>0</v>
+      </c>
+      <c r="BO155">
+        <v>0</v>
+      </c>
+      <c r="BP155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>7325287</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45571.45833333334</v>
+      </c>
+      <c r="F156">
+        <v>31</v>
+      </c>
+      <c r="G156" t="s">
+        <v>74</v>
+      </c>
+      <c r="H156" t="s">
+        <v>71</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <v>1</v>
+      </c>
+      <c r="K156">
+        <v>2</v>
+      </c>
+      <c r="L156">
         <v>3</v>
       </c>
-      <c r="AW155">
+      <c r="M156">
+        <v>1</v>
+      </c>
+      <c r="N156">
         <v>4</v>
       </c>
-      <c r="AX155">
-        <v>1</v>
-      </c>
-      <c r="AY155">
-        <v>4</v>
-      </c>
-      <c r="AZ155">
-        <v>4</v>
-      </c>
-      <c r="BA155">
-        <v>1</v>
-      </c>
-      <c r="BB155">
-        <v>1</v>
-      </c>
-      <c r="BC155">
-        <v>2</v>
-      </c>
-      <c r="BD155">
-        <v>0</v>
-      </c>
-      <c r="BE155">
-        <v>0</v>
-      </c>
-      <c r="BF155">
-        <v>0</v>
-      </c>
-      <c r="BG155">
-        <v>0</v>
-      </c>
-      <c r="BH155">
-        <v>0</v>
-      </c>
-      <c r="BI155">
-        <v>0</v>
-      </c>
-      <c r="BJ155">
-        <v>0</v>
-      </c>
-      <c r="BK155">
-        <v>0</v>
-      </c>
-      <c r="BL155">
-        <v>0</v>
-      </c>
-      <c r="BM155">
-        <v>0</v>
-      </c>
-      <c r="BN155">
-        <v>0</v>
-      </c>
-      <c r="BO155">
-        <v>0</v>
-      </c>
-      <c r="BP155">
+      <c r="O156" t="s">
+        <v>182</v>
+      </c>
+      <c r="P156" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q156">
+        <v>2.88</v>
+      </c>
+      <c r="R156">
+        <v>2.38</v>
+      </c>
+      <c r="S156">
+        <v>3</v>
+      </c>
+      <c r="T156">
+        <v>1.3</v>
+      </c>
+      <c r="U156">
+        <v>3.32</v>
+      </c>
+      <c r="V156">
+        <v>2.38</v>
+      </c>
+      <c r="W156">
+        <v>1.54</v>
+      </c>
+      <c r="X156">
+        <v>5.5</v>
+      </c>
+      <c r="Y156">
+        <v>1.13</v>
+      </c>
+      <c r="Z156">
+        <v>2.33</v>
+      </c>
+      <c r="AA156">
+        <v>3.92</v>
+      </c>
+      <c r="AB156">
+        <v>2.59</v>
+      </c>
+      <c r="AC156">
+        <v>1.02</v>
+      </c>
+      <c r="AD156">
+        <v>11</v>
+      </c>
+      <c r="AE156">
+        <v>1.14</v>
+      </c>
+      <c r="AF156">
+        <v>4.15</v>
+      </c>
+      <c r="AG156">
+        <v>1.7</v>
+      </c>
+      <c r="AH156">
+        <v>2.05</v>
+      </c>
+      <c r="AI156">
+        <v>1.5</v>
+      </c>
+      <c r="AJ156">
+        <v>2.34</v>
+      </c>
+      <c r="AK156">
+        <v>1.43</v>
+      </c>
+      <c r="AL156">
+        <v>1.24</v>
+      </c>
+      <c r="AM156">
+        <v>1.5</v>
+      </c>
+      <c r="AN156">
+        <v>0.8</v>
+      </c>
+      <c r="AO156">
+        <v>0.93</v>
+      </c>
+      <c r="AP156">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ156">
+        <v>0.87</v>
+      </c>
+      <c r="AR156">
+        <v>1.47</v>
+      </c>
+      <c r="AS156">
+        <v>1.46</v>
+      </c>
+      <c r="AT156">
+        <v>2.93</v>
+      </c>
+      <c r="AU156">
+        <v>9</v>
+      </c>
+      <c r="AV156">
+        <v>7</v>
+      </c>
+      <c r="AW156">
+        <v>6</v>
+      </c>
+      <c r="AX156">
+        <v>8</v>
+      </c>
+      <c r="AY156">
+        <v>15</v>
+      </c>
+      <c r="AZ156">
+        <v>15</v>
+      </c>
+      <c r="BA156">
+        <v>7</v>
+      </c>
+      <c r="BB156">
+        <v>9</v>
+      </c>
+      <c r="BC156">
+        <v>16</v>
+      </c>
+      <c r="BD156">
+        <v>0</v>
+      </c>
+      <c r="BE156">
+        <v>0</v>
+      </c>
+      <c r="BF156">
+        <v>0</v>
+      </c>
+      <c r="BG156">
+        <v>0</v>
+      </c>
+      <c r="BH156">
+        <v>0</v>
+      </c>
+      <c r="BI156">
+        <v>0</v>
+      </c>
+      <c r="BJ156">
+        <v>0</v>
+      </c>
+      <c r="BK156">
+        <v>0</v>
+      </c>
+      <c r="BL156">
+        <v>0</v>
+      </c>
+      <c r="BM156">
+        <v>0</v>
+      </c>
+      <c r="BN156">
+        <v>0</v>
+      </c>
+      <c r="BO156">
+        <v>0</v>
+      </c>
+      <c r="BP156">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -32234,22 +32234,22 @@
         <v>4.23</v>
       </c>
       <c r="AU151">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV151">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW151">
+        <v>4</v>
+      </c>
+      <c r="AX151">
         <v>2</v>
       </c>
-      <c r="AX151">
-        <v>1</v>
-      </c>
       <c r="AY151">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ151">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA151">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="272">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -563,6 +563,9 @@
   </si>
   <si>
     <t>['41', '56', '70']</t>
+  </si>
+  <si>
+    <t>['37', '59']</t>
   </si>
   <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
@@ -1188,7 +1191,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP156"/>
+  <dimension ref="A1:BP157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1653,7 +1656,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1731,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ3">
         <v>1.88</v>
@@ -2065,7 +2068,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -2271,7 +2274,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2683,7 +2686,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2761,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ8">
         <v>2.6</v>
@@ -3095,7 +3098,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -3301,7 +3304,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3382,7 +3385,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ11">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR11">
         <v>1.79</v>
@@ -3507,7 +3510,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3713,7 +3716,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3919,7 +3922,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -4125,7 +4128,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4615,10 +4618,10 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ17">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR17">
         <v>0.95</v>
@@ -4743,7 +4746,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -5567,7 +5570,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5773,7 +5776,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5979,7 +5982,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -6185,7 +6188,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6597,7 +6600,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6803,7 +6806,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6884,7 +6887,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ28">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR28">
         <v>1.8</v>
@@ -7215,7 +7218,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7421,7 +7424,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7627,7 +7630,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7833,7 +7836,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -8039,7 +8042,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -8120,7 +8123,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ34">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR34">
         <v>1.08</v>
@@ -8245,7 +8248,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8735,7 +8738,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ37">
         <v>1.4</v>
@@ -8863,7 +8866,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -9069,7 +9072,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -9275,7 +9278,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9481,7 +9484,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9559,7 +9562,7 @@
         <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ41">
         <v>1.63</v>
@@ -9687,7 +9690,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9893,7 +9896,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -10305,7 +10308,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -11210,7 +11213,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ49">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR49">
         <v>2.56</v>
@@ -11541,7 +11544,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -11825,7 +11828,7 @@
         <v>1.4</v>
       </c>
       <c r="AP52">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ52">
         <v>1.06</v>
@@ -12365,7 +12368,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12571,7 +12574,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12777,7 +12780,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13395,7 +13398,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13807,7 +13810,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -14013,7 +14016,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -14094,7 +14097,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ63">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR63">
         <v>2.2</v>
@@ -14219,7 +14222,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14425,7 +14428,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14631,7 +14634,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14837,7 +14840,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -14915,7 +14918,7 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ67">
         <v>0.87</v>
@@ -15043,7 +15046,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -15249,7 +15252,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15455,7 +15458,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15661,7 +15664,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -16566,7 +16569,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ75">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR75">
         <v>1.91</v>
@@ -16691,7 +16694,7 @@
         <v>131</v>
       </c>
       <c r="P76" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -17103,7 +17106,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17309,7 +17312,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q79">
         <v>1.53</v>
@@ -17515,7 +17518,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17593,7 +17596,7 @@
         <v>0.14</v>
       </c>
       <c r="AP80">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ80">
         <v>0.19</v>
@@ -17721,7 +17724,7 @@
         <v>81</v>
       </c>
       <c r="P81" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q81">
         <v>1.6</v>
@@ -18008,7 +18011,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ82">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR82">
         <v>2.04</v>
@@ -18133,7 +18136,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q83">
         <v>8.5</v>
@@ -18339,7 +18342,7 @@
         <v>81</v>
       </c>
       <c r="P84" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18751,7 +18754,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q86">
         <v>5.66</v>
@@ -18829,7 +18832,7 @@
         <v>1.6</v>
       </c>
       <c r="AP86">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ86">
         <v>1.94</v>
@@ -18957,7 +18960,7 @@
         <v>137</v>
       </c>
       <c r="P87" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q87">
         <v>4.95</v>
@@ -19163,7 +19166,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q88">
         <v>2.77</v>
@@ -19244,7 +19247,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ88">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR88">
         <v>1.27</v>
@@ -19369,7 +19372,7 @@
         <v>138</v>
       </c>
       <c r="P89" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -19575,7 +19578,7 @@
         <v>122</v>
       </c>
       <c r="P90" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q90">
         <v>11</v>
@@ -19781,7 +19784,7 @@
         <v>139</v>
       </c>
       <c r="P91" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q91">
         <v>1.83</v>
@@ -19987,7 +19990,7 @@
         <v>140</v>
       </c>
       <c r="P92" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20193,7 +20196,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q93">
         <v>2.3</v>
@@ -20889,7 +20892,7 @@
         <v>1</v>
       </c>
       <c r="AP96">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ96">
         <v>1.06</v>
@@ -21223,7 +21226,7 @@
         <v>145</v>
       </c>
       <c r="P98" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -21635,7 +21638,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -22253,7 +22256,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q103">
         <v>1.91</v>
@@ -22334,7 +22337,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ103">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR103">
         <v>2.14</v>
@@ -22949,7 +22952,7 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ106">
         <v>0.87</v>
@@ -23077,7 +23080,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q107">
         <v>1.06</v>
@@ -23283,7 +23286,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23489,7 +23492,7 @@
         <v>151</v>
       </c>
       <c r="P109" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q109">
         <v>2.2</v>
@@ -23695,7 +23698,7 @@
         <v>81</v>
       </c>
       <c r="P110" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23773,7 +23776,7 @@
         <v>1.73</v>
       </c>
       <c r="AP110">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ110">
         <v>1.94</v>
@@ -24107,7 +24110,7 @@
         <v>81</v>
       </c>
       <c r="P112" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24313,7 +24316,7 @@
         <v>152</v>
       </c>
       <c r="P113" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -24519,7 +24522,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q114">
         <v>2.1</v>
@@ -24931,7 +24934,7 @@
         <v>155</v>
       </c>
       <c r="P116" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q116">
         <v>2.5</v>
@@ -25012,7 +25015,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ116">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR116">
         <v>1.74</v>
@@ -25137,7 +25140,7 @@
         <v>156</v>
       </c>
       <c r="P117" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q117">
         <v>1.91</v>
@@ -25755,7 +25758,7 @@
         <v>81</v>
       </c>
       <c r="P120" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q120">
         <v>5.33</v>
@@ -25961,7 +25964,7 @@
         <v>81</v>
       </c>
       <c r="P121" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -26039,7 +26042,7 @@
         <v>1</v>
       </c>
       <c r="AP121">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ121">
         <v>1.4</v>
@@ -26167,7 +26170,7 @@
         <v>153</v>
       </c>
       <c r="P122" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q122">
         <v>6.41</v>
@@ -26373,7 +26376,7 @@
         <v>104</v>
       </c>
       <c r="P123" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26454,7 +26457,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ123">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR123">
         <v>1.09</v>
@@ -26785,7 +26788,7 @@
         <v>160</v>
       </c>
       <c r="P125" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -27197,7 +27200,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q127">
         <v>3.75</v>
@@ -27403,7 +27406,7 @@
         <v>162</v>
       </c>
       <c r="P128" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q128">
         <v>2.63</v>
@@ -27815,7 +27818,7 @@
         <v>163</v>
       </c>
       <c r="P130" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -27896,7 +27899,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ130">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR130">
         <v>2.02</v>
@@ -28021,7 +28024,7 @@
         <v>164</v>
       </c>
       <c r="P131" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -28099,7 +28102,7 @@
         <v>1.58</v>
       </c>
       <c r="AP131">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ131">
         <v>1.63</v>
@@ -28227,7 +28230,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q132">
         <v>1.67</v>
@@ -28433,7 +28436,7 @@
         <v>81</v>
       </c>
       <c r="P133" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q133">
         <v>4.75</v>
@@ -28639,7 +28642,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q134">
         <v>4.33</v>
@@ -28845,7 +28848,7 @@
         <v>81</v>
       </c>
       <c r="P135" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q135">
         <v>10</v>
@@ -28923,7 +28926,7 @@
         <v>2.54</v>
       </c>
       <c r="AP135">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ135">
         <v>2.6</v>
@@ -29051,7 +29054,7 @@
         <v>167</v>
       </c>
       <c r="P136" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q136">
         <v>7.5</v>
@@ -29463,7 +29466,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -29669,7 +29672,7 @@
         <v>170</v>
       </c>
       <c r="P139" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q139">
         <v>1.8</v>
@@ -29875,7 +29878,7 @@
         <v>81</v>
       </c>
       <c r="P140" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q140">
         <v>4.5</v>
@@ -30081,7 +30084,7 @@
         <v>171</v>
       </c>
       <c r="P141" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q141">
         <v>2.1</v>
@@ -30368,7 +30371,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ142">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR142">
         <v>2.07</v>
@@ -30493,7 +30496,7 @@
         <v>173</v>
       </c>
       <c r="P143" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q143">
         <v>1.5</v>
@@ -30905,7 +30908,7 @@
         <v>175</v>
       </c>
       <c r="P145" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -31192,7 +31195,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ146">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR146">
         <v>2.47</v>
@@ -31395,7 +31398,7 @@
         <v>0.2</v>
       </c>
       <c r="AP147">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ147">
         <v>0.19</v>
@@ -31729,7 +31732,7 @@
         <v>81</v>
       </c>
       <c r="P149" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q149">
         <v>4.4</v>
@@ -31935,7 +31938,7 @@
         <v>179</v>
       </c>
       <c r="P150" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q150">
         <v>4.75</v>
@@ -32347,7 +32350,7 @@
         <v>81</v>
       </c>
       <c r="P152" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q152">
         <v>9</v>
@@ -32553,7 +32556,7 @@
         <v>81</v>
       </c>
       <c r="P153" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q153">
         <v>6</v>
@@ -32759,7 +32762,7 @@
         <v>180</v>
       </c>
       <c r="P154" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -32965,7 +32968,7 @@
         <v>181</v>
       </c>
       <c r="P155" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q155">
         <v>3.1</v>
@@ -33171,7 +33174,7 @@
         <v>182</v>
       </c>
       <c r="P156" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q156">
         <v>2.88</v>
@@ -33327,6 +33330,212 @@
         <v>0</v>
       </c>
       <c r="BP156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>7325288</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45584.27083333334</v>
+      </c>
+      <c r="F157">
+        <v>32</v>
+      </c>
+      <c r="G157" t="s">
+        <v>71</v>
+      </c>
+      <c r="H157" t="s">
+        <v>73</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+      <c r="K157">
+        <v>2</v>
+      </c>
+      <c r="L157">
+        <v>2</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157">
+        <v>3</v>
+      </c>
+      <c r="O157" t="s">
+        <v>183</v>
+      </c>
+      <c r="P157" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q157">
+        <v>2.5</v>
+      </c>
+      <c r="R157">
+        <v>2.5</v>
+      </c>
+      <c r="S157">
+        <v>3.4</v>
+      </c>
+      <c r="T157">
+        <v>1.25</v>
+      </c>
+      <c r="U157">
+        <v>3.7</v>
+      </c>
+      <c r="V157">
+        <v>2.21</v>
+      </c>
+      <c r="W157">
+        <v>1.61</v>
+      </c>
+      <c r="X157">
+        <v>4.8</v>
+      </c>
+      <c r="Y157">
+        <v>1.16</v>
+      </c>
+      <c r="Z157">
+        <v>2.14</v>
+      </c>
+      <c r="AA157">
+        <v>3.3</v>
+      </c>
+      <c r="AB157">
+        <v>2.5</v>
+      </c>
+      <c r="AC157">
+        <v>1.01</v>
+      </c>
+      <c r="AD157">
+        <v>13</v>
+      </c>
+      <c r="AE157">
+        <v>1.17</v>
+      </c>
+      <c r="AF157">
+        <v>4.75</v>
+      </c>
+      <c r="AG157">
+        <v>1.62</v>
+      </c>
+      <c r="AH157">
+        <v>2.15</v>
+      </c>
+      <c r="AI157">
+        <v>1.44</v>
+      </c>
+      <c r="AJ157">
+        <v>2.65</v>
+      </c>
+      <c r="AK157">
+        <v>1.42</v>
+      </c>
+      <c r="AL157">
+        <v>1.2</v>
+      </c>
+      <c r="AM157">
+        <v>1.6</v>
+      </c>
+      <c r="AN157">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AO157">
+        <v>0.73</v>
+      </c>
+      <c r="AP157">
+        <v>1.06</v>
+      </c>
+      <c r="AQ157">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR157">
+        <v>1.42</v>
+      </c>
+      <c r="AS157">
+        <v>1.43</v>
+      </c>
+      <c r="AT157">
+        <v>2.85</v>
+      </c>
+      <c r="AU157">
+        <v>9</v>
+      </c>
+      <c r="AV157">
+        <v>8</v>
+      </c>
+      <c r="AW157">
+        <v>9</v>
+      </c>
+      <c r="AX157">
+        <v>8</v>
+      </c>
+      <c r="AY157">
+        <v>18</v>
+      </c>
+      <c r="AZ157">
+        <v>16</v>
+      </c>
+      <c r="BA157">
+        <v>3</v>
+      </c>
+      <c r="BB157">
+        <v>8</v>
+      </c>
+      <c r="BC157">
+        <v>11</v>
+      </c>
+      <c r="BD157">
+        <v>0</v>
+      </c>
+      <c r="BE157">
+        <v>0</v>
+      </c>
+      <c r="BF157">
+        <v>0</v>
+      </c>
+      <c r="BG157">
+        <v>0</v>
+      </c>
+      <c r="BH157">
+        <v>0</v>
+      </c>
+      <c r="BI157">
+        <v>0</v>
+      </c>
+      <c r="BJ157">
+        <v>0</v>
+      </c>
+      <c r="BK157">
+        <v>0</v>
+      </c>
+      <c r="BL157">
+        <v>0</v>
+      </c>
+      <c r="BM157">
+        <v>0</v>
+      </c>
+      <c r="BN157">
+        <v>0</v>
+      </c>
+      <c r="BO157">
+        <v>0</v>
+      </c>
+      <c r="BP157">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="274">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -831,6 +831,12 @@
   <si>
     <t>['81']</t>
   </si>
+  <si>
+    <t>['31', '65']</t>
+  </si>
+  <si>
+    <t>['3', '62', '89']</t>
+  </si>
 </sst>
 </file>
 
@@ -1191,7 +1197,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP157"/>
+  <dimension ref="A1:BP159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2558,10 +2564,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ7">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2767,7 +2773,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ8">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AR8">
         <v>1.63</v>
@@ -3591,7 +3597,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ12">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AR12">
         <v>1.76</v>
@@ -4412,7 +4418,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ16">
         <v>1.88</v>
@@ -5236,7 +5242,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ20">
         <v>1.63</v>
@@ -5648,7 +5654,7 @@
         <v>2</v>
       </c>
       <c r="AP22">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ22">
         <v>1.06</v>
@@ -5857,7 +5863,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ23">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AR23">
         <v>2.56</v>
@@ -6475,7 +6481,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ26">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>1.42</v>
@@ -6678,7 +6684,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ27">
         <v>0.87</v>
@@ -7711,7 +7717,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ32">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AR32">
         <v>1.47</v>
@@ -8120,7 +8126,7 @@
         <v>0.67</v>
       </c>
       <c r="AP34">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ34">
         <v>0.6899999999999999</v>
@@ -8535,7 +8541,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ36">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>2.43</v>
@@ -9768,10 +9774,10 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ42">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AR42">
         <v>2.19</v>
@@ -10798,7 +10804,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ47">
         <v>0.87</v>
@@ -11007,7 +11013,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ48">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR48">
         <v>1.86</v>
@@ -11419,7 +11425,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ50">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AR50">
         <v>1.81</v>
@@ -11625,7 +11631,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ51">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR51">
         <v>1.74</v>
@@ -12446,7 +12452,7 @@
         <v>1.17</v>
       </c>
       <c r="AP55">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ55">
         <v>1.94</v>
@@ -12652,7 +12658,7 @@
         <v>1.43</v>
       </c>
       <c r="AP56">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ56">
         <v>1.94</v>
@@ -13479,7 +13485,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ60">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AR60">
         <v>1.27</v>
@@ -14300,7 +14306,7 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ64">
         <v>1.4</v>
@@ -14712,7 +14718,7 @@
         <v>0.5</v>
       </c>
       <c r="AP66">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ66">
         <v>1.4</v>
@@ -14921,7 +14927,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ67">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR67">
         <v>1.58</v>
@@ -15539,7 +15545,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ70">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AR70">
         <v>2.27</v>
@@ -15742,10 +15748,10 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ71">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR71">
         <v>1.2</v>
@@ -16566,7 +16572,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ75">
         <v>0.6899999999999999</v>
@@ -17805,7 +17811,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ81">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR81">
         <v>2.16</v>
@@ -18214,10 +18220,10 @@
         <v>2.63</v>
       </c>
       <c r="AP83">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ83">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AR83">
         <v>1.25</v>
@@ -19038,7 +19044,7 @@
         <v>1.88</v>
       </c>
       <c r="AP87">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ87">
         <v>1.88</v>
@@ -19450,7 +19456,7 @@
         <v>1.88</v>
       </c>
       <c r="AP89">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ89">
         <v>1.63</v>
@@ -19659,7 +19665,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ90">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AR90">
         <v>1.96</v>
@@ -19865,7 +19871,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ91">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR91">
         <v>1.99</v>
@@ -20274,7 +20280,7 @@
         <v>0.25</v>
       </c>
       <c r="AP93">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ93">
         <v>0.19</v>
@@ -21510,7 +21516,7 @@
         <v>1.6</v>
       </c>
       <c r="AP99">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ99">
         <v>1.63</v>
@@ -21716,7 +21722,7 @@
         <v>1.7</v>
       </c>
       <c r="AP100">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ100">
         <v>1.88</v>
@@ -22955,7 +22961,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ106">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR106">
         <v>1.5</v>
@@ -23158,10 +23164,10 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ107">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR107">
         <v>2.13</v>
@@ -23982,10 +23988,10 @@
         <v>2.7</v>
       </c>
       <c r="AP111">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ111">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AR111">
         <v>1.13</v>
@@ -24397,7 +24403,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ113">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AR113">
         <v>1.62</v>
@@ -24600,7 +24606,7 @@
         <v>0.18</v>
       </c>
       <c r="AP114">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ114">
         <v>0.19</v>
@@ -25427,7 +25433,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ118">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR118">
         <v>2.29</v>
@@ -26248,7 +26254,7 @@
         <v>1.83</v>
       </c>
       <c r="AP122">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ122">
         <v>1.94</v>
@@ -26454,7 +26460,7 @@
         <v>0.91</v>
       </c>
       <c r="AP123">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ123">
         <v>0.6899999999999999</v>
@@ -26869,7 +26875,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ125">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AR125">
         <v>1.88</v>
@@ -27278,7 +27284,7 @@
         <v>1</v>
       </c>
       <c r="AP127">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ127">
         <v>0.87</v>
@@ -27693,7 +27699,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ129">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR129">
         <v>1.6</v>
@@ -27896,7 +27902,7 @@
         <v>0.92</v>
       </c>
       <c r="AP130">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ130">
         <v>0.6899999999999999</v>
@@ -28929,7 +28935,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ135">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AR135">
         <v>1.44</v>
@@ -29956,7 +29962,7 @@
         <v>1.17</v>
       </c>
       <c r="AP140">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ140">
         <v>1.4</v>
@@ -30577,7 +30583,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ143">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR143">
         <v>2.46</v>
@@ -31607,7 +31613,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ148">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AR148">
         <v>1.91</v>
@@ -32016,7 +32022,7 @@
         <v>1.86</v>
       </c>
       <c r="AP150">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ150">
         <v>1.88</v>
@@ -32428,7 +32434,7 @@
         <v>1.53</v>
       </c>
       <c r="AP152">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ152">
         <v>1.63</v>
@@ -32637,7 +32643,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ153">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AR153">
         <v>1.73</v>
@@ -33536,6 +33542,418 @@
         <v>0</v>
       </c>
       <c r="BP157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:68">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>7325289</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45584.35416666666</v>
+      </c>
+      <c r="F158">
+        <v>32</v>
+      </c>
+      <c r="G158" t="s">
+        <v>79</v>
+      </c>
+      <c r="H158" t="s">
+        <v>74</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>1</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+      <c r="M158">
+        <v>2</v>
+      </c>
+      <c r="N158">
+        <v>2</v>
+      </c>
+      <c r="O158" t="s">
+        <v>81</v>
+      </c>
+      <c r="P158" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q158">
+        <v>4.75</v>
+      </c>
+      <c r="R158">
+        <v>2.38</v>
+      </c>
+      <c r="S158">
+        <v>2.1</v>
+      </c>
+      <c r="T158">
+        <v>0</v>
+      </c>
+      <c r="U158">
+        <v>0</v>
+      </c>
+      <c r="V158">
+        <v>0</v>
+      </c>
+      <c r="W158">
+        <v>0</v>
+      </c>
+      <c r="X158">
+        <v>0</v>
+      </c>
+      <c r="Y158">
+        <v>0</v>
+      </c>
+      <c r="Z158">
+        <v>4.66</v>
+      </c>
+      <c r="AA158">
+        <v>3.66</v>
+      </c>
+      <c r="AB158">
+        <v>1.53</v>
+      </c>
+      <c r="AC158">
+        <v>0</v>
+      </c>
+      <c r="AD158">
+        <v>0</v>
+      </c>
+      <c r="AE158">
+        <v>0</v>
+      </c>
+      <c r="AF158">
+        <v>0</v>
+      </c>
+      <c r="AG158">
+        <v>1.67</v>
+      </c>
+      <c r="AH158">
+        <v>2</v>
+      </c>
+      <c r="AI158">
+        <v>0</v>
+      </c>
+      <c r="AJ158">
+        <v>0</v>
+      </c>
+      <c r="AK158">
+        <v>0</v>
+      </c>
+      <c r="AL158">
+        <v>0</v>
+      </c>
+      <c r="AM158">
+        <v>0</v>
+      </c>
+      <c r="AN158">
+        <v>0.73</v>
+      </c>
+      <c r="AO158">
+        <v>0.87</v>
+      </c>
+      <c r="AP158">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AQ158">
+        <v>1</v>
+      </c>
+      <c r="AR158">
+        <v>1.28</v>
+      </c>
+      <c r="AS158">
+        <v>1.34</v>
+      </c>
+      <c r="AT158">
+        <v>2.62</v>
+      </c>
+      <c r="AU158">
+        <v>3</v>
+      </c>
+      <c r="AV158">
+        <v>4</v>
+      </c>
+      <c r="AW158">
+        <v>5</v>
+      </c>
+      <c r="AX158">
+        <v>6</v>
+      </c>
+      <c r="AY158">
+        <v>8</v>
+      </c>
+      <c r="AZ158">
+        <v>10</v>
+      </c>
+      <c r="BA158">
+        <v>6</v>
+      </c>
+      <c r="BB158">
+        <v>3</v>
+      </c>
+      <c r="BC158">
+        <v>9</v>
+      </c>
+      <c r="BD158">
+        <v>0</v>
+      </c>
+      <c r="BE158">
+        <v>0</v>
+      </c>
+      <c r="BF158">
+        <v>0</v>
+      </c>
+      <c r="BG158">
+        <v>0</v>
+      </c>
+      <c r="BH158">
+        <v>0</v>
+      </c>
+      <c r="BI158">
+        <v>0</v>
+      </c>
+      <c r="BJ158">
+        <v>0</v>
+      </c>
+      <c r="BK158">
+        <v>0</v>
+      </c>
+      <c r="BL158">
+        <v>0</v>
+      </c>
+      <c r="BM158">
+        <v>0</v>
+      </c>
+      <c r="BN158">
+        <v>0</v>
+      </c>
+      <c r="BO158">
+        <v>0</v>
+      </c>
+      <c r="BP158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>7325290</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45584.45833333334</v>
+      </c>
+      <c r="F159">
+        <v>32</v>
+      </c>
+      <c r="G159" t="s">
+        <v>75</v>
+      </c>
+      <c r="H159" t="s">
+        <v>72</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>1</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <v>3</v>
+      </c>
+      <c r="N159">
+        <v>3</v>
+      </c>
+      <c r="O159" t="s">
+        <v>81</v>
+      </c>
+      <c r="P159" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q159">
+        <v>8.5</v>
+      </c>
+      <c r="R159">
+        <v>2.5</v>
+      </c>
+      <c r="S159">
+        <v>1.67</v>
+      </c>
+      <c r="T159">
+        <v>0</v>
+      </c>
+      <c r="U159">
+        <v>0</v>
+      </c>
+      <c r="V159">
+        <v>0</v>
+      </c>
+      <c r="W159">
+        <v>0</v>
+      </c>
+      <c r="X159">
+        <v>0</v>
+      </c>
+      <c r="Y159">
+        <v>0</v>
+      </c>
+      <c r="Z159">
+        <v>7.5</v>
+      </c>
+      <c r="AA159">
+        <v>4.75</v>
+      </c>
+      <c r="AB159">
+        <v>1.26</v>
+      </c>
+      <c r="AC159">
+        <v>0</v>
+      </c>
+      <c r="AD159">
+        <v>0</v>
+      </c>
+      <c r="AE159">
+        <v>0</v>
+      </c>
+      <c r="AF159">
+        <v>0</v>
+      </c>
+      <c r="AG159">
+        <v>1.6</v>
+      </c>
+      <c r="AH159">
+        <v>2.2</v>
+      </c>
+      <c r="AI159">
+        <v>0</v>
+      </c>
+      <c r="AJ159">
+        <v>0</v>
+      </c>
+      <c r="AK159">
+        <v>0</v>
+      </c>
+      <c r="AL159">
+        <v>0</v>
+      </c>
+      <c r="AM159">
+        <v>0</v>
+      </c>
+      <c r="AN159">
+        <v>1.2</v>
+      </c>
+      <c r="AO159">
+        <v>2.6</v>
+      </c>
+      <c r="AP159">
+        <v>1.13</v>
+      </c>
+      <c r="AQ159">
+        <v>2.63</v>
+      </c>
+      <c r="AR159">
+        <v>2.1</v>
+      </c>
+      <c r="AS159">
+        <v>2.34</v>
+      </c>
+      <c r="AT159">
+        <v>4.44</v>
+      </c>
+      <c r="AU159">
+        <v>0</v>
+      </c>
+      <c r="AV159">
+        <v>3</v>
+      </c>
+      <c r="AW159">
+        <v>4</v>
+      </c>
+      <c r="AX159">
+        <v>2</v>
+      </c>
+      <c r="AY159">
+        <v>4</v>
+      </c>
+      <c r="AZ159">
+        <v>5</v>
+      </c>
+      <c r="BA159">
+        <v>1</v>
+      </c>
+      <c r="BB159">
+        <v>2</v>
+      </c>
+      <c r="BC159">
+        <v>3</v>
+      </c>
+      <c r="BD159">
+        <v>0</v>
+      </c>
+      <c r="BE159">
+        <v>0</v>
+      </c>
+      <c r="BF159">
+        <v>0</v>
+      </c>
+      <c r="BG159">
+        <v>0</v>
+      </c>
+      <c r="BH159">
+        <v>0</v>
+      </c>
+      <c r="BI159">
+        <v>0</v>
+      </c>
+      <c r="BJ159">
+        <v>0</v>
+      </c>
+      <c r="BK159">
+        <v>0</v>
+      </c>
+      <c r="BL159">
+        <v>0</v>
+      </c>
+      <c r="BM159">
+        <v>0</v>
+      </c>
+      <c r="BN159">
+        <v>0</v>
+      </c>
+      <c r="BO159">
+        <v>0</v>
+      </c>
+      <c r="BP159">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="278">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -568,6 +568,12 @@
     <t>['37', '59']</t>
   </si>
   <si>
+    <t>['17', '71']</t>
+  </si>
+  <si>
+    <t>['21', '46']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -832,10 +838,16 @@
     <t>['81']</t>
   </si>
   <si>
+    <t>['3', '62', '89']</t>
+  </si>
+  <si>
     <t>['31', '65']</t>
   </si>
   <si>
-    <t>['3', '62', '89']</t>
+    <t>['11', '58']</t>
+  </si>
+  <si>
+    <t>['4']</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1209,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP159"/>
+  <dimension ref="A1:BP161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1662,7 +1674,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1949,7 +1961,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ4">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2074,7 +2086,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -2280,7 +2292,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2692,7 +2704,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2976,10 +2988,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ9">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3104,7 +3116,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -3182,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ10">
         <v>0.19</v>
@@ -3310,7 +3322,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3516,7 +3528,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3722,7 +3734,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3800,10 +3812,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ13">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AR13">
         <v>2.65</v>
@@ -3928,7 +3940,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -4134,7 +4146,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4752,7 +4764,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -5245,7 +5257,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ20">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AR20">
         <v>2.07</v>
@@ -5576,7 +5588,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5782,7 +5794,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5860,7 +5872,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ23">
         <v>2.63</v>
@@ -5988,7 +6000,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -6066,7 +6078,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ24">
         <v>0.87</v>
@@ -6194,7 +6206,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6275,7 +6287,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ25">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR25">
         <v>1.98</v>
@@ -6606,7 +6618,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6812,7 +6824,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -7224,7 +7236,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7305,7 +7317,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ30">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AR30">
         <v>1.13</v>
@@ -7430,7 +7442,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7508,7 +7520,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ31">
         <v>1.94</v>
@@ -7636,7 +7648,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7842,7 +7854,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -8048,7 +8060,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -8254,7 +8266,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8332,7 +8344,7 @@
         <v>1.33</v>
       </c>
       <c r="AP35">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ35">
         <v>1.06</v>
@@ -8747,7 +8759,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ37">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR37">
         <v>1.49</v>
@@ -8872,7 +8884,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -9078,7 +9090,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -9284,7 +9296,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9490,7 +9502,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9571,7 +9583,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ41">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AR41">
         <v>1.7</v>
@@ -9696,7 +9708,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9902,7 +9914,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -10314,7 +10326,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10395,7 +10407,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ45">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AR45">
         <v>1.38</v>
@@ -10598,7 +10610,7 @@
         <v>1.75</v>
       </c>
       <c r="AP46">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ46">
         <v>1.06</v>
@@ -11216,7 +11228,7 @@
         <v>1.25</v>
       </c>
       <c r="AP49">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ49">
         <v>0.6899999999999999</v>
@@ -11550,7 +11562,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -12249,7 +12261,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ54">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR54">
         <v>1.38</v>
@@ -12374,7 +12386,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12580,7 +12592,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12786,7 +12798,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12867,7 +12879,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ57">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AR57">
         <v>1.88</v>
@@ -13070,7 +13082,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ58">
         <v>0.87</v>
@@ -13404,7 +13416,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13816,7 +13828,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13894,7 +13906,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ62">
         <v>1.88</v>
@@ -14022,7 +14034,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -14228,7 +14240,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14309,7 +14321,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ64">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR64">
         <v>1.24</v>
@@ -14434,7 +14446,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14640,7 +14652,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14721,7 +14733,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ66">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR66">
         <v>1.95</v>
@@ -14846,7 +14858,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -15052,7 +15064,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -15130,7 +15142,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ68">
         <v>0.19</v>
@@ -15258,7 +15270,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15339,7 +15351,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ69">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AR69">
         <v>1.5</v>
@@ -15464,7 +15476,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15542,7 +15554,7 @@
         <v>2.57</v>
       </c>
       <c r="AP70">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ70">
         <v>2.63</v>
@@ -15670,7 +15682,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -16700,7 +16712,7 @@
         <v>131</v>
       </c>
       <c r="P76" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16984,10 +16996,10 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ77">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AR77">
         <v>2</v>
@@ -17112,7 +17124,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17193,7 +17205,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ78">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR78">
         <v>1.17</v>
@@ -17318,7 +17330,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q79">
         <v>1.53</v>
@@ -17524,7 +17536,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17730,7 +17742,7 @@
         <v>81</v>
       </c>
       <c r="P81" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q81">
         <v>1.6</v>
@@ -17808,7 +17820,7 @@
         <v>0.86</v>
       </c>
       <c r="AP81">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ81">
         <v>1</v>
@@ -18014,7 +18026,7 @@
         <v>0.86</v>
       </c>
       <c r="AP82">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ82">
         <v>0.6899999999999999</v>
@@ -18142,7 +18154,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q83">
         <v>8.5</v>
@@ -18348,7 +18360,7 @@
         <v>81</v>
       </c>
       <c r="P84" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18760,7 +18772,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q86">
         <v>5.66</v>
@@ -18966,7 +18978,7 @@
         <v>137</v>
       </c>
       <c r="P87" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q87">
         <v>4.95</v>
@@ -19172,7 +19184,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q88">
         <v>2.77</v>
@@ -19378,7 +19390,7 @@
         <v>138</v>
       </c>
       <c r="P89" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -19459,7 +19471,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ89">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AR89">
         <v>1.16</v>
@@ -19584,7 +19596,7 @@
         <v>122</v>
       </c>
       <c r="P90" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q90">
         <v>11</v>
@@ -19790,7 +19802,7 @@
         <v>139</v>
       </c>
       <c r="P91" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q91">
         <v>1.83</v>
@@ -19868,7 +19880,7 @@
         <v>1.13</v>
       </c>
       <c r="AP91">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ91">
         <v>1</v>
@@ -19996,7 +20008,7 @@
         <v>140</v>
       </c>
       <c r="P92" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20202,7 +20214,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q93">
         <v>2.3</v>
@@ -20486,10 +20498,10 @@
         <v>1.13</v>
       </c>
       <c r="AP94">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ94">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR94">
         <v>2.14</v>
@@ -20695,7 +20707,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ95">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AR95">
         <v>2.41</v>
@@ -21232,7 +21244,7 @@
         <v>145</v>
       </c>
       <c r="P98" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -21519,7 +21531,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ99">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AR99">
         <v>2.12</v>
@@ -21644,7 +21656,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -21931,7 +21943,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ101">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR101">
         <v>1.51</v>
@@ -22262,7 +22274,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q103">
         <v>1.91</v>
@@ -22340,7 +22352,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ103">
         <v>0.6899999999999999</v>
@@ -22752,7 +22764,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ105">
         <v>1.06</v>
@@ -23086,7 +23098,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q107">
         <v>1.06</v>
@@ -23292,7 +23304,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23498,7 +23510,7 @@
         <v>151</v>
       </c>
       <c r="P109" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q109">
         <v>2.2</v>
@@ -23579,7 +23591,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ109">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR109">
         <v>1.91</v>
@@ -23704,7 +23716,7 @@
         <v>81</v>
       </c>
       <c r="P110" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24116,7 +24128,7 @@
         <v>81</v>
       </c>
       <c r="P112" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24322,7 +24334,7 @@
         <v>152</v>
       </c>
       <c r="P113" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -24528,7 +24540,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q114">
         <v>2.1</v>
@@ -24940,7 +24952,7 @@
         <v>155</v>
       </c>
       <c r="P116" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q116">
         <v>2.5</v>
@@ -25146,7 +25158,7 @@
         <v>156</v>
       </c>
       <c r="P117" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q117">
         <v>1.91</v>
@@ -25224,7 +25236,7 @@
         <v>1.09</v>
       </c>
       <c r="AP117">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ117">
         <v>0.87</v>
@@ -25430,7 +25442,7 @@
         <v>1.18</v>
       </c>
       <c r="AP118">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ118">
         <v>1</v>
@@ -25764,7 +25776,7 @@
         <v>81</v>
       </c>
       <c r="P120" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q120">
         <v>5.33</v>
@@ -25845,7 +25857,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ120">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AR120">
         <v>1.53</v>
@@ -25970,7 +25982,7 @@
         <v>81</v>
       </c>
       <c r="P121" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -26051,7 +26063,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ121">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR121">
         <v>1.47</v>
@@ -26176,7 +26188,7 @@
         <v>153</v>
       </c>
       <c r="P122" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q122">
         <v>6.41</v>
@@ -26382,7 +26394,7 @@
         <v>104</v>
       </c>
       <c r="P123" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26794,7 +26806,7 @@
         <v>160</v>
       </c>
       <c r="P125" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -27206,7 +27218,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q127">
         <v>3.75</v>
@@ -27412,7 +27424,7 @@
         <v>162</v>
       </c>
       <c r="P128" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q128">
         <v>2.63</v>
@@ -27490,7 +27502,7 @@
         <v>1.92</v>
       </c>
       <c r="AP128">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ128">
         <v>1.94</v>
@@ -27824,7 +27836,7 @@
         <v>163</v>
       </c>
       <c r="P130" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -28030,7 +28042,7 @@
         <v>164</v>
       </c>
       <c r="P131" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -28111,7 +28123,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ131">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AR131">
         <v>1.43</v>
@@ -28236,7 +28248,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q132">
         <v>1.67</v>
@@ -28314,7 +28326,7 @@
         <v>0.23</v>
       </c>
       <c r="AP132">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ132">
         <v>0.19</v>
@@ -28442,7 +28454,7 @@
         <v>81</v>
       </c>
       <c r="P133" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q133">
         <v>4.75</v>
@@ -28648,7 +28660,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q134">
         <v>4.33</v>
@@ -28729,7 +28741,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ134">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AR134">
         <v>1.79</v>
@@ -28854,7 +28866,7 @@
         <v>81</v>
       </c>
       <c r="P135" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q135">
         <v>10</v>
@@ -29060,7 +29072,7 @@
         <v>167</v>
       </c>
       <c r="P136" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q136">
         <v>7.5</v>
@@ -29344,7 +29356,7 @@
         <v>0.21</v>
       </c>
       <c r="AP137">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ137">
         <v>0.19</v>
@@ -29472,7 +29484,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -29678,7 +29690,7 @@
         <v>170</v>
       </c>
       <c r="P139" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q139">
         <v>1.8</v>
@@ -29756,7 +29768,7 @@
         <v>1</v>
       </c>
       <c r="AP139">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ139">
         <v>0.87</v>
@@ -29884,7 +29896,7 @@
         <v>81</v>
       </c>
       <c r="P140" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q140">
         <v>4.5</v>
@@ -29965,7 +29977,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ140">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR140">
         <v>1.26</v>
@@ -30090,7 +30102,7 @@
         <v>171</v>
       </c>
       <c r="P141" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q141">
         <v>2.1</v>
@@ -30374,7 +30386,7 @@
         <v>0.85</v>
       </c>
       <c r="AP142">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ142">
         <v>0.6899999999999999</v>
@@ -30502,7 +30514,7 @@
         <v>173</v>
       </c>
       <c r="P143" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q143">
         <v>1.5</v>
@@ -30786,10 +30798,10 @@
         <v>1.64</v>
       </c>
       <c r="AP144">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ144">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AR144">
         <v>2.1</v>
@@ -30914,7 +30926,7 @@
         <v>175</v>
       </c>
       <c r="P145" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -30992,10 +31004,10 @@
         <v>1.31</v>
       </c>
       <c r="AP145">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ145">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR145">
         <v>2.29</v>
@@ -31738,7 +31750,7 @@
         <v>81</v>
       </c>
       <c r="P149" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q149">
         <v>4.4</v>
@@ -31944,7 +31956,7 @@
         <v>179</v>
       </c>
       <c r="P150" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q150">
         <v>4.75</v>
@@ -32231,7 +32243,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ151">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AR151">
         <v>2.47</v>
@@ -32356,7 +32368,7 @@
         <v>81</v>
       </c>
       <c r="P152" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q152">
         <v>9</v>
@@ -32437,7 +32449,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ152">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AR152">
         <v>1.29</v>
@@ -32562,7 +32574,7 @@
         <v>81</v>
       </c>
       <c r="P153" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q153">
         <v>6</v>
@@ -32768,7 +32780,7 @@
         <v>180</v>
       </c>
       <c r="P154" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -32974,7 +32986,7 @@
         <v>181</v>
       </c>
       <c r="P155" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q155">
         <v>3.1</v>
@@ -33052,7 +33064,7 @@
         <v>1.93</v>
       </c>
       <c r="AP155">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ155">
         <v>1.88</v>
@@ -33180,7 +33192,7 @@
         <v>182</v>
       </c>
       <c r="P156" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q156">
         <v>2.88</v>
@@ -33344,7 +33356,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>7325288</v>
+        <v>7325290</v>
       </c>
       <c r="C157" t="s">
         <v>68</v>
@@ -33353,157 +33365,157 @@
         <v>69</v>
       </c>
       <c r="E157" s="2">
-        <v>45584.27083333334</v>
+        <v>45583.875</v>
       </c>
       <c r="F157">
         <v>32</v>
       </c>
       <c r="G157" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H157" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157">
         <v>1</v>
       </c>
       <c r="K157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L157">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M157">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N157">
         <v>3</v>
       </c>
       <c r="O157" t="s">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="P157" t="s">
-        <v>202</v>
+        <v>274</v>
       </c>
       <c r="Q157">
-        <v>2.5</v>
+        <v>8.5</v>
       </c>
       <c r="R157">
         <v>2.5</v>
       </c>
       <c r="S157">
-        <v>3.4</v>
+        <v>1.67</v>
       </c>
       <c r="T157">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="U157">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="V157">
-        <v>2.21</v>
+        <v>0</v>
       </c>
       <c r="W157">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="X157">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="Y157">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="Z157">
-        <v>2.14</v>
+        <v>7.5</v>
       </c>
       <c r="AA157">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="AB157">
-        <v>2.5</v>
+        <v>1.26</v>
       </c>
       <c r="AC157">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AD157">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AE157">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AF157">
-        <v>4.75</v>
+        <v>0</v>
       </c>
       <c r="AG157">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AH157">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="AI157">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AJ157">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="AK157">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="AL157">
+        <v>0</v>
+      </c>
+      <c r="AM157">
+        <v>0</v>
+      </c>
+      <c r="AN157">
         <v>1.2</v>
       </c>
-      <c r="AM157">
-        <v>1.6</v>
-      </c>
-      <c r="AN157">
-        <v>0.9399999999999999</v>
-      </c>
       <c r="AO157">
-        <v>0.73</v>
+        <v>2.6</v>
       </c>
       <c r="AP157">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="AQ157">
-        <v>0.6899999999999999</v>
+        <v>2.63</v>
       </c>
       <c r="AR157">
-        <v>1.42</v>
+        <v>2.1</v>
       </c>
       <c r="AS157">
-        <v>1.43</v>
+        <v>2.34</v>
       </c>
       <c r="AT157">
-        <v>2.85</v>
+        <v>4.44</v>
       </c>
       <c r="AU157">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AV157">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AW157">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AX157">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AY157">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="AZ157">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="BA157">
+        <v>1</v>
+      </c>
+      <c r="BB157">
+        <v>2</v>
+      </c>
+      <c r="BC157">
         <v>3</v>
-      </c>
-      <c r="BB157">
-        <v>8</v>
-      </c>
-      <c r="BC157">
-        <v>11</v>
       </c>
       <c r="BD157">
         <v>0</v>
@@ -33550,7 +33562,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>7325289</v>
+        <v>7325288</v>
       </c>
       <c r="C158" t="s">
         <v>68</v>
@@ -33559,157 +33571,157 @@
         <v>69</v>
       </c>
       <c r="E158" s="2">
-        <v>45584.35416666666</v>
+        <v>45583.875</v>
       </c>
       <c r="F158">
         <v>32</v>
       </c>
       <c r="G158" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H158" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158">
         <v>1</v>
       </c>
       <c r="K158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N158">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O158" t="s">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="P158" t="s">
-        <v>272</v>
+        <v>204</v>
       </c>
       <c r="Q158">
+        <v>2.5</v>
+      </c>
+      <c r="R158">
+        <v>2.5</v>
+      </c>
+      <c r="S158">
+        <v>3.4</v>
+      </c>
+      <c r="T158">
+        <v>1.25</v>
+      </c>
+      <c r="U158">
+        <v>3.7</v>
+      </c>
+      <c r="V158">
+        <v>2.21</v>
+      </c>
+      <c r="W158">
+        <v>1.61</v>
+      </c>
+      <c r="X158">
+        <v>4.8</v>
+      </c>
+      <c r="Y158">
+        <v>1.16</v>
+      </c>
+      <c r="Z158">
+        <v>2.14</v>
+      </c>
+      <c r="AA158">
+        <v>3.3</v>
+      </c>
+      <c r="AB158">
+        <v>2.5</v>
+      </c>
+      <c r="AC158">
+        <v>1.01</v>
+      </c>
+      <c r="AD158">
+        <v>13</v>
+      </c>
+      <c r="AE158">
+        <v>1.17</v>
+      </c>
+      <c r="AF158">
         <v>4.75</v>
       </c>
-      <c r="R158">
-        <v>2.38</v>
-      </c>
-      <c r="S158">
-        <v>2.1</v>
-      </c>
-      <c r="T158">
-        <v>0</v>
-      </c>
-      <c r="U158">
-        <v>0</v>
-      </c>
-      <c r="V158">
-        <v>0</v>
-      </c>
-      <c r="W158">
-        <v>0</v>
-      </c>
-      <c r="X158">
-        <v>0</v>
-      </c>
-      <c r="Y158">
-        <v>0</v>
-      </c>
-      <c r="Z158">
-        <v>4.66</v>
-      </c>
-      <c r="AA158">
-        <v>3.66</v>
-      </c>
-      <c r="AB158">
-        <v>1.53</v>
-      </c>
-      <c r="AC158">
-        <v>0</v>
-      </c>
-      <c r="AD158">
-        <v>0</v>
-      </c>
-      <c r="AE158">
-        <v>0</v>
-      </c>
-      <c r="AF158">
-        <v>0</v>
-      </c>
       <c r="AG158">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AH158">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="AI158">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AJ158">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AK158">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AL158">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AM158">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AN158">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AO158">
         <v>0.73</v>
       </c>
-      <c r="AO158">
-        <v>0.87</v>
-      </c>
       <c r="AP158">
+        <v>1.06</v>
+      </c>
+      <c r="AQ158">
         <v>0.6899999999999999</v>
       </c>
-      <c r="AQ158">
-        <v>1</v>
-      </c>
       <c r="AR158">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
       <c r="AS158">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="AT158">
-        <v>2.62</v>
+        <v>2.85</v>
       </c>
       <c r="AU158">
+        <v>9</v>
+      </c>
+      <c r="AV158">
+        <v>8</v>
+      </c>
+      <c r="AW158">
+        <v>9</v>
+      </c>
+      <c r="AX158">
+        <v>8</v>
+      </c>
+      <c r="AY158">
+        <v>18</v>
+      </c>
+      <c r="AZ158">
+        <v>16</v>
+      </c>
+      <c r="BA158">
         <v>3</v>
       </c>
-      <c r="AV158">
-        <v>4</v>
-      </c>
-      <c r="AW158">
-        <v>5</v>
-      </c>
-      <c r="AX158">
-        <v>6</v>
-      </c>
-      <c r="AY158">
+      <c r="BB158">
         <v>8</v>
       </c>
-      <c r="AZ158">
-        <v>10</v>
-      </c>
-      <c r="BA158">
-        <v>6</v>
-      </c>
-      <c r="BB158">
-        <v>3</v>
-      </c>
       <c r="BC158">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD158">
         <v>0</v>
@@ -33756,7 +33768,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>7325290</v>
+        <v>7325289</v>
       </c>
       <c r="C159" t="s">
         <v>68</v>
@@ -33765,16 +33777,16 @@
         <v>69</v>
       </c>
       <c r="E159" s="2">
-        <v>45584.45833333334</v>
+        <v>45583.875</v>
       </c>
       <c r="F159">
         <v>32</v>
       </c>
       <c r="G159" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H159" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -33789,171 +33801,583 @@
         <v>0</v>
       </c>
       <c r="M159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O159" t="s">
         <v>81</v>
       </c>
       <c r="P159" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q159">
-        <v>8.5</v>
+        <v>4.75</v>
       </c>
       <c r="R159">
+        <v>2.38</v>
+      </c>
+      <c r="S159">
+        <v>2.1</v>
+      </c>
+      <c r="T159">
+        <v>0</v>
+      </c>
+      <c r="U159">
+        <v>0</v>
+      </c>
+      <c r="V159">
+        <v>0</v>
+      </c>
+      <c r="W159">
+        <v>0</v>
+      </c>
+      <c r="X159">
+        <v>0</v>
+      </c>
+      <c r="Y159">
+        <v>0</v>
+      </c>
+      <c r="Z159">
+        <v>4.66</v>
+      </c>
+      <c r="AA159">
+        <v>3.66</v>
+      </c>
+      <c r="AB159">
+        <v>1.53</v>
+      </c>
+      <c r="AC159">
+        <v>0</v>
+      </c>
+      <c r="AD159">
+        <v>0</v>
+      </c>
+      <c r="AE159">
+        <v>0</v>
+      </c>
+      <c r="AF159">
+        <v>0</v>
+      </c>
+      <c r="AG159">
+        <v>1.67</v>
+      </c>
+      <c r="AH159">
+        <v>2</v>
+      </c>
+      <c r="AI159">
+        <v>0</v>
+      </c>
+      <c r="AJ159">
+        <v>0</v>
+      </c>
+      <c r="AK159">
+        <v>0</v>
+      </c>
+      <c r="AL159">
+        <v>0</v>
+      </c>
+      <c r="AM159">
+        <v>0</v>
+      </c>
+      <c r="AN159">
+        <v>0.73</v>
+      </c>
+      <c r="AO159">
+        <v>0.87</v>
+      </c>
+      <c r="AP159">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AQ159">
+        <v>1</v>
+      </c>
+      <c r="AR159">
+        <v>1.28</v>
+      </c>
+      <c r="AS159">
+        <v>1.34</v>
+      </c>
+      <c r="AT159">
+        <v>2.62</v>
+      </c>
+      <c r="AU159">
+        <v>3</v>
+      </c>
+      <c r="AV159">
+        <v>4</v>
+      </c>
+      <c r="AW159">
+        <v>5</v>
+      </c>
+      <c r="AX159">
+        <v>6</v>
+      </c>
+      <c r="AY159">
+        <v>8</v>
+      </c>
+      <c r="AZ159">
+        <v>10</v>
+      </c>
+      <c r="BA159">
+        <v>6</v>
+      </c>
+      <c r="BB159">
+        <v>3</v>
+      </c>
+      <c r="BC159">
+        <v>9</v>
+      </c>
+      <c r="BD159">
+        <v>0</v>
+      </c>
+      <c r="BE159">
+        <v>0</v>
+      </c>
+      <c r="BF159">
+        <v>0</v>
+      </c>
+      <c r="BG159">
+        <v>0</v>
+      </c>
+      <c r="BH159">
+        <v>0</v>
+      </c>
+      <c r="BI159">
+        <v>0</v>
+      </c>
+      <c r="BJ159">
+        <v>0</v>
+      </c>
+      <c r="BK159">
+        <v>0</v>
+      </c>
+      <c r="BL159">
+        <v>0</v>
+      </c>
+      <c r="BM159">
+        <v>0</v>
+      </c>
+      <c r="BN159">
+        <v>0</v>
+      </c>
+      <c r="BO159">
+        <v>0</v>
+      </c>
+      <c r="BP159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:68">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>7325291</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45585.27083333334</v>
+      </c>
+      <c r="F160">
+        <v>32</v>
+      </c>
+      <c r="G160" t="s">
+        <v>76</v>
+      </c>
+      <c r="H160" t="s">
+        <v>78</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>1</v>
+      </c>
+      <c r="K160">
+        <v>2</v>
+      </c>
+      <c r="L160">
+        <v>2</v>
+      </c>
+      <c r="M160">
+        <v>2</v>
+      </c>
+      <c r="N160">
+        <v>4</v>
+      </c>
+      <c r="O160" t="s">
+        <v>184</v>
+      </c>
+      <c r="P160" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q160">
+        <v>1.91</v>
+      </c>
+      <c r="R160">
         <v>2.5</v>
       </c>
-      <c r="S159">
-        <v>1.67</v>
-      </c>
-      <c r="T159">
-        <v>0</v>
-      </c>
-      <c r="U159">
-        <v>0</v>
-      </c>
-      <c r="V159">
-        <v>0</v>
-      </c>
-      <c r="W159">
-        <v>0</v>
-      </c>
-      <c r="X159">
-        <v>0</v>
-      </c>
-      <c r="Y159">
-        <v>0</v>
-      </c>
-      <c r="Z159">
-        <v>7.5</v>
-      </c>
-      <c r="AA159">
-        <v>4.75</v>
-      </c>
-      <c r="AB159">
-        <v>1.26</v>
-      </c>
-      <c r="AC159">
-        <v>0</v>
-      </c>
-      <c r="AD159">
-        <v>0</v>
-      </c>
-      <c r="AE159">
-        <v>0</v>
-      </c>
-      <c r="AF159">
-        <v>0</v>
-      </c>
-      <c r="AG159">
+      <c r="S160">
+        <v>5</v>
+      </c>
+      <c r="T160">
+        <v>1.25</v>
+      </c>
+      <c r="U160">
+        <v>3.55</v>
+      </c>
+      <c r="V160">
+        <v>2.16</v>
+      </c>
+      <c r="W160">
+        <v>1.64</v>
+      </c>
+      <c r="X160">
+        <v>4.33</v>
+      </c>
+      <c r="Y160">
+        <v>1.2</v>
+      </c>
+      <c r="Z160">
+        <v>1.5</v>
+      </c>
+      <c r="AA160">
+        <v>4.33</v>
+      </c>
+      <c r="AB160">
+        <v>5.43</v>
+      </c>
+      <c r="AC160">
+        <v>1.01</v>
+      </c>
+      <c r="AD160">
+        <v>17</v>
+      </c>
+      <c r="AE160">
+        <v>1.1</v>
+      </c>
+      <c r="AF160">
+        <v>4.8</v>
+      </c>
+      <c r="AG160">
+        <v>1.45</v>
+      </c>
+      <c r="AH160">
+        <v>2.56</v>
+      </c>
+      <c r="AI160">
         <v>1.6</v>
       </c>
-      <c r="AH159">
-        <v>2.2</v>
-      </c>
-      <c r="AI159">
-        <v>0</v>
-      </c>
-      <c r="AJ159">
-        <v>0</v>
-      </c>
-      <c r="AK159">
-        <v>0</v>
-      </c>
-      <c r="AL159">
-        <v>0</v>
-      </c>
-      <c r="AM159">
-        <v>0</v>
-      </c>
-      <c r="AN159">
-        <v>1.2</v>
-      </c>
-      <c r="AO159">
+      <c r="AJ160">
+        <v>2.25</v>
+      </c>
+      <c r="AK160">
+        <v>1.08</v>
+      </c>
+      <c r="AL160">
+        <v>1.15</v>
+      </c>
+      <c r="AM160">
         <v>2.6</v>
       </c>
-      <c r="AP159">
-        <v>1.13</v>
-      </c>
-      <c r="AQ159">
-        <v>2.63</v>
-      </c>
-      <c r="AR159">
-        <v>2.1</v>
-      </c>
-      <c r="AS159">
-        <v>2.34</v>
-      </c>
-      <c r="AT159">
-        <v>4.44</v>
-      </c>
-      <c r="AU159">
-        <v>0</v>
-      </c>
-      <c r="AV159">
+      <c r="AN160">
+        <v>2.33</v>
+      </c>
+      <c r="AO160">
+        <v>1.4</v>
+      </c>
+      <c r="AP160">
+        <v>2.25</v>
+      </c>
+      <c r="AQ160">
+        <v>1.38</v>
+      </c>
+      <c r="AR160">
+        <v>2.09</v>
+      </c>
+      <c r="AS160">
+        <v>1.7</v>
+      </c>
+      <c r="AT160">
+        <v>3.79</v>
+      </c>
+      <c r="AU160">
+        <v>9</v>
+      </c>
+      <c r="AV160">
+        <v>5</v>
+      </c>
+      <c r="AW160">
+        <v>16</v>
+      </c>
+      <c r="AX160">
+        <v>7</v>
+      </c>
+      <c r="AY160">
+        <v>25</v>
+      </c>
+      <c r="AZ160">
+        <v>12</v>
+      </c>
+      <c r="BA160">
+        <v>5</v>
+      </c>
+      <c r="BB160">
+        <v>1</v>
+      </c>
+      <c r="BC160">
+        <v>6</v>
+      </c>
+      <c r="BD160">
+        <v>0</v>
+      </c>
+      <c r="BE160">
+        <v>0</v>
+      </c>
+      <c r="BF160">
+        <v>0</v>
+      </c>
+      <c r="BG160">
+        <v>0</v>
+      </c>
+      <c r="BH160">
+        <v>0</v>
+      </c>
+      <c r="BI160">
+        <v>0</v>
+      </c>
+      <c r="BJ160">
+        <v>0</v>
+      </c>
+      <c r="BK160">
+        <v>0</v>
+      </c>
+      <c r="BL160">
+        <v>0</v>
+      </c>
+      <c r="BM160">
+        <v>0</v>
+      </c>
+      <c r="BN160">
+        <v>0</v>
+      </c>
+      <c r="BO160">
+        <v>0</v>
+      </c>
+      <c r="BP160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:68">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>7325292</v>
+      </c>
+      <c r="C161" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45585.35416666666</v>
+      </c>
+      <c r="F161">
+        <v>32</v>
+      </c>
+      <c r="G161" t="s">
+        <v>77</v>
+      </c>
+      <c r="H161" t="s">
+        <v>70</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>1</v>
+      </c>
+      <c r="K161">
+        <v>2</v>
+      </c>
+      <c r="L161">
+        <v>2</v>
+      </c>
+      <c r="M161">
+        <v>1</v>
+      </c>
+      <c r="N161">
         <v>3</v>
       </c>
-      <c r="AW159">
+      <c r="O161" t="s">
+        <v>185</v>
+      </c>
+      <c r="P161" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q161">
+        <v>2.5</v>
+      </c>
+      <c r="R161">
+        <v>2.38</v>
+      </c>
+      <c r="S161">
+        <v>3.4</v>
+      </c>
+      <c r="T161">
+        <v>1.3</v>
+      </c>
+      <c r="U161">
+        <v>3.2</v>
+      </c>
+      <c r="V161">
+        <v>2.4</v>
+      </c>
+      <c r="W161">
+        <v>1.5</v>
+      </c>
+      <c r="X161">
+        <v>5</v>
+      </c>
+      <c r="Y161">
+        <v>1.14</v>
+      </c>
+      <c r="Z161">
+        <v>2.06</v>
+      </c>
+      <c r="AA161">
+        <v>3.5</v>
+      </c>
+      <c r="AB161">
+        <v>3.21</v>
+      </c>
+      <c r="AC161">
+        <v>1.01</v>
+      </c>
+      <c r="AD161">
+        <v>11</v>
+      </c>
+      <c r="AE161">
+        <v>1.18</v>
+      </c>
+      <c r="AF161">
+        <v>4.4</v>
+      </c>
+      <c r="AG161">
+        <v>1.71</v>
+      </c>
+      <c r="AH161">
+        <v>2.03</v>
+      </c>
+      <c r="AI161">
+        <v>1.55</v>
+      </c>
+      <c r="AJ161">
+        <v>2.35</v>
+      </c>
+      <c r="AK161">
+        <v>1.3</v>
+      </c>
+      <c r="AL161">
+        <v>1.25</v>
+      </c>
+      <c r="AM161">
+        <v>1.72</v>
+      </c>
+      <c r="AN161">
+        <v>1.73</v>
+      </c>
+      <c r="AO161">
+        <v>1.63</v>
+      </c>
+      <c r="AP161">
+        <v>1.81</v>
+      </c>
+      <c r="AQ161">
+        <v>1.53</v>
+      </c>
+      <c r="AR161">
+        <v>2.24</v>
+      </c>
+      <c r="AS161">
+        <v>1.89</v>
+      </c>
+      <c r="AT161">
+        <v>4.13</v>
+      </c>
+      <c r="AU161">
+        <v>5</v>
+      </c>
+      <c r="AV161">
         <v>4</v>
       </c>
-      <c r="AX159">
+      <c r="AW161">
+        <v>13</v>
+      </c>
+      <c r="AX161">
+        <v>5</v>
+      </c>
+      <c r="AY161">
+        <v>18</v>
+      </c>
+      <c r="AZ161">
+        <v>9</v>
+      </c>
+      <c r="BA161">
+        <v>1</v>
+      </c>
+      <c r="BB161">
+        <v>1</v>
+      </c>
+      <c r="BC161">
         <v>2</v>
       </c>
-      <c r="AY159">
-        <v>4</v>
-      </c>
-      <c r="AZ159">
-        <v>5</v>
-      </c>
-      <c r="BA159">
-        <v>1</v>
-      </c>
-      <c r="BB159">
-        <v>2</v>
-      </c>
-      <c r="BC159">
-        <v>3</v>
-      </c>
-      <c r="BD159">
-        <v>0</v>
-      </c>
-      <c r="BE159">
-        <v>0</v>
-      </c>
-      <c r="BF159">
-        <v>0</v>
-      </c>
-      <c r="BG159">
-        <v>0</v>
-      </c>
-      <c r="BH159">
-        <v>0</v>
-      </c>
-      <c r="BI159">
-        <v>0</v>
-      </c>
-      <c r="BJ159">
-        <v>0</v>
-      </c>
-      <c r="BK159">
-        <v>0</v>
-      </c>
-      <c r="BL159">
-        <v>0</v>
-      </c>
-      <c r="BM159">
-        <v>0</v>
-      </c>
-      <c r="BN159">
-        <v>0</v>
-      </c>
-      <c r="BO159">
-        <v>0</v>
-      </c>
-      <c r="BP159">
+      <c r="BD161">
+        <v>0</v>
+      </c>
+      <c r="BE161">
+        <v>0</v>
+      </c>
+      <c r="BF161">
+        <v>0</v>
+      </c>
+      <c r="BG161">
+        <v>0</v>
+      </c>
+      <c r="BH161">
+        <v>0</v>
+      </c>
+      <c r="BI161">
+        <v>0</v>
+      </c>
+      <c r="BJ161">
+        <v>0</v>
+      </c>
+      <c r="BK161">
+        <v>0</v>
+      </c>
+      <c r="BL161">
+        <v>0</v>
+      </c>
+      <c r="BM161">
+        <v>0</v>
+      </c>
+      <c r="BN161">
+        <v>0</v>
+      </c>
+      <c r="BO161">
+        <v>0</v>
+      </c>
+      <c r="BP161">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -838,10 +838,10 @@
     <t>['81']</t>
   </si>
   <si>
-    <t>['3', '62', '89']</t>
+    <t>['31', '65']</t>
   </si>
   <si>
-    <t>['31', '65']</t>
+    <t>['3', '62', '89']</t>
   </si>
   <si>
     <t>['11', '58']</t>
@@ -33356,7 +33356,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>7325290</v>
+        <v>7325288</v>
       </c>
       <c r="C157" t="s">
         <v>68</v>
@@ -33365,157 +33365,157 @@
         <v>69</v>
       </c>
       <c r="E157" s="2">
-        <v>45583.875</v>
+        <v>45584.27083333334</v>
       </c>
       <c r="F157">
         <v>32</v>
       </c>
       <c r="G157" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H157" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157">
         <v>1</v>
       </c>
       <c r="K157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M157">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N157">
         <v>3</v>
       </c>
       <c r="O157" t="s">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="P157" t="s">
-        <v>274</v>
+        <v>204</v>
       </c>
       <c r="Q157">
-        <v>8.5</v>
+        <v>2.5</v>
       </c>
       <c r="R157">
         <v>2.5</v>
       </c>
       <c r="S157">
-        <v>1.67</v>
+        <v>3.4</v>
       </c>
       <c r="T157">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U157">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="V157">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="W157">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="X157">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="Y157">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="Z157">
-        <v>7.5</v>
+        <v>2.14</v>
       </c>
       <c r="AA157">
+        <v>3.3</v>
+      </c>
+      <c r="AB157">
+        <v>2.5</v>
+      </c>
+      <c r="AC157">
+        <v>1.01</v>
+      </c>
+      <c r="AD157">
+        <v>13</v>
+      </c>
+      <c r="AE157">
+        <v>1.17</v>
+      </c>
+      <c r="AF157">
         <v>4.75</v>
       </c>
-      <c r="AB157">
-        <v>1.26</v>
-      </c>
-      <c r="AC157">
-        <v>0</v>
-      </c>
-      <c r="AD157">
-        <v>0</v>
-      </c>
-      <c r="AE157">
-        <v>0</v>
-      </c>
-      <c r="AF157">
-        <v>0</v>
-      </c>
       <c r="AG157">
+        <v>1.62</v>
+      </c>
+      <c r="AH157">
+        <v>2.15</v>
+      </c>
+      <c r="AI157">
+        <v>1.44</v>
+      </c>
+      <c r="AJ157">
+        <v>2.65</v>
+      </c>
+      <c r="AK157">
+        <v>1.42</v>
+      </c>
+      <c r="AL157">
+        <v>1.2</v>
+      </c>
+      <c r="AM157">
         <v>1.6</v>
       </c>
-      <c r="AH157">
-        <v>2.2</v>
-      </c>
-      <c r="AI157">
-        <v>0</v>
-      </c>
-      <c r="AJ157">
-        <v>0</v>
-      </c>
-      <c r="AK157">
-        <v>0</v>
-      </c>
-      <c r="AL157">
-        <v>0</v>
-      </c>
-      <c r="AM157">
-        <v>0</v>
-      </c>
       <c r="AN157">
-        <v>1.2</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO157">
-        <v>2.6</v>
+        <v>0.73</v>
       </c>
       <c r="AP157">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ157">
-        <v>2.63</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR157">
-        <v>2.1</v>
+        <v>1.42</v>
       </c>
       <c r="AS157">
-        <v>2.34</v>
+        <v>1.43</v>
       </c>
       <c r="AT157">
-        <v>4.44</v>
+        <v>2.85</v>
       </c>
       <c r="AU157">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AV157">
+        <v>8</v>
+      </c>
+      <c r="AW157">
+        <v>9</v>
+      </c>
+      <c r="AX157">
+        <v>8</v>
+      </c>
+      <c r="AY157">
+        <v>18</v>
+      </c>
+      <c r="AZ157">
+        <v>16</v>
+      </c>
+      <c r="BA157">
         <v>3</v>
       </c>
-      <c r="AW157">
-        <v>4</v>
-      </c>
-      <c r="AX157">
-        <v>2</v>
-      </c>
-      <c r="AY157">
-        <v>4</v>
-      </c>
-      <c r="AZ157">
-        <v>5</v>
-      </c>
-      <c r="BA157">
-        <v>1</v>
-      </c>
       <c r="BB157">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BC157">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BD157">
         <v>0</v>
@@ -33562,7 +33562,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>7325288</v>
+        <v>7325289</v>
       </c>
       <c r="C158" t="s">
         <v>68</v>
@@ -33571,157 +33571,157 @@
         <v>69</v>
       </c>
       <c r="E158" s="2">
-        <v>45583.875</v>
+        <v>45584.35416666666</v>
       </c>
       <c r="F158">
         <v>32</v>
       </c>
       <c r="G158" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H158" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158">
         <v>1</v>
       </c>
       <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+      <c r="M158">
         <v>2</v>
       </c>
-      <c r="L158">
+      <c r="N158">
         <v>2</v>
       </c>
-      <c r="M158">
-        <v>1</v>
-      </c>
-      <c r="N158">
+      <c r="O158" t="s">
+        <v>81</v>
+      </c>
+      <c r="P158" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q158">
+        <v>4.75</v>
+      </c>
+      <c r="R158">
+        <v>2.38</v>
+      </c>
+      <c r="S158">
+        <v>2.1</v>
+      </c>
+      <c r="T158">
+        <v>0</v>
+      </c>
+      <c r="U158">
+        <v>0</v>
+      </c>
+      <c r="V158">
+        <v>0</v>
+      </c>
+      <c r="W158">
+        <v>0</v>
+      </c>
+      <c r="X158">
+        <v>0</v>
+      </c>
+      <c r="Y158">
+        <v>0</v>
+      </c>
+      <c r="Z158">
+        <v>4.66</v>
+      </c>
+      <c r="AA158">
+        <v>3.66</v>
+      </c>
+      <c r="AB158">
+        <v>1.53</v>
+      </c>
+      <c r="AC158">
+        <v>0</v>
+      </c>
+      <c r="AD158">
+        <v>0</v>
+      </c>
+      <c r="AE158">
+        <v>0</v>
+      </c>
+      <c r="AF158">
+        <v>0</v>
+      </c>
+      <c r="AG158">
+        <v>1.67</v>
+      </c>
+      <c r="AH158">
+        <v>2</v>
+      </c>
+      <c r="AI158">
+        <v>0</v>
+      </c>
+      <c r="AJ158">
+        <v>0</v>
+      </c>
+      <c r="AK158">
+        <v>0</v>
+      </c>
+      <c r="AL158">
+        <v>0</v>
+      </c>
+      <c r="AM158">
+        <v>0</v>
+      </c>
+      <c r="AN158">
+        <v>0.73</v>
+      </c>
+      <c r="AO158">
+        <v>0.87</v>
+      </c>
+      <c r="AP158">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AQ158">
+        <v>1</v>
+      </c>
+      <c r="AR158">
+        <v>1.28</v>
+      </c>
+      <c r="AS158">
+        <v>1.34</v>
+      </c>
+      <c r="AT158">
+        <v>2.62</v>
+      </c>
+      <c r="AU158">
         <v>3</v>
       </c>
-      <c r="O158" t="s">
-        <v>183</v>
-      </c>
-      <c r="P158" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q158">
-        <v>2.5</v>
-      </c>
-      <c r="R158">
-        <v>2.5</v>
-      </c>
-      <c r="S158">
-        <v>3.4</v>
-      </c>
-      <c r="T158">
-        <v>1.25</v>
-      </c>
-      <c r="U158">
-        <v>3.7</v>
-      </c>
-      <c r="V158">
-        <v>2.21</v>
-      </c>
-      <c r="W158">
-        <v>1.61</v>
-      </c>
-      <c r="X158">
-        <v>4.8</v>
-      </c>
-      <c r="Y158">
-        <v>1.16</v>
-      </c>
-      <c r="Z158">
-        <v>2.14</v>
-      </c>
-      <c r="AA158">
-        <v>3.3</v>
-      </c>
-      <c r="AB158">
-        <v>2.5</v>
-      </c>
-      <c r="AC158">
-        <v>1.01</v>
-      </c>
-      <c r="AD158">
-        <v>13</v>
-      </c>
-      <c r="AE158">
-        <v>1.17</v>
-      </c>
-      <c r="AF158">
-        <v>4.75</v>
-      </c>
-      <c r="AG158">
-        <v>1.62</v>
-      </c>
-      <c r="AH158">
-        <v>2.15</v>
-      </c>
-      <c r="AI158">
-        <v>1.44</v>
-      </c>
-      <c r="AJ158">
-        <v>2.65</v>
-      </c>
-      <c r="AK158">
-        <v>1.42</v>
-      </c>
-      <c r="AL158">
-        <v>1.2</v>
-      </c>
-      <c r="AM158">
-        <v>1.6</v>
-      </c>
-      <c r="AN158">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AO158">
-        <v>0.73</v>
-      </c>
-      <c r="AP158">
-        <v>1.06</v>
-      </c>
-      <c r="AQ158">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AR158">
-        <v>1.42</v>
-      </c>
-      <c r="AS158">
-        <v>1.43</v>
-      </c>
-      <c r="AT158">
-        <v>2.85</v>
-      </c>
-      <c r="AU158">
+      <c r="AV158">
+        <v>4</v>
+      </c>
+      <c r="AW158">
+        <v>5</v>
+      </c>
+      <c r="AX158">
+        <v>6</v>
+      </c>
+      <c r="AY158">
+        <v>8</v>
+      </c>
+      <c r="AZ158">
+        <v>10</v>
+      </c>
+      <c r="BA158">
+        <v>6</v>
+      </c>
+      <c r="BB158">
+        <v>3</v>
+      </c>
+      <c r="BC158">
         <v>9</v>
-      </c>
-      <c r="AV158">
-        <v>8</v>
-      </c>
-      <c r="AW158">
-        <v>9</v>
-      </c>
-      <c r="AX158">
-        <v>8</v>
-      </c>
-      <c r="AY158">
-        <v>18</v>
-      </c>
-      <c r="AZ158">
-        <v>16</v>
-      </c>
-      <c r="BA158">
-        <v>3</v>
-      </c>
-      <c r="BB158">
-        <v>8</v>
-      </c>
-      <c r="BC158">
-        <v>11</v>
       </c>
       <c r="BD158">
         <v>0</v>
@@ -33768,7 +33768,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>7325289</v>
+        <v>7325290</v>
       </c>
       <c r="C159" t="s">
         <v>68</v>
@@ -33777,16 +33777,16 @@
         <v>69</v>
       </c>
       <c r="E159" s="2">
-        <v>45583.875</v>
+        <v>45584.45833333334</v>
       </c>
       <c r="F159">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G159" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H159" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -33801,10 +33801,10 @@
         <v>0</v>
       </c>
       <c r="M159">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N159">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O159" t="s">
         <v>81</v>
@@ -33813,121 +33813,121 @@
         <v>275</v>
       </c>
       <c r="Q159">
+        <v>8.5</v>
+      </c>
+      <c r="R159">
+        <v>2.5</v>
+      </c>
+      <c r="S159">
+        <v>1.67</v>
+      </c>
+      <c r="T159">
+        <v>0</v>
+      </c>
+      <c r="U159">
+        <v>0</v>
+      </c>
+      <c r="V159">
+        <v>0</v>
+      </c>
+      <c r="W159">
+        <v>0</v>
+      </c>
+      <c r="X159">
+        <v>0</v>
+      </c>
+      <c r="Y159">
+        <v>0</v>
+      </c>
+      <c r="Z159">
+        <v>7.5</v>
+      </c>
+      <c r="AA159">
         <v>4.75</v>
       </c>
-      <c r="R159">
-        <v>2.38</v>
-      </c>
-      <c r="S159">
+      <c r="AB159">
+        <v>1.26</v>
+      </c>
+      <c r="AC159">
+        <v>0</v>
+      </c>
+      <c r="AD159">
+        <v>0</v>
+      </c>
+      <c r="AE159">
+        <v>0</v>
+      </c>
+      <c r="AF159">
+        <v>0</v>
+      </c>
+      <c r="AG159">
+        <v>1.6</v>
+      </c>
+      <c r="AH159">
+        <v>2.2</v>
+      </c>
+      <c r="AI159">
+        <v>0</v>
+      </c>
+      <c r="AJ159">
+        <v>0</v>
+      </c>
+      <c r="AK159">
+        <v>0</v>
+      </c>
+      <c r="AL159">
+        <v>0</v>
+      </c>
+      <c r="AM159">
+        <v>0</v>
+      </c>
+      <c r="AN159">
+        <v>1.2</v>
+      </c>
+      <c r="AO159">
+        <v>2.6</v>
+      </c>
+      <c r="AP159">
+        <v>1.13</v>
+      </c>
+      <c r="AQ159">
+        <v>2.63</v>
+      </c>
+      <c r="AR159">
         <v>2.1</v>
       </c>
-      <c r="T159">
-        <v>0</v>
-      </c>
-      <c r="U159">
-        <v>0</v>
-      </c>
-      <c r="V159">
-        <v>0</v>
-      </c>
-      <c r="W159">
-        <v>0</v>
-      </c>
-      <c r="X159">
-        <v>0</v>
-      </c>
-      <c r="Y159">
-        <v>0</v>
-      </c>
-      <c r="Z159">
-        <v>4.66</v>
-      </c>
-      <c r="AA159">
-        <v>3.66</v>
-      </c>
-      <c r="AB159">
-        <v>1.53</v>
-      </c>
-      <c r="AC159">
-        <v>0</v>
-      </c>
-      <c r="AD159">
-        <v>0</v>
-      </c>
-      <c r="AE159">
-        <v>0</v>
-      </c>
-      <c r="AF159">
-        <v>0</v>
-      </c>
-      <c r="AG159">
-        <v>1.67</v>
-      </c>
-      <c r="AH159">
+      <c r="AS159">
+        <v>2.34</v>
+      </c>
+      <c r="AT159">
+        <v>4.44</v>
+      </c>
+      <c r="AU159">
+        <v>0</v>
+      </c>
+      <c r="AV159">
+        <v>3</v>
+      </c>
+      <c r="AW159">
+        <v>4</v>
+      </c>
+      <c r="AX159">
         <v>2</v>
       </c>
-      <c r="AI159">
-        <v>0</v>
-      </c>
-      <c r="AJ159">
-        <v>0</v>
-      </c>
-      <c r="AK159">
-        <v>0</v>
-      </c>
-      <c r="AL159">
-        <v>0</v>
-      </c>
-      <c r="AM159">
-        <v>0</v>
-      </c>
-      <c r="AN159">
-        <v>0.73</v>
-      </c>
-      <c r="AO159">
-        <v>0.87</v>
-      </c>
-      <c r="AP159">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AQ159">
-        <v>1</v>
-      </c>
-      <c r="AR159">
-        <v>1.28</v>
-      </c>
-      <c r="AS159">
-        <v>1.34</v>
-      </c>
-      <c r="AT159">
-        <v>2.62</v>
-      </c>
-      <c r="AU159">
+      <c r="AY159">
+        <v>4</v>
+      </c>
+      <c r="AZ159">
+        <v>5</v>
+      </c>
+      <c r="BA159">
+        <v>1</v>
+      </c>
+      <c r="BB159">
+        <v>2</v>
+      </c>
+      <c r="BC159">
         <v>3</v>
-      </c>
-      <c r="AV159">
-        <v>4</v>
-      </c>
-      <c r="AW159">
-        <v>5</v>
-      </c>
-      <c r="AX159">
-        <v>6</v>
-      </c>
-      <c r="AY159">
-        <v>8</v>
-      </c>
-      <c r="AZ159">
-        <v>10</v>
-      </c>
-      <c r="BA159">
-        <v>6</v>
-      </c>
-      <c r="BB159">
-        <v>3</v>
-      </c>
-      <c r="BC159">
-        <v>9</v>
       </c>
       <c r="BD159">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="279">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -572,6 +572,9 @@
   </si>
   <si>
     <t>['21', '46']</t>
+  </si>
+  <si>
+    <t>['73', '87']</t>
   </si>
   <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
@@ -1209,7 +1212,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP161"/>
+  <dimension ref="A1:BP163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1549,7 +1552,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ2">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1674,7 +1677,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1958,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ4">
         <v>1.38</v>
@@ -2086,7 +2089,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -2292,7 +2295,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2576,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2704,7 +2707,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -3116,7 +3119,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -3197,7 +3200,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ10">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3322,7 +3325,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3528,7 +3531,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3734,7 +3737,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3940,7 +3943,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -4146,7 +4149,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4227,7 +4230,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ15">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR15">
         <v>0.5</v>
@@ -4764,7 +4767,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -5051,7 +5054,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ19">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="AR19">
         <v>1.58</v>
@@ -5254,7 +5257,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ20">
         <v>1.53</v>
@@ -5460,7 +5463,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ21">
         <v>1.94</v>
@@ -5588,7 +5591,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5794,7 +5797,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -6000,7 +6003,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -6081,7 +6084,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ24">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR24">
         <v>2.63</v>
@@ -6206,7 +6209,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6618,7 +6621,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6696,10 +6699,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ27">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR27">
         <v>2.19</v>
@@ -6824,7 +6827,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -7108,10 +7111,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ29">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="AR29">
         <v>2.32</v>
@@ -7236,7 +7239,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7442,7 +7445,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7648,7 +7651,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7854,7 +7857,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -8060,7 +8063,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -8266,7 +8269,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8550,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -8884,7 +8887,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -9090,7 +9093,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -9171,7 +9174,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ39">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="AR39">
         <v>1.08</v>
@@ -9296,7 +9299,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9502,7 +9505,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9708,7 +9711,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9786,7 +9789,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ42">
         <v>2.63</v>
@@ -9914,7 +9917,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -10198,7 +10201,7 @@
         <v>1.4</v>
       </c>
       <c r="AP44">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ44">
         <v>1.94</v>
@@ -10326,7 +10329,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10819,7 +10822,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ47">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR47">
         <v>1.09</v>
@@ -11562,7 +11565,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -12052,7 +12055,7 @@
         <v>2.2</v>
       </c>
       <c r="AP53">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ53">
         <v>1.88</v>
@@ -12386,7 +12389,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12592,7 +12595,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12670,7 +12673,7 @@
         <v>1.43</v>
       </c>
       <c r="AP56">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ56">
         <v>1.94</v>
@@ -12798,7 +12801,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13085,7 +13088,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ58">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR58">
         <v>1.96</v>
@@ -13291,7 +13294,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ59">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="AR59">
         <v>1.41</v>
@@ -13416,7 +13419,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13703,7 +13706,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ61">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR61">
         <v>1.78</v>
@@ -13828,7 +13831,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -14034,7 +14037,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -14112,7 +14115,7 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ63">
         <v>0.6899999999999999</v>
@@ -14240,7 +14243,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14446,7 +14449,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14652,7 +14655,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14730,7 +14733,7 @@
         <v>0.5</v>
       </c>
       <c r="AP66">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ66">
         <v>1.38</v>
@@ -14858,7 +14861,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -15064,7 +15067,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -15145,7 +15148,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ68">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="AR68">
         <v>2.01</v>
@@ -15270,7 +15273,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15476,7 +15479,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15682,7 +15685,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -16172,10 +16175,10 @@
         <v>0.67</v>
       </c>
       <c r="AP73">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ73">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR73">
         <v>2.41</v>
@@ -16584,7 +16587,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ75">
         <v>0.6899999999999999</v>
@@ -16712,7 +16715,7 @@
         <v>131</v>
       </c>
       <c r="P76" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -17124,7 +17127,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17330,7 +17333,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q79">
         <v>1.53</v>
@@ -17408,7 +17411,7 @@
         <v>1.29</v>
       </c>
       <c r="AP79">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ79">
         <v>1.06</v>
@@ -17536,7 +17539,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17617,7 +17620,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ80">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="AR80">
         <v>1.48</v>
@@ -17742,7 +17745,7 @@
         <v>81</v>
       </c>
       <c r="P81" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q81">
         <v>1.6</v>
@@ -18154,7 +18157,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q83">
         <v>8.5</v>
@@ -18360,7 +18363,7 @@
         <v>81</v>
       </c>
       <c r="P84" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18441,7 +18444,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ84">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR84">
         <v>1.8</v>
@@ -18772,7 +18775,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q86">
         <v>5.66</v>
@@ -18978,7 +18981,7 @@
         <v>137</v>
       </c>
       <c r="P87" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q87">
         <v>4.95</v>
@@ -19056,7 +19059,7 @@
         <v>1.88</v>
       </c>
       <c r="AP87">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ87">
         <v>1.88</v>
@@ -19184,7 +19187,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q88">
         <v>2.77</v>
@@ -19390,7 +19393,7 @@
         <v>138</v>
       </c>
       <c r="P89" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -19596,7 +19599,7 @@
         <v>122</v>
       </c>
       <c r="P90" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q90">
         <v>11</v>
@@ -19802,7 +19805,7 @@
         <v>139</v>
       </c>
       <c r="P91" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q91">
         <v>1.83</v>
@@ -20008,7 +20011,7 @@
         <v>140</v>
       </c>
       <c r="P92" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20089,7 +20092,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ92">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR92">
         <v>1.58</v>
@@ -20214,7 +20217,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q93">
         <v>2.3</v>
@@ -20292,10 +20295,10 @@
         <v>0.25</v>
       </c>
       <c r="AP93">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ93">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="AR93">
         <v>2.08</v>
@@ -20704,7 +20707,7 @@
         <v>1.78</v>
       </c>
       <c r="AP95">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ95">
         <v>1.53</v>
@@ -21119,7 +21122,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ97">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="AR97">
         <v>1.43</v>
@@ -21244,7 +21247,7 @@
         <v>145</v>
       </c>
       <c r="P98" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -21528,7 +21531,7 @@
         <v>1.6</v>
       </c>
       <c r="AP99">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ99">
         <v>1.53</v>
@@ -21656,7 +21659,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -22146,10 +22149,10 @@
         <v>0.89</v>
       </c>
       <c r="AP102">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ102">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR102">
         <v>2.37</v>
@@ -22274,7 +22277,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q103">
         <v>1.91</v>
@@ -22561,7 +22564,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ104">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="AR104">
         <v>1.75</v>
@@ -23098,7 +23101,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q107">
         <v>1.06</v>
@@ -23176,7 +23179,7 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ107">
         <v>1</v>
@@ -23304,7 +23307,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23510,7 +23513,7 @@
         <v>151</v>
       </c>
       <c r="P109" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q109">
         <v>2.2</v>
@@ -23716,7 +23719,7 @@
         <v>81</v>
       </c>
       <c r="P110" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24128,7 +24131,7 @@
         <v>81</v>
       </c>
       <c r="P112" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24209,7 +24212,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ112">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR112">
         <v>1.62</v>
@@ -24334,7 +24337,7 @@
         <v>152</v>
       </c>
       <c r="P113" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -24540,7 +24543,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q114">
         <v>2.1</v>
@@ -24618,10 +24621,10 @@
         <v>0.18</v>
       </c>
       <c r="AP114">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ114">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="AR114">
         <v>2.08</v>
@@ -24824,7 +24827,7 @@
         <v>0.91</v>
       </c>
       <c r="AP115">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ115">
         <v>1.06</v>
@@ -24952,7 +24955,7 @@
         <v>155</v>
       </c>
       <c r="P116" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q116">
         <v>2.5</v>
@@ -25158,7 +25161,7 @@
         <v>156</v>
       </c>
       <c r="P117" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q117">
         <v>1.91</v>
@@ -25239,7 +25242,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ117">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR117">
         <v>1.95</v>
@@ -25651,7 +25654,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ119">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="AR119">
         <v>1.88</v>
@@ -25776,7 +25779,7 @@
         <v>81</v>
       </c>
       <c r="P120" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q120">
         <v>5.33</v>
@@ -25982,7 +25985,7 @@
         <v>81</v>
       </c>
       <c r="P121" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -26188,7 +26191,7 @@
         <v>153</v>
       </c>
       <c r="P122" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q122">
         <v>6.41</v>
@@ -26266,7 +26269,7 @@
         <v>1.83</v>
       </c>
       <c r="AP122">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ122">
         <v>1.94</v>
@@ -26394,7 +26397,7 @@
         <v>104</v>
       </c>
       <c r="P123" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26678,7 +26681,7 @@
         <v>1.92</v>
       </c>
       <c r="AP124">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ124">
         <v>1.88</v>
@@ -26806,7 +26809,7 @@
         <v>160</v>
       </c>
       <c r="P125" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -27218,7 +27221,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q127">
         <v>3.75</v>
@@ -27299,7 +27302,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ127">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR127">
         <v>1.18</v>
@@ -27424,7 +27427,7 @@
         <v>162</v>
       </c>
       <c r="P128" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q128">
         <v>2.63</v>
@@ -27836,7 +27839,7 @@
         <v>163</v>
       </c>
       <c r="P130" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -27914,7 +27917,7 @@
         <v>0.92</v>
       </c>
       <c r="AP130">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ130">
         <v>0.6899999999999999</v>
@@ -28042,7 +28045,7 @@
         <v>164</v>
       </c>
       <c r="P131" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -28248,7 +28251,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q132">
         <v>1.67</v>
@@ -28329,7 +28332,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ132">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="AR132">
         <v>2.26</v>
@@ -28454,7 +28457,7 @@
         <v>81</v>
       </c>
       <c r="P133" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q133">
         <v>4.75</v>
@@ -28660,7 +28663,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q134">
         <v>4.33</v>
@@ -28866,7 +28869,7 @@
         <v>81</v>
       </c>
       <c r="P135" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q135">
         <v>10</v>
@@ -29072,7 +29075,7 @@
         <v>167</v>
       </c>
       <c r="P136" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q136">
         <v>7.5</v>
@@ -29359,7 +29362,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ137">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="AR137">
         <v>2.02</v>
@@ -29484,7 +29487,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -29690,7 +29693,7 @@
         <v>170</v>
       </c>
       <c r="P139" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q139">
         <v>1.8</v>
@@ -29771,7 +29774,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ139">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR139">
         <v>2.3</v>
@@ -29896,7 +29899,7 @@
         <v>81</v>
       </c>
       <c r="P140" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q140">
         <v>4.5</v>
@@ -30102,7 +30105,7 @@
         <v>171</v>
       </c>
       <c r="P141" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q141">
         <v>2.1</v>
@@ -30514,7 +30517,7 @@
         <v>173</v>
       </c>
       <c r="P143" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q143">
         <v>1.5</v>
@@ -30592,7 +30595,7 @@
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ143">
         <v>1</v>
@@ -30926,7 +30929,7 @@
         <v>175</v>
       </c>
       <c r="P145" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -31210,7 +31213,7 @@
         <v>0.79</v>
       </c>
       <c r="AP146">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ146">
         <v>0.6899999999999999</v>
@@ -31419,7 +31422,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ147">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="AR147">
         <v>1.38</v>
@@ -31750,7 +31753,7 @@
         <v>81</v>
       </c>
       <c r="P149" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q149">
         <v>4.4</v>
@@ -31956,7 +31959,7 @@
         <v>179</v>
       </c>
       <c r="P150" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q150">
         <v>4.75</v>
@@ -32034,7 +32037,7 @@
         <v>1.86</v>
       </c>
       <c r="AP150">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ150">
         <v>1.88</v>
@@ -32240,7 +32243,7 @@
         <v>1.43</v>
       </c>
       <c r="AP151">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AQ151">
         <v>1.38</v>
@@ -32368,7 +32371,7 @@
         <v>81</v>
       </c>
       <c r="P152" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q152">
         <v>9</v>
@@ -32574,7 +32577,7 @@
         <v>81</v>
       </c>
       <c r="P153" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q153">
         <v>6</v>
@@ -32780,7 +32783,7 @@
         <v>180</v>
       </c>
       <c r="P154" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -32986,7 +32989,7 @@
         <v>181</v>
       </c>
       <c r="P155" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q155">
         <v>3.1</v>
@@ -33192,7 +33195,7 @@
         <v>182</v>
       </c>
       <c r="P156" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q156">
         <v>2.88</v>
@@ -33273,7 +33276,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ156">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR156">
         <v>1.47</v>
@@ -33398,7 +33401,7 @@
         <v>183</v>
       </c>
       <c r="P157" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q157">
         <v>2.5</v>
@@ -33604,7 +33607,7 @@
         <v>81</v>
       </c>
       <c r="P158" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q158">
         <v>4.75</v>
@@ -33810,7 +33813,7 @@
         <v>81</v>
       </c>
       <c r="P159" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q159">
         <v>8.5</v>
@@ -33888,7 +33891,7 @@
         <v>2.6</v>
       </c>
       <c r="AP159">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AQ159">
         <v>2.63</v>
@@ -34016,7 +34019,7 @@
         <v>184</v>
       </c>
       <c r="P160" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q160">
         <v>1.91</v>
@@ -34222,7 +34225,7 @@
         <v>185</v>
       </c>
       <c r="P161" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q161">
         <v>2.5</v>
@@ -34378,6 +34381,418 @@
         <v>0</v>
       </c>
       <c r="BP161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:68">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>7325293</v>
+      </c>
+      <c r="C162" t="s">
+        <v>68</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45587.5</v>
+      </c>
+      <c r="F162">
+        <v>33</v>
+      </c>
+      <c r="G162" t="s">
+        <v>75</v>
+      </c>
+      <c r="H162" t="s">
+        <v>71</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="L162">
+        <v>2</v>
+      </c>
+      <c r="M162">
+        <v>1</v>
+      </c>
+      <c r="N162">
+        <v>3</v>
+      </c>
+      <c r="O162" t="s">
+        <v>186</v>
+      </c>
+      <c r="P162" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q162">
+        <v>2.5</v>
+      </c>
+      <c r="R162">
+        <v>2.4</v>
+      </c>
+      <c r="S162">
+        <v>3.4</v>
+      </c>
+      <c r="T162">
+        <v>1.3</v>
+      </c>
+      <c r="U162">
+        <v>3.2</v>
+      </c>
+      <c r="V162">
+        <v>2.3</v>
+      </c>
+      <c r="W162">
+        <v>1.55</v>
+      </c>
+      <c r="X162">
+        <v>4.5</v>
+      </c>
+      <c r="Y162">
+        <v>1.17</v>
+      </c>
+      <c r="Z162">
+        <v>1.85</v>
+      </c>
+      <c r="AA162">
+        <v>3.75</v>
+      </c>
+      <c r="AB162">
+        <v>3.25</v>
+      </c>
+      <c r="AC162">
+        <v>1.01</v>
+      </c>
+      <c r="AD162">
+        <v>15</v>
+      </c>
+      <c r="AE162">
+        <v>1.18</v>
+      </c>
+      <c r="AF162">
+        <v>4.5</v>
+      </c>
+      <c r="AG162">
+        <v>1.53</v>
+      </c>
+      <c r="AH162">
+        <v>2.25</v>
+      </c>
+      <c r="AI162">
+        <v>1.45</v>
+      </c>
+      <c r="AJ162">
+        <v>2.45</v>
+      </c>
+      <c r="AK162">
+        <v>1.25</v>
+      </c>
+      <c r="AL162">
+        <v>1.22</v>
+      </c>
+      <c r="AM162">
+        <v>1.8</v>
+      </c>
+      <c r="AN162">
+        <v>1.13</v>
+      </c>
+      <c r="AO162">
+        <v>0.87</v>
+      </c>
+      <c r="AP162">
+        <v>1.24</v>
+      </c>
+      <c r="AQ162">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR162">
+        <v>1.99</v>
+      </c>
+      <c r="AS162">
+        <v>1.49</v>
+      </c>
+      <c r="AT162">
+        <v>3.48</v>
+      </c>
+      <c r="AU162">
+        <v>7</v>
+      </c>
+      <c r="AV162">
+        <v>7</v>
+      </c>
+      <c r="AW162">
+        <v>9</v>
+      </c>
+      <c r="AX162">
+        <v>14</v>
+      </c>
+      <c r="AY162">
+        <v>16</v>
+      </c>
+      <c r="AZ162">
+        <v>21</v>
+      </c>
+      <c r="BA162">
+        <v>7</v>
+      </c>
+      <c r="BB162">
+        <v>6</v>
+      </c>
+      <c r="BC162">
+        <v>13</v>
+      </c>
+      <c r="BD162">
+        <v>0</v>
+      </c>
+      <c r="BE162">
+        <v>0</v>
+      </c>
+      <c r="BF162">
+        <v>0</v>
+      </c>
+      <c r="BG162">
+        <v>0</v>
+      </c>
+      <c r="BH162">
+        <v>0</v>
+      </c>
+      <c r="BI162">
+        <v>0</v>
+      </c>
+      <c r="BJ162">
+        <v>0</v>
+      </c>
+      <c r="BK162">
+        <v>0</v>
+      </c>
+      <c r="BL162">
+        <v>0</v>
+      </c>
+      <c r="BM162">
+        <v>0</v>
+      </c>
+      <c r="BN162">
+        <v>0</v>
+      </c>
+      <c r="BO162">
+        <v>0</v>
+      </c>
+      <c r="BP162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:68">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>7325294</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45587.5</v>
+      </c>
+      <c r="F163">
+        <v>33</v>
+      </c>
+      <c r="G163" t="s">
+        <v>72</v>
+      </c>
+      <c r="H163" t="s">
+        <v>79</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>1</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+      <c r="N163">
+        <v>2</v>
+      </c>
+      <c r="O163" t="s">
+        <v>83</v>
+      </c>
+      <c r="P163" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q163">
+        <v>1.33</v>
+      </c>
+      <c r="R163">
+        <v>3.6</v>
+      </c>
+      <c r="S163">
+        <v>12</v>
+      </c>
+      <c r="T163">
+        <v>1.15</v>
+      </c>
+      <c r="U163">
+        <v>4.75</v>
+      </c>
+      <c r="V163">
+        <v>1.77</v>
+      </c>
+      <c r="W163">
+        <v>1.95</v>
+      </c>
+      <c r="X163">
+        <v>3</v>
+      </c>
+      <c r="Y163">
+        <v>1.36</v>
+      </c>
+      <c r="Z163">
+        <v>1.06</v>
+      </c>
+      <c r="AA163">
+        <v>11</v>
+      </c>
+      <c r="AB163">
+        <v>17</v>
+      </c>
+      <c r="AC163">
+        <v>0</v>
+      </c>
+      <c r="AD163">
+        <v>0</v>
+      </c>
+      <c r="AE163">
+        <v>1.02</v>
+      </c>
+      <c r="AF163">
+        <v>7.3</v>
+      </c>
+      <c r="AG163">
+        <v>1.23</v>
+      </c>
+      <c r="AH163">
+        <v>3.73</v>
+      </c>
+      <c r="AI163">
+        <v>2</v>
+      </c>
+      <c r="AJ163">
+        <v>1.67</v>
+      </c>
+      <c r="AK163">
+        <v>1.01</v>
+      </c>
+      <c r="AL163">
+        <v>1.01</v>
+      </c>
+      <c r="AM163">
+        <v>6</v>
+      </c>
+      <c r="AN163">
+        <v>2.38</v>
+      </c>
+      <c r="AO163">
+        <v>0.19</v>
+      </c>
+      <c r="AP163">
+        <v>2.29</v>
+      </c>
+      <c r="AQ163">
+        <v>0.24</v>
+      </c>
+      <c r="AR163">
+        <v>2.38</v>
+      </c>
+      <c r="AS163">
+        <v>1.18</v>
+      </c>
+      <c r="AT163">
+        <v>3.56</v>
+      </c>
+      <c r="AU163">
+        <v>5</v>
+      </c>
+      <c r="AV163">
+        <v>2</v>
+      </c>
+      <c r="AW163">
+        <v>21</v>
+      </c>
+      <c r="AX163">
+        <v>0</v>
+      </c>
+      <c r="AY163">
+        <v>26</v>
+      </c>
+      <c r="AZ163">
+        <v>2</v>
+      </c>
+      <c r="BA163">
+        <v>15</v>
+      </c>
+      <c r="BB163">
+        <v>0</v>
+      </c>
+      <c r="BC163">
+        <v>15</v>
+      </c>
+      <c r="BD163">
+        <v>0</v>
+      </c>
+      <c r="BE163">
+        <v>0</v>
+      </c>
+      <c r="BF163">
+        <v>0</v>
+      </c>
+      <c r="BG163">
+        <v>0</v>
+      </c>
+      <c r="BH163">
+        <v>0</v>
+      </c>
+      <c r="BI163">
+        <v>0</v>
+      </c>
+      <c r="BJ163">
+        <v>0</v>
+      </c>
+      <c r="BK163">
+        <v>0</v>
+      </c>
+      <c r="BL163">
+        <v>0</v>
+      </c>
+      <c r="BM163">
+        <v>0</v>
+      </c>
+      <c r="BN163">
+        <v>0</v>
+      </c>
+      <c r="BO163">
+        <v>0</v>
+      </c>
+      <c r="BP163">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="281">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -577,6 +577,9 @@
     <t>['73', '87']</t>
   </si>
   <si>
+    <t>['64', '83', '87']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -851,6 +854,9 @@
   </si>
   <si>
     <t>['4']</t>
+  </si>
+  <si>
+    <t>['33', '54']</t>
   </si>
 </sst>
 </file>
@@ -1212,7 +1218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP163"/>
+  <dimension ref="A1:BP166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1549,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ2">
         <v>0.24</v>
@@ -1677,7 +1683,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1758,7 +1764,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ3">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1964,7 +1970,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ4">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2089,7 +2095,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -2167,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
         <v>1.06</v>
@@ -2295,7 +2301,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2373,10 +2379,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ6">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2707,7 +2713,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2994,7 +3000,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ9">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3119,7 +3125,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -3325,7 +3331,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3403,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ11">
         <v>0.6899999999999999</v>
@@ -3531,7 +3537,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3609,7 +3615,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
         <v>2.63</v>
@@ -3737,7 +3743,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3943,7 +3949,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -4149,7 +4155,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4227,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ15">
         <v>0.8100000000000001</v>
@@ -4436,7 +4442,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ16">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4767,7 +4773,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4845,10 +4851,10 @@
         <v>2</v>
       </c>
       <c r="AP18">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ18">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR18">
         <v>1.11</v>
@@ -5466,7 +5472,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ21">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR21">
         <v>2.61</v>
@@ -5591,7 +5597,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5797,7 +5803,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -6003,7 +6009,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -6209,7 +6215,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6287,10 +6293,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ25">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR25">
         <v>1.98</v>
@@ -6493,7 +6499,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6621,7 +6627,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6827,7 +6833,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -7239,7 +7245,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7317,7 +7323,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ30">
         <v>1.53</v>
@@ -7445,7 +7451,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7526,7 +7532,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ31">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR31">
         <v>2.12</v>
@@ -7651,7 +7657,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7729,7 +7735,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ32">
         <v>2.63</v>
@@ -7857,7 +7863,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7935,10 +7941,10 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ33">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR33">
         <v>1.95</v>
@@ -8063,7 +8069,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -8269,7 +8275,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8762,7 +8768,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ37">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR37">
         <v>1.49</v>
@@ -8887,7 +8893,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8965,10 +8971,10 @@
         <v>2.33</v>
       </c>
       <c r="AP38">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ38">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR38">
         <v>1.67</v>
@@ -9093,7 +9099,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -9171,7 +9177,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ39">
         <v>0.24</v>
@@ -9299,7 +9305,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9377,10 +9383,10 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ40">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR40">
         <v>1.38</v>
@@ -9505,7 +9511,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9711,7 +9717,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9917,7 +9923,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9998,7 +10004,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ43">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR43">
         <v>1.92</v>
@@ -10204,7 +10210,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ44">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR44">
         <v>2.3</v>
@@ -10329,7 +10335,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10407,7 +10413,7 @@
         <v>1.25</v>
       </c>
       <c r="AP45">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ45">
         <v>1.53</v>
@@ -11437,7 +11443,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ50">
         <v>2.63</v>
@@ -11565,7 +11571,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -11643,7 +11649,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ51">
         <v>1</v>
@@ -12058,7 +12064,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ53">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR53">
         <v>2.19</v>
@@ -12261,10 +12267,10 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ54">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR54">
         <v>1.38</v>
@@ -12389,7 +12395,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12470,7 +12476,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ55">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR55">
         <v>1.18</v>
@@ -12595,7 +12601,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12676,7 +12682,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ56">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR56">
         <v>1.96</v>
@@ -12801,7 +12807,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13291,7 +13297,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ59">
         <v>0.24</v>
@@ -13419,7 +13425,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13497,7 +13503,7 @@
         <v>2.5</v>
       </c>
       <c r="AP60">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ60">
         <v>2.63</v>
@@ -13703,7 +13709,7 @@
         <v>0.8</v>
       </c>
       <c r="AP61">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ61">
         <v>0.8100000000000001</v>
@@ -13831,7 +13837,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13912,7 +13918,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ62">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR62">
         <v>2.43</v>
@@ -14037,7 +14043,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -14243,7 +14249,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14324,7 +14330,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ64">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR64">
         <v>1.24</v>
@@ -14449,7 +14455,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14527,7 +14533,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ65">
         <v>1.06</v>
@@ -14655,7 +14661,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14736,7 +14742,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ66">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR66">
         <v>1.95</v>
@@ -14861,7 +14867,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -15067,7 +15073,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -15273,7 +15279,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15351,7 +15357,7 @@
         <v>1.83</v>
       </c>
       <c r="AP69">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ69">
         <v>1.53</v>
@@ -15479,7 +15485,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15685,7 +15691,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15969,10 +15975,10 @@
         <v>1.63</v>
       </c>
       <c r="AP72">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ72">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR72">
         <v>1.97</v>
@@ -16384,7 +16390,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ74">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR74">
         <v>1.81</v>
@@ -16715,7 +16721,7 @@
         <v>131</v>
       </c>
       <c r="P76" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16793,10 +16799,10 @@
         <v>1.44</v>
       </c>
       <c r="AP76">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ76">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR76">
         <v>1.56</v>
@@ -17127,7 +17133,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17205,10 +17211,10 @@
         <v>0.86</v>
       </c>
       <c r="AP78">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ78">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR78">
         <v>1.17</v>
@@ -17333,7 +17339,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q79">
         <v>1.53</v>
@@ -17539,7 +17545,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17745,7 +17751,7 @@
         <v>81</v>
       </c>
       <c r="P81" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q81">
         <v>1.6</v>
@@ -18157,7 +18163,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q83">
         <v>8.5</v>
@@ -18363,7 +18369,7 @@
         <v>81</v>
       </c>
       <c r="P84" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18647,7 +18653,7 @@
         <v>1.13</v>
       </c>
       <c r="AP85">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ85">
         <v>1.06</v>
@@ -18775,7 +18781,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q86">
         <v>5.66</v>
@@ -18856,7 +18862,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ86">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR86">
         <v>1.61</v>
@@ -18981,7 +18987,7 @@
         <v>137</v>
       </c>
       <c r="P87" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q87">
         <v>4.95</v>
@@ -19062,7 +19068,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ87">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR87">
         <v>2.06</v>
@@ -19187,7 +19193,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q88">
         <v>2.77</v>
@@ -19265,7 +19271,7 @@
         <v>0.75</v>
       </c>
       <c r="AP88">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ88">
         <v>0.6899999999999999</v>
@@ -19393,7 +19399,7 @@
         <v>138</v>
       </c>
       <c r="P89" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -19599,7 +19605,7 @@
         <v>122</v>
       </c>
       <c r="P90" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q90">
         <v>11</v>
@@ -19805,7 +19811,7 @@
         <v>139</v>
       </c>
       <c r="P91" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q91">
         <v>1.83</v>
@@ -20011,7 +20017,7 @@
         <v>140</v>
       </c>
       <c r="P92" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20089,7 +20095,7 @@
         <v>0.88</v>
       </c>
       <c r="AP92">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ92">
         <v>0.8100000000000001</v>
@@ -20217,7 +20223,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q93">
         <v>2.3</v>
@@ -20504,7 +20510,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ94">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR94">
         <v>2.14</v>
@@ -21119,7 +21125,7 @@
         <v>0.22</v>
       </c>
       <c r="AP97">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ97">
         <v>0.24</v>
@@ -21247,7 +21253,7 @@
         <v>145</v>
       </c>
       <c r="P98" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -21328,7 +21334,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ98">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR98">
         <v>1.81</v>
@@ -21659,7 +21665,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -21740,7 +21746,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ100">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR100">
         <v>1.13</v>
@@ -21943,10 +21949,10 @@
         <v>1.11</v>
       </c>
       <c r="AP101">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ101">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR101">
         <v>1.51</v>
@@ -22277,7 +22283,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q103">
         <v>1.91</v>
@@ -23101,7 +23107,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q107">
         <v>1.06</v>
@@ -23307,7 +23313,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23385,10 +23391,10 @@
         <v>1.82</v>
       </c>
       <c r="AP108">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ108">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR108">
         <v>1.62</v>
@@ -23513,7 +23519,7 @@
         <v>151</v>
       </c>
       <c r="P109" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q109">
         <v>2.2</v>
@@ -23591,10 +23597,10 @@
         <v>1.1</v>
       </c>
       <c r="AP109">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ109">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR109">
         <v>1.91</v>
@@ -23719,7 +23725,7 @@
         <v>81</v>
       </c>
       <c r="P110" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23800,7 +23806,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ110">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR110">
         <v>1.47</v>
@@ -24131,7 +24137,7 @@
         <v>81</v>
       </c>
       <c r="P112" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24209,7 +24215,7 @@
         <v>0.9</v>
       </c>
       <c r="AP112">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ112">
         <v>0.8100000000000001</v>
@@ -24337,7 +24343,7 @@
         <v>152</v>
       </c>
       <c r="P113" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -24415,7 +24421,7 @@
         <v>2.73</v>
       </c>
       <c r="AP113">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ113">
         <v>2.63</v>
@@ -24543,7 +24549,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q114">
         <v>2.1</v>
@@ -24955,7 +24961,7 @@
         <v>155</v>
       </c>
       <c r="P116" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q116">
         <v>2.5</v>
@@ -25161,7 +25167,7 @@
         <v>156</v>
       </c>
       <c r="P117" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q117">
         <v>1.91</v>
@@ -25651,7 +25657,7 @@
         <v>0.25</v>
       </c>
       <c r="AP119">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ119">
         <v>0.24</v>
@@ -25779,7 +25785,7 @@
         <v>81</v>
       </c>
       <c r="P120" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q120">
         <v>5.33</v>
@@ -25857,7 +25863,7 @@
         <v>1.45</v>
       </c>
       <c r="AP120">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ120">
         <v>1.53</v>
@@ -25985,7 +25991,7 @@
         <v>81</v>
       </c>
       <c r="P121" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -26066,7 +26072,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ121">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR121">
         <v>1.47</v>
@@ -26191,7 +26197,7 @@
         <v>153</v>
       </c>
       <c r="P122" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q122">
         <v>6.41</v>
@@ -26272,7 +26278,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ122">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR122">
         <v>2.06</v>
@@ -26397,7 +26403,7 @@
         <v>104</v>
       </c>
       <c r="P123" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26684,7 +26690,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ124">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR124">
         <v>2.48</v>
@@ -26809,7 +26815,7 @@
         <v>160</v>
       </c>
       <c r="P125" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -26887,7 +26893,7 @@
         <v>2.75</v>
       </c>
       <c r="AP125">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ125">
         <v>2.63</v>
@@ -27221,7 +27227,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q127">
         <v>3.75</v>
@@ -27427,7 +27433,7 @@
         <v>162</v>
       </c>
       <c r="P128" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q128">
         <v>2.63</v>
@@ -27508,7 +27514,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ128">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR128">
         <v>2</v>
@@ -27711,7 +27717,7 @@
         <v>1.08</v>
       </c>
       <c r="AP129">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ129">
         <v>1</v>
@@ -27839,7 +27845,7 @@
         <v>163</v>
       </c>
       <c r="P130" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -28045,7 +28051,7 @@
         <v>164</v>
       </c>
       <c r="P131" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -28251,7 +28257,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q132">
         <v>1.67</v>
@@ -28457,7 +28463,7 @@
         <v>81</v>
       </c>
       <c r="P133" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q133">
         <v>4.75</v>
@@ -28535,10 +28541,10 @@
         <v>1.77</v>
       </c>
       <c r="AP133">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ133">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR133">
         <v>1.5</v>
@@ -28663,7 +28669,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q134">
         <v>4.33</v>
@@ -28869,7 +28875,7 @@
         <v>81</v>
       </c>
       <c r="P135" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q135">
         <v>10</v>
@@ -29075,7 +29081,7 @@
         <v>167</v>
       </c>
       <c r="P136" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q136">
         <v>7.5</v>
@@ -29153,10 +29159,10 @@
         <v>2</v>
       </c>
       <c r="AP136">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ136">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR136">
         <v>1.55</v>
@@ -29487,7 +29493,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -29565,7 +29571,7 @@
         <v>1</v>
       </c>
       <c r="AP138">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ138">
         <v>1.06</v>
@@ -29693,7 +29699,7 @@
         <v>170</v>
       </c>
       <c r="P139" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q139">
         <v>1.8</v>
@@ -29899,7 +29905,7 @@
         <v>81</v>
       </c>
       <c r="P140" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q140">
         <v>4.5</v>
@@ -29980,7 +29986,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ140">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR140">
         <v>1.26</v>
@@ -30105,7 +30111,7 @@
         <v>171</v>
       </c>
       <c r="P141" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q141">
         <v>2.1</v>
@@ -30183,7 +30189,7 @@
         <v>1</v>
       </c>
       <c r="AP141">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ141">
         <v>1.06</v>
@@ -30517,7 +30523,7 @@
         <v>173</v>
       </c>
       <c r="P143" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q143">
         <v>1.5</v>
@@ -30929,7 +30935,7 @@
         <v>175</v>
       </c>
       <c r="P145" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -31010,7 +31016,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ145">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR145">
         <v>2.29</v>
@@ -31625,7 +31631,7 @@
         <v>0.93</v>
       </c>
       <c r="AP148">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ148">
         <v>1</v>
@@ -31753,7 +31759,7 @@
         <v>81</v>
       </c>
       <c r="P149" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q149">
         <v>4.4</v>
@@ -31834,7 +31840,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ149">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR149">
         <v>1.77</v>
@@ -31959,7 +31965,7 @@
         <v>179</v>
       </c>
       <c r="P150" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q150">
         <v>4.75</v>
@@ -32040,7 +32046,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ150">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR150">
         <v>2.05</v>
@@ -32246,7 +32252,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ151">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR151">
         <v>2.47</v>
@@ -32371,7 +32377,7 @@
         <v>81</v>
       </c>
       <c r="P152" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q152">
         <v>9</v>
@@ -32577,7 +32583,7 @@
         <v>81</v>
       </c>
       <c r="P153" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q153">
         <v>6</v>
@@ -32783,7 +32789,7 @@
         <v>180</v>
       </c>
       <c r="P154" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -32861,7 +32867,7 @@
         <v>0.93</v>
       </c>
       <c r="AP154">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ154">
         <v>1.06</v>
@@ -32989,7 +32995,7 @@
         <v>181</v>
       </c>
       <c r="P155" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q155">
         <v>3.1</v>
@@ -33070,7 +33076,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ155">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AR155">
         <v>2.3</v>
@@ -33195,7 +33201,7 @@
         <v>182</v>
       </c>
       <c r="P156" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q156">
         <v>2.88</v>
@@ -33273,7 +33279,7 @@
         <v>0.93</v>
       </c>
       <c r="AP156">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AQ156">
         <v>0.8100000000000001</v>
@@ -33401,7 +33407,7 @@
         <v>183</v>
       </c>
       <c r="P157" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q157">
         <v>2.5</v>
@@ -33607,7 +33613,7 @@
         <v>81</v>
       </c>
       <c r="P158" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q158">
         <v>4.75</v>
@@ -33813,7 +33819,7 @@
         <v>81</v>
       </c>
       <c r="P159" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q159">
         <v>8.5</v>
@@ -34019,7 +34025,7 @@
         <v>184</v>
       </c>
       <c r="P160" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q160">
         <v>1.91</v>
@@ -34100,7 +34106,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ160">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR160">
         <v>2.09</v>
@@ -34225,7 +34231,7 @@
         <v>185</v>
       </c>
       <c r="P161" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q161">
         <v>2.5</v>
@@ -34431,7 +34437,7 @@
         <v>186</v>
       </c>
       <c r="P162" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -34793,6 +34799,624 @@
         <v>0</v>
       </c>
       <c r="BP163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:68">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>7325296</v>
+      </c>
+      <c r="C164" t="s">
+        <v>68</v>
+      </c>
+      <c r="D164" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45588.5</v>
+      </c>
+      <c r="F164">
+        <v>33</v>
+      </c>
+      <c r="G164" t="s">
+        <v>73</v>
+      </c>
+      <c r="H164" t="s">
+        <v>78</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>1</v>
+      </c>
+      <c r="N164">
+        <v>1</v>
+      </c>
+      <c r="O164" t="s">
+        <v>81</v>
+      </c>
+      <c r="P164" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q164">
+        <v>3.5</v>
+      </c>
+      <c r="R164">
+        <v>2.38</v>
+      </c>
+      <c r="S164">
+        <v>2.5</v>
+      </c>
+      <c r="T164">
+        <v>1.28</v>
+      </c>
+      <c r="U164">
+        <v>3.46</v>
+      </c>
+      <c r="V164">
+        <v>2.29</v>
+      </c>
+      <c r="W164">
+        <v>1.58</v>
+      </c>
+      <c r="X164">
+        <v>5.2</v>
+      </c>
+      <c r="Y164">
+        <v>1.14</v>
+      </c>
+      <c r="Z164">
+        <v>3.45</v>
+      </c>
+      <c r="AA164">
+        <v>3.4</v>
+      </c>
+      <c r="AB164">
+        <v>1.94</v>
+      </c>
+      <c r="AC164">
+        <v>1.01</v>
+      </c>
+      <c r="AD164">
+        <v>15</v>
+      </c>
+      <c r="AE164">
+        <v>1.12</v>
+      </c>
+      <c r="AF164">
+        <v>4.4</v>
+      </c>
+      <c r="AG164">
+        <v>1.57</v>
+      </c>
+      <c r="AH164">
+        <v>2.25</v>
+      </c>
+      <c r="AI164">
+        <v>1.48</v>
+      </c>
+      <c r="AJ164">
+        <v>2.4</v>
+      </c>
+      <c r="AK164">
+        <v>1.62</v>
+      </c>
+      <c r="AL164">
+        <v>1.25</v>
+      </c>
+      <c r="AM164">
+        <v>1.28</v>
+      </c>
+      <c r="AN164">
+        <v>1.06</v>
+      </c>
+      <c r="AO164">
+        <v>1.38</v>
+      </c>
+      <c r="AP164">
+        <v>1</v>
+      </c>
+      <c r="AQ164">
+        <v>1.47</v>
+      </c>
+      <c r="AR164">
+        <v>1.58</v>
+      </c>
+      <c r="AS164">
+        <v>1.68</v>
+      </c>
+      <c r="AT164">
+        <v>3.26</v>
+      </c>
+      <c r="AU164">
+        <v>7</v>
+      </c>
+      <c r="AV164">
+        <v>8</v>
+      </c>
+      <c r="AW164">
+        <v>12</v>
+      </c>
+      <c r="AX164">
+        <v>8</v>
+      </c>
+      <c r="AY164">
+        <v>19</v>
+      </c>
+      <c r="AZ164">
+        <v>16</v>
+      </c>
+      <c r="BA164">
+        <v>6</v>
+      </c>
+      <c r="BB164">
+        <v>4</v>
+      </c>
+      <c r="BC164">
+        <v>10</v>
+      </c>
+      <c r="BD164">
+        <v>0</v>
+      </c>
+      <c r="BE164">
+        <v>0</v>
+      </c>
+      <c r="BF164">
+        <v>0</v>
+      </c>
+      <c r="BG164">
+        <v>0</v>
+      </c>
+      <c r="BH164">
+        <v>0</v>
+      </c>
+      <c r="BI164">
+        <v>0</v>
+      </c>
+      <c r="BJ164">
+        <v>0</v>
+      </c>
+      <c r="BK164">
+        <v>0</v>
+      </c>
+      <c r="BL164">
+        <v>0</v>
+      </c>
+      <c r="BM164">
+        <v>0</v>
+      </c>
+      <c r="BN164">
+        <v>0</v>
+      </c>
+      <c r="BO164">
+        <v>0</v>
+      </c>
+      <c r="BP164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:68">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>7325297</v>
+      </c>
+      <c r="C165" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45588.5</v>
+      </c>
+      <c r="F165">
+        <v>33</v>
+      </c>
+      <c r="G165" t="s">
+        <v>74</v>
+      </c>
+      <c r="H165" t="s">
+        <v>77</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>1</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>1</v>
+      </c>
+      <c r="N165">
+        <v>1</v>
+      </c>
+      <c r="O165" t="s">
+        <v>81</v>
+      </c>
+      <c r="P165" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q165">
+        <v>6</v>
+      </c>
+      <c r="R165">
+        <v>2.5</v>
+      </c>
+      <c r="S165">
+        <v>1.8</v>
+      </c>
+      <c r="T165">
+        <v>1.25</v>
+      </c>
+      <c r="U165">
+        <v>3.5</v>
+      </c>
+      <c r="V165">
+        <v>2.25</v>
+      </c>
+      <c r="W165">
+        <v>1.57</v>
+      </c>
+      <c r="X165">
+        <v>5.05</v>
+      </c>
+      <c r="Y165">
+        <v>1.15</v>
+      </c>
+      <c r="Z165">
+        <v>4.6</v>
+      </c>
+      <c r="AA165">
+        <v>4.2</v>
+      </c>
+      <c r="AB165">
+        <v>1.55</v>
+      </c>
+      <c r="AC165">
+        <v>1.01</v>
+      </c>
+      <c r="AD165">
+        <v>17</v>
+      </c>
+      <c r="AE165">
+        <v>1.17</v>
+      </c>
+      <c r="AF165">
+        <v>4.75</v>
+      </c>
+      <c r="AG165">
+        <v>1.55</v>
+      </c>
+      <c r="AH165">
+        <v>2.35</v>
+      </c>
+      <c r="AI165">
+        <v>1.7</v>
+      </c>
+      <c r="AJ165">
+        <v>1.95</v>
+      </c>
+      <c r="AK165">
+        <v>2.9</v>
+      </c>
+      <c r="AL165">
+        <v>1.12</v>
+      </c>
+      <c r="AM165">
+        <v>1.06</v>
+      </c>
+      <c r="AN165">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AO165">
+        <v>1.94</v>
+      </c>
+      <c r="AP165">
+        <v>0.88</v>
+      </c>
+      <c r="AQ165">
+        <v>2</v>
+      </c>
+      <c r="AR165">
+        <v>1.5</v>
+      </c>
+      <c r="AS165">
+        <v>1.93</v>
+      </c>
+      <c r="AT165">
+        <v>3.43</v>
+      </c>
+      <c r="AU165">
+        <v>6</v>
+      </c>
+      <c r="AV165">
+        <v>5</v>
+      </c>
+      <c r="AW165">
+        <v>2</v>
+      </c>
+      <c r="AX165">
+        <v>10</v>
+      </c>
+      <c r="AY165">
+        <v>8</v>
+      </c>
+      <c r="AZ165">
+        <v>15</v>
+      </c>
+      <c r="BA165">
+        <v>3</v>
+      </c>
+      <c r="BB165">
+        <v>5</v>
+      </c>
+      <c r="BC165">
+        <v>8</v>
+      </c>
+      <c r="BD165">
+        <v>0</v>
+      </c>
+      <c r="BE165">
+        <v>0</v>
+      </c>
+      <c r="BF165">
+        <v>0</v>
+      </c>
+      <c r="BG165">
+        <v>0</v>
+      </c>
+      <c r="BH165">
+        <v>0</v>
+      </c>
+      <c r="BI165">
+        <v>0</v>
+      </c>
+      <c r="BJ165">
+        <v>0</v>
+      </c>
+      <c r="BK165">
+        <v>0</v>
+      </c>
+      <c r="BL165">
+        <v>0</v>
+      </c>
+      <c r="BM165">
+        <v>0</v>
+      </c>
+      <c r="BN165">
+        <v>0</v>
+      </c>
+      <c r="BO165">
+        <v>0</v>
+      </c>
+      <c r="BP165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:68">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>7325295</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45588.54166666666</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166" t="s">
+        <v>70</v>
+      </c>
+      <c r="H166" t="s">
+        <v>76</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>1</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166">
+        <v>3</v>
+      </c>
+      <c r="M166">
+        <v>2</v>
+      </c>
+      <c r="N166">
+        <v>5</v>
+      </c>
+      <c r="O166" t="s">
+        <v>187</v>
+      </c>
+      <c r="P166" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q166">
+        <v>2.88</v>
+      </c>
+      <c r="R166">
+        <v>2.38</v>
+      </c>
+      <c r="S166">
+        <v>2.88</v>
+      </c>
+      <c r="T166">
+        <v>1.3</v>
+      </c>
+      <c r="U166">
+        <v>3.2</v>
+      </c>
+      <c r="V166">
+        <v>2.38</v>
+      </c>
+      <c r="W166">
+        <v>1.53</v>
+      </c>
+      <c r="X166">
+        <v>5.55</v>
+      </c>
+      <c r="Y166">
+        <v>1.12</v>
+      </c>
+      <c r="Z166">
+        <v>2.8</v>
+      </c>
+      <c r="AA166">
+        <v>3.6</v>
+      </c>
+      <c r="AB166">
+        <v>2.1</v>
+      </c>
+      <c r="AC166">
+        <v>1.02</v>
+      </c>
+      <c r="AD166">
+        <v>13</v>
+      </c>
+      <c r="AE166">
+        <v>1.2</v>
+      </c>
+      <c r="AF166">
+        <v>4.2</v>
+      </c>
+      <c r="AG166">
+        <v>1.63</v>
+      </c>
+      <c r="AH166">
+        <v>2.2</v>
+      </c>
+      <c r="AI166">
+        <v>1.48</v>
+      </c>
+      <c r="AJ166">
+        <v>2.38</v>
+      </c>
+      <c r="AK166">
+        <v>1.5</v>
+      </c>
+      <c r="AL166">
+        <v>1.25</v>
+      </c>
+      <c r="AM166">
+        <v>1.42</v>
+      </c>
+      <c r="AN166">
+        <v>2.33</v>
+      </c>
+      <c r="AO166">
+        <v>1.88</v>
+      </c>
+      <c r="AP166">
+        <v>2.38</v>
+      </c>
+      <c r="AQ166">
+        <v>1.76</v>
+      </c>
+      <c r="AR166">
+        <v>1.88</v>
+      </c>
+      <c r="AS166">
+        <v>1.75</v>
+      </c>
+      <c r="AT166">
+        <v>3.63</v>
+      </c>
+      <c r="AU166">
+        <v>10</v>
+      </c>
+      <c r="AV166">
+        <v>7</v>
+      </c>
+      <c r="AW166">
+        <v>9</v>
+      </c>
+      <c r="AX166">
+        <v>4</v>
+      </c>
+      <c r="AY166">
+        <v>19</v>
+      </c>
+      <c r="AZ166">
+        <v>11</v>
+      </c>
+      <c r="BA166">
+        <v>12</v>
+      </c>
+      <c r="BB166">
+        <v>4</v>
+      </c>
+      <c r="BC166">
+        <v>16</v>
+      </c>
+      <c r="BD166">
+        <v>0</v>
+      </c>
+      <c r="BE166">
+        <v>0</v>
+      </c>
+      <c r="BF166">
+        <v>0</v>
+      </c>
+      <c r="BG166">
+        <v>0</v>
+      </c>
+      <c r="BH166">
+        <v>0</v>
+      </c>
+      <c r="BI166">
+        <v>0</v>
+      </c>
+      <c r="BJ166">
+        <v>0</v>
+      </c>
+      <c r="BK166">
+        <v>0</v>
+      </c>
+      <c r="BL166">
+        <v>0</v>
+      </c>
+      <c r="BM166">
+        <v>0</v>
+      </c>
+      <c r="BN166">
+        <v>0</v>
+      </c>
+      <c r="BO166">
+        <v>0</v>
+      </c>
+      <c r="BP166">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -35231,7 +35231,7 @@
         <v>45588.54166666666</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G166" t="s">
         <v>70</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="283">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -578,6 +578,12 @@
   </si>
   <si>
     <t>['64', '83', '87']</t>
+  </si>
+  <si>
+    <t>['34', '49', '67']</t>
+  </si>
+  <si>
+    <t>['16', '58']</t>
   </si>
   <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
@@ -1218,7 +1224,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP166"/>
+  <dimension ref="A1:BP169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1555,10 +1561,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ2">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1683,7 +1689,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -2095,7 +2101,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -2173,10 +2179,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ5">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2301,7 +2307,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2713,7 +2719,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -3125,7 +3131,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -3203,10 +3209,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ10">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3331,7 +3337,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3409,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ11">
         <v>0.6899999999999999</v>
@@ -3537,7 +3543,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3615,7 +3621,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ12">
         <v>2.63</v>
@@ -3743,7 +3749,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3821,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ13">
         <v>1.53</v>
@@ -3949,7 +3955,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -4030,7 +4036,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ14">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4155,7 +4161,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4236,7 +4242,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ15">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR15">
         <v>0.5</v>
@@ -4773,7 +4779,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -5060,7 +5066,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ19">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="AR19">
         <v>1.58</v>
@@ -5597,7 +5603,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5678,7 +5684,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ22">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>0.74</v>
@@ -5803,7 +5809,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -6009,7 +6015,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -6087,10 +6093,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ24">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR24">
         <v>2.63</v>
@@ -6215,7 +6221,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6293,7 +6299,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ25">
         <v>1.47</v>
@@ -6499,7 +6505,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6627,7 +6633,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6708,7 +6714,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ27">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR27">
         <v>2.19</v>
@@ -6833,7 +6839,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -7120,7 +7126,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ29">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="AR29">
         <v>2.32</v>
@@ -7245,7 +7251,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7451,7 +7457,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7657,7 +7663,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7735,7 +7741,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ32">
         <v>2.63</v>
@@ -7863,7 +7869,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7941,7 +7947,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ33">
         <v>2</v>
@@ -8069,7 +8075,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -8275,7 +8281,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8353,10 +8359,10 @@
         <v>1.33</v>
       </c>
       <c r="AP35">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ35">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>2.56</v>
@@ -8893,7 +8899,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8971,7 +8977,7 @@
         <v>2.33</v>
       </c>
       <c r="AP38">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ38">
         <v>1.76</v>
@@ -9099,7 +9105,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -9180,7 +9186,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ39">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="AR39">
         <v>1.08</v>
@@ -9305,7 +9311,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9383,7 +9389,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ40">
         <v>1.76</v>
@@ -9511,7 +9517,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9717,7 +9723,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9923,7 +9929,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -10335,7 +10341,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10413,7 +10419,7 @@
         <v>1.25</v>
       </c>
       <c r="AP45">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ45">
         <v>1.53</v>
@@ -10622,7 +10628,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ46">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR46">
         <v>1.97</v>
@@ -10828,7 +10834,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ47">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR47">
         <v>1.09</v>
@@ -11237,7 +11243,7 @@
         <v>1.25</v>
       </c>
       <c r="AP49">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ49">
         <v>0.6899999999999999</v>
@@ -11443,7 +11449,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ50">
         <v>2.63</v>
@@ -11571,7 +11577,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -11649,7 +11655,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ51">
         <v>1</v>
@@ -11858,7 +11864,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ52">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR52">
         <v>1.6</v>
@@ -12267,7 +12273,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ54">
         <v>1.47</v>
@@ -12395,7 +12401,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12601,7 +12607,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12807,7 +12813,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13094,7 +13100,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ58">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR58">
         <v>1.96</v>
@@ -13297,10 +13303,10 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ59">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="AR59">
         <v>1.41</v>
@@ -13425,7 +13431,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13709,10 +13715,10 @@
         <v>0.8</v>
       </c>
       <c r="AP61">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ61">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR61">
         <v>1.78</v>
@@ -13837,7 +13843,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13915,7 +13921,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ62">
         <v>1.76</v>
@@ -14043,7 +14049,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -14249,7 +14255,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14455,7 +14461,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14536,7 +14542,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ65">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR65">
         <v>1.14</v>
@@ -14661,7 +14667,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14867,7 +14873,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -15073,7 +15079,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -15154,7 +15160,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ68">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="AR68">
         <v>2.01</v>
@@ -15279,7 +15285,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15357,7 +15363,7 @@
         <v>1.83</v>
       </c>
       <c r="AP69">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ69">
         <v>1.53</v>
@@ -15485,7 +15491,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15563,7 +15569,7 @@
         <v>2.57</v>
       </c>
       <c r="AP70">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ70">
         <v>2.63</v>
@@ -15691,7 +15697,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15975,7 +15981,7 @@
         <v>1.63</v>
       </c>
       <c r="AP72">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ72">
         <v>2</v>
@@ -16184,7 +16190,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ73">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR73">
         <v>2.41</v>
@@ -16721,7 +16727,7 @@
         <v>131</v>
       </c>
       <c r="P76" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16799,7 +16805,7 @@
         <v>1.44</v>
       </c>
       <c r="AP76">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ76">
         <v>2</v>
@@ -17133,7 +17139,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17339,7 +17345,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q79">
         <v>1.53</v>
@@ -17420,7 +17426,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ79">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR79">
         <v>2.5</v>
@@ -17545,7 +17551,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17626,7 +17632,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ80">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="AR80">
         <v>1.48</v>
@@ -17751,7 +17757,7 @@
         <v>81</v>
       </c>
       <c r="P81" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q81">
         <v>1.6</v>
@@ -17829,7 +17835,7 @@
         <v>0.86</v>
       </c>
       <c r="AP81">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ81">
         <v>1</v>
@@ -18163,7 +18169,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q83">
         <v>8.5</v>
@@ -18369,7 +18375,7 @@
         <v>81</v>
       </c>
       <c r="P84" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18450,7 +18456,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ84">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR84">
         <v>1.8</v>
@@ -18653,10 +18659,10 @@
         <v>1.13</v>
       </c>
       <c r="AP85">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ85">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR85">
         <v>1.88</v>
@@ -18781,7 +18787,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q86">
         <v>5.66</v>
@@ -18987,7 +18993,7 @@
         <v>137</v>
       </c>
       <c r="P87" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q87">
         <v>4.95</v>
@@ -19193,7 +19199,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q88">
         <v>2.77</v>
@@ -19399,7 +19405,7 @@
         <v>138</v>
       </c>
       <c r="P89" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -19605,7 +19611,7 @@
         <v>122</v>
       </c>
       <c r="P90" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q90">
         <v>11</v>
@@ -19811,7 +19817,7 @@
         <v>139</v>
       </c>
       <c r="P91" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q91">
         <v>1.83</v>
@@ -20017,7 +20023,7 @@
         <v>140</v>
       </c>
       <c r="P92" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20095,10 +20101,10 @@
         <v>0.88</v>
       </c>
       <c r="AP92">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ92">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR92">
         <v>1.58</v>
@@ -20223,7 +20229,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q93">
         <v>2.3</v>
@@ -20304,7 +20310,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ93">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="AR93">
         <v>2.08</v>
@@ -20507,7 +20513,7 @@
         <v>1.13</v>
       </c>
       <c r="AP94">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ94">
         <v>1.47</v>
@@ -20922,7 +20928,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ96">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR96">
         <v>1.57</v>
@@ -21128,7 +21134,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ97">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="AR97">
         <v>1.43</v>
@@ -21253,7 +21259,7 @@
         <v>145</v>
       </c>
       <c r="P98" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -21665,7 +21671,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -22158,7 +22164,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ102">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR102">
         <v>2.37</v>
@@ -22283,7 +22289,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q103">
         <v>1.91</v>
@@ -22361,7 +22367,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ103">
         <v>0.6899999999999999</v>
@@ -22570,7 +22576,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ104">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="AR104">
         <v>1.75</v>
@@ -22776,7 +22782,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ105">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR105">
         <v>2.01</v>
@@ -23107,7 +23113,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q107">
         <v>1.06</v>
@@ -23313,7 +23319,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23391,7 +23397,7 @@
         <v>1.82</v>
       </c>
       <c r="AP108">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ108">
         <v>1.76</v>
@@ -23519,7 +23525,7 @@
         <v>151</v>
       </c>
       <c r="P109" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q109">
         <v>2.2</v>
@@ -23597,7 +23603,7 @@
         <v>1.1</v>
       </c>
       <c r="AP109">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ109">
         <v>1.47</v>
@@ -23725,7 +23731,7 @@
         <v>81</v>
       </c>
       <c r="P110" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24137,7 +24143,7 @@
         <v>81</v>
       </c>
       <c r="P112" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24215,10 +24221,10 @@
         <v>0.9</v>
       </c>
       <c r="AP112">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ112">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR112">
         <v>1.62</v>
@@ -24343,7 +24349,7 @@
         <v>152</v>
       </c>
       <c r="P113" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -24549,7 +24555,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q114">
         <v>2.1</v>
@@ -24630,7 +24636,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ114">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="AR114">
         <v>2.08</v>
@@ -24836,7 +24842,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ115">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR115">
         <v>2.51</v>
@@ -24961,7 +24967,7 @@
         <v>155</v>
       </c>
       <c r="P116" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q116">
         <v>2.5</v>
@@ -25167,7 +25173,7 @@
         <v>156</v>
       </c>
       <c r="P117" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q117">
         <v>1.91</v>
@@ -25248,7 +25254,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ117">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR117">
         <v>1.95</v>
@@ -25451,7 +25457,7 @@
         <v>1.18</v>
       </c>
       <c r="AP118">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ118">
         <v>1</v>
@@ -25657,10 +25663,10 @@
         <v>0.25</v>
       </c>
       <c r="AP119">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ119">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="AR119">
         <v>1.88</v>
@@ -25785,7 +25791,7 @@
         <v>81</v>
       </c>
       <c r="P120" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q120">
         <v>5.33</v>
@@ -25991,7 +25997,7 @@
         <v>81</v>
       </c>
       <c r="P121" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -26197,7 +26203,7 @@
         <v>153</v>
       </c>
       <c r="P122" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q122">
         <v>6.41</v>
@@ -26403,7 +26409,7 @@
         <v>104</v>
       </c>
       <c r="P123" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26815,7 +26821,7 @@
         <v>160</v>
       </c>
       <c r="P125" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -26893,7 +26899,7 @@
         <v>2.75</v>
       </c>
       <c r="AP125">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ125">
         <v>2.63</v>
@@ -27102,7 +27108,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ126">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR126">
         <v>1.74</v>
@@ -27227,7 +27233,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q127">
         <v>3.75</v>
@@ -27308,7 +27314,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ127">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR127">
         <v>1.18</v>
@@ -27433,7 +27439,7 @@
         <v>162</v>
       </c>
       <c r="P128" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q128">
         <v>2.63</v>
@@ -27717,7 +27723,7 @@
         <v>1.08</v>
       </c>
       <c r="AP129">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ129">
         <v>1</v>
@@ -27845,7 +27851,7 @@
         <v>163</v>
       </c>
       <c r="P130" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -28051,7 +28057,7 @@
         <v>164</v>
       </c>
       <c r="P131" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -28257,7 +28263,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q132">
         <v>1.67</v>
@@ -28335,10 +28341,10 @@
         <v>0.23</v>
       </c>
       <c r="AP132">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ132">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="AR132">
         <v>2.26</v>
@@ -28463,7 +28469,7 @@
         <v>81</v>
       </c>
       <c r="P133" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q133">
         <v>4.75</v>
@@ -28669,7 +28675,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q134">
         <v>4.33</v>
@@ -28875,7 +28881,7 @@
         <v>81</v>
       </c>
       <c r="P135" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q135">
         <v>10</v>
@@ -29081,7 +29087,7 @@
         <v>167</v>
       </c>
       <c r="P136" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q136">
         <v>7.5</v>
@@ -29159,7 +29165,7 @@
         <v>2</v>
       </c>
       <c r="AP136">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ136">
         <v>2</v>
@@ -29368,7 +29374,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ137">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="AR137">
         <v>2.02</v>
@@ -29493,7 +29499,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -29574,7 +29580,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ138">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR138">
         <v>1.47</v>
@@ -29699,7 +29705,7 @@
         <v>170</v>
       </c>
       <c r="P139" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q139">
         <v>1.8</v>
@@ -29777,10 +29783,10 @@
         <v>1</v>
       </c>
       <c r="AP139">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ139">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR139">
         <v>2.3</v>
@@ -29905,7 +29911,7 @@
         <v>81</v>
       </c>
       <c r="P140" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q140">
         <v>4.5</v>
@@ -30111,7 +30117,7 @@
         <v>171</v>
       </c>
       <c r="P141" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q141">
         <v>2.1</v>
@@ -30189,10 +30195,10 @@
         <v>1</v>
       </c>
       <c r="AP141">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ141">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR141">
         <v>1.87</v>
@@ -30523,7 +30529,7 @@
         <v>173</v>
       </c>
       <c r="P143" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q143">
         <v>1.5</v>
@@ -30935,7 +30941,7 @@
         <v>175</v>
       </c>
       <c r="P145" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -31013,7 +31019,7 @@
         <v>1.31</v>
       </c>
       <c r="AP145">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ145">
         <v>1.47</v>
@@ -31428,7 +31434,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ147">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="AR147">
         <v>1.38</v>
@@ -31631,7 +31637,7 @@
         <v>0.93</v>
       </c>
       <c r="AP148">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ148">
         <v>1</v>
@@ -31759,7 +31765,7 @@
         <v>81</v>
       </c>
       <c r="P149" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q149">
         <v>4.4</v>
@@ -31965,7 +31971,7 @@
         <v>179</v>
       </c>
       <c r="P150" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q150">
         <v>4.75</v>
@@ -32377,7 +32383,7 @@
         <v>81</v>
       </c>
       <c r="P152" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q152">
         <v>9</v>
@@ -32583,7 +32589,7 @@
         <v>81</v>
       </c>
       <c r="P153" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q153">
         <v>6</v>
@@ -32789,7 +32795,7 @@
         <v>180</v>
       </c>
       <c r="P154" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -32867,10 +32873,10 @@
         <v>0.93</v>
       </c>
       <c r="AP154">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ154">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR154">
         <v>1.53</v>
@@ -32995,7 +33001,7 @@
         <v>181</v>
       </c>
       <c r="P155" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q155">
         <v>3.1</v>
@@ -33073,7 +33079,7 @@
         <v>1.93</v>
       </c>
       <c r="AP155">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ155">
         <v>1.76</v>
@@ -33201,7 +33207,7 @@
         <v>182</v>
       </c>
       <c r="P156" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q156">
         <v>2.88</v>
@@ -33282,7 +33288,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ156">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR156">
         <v>1.47</v>
@@ -33407,7 +33413,7 @@
         <v>183</v>
       </c>
       <c r="P157" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q157">
         <v>2.5</v>
@@ -33613,7 +33619,7 @@
         <v>81</v>
       </c>
       <c r="P158" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q158">
         <v>4.75</v>
@@ -33819,7 +33825,7 @@
         <v>81</v>
       </c>
       <c r="P159" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q159">
         <v>8.5</v>
@@ -34025,7 +34031,7 @@
         <v>184</v>
       </c>
       <c r="P160" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q160">
         <v>1.91</v>
@@ -34231,7 +34237,7 @@
         <v>185</v>
       </c>
       <c r="P161" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q161">
         <v>2.5</v>
@@ -34309,7 +34315,7 @@
         <v>1.63</v>
       </c>
       <c r="AP161">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AQ161">
         <v>1.53</v>
@@ -34437,7 +34443,7 @@
         <v>186</v>
       </c>
       <c r="P162" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -34518,7 +34524,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ162">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR162">
         <v>1.99</v>
@@ -34724,7 +34730,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ163">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="AR163">
         <v>2.38</v>
@@ -34927,7 +34933,7 @@
         <v>1.38</v>
       </c>
       <c r="AP164">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ164">
         <v>1.47</v>
@@ -35261,7 +35267,7 @@
         <v>187</v>
       </c>
       <c r="P166" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q166">
         <v>2.88</v>
@@ -35339,7 +35345,7 @@
         <v>1.88</v>
       </c>
       <c r="AP166">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ166">
         <v>1.76</v>
@@ -35417,6 +35423,624 @@
         <v>0</v>
       </c>
       <c r="BP166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:68">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>7325298</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45591.27083333334</v>
+      </c>
+      <c r="F167">
+        <v>34</v>
+      </c>
+      <c r="G167" t="s">
+        <v>70</v>
+      </c>
+      <c r="H167" t="s">
+        <v>71</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>1</v>
+      </c>
+      <c r="L167">
+        <v>3</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <v>3</v>
+      </c>
+      <c r="O167" t="s">
+        <v>188</v>
+      </c>
+      <c r="P167" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q167">
+        <v>1.73</v>
+      </c>
+      <c r="R167">
+        <v>2.75</v>
+      </c>
+      <c r="S167">
+        <v>6</v>
+      </c>
+      <c r="T167">
+        <v>0</v>
+      </c>
+      <c r="U167">
+        <v>0</v>
+      </c>
+      <c r="V167">
+        <v>0</v>
+      </c>
+      <c r="W167">
+        <v>0</v>
+      </c>
+      <c r="X167">
+        <v>0</v>
+      </c>
+      <c r="Y167">
+        <v>0</v>
+      </c>
+      <c r="Z167">
+        <v>1.26</v>
+      </c>
+      <c r="AA167">
+        <v>5</v>
+      </c>
+      <c r="AB167">
+        <v>6.6</v>
+      </c>
+      <c r="AC167">
+        <v>0</v>
+      </c>
+      <c r="AD167">
+        <v>0</v>
+      </c>
+      <c r="AE167">
+        <v>0</v>
+      </c>
+      <c r="AF167">
+        <v>0</v>
+      </c>
+      <c r="AG167">
+        <v>1.35</v>
+      </c>
+      <c r="AH167">
+        <v>2.94</v>
+      </c>
+      <c r="AI167">
+        <v>0</v>
+      </c>
+      <c r="AJ167">
+        <v>0</v>
+      </c>
+      <c r="AK167">
+        <v>0</v>
+      </c>
+      <c r="AL167">
+        <v>0</v>
+      </c>
+      <c r="AM167">
+        <v>0</v>
+      </c>
+      <c r="AN167">
+        <v>2.38</v>
+      </c>
+      <c r="AO167">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AP167">
+        <v>2.41</v>
+      </c>
+      <c r="AQ167">
+        <v>0.76</v>
+      </c>
+      <c r="AR167">
+        <v>1.93</v>
+      </c>
+      <c r="AS167">
+        <v>1.53</v>
+      </c>
+      <c r="AT167">
+        <v>3.46</v>
+      </c>
+      <c r="AU167">
+        <v>9</v>
+      </c>
+      <c r="AV167">
+        <v>5</v>
+      </c>
+      <c r="AW167">
+        <v>12</v>
+      </c>
+      <c r="AX167">
+        <v>6</v>
+      </c>
+      <c r="AY167">
+        <v>21</v>
+      </c>
+      <c r="AZ167">
+        <v>11</v>
+      </c>
+      <c r="BA167">
+        <v>16</v>
+      </c>
+      <c r="BB167">
+        <v>0</v>
+      </c>
+      <c r="BC167">
+        <v>16</v>
+      </c>
+      <c r="BD167">
+        <v>0</v>
+      </c>
+      <c r="BE167">
+        <v>0</v>
+      </c>
+      <c r="BF167">
+        <v>0</v>
+      </c>
+      <c r="BG167">
+        <v>0</v>
+      </c>
+      <c r="BH167">
+        <v>0</v>
+      </c>
+      <c r="BI167">
+        <v>0</v>
+      </c>
+      <c r="BJ167">
+        <v>0</v>
+      </c>
+      <c r="BK167">
+        <v>0</v>
+      </c>
+      <c r="BL167">
+        <v>0</v>
+      </c>
+      <c r="BM167">
+        <v>0</v>
+      </c>
+      <c r="BN167">
+        <v>0</v>
+      </c>
+      <c r="BO167">
+        <v>0</v>
+      </c>
+      <c r="BP167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:68">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>7325301</v>
+      </c>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45591.35416666666</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168" t="s">
+        <v>77</v>
+      </c>
+      <c r="H168" t="s">
+        <v>75</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>1</v>
+      </c>
+      <c r="L168">
+        <v>2</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>2</v>
+      </c>
+      <c r="O168" t="s">
+        <v>189</v>
+      </c>
+      <c r="P168" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q168">
+        <v>2</v>
+      </c>
+      <c r="R168">
+        <v>2.5</v>
+      </c>
+      <c r="S168">
+        <v>4.75</v>
+      </c>
+      <c r="T168">
+        <v>0</v>
+      </c>
+      <c r="U168">
+        <v>0</v>
+      </c>
+      <c r="V168">
+        <v>0</v>
+      </c>
+      <c r="W168">
+        <v>0</v>
+      </c>
+      <c r="X168">
+        <v>0</v>
+      </c>
+      <c r="Y168">
+        <v>0</v>
+      </c>
+      <c r="Z168">
+        <v>1.44</v>
+      </c>
+      <c r="AA168">
+        <v>4.2</v>
+      </c>
+      <c r="AB168">
+        <v>5.5</v>
+      </c>
+      <c r="AC168">
+        <v>0</v>
+      </c>
+      <c r="AD168">
+        <v>0</v>
+      </c>
+      <c r="AE168">
+        <v>0</v>
+      </c>
+      <c r="AF168">
+        <v>0</v>
+      </c>
+      <c r="AG168">
+        <v>1.45</v>
+      </c>
+      <c r="AH168">
+        <v>2.56</v>
+      </c>
+      <c r="AI168">
+        <v>0</v>
+      </c>
+      <c r="AJ168">
+        <v>0</v>
+      </c>
+      <c r="AK168">
+        <v>0</v>
+      </c>
+      <c r="AL168">
+        <v>0</v>
+      </c>
+      <c r="AM168">
+        <v>0</v>
+      </c>
+      <c r="AN168">
+        <v>1.81</v>
+      </c>
+      <c r="AO168">
+        <v>1.06</v>
+      </c>
+      <c r="AP168">
+        <v>1.88</v>
+      </c>
+      <c r="AQ168">
+        <v>1</v>
+      </c>
+      <c r="AR168">
+        <v>2.21</v>
+      </c>
+      <c r="AS168">
+        <v>1.66</v>
+      </c>
+      <c r="AT168">
+        <v>3.87</v>
+      </c>
+      <c r="AU168">
+        <v>12</v>
+      </c>
+      <c r="AV168">
+        <v>3</v>
+      </c>
+      <c r="AW168">
+        <v>6</v>
+      </c>
+      <c r="AX168">
+        <v>4</v>
+      </c>
+      <c r="AY168">
+        <v>18</v>
+      </c>
+      <c r="AZ168">
+        <v>7</v>
+      </c>
+      <c r="BA168">
+        <v>6</v>
+      </c>
+      <c r="BB168">
+        <v>2</v>
+      </c>
+      <c r="BC168">
+        <v>8</v>
+      </c>
+      <c r="BD168">
+        <v>0</v>
+      </c>
+      <c r="BE168">
+        <v>0</v>
+      </c>
+      <c r="BF168">
+        <v>0</v>
+      </c>
+      <c r="BG168">
+        <v>0</v>
+      </c>
+      <c r="BH168">
+        <v>0</v>
+      </c>
+      <c r="BI168">
+        <v>0</v>
+      </c>
+      <c r="BJ168">
+        <v>0</v>
+      </c>
+      <c r="BK168">
+        <v>0</v>
+      </c>
+      <c r="BL168">
+        <v>0</v>
+      </c>
+      <c r="BM168">
+        <v>0</v>
+      </c>
+      <c r="BN168">
+        <v>0</v>
+      </c>
+      <c r="BO168">
+        <v>0</v>
+      </c>
+      <c r="BP168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:68">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>7325300</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45591.45833333334</v>
+      </c>
+      <c r="F169">
+        <v>34</v>
+      </c>
+      <c r="G169" t="s">
+        <v>73</v>
+      </c>
+      <c r="H169" t="s">
+        <v>79</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>1</v>
+      </c>
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169">
+        <v>1</v>
+      </c>
+      <c r="O169" t="s">
+        <v>117</v>
+      </c>
+      <c r="P169" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q169">
+        <v>2.25</v>
+      </c>
+      <c r="R169">
+        <v>2.4</v>
+      </c>
+      <c r="S169">
+        <v>4</v>
+      </c>
+      <c r="T169">
+        <v>0</v>
+      </c>
+      <c r="U169">
+        <v>0</v>
+      </c>
+      <c r="V169">
+        <v>0</v>
+      </c>
+      <c r="W169">
+        <v>0</v>
+      </c>
+      <c r="X169">
+        <v>0</v>
+      </c>
+      <c r="Y169">
+        <v>0</v>
+      </c>
+      <c r="Z169">
+        <v>1.6</v>
+      </c>
+      <c r="AA169">
+        <v>3.55</v>
+      </c>
+      <c r="AB169">
+        <v>3.84</v>
+      </c>
+      <c r="AC169">
+        <v>0</v>
+      </c>
+      <c r="AD169">
+        <v>0</v>
+      </c>
+      <c r="AE169">
+        <v>2.88</v>
+      </c>
+      <c r="AF169">
+        <v>1.4</v>
+      </c>
+      <c r="AG169">
+        <v>1.5</v>
+      </c>
+      <c r="AH169">
+        <v>2.41</v>
+      </c>
+      <c r="AI169">
+        <v>0</v>
+      </c>
+      <c r="AJ169">
+        <v>0</v>
+      </c>
+      <c r="AK169">
+        <v>0</v>
+      </c>
+      <c r="AL169">
+        <v>0</v>
+      </c>
+      <c r="AM169">
+        <v>0</v>
+      </c>
+      <c r="AN169">
+        <v>1</v>
+      </c>
+      <c r="AO169">
+        <v>0.24</v>
+      </c>
+      <c r="AP169">
+        <v>1.11</v>
+      </c>
+      <c r="AQ169">
+        <v>0.22</v>
+      </c>
+      <c r="AR169">
+        <v>1.62</v>
+      </c>
+      <c r="AS169">
+        <v>1.14</v>
+      </c>
+      <c r="AT169">
+        <v>2.76</v>
+      </c>
+      <c r="AU169">
+        <v>6</v>
+      </c>
+      <c r="AV169">
+        <v>5</v>
+      </c>
+      <c r="AW169">
+        <v>4</v>
+      </c>
+      <c r="AX169">
+        <v>4</v>
+      </c>
+      <c r="AY169">
+        <v>10</v>
+      </c>
+      <c r="AZ169">
+        <v>9</v>
+      </c>
+      <c r="BA169">
+        <v>3</v>
+      </c>
+      <c r="BB169">
+        <v>6</v>
+      </c>
+      <c r="BC169">
+        <v>9</v>
+      </c>
+      <c r="BD169">
+        <v>0</v>
+      </c>
+      <c r="BE169">
+        <v>0</v>
+      </c>
+      <c r="BF169">
+        <v>0</v>
+      </c>
+      <c r="BG169">
+        <v>0</v>
+      </c>
+      <c r="BH169">
+        <v>0</v>
+      </c>
+      <c r="BI169">
+        <v>0</v>
+      </c>
+      <c r="BJ169">
+        <v>0</v>
+      </c>
+      <c r="BK169">
+        <v>0</v>
+      </c>
+      <c r="BL169">
+        <v>0</v>
+      </c>
+      <c r="BM169">
+        <v>0</v>
+      </c>
+      <c r="BN169">
+        <v>0</v>
+      </c>
+      <c r="BO169">
+        <v>0</v>
+      </c>
+      <c r="BP169">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -35440,7 +35440,7 @@
         <v>69</v>
       </c>
       <c r="E167" s="2">
-        <v>45591.27083333334</v>
+        <v>45590.875</v>
       </c>
       <c r="F167">
         <v>34</v>
@@ -35646,7 +35646,7 @@
         <v>69</v>
       </c>
       <c r="E168" s="2">
-        <v>45591.35416666666</v>
+        <v>45590.875</v>
       </c>
       <c r="F168">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="284">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -580,10 +580,10 @@
     <t>['64', '83', '87']</t>
   </si>
   <si>
-    <t>['34', '49', '67']</t>
+    <t>['16', '58']</t>
   </si>
   <si>
-    <t>['16', '58']</t>
+    <t>['34', '49', '67']</t>
   </si>
   <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
@@ -863,6 +863,9 @@
   </si>
   <si>
     <t>['33', '54']</t>
+  </si>
+  <si>
+    <t>['19', '21', '87', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -1224,7 +1227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP169"/>
+  <dimension ref="A1:BP171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2800,7 +2803,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ8">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AR8">
         <v>1.63</v>
@@ -3003,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ9">
         <v>1.47</v>
@@ -3624,7 +3627,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ12">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AR12">
         <v>1.76</v>
@@ -5887,10 +5890,10 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ23">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AR23">
         <v>2.56</v>
@@ -7535,7 +7538,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ31">
         <v>2</v>
@@ -7744,7 +7747,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ32">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AR32">
         <v>1.47</v>
@@ -9804,7 +9807,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ42">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AR42">
         <v>2.19</v>
@@ -10625,7 +10628,7 @@
         <v>1.75</v>
       </c>
       <c r="AP46">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -11452,7 +11455,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ50">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AR50">
         <v>1.81</v>
@@ -13097,7 +13100,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ58">
         <v>0.76</v>
@@ -13512,7 +13515,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ60">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AR60">
         <v>1.27</v>
@@ -15157,7 +15160,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ68">
         <v>0.22</v>
@@ -15572,7 +15575,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ70">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AR70">
         <v>2.27</v>
@@ -17011,7 +17014,7 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ77">
         <v>1.53</v>
@@ -18041,7 +18044,7 @@
         <v>0.86</v>
       </c>
       <c r="AP82">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ82">
         <v>0.6899999999999999</v>
@@ -18250,7 +18253,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ83">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AR83">
         <v>1.25</v>
@@ -19692,7 +19695,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ90">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AR90">
         <v>1.96</v>
@@ -19895,7 +19898,7 @@
         <v>1.13</v>
       </c>
       <c r="AP91">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ91">
         <v>1</v>
@@ -22779,7 +22782,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ105">
         <v>1</v>
@@ -24018,7 +24021,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ111">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AR111">
         <v>1.13</v>
@@ -24430,7 +24433,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ113">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AR113">
         <v>1.62</v>
@@ -25251,7 +25254,7 @@
         <v>1.09</v>
       </c>
       <c r="AP117">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ117">
         <v>0.76</v>
@@ -26902,7 +26905,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ125">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AR125">
         <v>1.88</v>
@@ -27517,7 +27520,7 @@
         <v>1.92</v>
       </c>
       <c r="AP128">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ128">
         <v>2</v>
@@ -28962,7 +28965,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ135">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AR135">
         <v>1.44</v>
@@ -29371,7 +29374,7 @@
         <v>0.21</v>
       </c>
       <c r="AP137">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ137">
         <v>0.22</v>
@@ -30401,7 +30404,7 @@
         <v>0.85</v>
       </c>
       <c r="AP142">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ142">
         <v>0.6899999999999999</v>
@@ -30813,7 +30816,7 @@
         <v>1.64</v>
       </c>
       <c r="AP144">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ144">
         <v>1.53</v>
@@ -32670,7 +32673,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ153">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AR153">
         <v>1.73</v>
@@ -33906,7 +33909,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ159">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AR159">
         <v>2.1</v>
@@ -34109,7 +34112,7 @@
         <v>1.4</v>
       </c>
       <c r="AP160">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AQ160">
         <v>1.47</v>
@@ -35431,7 +35434,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>7325298</v>
+        <v>7325301</v>
       </c>
       <c r="C167" t="s">
         <v>68</v>
@@ -35443,13 +35446,13 @@
         <v>45590.875</v>
       </c>
       <c r="F167">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="G167" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H167" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I167">
         <v>1</v>
@@ -35461,13 +35464,13 @@
         <v>1</v>
       </c>
       <c r="L167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M167">
         <v>0</v>
       </c>
       <c r="N167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O167" t="s">
         <v>188</v>
@@ -35476,121 +35479,121 @@
         <v>81</v>
       </c>
       <c r="Q167">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="R167">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="S167">
+        <v>4.75</v>
+      </c>
+      <c r="T167">
+        <v>0</v>
+      </c>
+      <c r="U167">
+        <v>0</v>
+      </c>
+      <c r="V167">
+        <v>0</v>
+      </c>
+      <c r="W167">
+        <v>0</v>
+      </c>
+      <c r="X167">
+        <v>0</v>
+      </c>
+      <c r="Y167">
+        <v>0</v>
+      </c>
+      <c r="Z167">
+        <v>1.44</v>
+      </c>
+      <c r="AA167">
+        <v>4.2</v>
+      </c>
+      <c r="AB167">
+        <v>5.5</v>
+      </c>
+      <c r="AC167">
+        <v>0</v>
+      </c>
+      <c r="AD167">
+        <v>0</v>
+      </c>
+      <c r="AE167">
+        <v>0</v>
+      </c>
+      <c r="AF167">
+        <v>0</v>
+      </c>
+      <c r="AG167">
+        <v>1.45</v>
+      </c>
+      <c r="AH167">
+        <v>2.56</v>
+      </c>
+      <c r="AI167">
+        <v>0</v>
+      </c>
+      <c r="AJ167">
+        <v>0</v>
+      </c>
+      <c r="AK167">
+        <v>0</v>
+      </c>
+      <c r="AL167">
+        <v>0</v>
+      </c>
+      <c r="AM167">
+        <v>0</v>
+      </c>
+      <c r="AN167">
+        <v>1.81</v>
+      </c>
+      <c r="AO167">
+        <v>1.06</v>
+      </c>
+      <c r="AP167">
+        <v>1.88</v>
+      </c>
+      <c r="AQ167">
+        <v>1</v>
+      </c>
+      <c r="AR167">
+        <v>2.21</v>
+      </c>
+      <c r="AS167">
+        <v>1.66</v>
+      </c>
+      <c r="AT167">
+        <v>3.87</v>
+      </c>
+      <c r="AU167">
+        <v>12</v>
+      </c>
+      <c r="AV167">
+        <v>3</v>
+      </c>
+      <c r="AW167">
         <v>6</v>
       </c>
-      <c r="T167">
-        <v>0</v>
-      </c>
-      <c r="U167">
-        <v>0</v>
-      </c>
-      <c r="V167">
-        <v>0</v>
-      </c>
-      <c r="W167">
-        <v>0</v>
-      </c>
-      <c r="X167">
-        <v>0</v>
-      </c>
-      <c r="Y167">
-        <v>0</v>
-      </c>
-      <c r="Z167">
-        <v>1.26</v>
-      </c>
-      <c r="AA167">
-        <v>5</v>
-      </c>
-      <c r="AB167">
-        <v>6.6</v>
-      </c>
-      <c r="AC167">
-        <v>0</v>
-      </c>
-      <c r="AD167">
-        <v>0</v>
-      </c>
-      <c r="AE167">
-        <v>0</v>
-      </c>
-      <c r="AF167">
-        <v>0</v>
-      </c>
-      <c r="AG167">
-        <v>1.35</v>
-      </c>
-      <c r="AH167">
-        <v>2.94</v>
-      </c>
-      <c r="AI167">
-        <v>0</v>
-      </c>
-      <c r="AJ167">
-        <v>0</v>
-      </c>
-      <c r="AK167">
-        <v>0</v>
-      </c>
-      <c r="AL167">
-        <v>0</v>
-      </c>
-      <c r="AM167">
-        <v>0</v>
-      </c>
-      <c r="AN167">
-        <v>2.38</v>
-      </c>
-      <c r="AO167">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AP167">
-        <v>2.41</v>
-      </c>
-      <c r="AQ167">
-        <v>0.76</v>
-      </c>
-      <c r="AR167">
-        <v>1.93</v>
-      </c>
-      <c r="AS167">
-        <v>1.53</v>
-      </c>
-      <c r="AT167">
-        <v>3.46</v>
-      </c>
-      <c r="AU167">
-        <v>9</v>
-      </c>
-      <c r="AV167">
-        <v>5</v>
-      </c>
-      <c r="AW167">
-        <v>12</v>
-      </c>
       <c r="AX167">
+        <v>4</v>
+      </c>
+      <c r="AY167">
+        <v>18</v>
+      </c>
+      <c r="AZ167">
+        <v>7</v>
+      </c>
+      <c r="BA167">
         <v>6</v>
       </c>
-      <c r="AY167">
-        <v>21</v>
-      </c>
-      <c r="AZ167">
-        <v>11</v>
-      </c>
-      <c r="BA167">
-        <v>16</v>
-      </c>
       <c r="BB167">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC167">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="BD167">
         <v>0</v>
@@ -35637,7 +35640,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>7325301</v>
+        <v>7325300</v>
       </c>
       <c r="C168" t="s">
         <v>68</v>
@@ -35649,46 +35652,46 @@
         <v>45590.875</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="G168" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H168" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168">
         <v>0</v>
       </c>
       <c r="K168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M168">
         <v>0</v>
       </c>
       <c r="N168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O168" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="P168" t="s">
         <v>81</v>
       </c>
       <c r="Q168">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="R168">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S168">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="T168">
         <v>0</v>
@@ -35709,13 +35712,13 @@
         <v>0</v>
       </c>
       <c r="Z168">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AA168">
-        <v>4.2</v>
+        <v>3.55</v>
       </c>
       <c r="AB168">
-        <v>5.5</v>
+        <v>3.84</v>
       </c>
       <c r="AC168">
         <v>0</v>
@@ -35724,16 +35727,16 @@
         <v>0</v>
       </c>
       <c r="AE168">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AF168">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AG168">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AH168">
-        <v>2.56</v>
+        <v>2.41</v>
       </c>
       <c r="AI168">
         <v>0</v>
@@ -35751,52 +35754,52 @@
         <v>0</v>
       </c>
       <c r="AN168">
-        <v>1.81</v>
+        <v>1</v>
       </c>
       <c r="AO168">
-        <v>1.06</v>
+        <v>0.24</v>
       </c>
       <c r="AP168">
-        <v>1.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ168">
-        <v>1</v>
+        <v>0.22</v>
       </c>
       <c r="AR168">
-        <v>2.21</v>
+        <v>1.62</v>
       </c>
       <c r="AS168">
-        <v>1.66</v>
+        <v>1.14</v>
       </c>
       <c r="AT168">
-        <v>3.87</v>
+        <v>2.76</v>
       </c>
       <c r="AU168">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AV168">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW168">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX168">
         <v>4</v>
       </c>
       <c r="AY168">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AZ168">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA168">
+        <v>3</v>
+      </c>
+      <c r="BB168">
         <v>6</v>
       </c>
-      <c r="BB168">
-        <v>2</v>
-      </c>
       <c r="BC168">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD168">
         <v>0</v>
@@ -35843,7 +35846,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>7325300</v>
+        <v>7325298</v>
       </c>
       <c r="C169" t="s">
         <v>68</v>
@@ -35852,49 +35855,49 @@
         <v>69</v>
       </c>
       <c r="E169" s="2">
-        <v>45591.45833333334</v>
+        <v>45590.875</v>
       </c>
       <c r="F169">
         <v>34</v>
       </c>
       <c r="G169" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H169" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169">
         <v>0</v>
       </c>
       <c r="K169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L169">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M169">
         <v>0</v>
       </c>
       <c r="N169">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O169" t="s">
-        <v>117</v>
+        <v>189</v>
       </c>
       <c r="P169" t="s">
         <v>81</v>
       </c>
       <c r="Q169">
-        <v>2.25</v>
+        <v>1.73</v>
       </c>
       <c r="R169">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="S169">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T169">
         <v>0</v>
@@ -35915,13 +35918,13 @@
         <v>0</v>
       </c>
       <c r="Z169">
-        <v>1.6</v>
+        <v>1.26</v>
       </c>
       <c r="AA169">
-        <v>3.55</v>
+        <v>5</v>
       </c>
       <c r="AB169">
-        <v>3.84</v>
+        <v>6.6</v>
       </c>
       <c r="AC169">
         <v>0</v>
@@ -35930,117 +35933,529 @@
         <v>0</v>
       </c>
       <c r="AE169">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="AF169">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AG169">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="AH169">
+        <v>2.94</v>
+      </c>
+      <c r="AI169">
+        <v>0</v>
+      </c>
+      <c r="AJ169">
+        <v>0</v>
+      </c>
+      <c r="AK169">
+        <v>0</v>
+      </c>
+      <c r="AL169">
+        <v>0</v>
+      </c>
+      <c r="AM169">
+        <v>0</v>
+      </c>
+      <c r="AN169">
+        <v>2.38</v>
+      </c>
+      <c r="AO169">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AP169">
         <v>2.41</v>
       </c>
-      <c r="AI169">
-        <v>0</v>
-      </c>
-      <c r="AJ169">
-        <v>0</v>
-      </c>
-      <c r="AK169">
-        <v>0</v>
-      </c>
-      <c r="AL169">
-        <v>0</v>
-      </c>
-      <c r="AM169">
-        <v>0</v>
-      </c>
-      <c r="AN169">
-        <v>1</v>
-      </c>
-      <c r="AO169">
-        <v>0.24</v>
-      </c>
-      <c r="AP169">
-        <v>1.11</v>
-      </c>
       <c r="AQ169">
-        <v>0.22</v>
+        <v>0.76</v>
       </c>
       <c r="AR169">
-        <v>1.62</v>
+        <v>1.93</v>
       </c>
       <c r="AS169">
-        <v>1.14</v>
+        <v>1.53</v>
       </c>
       <c r="AT169">
-        <v>2.76</v>
+        <v>3.46</v>
       </c>
       <c r="AU169">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AV169">
         <v>5</v>
       </c>
       <c r="AW169">
+        <v>12</v>
+      </c>
+      <c r="AX169">
+        <v>6</v>
+      </c>
+      <c r="AY169">
+        <v>21</v>
+      </c>
+      <c r="AZ169">
+        <v>11</v>
+      </c>
+      <c r="BA169">
+        <v>16</v>
+      </c>
+      <c r="BB169">
+        <v>0</v>
+      </c>
+      <c r="BC169">
+        <v>16</v>
+      </c>
+      <c r="BD169">
+        <v>0</v>
+      </c>
+      <c r="BE169">
+        <v>0</v>
+      </c>
+      <c r="BF169">
+        <v>0</v>
+      </c>
+      <c r="BG169">
+        <v>0</v>
+      </c>
+      <c r="BH169">
+        <v>0</v>
+      </c>
+      <c r="BI169">
+        <v>0</v>
+      </c>
+      <c r="BJ169">
+        <v>0</v>
+      </c>
+      <c r="BK169">
+        <v>0</v>
+      </c>
+      <c r="BL169">
+        <v>0</v>
+      </c>
+      <c r="BM169">
+        <v>0</v>
+      </c>
+      <c r="BN169">
+        <v>0</v>
+      </c>
+      <c r="BO169">
+        <v>0</v>
+      </c>
+      <c r="BP169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:68">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>7325299</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45591.875</v>
+      </c>
+      <c r="F170">
+        <v>34</v>
+      </c>
+      <c r="G170" t="s">
+        <v>78</v>
+      </c>
+      <c r="H170" t="s">
+        <v>74</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+      <c r="M170">
+        <v>1</v>
+      </c>
+      <c r="N170">
+        <v>2</v>
+      </c>
+      <c r="O170" t="s">
+        <v>120</v>
+      </c>
+      <c r="P170" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q170">
+        <v>2.88</v>
+      </c>
+      <c r="R170">
+        <v>2.3</v>
+      </c>
+      <c r="S170">
+        <v>3.1</v>
+      </c>
+      <c r="T170">
+        <v>1.33</v>
+      </c>
+      <c r="U170">
+        <v>3.08</v>
+      </c>
+      <c r="V170">
+        <v>2.57</v>
+      </c>
+      <c r="W170">
+        <v>1.46</v>
+      </c>
+      <c r="X170">
+        <v>0</v>
+      </c>
+      <c r="Y170">
+        <v>0</v>
+      </c>
+      <c r="Z170">
+        <v>2.14</v>
+      </c>
+      <c r="AA170">
+        <v>3.37</v>
+      </c>
+      <c r="AB170">
+        <v>2.99</v>
+      </c>
+      <c r="AC170">
+        <v>0</v>
+      </c>
+      <c r="AD170">
+        <v>0</v>
+      </c>
+      <c r="AE170">
+        <v>0</v>
+      </c>
+      <c r="AF170">
+        <v>0</v>
+      </c>
+      <c r="AG170">
+        <v>1.73</v>
+      </c>
+      <c r="AH170">
+        <v>2</v>
+      </c>
+      <c r="AI170">
+        <v>1.61</v>
+      </c>
+      <c r="AJ170">
+        <v>2.27</v>
+      </c>
+      <c r="AK170">
+        <v>1.4</v>
+      </c>
+      <c r="AL170">
+        <v>1.35</v>
+      </c>
+      <c r="AM170">
+        <v>1.57</v>
+      </c>
+      <c r="AN170">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AO170">
+        <v>1</v>
+      </c>
+      <c r="AP170">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ170">
+        <v>1</v>
+      </c>
+      <c r="AR170">
+        <v>1.73</v>
+      </c>
+      <c r="AS170">
+        <v>1.34</v>
+      </c>
+      <c r="AT170">
+        <v>3.07</v>
+      </c>
+      <c r="AU170">
         <v>4</v>
       </c>
-      <c r="AX169">
+      <c r="AV170">
+        <v>3</v>
+      </c>
+      <c r="AW170">
+        <v>15</v>
+      </c>
+      <c r="AX170">
         <v>4</v>
       </c>
-      <c r="AY169">
-        <v>10</v>
-      </c>
-      <c r="AZ169">
+      <c r="AY170">
+        <v>19</v>
+      </c>
+      <c r="AZ170">
+        <v>7</v>
+      </c>
+      <c r="BA170">
+        <v>3</v>
+      </c>
+      <c r="BB170">
+        <v>6</v>
+      </c>
+      <c r="BC170">
         <v>9</v>
       </c>
-      <c r="BA169">
-        <v>3</v>
-      </c>
-      <c r="BB169">
-        <v>6</v>
-      </c>
-      <c r="BC169">
+      <c r="BD170">
+        <v>0</v>
+      </c>
+      <c r="BE170">
+        <v>0</v>
+      </c>
+      <c r="BF170">
+        <v>0</v>
+      </c>
+      <c r="BG170">
+        <v>0</v>
+      </c>
+      <c r="BH170">
+        <v>0</v>
+      </c>
+      <c r="BI170">
+        <v>0</v>
+      </c>
+      <c r="BJ170">
+        <v>0</v>
+      </c>
+      <c r="BK170">
+        <v>0</v>
+      </c>
+      <c r="BL170">
+        <v>0</v>
+      </c>
+      <c r="BM170">
+        <v>0</v>
+      </c>
+      <c r="BN170">
+        <v>0</v>
+      </c>
+      <c r="BO170">
+        <v>0</v>
+      </c>
+      <c r="BP170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>7325302</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45592.39583333334</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171" t="s">
+        <v>76</v>
+      </c>
+      <c r="H171" t="s">
+        <v>72</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>2</v>
+      </c>
+      <c r="K171">
+        <v>2</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+      <c r="M171">
+        <v>4</v>
+      </c>
+      <c r="N171">
+        <v>4</v>
+      </c>
+      <c r="O171" t="s">
+        <v>81</v>
+      </c>
+      <c r="P171" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q171">
+        <v>3.2</v>
+      </c>
+      <c r="R171">
+        <v>2.3</v>
+      </c>
+      <c r="S171">
+        <v>2.75</v>
+      </c>
+      <c r="T171">
+        <v>0</v>
+      </c>
+      <c r="U171">
+        <v>0</v>
+      </c>
+      <c r="V171">
+        <v>2.52</v>
+      </c>
+      <c r="W171">
+        <v>1.5</v>
+      </c>
+      <c r="X171">
+        <v>0</v>
+      </c>
+      <c r="Y171">
+        <v>0</v>
+      </c>
+      <c r="Z171">
+        <v>2.81</v>
+      </c>
+      <c r="AA171">
+        <v>3.4</v>
+      </c>
+      <c r="AB171">
+        <v>2.23</v>
+      </c>
+      <c r="AC171">
+        <v>0</v>
+      </c>
+      <c r="AD171">
+        <v>0</v>
+      </c>
+      <c r="AE171">
+        <v>0</v>
+      </c>
+      <c r="AF171">
+        <v>0</v>
+      </c>
+      <c r="AG171">
+        <v>1.68</v>
+      </c>
+      <c r="AH171">
+        <v>2.08</v>
+      </c>
+      <c r="AI171">
+        <v>1.61</v>
+      </c>
+      <c r="AJ171">
+        <v>2.27</v>
+      </c>
+      <c r="AK171">
+        <v>1.66</v>
+      </c>
+      <c r="AL171">
+        <v>1.31</v>
+      </c>
+      <c r="AM171">
+        <v>1.38</v>
+      </c>
+      <c r="AN171">
+        <v>2.25</v>
+      </c>
+      <c r="AO171">
+        <v>2.63</v>
+      </c>
+      <c r="AP171">
+        <v>2.12</v>
+      </c>
+      <c r="AQ171">
+        <v>2.65</v>
+      </c>
+      <c r="AR171">
+        <v>2.14</v>
+      </c>
+      <c r="AS171">
+        <v>2.23</v>
+      </c>
+      <c r="AT171">
+        <v>4.37</v>
+      </c>
+      <c r="AU171">
+        <v>7</v>
+      </c>
+      <c r="AV171">
+        <v>13</v>
+      </c>
+      <c r="AW171">
+        <v>5</v>
+      </c>
+      <c r="AX171">
+        <v>8</v>
+      </c>
+      <c r="AY171">
+        <v>12</v>
+      </c>
+      <c r="AZ171">
+        <v>21</v>
+      </c>
+      <c r="BA171">
         <v>9</v>
       </c>
-      <c r="BD169">
-        <v>0</v>
-      </c>
-      <c r="BE169">
-        <v>0</v>
-      </c>
-      <c r="BF169">
-        <v>0</v>
-      </c>
-      <c r="BG169">
-        <v>0</v>
-      </c>
-      <c r="BH169">
-        <v>0</v>
-      </c>
-      <c r="BI169">
-        <v>0</v>
-      </c>
-      <c r="BJ169">
-        <v>0</v>
-      </c>
-      <c r="BK169">
-        <v>0</v>
-      </c>
-      <c r="BL169">
-        <v>0</v>
-      </c>
-      <c r="BM169">
-        <v>0</v>
-      </c>
-      <c r="BN169">
-        <v>0</v>
-      </c>
-      <c r="BO169">
-        <v>0</v>
-      </c>
-      <c r="BP169">
+      <c r="BB171">
+        <v>9</v>
+      </c>
+      <c r="BC171">
+        <v>18</v>
+      </c>
+      <c r="BD171">
+        <v>0</v>
+      </c>
+      <c r="BE171">
+        <v>0</v>
+      </c>
+      <c r="BF171">
+        <v>0</v>
+      </c>
+      <c r="BG171">
+        <v>0</v>
+      </c>
+      <c r="BH171">
+        <v>0</v>
+      </c>
+      <c r="BI171">
+        <v>0</v>
+      </c>
+      <c r="BJ171">
+        <v>0</v>
+      </c>
+      <c r="BK171">
+        <v>0</v>
+      </c>
+      <c r="BL171">
+        <v>0</v>
+      </c>
+      <c r="BM171">
+        <v>0</v>
+      </c>
+      <c r="BN171">
+        <v>0</v>
+      </c>
+      <c r="BO171">
+        <v>0</v>
+      </c>
+      <c r="BP171">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -580,10 +580,10 @@
     <t>['64', '83', '87']</t>
   </si>
   <si>
-    <t>['16', '58']</t>
+    <t>['34', '49', '67']</t>
   </si>
   <si>
-    <t>['34', '49', '67']</t>
+    <t>['16', '58']</t>
   </si>
   <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
@@ -35434,7 +35434,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>7325301</v>
+        <v>7325298</v>
       </c>
       <c r="C167" t="s">
         <v>68</v>
@@ -35443,16 +35443,16 @@
         <v>69</v>
       </c>
       <c r="E167" s="2">
-        <v>45590.875</v>
+        <v>45591.27083333334</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="G167" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H167" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I167">
         <v>1</v>
@@ -35464,13 +35464,13 @@
         <v>1</v>
       </c>
       <c r="L167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M167">
         <v>0</v>
       </c>
       <c r="N167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O167" t="s">
         <v>188</v>
@@ -35479,13 +35479,13 @@
         <v>81</v>
       </c>
       <c r="Q167">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="R167">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="S167">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="T167">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="Z167">
-        <v>1.44</v>
+        <v>1.26</v>
       </c>
       <c r="AA167">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="AB167">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="AC167">
         <v>0</v>
@@ -35527,10 +35527,10 @@
         <v>0</v>
       </c>
       <c r="AG167">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="AH167">
-        <v>2.56</v>
+        <v>2.94</v>
       </c>
       <c r="AI167">
         <v>0</v>
@@ -35548,52 +35548,52 @@
         <v>0</v>
       </c>
       <c r="AN167">
-        <v>1.81</v>
+        <v>2.38</v>
       </c>
       <c r="AO167">
-        <v>1.06</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AP167">
-        <v>1.88</v>
+        <v>2.41</v>
       </c>
       <c r="AQ167">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="AR167">
-        <v>2.21</v>
+        <v>1.93</v>
       </c>
       <c r="AS167">
-        <v>1.66</v>
+        <v>1.53</v>
       </c>
       <c r="AT167">
-        <v>3.87</v>
+        <v>3.46</v>
       </c>
       <c r="AU167">
+        <v>9</v>
+      </c>
+      <c r="AV167">
+        <v>5</v>
+      </c>
+      <c r="AW167">
         <v>12</v>
       </c>
-      <c r="AV167">
-        <v>3</v>
-      </c>
-      <c r="AW167">
+      <c r="AX167">
         <v>6</v>
       </c>
-      <c r="AX167">
-        <v>4</v>
-      </c>
       <c r="AY167">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AZ167">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA167">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="BB167">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC167">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BD167">
         <v>0</v>
@@ -35640,7 +35640,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>7325300</v>
+        <v>7325301</v>
       </c>
       <c r="C168" t="s">
         <v>68</v>
@@ -35649,49 +35649,49 @@
         <v>69</v>
       </c>
       <c r="E168" s="2">
-        <v>45590.875</v>
+        <v>45591.35416666666</v>
       </c>
       <c r="F168">
         <v>34</v>
       </c>
       <c r="G168" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H168" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168">
         <v>0</v>
       </c>
       <c r="K168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M168">
         <v>0</v>
       </c>
       <c r="N168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O168" t="s">
-        <v>117</v>
+        <v>189</v>
       </c>
       <c r="P168" t="s">
         <v>81</v>
       </c>
       <c r="Q168">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="R168">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S168">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="T168">
         <v>0</v>
@@ -35712,13 +35712,13 @@
         <v>0</v>
       </c>
       <c r="Z168">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="AA168">
-        <v>3.55</v>
+        <v>4.2</v>
       </c>
       <c r="AB168">
-        <v>3.84</v>
+        <v>5.5</v>
       </c>
       <c r="AC168">
         <v>0</v>
@@ -35727,16 +35727,16 @@
         <v>0</v>
       </c>
       <c r="AE168">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="AF168">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AG168">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AH168">
-        <v>2.41</v>
+        <v>2.56</v>
       </c>
       <c r="AI168">
         <v>0</v>
@@ -35754,52 +35754,52 @@
         <v>0</v>
       </c>
       <c r="AN168">
-        <v>1</v>
+        <v>1.81</v>
       </c>
       <c r="AO168">
-        <v>0.24</v>
+        <v>1.06</v>
       </c>
       <c r="AP168">
-        <v>1.11</v>
+        <v>1.88</v>
       </c>
       <c r="AQ168">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="AR168">
-        <v>1.62</v>
+        <v>2.21</v>
       </c>
       <c r="AS168">
-        <v>1.14</v>
+        <v>1.66</v>
       </c>
       <c r="AT168">
-        <v>2.76</v>
+        <v>3.87</v>
       </c>
       <c r="AU168">
+        <v>12</v>
+      </c>
+      <c r="AV168">
+        <v>3</v>
+      </c>
+      <c r="AW168">
         <v>6</v>
-      </c>
-      <c r="AV168">
-        <v>5</v>
-      </c>
-      <c r="AW168">
-        <v>4</v>
       </c>
       <c r="AX168">
         <v>4</v>
       </c>
       <c r="AY168">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AZ168">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA168">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BB168">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BC168">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD168">
         <v>0</v>
@@ -35846,7 +35846,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>7325298</v>
+        <v>7325300</v>
       </c>
       <c r="C169" t="s">
         <v>68</v>
@@ -35855,157 +35855,157 @@
         <v>69</v>
       </c>
       <c r="E169" s="2">
-        <v>45590.875</v>
+        <v>45591.45833333334</v>
       </c>
       <c r="F169">
         <v>34</v>
       </c>
       <c r="G169" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H169" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169">
         <v>0</v>
       </c>
       <c r="K169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L169">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M169">
         <v>0</v>
       </c>
       <c r="N169">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O169" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="P169" t="s">
         <v>81</v>
       </c>
       <c r="Q169">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="R169">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="S169">
+        <v>4</v>
+      </c>
+      <c r="T169">
+        <v>0</v>
+      </c>
+      <c r="U169">
+        <v>0</v>
+      </c>
+      <c r="V169">
+        <v>0</v>
+      </c>
+      <c r="W169">
+        <v>0</v>
+      </c>
+      <c r="X169">
+        <v>0</v>
+      </c>
+      <c r="Y169">
+        <v>0</v>
+      </c>
+      <c r="Z169">
+        <v>1.6</v>
+      </c>
+      <c r="AA169">
+        <v>3.55</v>
+      </c>
+      <c r="AB169">
+        <v>3.84</v>
+      </c>
+      <c r="AC169">
+        <v>0</v>
+      </c>
+      <c r="AD169">
+        <v>0</v>
+      </c>
+      <c r="AE169">
+        <v>2.88</v>
+      </c>
+      <c r="AF169">
+        <v>1.4</v>
+      </c>
+      <c r="AG169">
+        <v>1.5</v>
+      </c>
+      <c r="AH169">
+        <v>2.41</v>
+      </c>
+      <c r="AI169">
+        <v>0</v>
+      </c>
+      <c r="AJ169">
+        <v>0</v>
+      </c>
+      <c r="AK169">
+        <v>0</v>
+      </c>
+      <c r="AL169">
+        <v>0</v>
+      </c>
+      <c r="AM169">
+        <v>0</v>
+      </c>
+      <c r="AN169">
+        <v>1</v>
+      </c>
+      <c r="AO169">
+        <v>0.24</v>
+      </c>
+      <c r="AP169">
+        <v>1.11</v>
+      </c>
+      <c r="AQ169">
+        <v>0.22</v>
+      </c>
+      <c r="AR169">
+        <v>1.62</v>
+      </c>
+      <c r="AS169">
+        <v>1.14</v>
+      </c>
+      <c r="AT169">
+        <v>2.76</v>
+      </c>
+      <c r="AU169">
         <v>6</v>
-      </c>
-      <c r="T169">
-        <v>0</v>
-      </c>
-      <c r="U169">
-        <v>0</v>
-      </c>
-      <c r="V169">
-        <v>0</v>
-      </c>
-      <c r="W169">
-        <v>0</v>
-      </c>
-      <c r="X169">
-        <v>0</v>
-      </c>
-      <c r="Y169">
-        <v>0</v>
-      </c>
-      <c r="Z169">
-        <v>1.26</v>
-      </c>
-      <c r="AA169">
-        <v>5</v>
-      </c>
-      <c r="AB169">
-        <v>6.6</v>
-      </c>
-      <c r="AC169">
-        <v>0</v>
-      </c>
-      <c r="AD169">
-        <v>0</v>
-      </c>
-      <c r="AE169">
-        <v>0</v>
-      </c>
-      <c r="AF169">
-        <v>0</v>
-      </c>
-      <c r="AG169">
-        <v>1.35</v>
-      </c>
-      <c r="AH169">
-        <v>2.94</v>
-      </c>
-      <c r="AI169">
-        <v>0</v>
-      </c>
-      <c r="AJ169">
-        <v>0</v>
-      </c>
-      <c r="AK169">
-        <v>0</v>
-      </c>
-      <c r="AL169">
-        <v>0</v>
-      </c>
-      <c r="AM169">
-        <v>0</v>
-      </c>
-      <c r="AN169">
-        <v>2.38</v>
-      </c>
-      <c r="AO169">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AP169">
-        <v>2.41</v>
-      </c>
-      <c r="AQ169">
-        <v>0.76</v>
-      </c>
-      <c r="AR169">
-        <v>1.93</v>
-      </c>
-      <c r="AS169">
-        <v>1.53</v>
-      </c>
-      <c r="AT169">
-        <v>3.46</v>
-      </c>
-      <c r="AU169">
-        <v>9</v>
       </c>
       <c r="AV169">
         <v>5</v>
       </c>
       <c r="AW169">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AX169">
+        <v>4</v>
+      </c>
+      <c r="AY169">
+        <v>10</v>
+      </c>
+      <c r="AZ169">
+        <v>9</v>
+      </c>
+      <c r="BA169">
+        <v>3</v>
+      </c>
+      <c r="BB169">
         <v>6</v>
       </c>
-      <c r="AY169">
-        <v>21</v>
-      </c>
-      <c r="AZ169">
-        <v>11</v>
-      </c>
-      <c r="BA169">
-        <v>16</v>
-      </c>
-      <c r="BB169">
-        <v>0</v>
-      </c>
       <c r="BC169">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="BD169">
         <v>0</v>
@@ -36061,7 +36061,7 @@
         <v>69</v>
       </c>
       <c r="E170" s="2">
-        <v>45591.875</v>
+        <v>45592.3125</v>
       </c>
       <c r="F170">
         <v>34</v>
@@ -36270,7 +36270,7 @@
         <v>45592.39583333334</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="G171" t="s">
         <v>76</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="286">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -586,6 +586,9 @@
     <t>['16', '58']</t>
   </si>
   <si>
+    <t>['53']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -866,6 +869,9 @@
   </si>
   <si>
     <t>['19', '21', '87', '90+4']</t>
+  </si>
+  <si>
+    <t>['3', '59']</t>
   </si>
 </sst>
 </file>
@@ -1227,7 +1233,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP171"/>
+  <dimension ref="A1:BP172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1692,7 +1698,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1770,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2104,7 +2110,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -2310,7 +2316,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2722,7 +2728,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2800,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
         <v>2.65</v>
@@ -3134,7 +3140,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -3340,7 +3346,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3546,7 +3552,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3752,7 +3758,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3958,7 +3964,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -4164,7 +4170,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4451,7 +4457,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ16">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4654,7 +4660,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ17">
         <v>0.6899999999999999</v>
@@ -4782,7 +4788,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4863,7 +4869,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ18">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AR18">
         <v>1.11</v>
@@ -5606,7 +5612,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5812,7 +5818,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -6018,7 +6024,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -6224,7 +6230,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6636,7 +6642,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6842,7 +6848,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -7254,7 +7260,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7460,7 +7466,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7666,7 +7672,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7872,7 +7878,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -8078,7 +8084,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -8284,7 +8290,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8774,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ37">
         <v>1.47</v>
@@ -8902,7 +8908,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8983,7 +8989,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ38">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AR38">
         <v>1.67</v>
@@ -9108,7 +9114,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -9314,7 +9320,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9395,7 +9401,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ40">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AR40">
         <v>1.38</v>
@@ -9520,7 +9526,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9598,7 +9604,7 @@
         <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
         <v>1.53</v>
@@ -9726,7 +9732,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9932,7 +9938,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -10344,7 +10350,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -11580,7 +11586,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -11864,7 +11870,7 @@
         <v>1.4</v>
       </c>
       <c r="AP52">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ52">
         <v>1</v>
@@ -12073,7 +12079,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ53">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AR53">
         <v>2.19</v>
@@ -12404,7 +12410,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12610,7 +12616,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12816,7 +12822,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13434,7 +13440,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13846,7 +13852,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13927,7 +13933,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ62">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AR62">
         <v>2.43</v>
@@ -14052,7 +14058,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -14258,7 +14264,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14464,7 +14470,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14670,7 +14676,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14876,7 +14882,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -14954,7 +14960,7 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ67">
         <v>1</v>
@@ -15082,7 +15088,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -15288,7 +15294,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15494,7 +15500,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15700,7 +15706,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -16399,7 +16405,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ74">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AR74">
         <v>1.81</v>
@@ -16730,7 +16736,7 @@
         <v>131</v>
       </c>
       <c r="P76" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -17142,7 +17148,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17348,7 +17354,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q79">
         <v>1.53</v>
@@ -17554,7 +17560,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17632,7 +17638,7 @@
         <v>0.14</v>
       </c>
       <c r="AP80">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ80">
         <v>0.22</v>
@@ -17760,7 +17766,7 @@
         <v>81</v>
       </c>
       <c r="P81" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q81">
         <v>1.6</v>
@@ -18172,7 +18178,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q83">
         <v>8.5</v>
@@ -18378,7 +18384,7 @@
         <v>81</v>
       </c>
       <c r="P84" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18790,7 +18796,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q86">
         <v>5.66</v>
@@ -18868,7 +18874,7 @@
         <v>1.6</v>
       </c>
       <c r="AP86">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ86">
         <v>2</v>
@@ -18996,7 +19002,7 @@
         <v>137</v>
       </c>
       <c r="P87" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q87">
         <v>4.95</v>
@@ -19077,7 +19083,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ87">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AR87">
         <v>2.06</v>
@@ -19202,7 +19208,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q88">
         <v>2.77</v>
@@ -19408,7 +19414,7 @@
         <v>138</v>
       </c>
       <c r="P89" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -19614,7 +19620,7 @@
         <v>122</v>
       </c>
       <c r="P90" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q90">
         <v>11</v>
@@ -19820,7 +19826,7 @@
         <v>139</v>
       </c>
       <c r="P91" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q91">
         <v>1.83</v>
@@ -20026,7 +20032,7 @@
         <v>140</v>
       </c>
       <c r="P92" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20232,7 +20238,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q93">
         <v>2.3</v>
@@ -20928,7 +20934,7 @@
         <v>1</v>
       </c>
       <c r="AP96">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ96">
         <v>1</v>
@@ -21262,7 +21268,7 @@
         <v>145</v>
       </c>
       <c r="P98" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -21343,7 +21349,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ98">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AR98">
         <v>1.81</v>
@@ -21674,7 +21680,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -21755,7 +21761,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ100">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AR100">
         <v>1.13</v>
@@ -22292,7 +22298,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q103">
         <v>1.91</v>
@@ -22988,7 +22994,7 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ106">
         <v>1</v>
@@ -23116,7 +23122,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q107">
         <v>1.06</v>
@@ -23322,7 +23328,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23403,7 +23409,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ108">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AR108">
         <v>1.62</v>
@@ -23528,7 +23534,7 @@
         <v>151</v>
       </c>
       <c r="P109" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q109">
         <v>2.2</v>
@@ -23734,7 +23740,7 @@
         <v>81</v>
       </c>
       <c r="P110" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23812,7 +23818,7 @@
         <v>1.73</v>
       </c>
       <c r="AP110">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ110">
         <v>2</v>
@@ -24146,7 +24152,7 @@
         <v>81</v>
       </c>
       <c r="P112" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24352,7 +24358,7 @@
         <v>152</v>
       </c>
       <c r="P113" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -24558,7 +24564,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q114">
         <v>2.1</v>
@@ -24970,7 +24976,7 @@
         <v>155</v>
       </c>
       <c r="P116" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q116">
         <v>2.5</v>
@@ -25176,7 +25182,7 @@
         <v>156</v>
       </c>
       <c r="P117" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q117">
         <v>1.91</v>
@@ -25794,7 +25800,7 @@
         <v>81</v>
       </c>
       <c r="P120" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q120">
         <v>5.33</v>
@@ -26000,7 +26006,7 @@
         <v>81</v>
       </c>
       <c r="P121" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -26078,7 +26084,7 @@
         <v>1</v>
       </c>
       <c r="AP121">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ121">
         <v>1.47</v>
@@ -26206,7 +26212,7 @@
         <v>153</v>
       </c>
       <c r="P122" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q122">
         <v>6.41</v>
@@ -26412,7 +26418,7 @@
         <v>104</v>
       </c>
       <c r="P123" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26699,7 +26705,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ124">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AR124">
         <v>2.48</v>
@@ -26824,7 +26830,7 @@
         <v>160</v>
       </c>
       <c r="P125" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -27236,7 +27242,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q127">
         <v>3.75</v>
@@ -27442,7 +27448,7 @@
         <v>162</v>
       </c>
       <c r="P128" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q128">
         <v>2.63</v>
@@ -27854,7 +27860,7 @@
         <v>163</v>
       </c>
       <c r="P130" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -28060,7 +28066,7 @@
         <v>164</v>
       </c>
       <c r="P131" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -28138,7 +28144,7 @@
         <v>1.58</v>
       </c>
       <c r="AP131">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ131">
         <v>1.53</v>
@@ -28266,7 +28272,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q132">
         <v>1.67</v>
@@ -28472,7 +28478,7 @@
         <v>81</v>
       </c>
       <c r="P133" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q133">
         <v>4.75</v>
@@ -28553,7 +28559,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ133">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AR133">
         <v>1.5</v>
@@ -28678,7 +28684,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q134">
         <v>4.33</v>
@@ -28884,7 +28890,7 @@
         <v>81</v>
       </c>
       <c r="P135" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q135">
         <v>10</v>
@@ -28962,7 +28968,7 @@
         <v>2.54</v>
       </c>
       <c r="AP135">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ135">
         <v>2.65</v>
@@ -29090,7 +29096,7 @@
         <v>167</v>
       </c>
       <c r="P136" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q136">
         <v>7.5</v>
@@ -29502,7 +29508,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -29708,7 +29714,7 @@
         <v>170</v>
       </c>
       <c r="P139" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q139">
         <v>1.8</v>
@@ -29914,7 +29920,7 @@
         <v>81</v>
       </c>
       <c r="P140" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q140">
         <v>4.5</v>
@@ -30120,7 +30126,7 @@
         <v>171</v>
       </c>
       <c r="P141" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q141">
         <v>2.1</v>
@@ -30532,7 +30538,7 @@
         <v>173</v>
       </c>
       <c r="P143" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q143">
         <v>1.5</v>
@@ -30944,7 +30950,7 @@
         <v>175</v>
       </c>
       <c r="P145" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -31434,7 +31440,7 @@
         <v>0.2</v>
       </c>
       <c r="AP147">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ147">
         <v>0.22</v>
@@ -31768,7 +31774,7 @@
         <v>81</v>
       </c>
       <c r="P149" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q149">
         <v>4.4</v>
@@ -31974,7 +31980,7 @@
         <v>179</v>
       </c>
       <c r="P150" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q150">
         <v>4.75</v>
@@ -32055,7 +32061,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ150">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AR150">
         <v>2.05</v>
@@ -32386,7 +32392,7 @@
         <v>81</v>
       </c>
       <c r="P152" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q152">
         <v>9</v>
@@ -32592,7 +32598,7 @@
         <v>81</v>
       </c>
       <c r="P153" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q153">
         <v>6</v>
@@ -32798,7 +32804,7 @@
         <v>180</v>
       </c>
       <c r="P154" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -33004,7 +33010,7 @@
         <v>181</v>
       </c>
       <c r="P155" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q155">
         <v>3.1</v>
@@ -33085,7 +33091,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ155">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AR155">
         <v>2.3</v>
@@ -33210,7 +33216,7 @@
         <v>182</v>
       </c>
       <c r="P156" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q156">
         <v>2.88</v>
@@ -33416,7 +33422,7 @@
         <v>183</v>
       </c>
       <c r="P157" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q157">
         <v>2.5</v>
@@ -33494,7 +33500,7 @@
         <v>0.73</v>
       </c>
       <c r="AP157">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AQ157">
         <v>0.6899999999999999</v>
@@ -33622,7 +33628,7 @@
         <v>81</v>
       </c>
       <c r="P158" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q158">
         <v>4.75</v>
@@ -33828,7 +33834,7 @@
         <v>81</v>
       </c>
       <c r="P159" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q159">
         <v>8.5</v>
@@ -34034,7 +34040,7 @@
         <v>184</v>
       </c>
       <c r="P160" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q160">
         <v>1.91</v>
@@ -34240,7 +34246,7 @@
         <v>185</v>
       </c>
       <c r="P161" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q161">
         <v>2.5</v>
@@ -34446,7 +34452,7 @@
         <v>186</v>
       </c>
       <c r="P162" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -35270,7 +35276,7 @@
         <v>187</v>
       </c>
       <c r="P166" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q166">
         <v>2.88</v>
@@ -35351,7 +35357,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ166">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AR166">
         <v>1.88</v>
@@ -36094,7 +36100,7 @@
         <v>120</v>
       </c>
       <c r="P170" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q170">
         <v>2.88</v>
@@ -36300,7 +36306,7 @@
         <v>81</v>
       </c>
       <c r="P171" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q171">
         <v>3.2</v>
@@ -36456,6 +36462,212 @@
         <v>0</v>
       </c>
       <c r="BP171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>7325303</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45598.3125</v>
+      </c>
+      <c r="F172">
+        <v>35</v>
+      </c>
+      <c r="G172" t="s">
+        <v>71</v>
+      </c>
+      <c r="H172" t="s">
+        <v>76</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>1</v>
+      </c>
+      <c r="K172">
+        <v>1</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+      <c r="M172">
+        <v>2</v>
+      </c>
+      <c r="N172">
+        <v>3</v>
+      </c>
+      <c r="O172" t="s">
+        <v>190</v>
+      </c>
+      <c r="P172" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q172">
+        <v>4.75</v>
+      </c>
+      <c r="R172">
+        <v>2.5</v>
+      </c>
+      <c r="S172">
+        <v>2</v>
+      </c>
+      <c r="T172">
+        <v>0</v>
+      </c>
+      <c r="U172">
+        <v>0</v>
+      </c>
+      <c r="V172">
+        <v>0</v>
+      </c>
+      <c r="W172">
+        <v>0</v>
+      </c>
+      <c r="X172">
+        <v>0</v>
+      </c>
+      <c r="Y172">
+        <v>0</v>
+      </c>
+      <c r="Z172">
+        <v>5.25</v>
+      </c>
+      <c r="AA172">
+        <v>4.5</v>
+      </c>
+      <c r="AB172">
+        <v>1.43</v>
+      </c>
+      <c r="AC172">
+        <v>0</v>
+      </c>
+      <c r="AD172">
+        <v>0</v>
+      </c>
+      <c r="AE172">
+        <v>0</v>
+      </c>
+      <c r="AF172">
+        <v>0</v>
+      </c>
+      <c r="AG172">
+        <v>1.42</v>
+      </c>
+      <c r="AH172">
+        <v>2.65</v>
+      </c>
+      <c r="AI172">
+        <v>0</v>
+      </c>
+      <c r="AJ172">
+        <v>0</v>
+      </c>
+      <c r="AK172">
+        <v>0</v>
+      </c>
+      <c r="AL172">
+        <v>0</v>
+      </c>
+      <c r="AM172">
+        <v>0</v>
+      </c>
+      <c r="AN172">
+        <v>1.06</v>
+      </c>
+      <c r="AO172">
+        <v>1.76</v>
+      </c>
+      <c r="AP172">
+        <v>1</v>
+      </c>
+      <c r="AQ172">
+        <v>1.83</v>
+      </c>
+      <c r="AR172">
+        <v>1.47</v>
+      </c>
+      <c r="AS172">
+        <v>1.74</v>
+      </c>
+      <c r="AT172">
+        <v>3.21</v>
+      </c>
+      <c r="AU172">
+        <v>6</v>
+      </c>
+      <c r="AV172">
+        <v>10</v>
+      </c>
+      <c r="AW172">
+        <v>6</v>
+      </c>
+      <c r="AX172">
+        <v>9</v>
+      </c>
+      <c r="AY172">
+        <v>12</v>
+      </c>
+      <c r="AZ172">
+        <v>19</v>
+      </c>
+      <c r="BA172">
+        <v>2</v>
+      </c>
+      <c r="BB172">
+        <v>15</v>
+      </c>
+      <c r="BC172">
+        <v>17</v>
+      </c>
+      <c r="BD172">
+        <v>0</v>
+      </c>
+      <c r="BE172">
+        <v>0</v>
+      </c>
+      <c r="BF172">
+        <v>0</v>
+      </c>
+      <c r="BG172">
+        <v>0</v>
+      </c>
+      <c r="BH172">
+        <v>0</v>
+      </c>
+      <c r="BI172">
+        <v>0</v>
+      </c>
+      <c r="BJ172">
+        <v>0</v>
+      </c>
+      <c r="BK172">
+        <v>0</v>
+      </c>
+      <c r="BL172">
+        <v>0</v>
+      </c>
+      <c r="BM172">
+        <v>0</v>
+      </c>
+      <c r="BN172">
+        <v>0</v>
+      </c>
+      <c r="BO172">
+        <v>0</v>
+      </c>
+      <c r="BP172">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="292">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -589,6 +589,15 @@
     <t>['53']</t>
   </si>
   <si>
+    <t>['16', '42']</t>
+  </si>
+  <si>
+    <t>['24', '39', '47']</t>
+  </si>
+  <si>
+    <t>['45+6', '49', '65', '89']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -872,6 +881,15 @@
   </si>
   <si>
     <t>['3', '59']</t>
+  </si>
+  <si>
+    <t>['10', '34', '90+3']</t>
+  </si>
+  <si>
+    <t>['17', '67', '77', '90+3']</t>
+  </si>
+  <si>
+    <t>['45+9', '84']</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1251,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP172"/>
+  <dimension ref="A1:BP176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1698,7 +1716,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1982,10 +2000,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ4">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2110,7 +2128,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -2316,7 +2334,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2394,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2600,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2728,7 +2746,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -3015,7 +3033,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ9">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3140,7 +3158,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -3346,7 +3364,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3427,7 +3445,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ11">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR11">
         <v>1.79</v>
@@ -3552,7 +3570,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3758,7 +3776,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3839,7 +3857,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ13">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR13">
         <v>2.65</v>
@@ -3964,7 +3982,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -4170,7 +4188,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4248,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
         <v>0.76</v>
@@ -4454,7 +4472,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ16">
         <v>1.83</v>
@@ -4663,7 +4681,7 @@
         <v>1</v>
       </c>
       <c r="AQ17">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR17">
         <v>0.95</v>
@@ -4788,7 +4806,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4866,7 +4884,7 @@
         <v>2</v>
       </c>
       <c r="AP18">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ18">
         <v>1.83</v>
@@ -5278,10 +5296,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ20">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR20">
         <v>2.07</v>
@@ -5484,10 +5502,10 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ21">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR21">
         <v>2.61</v>
@@ -5612,7 +5630,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5690,7 +5708,7 @@
         <v>2</v>
       </c>
       <c r="AP22">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -5818,7 +5836,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -6024,7 +6042,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -6230,7 +6248,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6311,7 +6329,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ25">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR25">
         <v>1.98</v>
@@ -6642,7 +6660,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6720,7 +6738,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ27">
         <v>0.76</v>
@@ -6848,7 +6866,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6929,7 +6947,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ28">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR28">
         <v>1.8</v>
@@ -7132,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ29">
         <v>0.22</v>
@@ -7260,7 +7278,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7338,10 +7356,10 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR30">
         <v>1.13</v>
@@ -7466,7 +7484,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7547,7 +7565,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ31">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR31">
         <v>2.12</v>
@@ -7672,7 +7690,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7878,7 +7896,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7959,7 +7977,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ33">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR33">
         <v>1.95</v>
@@ -8084,7 +8102,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -8162,10 +8180,10 @@
         <v>0.67</v>
       </c>
       <c r="AP34">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ34">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR34">
         <v>1.08</v>
@@ -8290,7 +8308,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8574,7 +8592,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -8783,7 +8801,7 @@
         <v>1</v>
       </c>
       <c r="AQ37">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR37">
         <v>1.49</v>
@@ -8908,7 +8926,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -9114,7 +9132,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -9192,7 +9210,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ39">
         <v>0.22</v>
@@ -9320,7 +9338,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9526,7 +9544,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9607,7 +9625,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR41">
         <v>1.7</v>
@@ -9732,7 +9750,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9810,7 +9828,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ42">
         <v>2.65</v>
@@ -9938,7 +9956,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -10019,7 +10037,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ43">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR43">
         <v>1.92</v>
@@ -10222,10 +10240,10 @@
         <v>1.4</v>
       </c>
       <c r="AP44">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ44">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR44">
         <v>2.3</v>
@@ -10350,7 +10368,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10431,7 +10449,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ45">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR45">
         <v>1.38</v>
@@ -10840,7 +10858,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ47">
         <v>0.76</v>
@@ -11255,7 +11273,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ49">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR49">
         <v>2.56</v>
@@ -11586,7 +11604,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -12076,7 +12094,7 @@
         <v>2.2</v>
       </c>
       <c r="AP53">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ53">
         <v>1.83</v>
@@ -12285,7 +12303,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ54">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR54">
         <v>1.38</v>
@@ -12410,7 +12428,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12488,10 +12506,10 @@
         <v>1.17</v>
       </c>
       <c r="AP55">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ55">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR55">
         <v>1.18</v>
@@ -12616,7 +12634,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12694,10 +12712,10 @@
         <v>1.43</v>
       </c>
       <c r="AP56">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ56">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR56">
         <v>1.96</v>
@@ -12822,7 +12840,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12903,7 +12921,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ57">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR57">
         <v>1.88</v>
@@ -13440,7 +13458,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13518,7 +13536,7 @@
         <v>2.5</v>
       </c>
       <c r="AP60">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ60">
         <v>2.65</v>
@@ -13852,7 +13870,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -14058,7 +14076,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -14136,10 +14154,10 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ63">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR63">
         <v>2.2</v>
@@ -14264,7 +14282,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14342,10 +14360,10 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ64">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR64">
         <v>1.24</v>
@@ -14470,7 +14488,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14548,7 +14566,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ65">
         <v>1</v>
@@ -14676,7 +14694,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14754,10 +14772,10 @@
         <v>0.5</v>
       </c>
       <c r="AP66">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ66">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR66">
         <v>1.95</v>
@@ -14882,7 +14900,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -15088,7 +15106,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -15294,7 +15312,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15375,7 +15393,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ69">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR69">
         <v>1.5</v>
@@ -15500,7 +15518,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15706,7 +15724,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15784,7 +15802,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ71">
         <v>1</v>
@@ -15993,7 +16011,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ72">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR72">
         <v>1.97</v>
@@ -16196,7 +16214,7 @@
         <v>0.67</v>
       </c>
       <c r="AP73">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ73">
         <v>0.76</v>
@@ -16608,10 +16626,10 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ75">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR75">
         <v>1.91</v>
@@ -16736,7 +16754,7 @@
         <v>131</v>
       </c>
       <c r="P76" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -16817,7 +16835,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ76">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR76">
         <v>1.56</v>
@@ -17023,7 +17041,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ77">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR77">
         <v>2</v>
@@ -17148,7 +17166,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17226,10 +17244,10 @@
         <v>0.86</v>
       </c>
       <c r="AP78">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ78">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR78">
         <v>1.17</v>
@@ -17354,7 +17372,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q79">
         <v>1.53</v>
@@ -17432,7 +17450,7 @@
         <v>1.29</v>
       </c>
       <c r="AP79">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ79">
         <v>1</v>
@@ -17560,7 +17578,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17766,7 +17784,7 @@
         <v>81</v>
       </c>
       <c r="P81" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q81">
         <v>1.6</v>
@@ -18053,7 +18071,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ82">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR82">
         <v>2.04</v>
@@ -18178,7 +18196,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q83">
         <v>8.5</v>
@@ -18256,7 +18274,7 @@
         <v>2.63</v>
       </c>
       <c r="AP83">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ83">
         <v>2.65</v>
@@ -18384,7 +18402,7 @@
         <v>81</v>
       </c>
       <c r="P84" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18796,7 +18814,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q86">
         <v>5.66</v>
@@ -18877,7 +18895,7 @@
         <v>1</v>
       </c>
       <c r="AQ86">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR86">
         <v>1.61</v>
@@ -19002,7 +19020,7 @@
         <v>137</v>
       </c>
       <c r="P87" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q87">
         <v>4.95</v>
@@ -19080,7 +19098,7 @@
         <v>1.88</v>
       </c>
       <c r="AP87">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ87">
         <v>1.83</v>
@@ -19208,7 +19226,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q88">
         <v>2.77</v>
@@ -19286,10 +19304,10 @@
         <v>0.75</v>
       </c>
       <c r="AP88">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ88">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR88">
         <v>1.27</v>
@@ -19414,7 +19432,7 @@
         <v>138</v>
       </c>
       <c r="P89" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -19492,10 +19510,10 @@
         <v>1.88</v>
       </c>
       <c r="AP89">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ89">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR89">
         <v>1.16</v>
@@ -19620,7 +19638,7 @@
         <v>122</v>
       </c>
       <c r="P90" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q90">
         <v>11</v>
@@ -19826,7 +19844,7 @@
         <v>139</v>
       </c>
       <c r="P91" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q91">
         <v>1.83</v>
@@ -20032,7 +20050,7 @@
         <v>140</v>
       </c>
       <c r="P92" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20238,7 +20256,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q93">
         <v>2.3</v>
@@ -20316,7 +20334,7 @@
         <v>0.25</v>
       </c>
       <c r="AP93">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ93">
         <v>0.22</v>
@@ -20525,7 +20543,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ94">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR94">
         <v>2.14</v>
@@ -20728,10 +20746,10 @@
         <v>1.78</v>
       </c>
       <c r="AP95">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ95">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR95">
         <v>2.41</v>
@@ -21140,7 +21158,7 @@
         <v>0.22</v>
       </c>
       <c r="AP97">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ97">
         <v>0.22</v>
@@ -21268,7 +21286,7 @@
         <v>145</v>
       </c>
       <c r="P98" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -21552,10 +21570,10 @@
         <v>1.6</v>
       </c>
       <c r="AP99">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ99">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR99">
         <v>2.12</v>
@@ -21680,7 +21698,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -21758,7 +21776,7 @@
         <v>1.7</v>
       </c>
       <c r="AP100">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ100">
         <v>1.83</v>
@@ -21964,10 +21982,10 @@
         <v>1.11</v>
       </c>
       <c r="AP101">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ101">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR101">
         <v>1.51</v>
@@ -22170,7 +22188,7 @@
         <v>0.89</v>
       </c>
       <c r="AP102">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ102">
         <v>0.76</v>
@@ -22298,7 +22316,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q103">
         <v>1.91</v>
@@ -22379,7 +22397,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ103">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR103">
         <v>2.14</v>
@@ -23122,7 +23140,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q107">
         <v>1.06</v>
@@ -23200,7 +23218,7 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ107">
         <v>1</v>
@@ -23328,7 +23346,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23534,7 +23552,7 @@
         <v>151</v>
       </c>
       <c r="P109" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q109">
         <v>2.2</v>
@@ -23615,7 +23633,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ109">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR109">
         <v>1.91</v>
@@ -23740,7 +23758,7 @@
         <v>81</v>
       </c>
       <c r="P110" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23821,7 +23839,7 @@
         <v>1</v>
       </c>
       <c r="AQ110">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR110">
         <v>1.47</v>
@@ -24024,7 +24042,7 @@
         <v>2.7</v>
       </c>
       <c r="AP111">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ111">
         <v>2.65</v>
@@ -24152,7 +24170,7 @@
         <v>81</v>
       </c>
       <c r="P112" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24358,7 +24376,7 @@
         <v>152</v>
       </c>
       <c r="P113" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -24436,7 +24454,7 @@
         <v>2.73</v>
       </c>
       <c r="AP113">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ113">
         <v>2.65</v>
@@ -24564,7 +24582,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q114">
         <v>2.1</v>
@@ -24642,7 +24660,7 @@
         <v>0.18</v>
       </c>
       <c r="AP114">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ114">
         <v>0.22</v>
@@ -24848,7 +24866,7 @@
         <v>0.91</v>
       </c>
       <c r="AP115">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ115">
         <v>1</v>
@@ -24976,7 +24994,7 @@
         <v>155</v>
       </c>
       <c r="P116" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q116">
         <v>2.5</v>
@@ -25057,7 +25075,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ116">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR116">
         <v>1.74</v>
@@ -25182,7 +25200,7 @@
         <v>156</v>
       </c>
       <c r="P117" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q117">
         <v>1.91</v>
@@ -25800,7 +25818,7 @@
         <v>81</v>
       </c>
       <c r="P120" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q120">
         <v>5.33</v>
@@ -25878,10 +25896,10 @@
         <v>1.45</v>
       </c>
       <c r="AP120">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ120">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR120">
         <v>1.53</v>
@@ -26006,7 +26024,7 @@
         <v>81</v>
       </c>
       <c r="P121" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -26087,7 +26105,7 @@
         <v>1</v>
       </c>
       <c r="AQ121">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR121">
         <v>1.47</v>
@@ -26212,7 +26230,7 @@
         <v>153</v>
       </c>
       <c r="P122" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q122">
         <v>6.41</v>
@@ -26290,10 +26308,10 @@
         <v>1.83</v>
       </c>
       <c r="AP122">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ122">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR122">
         <v>2.06</v>
@@ -26418,7 +26436,7 @@
         <v>104</v>
       </c>
       <c r="P123" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26496,10 +26514,10 @@
         <v>0.91</v>
       </c>
       <c r="AP123">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ123">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR123">
         <v>1.09</v>
@@ -26702,7 +26720,7 @@
         <v>1.92</v>
       </c>
       <c r="AP124">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ124">
         <v>1.83</v>
@@ -26830,7 +26848,7 @@
         <v>160</v>
       </c>
       <c r="P125" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -27242,7 +27260,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q127">
         <v>3.75</v>
@@ -27320,7 +27338,7 @@
         <v>1</v>
       </c>
       <c r="AP127">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ127">
         <v>0.76</v>
@@ -27448,7 +27466,7 @@
         <v>162</v>
       </c>
       <c r="P128" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q128">
         <v>2.63</v>
@@ -27529,7 +27547,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ128">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR128">
         <v>2</v>
@@ -27860,7 +27878,7 @@
         <v>163</v>
       </c>
       <c r="P130" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -27938,10 +27956,10 @@
         <v>0.92</v>
       </c>
       <c r="AP130">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ130">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR130">
         <v>2.02</v>
@@ -28066,7 +28084,7 @@
         <v>164</v>
       </c>
       <c r="P131" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -28147,7 +28165,7 @@
         <v>1</v>
       </c>
       <c r="AQ131">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR131">
         <v>1.43</v>
@@ -28272,7 +28290,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q132">
         <v>1.67</v>
@@ -28478,7 +28496,7 @@
         <v>81</v>
       </c>
       <c r="P133" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q133">
         <v>4.75</v>
@@ -28556,7 +28574,7 @@
         <v>1.77</v>
       </c>
       <c r="AP133">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ133">
         <v>1.83</v>
@@ -28684,7 +28702,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q134">
         <v>4.33</v>
@@ -28765,7 +28783,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ134">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR134">
         <v>1.79</v>
@@ -28890,7 +28908,7 @@
         <v>81</v>
       </c>
       <c r="P135" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q135">
         <v>10</v>
@@ -29096,7 +29114,7 @@
         <v>167</v>
       </c>
       <c r="P136" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q136">
         <v>7.5</v>
@@ -29177,7 +29195,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ136">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR136">
         <v>1.55</v>
@@ -29508,7 +29526,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -29586,7 +29604,7 @@
         <v>1</v>
       </c>
       <c r="AP138">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ138">
         <v>1</v>
@@ -29714,7 +29732,7 @@
         <v>170</v>
       </c>
       <c r="P139" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q139">
         <v>1.8</v>
@@ -29920,7 +29938,7 @@
         <v>81</v>
       </c>
       <c r="P140" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q140">
         <v>4.5</v>
@@ -29998,10 +30016,10 @@
         <v>1.17</v>
       </c>
       <c r="AP140">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ140">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR140">
         <v>1.26</v>
@@ -30126,7 +30144,7 @@
         <v>171</v>
       </c>
       <c r="P141" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q141">
         <v>2.1</v>
@@ -30413,7 +30431,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ142">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR142">
         <v>2.07</v>
@@ -30538,7 +30556,7 @@
         <v>173</v>
       </c>
       <c r="P143" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q143">
         <v>1.5</v>
@@ -30616,7 +30634,7 @@
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ143">
         <v>1</v>
@@ -30825,7 +30843,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ144">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR144">
         <v>2.1</v>
@@ -30950,7 +30968,7 @@
         <v>175</v>
       </c>
       <c r="P145" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -31031,7 +31049,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ145">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR145">
         <v>2.29</v>
@@ -31234,10 +31252,10 @@
         <v>0.79</v>
       </c>
       <c r="AP146">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ146">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR146">
         <v>2.47</v>
@@ -31774,7 +31792,7 @@
         <v>81</v>
       </c>
       <c r="P149" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q149">
         <v>4.4</v>
@@ -31855,7 +31873,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ149">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR149">
         <v>1.77</v>
@@ -31980,7 +31998,7 @@
         <v>179</v>
       </c>
       <c r="P150" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q150">
         <v>4.75</v>
@@ -32058,7 +32076,7 @@
         <v>1.86</v>
       </c>
       <c r="AP150">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ150">
         <v>1.83</v>
@@ -32264,10 +32282,10 @@
         <v>1.43</v>
       </c>
       <c r="AP151">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ151">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR151">
         <v>2.47</v>
@@ -32392,7 +32410,7 @@
         <v>81</v>
       </c>
       <c r="P152" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q152">
         <v>9</v>
@@ -32470,10 +32488,10 @@
         <v>1.53</v>
       </c>
       <c r="AP152">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ152">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR152">
         <v>1.29</v>
@@ -32598,7 +32616,7 @@
         <v>81</v>
       </c>
       <c r="P153" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q153">
         <v>6</v>
@@ -32804,7 +32822,7 @@
         <v>180</v>
       </c>
       <c r="P154" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -33010,7 +33028,7 @@
         <v>181</v>
       </c>
       <c r="P155" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q155">
         <v>3.1</v>
@@ -33216,7 +33234,7 @@
         <v>182</v>
       </c>
       <c r="P156" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q156">
         <v>2.88</v>
@@ -33294,7 +33312,7 @@
         <v>0.93</v>
       </c>
       <c r="AP156">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ156">
         <v>0.76</v>
@@ -33422,7 +33440,7 @@
         <v>183</v>
       </c>
       <c r="P157" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q157">
         <v>2.5</v>
@@ -33503,7 +33521,7 @@
         <v>1</v>
       </c>
       <c r="AQ157">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR157">
         <v>1.42</v>
@@ -33628,7 +33646,7 @@
         <v>81</v>
       </c>
       <c r="P158" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q158">
         <v>4.75</v>
@@ -33706,7 +33724,7 @@
         <v>0.87</v>
       </c>
       <c r="AP158">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AQ158">
         <v>1</v>
@@ -33834,7 +33852,7 @@
         <v>81</v>
       </c>
       <c r="P159" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q159">
         <v>8.5</v>
@@ -33912,7 +33930,7 @@
         <v>2.6</v>
       </c>
       <c r="AP159">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ159">
         <v>2.65</v>
@@ -34040,7 +34058,7 @@
         <v>184</v>
       </c>
       <c r="P160" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q160">
         <v>1.91</v>
@@ -34121,7 +34139,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ160">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR160">
         <v>2.09</v>
@@ -34246,7 +34264,7 @@
         <v>185</v>
       </c>
       <c r="P161" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q161">
         <v>2.5</v>
@@ -34327,7 +34345,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ161">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR161">
         <v>2.24</v>
@@ -34452,7 +34470,7 @@
         <v>186</v>
       </c>
       <c r="P162" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -34530,7 +34548,7 @@
         <v>0.87</v>
       </c>
       <c r="AP162">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ162">
         <v>0.76</v>
@@ -34736,7 +34754,7 @@
         <v>0.19</v>
       </c>
       <c r="AP163">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ163">
         <v>0.22</v>
@@ -34945,7 +34963,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ164">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR164">
         <v>1.58</v>
@@ -35148,10 +35166,10 @@
         <v>1.94</v>
       </c>
       <c r="AP165">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AQ165">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AR165">
         <v>1.5</v>
@@ -35276,7 +35294,7 @@
         <v>187</v>
       </c>
       <c r="P166" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q166">
         <v>2.88</v>
@@ -36100,7 +36118,7 @@
         <v>120</v>
       </c>
       <c r="P170" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q170">
         <v>2.88</v>
@@ -36306,7 +36324,7 @@
         <v>81</v>
       </c>
       <c r="P171" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q171">
         <v>3.2</v>
@@ -36482,7 +36500,7 @@
         <v>45598.3125</v>
       </c>
       <c r="F172">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G172" t="s">
         <v>71</v>
@@ -36512,7 +36530,7 @@
         <v>190</v>
       </c>
       <c r="P172" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q172">
         <v>4.75</v>
@@ -36668,6 +36686,830 @@
         <v>0</v>
       </c>
       <c r="BP172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7325304</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45598.875</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173" t="s">
+        <v>74</v>
+      </c>
+      <c r="H173" t="s">
+        <v>73</v>
+      </c>
+      <c r="I173">
+        <v>2</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>2</v>
+      </c>
+      <c r="L173">
+        <v>2</v>
+      </c>
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173">
+        <v>2</v>
+      </c>
+      <c r="O173" t="s">
+        <v>191</v>
+      </c>
+      <c r="P173" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q173">
+        <v>2.75</v>
+      </c>
+      <c r="R173">
+        <v>2.2</v>
+      </c>
+      <c r="S173">
+        <v>3.4</v>
+      </c>
+      <c r="T173">
+        <v>1.35</v>
+      </c>
+      <c r="U173">
+        <v>2.95</v>
+      </c>
+      <c r="V173">
+        <v>2.6</v>
+      </c>
+      <c r="W173">
+        <v>1.45</v>
+      </c>
+      <c r="X173">
+        <v>6</v>
+      </c>
+      <c r="Y173">
+        <v>1.11</v>
+      </c>
+      <c r="Z173">
+        <v>2.13</v>
+      </c>
+      <c r="AA173">
+        <v>3.46</v>
+      </c>
+      <c r="AB173">
+        <v>3.09</v>
+      </c>
+      <c r="AC173">
+        <v>1.04</v>
+      </c>
+      <c r="AD173">
+        <v>11</v>
+      </c>
+      <c r="AE173">
+        <v>1.25</v>
+      </c>
+      <c r="AF173">
+        <v>3.75</v>
+      </c>
+      <c r="AG173">
+        <v>1.74</v>
+      </c>
+      <c r="AH173">
+        <v>1.98</v>
+      </c>
+      <c r="AI173">
+        <v>1.62</v>
+      </c>
+      <c r="AJ173">
+        <v>2.2</v>
+      </c>
+      <c r="AK173">
+        <v>1.33</v>
+      </c>
+      <c r="AL173">
+        <v>1.25</v>
+      </c>
+      <c r="AM173">
+        <v>1.66</v>
+      </c>
+      <c r="AN173">
+        <v>0.88</v>
+      </c>
+      <c r="AO173">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP173">
+        <v>1</v>
+      </c>
+      <c r="AQ173">
+        <v>0.65</v>
+      </c>
+      <c r="AR173">
+        <v>1.49</v>
+      </c>
+      <c r="AS173">
+        <v>1.47</v>
+      </c>
+      <c r="AT173">
+        <v>2.96</v>
+      </c>
+      <c r="AU173">
+        <v>4</v>
+      </c>
+      <c r="AV173">
+        <v>7</v>
+      </c>
+      <c r="AW173">
+        <v>4</v>
+      </c>
+      <c r="AX173">
+        <v>9</v>
+      </c>
+      <c r="AY173">
+        <v>8</v>
+      </c>
+      <c r="AZ173">
+        <v>16</v>
+      </c>
+      <c r="BA173">
+        <v>3</v>
+      </c>
+      <c r="BB173">
+        <v>4</v>
+      </c>
+      <c r="BC173">
+        <v>7</v>
+      </c>
+      <c r="BD173">
+        <v>0</v>
+      </c>
+      <c r="BE173">
+        <v>0</v>
+      </c>
+      <c r="BF173">
+        <v>0</v>
+      </c>
+      <c r="BG173">
+        <v>0</v>
+      </c>
+      <c r="BH173">
+        <v>0</v>
+      </c>
+      <c r="BI173">
+        <v>0</v>
+      </c>
+      <c r="BJ173">
+        <v>0</v>
+      </c>
+      <c r="BK173">
+        <v>0</v>
+      </c>
+      <c r="BL173">
+        <v>0</v>
+      </c>
+      <c r="BM173">
+        <v>0</v>
+      </c>
+      <c r="BN173">
+        <v>0</v>
+      </c>
+      <c r="BO173">
+        <v>0</v>
+      </c>
+      <c r="BP173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7325305</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45598.875</v>
+      </c>
+      <c r="F174">
+        <v>35</v>
+      </c>
+      <c r="G174" t="s">
+        <v>75</v>
+      </c>
+      <c r="H174" t="s">
+        <v>78</v>
+      </c>
+      <c r="I174">
+        <v>2</v>
+      </c>
+      <c r="J174">
+        <v>2</v>
+      </c>
+      <c r="K174">
+        <v>4</v>
+      </c>
+      <c r="L174">
+        <v>3</v>
+      </c>
+      <c r="M174">
+        <v>3</v>
+      </c>
+      <c r="N174">
+        <v>6</v>
+      </c>
+      <c r="O174" t="s">
+        <v>192</v>
+      </c>
+      <c r="P174" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q174">
+        <v>3</v>
+      </c>
+      <c r="R174">
+        <v>2.25</v>
+      </c>
+      <c r="S174">
+        <v>3</v>
+      </c>
+      <c r="T174">
+        <v>1.33</v>
+      </c>
+      <c r="U174">
+        <v>3</v>
+      </c>
+      <c r="V174">
+        <v>2.45</v>
+      </c>
+      <c r="W174">
+        <v>1.48</v>
+      </c>
+      <c r="X174">
+        <v>5.5</v>
+      </c>
+      <c r="Y174">
+        <v>1.12</v>
+      </c>
+      <c r="Z174">
+        <v>2.3</v>
+      </c>
+      <c r="AA174">
+        <v>3.4</v>
+      </c>
+      <c r="AB174">
+        <v>2.55</v>
+      </c>
+      <c r="AC174">
+        <v>1.01</v>
+      </c>
+      <c r="AD174">
+        <v>11</v>
+      </c>
+      <c r="AE174">
+        <v>1.2</v>
+      </c>
+      <c r="AF174">
+        <v>4.1</v>
+      </c>
+      <c r="AG174">
+        <v>1.65</v>
+      </c>
+      <c r="AH174">
+        <v>2.1</v>
+      </c>
+      <c r="AI174">
+        <v>1.53</v>
+      </c>
+      <c r="AJ174">
+        <v>2.25</v>
+      </c>
+      <c r="AK174">
+        <v>1.4</v>
+      </c>
+      <c r="AL174">
+        <v>1.25</v>
+      </c>
+      <c r="AM174">
+        <v>1.5</v>
+      </c>
+      <c r="AN174">
+        <v>1.24</v>
+      </c>
+      <c r="AO174">
+        <v>1.47</v>
+      </c>
+      <c r="AP174">
+        <v>1.22</v>
+      </c>
+      <c r="AQ174">
+        <v>1.44</v>
+      </c>
+      <c r="AR174">
+        <v>1.98</v>
+      </c>
+      <c r="AS174">
+        <v>1.69</v>
+      </c>
+      <c r="AT174">
+        <v>3.67</v>
+      </c>
+      <c r="AU174">
+        <v>10</v>
+      </c>
+      <c r="AV174">
+        <v>8</v>
+      </c>
+      <c r="AW174">
+        <v>12</v>
+      </c>
+      <c r="AX174">
+        <v>8</v>
+      </c>
+      <c r="AY174">
+        <v>22</v>
+      </c>
+      <c r="AZ174">
+        <v>16</v>
+      </c>
+      <c r="BA174">
+        <v>2</v>
+      </c>
+      <c r="BB174">
+        <v>5</v>
+      </c>
+      <c r="BC174">
+        <v>7</v>
+      </c>
+      <c r="BD174">
+        <v>0</v>
+      </c>
+      <c r="BE174">
+        <v>0</v>
+      </c>
+      <c r="BF174">
+        <v>0</v>
+      </c>
+      <c r="BG174">
+        <v>0</v>
+      </c>
+      <c r="BH174">
+        <v>0</v>
+      </c>
+      <c r="BI174">
+        <v>0</v>
+      </c>
+      <c r="BJ174">
+        <v>0</v>
+      </c>
+      <c r="BK174">
+        <v>0</v>
+      </c>
+      <c r="BL174">
+        <v>0</v>
+      </c>
+      <c r="BM174">
+        <v>0</v>
+      </c>
+      <c r="BN174">
+        <v>0</v>
+      </c>
+      <c r="BO174">
+        <v>0</v>
+      </c>
+      <c r="BP174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7325306</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45598.875</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175" t="s">
+        <v>79</v>
+      </c>
+      <c r="H175" t="s">
+        <v>77</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>1</v>
+      </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="M175">
+        <v>4</v>
+      </c>
+      <c r="N175">
+        <v>4</v>
+      </c>
+      <c r="O175" t="s">
+        <v>81</v>
+      </c>
+      <c r="P175" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q175">
+        <v>10</v>
+      </c>
+      <c r="R175">
+        <v>2.5</v>
+      </c>
+      <c r="S175">
+        <v>1.62</v>
+      </c>
+      <c r="T175">
+        <v>1.22</v>
+      </c>
+      <c r="U175">
+        <v>3.75</v>
+      </c>
+      <c r="V175">
+        <v>2.01</v>
+      </c>
+      <c r="W175">
+        <v>1.73</v>
+      </c>
+      <c r="X175">
+        <v>4.33</v>
+      </c>
+      <c r="Y175">
+        <v>1.2</v>
+      </c>
+      <c r="Z175">
+        <v>21</v>
+      </c>
+      <c r="AA175">
+        <v>7.5</v>
+      </c>
+      <c r="AB175">
+        <v>1.11</v>
+      </c>
+      <c r="AC175">
+        <v>1.01</v>
+      </c>
+      <c r="AD175">
+        <v>17</v>
+      </c>
+      <c r="AE175">
+        <v>1.16</v>
+      </c>
+      <c r="AF175">
+        <v>4.75</v>
+      </c>
+      <c r="AG175">
+        <v>1.61</v>
+      </c>
+      <c r="AH175">
+        <v>2.18</v>
+      </c>
+      <c r="AI175">
+        <v>2.25</v>
+      </c>
+      <c r="AJ175">
+        <v>1.6</v>
+      </c>
+      <c r="AK175">
+        <v>4.5</v>
+      </c>
+      <c r="AL175">
+        <v>1.04</v>
+      </c>
+      <c r="AM175">
+        <v>1.01</v>
+      </c>
+      <c r="AN175">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AO175">
+        <v>2</v>
+      </c>
+      <c r="AP175">
+        <v>0.65</v>
+      </c>
+      <c r="AQ175">
+        <v>2.06</v>
+      </c>
+      <c r="AR175">
+        <v>1.26</v>
+      </c>
+      <c r="AS175">
+        <v>1.91</v>
+      </c>
+      <c r="AT175">
+        <v>3.17</v>
+      </c>
+      <c r="AU175">
+        <v>2</v>
+      </c>
+      <c r="AV175">
+        <v>9</v>
+      </c>
+      <c r="AW175">
+        <v>5</v>
+      </c>
+      <c r="AX175">
+        <v>9</v>
+      </c>
+      <c r="AY175">
+        <v>7</v>
+      </c>
+      <c r="AZ175">
+        <v>18</v>
+      </c>
+      <c r="BA175">
+        <v>1</v>
+      </c>
+      <c r="BB175">
+        <v>4</v>
+      </c>
+      <c r="BC175">
+        <v>5</v>
+      </c>
+      <c r="BD175">
+        <v>0</v>
+      </c>
+      <c r="BE175">
+        <v>0</v>
+      </c>
+      <c r="BF175">
+        <v>0</v>
+      </c>
+      <c r="BG175">
+        <v>0</v>
+      </c>
+      <c r="BH175">
+        <v>0</v>
+      </c>
+      <c r="BI175">
+        <v>0</v>
+      </c>
+      <c r="BJ175">
+        <v>0</v>
+      </c>
+      <c r="BK175">
+        <v>0</v>
+      </c>
+      <c r="BL175">
+        <v>0</v>
+      </c>
+      <c r="BM175">
+        <v>0</v>
+      </c>
+      <c r="BN175">
+        <v>0</v>
+      </c>
+      <c r="BO175">
+        <v>0</v>
+      </c>
+      <c r="BP175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>7325307</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45598.875</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176" t="s">
+        <v>72</v>
+      </c>
+      <c r="H176" t="s">
+        <v>70</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <v>1</v>
+      </c>
+      <c r="K176">
+        <v>2</v>
+      </c>
+      <c r="L176">
+        <v>4</v>
+      </c>
+      <c r="M176">
+        <v>2</v>
+      </c>
+      <c r="N176">
+        <v>6</v>
+      </c>
+      <c r="O176" t="s">
+        <v>193</v>
+      </c>
+      <c r="P176" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q176">
+        <v>2.3</v>
+      </c>
+      <c r="R176">
+        <v>2.4</v>
+      </c>
+      <c r="S176">
+        <v>3.75</v>
+      </c>
+      <c r="T176">
+        <v>1.35</v>
+      </c>
+      <c r="U176">
+        <v>2.95</v>
+      </c>
+      <c r="V176">
+        <v>2.6</v>
+      </c>
+      <c r="W176">
+        <v>1.45</v>
+      </c>
+      <c r="X176">
+        <v>6</v>
+      </c>
+      <c r="Y176">
+        <v>1.11</v>
+      </c>
+      <c r="Z176">
+        <v>1.76</v>
+      </c>
+      <c r="AA176">
+        <v>3.65</v>
+      </c>
+      <c r="AB176">
+        <v>3.9</v>
+      </c>
+      <c r="AC176">
+        <v>1.01</v>
+      </c>
+      <c r="AD176">
+        <v>11</v>
+      </c>
+      <c r="AE176">
+        <v>1.25</v>
+      </c>
+      <c r="AF176">
+        <v>3.75</v>
+      </c>
+      <c r="AG176">
+        <v>1.73</v>
+      </c>
+      <c r="AH176">
+        <v>1.98</v>
+      </c>
+      <c r="AI176">
+        <v>1.62</v>
+      </c>
+      <c r="AJ176">
+        <v>2.2</v>
+      </c>
+      <c r="AK176">
+        <v>1.3</v>
+      </c>
+      <c r="AL176">
+        <v>1.25</v>
+      </c>
+      <c r="AM176">
+        <v>1.68</v>
+      </c>
+      <c r="AN176">
+        <v>2.29</v>
+      </c>
+      <c r="AO176">
+        <v>1.53</v>
+      </c>
+      <c r="AP176">
+        <v>2.33</v>
+      </c>
+      <c r="AQ176">
+        <v>1.44</v>
+      </c>
+      <c r="AR176">
+        <v>2.4</v>
+      </c>
+      <c r="AS176">
+        <v>1.86</v>
+      </c>
+      <c r="AT176">
+        <v>4.26</v>
+      </c>
+      <c r="AU176">
+        <v>10</v>
+      </c>
+      <c r="AV176">
+        <v>10</v>
+      </c>
+      <c r="AW176">
+        <v>3</v>
+      </c>
+      <c r="AX176">
+        <v>7</v>
+      </c>
+      <c r="AY176">
+        <v>13</v>
+      </c>
+      <c r="AZ176">
+        <v>17</v>
+      </c>
+      <c r="BA176">
+        <v>7</v>
+      </c>
+      <c r="BB176">
+        <v>6</v>
+      </c>
+      <c r="BC176">
+        <v>13</v>
+      </c>
+      <c r="BD176">
+        <v>0</v>
+      </c>
+      <c r="BE176">
+        <v>0</v>
+      </c>
+      <c r="BF176">
+        <v>0</v>
+      </c>
+      <c r="BG176">
+        <v>0</v>
+      </c>
+      <c r="BH176">
+        <v>0</v>
+      </c>
+      <c r="BI176">
+        <v>0</v>
+      </c>
+      <c r="BJ176">
+        <v>0</v>
+      </c>
+      <c r="BK176">
+        <v>0</v>
+      </c>
+      <c r="BL176">
+        <v>0</v>
+      </c>
+      <c r="BM176">
+        <v>0</v>
+      </c>
+      <c r="BN176">
+        <v>0</v>
+      </c>
+      <c r="BO176">
+        <v>0</v>
+      </c>
+      <c r="BP176">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -589,13 +589,13 @@
     <t>['53']</t>
   </si>
   <si>
-    <t>['16', '42']</t>
-  </si>
-  <si>
     <t>['24', '39', '47']</t>
   </si>
   <si>
     <t>['45+6', '49', '65', '89']</t>
+  </si>
+  <si>
+    <t>['16', '42']</t>
   </si>
   <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
@@ -36694,7 +36694,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>7325304</v>
+        <v>7325305</v>
       </c>
       <c r="C173" t="s">
         <v>68</v>
@@ -36703,154 +36703,154 @@
         <v>69</v>
       </c>
       <c r="E173" s="2">
-        <v>45598.875</v>
+        <v>45599.3125</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G173" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H173" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I173">
         <v>2</v>
       </c>
       <c r="J173">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K173">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L173">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M173">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N173">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O173" t="s">
         <v>191</v>
       </c>
       <c r="P173" t="s">
-        <v>81</v>
+        <v>289</v>
       </c>
       <c r="Q173">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R173">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S173">
+        <v>3</v>
+      </c>
+      <c r="T173">
+        <v>1.33</v>
+      </c>
+      <c r="U173">
+        <v>3</v>
+      </c>
+      <c r="V173">
+        <v>2.45</v>
+      </c>
+      <c r="W173">
+        <v>1.48</v>
+      </c>
+      <c r="X173">
+        <v>5.5</v>
+      </c>
+      <c r="Y173">
+        <v>1.12</v>
+      </c>
+      <c r="Z173">
+        <v>2.3</v>
+      </c>
+      <c r="AA173">
         <v>3.4</v>
       </c>
-      <c r="T173">
-        <v>1.35</v>
-      </c>
-      <c r="U173">
-        <v>2.95</v>
-      </c>
-      <c r="V173">
-        <v>2.6</v>
-      </c>
-      <c r="W173">
-        <v>1.45</v>
-      </c>
-      <c r="X173">
-        <v>6</v>
-      </c>
-      <c r="Y173">
-        <v>1.11</v>
-      </c>
-      <c r="Z173">
-        <v>2.13</v>
-      </c>
-      <c r="AA173">
-        <v>3.46</v>
-      </c>
       <c r="AB173">
-        <v>3.09</v>
+        <v>2.55</v>
       </c>
       <c r="AC173">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD173">
         <v>11</v>
       </c>
       <c r="AE173">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AF173">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="AG173">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AH173">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="AI173">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AJ173">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AK173">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AL173">
         <v>1.25</v>
       </c>
       <c r="AM173">
-        <v>1.66</v>
+        <v>1.5</v>
       </c>
       <c r="AN173">
-        <v>0.88</v>
+        <v>1.24</v>
       </c>
       <c r="AO173">
-        <v>0.6899999999999999</v>
+        <v>1.47</v>
       </c>
       <c r="AP173">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ173">
-        <v>0.65</v>
+        <v>1.44</v>
       </c>
       <c r="AR173">
-        <v>1.49</v>
+        <v>1.98</v>
       </c>
       <c r="AS173">
-        <v>1.47</v>
+        <v>1.69</v>
       </c>
       <c r="AT173">
-        <v>2.96</v>
+        <v>3.67</v>
       </c>
       <c r="AU173">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AV173">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW173">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AX173">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY173">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="AZ173">
         <v>16</v>
       </c>
       <c r="BA173">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB173">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC173">
         <v>7</v>
@@ -36900,7 +36900,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>7325305</v>
+        <v>7325306</v>
       </c>
       <c r="C174" t="s">
         <v>68</v>
@@ -36909,157 +36909,157 @@
         <v>69</v>
       </c>
       <c r="E174" s="2">
-        <v>45598.875</v>
+        <v>45599.3125</v>
       </c>
       <c r="F174">
         <v>35</v>
       </c>
       <c r="G174" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H174" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I174">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+      <c r="M174">
         <v>4</v>
       </c>
-      <c r="L174">
-        <v>3</v>
-      </c>
-      <c r="M174">
-        <v>3</v>
-      </c>
       <c r="N174">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O174" t="s">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="P174" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q174">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R174">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="S174">
-        <v>3</v>
+        <v>1.62</v>
       </c>
       <c r="T174">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="U174">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="V174">
-        <v>2.45</v>
+        <v>2.01</v>
       </c>
       <c r="W174">
-        <v>1.48</v>
+        <v>1.73</v>
       </c>
       <c r="X174">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="Y174">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="Z174">
-        <v>2.3</v>
+        <v>21</v>
       </c>
       <c r="AA174">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="AB174">
-        <v>2.55</v>
+        <v>1.11</v>
       </c>
       <c r="AC174">
         <v>1.01</v>
       </c>
       <c r="AD174">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AE174">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="AF174">
-        <v>4.1</v>
+        <v>4.75</v>
       </c>
       <c r="AG174">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AH174">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AI174">
-        <v>1.53</v>
+        <v>2.25</v>
       </c>
       <c r="AJ174">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="AK174">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="AL174">
-        <v>1.25</v>
+        <v>1.04</v>
       </c>
       <c r="AM174">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="AN174">
-        <v>1.24</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AO174">
-        <v>1.47</v>
+        <v>2</v>
       </c>
       <c r="AP174">
-        <v>1.22</v>
+        <v>0.65</v>
       </c>
       <c r="AQ174">
-        <v>1.44</v>
+        <v>2.06</v>
       </c>
       <c r="AR174">
-        <v>1.98</v>
+        <v>1.26</v>
       </c>
       <c r="AS174">
-        <v>1.69</v>
+        <v>1.91</v>
       </c>
       <c r="AT174">
-        <v>3.67</v>
+        <v>3.17</v>
       </c>
       <c r="AU174">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AV174">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW174">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AX174">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY174">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="AZ174">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BA174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB174">
+        <v>4</v>
+      </c>
+      <c r="BC174">
         <v>5</v>
-      </c>
-      <c r="BC174">
-        <v>7</v>
       </c>
       <c r="BD174">
         <v>0</v>
@@ -37106,7 +37106,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>7325306</v>
+        <v>7325307</v>
       </c>
       <c r="C175" t="s">
         <v>68</v>
@@ -37115,157 +37115,157 @@
         <v>69</v>
       </c>
       <c r="E175" s="2">
-        <v>45598.875</v>
+        <v>45599.39583333334</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G175" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H175" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175">
         <v>1</v>
       </c>
       <c r="K175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L175">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M175">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N175">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O175" t="s">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="P175" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q175">
-        <v>10</v>
+        <v>2.3</v>
       </c>
       <c r="R175">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S175">
-        <v>1.62</v>
+        <v>3.75</v>
       </c>
       <c r="T175">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="U175">
-        <v>3.75</v>
+        <v>2.95</v>
       </c>
       <c r="V175">
-        <v>2.01</v>
+        <v>2.6</v>
       </c>
       <c r="W175">
-        <v>1.73</v>
+        <v>1.45</v>
       </c>
       <c r="X175">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="Y175">
-        <v>1.2</v>
+        <v>1.11</v>
       </c>
       <c r="Z175">
-        <v>21</v>
+        <v>1.76</v>
       </c>
       <c r="AA175">
-        <v>7.5</v>
+        <v>3.65</v>
       </c>
       <c r="AB175">
-        <v>1.11</v>
+        <v>3.9</v>
       </c>
       <c r="AC175">
         <v>1.01</v>
       </c>
       <c r="AD175">
+        <v>11</v>
+      </c>
+      <c r="AE175">
+        <v>1.25</v>
+      </c>
+      <c r="AF175">
+        <v>3.75</v>
+      </c>
+      <c r="AG175">
+        <v>1.73</v>
+      </c>
+      <c r="AH175">
+        <v>1.98</v>
+      </c>
+      <c r="AI175">
+        <v>1.62</v>
+      </c>
+      <c r="AJ175">
+        <v>2.2</v>
+      </c>
+      <c r="AK175">
+        <v>1.3</v>
+      </c>
+      <c r="AL175">
+        <v>1.25</v>
+      </c>
+      <c r="AM175">
+        <v>1.68</v>
+      </c>
+      <c r="AN175">
+        <v>2.29</v>
+      </c>
+      <c r="AO175">
+        <v>1.53</v>
+      </c>
+      <c r="AP175">
+        <v>2.33</v>
+      </c>
+      <c r="AQ175">
+        <v>1.44</v>
+      </c>
+      <c r="AR175">
+        <v>2.4</v>
+      </c>
+      <c r="AS175">
+        <v>1.86</v>
+      </c>
+      <c r="AT175">
+        <v>4.26</v>
+      </c>
+      <c r="AU175">
+        <v>10</v>
+      </c>
+      <c r="AV175">
+        <v>10</v>
+      </c>
+      <c r="AW175">
+        <v>3</v>
+      </c>
+      <c r="AX175">
+        <v>7</v>
+      </c>
+      <c r="AY175">
+        <v>13</v>
+      </c>
+      <c r="AZ175">
         <v>17</v>
       </c>
-      <c r="AE175">
-        <v>1.16</v>
-      </c>
-      <c r="AF175">
-        <v>4.75</v>
-      </c>
-      <c r="AG175">
-        <v>1.61</v>
-      </c>
-      <c r="AH175">
-        <v>2.18</v>
-      </c>
-      <c r="AI175">
-        <v>2.25</v>
-      </c>
-      <c r="AJ175">
-        <v>1.6</v>
-      </c>
-      <c r="AK175">
-        <v>4.5</v>
-      </c>
-      <c r="AL175">
-        <v>1.04</v>
-      </c>
-      <c r="AM175">
-        <v>1.01</v>
-      </c>
-      <c r="AN175">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AO175">
-        <v>2</v>
-      </c>
-      <c r="AP175">
-        <v>0.65</v>
-      </c>
-      <c r="AQ175">
-        <v>2.06</v>
-      </c>
-      <c r="AR175">
-        <v>1.26</v>
-      </c>
-      <c r="AS175">
-        <v>1.91</v>
-      </c>
-      <c r="AT175">
-        <v>3.17</v>
-      </c>
-      <c r="AU175">
-        <v>2</v>
-      </c>
-      <c r="AV175">
-        <v>9</v>
-      </c>
-      <c r="AW175">
-        <v>5</v>
-      </c>
-      <c r="AX175">
-        <v>9</v>
-      </c>
-      <c r="AY175">
+      <c r="BA175">
         <v>7</v>
       </c>
-      <c r="AZ175">
-        <v>18</v>
-      </c>
-      <c r="BA175">
-        <v>1</v>
-      </c>
       <c r="BB175">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC175">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BD175">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>7325307</v>
+        <v>7325304</v>
       </c>
       <c r="C176" t="s">
         <v>68</v>
@@ -37321,49 +37321,49 @@
         <v>69</v>
       </c>
       <c r="E176" s="2">
-        <v>45598.875</v>
+        <v>45599.58333333334</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G176" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H176" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K176">
         <v>2</v>
       </c>
       <c r="L176">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
         <v>2</v>
-      </c>
-      <c r="N176">
-        <v>6</v>
       </c>
       <c r="O176" t="s">
         <v>193</v>
       </c>
       <c r="P176" t="s">
-        <v>291</v>
+        <v>81</v>
       </c>
       <c r="Q176">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="R176">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="S176">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="T176">
         <v>1.35</v>
@@ -37384,16 +37384,16 @@
         <v>1.11</v>
       </c>
       <c r="Z176">
-        <v>1.76</v>
+        <v>2.13</v>
       </c>
       <c r="AA176">
-        <v>3.65</v>
+        <v>3.46</v>
       </c>
       <c r="AB176">
-        <v>3.9</v>
+        <v>3.09</v>
       </c>
       <c r="AC176">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AD176">
         <v>11</v>
@@ -37405,7 +37405,7 @@
         <v>3.75</v>
       </c>
       <c r="AG176">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="AH176">
         <v>1.98</v>
@@ -37417,61 +37417,61 @@
         <v>2.2</v>
       </c>
       <c r="AK176">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AL176">
         <v>1.25</v>
       </c>
       <c r="AM176">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="AN176">
-        <v>2.29</v>
+        <v>0.88</v>
       </c>
       <c r="AO176">
-        <v>1.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP176">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AQ176">
-        <v>1.44</v>
+        <v>0.65</v>
       </c>
       <c r="AR176">
-        <v>2.4</v>
+        <v>1.49</v>
       </c>
       <c r="AS176">
-        <v>1.86</v>
+        <v>1.47</v>
       </c>
       <c r="AT176">
-        <v>4.26</v>
+        <v>2.96</v>
       </c>
       <c r="AU176">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AV176">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AW176">
+        <v>4</v>
+      </c>
+      <c r="AX176">
+        <v>9</v>
+      </c>
+      <c r="AY176">
+        <v>8</v>
+      </c>
+      <c r="AZ176">
+        <v>16</v>
+      </c>
+      <c r="BA176">
         <v>3</v>
       </c>
-      <c r="AX176">
+      <c r="BB176">
+        <v>4</v>
+      </c>
+      <c r="BC176">
         <v>7</v>
-      </c>
-      <c r="AY176">
-        <v>13</v>
-      </c>
-      <c r="AZ176">
-        <v>17</v>
-      </c>
-      <c r="BA176">
-        <v>7</v>
-      </c>
-      <c r="BB176">
-        <v>6</v>
-      </c>
-      <c r="BC176">
-        <v>13</v>
       </c>
       <c r="BD176">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="298">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -598,6 +598,18 @@
     <t>['16', '42']</t>
   </si>
   <si>
+    <t>['21', '30', '40', '78', '84']</t>
+  </si>
+  <si>
+    <t>['5', '25', '55']</t>
+  </si>
+  <si>
+    <t>['27', '39']</t>
+  </si>
+  <si>
+    <t>['33']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -719,9 +731,6 @@
   </si>
   <si>
     <t>['85', '90+3']</t>
-  </si>
-  <si>
-    <t>['33']</t>
   </si>
   <si>
     <t>['22', '31', '42']</t>
@@ -890,6 +899,15 @@
   </si>
   <si>
     <t>['45+9', '84']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['55', '57']</t>
+  </si>
+  <si>
+    <t>['45', '51']</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1269,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP176"/>
+  <dimension ref="A1:BP181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1588,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ2">
         <v>0.22</v>
@@ -1716,7 +1734,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -2128,7 +2146,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -2209,7 +2227,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2334,7 +2352,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2621,7 +2639,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2746,7 +2764,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2827,7 +2845,7 @@
         <v>1</v>
       </c>
       <c r="AQ8">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="AR8">
         <v>1.63</v>
@@ -3030,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ9">
         <v>1.44</v>
@@ -3158,7 +3176,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -3236,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ10">
         <v>0.22</v>
@@ -3364,7 +3382,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3442,10 +3460,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ11">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR11">
         <v>1.79</v>
@@ -3570,7 +3588,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3651,7 +3669,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ12">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="AR12">
         <v>1.76</v>
@@ -3776,7 +3794,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3854,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ13">
         <v>1.44</v>
@@ -3982,7 +4000,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -4060,10 +4078,10 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4188,7 +4206,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4269,7 +4287,7 @@
         <v>1</v>
       </c>
       <c r="AQ15">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR15">
         <v>0.5</v>
@@ -4472,7 +4490,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AQ16">
         <v>1.83</v>
@@ -4681,7 +4699,7 @@
         <v>1</v>
       </c>
       <c r="AQ17">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR17">
         <v>0.95</v>
@@ -4806,7 +4824,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -5090,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ19">
         <v>0.22</v>
@@ -5630,7 +5648,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5708,10 +5726,10 @@
         <v>2</v>
       </c>
       <c r="AP22">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR22">
         <v>0.74</v>
@@ -5836,7 +5854,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5914,10 +5932,10 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ23">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="AR23">
         <v>2.56</v>
@@ -6042,7 +6060,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -6120,10 +6138,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ24">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR24">
         <v>2.63</v>
@@ -6248,7 +6266,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6326,7 +6344,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ25">
         <v>1.44</v>
@@ -6535,7 +6553,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR26">
         <v>1.42</v>
@@ -6660,7 +6678,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6741,7 +6759,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ27">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR27">
         <v>2.19</v>
@@ -6866,7 +6884,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6944,10 +6962,10 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ28">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR28">
         <v>1.8</v>
@@ -7278,7 +7296,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7484,7 +7502,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7562,7 +7580,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ31">
         <v>2.06</v>
@@ -7690,7 +7708,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7771,7 +7789,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ32">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="AR32">
         <v>1.47</v>
@@ -7896,7 +7914,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7974,7 +7992,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ33">
         <v>2.06</v>
@@ -8102,7 +8120,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -8180,10 +8198,10 @@
         <v>0.67</v>
       </c>
       <c r="AP34">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AQ34">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR34">
         <v>1.08</v>
@@ -8308,7 +8326,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8386,10 +8404,10 @@
         <v>1.33</v>
       </c>
       <c r="AP35">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR35">
         <v>2.56</v>
@@ -8595,7 +8613,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR36">
         <v>2.43</v>
@@ -8926,7 +8944,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -9004,7 +9022,7 @@
         <v>2.33</v>
       </c>
       <c r="AP38">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ38">
         <v>1.83</v>
@@ -9132,7 +9150,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -9338,7 +9356,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9544,7 +9562,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9750,7 +9768,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9831,7 +9849,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ42">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="AR42">
         <v>2.19</v>
@@ -9956,7 +9974,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -10034,7 +10052,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ43">
         <v>2.06</v>
@@ -10368,7 +10386,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q45">
         <v>4.33</v>
@@ -10652,10 +10670,10 @@
         <v>1.75</v>
       </c>
       <c r="AP46">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR46">
         <v>1.97</v>
@@ -10858,10 +10876,10 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AQ47">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR47">
         <v>1.09</v>
@@ -11064,10 +11082,10 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
+        <v>0.89</v>
+      </c>
+      <c r="AQ48">
         <v>0.9399999999999999</v>
-      </c>
-      <c r="AQ48">
-        <v>1</v>
       </c>
       <c r="AR48">
         <v>1.86</v>
@@ -11270,10 +11288,10 @@
         <v>1.25</v>
       </c>
       <c r="AP49">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ49">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR49">
         <v>2.56</v>
@@ -11476,10 +11494,10 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ50">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="AR50">
         <v>1.81</v>
@@ -11604,7 +11622,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q51">
         <v>1.73</v>
@@ -11682,10 +11700,10 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR51">
         <v>1.74</v>
@@ -11891,7 +11909,7 @@
         <v>1</v>
       </c>
       <c r="AQ52">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR52">
         <v>1.6</v>
@@ -12428,7 +12446,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12506,7 +12524,7 @@
         <v>1.17</v>
       </c>
       <c r="AP55">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AQ55">
         <v>2.06</v>
@@ -12634,7 +12652,7 @@
         <v>91</v>
       </c>
       <c r="P56" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q56">
         <v>4.75</v>
@@ -12840,7 +12858,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12918,7 +12936,7 @@
         <v>1.6</v>
       </c>
       <c r="AP57">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ57">
         <v>1.44</v>
@@ -13124,10 +13142,10 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ58">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR58">
         <v>1.96</v>
@@ -13458,7 +13476,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q60">
         <v>8.5</v>
@@ -13539,7 +13557,7 @@
         <v>1</v>
       </c>
       <c r="AQ60">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="AR60">
         <v>1.27</v>
@@ -13742,10 +13760,10 @@
         <v>0.8</v>
       </c>
       <c r="AP61">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ61">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR61">
         <v>1.78</v>
@@ -13870,7 +13888,7 @@
         <v>81</v>
       </c>
       <c r="P62" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13948,7 +13966,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ62">
         <v>1.83</v>
@@ -14076,7 +14094,7 @@
         <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q63">
         <v>1.67</v>
@@ -14157,7 +14175,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ63">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR63">
         <v>2.2</v>
@@ -14282,7 +14300,7 @@
         <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14360,7 +14378,7 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AQ64">
         <v>1.44</v>
@@ -14488,7 +14506,7 @@
         <v>122</v>
       </c>
       <c r="P65" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14569,7 +14587,7 @@
         <v>1</v>
       </c>
       <c r="AQ65">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR65">
         <v>1.14</v>
@@ -14694,7 +14712,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q66">
         <v>1.91</v>
@@ -14900,7 +14918,7 @@
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q67">
         <v>2.65</v>
@@ -14981,7 +14999,7 @@
         <v>1</v>
       </c>
       <c r="AQ67">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR67">
         <v>1.58</v>
@@ -15106,7 +15124,7 @@
         <v>124</v>
       </c>
       <c r="P68" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="Q68">
         <v>1.5</v>
@@ -15184,7 +15202,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ68">
         <v>0.22</v>
@@ -15312,7 +15330,7 @@
         <v>125</v>
       </c>
       <c r="P69" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q69">
         <v>5</v>
@@ -15518,7 +15536,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q70">
         <v>4.5</v>
@@ -15596,10 +15614,10 @@
         <v>2.57</v>
       </c>
       <c r="AP70">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ70">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="AR70">
         <v>2.27</v>
@@ -15724,7 +15742,7 @@
         <v>126</v>
       </c>
       <c r="P71" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15802,10 +15820,10 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AQ71">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR71">
         <v>1.2</v>
@@ -16008,7 +16026,7 @@
         <v>1.63</v>
       </c>
       <c r="AP72">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ72">
         <v>2.06</v>
@@ -16217,7 +16235,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ73">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR73">
         <v>2.41</v>
@@ -16420,7 +16438,7 @@
         <v>2.14</v>
       </c>
       <c r="AP74">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ74">
         <v>1.83</v>
@@ -16629,7 +16647,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ75">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR75">
         <v>1.91</v>
@@ -16754,7 +16772,7 @@
         <v>131</v>
       </c>
       <c r="P76" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -17038,7 +17056,7 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ77">
         <v>1.44</v>
@@ -17166,7 +17184,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17372,7 +17390,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q79">
         <v>1.53</v>
@@ -17453,7 +17471,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ79">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR79">
         <v>2.5</v>
@@ -17578,7 +17596,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17784,7 +17802,7 @@
         <v>81</v>
       </c>
       <c r="P81" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q81">
         <v>1.6</v>
@@ -17862,10 +17880,10 @@
         <v>0.86</v>
       </c>
       <c r="AP81">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ81">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR81">
         <v>2.16</v>
@@ -18068,10 +18086,10 @@
         <v>0.86</v>
       </c>
       <c r="AP82">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ82">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR82">
         <v>2.04</v>
@@ -18196,7 +18214,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q83">
         <v>8.5</v>
@@ -18274,10 +18292,10 @@
         <v>2.63</v>
       </c>
       <c r="AP83">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AQ83">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="AR83">
         <v>1.25</v>
@@ -18402,7 +18420,7 @@
         <v>81</v>
       </c>
       <c r="P84" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q84">
         <v>2.63</v>
@@ -18480,10 +18498,10 @@
         <v>0.57</v>
       </c>
       <c r="AP84">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ84">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR84">
         <v>1.8</v>
@@ -18686,10 +18704,10 @@
         <v>1.13</v>
       </c>
       <c r="AP85">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ85">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR85">
         <v>1.88</v>
@@ -18814,7 +18832,7 @@
         <v>81</v>
       </c>
       <c r="P86" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q86">
         <v>5.66</v>
@@ -19020,7 +19038,7 @@
         <v>137</v>
       </c>
       <c r="P87" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q87">
         <v>4.95</v>
@@ -19226,7 +19244,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q88">
         <v>2.77</v>
@@ -19307,7 +19325,7 @@
         <v>1</v>
       </c>
       <c r="AQ88">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR88">
         <v>1.27</v>
@@ -19432,7 +19450,7 @@
         <v>138</v>
       </c>
       <c r="P89" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -19510,7 +19528,7 @@
         <v>1.88</v>
       </c>
       <c r="AP89">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AQ89">
         <v>1.44</v>
@@ -19638,7 +19656,7 @@
         <v>122</v>
       </c>
       <c r="P90" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q90">
         <v>11</v>
@@ -19716,10 +19734,10 @@
         <v>2.67</v>
       </c>
       <c r="AP90">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ90">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="AR90">
         <v>1.96</v>
@@ -19844,7 +19862,7 @@
         <v>139</v>
       </c>
       <c r="P91" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q91">
         <v>1.83</v>
@@ -19922,10 +19940,10 @@
         <v>1.13</v>
       </c>
       <c r="AP91">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ91">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR91">
         <v>1.99</v>
@@ -20050,7 +20068,7 @@
         <v>140</v>
       </c>
       <c r="P92" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q92">
         <v>2.7</v>
@@ -20131,7 +20149,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ92">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR92">
         <v>1.58</v>
@@ -20256,7 +20274,7 @@
         <v>141</v>
       </c>
       <c r="P93" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q93">
         <v>2.3</v>
@@ -20540,7 +20558,7 @@
         <v>1.13</v>
       </c>
       <c r="AP94">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ94">
         <v>1.44</v>
@@ -20955,7 +20973,7 @@
         <v>1</v>
       </c>
       <c r="AQ96">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR96">
         <v>1.57</v>
@@ -21286,7 +21304,7 @@
         <v>145</v>
       </c>
       <c r="P98" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -21364,7 +21382,7 @@
         <v>1.78</v>
       </c>
       <c r="AP98">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ98">
         <v>1.83</v>
@@ -21698,7 +21716,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q100">
         <v>6</v>
@@ -21776,7 +21794,7 @@
         <v>1.7</v>
       </c>
       <c r="AP100">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AQ100">
         <v>1.83</v>
@@ -22191,7 +22209,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ102">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR102">
         <v>2.37</v>
@@ -22316,7 +22334,7 @@
         <v>147</v>
       </c>
       <c r="P103" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q103">
         <v>1.91</v>
@@ -22394,10 +22412,10 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ103">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR103">
         <v>2.14</v>
@@ -22600,7 +22618,7 @@
         <v>0.2</v>
       </c>
       <c r="AP104">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ104">
         <v>0.22</v>
@@ -22806,10 +22824,10 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ105">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR105">
         <v>2.01</v>
@@ -23015,7 +23033,7 @@
         <v>1</v>
       </c>
       <c r="AQ106">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR106">
         <v>1.5</v>
@@ -23140,7 +23158,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q107">
         <v>1.06</v>
@@ -23221,7 +23239,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ107">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR107">
         <v>2.13</v>
@@ -23346,7 +23364,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23552,7 +23570,7 @@
         <v>151</v>
       </c>
       <c r="P109" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q109">
         <v>2.2</v>
@@ -23630,7 +23648,7 @@
         <v>1.1</v>
       </c>
       <c r="AP109">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ109">
         <v>1.44</v>
@@ -23758,7 +23776,7 @@
         <v>81</v>
       </c>
       <c r="P110" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -24042,10 +24060,10 @@
         <v>2.7</v>
       </c>
       <c r="AP111">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AQ111">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="AR111">
         <v>1.13</v>
@@ -24170,7 +24188,7 @@
         <v>81</v>
       </c>
       <c r="P112" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q112">
         <v>2.88</v>
@@ -24251,7 +24269,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ112">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR112">
         <v>1.62</v>
@@ -24376,7 +24394,7 @@
         <v>152</v>
       </c>
       <c r="P113" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -24457,7 +24475,7 @@
         <v>1</v>
       </c>
       <c r="AQ113">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="AR113">
         <v>1.62</v>
@@ -24582,7 +24600,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q114">
         <v>2.1</v>
@@ -24869,7 +24887,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ115">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR115">
         <v>2.51</v>
@@ -24994,7 +25012,7 @@
         <v>155</v>
       </c>
       <c r="P116" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q116">
         <v>2.5</v>
@@ -25072,10 +25090,10 @@
         <v>0.9</v>
       </c>
       <c r="AP116">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ116">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR116">
         <v>1.74</v>
@@ -25200,7 +25218,7 @@
         <v>156</v>
       </c>
       <c r="P117" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q117">
         <v>1.91</v>
@@ -25278,10 +25296,10 @@
         <v>1.09</v>
       </c>
       <c r="AP117">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ117">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR117">
         <v>1.95</v>
@@ -25484,10 +25502,10 @@
         <v>1.18</v>
       </c>
       <c r="AP118">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ118">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR118">
         <v>2.29</v>
@@ -25690,7 +25708,7 @@
         <v>0.25</v>
       </c>
       <c r="AP119">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ119">
         <v>0.22</v>
@@ -25818,7 +25836,7 @@
         <v>81</v>
       </c>
       <c r="P120" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q120">
         <v>5.33</v>
@@ -26024,7 +26042,7 @@
         <v>81</v>
       </c>
       <c r="P121" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q121">
         <v>3.1</v>
@@ -26230,7 +26248,7 @@
         <v>153</v>
       </c>
       <c r="P122" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q122">
         <v>6.41</v>
@@ -26436,7 +26454,7 @@
         <v>104</v>
       </c>
       <c r="P123" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -26514,10 +26532,10 @@
         <v>0.91</v>
       </c>
       <c r="AP123">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AQ123">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR123">
         <v>1.09</v>
@@ -26848,7 +26866,7 @@
         <v>160</v>
       </c>
       <c r="P125" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -26926,10 +26944,10 @@
         <v>2.75</v>
       </c>
       <c r="AP125">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ125">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="AR125">
         <v>1.88</v>
@@ -27132,10 +27150,10 @@
         <v>0.83</v>
       </c>
       <c r="AP126">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ126">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR126">
         <v>1.74</v>
@@ -27260,7 +27278,7 @@
         <v>161</v>
       </c>
       <c r="P127" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q127">
         <v>3.75</v>
@@ -27338,10 +27356,10 @@
         <v>1</v>
       </c>
       <c r="AP127">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AQ127">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR127">
         <v>1.18</v>
@@ -27466,7 +27484,7 @@
         <v>162</v>
       </c>
       <c r="P128" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q128">
         <v>2.63</v>
@@ -27544,7 +27562,7 @@
         <v>1.92</v>
       </c>
       <c r="AP128">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ128">
         <v>2.06</v>
@@ -27753,7 +27771,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ129">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR129">
         <v>1.6</v>
@@ -27878,7 +27896,7 @@
         <v>163</v>
       </c>
       <c r="P130" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q130">
         <v>2.4</v>
@@ -27959,7 +27977,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ130">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR130">
         <v>2.02</v>
@@ -28084,7 +28102,7 @@
         <v>164</v>
       </c>
       <c r="P131" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -28290,7 +28308,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q132">
         <v>1.67</v>
@@ -28368,7 +28386,7 @@
         <v>0.23</v>
       </c>
       <c r="AP132">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ132">
         <v>0.22</v>
@@ -28496,7 +28514,7 @@
         <v>81</v>
       </c>
       <c r="P133" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q133">
         <v>4.75</v>
@@ -28702,7 +28720,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q134">
         <v>4.33</v>
@@ -28780,7 +28798,7 @@
         <v>1.69</v>
       </c>
       <c r="AP134">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ134">
         <v>1.44</v>
@@ -28908,7 +28926,7 @@
         <v>81</v>
       </c>
       <c r="P135" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q135">
         <v>10</v>
@@ -28989,7 +29007,7 @@
         <v>1</v>
       </c>
       <c r="AQ135">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="AR135">
         <v>1.44</v>
@@ -29114,7 +29132,7 @@
         <v>167</v>
       </c>
       <c r="P136" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q136">
         <v>7.5</v>
@@ -29398,7 +29416,7 @@
         <v>0.21</v>
       </c>
       <c r="AP137">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ137">
         <v>0.22</v>
@@ -29526,7 +29544,7 @@
         <v>169</v>
       </c>
       <c r="P138" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -29607,7 +29625,7 @@
         <v>1</v>
       </c>
       <c r="AQ138">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR138">
         <v>1.47</v>
@@ -29732,7 +29750,7 @@
         <v>170</v>
       </c>
       <c r="P139" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q139">
         <v>1.8</v>
@@ -29810,10 +29828,10 @@
         <v>1</v>
       </c>
       <c r="AP139">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ139">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR139">
         <v>2.3</v>
@@ -29938,7 +29956,7 @@
         <v>81</v>
       </c>
       <c r="P140" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q140">
         <v>4.5</v>
@@ -30016,7 +30034,7 @@
         <v>1.17</v>
       </c>
       <c r="AP140">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AQ140">
         <v>1.44</v>
@@ -30144,7 +30162,7 @@
         <v>171</v>
       </c>
       <c r="P141" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q141">
         <v>2.1</v>
@@ -30222,10 +30240,10 @@
         <v>1</v>
       </c>
       <c r="AP141">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ141">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR141">
         <v>1.87</v>
@@ -30428,10 +30446,10 @@
         <v>0.85</v>
       </c>
       <c r="AP142">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ142">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR142">
         <v>2.07</v>
@@ -30556,7 +30574,7 @@
         <v>173</v>
       </c>
       <c r="P143" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q143">
         <v>1.5</v>
@@ -30637,7 +30655,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ143">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR143">
         <v>2.46</v>
@@ -30840,7 +30858,7 @@
         <v>1.64</v>
       </c>
       <c r="AP144">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ144">
         <v>1.44</v>
@@ -30968,7 +30986,7 @@
         <v>175</v>
       </c>
       <c r="P145" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -31046,7 +31064,7 @@
         <v>1.31</v>
       </c>
       <c r="AP145">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ145">
         <v>1.44</v>
@@ -31255,7 +31273,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ146">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR146">
         <v>2.47</v>
@@ -31664,10 +31682,10 @@
         <v>0.93</v>
       </c>
       <c r="AP148">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ148">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR148">
         <v>1.91</v>
@@ -31792,7 +31810,7 @@
         <v>81</v>
       </c>
       <c r="P149" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q149">
         <v>4.4</v>
@@ -31870,7 +31888,7 @@
         <v>1.87</v>
       </c>
       <c r="AP149">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ149">
         <v>2.06</v>
@@ -31998,7 +32016,7 @@
         <v>179</v>
       </c>
       <c r="P150" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q150">
         <v>4.75</v>
@@ -32410,7 +32428,7 @@
         <v>81</v>
       </c>
       <c r="P152" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q152">
         <v>9</v>
@@ -32488,7 +32506,7 @@
         <v>1.53</v>
       </c>
       <c r="AP152">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AQ152">
         <v>1.44</v>
@@ -32616,7 +32634,7 @@
         <v>81</v>
       </c>
       <c r="P153" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q153">
         <v>6</v>
@@ -32694,10 +32712,10 @@
         <v>2.57</v>
       </c>
       <c r="AP153">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AQ153">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="AR153">
         <v>1.73</v>
@@ -32822,7 +32840,7 @@
         <v>180</v>
       </c>
       <c r="P154" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -32903,7 +32921,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ154">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR154">
         <v>1.53</v>
@@ -33028,7 +33046,7 @@
         <v>181</v>
       </c>
       <c r="P155" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q155">
         <v>3.1</v>
@@ -33106,7 +33124,7 @@
         <v>1.93</v>
       </c>
       <c r="AP155">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ155">
         <v>1.83</v>
@@ -33234,7 +33252,7 @@
         <v>182</v>
       </c>
       <c r="P156" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q156">
         <v>2.88</v>
@@ -33315,7 +33333,7 @@
         <v>1</v>
       </c>
       <c r="AQ156">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR156">
         <v>1.47</v>
@@ -33440,7 +33458,7 @@
         <v>183</v>
       </c>
       <c r="P157" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q157">
         <v>2.5</v>
@@ -33521,7 +33539,7 @@
         <v>1</v>
       </c>
       <c r="AQ157">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR157">
         <v>1.42</v>
@@ -33646,7 +33664,7 @@
         <v>81</v>
       </c>
       <c r="P158" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q158">
         <v>4.75</v>
@@ -33724,10 +33742,10 @@
         <v>0.87</v>
       </c>
       <c r="AP158">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AQ158">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR158">
         <v>1.28</v>
@@ -33852,7 +33870,7 @@
         <v>81</v>
       </c>
       <c r="P159" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q159">
         <v>8.5</v>
@@ -33933,7 +33951,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ159">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="AR159">
         <v>2.1</v>
@@ -34058,7 +34076,7 @@
         <v>184</v>
       </c>
       <c r="P160" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q160">
         <v>1.91</v>
@@ -34136,7 +34154,7 @@
         <v>1.4</v>
       </c>
       <c r="AP160">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ160">
         <v>1.44</v>
@@ -34264,7 +34282,7 @@
         <v>185</v>
       </c>
       <c r="P161" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q161">
         <v>2.5</v>
@@ -34342,7 +34360,7 @@
         <v>1.63</v>
       </c>
       <c r="AP161">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ161">
         <v>1.44</v>
@@ -34470,7 +34488,7 @@
         <v>186</v>
       </c>
       <c r="P162" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q162">
         <v>2.5</v>
@@ -34551,7 +34569,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ162">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR162">
         <v>1.99</v>
@@ -35294,7 +35312,7 @@
         <v>187</v>
       </c>
       <c r="P166" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q166">
         <v>2.88</v>
@@ -35372,7 +35390,7 @@
         <v>1.88</v>
       </c>
       <c r="AP166">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ166">
         <v>1.83</v>
@@ -35578,10 +35596,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AP167">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ167">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AR167">
         <v>1.93</v>
@@ -35784,10 +35802,10 @@
         <v>1.06</v>
       </c>
       <c r="AP168">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AQ168">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR168">
         <v>2.21</v>
@@ -36118,7 +36136,7 @@
         <v>120</v>
       </c>
       <c r="P170" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q170">
         <v>2.88</v>
@@ -36196,10 +36214,10 @@
         <v>1</v>
       </c>
       <c r="AP170">
+        <v>0.89</v>
+      </c>
+      <c r="AQ170">
         <v>0.9399999999999999</v>
-      </c>
-      <c r="AQ170">
-        <v>1</v>
       </c>
       <c r="AR170">
         <v>1.73</v>
@@ -36324,7 +36342,7 @@
         <v>81</v>
       </c>
       <c r="P171" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q171">
         <v>3.2</v>
@@ -36402,10 +36420,10 @@
         <v>2.63</v>
       </c>
       <c r="AP171">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ171">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="AR171">
         <v>2.14</v>
@@ -36530,7 +36548,7 @@
         <v>190</v>
       </c>
       <c r="P172" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q172">
         <v>4.75</v>
@@ -36736,7 +36754,7 @@
         <v>191</v>
       </c>
       <c r="P173" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -36942,7 +36960,7 @@
         <v>81</v>
       </c>
       <c r="P174" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q174">
         <v>10</v>
@@ -37020,7 +37038,7 @@
         <v>2</v>
       </c>
       <c r="AP174">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AQ174">
         <v>2.06</v>
@@ -37148,7 +37166,7 @@
         <v>192</v>
       </c>
       <c r="P175" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q175">
         <v>2.3</v>
@@ -37435,7 +37453,7 @@
         <v>1</v>
       </c>
       <c r="AQ176">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR176">
         <v>1.49</v>
@@ -37510,6 +37528,1036 @@
         <v>0</v>
       </c>
       <c r="BP176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7325308</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45605.3125</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177" t="s">
+        <v>70</v>
+      </c>
+      <c r="H177" t="s">
+        <v>73</v>
+      </c>
+      <c r="I177">
+        <v>3</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>3</v>
+      </c>
+      <c r="L177">
+        <v>5</v>
+      </c>
+      <c r="M177">
+        <v>1</v>
+      </c>
+      <c r="N177">
+        <v>6</v>
+      </c>
+      <c r="O177" t="s">
+        <v>194</v>
+      </c>
+      <c r="P177" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q177">
+        <v>1.53</v>
+      </c>
+      <c r="R177">
+        <v>2.75</v>
+      </c>
+      <c r="S177">
+        <v>11</v>
+      </c>
+      <c r="T177">
+        <v>0</v>
+      </c>
+      <c r="U177">
+        <v>0</v>
+      </c>
+      <c r="V177">
+        <v>0</v>
+      </c>
+      <c r="W177">
+        <v>0</v>
+      </c>
+      <c r="X177">
+        <v>0</v>
+      </c>
+      <c r="Y177">
+        <v>0</v>
+      </c>
+      <c r="Z177">
+        <v>1.18</v>
+      </c>
+      <c r="AA177">
+        <v>6.7</v>
+      </c>
+      <c r="AB177">
+        <v>12.2</v>
+      </c>
+      <c r="AC177">
+        <v>0</v>
+      </c>
+      <c r="AD177">
+        <v>0</v>
+      </c>
+      <c r="AE177">
+        <v>0</v>
+      </c>
+      <c r="AF177">
+        <v>0</v>
+      </c>
+      <c r="AG177">
+        <v>1.55</v>
+      </c>
+      <c r="AH177">
+        <v>2.3</v>
+      </c>
+      <c r="AI177">
+        <v>0</v>
+      </c>
+      <c r="AJ177">
+        <v>0</v>
+      </c>
+      <c r="AK177">
+        <v>0</v>
+      </c>
+      <c r="AL177">
+        <v>0</v>
+      </c>
+      <c r="AM177">
+        <v>0</v>
+      </c>
+      <c r="AN177">
+        <v>2.41</v>
+      </c>
+      <c r="AO177">
+        <v>0.65</v>
+      </c>
+      <c r="AP177">
+        <v>2.44</v>
+      </c>
+      <c r="AQ177">
+        <v>0.61</v>
+      </c>
+      <c r="AR177">
+        <v>1.96</v>
+      </c>
+      <c r="AS177">
+        <v>1.5</v>
+      </c>
+      <c r="AT177">
+        <v>3.46</v>
+      </c>
+      <c r="AU177">
+        <v>11</v>
+      </c>
+      <c r="AV177">
+        <v>3</v>
+      </c>
+      <c r="AW177">
+        <v>10</v>
+      </c>
+      <c r="AX177">
+        <v>7</v>
+      </c>
+      <c r="AY177">
+        <v>21</v>
+      </c>
+      <c r="AZ177">
+        <v>10</v>
+      </c>
+      <c r="BA177">
+        <v>10</v>
+      </c>
+      <c r="BB177">
+        <v>3</v>
+      </c>
+      <c r="BC177">
+        <v>13</v>
+      </c>
+      <c r="BD177">
+        <v>0</v>
+      </c>
+      <c r="BE177">
+        <v>0</v>
+      </c>
+      <c r="BF177">
+        <v>0</v>
+      </c>
+      <c r="BG177">
+        <v>0</v>
+      </c>
+      <c r="BH177">
+        <v>0</v>
+      </c>
+      <c r="BI177">
+        <v>0</v>
+      </c>
+      <c r="BJ177">
+        <v>0</v>
+      </c>
+      <c r="BK177">
+        <v>0</v>
+      </c>
+      <c r="BL177">
+        <v>0</v>
+      </c>
+      <c r="BM177">
+        <v>0</v>
+      </c>
+      <c r="BN177">
+        <v>0</v>
+      </c>
+      <c r="BO177">
+        <v>0</v>
+      </c>
+      <c r="BP177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7325309</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45605.3125</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178" t="s">
+        <v>77</v>
+      </c>
+      <c r="H178" t="s">
+        <v>72</v>
+      </c>
+      <c r="I178">
+        <v>2</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>2</v>
+      </c>
+      <c r="L178">
+        <v>3</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178">
+        <v>3</v>
+      </c>
+      <c r="O178" t="s">
+        <v>195</v>
+      </c>
+      <c r="P178" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q178">
+        <v>3</v>
+      </c>
+      <c r="R178">
+        <v>2.25</v>
+      </c>
+      <c r="S178">
+        <v>3</v>
+      </c>
+      <c r="T178">
+        <v>0</v>
+      </c>
+      <c r="U178">
+        <v>0</v>
+      </c>
+      <c r="V178">
+        <v>0</v>
+      </c>
+      <c r="W178">
+        <v>0</v>
+      </c>
+      <c r="X178">
+        <v>0</v>
+      </c>
+      <c r="Y178">
+        <v>0</v>
+      </c>
+      <c r="Z178">
+        <v>2.25</v>
+      </c>
+      <c r="AA178">
+        <v>3.48</v>
+      </c>
+      <c r="AB178">
+        <v>2.86</v>
+      </c>
+      <c r="AC178">
+        <v>0</v>
+      </c>
+      <c r="AD178">
+        <v>0</v>
+      </c>
+      <c r="AE178">
+        <v>0</v>
+      </c>
+      <c r="AF178">
+        <v>0</v>
+      </c>
+      <c r="AG178">
+        <v>1.74</v>
+      </c>
+      <c r="AH178">
+        <v>1.98</v>
+      </c>
+      <c r="AI178">
+        <v>0</v>
+      </c>
+      <c r="AJ178">
+        <v>0</v>
+      </c>
+      <c r="AK178">
+        <v>0</v>
+      </c>
+      <c r="AL178">
+        <v>0</v>
+      </c>
+      <c r="AM178">
+        <v>0</v>
+      </c>
+      <c r="AN178">
+        <v>1.88</v>
+      </c>
+      <c r="AO178">
+        <v>2.65</v>
+      </c>
+      <c r="AP178">
+        <v>1.94</v>
+      </c>
+      <c r="AQ178">
+        <v>2.5</v>
+      </c>
+      <c r="AR178">
+        <v>2.23</v>
+      </c>
+      <c r="AS178">
+        <v>2.26</v>
+      </c>
+      <c r="AT178">
+        <v>4.49</v>
+      </c>
+      <c r="AU178">
+        <v>12</v>
+      </c>
+      <c r="AV178">
+        <v>5</v>
+      </c>
+      <c r="AW178">
+        <v>8</v>
+      </c>
+      <c r="AX178">
+        <v>6</v>
+      </c>
+      <c r="AY178">
+        <v>20</v>
+      </c>
+      <c r="AZ178">
+        <v>11</v>
+      </c>
+      <c r="BA178">
+        <v>6</v>
+      </c>
+      <c r="BB178">
+        <v>7</v>
+      </c>
+      <c r="BC178">
+        <v>13</v>
+      </c>
+      <c r="BD178">
+        <v>0</v>
+      </c>
+      <c r="BE178">
+        <v>0</v>
+      </c>
+      <c r="BF178">
+        <v>0</v>
+      </c>
+      <c r="BG178">
+        <v>0</v>
+      </c>
+      <c r="BH178">
+        <v>0</v>
+      </c>
+      <c r="BI178">
+        <v>0</v>
+      </c>
+      <c r="BJ178">
+        <v>0</v>
+      </c>
+      <c r="BK178">
+        <v>0</v>
+      </c>
+      <c r="BL178">
+        <v>0</v>
+      </c>
+      <c r="BM178">
+        <v>0</v>
+      </c>
+      <c r="BN178">
+        <v>0</v>
+      </c>
+      <c r="BO178">
+        <v>0</v>
+      </c>
+      <c r="BP178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>7325310</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45605.3125</v>
+      </c>
+      <c r="F179">
+        <v>36</v>
+      </c>
+      <c r="G179" t="s">
+        <v>76</v>
+      </c>
+      <c r="H179" t="s">
+        <v>74</v>
+      </c>
+      <c r="I179">
+        <v>2</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>2</v>
+      </c>
+      <c r="L179">
+        <v>2</v>
+      </c>
+      <c r="M179">
+        <v>1</v>
+      </c>
+      <c r="N179">
+        <v>3</v>
+      </c>
+      <c r="O179" t="s">
+        <v>196</v>
+      </c>
+      <c r="P179" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q179">
+        <v>1.8</v>
+      </c>
+      <c r="R179">
+        <v>2.6</v>
+      </c>
+      <c r="S179">
+        <v>6</v>
+      </c>
+      <c r="T179">
+        <v>0</v>
+      </c>
+      <c r="U179">
+        <v>0</v>
+      </c>
+      <c r="V179">
+        <v>0</v>
+      </c>
+      <c r="W179">
+        <v>0</v>
+      </c>
+      <c r="X179">
+        <v>0</v>
+      </c>
+      <c r="Y179">
+        <v>0</v>
+      </c>
+      <c r="Z179">
+        <v>1.18</v>
+      </c>
+      <c r="AA179">
+        <v>6.65</v>
+      </c>
+      <c r="AB179">
+        <v>11.5</v>
+      </c>
+      <c r="AC179">
+        <v>0</v>
+      </c>
+      <c r="AD179">
+        <v>0</v>
+      </c>
+      <c r="AE179">
+        <v>0</v>
+      </c>
+      <c r="AF179">
+        <v>0</v>
+      </c>
+      <c r="AG179">
+        <v>1.44</v>
+      </c>
+      <c r="AH179">
+        <v>2.58</v>
+      </c>
+      <c r="AI179">
+        <v>0</v>
+      </c>
+      <c r="AJ179">
+        <v>0</v>
+      </c>
+      <c r="AK179">
+        <v>0</v>
+      </c>
+      <c r="AL179">
+        <v>0</v>
+      </c>
+      <c r="AM179">
+        <v>0</v>
+      </c>
+      <c r="AN179">
+        <v>2.12</v>
+      </c>
+      <c r="AO179">
+        <v>1</v>
+      </c>
+      <c r="AP179">
+        <v>2.17</v>
+      </c>
+      <c r="AQ179">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR179">
+        <v>2.11</v>
+      </c>
+      <c r="AS179">
+        <v>1.32</v>
+      </c>
+      <c r="AT179">
+        <v>3.43</v>
+      </c>
+      <c r="AU179">
+        <v>6</v>
+      </c>
+      <c r="AV179">
+        <v>3</v>
+      </c>
+      <c r="AW179">
+        <v>10</v>
+      </c>
+      <c r="AX179">
+        <v>3</v>
+      </c>
+      <c r="AY179">
+        <v>16</v>
+      </c>
+      <c r="AZ179">
+        <v>6</v>
+      </c>
+      <c r="BA179">
+        <v>9</v>
+      </c>
+      <c r="BB179">
+        <v>0</v>
+      </c>
+      <c r="BC179">
+        <v>9</v>
+      </c>
+      <c r="BD179">
+        <v>0</v>
+      </c>
+      <c r="BE179">
+        <v>0</v>
+      </c>
+      <c r="BF179">
+        <v>0</v>
+      </c>
+      <c r="BG179">
+        <v>0</v>
+      </c>
+      <c r="BH179">
+        <v>0</v>
+      </c>
+      <c r="BI179">
+        <v>0</v>
+      </c>
+      <c r="BJ179">
+        <v>0</v>
+      </c>
+      <c r="BK179">
+        <v>0</v>
+      </c>
+      <c r="BL179">
+        <v>0</v>
+      </c>
+      <c r="BM179">
+        <v>0</v>
+      </c>
+      <c r="BN179">
+        <v>0</v>
+      </c>
+      <c r="BO179">
+        <v>0</v>
+      </c>
+      <c r="BP179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>7325311</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45605.3125</v>
+      </c>
+      <c r="F180">
+        <v>36</v>
+      </c>
+      <c r="G180" t="s">
+        <v>78</v>
+      </c>
+      <c r="H180" t="s">
+        <v>71</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>2</v>
+      </c>
+      <c r="N180">
+        <v>2</v>
+      </c>
+      <c r="O180" t="s">
+        <v>81</v>
+      </c>
+      <c r="P180" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q180">
+        <v>2.63</v>
+      </c>
+      <c r="R180">
+        <v>2.38</v>
+      </c>
+      <c r="S180">
+        <v>3.4</v>
+      </c>
+      <c r="T180">
+        <v>0</v>
+      </c>
+      <c r="U180">
+        <v>0</v>
+      </c>
+      <c r="V180">
+        <v>0</v>
+      </c>
+      <c r="W180">
+        <v>0</v>
+      </c>
+      <c r="X180">
+        <v>0</v>
+      </c>
+      <c r="Y180">
+        <v>0</v>
+      </c>
+      <c r="Z180">
+        <v>2.21</v>
+      </c>
+      <c r="AA180">
+        <v>3.72</v>
+      </c>
+      <c r="AB180">
+        <v>2.77</v>
+      </c>
+      <c r="AC180">
+        <v>0</v>
+      </c>
+      <c r="AD180">
+        <v>0</v>
+      </c>
+      <c r="AE180">
+        <v>0</v>
+      </c>
+      <c r="AF180">
+        <v>0</v>
+      </c>
+      <c r="AG180">
+        <v>1.58</v>
+      </c>
+      <c r="AH180">
+        <v>2.25</v>
+      </c>
+      <c r="AI180">
+        <v>0</v>
+      </c>
+      <c r="AJ180">
+        <v>0</v>
+      </c>
+      <c r="AK180">
+        <v>0</v>
+      </c>
+      <c r="AL180">
+        <v>0</v>
+      </c>
+      <c r="AM180">
+        <v>0</v>
+      </c>
+      <c r="AN180">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AO180">
+        <v>0.76</v>
+      </c>
+      <c r="AP180">
+        <v>0.89</v>
+      </c>
+      <c r="AQ180">
+        <v>0.89</v>
+      </c>
+      <c r="AR180">
+        <v>1.74</v>
+      </c>
+      <c r="AS180">
+        <v>1.52</v>
+      </c>
+      <c r="AT180">
+        <v>3.26</v>
+      </c>
+      <c r="AU180">
+        <v>3</v>
+      </c>
+      <c r="AV180">
+        <v>9</v>
+      </c>
+      <c r="AW180">
+        <v>3</v>
+      </c>
+      <c r="AX180">
+        <v>9</v>
+      </c>
+      <c r="AY180">
+        <v>6</v>
+      </c>
+      <c r="AZ180">
+        <v>18</v>
+      </c>
+      <c r="BA180">
+        <v>4</v>
+      </c>
+      <c r="BB180">
+        <v>5</v>
+      </c>
+      <c r="BC180">
+        <v>9</v>
+      </c>
+      <c r="BD180">
+        <v>0</v>
+      </c>
+      <c r="BE180">
+        <v>0</v>
+      </c>
+      <c r="BF180">
+        <v>0</v>
+      </c>
+      <c r="BG180">
+        <v>0</v>
+      </c>
+      <c r="BH180">
+        <v>0</v>
+      </c>
+      <c r="BI180">
+        <v>0</v>
+      </c>
+      <c r="BJ180">
+        <v>0</v>
+      </c>
+      <c r="BK180">
+        <v>0</v>
+      </c>
+      <c r="BL180">
+        <v>0</v>
+      </c>
+      <c r="BM180">
+        <v>0</v>
+      </c>
+      <c r="BN180">
+        <v>0</v>
+      </c>
+      <c r="BO180">
+        <v>0</v>
+      </c>
+      <c r="BP180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>7325312</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45605.3125</v>
+      </c>
+      <c r="F181">
+        <v>36</v>
+      </c>
+      <c r="G181" t="s">
+        <v>79</v>
+      </c>
+      <c r="H181" t="s">
+        <v>75</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="J181">
+        <v>1</v>
+      </c>
+      <c r="K181">
+        <v>2</v>
+      </c>
+      <c r="L181">
+        <v>1</v>
+      </c>
+      <c r="M181">
+        <v>2</v>
+      </c>
+      <c r="N181">
+        <v>3</v>
+      </c>
+      <c r="O181" t="s">
+        <v>197</v>
+      </c>
+      <c r="P181" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q181">
+        <v>4</v>
+      </c>
+      <c r="R181">
+        <v>2.5</v>
+      </c>
+      <c r="S181">
+        <v>2.2</v>
+      </c>
+      <c r="T181">
+        <v>0</v>
+      </c>
+      <c r="U181">
+        <v>0</v>
+      </c>
+      <c r="V181">
+        <v>0</v>
+      </c>
+      <c r="W181">
+        <v>0</v>
+      </c>
+      <c r="X181">
+        <v>0</v>
+      </c>
+      <c r="Y181">
+        <v>0</v>
+      </c>
+      <c r="Z181">
+        <v>4.54</v>
+      </c>
+      <c r="AA181">
+        <v>4.15</v>
+      </c>
+      <c r="AB181">
+        <v>1.61</v>
+      </c>
+      <c r="AC181">
+        <v>0</v>
+      </c>
+      <c r="AD181">
+        <v>0</v>
+      </c>
+      <c r="AE181">
+        <v>0</v>
+      </c>
+      <c r="AF181">
+        <v>0</v>
+      </c>
+      <c r="AG181">
+        <v>1.55</v>
+      </c>
+      <c r="AH181">
+        <v>2.35</v>
+      </c>
+      <c r="AI181">
+        <v>0</v>
+      </c>
+      <c r="AJ181">
+        <v>0</v>
+      </c>
+      <c r="AK181">
+        <v>0</v>
+      </c>
+      <c r="AL181">
+        <v>0</v>
+      </c>
+      <c r="AM181">
+        <v>0</v>
+      </c>
+      <c r="AN181">
+        <v>0.65</v>
+      </c>
+      <c r="AO181">
+        <v>1</v>
+      </c>
+      <c r="AP181">
+        <v>0.61</v>
+      </c>
+      <c r="AQ181">
+        <v>1.11</v>
+      </c>
+      <c r="AR181">
+        <v>1.24</v>
+      </c>
+      <c r="AS181">
+        <v>1.62</v>
+      </c>
+      <c r="AT181">
+        <v>2.86</v>
+      </c>
+      <c r="AU181">
+        <v>3</v>
+      </c>
+      <c r="AV181">
+        <v>9</v>
+      </c>
+      <c r="AW181">
+        <v>4</v>
+      </c>
+      <c r="AX181">
+        <v>16</v>
+      </c>
+      <c r="AY181">
+        <v>7</v>
+      </c>
+      <c r="AZ181">
+        <v>25</v>
+      </c>
+      <c r="BA181">
+        <v>3</v>
+      </c>
+      <c r="BB181">
+        <v>9</v>
+      </c>
+      <c r="BC181">
+        <v>12</v>
+      </c>
+      <c r="BD181">
+        <v>0</v>
+      </c>
+      <c r="BE181">
+        <v>0</v>
+      </c>
+      <c r="BF181">
+        <v>0</v>
+      </c>
+      <c r="BG181">
+        <v>0</v>
+      </c>
+      <c r="BH181">
+        <v>0</v>
+      </c>
+      <c r="BI181">
+        <v>0</v>
+      </c>
+      <c r="BJ181">
+        <v>0</v>
+      </c>
+      <c r="BK181">
+        <v>0</v>
+      </c>
+      <c r="BL181">
+        <v>0</v>
+      </c>
+      <c r="BM181">
+        <v>0</v>
+      </c>
+      <c r="BN181">
+        <v>0</v>
+      </c>
+      <c r="BO181">
+        <v>0</v>
+      </c>
+      <c r="BP181">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -37548,7 +37548,7 @@
         <v>45605.3125</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G177" t="s">
         <v>70</v>
@@ -37754,7 +37754,7 @@
         <v>45605.3125</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G178" t="s">
         <v>77</v>
@@ -38166,7 +38166,7 @@
         <v>45605.3125</v>
       </c>
       <c r="F180">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G180" t="s">
         <v>78</v>
